--- a/网站相关/data.xlsx
+++ b/网站相关/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3548" uniqueCount="1184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4063" uniqueCount="1349">
   <si>
     <t>主键</t>
   </si>
@@ -3545,9 +3545,15 @@
     <t>2.9篮板5.3助攻0.75抢断0.12盖帽20.2分</t>
   </si>
   <si>
+    <t>2016-17赛季最佳第六人（球员工会评选）</t>
+  </si>
+  <si>
     <t>2.5篮板5.3助攻1.08抢断0.24盖帽22.6分</t>
   </si>
   <si>
+    <t>2014-15赛季最佳第六人</t>
+  </si>
+  <si>
     <t>3.0篮板2.4助攻0.65抢断0.39盖帽14.9分</t>
   </si>
   <si>
@@ -3585,6 +3591,495 @@
   </si>
   <si>
     <t>0.6篮板0.3助攻0.17抢断0盖帽1.9分</t>
+  </si>
+  <si>
+    <t>2015年第2轮第2顺位</t>
+  </si>
+  <si>
+    <t>6.7篮板1.8助攻0.89抢断1.39盖帽16.6分</t>
+  </si>
+  <si>
+    <t>4.0篮板1.0助攻0.47抢断0.68盖帽11.0分</t>
+  </si>
+  <si>
+    <t>3.8篮板1.1助攻0.34抢断0.72盖帽9.1分</t>
+  </si>
+  <si>
+    <t>1.7篮板0.4助攻0.28抢断0.28盖帽3.6分</t>
+  </si>
+  <si>
+    <t>2009年第2轮第12顺位</t>
+  </si>
+  <si>
+    <t>4年2303万美元，2015年夏天签，2019年夏天到期</t>
+  </si>
+  <si>
+    <t>5.0篮板3.8助攻0.89抢断0.55盖帽7.6分</t>
+  </si>
+  <si>
+    <t>2016-17赛季NBA佳防守阵容第一阵容</t>
+  </si>
+  <si>
+    <t>4.1篮板2.9助攻1.64抢断0.45盖帽12.2分</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015年全明星技巧挑战赛冠军 </t>
+  </si>
+  <si>
+    <t>5.9篮板4.2助攻1.48抢断0.37盖帽9.5分</t>
+  </si>
+  <si>
+    <t>2013-14赛季NBA佳防守阵容第一阵容</t>
+  </si>
+  <si>
+    <t>3.5篮板3.4助攻1.32抢断0.37盖帽9.9分</t>
+  </si>
+  <si>
+    <t>4.2篮板3.4助攻1.05抢断0.41盖帽10.1分</t>
+  </si>
+  <si>
+    <t>3.5篮板2.7助攻1.38抢断0.41盖帽10.2分</t>
+  </si>
+  <si>
+    <t>2.7篮板2.9助攻0.90抢断0.51盖帽5.6分</t>
+  </si>
+  <si>
+    <t>2018年第1轮第11顺位</t>
+  </si>
+  <si>
+    <t>4年1696万美元，2018年夏天签，2022年夏天到期</t>
+  </si>
+  <si>
+    <t>2.7篮板3.2助攻1.1抢断0.5盖帽10.4分</t>
+  </si>
+  <si>
+    <t>2016年第2轮第2顺位</t>
+  </si>
+  <si>
+    <t>3年324万美元，2016年夏天签，2019年夏天到期</t>
+  </si>
+  <si>
+    <t>8.0篮板1.7助攻0.22抢断0.94盖帽9.0分</t>
+  </si>
+  <si>
+    <t>4.9篮板0.8助攻0.12抢断0.82盖帽8.5分</t>
+  </si>
+  <si>
+    <t>2.9篮板0.6助攻0.19抢断0.35盖帽3.7分</t>
+  </si>
+  <si>
+    <t>4.2篮板0.8助攻0.37抢断0.87盖帽7.5分</t>
+  </si>
+  <si>
+    <t>2012年第1轮第7顺位</t>
+  </si>
+  <si>
+    <t>4年9400万美元，2016年夏天签，2020年夏天到期</t>
+  </si>
+  <si>
+    <t>6.2篮板2.1助攻0.79抢断0.05盖帽14.9分</t>
+  </si>
+  <si>
+    <t>4.2篮板1.3助攻0.69抢断0.23盖帽17.8分</t>
+  </si>
+  <si>
+    <t>2012-13赛季最佳新秀阵容第一阵容</t>
+  </si>
+  <si>
+    <t>6.1篮板2.0助攻0.64抢断0.18盖帽18.9分</t>
+  </si>
+  <si>
+    <t>5.0篮板1.5助攻0.82抢断0.19盖帽19.2分</t>
+  </si>
+  <si>
+    <t>4.9篮板1.8助攻0.62抢断0.15盖帽11.7分</t>
+  </si>
+  <si>
+    <t>5.5篮板1.4助攻0.74抢断0.23盖帽10.1分</t>
+  </si>
+  <si>
+    <t>4.0篮板1.5助攻0.83抢断0.26盖帽9.5分</t>
+  </si>
+  <si>
+    <t>4.1篮板1.2助攻0.64抢断0.17盖帽9.2分</t>
+  </si>
+  <si>
+    <t>2014年第1轮第27顺位</t>
+  </si>
+  <si>
+    <t>3年2700万美元，2017年夏天签，2020年夏天到期</t>
+  </si>
+  <si>
+    <t>3.5篮板3.8助攻1.07抢断0.23盖帽14.0分</t>
+  </si>
+  <si>
+    <t>2.9篮板3.3助攻0.92抢断0.21盖帽11.8分</t>
+  </si>
+  <si>
+    <t>2018年第1轮第2顺位</t>
+  </si>
+  <si>
+    <t>4年3613万美元，2018年夏天签，2022年夏天到期</t>
+  </si>
+  <si>
+    <t>7.4篮板1助攻0.6抢断1盖帽14.7分</t>
+  </si>
+  <si>
+    <t>2017年第1轮第5顺位</t>
+  </si>
+  <si>
+    <t>4年2457万美元，2017年夏天签，2021年夏天到期</t>
+  </si>
+  <si>
+    <t>3.8篮板7.2助攻1.69抢断0.56盖帽17.4分</t>
+  </si>
+  <si>
+    <t>2.8篮板4.4助攻0.96抢断0.27盖帽11.6分</t>
+  </si>
+  <si>
+    <t>2016年第1轮第6顺位</t>
+  </si>
+  <si>
+    <t>4年1589万美元，2016年夏天签，2020年夏天到期</t>
+  </si>
+  <si>
+    <t>5.2篮板2.5助攻0.68抢断0.40盖帽20.9分</t>
+  </si>
+  <si>
+    <t>3.8篮板1.9助攻1.06抢断0.28盖帽13.5分</t>
+  </si>
+  <si>
+    <t>4.1篮板1.8助攻0.80抢断0.08盖帽15.1分</t>
+  </si>
+  <si>
+    <t>2.9篮板1.4助攻0.32抢断0.12盖帽8.6分</t>
+  </si>
+  <si>
+    <t>2003年第1轮第1顺位</t>
+  </si>
+  <si>
+    <t>4年1.53亿美元，2018年夏天签，2022年夏天到期，2021-22赛季球员选项</t>
+  </si>
+  <si>
+    <t>8.6篮板8.1助攻1.34抢断0.62盖帽27.5分</t>
+  </si>
+  <si>
+    <t>2011-2012NBA总冠军</t>
+  </si>
+  <si>
+    <t>克里夫兰骑士</t>
+  </si>
+  <si>
+    <t>8.6篮板9.1助攻1.41抢断0.87盖帽27.5分</t>
+  </si>
+  <si>
+    <t>2012-2013NBA总冠军</t>
+  </si>
+  <si>
+    <t>8.6篮板8.7助攻1.24抢断0.59盖帽26.4分</t>
+  </si>
+  <si>
+    <t>2015-2016NBA总冠军</t>
+  </si>
+  <si>
+    <t>7.4篮板6.8助攻1.37抢断0.64盖帽25.3分</t>
+  </si>
+  <si>
+    <t>2011-2012FMVP</t>
+  </si>
+  <si>
+    <t>6.0篮板7.4助攻1.58抢断0.71盖帽25.3分</t>
+  </si>
+  <si>
+    <t>2012-2013FMVP</t>
+  </si>
+  <si>
+    <t>6.9篮板6.3助攻1.57抢断0.34盖帽27.1分</t>
+  </si>
+  <si>
+    <t>2015-2016FMVP</t>
+  </si>
+  <si>
+    <t>8.0篮板7.2助攻1.70抢断0.88盖帽26.8分</t>
+  </si>
+  <si>
+    <t>2011-2012MVP</t>
+  </si>
+  <si>
+    <t>7.9篮板6.2助攻1.85抢断0.81盖帽27.1分</t>
+  </si>
+  <si>
+    <t>2012-2013MVP</t>
+  </si>
+  <si>
+    <t>7.5篮板7.0助攻1.57抢断0.63盖帽26.7分</t>
+  </si>
+  <si>
+    <t>2008-2009mvp</t>
+  </si>
+  <si>
+    <t>7.3篮板8.6助攻1.64抢断1.01盖帽29.7分</t>
+  </si>
+  <si>
+    <t>2009-2010MVP</t>
+  </si>
+  <si>
+    <t>7.6篮板7.2助攻1.69抢断1.15盖帽28.4分</t>
+  </si>
+  <si>
+    <t>2005年至2019全明星首发</t>
+  </si>
+  <si>
+    <t>7.9篮板7.2助攻1.84抢断1.08盖帽30.0分</t>
+  </si>
+  <si>
+    <t>2004年最佳新秀</t>
+  </si>
+  <si>
+    <t>6.7篮板6.0助攻1.60抢断0.71盖帽27.3分</t>
+  </si>
+  <si>
+    <t>2004年最佳新秀一阵</t>
+  </si>
+  <si>
+    <t>7.0篮板6.6助攻1.56抢断0.84盖帽31.4分</t>
+  </si>
+  <si>
+    <t>2006年、2008年至2018年入选最佳阵容一阵</t>
+  </si>
+  <si>
+    <t>7.3篮板7.2助攻2.21抢断0.65盖帽27.2分</t>
+  </si>
+  <si>
+    <t>2005年、2007年NBA最佳阵容二阵</t>
+  </si>
+  <si>
+    <t>5.5篮板5.9助攻1.65抢断0.73盖帽20.9分</t>
+  </si>
+  <si>
+    <t>2009年至2013年最佳防守阵容一阵</t>
+  </si>
+  <si>
+    <t>2007-2008得分王</t>
+  </si>
+  <si>
+    <t>34次月最佳</t>
+  </si>
+  <si>
+    <t>56次周最佳</t>
+  </si>
+  <si>
+    <t>多项NBA史上最年轻纪录保持者</t>
+  </si>
+  <si>
+    <t>2012年、2013年、2016年ESPY最佳男运动员</t>
+  </si>
+  <si>
+    <t>2007、2009、2012、2013、2016、2018年ESPY最佳NBA球员</t>
+  </si>
+  <si>
+    <t>2012、2013、2015、2016年ESPY体育奖最佳冠军表现奖</t>
+  </si>
+  <si>
+    <t>20次《体育画报》的封面人物</t>
+  </si>
+  <si>
+    <t>2012年、2016年《体育画报》年度最佳运动员</t>
+  </si>
+  <si>
+    <t>2013年、2016年美联社最佳男运动员</t>
+  </si>
+  <si>
+    <t>2017年杰基罗宾逊体育奖</t>
+  </si>
+  <si>
+    <t>2017年肯尼迪公民奖</t>
+  </si>
+  <si>
+    <t>2016年第1轮第2顺位</t>
+  </si>
+  <si>
+    <t>4年2382万美元，2016年夏天签，2020年夏天到期，2018-19赛季、2019-20赛季球队选项</t>
+  </si>
+  <si>
+    <t>5.1篮板3.0助攻0.54抢断0.60盖帽18.3分</t>
+  </si>
+  <si>
+    <t>2016-17赛季最佳新秀阵容第二阵容</t>
+  </si>
+  <si>
+    <t>5.3篮板3.9助攻0.76抢断0.73盖帽16.1分</t>
+  </si>
+  <si>
+    <t>4.0篮板2.1助攻0.63抢断0.46盖帽9.4分</t>
+  </si>
+  <si>
+    <t>2017年第1轮第27顺位</t>
+  </si>
+  <si>
+    <t>4年874万美元，2017年夏天签，2021年夏天到期，2019-20、2020-21赛季球队选项</t>
+  </si>
+  <si>
+    <t>5.6篮板2.6助攻0.60抢断0.36盖帽18.7分</t>
+  </si>
+  <si>
+    <t>2017-18赛季NBA最佳新秀阵容一阵</t>
+  </si>
+  <si>
+    <t>6.3篮板1.8助攻0.64抢断0.44盖帽16.1分</t>
+  </si>
+  <si>
+    <t>2018-2019新秀赛MVP</t>
+  </si>
+  <si>
+    <t>2017年第1轮第2顺位</t>
+  </si>
+  <si>
+    <t>4年3347万美元，2017年夏天签，2021年夏天到期，2019-20、2020-21赛季球队选项</t>
+  </si>
+  <si>
+    <t>5.3篮板5.4助攻1.47抢断0.40盖帽9.9分</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2017-18赛季NBA最佳新秀二阵</t>
+  </si>
+  <si>
+    <t>6.9篮板7.2助攻1.69抢断0.83盖帽10.2分</t>
+  </si>
+  <si>
+    <t>2006年第1轮第21顺位</t>
+  </si>
+  <si>
+    <t>1年900万美元，2018年夏天签，2019年夏天到期</t>
+  </si>
+  <si>
+    <t>5.2篮板7.7助攻1.08抢断0.15盖帽8.9分</t>
+  </si>
+  <si>
+    <t>2013NBA最佳防守阵容第三阵容</t>
+  </si>
+  <si>
+    <t>4.0篮板8.2助攻1.08抢断0.15盖帽8.3分</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008NBA总冠军 </t>
+  </si>
+  <si>
+    <t>5.1篮板6.7助攻1.43抢断0.16盖帽7.8分</t>
+  </si>
+  <si>
+    <t>2012    NBA最佳防守阵容第二阵容</t>
+  </si>
+  <si>
+    <t>6.0篮板11.7助攻1.96抢断0.14盖帽11.9分</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2011    NBA最佳防守阵容第一阵容 </t>
+  </si>
+  <si>
+    <t>4.5篮板6.5助攻1.17抢断0.09盖帽9.3分</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010    NBA最佳防守阵容第一阵容 </t>
+  </si>
+  <si>
+    <t>7.5篮板10.8助攻1.68抢断0.14盖帽8.3分</t>
+  </si>
+  <si>
+    <t>2009    NBA最佳防守阵容第二阵容</t>
+  </si>
+  <si>
+    <t>5.5篮板9.8助攻1.33抢断0.07盖帽undefined分</t>
+  </si>
+  <si>
+    <t>2007    NBA最佳新秀阵容第二阵容</t>
+  </si>
+  <si>
+    <t>5.6篮板11.1助攻1.84抢断0.24盖帽13.7分</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2016    NBA助攻王</t>
+  </si>
+  <si>
+    <t>4.8篮板11.7助攻1.79抢断0.06盖帽11.9分</t>
+  </si>
+  <si>
+    <t>2013    NBA助攻王</t>
+  </si>
+  <si>
+    <t>4.4篮板11.2助攻2.25抢断0.16盖帽10.6分</t>
+  </si>
+  <si>
+    <t>2012    NBA助攻王</t>
+  </si>
+  <si>
+    <t>4.4篮板9.8助攻2.33抢断0.14盖帽13.7分</t>
+  </si>
+  <si>
+    <t>2010    NBA抢断王</t>
+  </si>
+  <si>
+    <t>5.2篮板8.2助攻1.86抢断0.14盖帽11.9分</t>
+  </si>
+  <si>
+    <t>2013    东部全明星</t>
+  </si>
+  <si>
+    <t>4.2篮板5.1助攻1.68抢断0.17盖帽10.6分</t>
+  </si>
+  <si>
+    <t>2011    东部全明星</t>
+  </si>
+  <si>
+    <t>3.7篮板3.8助攻1.64抢断0.10盖帽6.4分</t>
+  </si>
+  <si>
+    <t>2010    东部全明星</t>
+  </si>
+  <si>
+    <t>2008年第1轮第18顺位</t>
+  </si>
+  <si>
+    <t>1年239万美元，2018年夏天签，2019年夏天到期</t>
+  </si>
+  <si>
+    <t>7.1篮板0.6助攻0.64抢断1.97盖帽11.5分</t>
+  </si>
+  <si>
+    <t>2.6篮板0.5助攻0.32抢断0.88盖帽4.8分</t>
+  </si>
+  <si>
+    <t>3.2篮板0.2助攻0.25抢断0.87盖帽6.1分</t>
+  </si>
+  <si>
+    <t>3.9篮板0.1助攻0.15抢断0.76盖帽5.1分</t>
+  </si>
+  <si>
+    <t>2.2篮板0.3助攻0抢断0.17盖帽3.0分</t>
+  </si>
+  <si>
+    <t>2.8篮板0.1助攻0.12抢断1.12盖帽5.2分</t>
+  </si>
+  <si>
+    <t>3.4篮板0.4助攻0.20抢断1.40盖帽7.0分</t>
+  </si>
+  <si>
+    <t>4.8篮板0.3助攻0.38抢断1.99盖帽9.1分</t>
+  </si>
+  <si>
+    <t>5.8篮板0.3助攻0.50抢断1.55盖帽10.2分</t>
+  </si>
+  <si>
+    <t>8.8篮板0.6助攻0.61抢断2.46盖帽11.9分</t>
+  </si>
+  <si>
+    <t>8.0篮板0.5助攻0.52抢断2.44盖帽10.1分</t>
+  </si>
+  <si>
+    <t>4.0篮板0.2助攻0.27抢断1.68盖帽6.4分</t>
+  </si>
+  <si>
+    <t>3.9篮板0.3助攻0.44抢断1盖帽6.5分</t>
   </si>
 </sst>
 </file>
@@ -3592,12 +4087,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3671,6 +4166,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <u/>
       <sz val="9"/>
@@ -3688,7 +4190,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3710,21 +4212,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3732,15 +4227,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3770,6 +4257,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -3785,6 +4287,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -3793,23 +4302,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3836,6 +4338,132 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3848,55 +4476,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3908,67 +4506,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3980,43 +4518,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4244,6 +4746,30 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -4262,16 +4788,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4283,6 +4800,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4305,38 +4837,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4348,10 +4850,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4360,19 +4862,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4381,116 +4883,116 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4602,29 +5104,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4633,7 +5127,7 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7890,7 +8384,7 @@
       <c r="C192" t="s">
         <v>227</v>
       </c>
-      <c r="J192" s="45" t="s">
+      <c r="J192" s="43" t="s">
         <v>233</v>
       </c>
     </row>
@@ -8126,7 +8620,7 @@
       <c r="C208" t="s">
         <v>243</v>
       </c>
-      <c r="J208" s="47" t="s">
+      <c r="J208" s="45" t="s">
         <v>251</v>
       </c>
     </row>
@@ -8244,7 +8738,7 @@
       <c r="E216">
         <v>18</v>
       </c>
-      <c r="F216" s="46">
+      <c r="F216" s="44">
         <v>0.743</v>
       </c>
       <c r="G216" t="s">
@@ -8640,7 +9134,7 @@
       <c r="C243" t="s">
         <v>276</v>
       </c>
-      <c r="J243" s="48" t="s">
+      <c r="J243" s="46" t="s">
         <v>289</v>
       </c>
     </row>
@@ -8722,7 +9216,7 @@
       <c r="C248" t="s">
         <v>299</v>
       </c>
-      <c r="J248" s="45" t="s">
+      <c r="J248" s="43" t="s">
         <v>300</v>
       </c>
     </row>
@@ -8820,7 +9314,7 @@
       <c r="C255" t="s">
         <v>313</v>
       </c>
-      <c r="J255" s="45" t="s">
+      <c r="J255" s="43" t="s">
         <v>314</v>
       </c>
     </row>
@@ -8834,7 +9328,7 @@
       <c r="C256" t="s">
         <v>315</v>
       </c>
-      <c r="J256" s="45" t="s">
+      <c r="J256" s="43" t="s">
         <v>316</v>
       </c>
     </row>
@@ -9194,7 +9688,7 @@
       <c r="C280" t="s">
         <v>336</v>
       </c>
-      <c r="J280" s="45" t="s">
+      <c r="J280" s="43" t="s">
         <v>344</v>
       </c>
     </row>
@@ -9402,7 +9896,7 @@
       <c r="C294" t="s">
         <v>351</v>
       </c>
-      <c r="J294" s="45" t="s">
+      <c r="J294" s="43" t="s">
         <v>359</v>
       </c>
     </row>
@@ -11398,10 +11892,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X419"/>
+  <dimension ref="A1:X510"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A391" workbookViewId="0">
-      <selection activeCell="A415" sqref="A415:A419"/>
+    <sheetView tabSelected="1" topLeftCell="A483" workbookViewId="0">
+      <selection activeCell="A510" sqref="$A510:$XFD510"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -23364,7 +23858,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="328" ht="14.25" spans="1:23">
+    <row r="328" spans="1:23">
       <c r="A328">
         <v>303</v>
       </c>
@@ -23378,7 +23872,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="329" ht="14.25" spans="1:23">
+    <row r="329" spans="1:23">
       <c r="A329">
         <v>304</v>
       </c>
@@ -23432,25 +23926,25 @@
       <c r="M330" t="s">
         <v>1067</v>
       </c>
-      <c r="N330" s="37" t="s">
+      <c r="N330" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="O330" s="38" t="s">
+      <c r="O330" s="12" t="s">
         <v>593</v>
       </c>
-      <c r="P330" s="37">
+      <c r="P330" s="11">
         <v>1823</v>
       </c>
-      <c r="Q330" s="37">
+      <c r="Q330" s="11">
         <v>443</v>
       </c>
-      <c r="R330" s="37">
+      <c r="R330" s="11">
         <v>51</v>
       </c>
-      <c r="S330" s="37">
+      <c r="S330" s="11">
         <v>380</v>
       </c>
-      <c r="T330" s="37">
+      <c r="T330" s="11">
         <v>75</v>
       </c>
       <c r="U330" t="s">
@@ -23470,25 +23964,25 @@
       <c r="C331" t="s">
         <v>106</v>
       </c>
-      <c r="N331" s="37" t="s">
+      <c r="N331" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="O331" s="38" t="s">
+      <c r="O331" s="12" t="s">
         <v>589</v>
       </c>
-      <c r="P331" s="37">
+      <c r="P331" s="11">
         <v>1792</v>
       </c>
-      <c r="Q331" s="37">
+      <c r="Q331" s="11">
         <v>464</v>
       </c>
-      <c r="R331" s="37">
+      <c r="R331" s="11">
         <v>50</v>
       </c>
-      <c r="S331" s="37">
+      <c r="S331" s="11">
         <v>366</v>
       </c>
-      <c r="T331" s="37">
+      <c r="T331" s="11">
         <v>119</v>
       </c>
       <c r="U331" t="s">
@@ -23508,25 +24002,25 @@
       <c r="C332" t="s">
         <v>106</v>
       </c>
-      <c r="N332" s="37" t="s">
+      <c r="N332" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="O332" s="38" t="s">
+      <c r="O332" s="12" t="s">
         <v>586</v>
       </c>
-      <c r="P332" s="37">
+      <c r="P332" s="11">
         <v>1555</v>
       </c>
-      <c r="Q332" s="37">
+      <c r="Q332" s="11">
         <v>513</v>
       </c>
-      <c r="R332" s="37">
+      <c r="R332" s="11">
         <v>66</v>
       </c>
-      <c r="S332" s="37">
+      <c r="S332" s="11">
         <v>300</v>
       </c>
-      <c r="T332" s="37">
+      <c r="T332" s="11">
         <v>99</v>
       </c>
       <c r="U332" t="s">
@@ -23546,25 +24040,25 @@
       <c r="C333" t="s">
         <v>106</v>
       </c>
-      <c r="N333" s="37" t="s">
+      <c r="N333" s="11" t="s">
         <v>697</v>
       </c>
-      <c r="O333" s="38" t="s">
+      <c r="O333" s="12" t="s">
         <v>583</v>
       </c>
-      <c r="P333" s="37">
+      <c r="P333" s="11">
         <v>2029</v>
       </c>
-      <c r="Q333" s="37">
+      <c r="Q333" s="11">
         <v>589</v>
       </c>
-      <c r="R333" s="37">
+      <c r="R333" s="11">
         <v>69</v>
       </c>
-      <c r="S333" s="37">
+      <c r="S333" s="11">
         <v>361</v>
       </c>
-      <c r="T333" s="37">
+      <c r="T333" s="11">
         <v>85</v>
       </c>
       <c r="U333" t="s">
@@ -23584,25 +24078,25 @@
       <c r="C334" t="s">
         <v>106</v>
       </c>
-      <c r="N334" s="37" t="s">
+      <c r="N334" s="11" t="s">
         <v>697</v>
       </c>
-      <c r="O334" s="38" t="s">
+      <c r="O334" s="12" t="s">
         <v>581</v>
       </c>
-      <c r="P334" s="37">
+      <c r="P334" s="11">
         <v>686</v>
       </c>
-      <c r="Q334" s="37">
+      <c r="Q334" s="11">
         <v>178</v>
       </c>
-      <c r="R334" s="37">
+      <c r="R334" s="11">
         <v>24</v>
       </c>
-      <c r="S334" s="37">
+      <c r="S334" s="11">
         <v>110</v>
       </c>
-      <c r="T334" s="37">
+      <c r="T334" s="11">
         <v>25</v>
       </c>
       <c r="U334" t="s">
@@ -23622,25 +24116,25 @@
       <c r="C335" t="s">
         <v>106</v>
       </c>
-      <c r="N335" s="37" t="s">
+      <c r="N335" s="11" t="s">
         <v>697</v>
       </c>
-      <c r="O335" s="38" t="s">
+      <c r="O335" s="12" t="s">
         <v>579</v>
       </c>
-      <c r="P335" s="37">
+      <c r="P335" s="11">
         <v>2593</v>
       </c>
-      <c r="Q335" s="37">
+      <c r="Q335" s="11">
         <v>598</v>
       </c>
-      <c r="R335" s="37">
+      <c r="R335" s="11">
         <v>103</v>
       </c>
-      <c r="S335" s="37">
+      <c r="S335" s="11">
         <v>445</v>
       </c>
-      <c r="T335" s="37">
+      <c r="T335" s="11">
         <v>59</v>
       </c>
       <c r="U335" t="s">
@@ -23660,25 +24154,25 @@
       <c r="C336" t="s">
         <v>106</v>
       </c>
-      <c r="N336" s="37" t="s">
+      <c r="N336" s="11" t="s">
         <v>697</v>
       </c>
-      <c r="O336" s="38" t="s">
+      <c r="O336" s="12" t="s">
         <v>577</v>
       </c>
-      <c r="P336" s="37">
+      <c r="P336" s="11">
         <v>2280</v>
       </c>
-      <c r="Q336" s="37">
+      <c r="Q336" s="11">
         <v>640</v>
       </c>
-      <c r="R336" s="37">
+      <c r="R336" s="11">
         <v>116</v>
       </c>
-      <c r="S336" s="37">
+      <c r="S336" s="11">
         <v>374</v>
       </c>
-      <c r="T336" s="37">
+      <c r="T336" s="11">
         <v>105</v>
       </c>
       <c r="U336" t="s">
@@ -23698,25 +24192,25 @@
       <c r="C337" t="s">
         <v>106</v>
       </c>
-      <c r="N337" s="37" t="s">
+      <c r="N337" s="11" t="s">
         <v>697</v>
       </c>
-      <c r="O337" s="38" t="s">
+      <c r="O337" s="12" t="s">
         <v>575</v>
       </c>
-      <c r="P337" s="37">
+      <c r="P337" s="11">
         <v>1850</v>
       </c>
-      <c r="Q337" s="37">
+      <c r="Q337" s="11">
         <v>527</v>
       </c>
-      <c r="R337" s="37">
+      <c r="R337" s="11">
         <v>88</v>
       </c>
-      <c r="S337" s="37">
+      <c r="S337" s="11">
         <v>231</v>
       </c>
-      <c r="T337" s="37">
+      <c r="T337" s="11">
         <v>77</v>
       </c>
       <c r="U337" t="s">
@@ -23736,25 +24230,25 @@
       <c r="C338" t="s">
         <v>106</v>
       </c>
-      <c r="N338" s="37" t="s">
+      <c r="N338" s="11" t="s">
         <v>697</v>
       </c>
-      <c r="O338" s="38" t="s">
+      <c r="O338" s="12" t="s">
         <v>572</v>
       </c>
-      <c r="P338" s="37">
+      <c r="P338" s="11">
         <v>2161</v>
       </c>
-      <c r="Q338" s="37">
+      <c r="Q338" s="11">
         <v>533</v>
       </c>
-      <c r="R338" s="37">
+      <c r="R338" s="11">
         <v>88</v>
       </c>
-      <c r="S338" s="37">
+      <c r="S338" s="11">
         <v>214</v>
       </c>
-      <c r="T338" s="37">
+      <c r="T338" s="11">
         <v>76</v>
       </c>
       <c r="U338" t="s">
@@ -23774,25 +24268,25 @@
       <c r="C339" t="s">
         <v>106</v>
       </c>
-      <c r="N339" s="37" t="s">
+      <c r="N339" s="11" t="s">
         <v>697</v>
       </c>
-      <c r="O339" s="38" t="s">
+      <c r="O339" s="12" t="s">
         <v>570</v>
       </c>
-      <c r="P339" s="37">
+      <c r="P339" s="11">
         <v>2472</v>
       </c>
-      <c r="Q339" s="37">
+      <c r="Q339" s="11">
         <v>623</v>
       </c>
-      <c r="R339" s="37">
+      <c r="R339" s="11">
         <v>112</v>
       </c>
-      <c r="S339" s="37">
+      <c r="S339" s="11">
         <v>231</v>
       </c>
-      <c r="T339" s="37">
+      <c r="T339" s="11">
         <v>84</v>
       </c>
       <c r="U339" t="s">
@@ -23812,25 +24306,25 @@
       <c r="C340" t="s">
         <v>106</v>
       </c>
-      <c r="N340" s="37" t="s">
+      <c r="N340" s="11" t="s">
         <v>697</v>
       </c>
-      <c r="O340" s="38" t="s">
+      <c r="O340" s="12" t="s">
         <v>568</v>
       </c>
-      <c r="P340" s="37">
+      <c r="P340" s="11">
         <v>1871</v>
       </c>
-      <c r="Q340" s="37">
+      <c r="Q340" s="11">
         <v>482</v>
       </c>
-      <c r="R340" s="37">
+      <c r="R340" s="11">
         <v>96</v>
       </c>
-      <c r="S340" s="37">
+      <c r="S340" s="11">
         <v>205</v>
       </c>
-      <c r="T340" s="37">
+      <c r="T340" s="11">
         <v>53</v>
       </c>
       <c r="U340" t="s">
@@ -23850,25 +24344,25 @@
       <c r="C341" t="s">
         <v>106</v>
       </c>
-      <c r="N341" s="37" t="s">
+      <c r="N341" s="11" t="s">
         <v>1088</v>
       </c>
-      <c r="O341" s="38" t="s">
+      <c r="O341" s="12" t="s">
         <v>653</v>
       </c>
-      <c r="P341" s="37">
+      <c r="P341" s="11">
         <v>1624</v>
       </c>
-      <c r="Q341" s="37">
+      <c r="Q341" s="11">
         <v>348</v>
       </c>
-      <c r="R341" s="37">
+      <c r="R341" s="11">
         <v>78</v>
       </c>
-      <c r="S341" s="37">
+      <c r="S341" s="11">
         <v>192</v>
       </c>
-      <c r="T341" s="37">
+      <c r="T341" s="11">
         <v>75</v>
       </c>
       <c r="U341" t="s">
@@ -24086,25 +24580,25 @@
       <c r="M354" t="s">
         <v>1104</v>
       </c>
-      <c r="N354" s="39" t="s">
+      <c r="N354" s="18" t="s">
         <v>106</v>
       </c>
       <c r="O354" t="s">
         <v>593</v>
       </c>
-      <c r="P354" s="39">
+      <c r="P354" s="18">
         <v>1507</v>
       </c>
-      <c r="Q354" s="39">
+      <c r="Q354" s="18">
         <v>269</v>
       </c>
-      <c r="R354" s="39">
+      <c r="R354" s="18">
         <v>79</v>
       </c>
-      <c r="S354" s="39">
+      <c r="S354" s="18">
         <v>163</v>
       </c>
-      <c r="T354" s="39">
+      <c r="T354" s="18">
         <v>43</v>
       </c>
       <c r="U354" t="s">
@@ -24124,25 +24618,25 @@
       <c r="C355" t="s">
         <v>106</v>
       </c>
-      <c r="N355" s="39" t="s">
+      <c r="N355" s="18" t="s">
         <v>106</v>
       </c>
       <c r="O355" t="s">
         <v>589</v>
       </c>
-      <c r="P355" s="39">
+      <c r="P355" s="18">
         <v>1461</v>
       </c>
-      <c r="Q355" s="39">
+      <c r="Q355" s="18">
         <v>277</v>
       </c>
-      <c r="R355" s="39">
+      <c r="R355" s="18">
         <v>55</v>
       </c>
-      <c r="S355" s="39">
+      <c r="S355" s="18">
         <v>185</v>
       </c>
-      <c r="T355" s="39">
+      <c r="T355" s="18">
         <v>34</v>
       </c>
       <c r="U355" t="s">
@@ -24162,25 +24656,25 @@
       <c r="C356" t="s">
         <v>106</v>
       </c>
-      <c r="N356" s="39" t="s">
+      <c r="N356" s="18" t="s">
         <v>106</v>
       </c>
       <c r="O356" t="s">
         <v>586</v>
       </c>
-      <c r="P356" s="39">
+      <c r="P356" s="18">
         <v>1742</v>
       </c>
-      <c r="Q356" s="39">
+      <c r="Q356" s="18">
         <v>285</v>
       </c>
-      <c r="R356" s="39">
+      <c r="R356" s="18">
         <v>66</v>
       </c>
-      <c r="S356" s="39">
+      <c r="S356" s="18">
         <v>160</v>
       </c>
-      <c r="T356" s="39">
+      <c r="T356" s="18">
         <v>40</v>
       </c>
       <c r="U356" t="s">
@@ -24200,25 +24694,25 @@
       <c r="C357" t="s">
         <v>106</v>
       </c>
-      <c r="N357" s="39" t="s">
+      <c r="N357" s="18" t="s">
         <v>106</v>
       </c>
       <c r="O357" t="s">
         <v>583</v>
       </c>
-      <c r="P357" s="39">
+      <c r="P357" s="18">
         <v>1771</v>
       </c>
-      <c r="Q357" s="39">
+      <c r="Q357" s="18">
         <v>306</v>
       </c>
-      <c r="R357" s="39">
+      <c r="R357" s="18">
         <v>60</v>
       </c>
-      <c r="S357" s="39">
+      <c r="S357" s="18">
         <v>166</v>
       </c>
-      <c r="T357" s="39">
+      <c r="T357" s="18">
         <v>49</v>
       </c>
       <c r="U357" t="s">
@@ -24238,25 +24732,25 @@
       <c r="C358" t="s">
         <v>106</v>
       </c>
-      <c r="N358" s="39" t="s">
+      <c r="N358" s="18" t="s">
         <v>106</v>
       </c>
       <c r="O358" t="s">
         <v>581</v>
       </c>
-      <c r="P358" s="39">
+      <c r="P358" s="18">
         <v>1668</v>
       </c>
-      <c r="Q358" s="39">
+      <c r="Q358" s="18">
         <v>247</v>
       </c>
-      <c r="R358" s="39">
+      <c r="R358" s="18">
         <v>87</v>
       </c>
-      <c r="S358" s="39">
+      <c r="S358" s="18">
         <v>222</v>
       </c>
-      <c r="T358" s="39">
+      <c r="T358" s="18">
         <v>60</v>
       </c>
       <c r="U358" t="s">
@@ -24276,25 +24770,25 @@
       <c r="C359" t="s">
         <v>106</v>
       </c>
-      <c r="N359" s="39" t="s">
+      <c r="N359" s="18" t="s">
         <v>106</v>
       </c>
       <c r="O359" t="s">
         <v>579</v>
       </c>
-      <c r="P359" s="39">
+      <c r="P359" s="18">
         <v>1488</v>
       </c>
-      <c r="Q359" s="39">
+      <c r="Q359" s="18">
         <v>249</v>
       </c>
-      <c r="R359" s="39">
+      <c r="R359" s="18">
         <v>74</v>
       </c>
-      <c r="S359" s="39">
+      <c r="S359" s="18">
         <v>181</v>
       </c>
-      <c r="T359" s="39">
+      <c r="T359" s="18">
         <v>37</v>
       </c>
       <c r="U359" t="s">
@@ -24314,25 +24808,25 @@
       <c r="C360" t="s">
         <v>106</v>
       </c>
-      <c r="N360" s="39" t="s">
+      <c r="N360" s="18" t="s">
         <v>106</v>
       </c>
       <c r="O360" t="s">
         <v>577</v>
       </c>
-      <c r="P360" s="39">
+      <c r="P360" s="18">
         <v>1359</v>
       </c>
-      <c r="Q360" s="39">
+      <c r="Q360" s="18">
         <v>306</v>
       </c>
-      <c r="R360" s="39">
+      <c r="R360" s="18">
         <v>86</v>
       </c>
-      <c r="S360" s="39">
+      <c r="S360" s="18">
         <v>183</v>
       </c>
-      <c r="T360" s="39">
+      <c r="T360" s="18">
         <v>45</v>
       </c>
       <c r="U360" t="s">
@@ -24352,25 +24846,25 @@
       <c r="C361" t="s">
         <v>106</v>
       </c>
-      <c r="N361" s="39" t="s">
+      <c r="N361" s="18" t="s">
         <v>106</v>
       </c>
       <c r="O361" t="s">
         <v>575</v>
       </c>
-      <c r="P361" s="39">
+      <c r="P361" s="18">
         <v>826</v>
       </c>
-      <c r="Q361" s="39">
+      <c r="Q361" s="18">
         <v>161</v>
       </c>
-      <c r="R361" s="39">
+      <c r="R361" s="18">
         <v>49</v>
       </c>
-      <c r="S361" s="39">
+      <c r="S361" s="18">
         <v>133</v>
       </c>
-      <c r="T361" s="39">
+      <c r="T361" s="18">
         <v>20</v>
       </c>
       <c r="U361" t="s">
@@ -24476,25 +24970,25 @@
       <c r="M366" t="s">
         <v>1122</v>
       </c>
-      <c r="N366" s="39" t="s">
+      <c r="N366" s="18" t="s">
         <v>106</v>
       </c>
       <c r="O366" t="s">
         <v>593</v>
       </c>
-      <c r="P366" s="39">
+      <c r="P366" s="18">
         <v>383</v>
       </c>
-      <c r="Q366" s="39">
+      <c r="Q366" s="18">
         <v>407</v>
       </c>
-      <c r="R366" s="39">
+      <c r="R366" s="18">
         <v>80</v>
       </c>
-      <c r="S366" s="39">
+      <c r="S366" s="18">
         <v>388</v>
       </c>
-      <c r="T366" s="39">
+      <c r="T366" s="18">
         <v>59</v>
       </c>
       <c r="U366" t="s">
@@ -24514,25 +25008,25 @@
       <c r="C367" t="s">
         <v>106</v>
       </c>
-      <c r="N367" s="39" t="s">
+      <c r="N367" s="18" t="s">
         <v>106</v>
       </c>
       <c r="O367" t="s">
         <v>589</v>
       </c>
-      <c r="P367" s="39">
+      <c r="P367" s="18">
         <v>773</v>
       </c>
-      <c r="Q367" s="39">
+      <c r="Q367" s="18">
         <v>535</v>
       </c>
-      <c r="R367" s="39">
+      <c r="R367" s="18">
         <v>94</v>
       </c>
-      <c r="S367" s="39">
+      <c r="S367" s="18">
         <v>508</v>
       </c>
-      <c r="T367" s="39">
+      <c r="T367" s="18">
         <v>91</v>
       </c>
       <c r="U367" t="s">
@@ -24552,25 +25046,25 @@
       <c r="C368" t="s">
         <v>106</v>
       </c>
-      <c r="N368" s="39" t="s">
+      <c r="N368" s="18" t="s">
         <v>106</v>
       </c>
       <c r="O368" t="s">
         <v>586</v>
       </c>
-      <c r="P368" s="39">
+      <c r="P368" s="18">
         <v>776</v>
       </c>
-      <c r="Q368" s="39">
+      <c r="Q368" s="18">
         <v>599</v>
       </c>
-      <c r="R368" s="39">
+      <c r="R368" s="18">
         <v>154</v>
       </c>
-      <c r="S368" s="39">
+      <c r="S368" s="18">
         <v>533</v>
       </c>
-      <c r="T368" s="39">
+      <c r="T368" s="18">
         <v>106</v>
       </c>
       <c r="U368" t="s">
@@ -24590,25 +25084,25 @@
       <c r="C369" t="s">
         <v>106</v>
       </c>
-      <c r="N369" s="39" t="s">
+      <c r="N369" s="18" t="s">
         <v>106</v>
       </c>
       <c r="O369" t="s">
         <v>583</v>
       </c>
-      <c r="P369" s="39">
+      <c r="P369" s="18">
         <v>1131</v>
       </c>
-      <c r="Q369" s="39">
+      <c r="Q369" s="18">
         <v>769</v>
       </c>
-      <c r="R369" s="39">
+      <c r="R369" s="18">
         <v>119</v>
       </c>
-      <c r="S369" s="39">
+      <c r="S369" s="18">
         <v>598</v>
       </c>
-      <c r="T369" s="39">
+      <c r="T369" s="18">
         <v>113</v>
       </c>
       <c r="U369" t="s">
@@ -24628,25 +25122,25 @@
       <c r="C370" t="s">
         <v>106</v>
       </c>
-      <c r="N370" s="39" t="s">
+      <c r="N370" s="18" t="s">
         <v>106</v>
       </c>
       <c r="O370" t="s">
         <v>581</v>
       </c>
-      <c r="P370" s="39">
+      <c r="P370" s="18">
         <v>921</v>
       </c>
-      <c r="Q370" s="39">
+      <c r="Q370" s="18">
         <v>647</v>
       </c>
-      <c r="R370" s="39">
+      <c r="R370" s="18">
         <v>123</v>
       </c>
-      <c r="S370" s="39">
+      <c r="S370" s="18">
         <v>291</v>
       </c>
-      <c r="T370" s="39">
+      <c r="T370" s="18">
         <v>99</v>
       </c>
       <c r="U370" t="s">
@@ -24666,25 +25160,25 @@
       <c r="C371" t="s">
         <v>106</v>
       </c>
-      <c r="N371" s="39" t="s">
+      <c r="N371" s="18" t="s">
         <v>106</v>
       </c>
       <c r="O371" t="s">
         <v>579</v>
       </c>
-      <c r="P371" s="39">
+      <c r="P371" s="18">
         <v>511</v>
       </c>
-      <c r="Q371" s="39">
+      <c r="Q371" s="18">
         <v>409</v>
       </c>
-      <c r="R371" s="39">
+      <c r="R371" s="18">
         <v>102</v>
       </c>
-      <c r="S371" s="39">
+      <c r="S371" s="18">
         <v>152</v>
       </c>
-      <c r="T371" s="39">
+      <c r="T371" s="18">
         <v>72</v>
       </c>
       <c r="U371" t="s">
@@ -24704,25 +25198,25 @@
       <c r="C372" t="s">
         <v>106</v>
       </c>
-      <c r="N372" s="39" t="s">
+      <c r="N372" s="18" t="s">
         <v>106</v>
       </c>
       <c r="O372" t="s">
         <v>577</v>
       </c>
-      <c r="P372" s="39">
+      <c r="P372" s="18">
         <v>227</v>
       </c>
-      <c r="Q372" s="39">
+      <c r="Q372" s="18">
         <v>260</v>
       </c>
-      <c r="R372" s="39">
+      <c r="R372" s="18">
         <v>42</v>
       </c>
-      <c r="S372" s="39">
+      <c r="S372" s="18">
         <v>53</v>
       </c>
-      <c r="T372" s="39">
+      <c r="T372" s="18">
         <v>25</v>
       </c>
       <c r="U372" t="s">
@@ -24816,7 +25310,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="379" ht="14.25" spans="1:23">
+    <row r="379" spans="1:23">
       <c r="A379">
         <v>335</v>
       </c>
@@ -24830,7 +25324,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="380" ht="15" spans="1:24">
+    <row r="380" ht="14.25" spans="1:24">
       <c r="A380">
         <v>336</v>
       </c>
@@ -24870,37 +25364,37 @@
       <c r="M380" t="s">
         <v>1138</v>
       </c>
-      <c r="N380" s="37" t="s">
+      <c r="N380" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="O380" s="38" t="s">
+      <c r="O380" s="12" t="s">
         <v>593</v>
       </c>
-      <c r="P380" s="37">
+      <c r="P380" s="11">
         <v>347</v>
       </c>
-      <c r="Q380" s="37">
+      <c r="Q380" s="11">
         <v>176</v>
       </c>
-      <c r="R380" s="37">
+      <c r="R380" s="11">
         <v>28</v>
       </c>
-      <c r="S380" s="37">
+      <c r="S380" s="11">
         <v>80</v>
       </c>
-      <c r="T380" s="37">
+      <c r="T380" s="11">
         <v>34</v>
       </c>
       <c r="U380" t="s">
         <v>1139</v>
       </c>
-      <c r="V380" s="40"/>
-      <c r="W380" s="40" t="s">
+      <c r="V380" s="37"/>
+      <c r="W380" s="37" t="s">
         <v>854</v>
       </c>
-      <c r="X380" s="40"/>
-    </row>
-    <row r="381" ht="15" spans="1:24">
+      <c r="X380" s="37"/>
+    </row>
+    <row r="381" ht="14.25" spans="1:24">
       <c r="A381">
         <v>337</v>
       </c>
@@ -24910,37 +25404,37 @@
       <c r="C381" t="s">
         <v>106</v>
       </c>
-      <c r="N381" s="37" t="s">
+      <c r="N381" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="O381" s="38" t="s">
+      <c r="O381" s="12" t="s">
         <v>589</v>
       </c>
-      <c r="P381" s="37">
+      <c r="P381" s="11">
         <v>1210</v>
       </c>
-      <c r="Q381" s="37">
+      <c r="Q381" s="11">
         <v>617</v>
       </c>
-      <c r="R381" s="37">
+      <c r="R381" s="11">
         <v>79</v>
       </c>
-      <c r="S381" s="37">
+      <c r="S381" s="11">
         <v>257</v>
       </c>
-      <c r="T381" s="37">
+      <c r="T381" s="11">
         <v>76</v>
       </c>
       <c r="U381" t="s">
         <v>1140</v>
       </c>
-      <c r="V381" s="40"/>
-      <c r="W381" s="40" t="s">
+      <c r="V381" s="37"/>
+      <c r="W381" s="37" t="s">
         <v>1117</v>
       </c>
-      <c r="X381" s="40"/>
-    </row>
-    <row r="382" ht="15" spans="1:24">
+      <c r="X381" s="37"/>
+    </row>
+    <row r="382" ht="14.25" spans="1:24">
       <c r="A382">
         <v>338</v>
       </c>
@@ -24950,37 +25444,37 @@
       <c r="C382" t="s">
         <v>106</v>
       </c>
-      <c r="N382" s="37" t="s">
+      <c r="N382" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="O382" s="38" t="s">
+      <c r="O382" s="12" t="s">
         <v>586</v>
       </c>
-      <c r="P382" s="37">
+      <c r="P382" s="11">
         <v>414</v>
       </c>
-      <c r="Q382" s="37">
+      <c r="Q382" s="11">
         <v>211</v>
       </c>
-      <c r="R382" s="37">
+      <c r="R382" s="11">
         <v>25</v>
       </c>
-      <c r="S382" s="37">
+      <c r="S382" s="11">
         <v>66</v>
       </c>
-      <c r="T382" s="37">
+      <c r="T382" s="11">
         <v>19</v>
       </c>
       <c r="U382" t="s">
         <v>1141</v>
       </c>
-      <c r="V382" s="40"/>
-      <c r="W382" s="40" t="s">
+      <c r="V382" s="37"/>
+      <c r="W382" s="37" t="s">
         <v>1142</v>
       </c>
-      <c r="X382" s="40"/>
-    </row>
-    <row r="383" ht="15" spans="1:24">
+      <c r="X382" s="37"/>
+    </row>
+    <row r="383" ht="14.25" spans="1:24">
       <c r="A383">
         <v>339</v>
       </c>
@@ -24990,37 +25484,37 @@
       <c r="C383" t="s">
         <v>106</v>
       </c>
-      <c r="N383" s="37" t="s">
+      <c r="N383" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="O383" s="38" t="s">
+      <c r="O383" s="12" t="s">
         <v>586</v>
       </c>
-      <c r="P383" s="37">
+      <c r="P383" s="11">
         <v>1528</v>
       </c>
-      <c r="Q383" s="37">
+      <c r="Q383" s="11">
         <v>583</v>
       </c>
-      <c r="R383" s="37">
+      <c r="R383" s="11">
         <v>75</v>
       </c>
-      <c r="S383" s="37">
+      <c r="S383" s="11">
         <v>266</v>
       </c>
-      <c r="T383" s="37">
+      <c r="T383" s="11">
         <v>74</v>
       </c>
       <c r="U383" t="s">
         <v>1143</v>
       </c>
-      <c r="V383" s="40"/>
-      <c r="W383" s="40" t="s">
+      <c r="V383" s="37"/>
+      <c r="W383" s="37" t="s">
         <v>1144</v>
       </c>
-      <c r="X383" s="40"/>
-    </row>
-    <row r="384" ht="15" spans="1:24">
+      <c r="X383" s="37"/>
+    </row>
+    <row r="384" ht="14.25" spans="1:24">
       <c r="A384">
         <v>340</v>
       </c>
@@ -25030,37 +25524,37 @@
       <c r="C384" t="s">
         <v>106</v>
       </c>
-      <c r="N384" s="37" t="s">
+      <c r="N384" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="O384" s="38" t="s">
+      <c r="O384" s="12" t="s">
         <v>583</v>
       </c>
-      <c r="P384" s="37">
+      <c r="P384" s="11">
         <v>1748</v>
       </c>
-      <c r="Q384" s="37">
+      <c r="Q384" s="11">
         <v>747</v>
       </c>
-      <c r="R384" s="37">
+      <c r="R384" s="11">
         <v>101</v>
       </c>
-      <c r="S384" s="37">
+      <c r="S384" s="11">
         <v>214</v>
       </c>
-      <c r="T384" s="37">
+      <c r="T384" s="11">
         <v>92</v>
       </c>
       <c r="U384" t="s">
         <v>1145</v>
       </c>
-      <c r="V384" s="40"/>
-      <c r="W384" s="40" t="s">
+      <c r="V384" s="37"/>
+      <c r="W384" s="37" t="s">
         <v>1146</v>
       </c>
-      <c r="X384" s="40"/>
-    </row>
-    <row r="385" ht="15" spans="1:24">
+      <c r="X384" s="37"/>
+    </row>
+    <row r="385" ht="14.25" spans="1:24">
       <c r="A385">
         <v>341</v>
       </c>
@@ -25070,37 +25564,37 @@
       <c r="C385" t="s">
         <v>106</v>
       </c>
-      <c r="N385" s="37" t="s">
+      <c r="N385" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="O385" s="38" t="s">
+      <c r="O385" s="12" t="s">
         <v>581</v>
       </c>
-      <c r="P385" s="37">
+      <c r="P385" s="11">
         <v>1421</v>
       </c>
-      <c r="Q385" s="37">
+      <c r="Q385" s="11">
         <v>747</v>
       </c>
-      <c r="R385" s="37">
+      <c r="R385" s="11">
         <v>90</v>
       </c>
-      <c r="S385" s="37">
+      <c r="S385" s="11">
         <v>210</v>
       </c>
-      <c r="T385" s="37">
+      <c r="T385" s="11">
         <v>103</v>
       </c>
       <c r="U385" t="s">
         <v>1147</v>
       </c>
-      <c r="V385" s="40"/>
-      <c r="W385" s="44" t="s">
+      <c r="V385" s="37"/>
+      <c r="W385" s="7" t="s">
         <v>1148</v>
       </c>
-      <c r="X385" s="40"/>
-    </row>
-    <row r="386" ht="15" spans="1:24">
+      <c r="X385" s="37"/>
+    </row>
+    <row r="386" ht="14.25" spans="1:24">
       <c r="A386">
         <v>342</v>
       </c>
@@ -25110,37 +25604,37 @@
       <c r="C386" t="s">
         <v>106</v>
       </c>
-      <c r="N386" s="37" t="s">
+      <c r="N386" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="O386" s="38" t="s">
+      <c r="O386" s="12" t="s">
         <v>579</v>
       </c>
-      <c r="P386" s="37">
+      <c r="P386" s="11">
         <v>1614</v>
       </c>
-      <c r="Q386" s="37">
+      <c r="Q386" s="11">
         <v>831</v>
       </c>
-      <c r="R386" s="37">
+      <c r="R386" s="11">
         <v>109</v>
       </c>
-      <c r="S386" s="37">
+      <c r="S386" s="11">
         <v>207</v>
       </c>
-      <c r="T386" s="37">
+      <c r="T386" s="11">
         <v>91</v>
       </c>
       <c r="U386" t="s">
         <v>1149</v>
       </c>
-      <c r="V386" s="40"/>
-      <c r="W386" s="40" t="s">
+      <c r="V386" s="37"/>
+      <c r="W386" s="37" t="s">
         <v>1150</v>
       </c>
-      <c r="X386" s="40"/>
-    </row>
-    <row r="387" ht="15" spans="1:24">
+      <c r="X386" s="37"/>
+    </row>
+    <row r="387" ht="14.25" spans="1:24">
       <c r="A387">
         <v>343</v>
       </c>
@@ -25150,35 +25644,35 @@
       <c r="C387" t="s">
         <v>106</v>
       </c>
-      <c r="N387" s="37" t="s">
+      <c r="N387" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="O387" s="38" t="s">
+      <c r="O387" s="12" t="s">
         <v>577</v>
       </c>
-      <c r="P387" s="37">
+      <c r="P387" s="11">
         <v>1280</v>
       </c>
-      <c r="Q387" s="37">
+      <c r="Q387" s="11">
         <v>746</v>
       </c>
-      <c r="R387" s="37">
+      <c r="R387" s="11">
         <v>108</v>
       </c>
-      <c r="S387" s="37">
+      <c r="S387" s="11">
         <v>199</v>
       </c>
-      <c r="T387" s="37">
+      <c r="T387" s="11">
         <v>55</v>
       </c>
       <c r="U387" t="s">
         <v>1151</v>
       </c>
-      <c r="V387" s="40"/>
-      <c r="W387" s="40"/>
-      <c r="X387" s="40"/>
-    </row>
-    <row r="388" ht="15" spans="1:24">
+      <c r="V387" s="37"/>
+      <c r="W387" s="37"/>
+      <c r="X387" s="37"/>
+    </row>
+    <row r="388" ht="14.25" spans="1:24">
       <c r="A388">
         <v>344</v>
       </c>
@@ -25188,33 +25682,33 @@
       <c r="C388" t="s">
         <v>106</v>
       </c>
-      <c r="N388" s="37" t="s">
+      <c r="N388" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="O388" s="38" t="s">
+      <c r="O388" s="12" t="s">
         <v>575</v>
       </c>
-      <c r="P388" s="37">
+      <c r="P388" s="11">
         <v>1160</v>
       </c>
-      <c r="Q388" s="37">
+      <c r="Q388" s="11">
         <v>703</v>
       </c>
-      <c r="R388" s="37">
+      <c r="R388" s="11">
         <v>93</v>
       </c>
-      <c r="S388" s="37">
+      <c r="S388" s="11">
         <v>102</v>
       </c>
-      <c r="T388" s="37">
+      <c r="T388" s="11">
         <v>75</v>
       </c>
       <c r="U388" t="s">
         <v>1152</v>
       </c>
-      <c r="V388" s="40"/>
-      <c r="W388" s="40"/>
-      <c r="X388" s="40"/>
+      <c r="V388" s="37"/>
+      <c r="W388" s="37"/>
+      <c r="X388" s="37"/>
     </row>
     <row r="389" ht="14.25" spans="1:24">
       <c r="A389">
@@ -25226,33 +25720,33 @@
       <c r="C389" t="s">
         <v>106</v>
       </c>
-      <c r="N389" s="37" t="s">
+      <c r="N389" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="O389" s="38" t="s">
+      <c r="O389" s="12" t="s">
         <v>572</v>
       </c>
-      <c r="P389" s="37">
+      <c r="P389" s="11">
         <v>1143</v>
       </c>
-      <c r="Q389" s="37">
+      <c r="Q389" s="11">
         <v>699</v>
       </c>
-      <c r="R389" s="37">
+      <c r="R389" s="11">
         <v>85</v>
       </c>
-      <c r="S389" s="37">
+      <c r="S389" s="11">
         <v>204</v>
       </c>
-      <c r="T389" s="37">
+      <c r="T389" s="11">
         <v>68</v>
       </c>
       <c r="U389" t="s">
         <v>1153</v>
       </c>
-      <c r="V389" s="40"/>
-      <c r="W389" s="40"/>
-      <c r="X389" s="40"/>
+      <c r="V389" s="37"/>
+      <c r="W389" s="37"/>
+      <c r="X389" s="37"/>
     </row>
     <row r="390" ht="14.25" spans="1:24">
       <c r="A390">
@@ -25294,33 +25788,33 @@
       <c r="M390" t="s">
         <v>1155</v>
       </c>
-      <c r="N390" s="37" t="s">
+      <c r="N390" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="O390" s="38" t="s">
+      <c r="O390" s="12" t="s">
         <v>593</v>
       </c>
-      <c r="P390" s="37">
+      <c r="P390" s="11">
         <v>1198</v>
       </c>
-      <c r="Q390" s="37">
+      <c r="Q390" s="11">
         <v>362</v>
       </c>
-      <c r="R390" s="37">
+      <c r="R390" s="11">
         <v>43</v>
       </c>
-      <c r="S390" s="37">
+      <c r="S390" s="11">
         <v>150</v>
       </c>
-      <c r="T390" s="37">
+      <c r="T390" s="11">
         <v>21</v>
       </c>
-      <c r="U390" s="40" t="s">
+      <c r="U390" s="37" t="s">
         <v>1156</v>
       </c>
-      <c r="V390" s="40"/>
-      <c r="W390" s="40"/>
-      <c r="X390" s="40"/>
+      <c r="V390" s="37"/>
+      <c r="W390" s="37"/>
+      <c r="X390" s="37"/>
     </row>
     <row r="391" spans="1:21">
       <c r="A391">
@@ -25332,25 +25826,25 @@
       <c r="C391" t="s">
         <v>121</v>
       </c>
-      <c r="N391" s="37" t="s">
+      <c r="N391" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="O391" s="38" t="s">
+      <c r="O391" s="12" t="s">
         <v>589</v>
       </c>
-      <c r="P391" s="37">
+      <c r="P391" s="11">
         <v>321</v>
       </c>
-      <c r="Q391" s="37">
+      <c r="Q391" s="11">
         <v>101</v>
       </c>
-      <c r="R391" s="37">
+      <c r="R391" s="11">
         <v>12</v>
       </c>
-      <c r="S391" s="37">
+      <c r="S391" s="11">
         <v>41</v>
       </c>
-      <c r="T391" s="37">
+      <c r="T391" s="11">
         <v>10</v>
       </c>
       <c r="U391" t="s">
@@ -25367,25 +25861,25 @@
       <c r="C392" t="s">
         <v>121</v>
       </c>
-      <c r="N392" s="37" t="s">
+      <c r="N392" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="O392" s="38" t="s">
+      <c r="O392" s="12" t="s">
         <v>586</v>
       </c>
-      <c r="P392" s="37">
+      <c r="P392" s="11">
         <v>1145</v>
       </c>
-      <c r="Q392" s="37">
+      <c r="Q392" s="11">
         <v>325</v>
       </c>
-      <c r="R392" s="37">
+      <c r="R392" s="11">
         <v>40</v>
       </c>
-      <c r="S392" s="37">
+      <c r="S392" s="11">
         <v>135</v>
       </c>
-      <c r="T392" s="37">
+      <c r="T392" s="11">
         <v>15</v>
       </c>
       <c r="U392" t="s">
@@ -25402,25 +25896,25 @@
       <c r="C393" t="s">
         <v>121</v>
       </c>
-      <c r="N393" s="37" t="s">
+      <c r="N393" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="O393" s="38" t="s">
+      <c r="O393" s="12" t="s">
         <v>583</v>
       </c>
-      <c r="P393" s="37">
+      <c r="P393" s="11">
         <v>1036</v>
       </c>
-      <c r="Q393" s="37">
+      <c r="Q393" s="11">
         <v>281</v>
       </c>
-      <c r="R393" s="37">
+      <c r="R393" s="11">
         <v>42</v>
       </c>
-      <c r="S393" s="37">
+      <c r="S393" s="11">
         <v>135</v>
       </c>
-      <c r="T393" s="37">
+      <c r="T393" s="11">
         <v>19</v>
       </c>
       <c r="U393" t="s">
@@ -25437,25 +25931,25 @@
       <c r="C394" t="s">
         <v>121</v>
       </c>
-      <c r="N394" s="37" t="s">
+      <c r="N394" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="O394" s="38" t="s">
+      <c r="O394" s="12" t="s">
         <v>581</v>
       </c>
-      <c r="P394" s="37">
+      <c r="P394" s="11">
         <v>734</v>
       </c>
-      <c r="Q394" s="37">
+      <c r="Q394" s="11">
         <v>218</v>
       </c>
-      <c r="R394" s="37">
+      <c r="R394" s="11">
         <v>47</v>
       </c>
-      <c r="S394" s="37">
+      <c r="S394" s="11">
         <v>83</v>
       </c>
-      <c r="T394" s="37">
+      <c r="T394" s="11">
         <v>20</v>
       </c>
       <c r="U394" t="s">
@@ -25472,25 +25966,25 @@
       <c r="C395" t="s">
         <v>121</v>
       </c>
-      <c r="N395" s="37" t="s">
+      <c r="N395" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="O395" s="38" t="s">
+      <c r="O395" s="12" t="s">
         <v>577</v>
       </c>
-      <c r="P395" s="37">
+      <c r="P395" s="11">
         <v>1149</v>
       </c>
-      <c r="Q395" s="37">
+      <c r="Q395" s="11">
         <v>367</v>
       </c>
-      <c r="R395" s="37">
+      <c r="R395" s="11">
         <v>64</v>
       </c>
-      <c r="S395" s="37">
+      <c r="S395" s="11">
         <v>176</v>
       </c>
-      <c r="T395" s="37">
+      <c r="T395" s="11">
         <v>36</v>
       </c>
       <c r="U395" t="s">
@@ -25507,25 +26001,25 @@
       <c r="C396" t="s">
         <v>121</v>
       </c>
-      <c r="N396" s="37" t="s">
+      <c r="N396" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="O396" s="38" t="s">
+      <c r="O396" s="12" t="s">
         <v>575</v>
       </c>
-      <c r="P396" s="37">
+      <c r="P396" s="11">
         <v>628</v>
       </c>
-      <c r="Q396" s="37">
+      <c r="Q396" s="11">
         <v>202</v>
       </c>
-      <c r="R396" s="37">
+      <c r="R396" s="11">
         <v>42</v>
       </c>
-      <c r="S396" s="37">
+      <c r="S396" s="11">
         <v>116</v>
       </c>
-      <c r="T396" s="37">
+      <c r="T396" s="11">
         <v>23</v>
       </c>
       <c r="U396" t="s">
@@ -25542,25 +26036,25 @@
       <c r="C397" t="s">
         <v>121</v>
       </c>
-      <c r="N397" s="37" t="s">
+      <c r="N397" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="O397" s="38" t="s">
+      <c r="O397" s="12" t="s">
         <v>572</v>
       </c>
-      <c r="P397" s="37">
+      <c r="P397" s="11">
         <v>206</v>
       </c>
-      <c r="Q397" s="37">
+      <c r="Q397" s="11">
         <v>76</v>
       </c>
-      <c r="R397" s="37">
+      <c r="R397" s="11">
         <v>13</v>
       </c>
-      <c r="S397" s="37">
+      <c r="S397" s="11">
         <v>22</v>
       </c>
-      <c r="T397" s="37">
+      <c r="T397" s="11">
         <v>9</v>
       </c>
       <c r="U397" t="s">
@@ -25577,25 +26071,25 @@
       <c r="C398" t="s">
         <v>121</v>
       </c>
-      <c r="N398" s="37" t="s">
+      <c r="N398" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="O398" s="38" t="s">
+      <c r="O398" s="12" t="s">
         <v>570</v>
       </c>
-      <c r="P398" s="37">
+      <c r="P398" s="11">
         <v>764</v>
       </c>
-      <c r="Q398" s="37">
+      <c r="Q398" s="11">
         <v>229</v>
       </c>
-      <c r="R398" s="37">
+      <c r="R398" s="11">
         <v>38</v>
       </c>
-      <c r="S398" s="37">
+      <c r="S398" s="11">
         <v>82</v>
       </c>
-      <c r="T398" s="37">
+      <c r="T398" s="11">
         <v>18</v>
       </c>
       <c r="U398" t="s">
@@ -25612,32 +26106,32 @@
       <c r="C399" t="s">
         <v>121</v>
       </c>
-      <c r="N399" s="37" t="s">
+      <c r="N399" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="O399" s="38" t="s">
+      <c r="O399" s="12" t="s">
         <v>568</v>
       </c>
-      <c r="P399" s="37">
+      <c r="P399" s="11">
         <v>1221</v>
       </c>
-      <c r="Q399" s="37">
+      <c r="Q399" s="11">
         <v>398</v>
       </c>
-      <c r="R399" s="37">
+      <c r="R399" s="11">
         <v>75</v>
       </c>
-      <c r="S399" s="37">
+      <c r="S399" s="11">
         <v>135</v>
       </c>
-      <c r="T399" s="37">
+      <c r="T399" s="11">
         <v>58</v>
       </c>
       <c r="U399" t="s">
         <v>1165</v>
       </c>
     </row>
-    <row r="400" ht="14.25" spans="1:21">
+    <row r="400" spans="1:21">
       <c r="A400">
         <v>356</v>
       </c>
@@ -25647,32 +26141,32 @@
       <c r="C400" t="s">
         <v>121</v>
       </c>
-      <c r="N400" s="42" t="s">
+      <c r="N400" s="24" t="s">
         <v>351</v>
       </c>
-      <c r="O400" s="43" t="s">
+      <c r="O400" s="38" t="s">
         <v>568</v>
       </c>
-      <c r="P400" s="42">
+      <c r="P400" s="24">
         <v>170</v>
       </c>
-      <c r="Q400" s="42">
+      <c r="Q400" s="24">
         <v>55</v>
       </c>
-      <c r="R400" s="42">
+      <c r="R400" s="24">
         <v>14</v>
       </c>
-      <c r="S400" s="42">
+      <c r="S400" s="24">
         <v>15</v>
       </c>
-      <c r="T400" s="42">
+      <c r="T400" s="24">
         <v>4</v>
       </c>
       <c r="U400" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="401" spans="1:21">
+    <row r="401" spans="1:23">
       <c r="A401">
         <v>347</v>
       </c>
@@ -25712,32 +26206,35 @@
       <c r="M401" t="s">
         <v>1168</v>
       </c>
-      <c r="N401" s="37" t="s">
+      <c r="N401" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="O401" s="38" t="s">
+      <c r="O401" s="12" t="s">
         <v>593</v>
       </c>
-      <c r="P401" s="37">
+      <c r="P401" s="11">
         <v>1354</v>
       </c>
-      <c r="Q401" s="37">
+      <c r="Q401" s="11">
         <v>197</v>
       </c>
-      <c r="R401" s="37">
+      <c r="R401" s="11">
         <v>49</v>
       </c>
-      <c r="S401" s="37">
+      <c r="S401" s="11">
         <v>355</v>
       </c>
-      <c r="T401" s="37">
+      <c r="T401" s="11">
         <v>8</v>
       </c>
-      <c r="U401" s="38" t="s">
+      <c r="U401" s="12" t="s">
         <v>1169</v>
       </c>
-    </row>
-    <row r="402" spans="1:21">
+      <c r="W401" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="402" spans="1:23">
       <c r="A402">
         <v>348</v>
       </c>
@@ -25747,29 +26244,32 @@
       <c r="C402" t="s">
         <v>121</v>
       </c>
-      <c r="N402" s="37" t="s">
+      <c r="N402" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="O402" s="38" t="s">
+      <c r="O402" s="12" t="s">
         <v>589</v>
       </c>
-      <c r="P402" s="37">
+      <c r="P402" s="11">
         <v>1782</v>
       </c>
-      <c r="Q402" s="37">
+      <c r="Q402" s="11">
         <v>198</v>
       </c>
-      <c r="R402" s="37">
+      <c r="R402" s="11">
         <v>85</v>
       </c>
-      <c r="S402" s="37">
+      <c r="S402" s="11">
         <v>417</v>
       </c>
-      <c r="T402" s="37">
+      <c r="T402" s="11">
         <v>19</v>
       </c>
-      <c r="U402" s="38" t="s">
-        <v>1170</v>
+      <c r="U402" s="12" t="s">
+        <v>1171</v>
+      </c>
+      <c r="W402" t="s">
+        <v>1172</v>
       </c>
     </row>
     <row r="403" spans="1:21">
@@ -25782,29 +26282,29 @@
       <c r="C403" t="s">
         <v>121</v>
       </c>
-      <c r="N403" s="37" t="s">
+      <c r="N403" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="O403" s="38" t="s">
+      <c r="O403" s="12" t="s">
         <v>586</v>
       </c>
-      <c r="P403" s="37">
+      <c r="P403" s="11">
         <v>343</v>
       </c>
-      <c r="Q403" s="37">
+      <c r="Q403" s="11">
         <v>70</v>
       </c>
-      <c r="R403" s="37">
+      <c r="R403" s="11">
         <v>15</v>
       </c>
-      <c r="S403" s="37">
+      <c r="S403" s="11">
         <v>56</v>
       </c>
-      <c r="T403" s="37">
+      <c r="T403" s="11">
         <v>9</v>
       </c>
-      <c r="U403" s="38" t="s">
-        <v>1171</v>
+      <c r="U403" s="12" t="s">
+        <v>1173</v>
       </c>
     </row>
     <row r="404" spans="1:21">
@@ -25817,29 +26317,29 @@
       <c r="C404" t="s">
         <v>121</v>
       </c>
-      <c r="N404" s="37" t="s">
+      <c r="N404" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="O404" s="38" t="s">
+      <c r="O404" s="12" t="s">
         <v>586</v>
       </c>
-      <c r="P404" s="37">
+      <c r="P404" s="11">
         <v>1078</v>
       </c>
-      <c r="Q404" s="37">
+      <c r="Q404" s="11">
         <v>132</v>
       </c>
-      <c r="R404" s="37">
+      <c r="R404" s="11">
         <v>65</v>
       </c>
-      <c r="S404" s="37">
+      <c r="S404" s="11">
         <v>183</v>
       </c>
-      <c r="T404" s="37">
+      <c r="T404" s="11">
         <v>10</v>
       </c>
-      <c r="U404" s="38" t="s">
-        <v>1172</v>
+      <c r="U404" s="12" t="s">
+        <v>1174</v>
       </c>
     </row>
     <row r="405" spans="1:21">
@@ -25852,29 +26352,29 @@
       <c r="C405" t="s">
         <v>121</v>
       </c>
-      <c r="N405" s="37" t="s">
+      <c r="N405" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="O405" s="38" t="s">
+      <c r="O405" s="12" t="s">
         <v>583</v>
       </c>
-      <c r="P405" s="37">
+      <c r="P405" s="11">
         <v>1028</v>
       </c>
-      <c r="Q405" s="37">
+      <c r="Q405" s="11">
         <v>169</v>
       </c>
-      <c r="R405" s="37">
+      <c r="R405" s="11">
         <v>62</v>
       </c>
-      <c r="S405" s="37">
+      <c r="S405" s="11">
         <v>167</v>
       </c>
-      <c r="T405" s="37">
+      <c r="T405" s="11">
         <v>19</v>
       </c>
-      <c r="U405" s="38" t="s">
-        <v>1173</v>
+      <c r="U405" s="12" t="s">
+        <v>1175</v>
       </c>
     </row>
     <row r="406" spans="1:21">
@@ -25887,29 +26387,29 @@
       <c r="C406" t="s">
         <v>121</v>
       </c>
-      <c r="N406" s="37" t="s">
+      <c r="N406" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="O406" s="38" t="s">
+      <c r="O406" s="12" t="s">
         <v>581</v>
       </c>
-      <c r="P406" s="37">
+      <c r="P406" s="11">
         <v>1242</v>
       </c>
-      <c r="Q406" s="37">
+      <c r="Q406" s="11">
         <v>151</v>
       </c>
-      <c r="R406" s="37">
+      <c r="R406" s="11">
         <v>88</v>
       </c>
-      <c r="S406" s="37">
+      <c r="S406" s="11">
         <v>164</v>
       </c>
-      <c r="T406" s="37">
+      <c r="T406" s="11">
         <v>10</v>
       </c>
-      <c r="U406" s="38" t="s">
-        <v>1174</v>
+      <c r="U406" s="12" t="s">
+        <v>1176</v>
       </c>
     </row>
     <row r="407" spans="1:21">
@@ -25922,29 +26422,29 @@
       <c r="C407" t="s">
         <v>121</v>
       </c>
-      <c r="N407" s="37" t="s">
+      <c r="N407" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="O407" s="38" t="s">
+      <c r="O407" s="12" t="s">
         <v>579</v>
       </c>
-      <c r="P407" s="37">
+      <c r="P407" s="11">
         <v>625</v>
       </c>
-      <c r="Q407" s="37">
+      <c r="Q407" s="11">
         <v>124</v>
       </c>
-      <c r="R407" s="37">
+      <c r="R407" s="11">
         <v>45</v>
       </c>
-      <c r="S407" s="37">
+      <c r="S407" s="11">
         <v>210</v>
       </c>
-      <c r="T407" s="37">
+      <c r="T407" s="11">
         <v>4</v>
       </c>
-      <c r="U407" s="38" t="s">
-        <v>1175</v>
+      <c r="U407" s="12" t="s">
+        <v>1177</v>
       </c>
     </row>
     <row r="408" spans="1:21">
@@ -25957,29 +26457,29 @@
       <c r="C408" t="s">
         <v>121</v>
       </c>
-      <c r="N408" s="37" t="s">
+      <c r="N408" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="O408" s="38" t="s">
+      <c r="O408" s="12" t="s">
         <v>577</v>
       </c>
-      <c r="P408" s="37">
+      <c r="P408" s="11">
         <v>551</v>
       </c>
-      <c r="Q408" s="37">
+      <c r="Q408" s="11">
         <v>80</v>
       </c>
-      <c r="R408" s="37">
+      <c r="R408" s="11">
         <v>44</v>
       </c>
-      <c r="S408" s="37">
+      <c r="S408" s="11">
         <v>139</v>
       </c>
-      <c r="T408" s="37">
+      <c r="T408" s="11">
         <v>10</v>
       </c>
-      <c r="U408" s="38" t="s">
-        <v>1176</v>
+      <c r="U408" s="12" t="s">
+        <v>1178</v>
       </c>
     </row>
     <row r="409" spans="1:21">
@@ -25992,29 +26492,29 @@
       <c r="C409" t="s">
         <v>121</v>
       </c>
-      <c r="N409" s="37" t="s">
+      <c r="N409" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="O409" s="38" t="s">
+      <c r="O409" s="12" t="s">
         <v>575</v>
       </c>
-      <c r="P409" s="37">
+      <c r="P409" s="11">
         <v>956</v>
       </c>
-      <c r="Q409" s="37">
+      <c r="Q409" s="11">
         <v>155</v>
       </c>
-      <c r="R409" s="37">
+      <c r="R409" s="11">
         <v>53</v>
       </c>
-      <c r="S409" s="37">
+      <c r="S409" s="11">
         <v>221</v>
       </c>
-      <c r="T409" s="37">
+      <c r="T409" s="11">
         <v>18</v>
       </c>
-      <c r="U409" s="38" t="s">
-        <v>1177</v>
+      <c r="U409" s="12" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="410" spans="1:21">
@@ -26027,29 +26527,29 @@
       <c r="C410" t="s">
         <v>121</v>
       </c>
-      <c r="N410" s="37" t="s">
+      <c r="N410" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="O410" s="38" t="s">
+      <c r="O410" s="12" t="s">
         <v>572</v>
       </c>
-      <c r="P410" s="37">
+      <c r="P410" s="11">
         <v>1027</v>
       </c>
-      <c r="Q410" s="37">
+      <c r="Q410" s="11">
         <v>149</v>
       </c>
-      <c r="R410" s="37">
+      <c r="R410" s="11">
         <v>47</v>
       </c>
-      <c r="S410" s="37">
+      <c r="S410" s="11">
         <v>252</v>
       </c>
-      <c r="T410" s="37">
+      <c r="T410" s="11">
         <v>17</v>
       </c>
-      <c r="U410" s="38" t="s">
-        <v>1178</v>
+      <c r="U410" s="12" t="s">
+        <v>1180</v>
       </c>
     </row>
     <row r="411" spans="1:21">
@@ -26062,29 +26562,29 @@
       <c r="C411" t="s">
         <v>121</v>
       </c>
-      <c r="N411" s="37" t="s">
+      <c r="N411" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="O411" s="38" t="s">
+      <c r="O411" s="12" t="s">
         <v>570</v>
       </c>
-      <c r="P411" s="37">
+      <c r="P411" s="11">
         <v>898</v>
       </c>
-      <c r="Q411" s="37">
+      <c r="Q411" s="11">
         <v>187</v>
       </c>
-      <c r="R411" s="37">
+      <c r="R411" s="11">
         <v>80</v>
       </c>
-      <c r="S411" s="37">
+      <c r="S411" s="11">
         <v>268</v>
       </c>
-      <c r="T411" s="37">
+      <c r="T411" s="11">
         <v>15</v>
       </c>
-      <c r="U411" s="38" t="s">
-        <v>1179</v>
+      <c r="U411" s="12" t="s">
+        <v>1181</v>
       </c>
     </row>
     <row r="412" spans="1:21">
@@ -26097,29 +26597,29 @@
       <c r="C412" t="s">
         <v>121</v>
       </c>
-      <c r="N412" s="37" t="s">
+      <c r="N412" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="O412" s="38" t="s">
+      <c r="O412" s="12" t="s">
         <v>568</v>
       </c>
-      <c r="P412" s="37">
+      <c r="P412" s="11">
         <v>1039</v>
       </c>
-      <c r="Q412" s="37">
+      <c r="Q412" s="11">
         <v>165</v>
       </c>
-      <c r="R412" s="37">
+      <c r="R412" s="11">
         <v>85</v>
       </c>
-      <c r="S412" s="37">
+      <c r="S412" s="11">
         <v>242</v>
       </c>
-      <c r="T412" s="37">
+      <c r="T412" s="11">
         <v>14</v>
       </c>
-      <c r="U412" s="38" t="s">
-        <v>1180</v>
+      <c r="U412" s="12" t="s">
+        <v>1182</v>
       </c>
     </row>
     <row r="413" spans="1:21">
@@ -26132,29 +26632,29 @@
       <c r="C413" t="s">
         <v>121</v>
       </c>
-      <c r="N413" s="37" t="s">
+      <c r="N413" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="O413" s="38" t="s">
+      <c r="O413" s="12" t="s">
         <v>653</v>
       </c>
-      <c r="P413" s="37">
+      <c r="P413" s="11">
         <v>920</v>
       </c>
-      <c r="Q413" s="37">
+      <c r="Q413" s="11">
         <v>167</v>
       </c>
-      <c r="R413" s="37">
+      <c r="R413" s="11">
         <v>81</v>
       </c>
-      <c r="S413" s="37">
+      <c r="S413" s="11">
         <v>253</v>
       </c>
-      <c r="T413" s="37">
+      <c r="T413" s="11">
         <v>13</v>
       </c>
-      <c r="U413" s="38" t="s">
-        <v>1181</v>
+      <c r="U413" s="12" t="s">
+        <v>1183</v>
       </c>
     </row>
     <row r="414" spans="1:21">
@@ -26167,29 +26667,29 @@
       <c r="C414" t="s">
         <v>121</v>
       </c>
-      <c r="N414" s="37" t="s">
+      <c r="N414" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="O414" s="38" t="s">
+      <c r="O414" s="12" t="s">
         <v>650</v>
       </c>
-      <c r="P414" s="37">
+      <c r="P414" s="11">
         <v>262</v>
       </c>
-      <c r="Q414" s="37">
+      <c r="Q414" s="11">
         <v>70</v>
       </c>
-      <c r="R414" s="37">
+      <c r="R414" s="11">
         <v>22</v>
       </c>
-      <c r="S414" s="37">
+      <c r="S414" s="11">
         <v>110</v>
       </c>
-      <c r="T414" s="37">
+      <c r="T414" s="11">
         <v>1</v>
       </c>
-      <c r="U414" s="38" t="s">
-        <v>1182</v>
+      <c r="U414" s="12" t="s">
+        <v>1184</v>
       </c>
     </row>
     <row r="415" spans="1:21">
@@ -26202,32 +26702,32 @@
       <c r="C415" t="s">
         <v>121</v>
       </c>
-      <c r="N415" s="37" t="s">
+      <c r="N415" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="O415" s="38" t="s">
+      <c r="O415" s="12" t="s">
         <v>647</v>
       </c>
-      <c r="P415" s="37">
+      <c r="P415" s="11">
         <v>56</v>
       </c>
-      <c r="Q415" s="37">
+      <c r="Q415" s="11">
         <v>19</v>
       </c>
-      <c r="R415" s="37">
+      <c r="R415" s="11">
         <v>5</v>
       </c>
-      <c r="S415" s="37">
+      <c r="S415" s="11">
         <v>10</v>
       </c>
-      <c r="T415" s="37">
+      <c r="T415" s="11">
         <v>0</v>
       </c>
-      <c r="U415" s="38" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="416" spans="1:3">
+      <c r="U415" s="12" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="416" ht="14.25" spans="1:21">
       <c r="A416">
         <v>362</v>
       </c>
@@ -26237,38 +26737,3637 @@
       <c r="C416" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="417" spans="1:3">
+      <c r="D416">
+        <v>16.6</v>
+      </c>
+      <c r="E416">
+        <v>6.7</v>
+      </c>
+      <c r="F416">
+        <v>1.8</v>
+      </c>
+      <c r="G416">
+        <v>0.9</v>
+      </c>
+      <c r="H416">
+        <v>1.4</v>
+      </c>
+      <c r="I416">
+        <v>5</v>
+      </c>
+      <c r="J416">
+        <v>2.03</v>
+      </c>
+      <c r="K416">
+        <v>109</v>
+      </c>
+      <c r="L416" t="s">
+        <v>1186</v>
+      </c>
+      <c r="M416" t="s">
+        <v>821</v>
+      </c>
+      <c r="N416" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="O416" t="s">
+        <v>593</v>
+      </c>
+      <c r="P416" s="39">
+        <v>1225</v>
+      </c>
+      <c r="Q416" s="39">
+        <v>495</v>
+      </c>
+      <c r="R416" s="39">
+        <v>66</v>
+      </c>
+      <c r="S416" s="39">
+        <v>136</v>
+      </c>
+      <c r="T416" s="39">
+        <v>103</v>
+      </c>
+      <c r="U416" s="41" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="417" ht="14.25" spans="1:21">
       <c r="A417">
         <v>363</v>
       </c>
       <c r="B417" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C417" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="418" spans="1:3">
+      <c r="N417" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="O417" t="s">
+        <v>589</v>
+      </c>
+      <c r="P417" s="39">
+        <v>836</v>
+      </c>
+      <c r="Q417" s="39">
+        <v>307</v>
+      </c>
+      <c r="R417" s="39">
+        <v>36</v>
+      </c>
+      <c r="S417" s="39">
+        <v>74</v>
+      </c>
+      <c r="T417" s="39">
+        <v>52</v>
+      </c>
+      <c r="U417" s="41" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="418" ht="14.25" spans="1:21">
       <c r="A418">
         <v>364</v>
       </c>
       <c r="B418" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C418" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="419" spans="1:3">
+      <c r="N418" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="O418" t="s">
+        <v>586</v>
+      </c>
+      <c r="P418" s="39">
+        <v>527</v>
+      </c>
+      <c r="Q418" s="39">
+        <v>219</v>
+      </c>
+      <c r="R418" s="39">
+        <v>20</v>
+      </c>
+      <c r="S418" s="39">
+        <v>64</v>
+      </c>
+      <c r="T418" s="39">
+        <v>42</v>
+      </c>
+      <c r="U418" s="41" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="419" ht="14.25" spans="1:21">
       <c r="A419">
         <v>365</v>
       </c>
-      <c r="B419" s="41" t="s">
-        <v>135</v>
+      <c r="B419" t="s">
+        <v>127</v>
       </c>
       <c r="C419" t="s">
         <v>121</v>
+      </c>
+      <c r="N419" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="O419" t="s">
+        <v>583</v>
+      </c>
+      <c r="P419" s="39">
+        <v>140</v>
+      </c>
+      <c r="Q419" s="39">
+        <v>65</v>
+      </c>
+      <c r="R419" s="39">
+        <v>11</v>
+      </c>
+      <c r="S419" s="39">
+        <v>17</v>
+      </c>
+      <c r="T419" s="39">
+        <v>11</v>
+      </c>
+      <c r="U419" s="41" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="420" ht="14.25" spans="1:23">
+      <c r="A420">
+        <v>366</v>
+      </c>
+      <c r="B420" t="s">
+        <v>128</v>
+      </c>
+      <c r="C420" t="s">
+        <v>121</v>
+      </c>
+      <c r="D420">
+        <v>7.6</v>
+      </c>
+      <c r="E420">
+        <v>5</v>
+      </c>
+      <c r="F420">
+        <v>3.8</v>
+      </c>
+      <c r="G420">
+        <v>0.9</v>
+      </c>
+      <c r="H420">
+        <v>0.6</v>
+      </c>
+      <c r="I420">
+        <v>21</v>
+      </c>
+      <c r="J420">
+        <v>1.85</v>
+      </c>
+      <c r="K420">
+        <v>84</v>
+      </c>
+      <c r="L420" t="s">
+        <v>1191</v>
+      </c>
+      <c r="M420" t="s">
+        <v>1192</v>
+      </c>
+      <c r="N420" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="O420" t="s">
+        <v>593</v>
+      </c>
+      <c r="P420" s="39">
+        <v>564</v>
+      </c>
+      <c r="Q420" s="39">
+        <v>373</v>
+      </c>
+      <c r="R420" s="39">
+        <v>66</v>
+      </c>
+      <c r="S420" s="39">
+        <v>279</v>
+      </c>
+      <c r="T420" s="39">
+        <v>41</v>
+      </c>
+      <c r="U420" s="41" t="s">
+        <v>1193</v>
+      </c>
+      <c r="W420" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="421" ht="14.25" spans="1:23">
+      <c r="A421">
+        <v>367</v>
+      </c>
+      <c r="B421" t="s">
+        <v>128</v>
+      </c>
+      <c r="C421" t="s">
+        <v>121</v>
+      </c>
+      <c r="N421" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="O421" t="s">
+        <v>589</v>
+      </c>
+      <c r="P421" s="39">
+        <v>134</v>
+      </c>
+      <c r="Q421" s="39">
+        <v>45</v>
+      </c>
+      <c r="R421" s="39">
+        <v>19</v>
+      </c>
+      <c r="S421" s="39">
+        <v>32</v>
+      </c>
+      <c r="T421" s="39">
+        <v>5</v>
+      </c>
+      <c r="U421" s="41" t="s">
+        <v>1195</v>
+      </c>
+      <c r="W421" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="422" ht="14.25" spans="1:23">
+      <c r="A422">
+        <v>368</v>
+      </c>
+      <c r="B422" t="s">
+        <v>128</v>
+      </c>
+      <c r="C422" t="s">
+        <v>121</v>
+      </c>
+      <c r="N422" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="O422" t="s">
+        <v>586</v>
+      </c>
+      <c r="P422" s="39">
+        <v>639</v>
+      </c>
+      <c r="Q422" s="39">
+        <v>393</v>
+      </c>
+      <c r="R422" s="39">
+        <v>99</v>
+      </c>
+      <c r="S422" s="39">
+        <v>281</v>
+      </c>
+      <c r="T422" s="39">
+        <v>25</v>
+      </c>
+      <c r="U422" s="41" t="s">
+        <v>1197</v>
+      </c>
+      <c r="W422" s="42" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="423" ht="14.25" spans="1:21">
+      <c r="A423">
+        <v>369</v>
+      </c>
+      <c r="B423" t="s">
+        <v>128</v>
+      </c>
+      <c r="C423" t="s">
+        <v>121</v>
+      </c>
+      <c r="N423" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="O423" t="s">
+        <v>583</v>
+      </c>
+      <c r="P423" s="39">
+        <v>700</v>
+      </c>
+      <c r="Q423" s="39">
+        <v>250</v>
+      </c>
+      <c r="R423" s="39">
+        <v>94</v>
+      </c>
+      <c r="S423" s="39">
+        <v>239</v>
+      </c>
+      <c r="T423" s="39">
+        <v>26</v>
+      </c>
+      <c r="U423" s="41" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="424" ht="14.25" spans="1:21">
+      <c r="A424">
+        <v>370</v>
+      </c>
+      <c r="B424" t="s">
+        <v>128</v>
+      </c>
+      <c r="C424" t="s">
+        <v>121</v>
+      </c>
+      <c r="N424" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="O424" t="s">
+        <v>581</v>
+      </c>
+      <c r="P424" s="39">
+        <v>568</v>
+      </c>
+      <c r="Q424" s="39">
+        <v>237</v>
+      </c>
+      <c r="R424" s="39">
+        <v>59</v>
+      </c>
+      <c r="S424" s="39">
+        <v>192</v>
+      </c>
+      <c r="T424" s="39">
+        <v>23</v>
+      </c>
+      <c r="U424" s="41" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="425" ht="14.25" spans="1:21">
+      <c r="A425">
+        <v>371</v>
+      </c>
+      <c r="B425" t="s">
+        <v>128</v>
+      </c>
+      <c r="C425" t="s">
+        <v>121</v>
+      </c>
+      <c r="N425" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="O425" t="s">
+        <v>579</v>
+      </c>
+      <c r="P425" s="39">
+        <v>573</v>
+      </c>
+      <c r="Q425" s="39">
+        <v>196</v>
+      </c>
+      <c r="R425" s="39">
+        <v>77</v>
+      </c>
+      <c r="S425" s="39">
+        <v>151</v>
+      </c>
+      <c r="T425" s="39">
+        <v>23</v>
+      </c>
+      <c r="U425" s="41" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="426" ht="14.25" spans="1:21">
+      <c r="A426">
+        <v>372</v>
+      </c>
+      <c r="B426" t="s">
+        <v>128</v>
+      </c>
+      <c r="C426" t="s">
+        <v>121</v>
+      </c>
+      <c r="N426" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="O426" t="s">
+        <v>577</v>
+      </c>
+      <c r="P426" s="39">
+        <v>228</v>
+      </c>
+      <c r="Q426" s="39">
+        <v>109</v>
+      </c>
+      <c r="R426" s="39">
+        <v>37</v>
+      </c>
+      <c r="S426" s="39">
+        <v>117</v>
+      </c>
+      <c r="T426" s="39">
+        <v>21</v>
+      </c>
+      <c r="U426" s="41" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="427" ht="14.25" spans="1:21">
+      <c r="A427">
+        <v>373</v>
+      </c>
+      <c r="B427" t="s">
+        <v>130</v>
+      </c>
+      <c r="C427" t="s">
+        <v>121</v>
+      </c>
+      <c r="D427">
+        <v>10.4</v>
+      </c>
+      <c r="E427">
+        <v>2.7</v>
+      </c>
+      <c r="F427">
+        <v>3.2</v>
+      </c>
+      <c r="G427">
+        <v>1.1</v>
+      </c>
+      <c r="H427">
+        <v>0.5</v>
+      </c>
+      <c r="I427">
+        <v>2</v>
+      </c>
+      <c r="J427">
+        <v>1.98</v>
+      </c>
+      <c r="K427">
+        <v>82</v>
+      </c>
+      <c r="L427" t="s">
+        <v>1203</v>
+      </c>
+      <c r="M427" s="40" t="s">
+        <v>1204</v>
+      </c>
+      <c r="N427" t="s">
+        <v>121</v>
+      </c>
+      <c r="O427" t="s">
+        <v>593</v>
+      </c>
+      <c r="P427">
+        <v>770</v>
+      </c>
+      <c r="Q427">
+        <v>201</v>
+      </c>
+      <c r="R427">
+        <v>83</v>
+      </c>
+      <c r="S427">
+        <v>237</v>
+      </c>
+      <c r="T427">
+        <v>40</v>
+      </c>
+      <c r="U427" s="41" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="428" ht="14.25" spans="1:21">
+      <c r="A428">
+        <v>374</v>
+      </c>
+      <c r="B428" t="s">
+        <v>135</v>
+      </c>
+      <c r="C428" t="s">
+        <v>121</v>
+      </c>
+      <c r="D428">
+        <v>8.7</v>
+      </c>
+      <c r="E428">
+        <v>6</v>
+      </c>
+      <c r="F428">
+        <v>1.1</v>
+      </c>
+      <c r="G428">
+        <v>0.18</v>
+      </c>
+      <c r="H428">
+        <v>0.86</v>
+      </c>
+      <c r="I428">
+        <v>40</v>
+      </c>
+      <c r="J428">
+        <v>2.16</v>
+      </c>
+      <c r="K428">
+        <v>109</v>
+      </c>
+      <c r="L428" t="s">
+        <v>1206</v>
+      </c>
+      <c r="M428" t="s">
+        <v>1207</v>
+      </c>
+      <c r="N428" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="O428" t="s">
+        <v>593</v>
+      </c>
+      <c r="P428" s="39">
+        <v>162</v>
+      </c>
+      <c r="Q428" s="39">
+        <v>144</v>
+      </c>
+      <c r="R428" s="39">
+        <v>4</v>
+      </c>
+      <c r="S428" s="39">
+        <v>31</v>
+      </c>
+      <c r="T428" s="39">
+        <v>17</v>
+      </c>
+      <c r="U428" s="41" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="429" ht="14.25" spans="1:21">
+      <c r="A429">
+        <v>375</v>
+      </c>
+      <c r="B429" t="s">
+        <v>135</v>
+      </c>
+      <c r="C429" t="s">
+        <v>121</v>
+      </c>
+      <c r="N429" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="O429" t="s">
+        <v>593</v>
+      </c>
+      <c r="P429" s="39">
+        <v>281</v>
+      </c>
+      <c r="Q429" s="39">
+        <v>162</v>
+      </c>
+      <c r="R429" s="39">
+        <v>4</v>
+      </c>
+      <c r="S429" s="39">
+        <v>25</v>
+      </c>
+      <c r="T429" s="39">
+        <v>27</v>
+      </c>
+      <c r="U429" s="41" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="430" ht="14.25" spans="1:21">
+      <c r="A430">
+        <v>376</v>
+      </c>
+      <c r="B430" t="s">
+        <v>135</v>
+      </c>
+      <c r="C430" t="s">
+        <v>121</v>
+      </c>
+      <c r="N430" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="O430" t="s">
+        <v>589</v>
+      </c>
+      <c r="P430" s="39">
+        <v>161</v>
+      </c>
+      <c r="Q430" s="39">
+        <v>123</v>
+      </c>
+      <c r="R430" s="39">
+        <v>8</v>
+      </c>
+      <c r="S430" s="39">
+        <v>25</v>
+      </c>
+      <c r="T430" s="39">
+        <v>15</v>
+      </c>
+      <c r="U430" s="41" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="431" ht="14.25" spans="1:21">
+      <c r="A431">
+        <v>377</v>
+      </c>
+      <c r="B431" t="s">
+        <v>135</v>
+      </c>
+      <c r="C431" t="s">
+        <v>121</v>
+      </c>
+      <c r="N431" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="O431" t="s">
+        <v>586</v>
+      </c>
+      <c r="P431" s="39">
+        <v>284</v>
+      </c>
+      <c r="Q431" s="39">
+        <v>159</v>
+      </c>
+      <c r="R431" s="39">
+        <v>14</v>
+      </c>
+      <c r="S431" s="39">
+        <v>30</v>
+      </c>
+      <c r="T431" s="39">
+        <v>33</v>
+      </c>
+      <c r="U431" s="41" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="432" ht="14.25" spans="1:23">
+      <c r="A432">
+        <v>378</v>
+      </c>
+      <c r="B432" t="s">
+        <v>137</v>
+      </c>
+      <c r="C432" t="s">
+        <v>136</v>
+      </c>
+      <c r="D432">
+        <v>14.9</v>
+      </c>
+      <c r="E432">
+        <v>6.1</v>
+      </c>
+      <c r="F432">
+        <v>2.1</v>
+      </c>
+      <c r="G432">
+        <v>0.79</v>
+      </c>
+      <c r="H432">
+        <v>0.05</v>
+      </c>
+      <c r="I432">
+        <v>40</v>
+      </c>
+      <c r="J432">
+        <v>2.03</v>
+      </c>
+      <c r="K432">
+        <v>102</v>
+      </c>
+      <c r="L432" t="s">
+        <v>1212</v>
+      </c>
+      <c r="M432" t="s">
+        <v>1213</v>
+      </c>
+      <c r="N432" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="O432" t="s">
+        <v>593</v>
+      </c>
+      <c r="P432" s="39">
+        <v>283</v>
+      </c>
+      <c r="Q432" s="39">
+        <v>117</v>
+      </c>
+      <c r="R432" s="39">
+        <v>15</v>
+      </c>
+      <c r="S432" s="39">
+        <v>40</v>
+      </c>
+      <c r="T432" s="39">
+        <v>1</v>
+      </c>
+      <c r="U432" s="41" t="s">
+        <v>1214</v>
+      </c>
+      <c r="W432" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="433" ht="14.25" spans="1:23">
+      <c r="A433">
+        <v>379</v>
+      </c>
+      <c r="B433" t="s">
+        <v>137</v>
+      </c>
+      <c r="C433" t="s">
+        <v>136</v>
+      </c>
+      <c r="N433" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="O433" t="s">
+        <v>593</v>
+      </c>
+      <c r="P433" s="39">
+        <v>866</v>
+      </c>
+      <c r="Q433" s="39">
+        <v>207</v>
+      </c>
+      <c r="R433" s="39">
+        <v>33</v>
+      </c>
+      <c r="S433" s="39">
+        <v>62</v>
+      </c>
+      <c r="T433" s="39">
+        <v>11</v>
+      </c>
+      <c r="U433" s="41" t="s">
+        <v>1215</v>
+      </c>
+      <c r="W433" s="42" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="434" ht="14.25" spans="1:21">
+      <c r="A434">
+        <v>380</v>
+      </c>
+      <c r="B434" t="s">
+        <v>137</v>
+      </c>
+      <c r="C434" t="s">
+        <v>136</v>
+      </c>
+      <c r="N434" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="O434" t="s">
+        <v>589</v>
+      </c>
+      <c r="P434" s="39">
+        <v>1452</v>
+      </c>
+      <c r="Q434" s="39">
+        <v>468</v>
+      </c>
+      <c r="R434" s="39">
+        <v>49</v>
+      </c>
+      <c r="S434" s="39">
+        <v>152</v>
+      </c>
+      <c r="T434" s="39">
+        <v>14</v>
+      </c>
+      <c r="U434" s="41" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="435" ht="14.25" spans="1:21">
+      <c r="A435">
+        <v>381</v>
+      </c>
+      <c r="B435" t="s">
+        <v>137</v>
+      </c>
+      <c r="C435" t="s">
+        <v>136</v>
+      </c>
+      <c r="N435" s="39" t="s">
+        <v>961</v>
+      </c>
+      <c r="O435" t="s">
+        <v>586</v>
+      </c>
+      <c r="P435" s="39">
+        <v>1518</v>
+      </c>
+      <c r="Q435" s="39">
+        <v>394</v>
+      </c>
+      <c r="R435" s="39">
+        <v>65</v>
+      </c>
+      <c r="S435" s="39">
+        <v>117</v>
+      </c>
+      <c r="T435" s="39">
+        <v>15</v>
+      </c>
+      <c r="U435" s="41" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="436" ht="14.25" spans="1:21">
+      <c r="A436">
+        <v>382</v>
+      </c>
+      <c r="B436" t="s">
+        <v>137</v>
+      </c>
+      <c r="C436" t="s">
+        <v>136</v>
+      </c>
+      <c r="N436" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="O436" t="s">
+        <v>583</v>
+      </c>
+      <c r="P436" s="39">
+        <v>774</v>
+      </c>
+      <c r="Q436" s="39">
+        <v>325</v>
+      </c>
+      <c r="R436" s="39">
+        <v>41</v>
+      </c>
+      <c r="S436" s="39">
+        <v>117</v>
+      </c>
+      <c r="T436" s="39">
+        <v>10</v>
+      </c>
+      <c r="U436" s="41" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="437" ht="14.25" spans="1:21">
+      <c r="A437">
+        <v>383</v>
+      </c>
+      <c r="B437" t="s">
+        <v>137</v>
+      </c>
+      <c r="C437" t="s">
+        <v>136</v>
+      </c>
+      <c r="N437" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="O437" t="s">
+        <v>581</v>
+      </c>
+      <c r="P437" s="39">
+        <v>827</v>
+      </c>
+      <c r="Q437" s="39">
+        <v>453</v>
+      </c>
+      <c r="R437" s="39">
+        <v>61</v>
+      </c>
+      <c r="S437" s="39">
+        <v>116</v>
+      </c>
+      <c r="T437" s="39">
+        <v>19</v>
+      </c>
+      <c r="U437" s="41" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="438" ht="14.25" spans="1:21">
+      <c r="A438">
+        <v>384</v>
+      </c>
+      <c r="B438" t="s">
+        <v>137</v>
+      </c>
+      <c r="C438" t="s">
+        <v>136</v>
+      </c>
+      <c r="N438" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="O438" t="s">
+        <v>579</v>
+      </c>
+      <c r="P438" s="39">
+        <v>738</v>
+      </c>
+      <c r="Q438" s="39">
+        <v>311</v>
+      </c>
+      <c r="R438" s="39">
+        <v>65</v>
+      </c>
+      <c r="S438" s="39">
+        <v>116</v>
+      </c>
+      <c r="T438" s="39">
+        <v>20</v>
+      </c>
+      <c r="U438" s="41" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="439" ht="14.25" spans="1:21">
+      <c r="A439">
+        <v>385</v>
+      </c>
+      <c r="B439" t="s">
+        <v>137</v>
+      </c>
+      <c r="C439" t="s">
+        <v>136</v>
+      </c>
+      <c r="N439" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="O439" t="s">
+        <v>577</v>
+      </c>
+      <c r="P439" s="39">
+        <v>748</v>
+      </c>
+      <c r="Q439" s="39">
+        <v>333</v>
+      </c>
+      <c r="R439" s="39">
+        <v>52</v>
+      </c>
+      <c r="S439" s="39">
+        <v>98</v>
+      </c>
+      <c r="T439" s="39">
+        <v>14</v>
+      </c>
+      <c r="U439" s="41" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="440" ht="14.25" spans="1:21">
+      <c r="A440">
+        <v>386</v>
+      </c>
+      <c r="B440" t="s">
+        <v>140</v>
+      </c>
+      <c r="C440" t="s">
+        <v>136</v>
+      </c>
+      <c r="D440">
+        <v>14.1</v>
+      </c>
+      <c r="E440">
+        <v>3.5</v>
+      </c>
+      <c r="F440">
+        <v>3.8</v>
+      </c>
+      <c r="G440">
+        <v>1.05</v>
+      </c>
+      <c r="H440">
+        <v>0.22</v>
+      </c>
+      <c r="I440">
+        <v>8</v>
+      </c>
+      <c r="J440">
+        <v>1.98</v>
+      </c>
+      <c r="K440">
+        <v>93</v>
+      </c>
+      <c r="L440" t="s">
+        <v>1223</v>
+      </c>
+      <c r="M440" t="s">
+        <v>1224</v>
+      </c>
+      <c r="N440" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="O440" t="s">
+        <v>593</v>
+      </c>
+      <c r="P440" s="39">
+        <v>854</v>
+      </c>
+      <c r="Q440" s="39">
+        <v>214</v>
+      </c>
+      <c r="R440" s="39">
+        <v>65</v>
+      </c>
+      <c r="S440" s="39">
+        <v>233</v>
+      </c>
+      <c r="T440" s="39">
+        <v>14</v>
+      </c>
+      <c r="U440" s="41" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="441" ht="14.25" spans="1:21">
+      <c r="A441">
+        <v>387</v>
+      </c>
+      <c r="B441" t="s">
+        <v>140</v>
+      </c>
+      <c r="C441" t="s">
+        <v>136</v>
+      </c>
+      <c r="N441" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="O441" t="s">
+        <v>589</v>
+      </c>
+      <c r="P441" s="39">
+        <v>917</v>
+      </c>
+      <c r="Q441" s="39">
+        <v>223</v>
+      </c>
+      <c r="R441" s="39">
+        <v>72</v>
+      </c>
+      <c r="S441" s="39">
+        <v>258</v>
+      </c>
+      <c r="T441" s="39">
+        <v>16</v>
+      </c>
+      <c r="U441" s="41" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="442" ht="14.25" spans="1:21">
+      <c r="A442">
+        <v>388</v>
+      </c>
+      <c r="B442" t="s">
+        <v>141</v>
+      </c>
+      <c r="C442" t="s">
+        <v>136</v>
+      </c>
+      <c r="D442">
+        <v>14.7</v>
+      </c>
+      <c r="E442">
+        <v>7.4</v>
+      </c>
+      <c r="F442">
+        <v>1</v>
+      </c>
+      <c r="G442">
+        <v>0.59</v>
+      </c>
+      <c r="H442">
+        <v>0.98</v>
+      </c>
+      <c r="I442">
+        <v>35</v>
+      </c>
+      <c r="J442">
+        <v>2.11</v>
+      </c>
+      <c r="K442">
+        <v>107</v>
+      </c>
+      <c r="L442" t="s">
+        <v>1227</v>
+      </c>
+      <c r="M442" t="s">
+        <v>1228</v>
+      </c>
+      <c r="N442" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="O442" t="s">
+        <v>593</v>
+      </c>
+      <c r="P442">
+        <v>793</v>
+      </c>
+      <c r="Q442">
+        <v>398</v>
+      </c>
+      <c r="R442">
+        <v>31</v>
+      </c>
+      <c r="S442">
+        <v>55</v>
+      </c>
+      <c r="T442">
+        <v>53</v>
+      </c>
+      <c r="U442" s="41" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="443" ht="14.25" spans="1:21">
+      <c r="A443">
+        <v>389</v>
+      </c>
+      <c r="B443" t="s">
+        <v>143</v>
+      </c>
+      <c r="C443" t="s">
+        <v>136</v>
+      </c>
+      <c r="D443">
+        <v>17.4</v>
+      </c>
+      <c r="E443">
+        <v>3.8</v>
+      </c>
+      <c r="F443">
+        <v>7.2</v>
+      </c>
+      <c r="G443">
+        <v>1.69</v>
+      </c>
+      <c r="H443">
+        <v>0.56</v>
+      </c>
+      <c r="I443">
+        <v>5</v>
+      </c>
+      <c r="J443">
+        <v>1.91</v>
+      </c>
+      <c r="K443">
+        <v>79</v>
+      </c>
+      <c r="L443" t="s">
+        <v>1230</v>
+      </c>
+      <c r="M443" t="s">
+        <v>1231</v>
+      </c>
+      <c r="N443" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="O443" t="s">
+        <v>593</v>
+      </c>
+      <c r="P443" s="39">
+        <v>1251</v>
+      </c>
+      <c r="Q443" s="39">
+        <v>270</v>
+      </c>
+      <c r="R443" s="39">
+        <v>122</v>
+      </c>
+      <c r="S443" s="39">
+        <v>519</v>
+      </c>
+      <c r="T443" s="39">
+        <v>40</v>
+      </c>
+      <c r="U443" s="41" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="444" ht="14.25" spans="1:21">
+      <c r="A444">
+        <v>390</v>
+      </c>
+      <c r="B444" t="s">
+        <v>143</v>
+      </c>
+      <c r="C444" t="s">
+        <v>136</v>
+      </c>
+      <c r="N444" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="O444" t="s">
+        <v>589</v>
+      </c>
+      <c r="P444" s="39">
+        <v>844</v>
+      </c>
+      <c r="Q444" s="39">
+        <v>204</v>
+      </c>
+      <c r="R444" s="39">
+        <v>70</v>
+      </c>
+      <c r="S444" s="39">
+        <v>320</v>
+      </c>
+      <c r="T444" s="39">
+        <v>20</v>
+      </c>
+      <c r="U444" s="41" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="445" ht="14.25" spans="1:21">
+      <c r="A445">
+        <v>391</v>
+      </c>
+      <c r="B445" t="s">
+        <v>145</v>
+      </c>
+      <c r="C445" t="s">
+        <v>136</v>
+      </c>
+      <c r="D445">
+        <v>20.9</v>
+      </c>
+      <c r="E445">
+        <v>5.2</v>
+      </c>
+      <c r="F445">
+        <v>2.5</v>
+      </c>
+      <c r="G445">
+        <v>0.68</v>
+      </c>
+      <c r="H445">
+        <v>0.38</v>
+      </c>
+      <c r="I445">
+        <v>24</v>
+      </c>
+      <c r="J445">
+        <v>1.93</v>
+      </c>
+      <c r="K445">
+        <v>97</v>
+      </c>
+      <c r="L445" t="s">
+        <v>1234</v>
+      </c>
+      <c r="M445" t="s">
+        <v>1235</v>
+      </c>
+      <c r="N445" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="O445" t="s">
+        <v>593</v>
+      </c>
+      <c r="P445" s="39">
+        <v>1523</v>
+      </c>
+      <c r="Q445" s="39">
+        <v>377</v>
+      </c>
+      <c r="R445" s="39">
+        <v>50</v>
+      </c>
+      <c r="S445" s="39">
+        <v>180</v>
+      </c>
+      <c r="T445" s="39">
+        <v>29</v>
+      </c>
+      <c r="U445" s="41" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="446" ht="14.25" spans="1:21">
+      <c r="A446">
+        <v>392</v>
+      </c>
+      <c r="B446" t="s">
+        <v>145</v>
+      </c>
+      <c r="C446" t="s">
+        <v>136</v>
+      </c>
+      <c r="N446" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="O446" t="s">
+        <v>589</v>
+      </c>
+      <c r="P446" s="39">
+        <v>1079</v>
+      </c>
+      <c r="Q446" s="39">
+        <v>307</v>
+      </c>
+      <c r="R446" s="39">
+        <v>85</v>
+      </c>
+      <c r="S446" s="39">
+        <v>155</v>
+      </c>
+      <c r="T446" s="39">
+        <v>22</v>
+      </c>
+      <c r="U446" s="41" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="447" ht="14.25" spans="1:21">
+      <c r="A447">
+        <v>393</v>
+      </c>
+      <c r="B447" t="s">
+        <v>145</v>
+      </c>
+      <c r="C447" t="s">
+        <v>136</v>
+      </c>
+      <c r="N447" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="O447" t="s">
+        <v>586</v>
+      </c>
+      <c r="P447" s="39">
+        <v>378</v>
+      </c>
+      <c r="Q447" s="39">
+        <v>103</v>
+      </c>
+      <c r="R447" s="39">
+        <v>20</v>
+      </c>
+      <c r="S447" s="39">
+        <v>44</v>
+      </c>
+      <c r="T447" s="39">
+        <v>2</v>
+      </c>
+      <c r="U447" s="41" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="448" ht="14.25" spans="1:21">
+      <c r="A448">
+        <v>394</v>
+      </c>
+      <c r="B448" t="s">
+        <v>145</v>
+      </c>
+      <c r="C448" t="s">
+        <v>136</v>
+      </c>
+      <c r="N448" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="O448" t="s">
+        <v>586</v>
+      </c>
+      <c r="P448" s="39">
+        <v>488</v>
+      </c>
+      <c r="Q448" s="39">
+        <v>166</v>
+      </c>
+      <c r="R448" s="39">
+        <v>18</v>
+      </c>
+      <c r="S448" s="39">
+        <v>77</v>
+      </c>
+      <c r="T448" s="39">
+        <v>7</v>
+      </c>
+      <c r="U448" s="41" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="449" ht="14.25" spans="1:23">
+      <c r="A449">
+        <v>395</v>
+      </c>
+      <c r="B449" t="s">
+        <v>152</v>
+      </c>
+      <c r="C449" t="s">
+        <v>150</v>
+      </c>
+      <c r="D449">
+        <v>27.5</v>
+      </c>
+      <c r="E449">
+        <v>8.5</v>
+      </c>
+      <c r="F449">
+        <v>8.1</v>
+      </c>
+      <c r="G449">
+        <v>1.34</v>
+      </c>
+      <c r="H449">
+        <v>0.62</v>
+      </c>
+      <c r="I449">
+        <v>23</v>
+      </c>
+      <c r="J449">
+        <v>2.03</v>
+      </c>
+      <c r="K449">
+        <v>113</v>
+      </c>
+      <c r="L449" t="s">
+        <v>1240</v>
+      </c>
+      <c r="M449" t="s">
+        <v>1241</v>
+      </c>
+      <c r="N449" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="O449" t="s">
+        <v>593</v>
+      </c>
+      <c r="P449" s="39">
+        <v>1455</v>
+      </c>
+      <c r="Q449" s="39">
+        <v>455</v>
+      </c>
+      <c r="R449" s="39">
+        <v>71</v>
+      </c>
+      <c r="S449" s="39">
+        <v>431</v>
+      </c>
+      <c r="T449" s="39">
+        <v>33</v>
+      </c>
+      <c r="U449" s="41" t="s">
+        <v>1242</v>
+      </c>
+      <c r="W449" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="450" ht="14.25" spans="1:23">
+      <c r="A450">
+        <v>396</v>
+      </c>
+      <c r="B450" t="s">
+        <v>152</v>
+      </c>
+      <c r="C450" t="s">
+        <v>150</v>
+      </c>
+      <c r="N450" s="39" t="s">
+        <v>1244</v>
+      </c>
+      <c r="O450" t="s">
+        <v>589</v>
+      </c>
+      <c r="P450" s="39">
+        <v>2251</v>
+      </c>
+      <c r="Q450" s="39">
+        <v>709</v>
+      </c>
+      <c r="R450" s="39">
+        <v>116</v>
+      </c>
+      <c r="S450" s="39">
+        <v>747</v>
+      </c>
+      <c r="T450" s="39">
+        <v>71</v>
+      </c>
+      <c r="U450" s="41" t="s">
+        <v>1245</v>
+      </c>
+      <c r="W450" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="451" ht="14.25" spans="1:23">
+      <c r="A451">
+        <v>397</v>
+      </c>
+      <c r="B451" t="s">
+        <v>152</v>
+      </c>
+      <c r="C451" t="s">
+        <v>150</v>
+      </c>
+      <c r="N451" s="39" t="s">
+        <v>1244</v>
+      </c>
+      <c r="O451" t="s">
+        <v>586</v>
+      </c>
+      <c r="P451" s="39">
+        <v>1954</v>
+      </c>
+      <c r="Q451" s="39">
+        <v>639</v>
+      </c>
+      <c r="R451" s="39">
+        <v>92</v>
+      </c>
+      <c r="S451" s="39">
+        <v>646</v>
+      </c>
+      <c r="T451" s="39">
+        <v>44</v>
+      </c>
+      <c r="U451" s="41" t="s">
+        <v>1247</v>
+      </c>
+      <c r="W451" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="452" ht="14.25" spans="1:23">
+      <c r="A452">
+        <v>398</v>
+      </c>
+      <c r="B452" t="s">
+        <v>152</v>
+      </c>
+      <c r="C452" t="s">
+        <v>150</v>
+      </c>
+      <c r="N452" s="39" t="s">
+        <v>1244</v>
+      </c>
+      <c r="O452" t="s">
+        <v>583</v>
+      </c>
+      <c r="P452" s="39">
+        <v>1920</v>
+      </c>
+      <c r="Q452" s="39">
+        <v>565</v>
+      </c>
+      <c r="R452" s="39">
+        <v>104</v>
+      </c>
+      <c r="S452" s="39">
+        <v>514</v>
+      </c>
+      <c r="T452" s="39">
+        <v>49</v>
+      </c>
+      <c r="U452" s="41" t="s">
+        <v>1249</v>
+      </c>
+      <c r="W452" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="453" ht="14.25" spans="1:23">
+      <c r="A453">
+        <v>399</v>
+      </c>
+      <c r="B453" t="s">
+        <v>152</v>
+      </c>
+      <c r="C453" t="s">
+        <v>150</v>
+      </c>
+      <c r="N453" s="39" t="s">
+        <v>1244</v>
+      </c>
+      <c r="O453" t="s">
+        <v>581</v>
+      </c>
+      <c r="P453" s="39">
+        <v>1743</v>
+      </c>
+      <c r="Q453" s="39">
+        <v>416</v>
+      </c>
+      <c r="R453" s="39">
+        <v>109</v>
+      </c>
+      <c r="S453" s="39">
+        <v>511</v>
+      </c>
+      <c r="T453" s="39">
+        <v>49</v>
+      </c>
+      <c r="U453" s="41" t="s">
+        <v>1251</v>
+      </c>
+      <c r="W453" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="454" ht="14.25" spans="1:23">
+      <c r="A454">
+        <v>400</v>
+      </c>
+      <c r="B454" t="s">
+        <v>152</v>
+      </c>
+      <c r="C454" t="s">
+        <v>150</v>
+      </c>
+      <c r="N454" s="39" t="s">
+        <v>365</v>
+      </c>
+      <c r="O454" t="s">
+        <v>579</v>
+      </c>
+      <c r="P454" s="39">
+        <v>2089</v>
+      </c>
+      <c r="Q454" s="39">
+        <v>533</v>
+      </c>
+      <c r="R454" s="39">
+        <v>121</v>
+      </c>
+      <c r="S454" s="39">
+        <v>488</v>
+      </c>
+      <c r="T454" s="39">
+        <v>26</v>
+      </c>
+      <c r="U454" s="41" t="s">
+        <v>1253</v>
+      </c>
+      <c r="W454" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="455" ht="14.25" spans="1:23">
+      <c r="A455">
+        <v>401</v>
+      </c>
+      <c r="B455" t="s">
+        <v>152</v>
+      </c>
+      <c r="C455" t="s">
+        <v>150</v>
+      </c>
+      <c r="N455" s="39" t="s">
+        <v>365</v>
+      </c>
+      <c r="O455" t="s">
+        <v>577</v>
+      </c>
+      <c r="P455" s="39">
+        <v>2036</v>
+      </c>
+      <c r="Q455" s="39">
+        <v>610</v>
+      </c>
+      <c r="R455" s="39">
+        <v>129</v>
+      </c>
+      <c r="S455" s="39">
+        <v>551</v>
+      </c>
+      <c r="T455" s="39">
+        <v>67</v>
+      </c>
+      <c r="U455" s="41" t="s">
+        <v>1255</v>
+      </c>
+      <c r="W455" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="456" ht="14.25" spans="1:23">
+      <c r="A456">
+        <v>402</v>
+      </c>
+      <c r="B456" t="s">
+        <v>152</v>
+      </c>
+      <c r="C456" t="s">
+        <v>150</v>
+      </c>
+      <c r="N456" s="39" t="s">
+        <v>365</v>
+      </c>
+      <c r="O456" t="s">
+        <v>575</v>
+      </c>
+      <c r="P456" s="39">
+        <v>1683</v>
+      </c>
+      <c r="Q456" s="39">
+        <v>492</v>
+      </c>
+      <c r="R456" s="39">
+        <v>115</v>
+      </c>
+      <c r="S456" s="39">
+        <v>387</v>
+      </c>
+      <c r="T456" s="39">
+        <v>50</v>
+      </c>
+      <c r="U456" s="41" t="s">
+        <v>1257</v>
+      </c>
+      <c r="W456" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="457" ht="14.25" spans="1:23">
+      <c r="A457">
+        <v>403</v>
+      </c>
+      <c r="B457" t="s">
+        <v>152</v>
+      </c>
+      <c r="C457" t="s">
+        <v>150</v>
+      </c>
+      <c r="N457" s="39" t="s">
+        <v>365</v>
+      </c>
+      <c r="O457" t="s">
+        <v>572</v>
+      </c>
+      <c r="P457" s="39">
+        <v>2111</v>
+      </c>
+      <c r="Q457" s="39">
+        <v>590</v>
+      </c>
+      <c r="R457" s="39">
+        <v>124</v>
+      </c>
+      <c r="S457" s="39">
+        <v>554</v>
+      </c>
+      <c r="T457" s="39">
+        <v>50</v>
+      </c>
+      <c r="U457" s="41" t="s">
+        <v>1259</v>
+      </c>
+      <c r="W457" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="458" ht="14.25" spans="1:23">
+      <c r="A458">
+        <v>404</v>
+      </c>
+      <c r="B458" t="s">
+        <v>152</v>
+      </c>
+      <c r="C458" t="s">
+        <v>150</v>
+      </c>
+      <c r="N458" s="39" t="s">
+        <v>1244</v>
+      </c>
+      <c r="O458" t="s">
+        <v>570</v>
+      </c>
+      <c r="P458" s="39">
+        <v>2258</v>
+      </c>
+      <c r="Q458" s="39">
+        <v>554</v>
+      </c>
+      <c r="R458" s="39">
+        <v>125</v>
+      </c>
+      <c r="S458" s="39">
+        <v>651</v>
+      </c>
+      <c r="T458" s="39">
+        <v>77</v>
+      </c>
+      <c r="U458" s="41" t="s">
+        <v>1261</v>
+      </c>
+      <c r="W458" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="459" ht="14.25" spans="1:23">
+      <c r="A459">
+        <v>405</v>
+      </c>
+      <c r="B459" t="s">
+        <v>152</v>
+      </c>
+      <c r="C459" t="s">
+        <v>150</v>
+      </c>
+      <c r="N459" s="39" t="s">
+        <v>1244</v>
+      </c>
+      <c r="O459" t="s">
+        <v>568</v>
+      </c>
+      <c r="P459" s="39">
+        <v>2304</v>
+      </c>
+      <c r="Q459" s="39">
+        <v>613</v>
+      </c>
+      <c r="R459" s="39">
+        <v>137</v>
+      </c>
+      <c r="S459" s="39">
+        <v>587</v>
+      </c>
+      <c r="T459" s="39">
+        <v>93</v>
+      </c>
+      <c r="U459" s="41" t="s">
+        <v>1263</v>
+      </c>
+      <c r="W459" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="460" ht="14.25" spans="1:23">
+      <c r="A460">
+        <v>406</v>
+      </c>
+      <c r="B460" t="s">
+        <v>152</v>
+      </c>
+      <c r="C460" t="s">
+        <v>150</v>
+      </c>
+      <c r="N460" s="39" t="s">
+        <v>1244</v>
+      </c>
+      <c r="O460" t="s">
+        <v>653</v>
+      </c>
+      <c r="P460" s="39">
+        <v>2250</v>
+      </c>
+      <c r="Q460" s="39">
+        <v>592</v>
+      </c>
+      <c r="R460" s="39">
+        <v>138</v>
+      </c>
+      <c r="S460" s="39">
+        <v>539</v>
+      </c>
+      <c r="T460" s="39">
+        <v>81</v>
+      </c>
+      <c r="U460" s="41" t="s">
+        <v>1265</v>
+      </c>
+      <c r="W460" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="461" ht="14.25" spans="1:23">
+      <c r="A461">
+        <v>407</v>
+      </c>
+      <c r="B461" t="s">
+        <v>152</v>
+      </c>
+      <c r="C461" t="s">
+        <v>150</v>
+      </c>
+      <c r="N461" s="39" t="s">
+        <v>1244</v>
+      </c>
+      <c r="O461" t="s">
+        <v>650</v>
+      </c>
+      <c r="P461" s="39">
+        <v>2132</v>
+      </c>
+      <c r="Q461" s="39">
+        <v>526</v>
+      </c>
+      <c r="R461" s="39">
+        <v>125</v>
+      </c>
+      <c r="S461" s="39">
+        <v>470</v>
+      </c>
+      <c r="T461" s="39">
+        <v>55</v>
+      </c>
+      <c r="U461" s="41" t="s">
+        <v>1267</v>
+      </c>
+      <c r="W461" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="462" ht="14.25" spans="1:23">
+      <c r="A462">
+        <v>408</v>
+      </c>
+      <c r="B462" t="s">
+        <v>152</v>
+      </c>
+      <c r="C462" t="s">
+        <v>150</v>
+      </c>
+      <c r="N462" s="39" t="s">
+        <v>1244</v>
+      </c>
+      <c r="O462" t="s">
+        <v>647</v>
+      </c>
+      <c r="P462" s="39">
+        <v>2478</v>
+      </c>
+      <c r="Q462" s="39">
+        <v>556</v>
+      </c>
+      <c r="R462" s="39">
+        <v>123</v>
+      </c>
+      <c r="S462" s="39">
+        <v>521</v>
+      </c>
+      <c r="T462" s="39">
+        <v>66</v>
+      </c>
+      <c r="U462" s="41" t="s">
+        <v>1269</v>
+      </c>
+      <c r="W462" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="463" ht="14.25" spans="1:23">
+      <c r="A463">
+        <v>409</v>
+      </c>
+      <c r="B463" t="s">
+        <v>152</v>
+      </c>
+      <c r="C463" t="s">
+        <v>150</v>
+      </c>
+      <c r="N463" s="39" t="s">
+        <v>1244</v>
+      </c>
+      <c r="O463" t="s">
+        <v>986</v>
+      </c>
+      <c r="P463" s="39">
+        <v>2175</v>
+      </c>
+      <c r="Q463" s="39">
+        <v>588</v>
+      </c>
+      <c r="R463" s="39">
+        <v>177</v>
+      </c>
+      <c r="S463" s="39">
+        <v>577</v>
+      </c>
+      <c r="T463" s="39">
+        <v>52</v>
+      </c>
+      <c r="U463" s="41" t="s">
+        <v>1271</v>
+      </c>
+      <c r="W463" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="464" ht="14.25" spans="1:23">
+      <c r="A464">
+        <v>410</v>
+      </c>
+      <c r="B464" t="s">
+        <v>152</v>
+      </c>
+      <c r="C464" t="s">
+        <v>150</v>
+      </c>
+      <c r="N464" s="39" t="s">
+        <v>1244</v>
+      </c>
+      <c r="O464" t="s">
+        <v>989</v>
+      </c>
+      <c r="P464" s="39">
+        <v>1654</v>
+      </c>
+      <c r="Q464" s="39">
+        <v>432</v>
+      </c>
+      <c r="R464" s="39">
+        <v>130</v>
+      </c>
+      <c r="S464" s="39">
+        <v>465</v>
+      </c>
+      <c r="T464" s="39">
+        <v>58</v>
+      </c>
+      <c r="U464" s="41" t="s">
+        <v>1273</v>
+      </c>
+      <c r="W464" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="465" spans="1:23">
+      <c r="A465">
+        <v>411</v>
+      </c>
+      <c r="B465" t="s">
+        <v>152</v>
+      </c>
+      <c r="C465" t="s">
+        <v>150</v>
+      </c>
+      <c r="W465" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="466" spans="1:23">
+      <c r="A466">
+        <v>412</v>
+      </c>
+      <c r="B466" t="s">
+        <v>152</v>
+      </c>
+      <c r="C466" t="s">
+        <v>150</v>
+      </c>
+      <c r="W466" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="467" spans="1:23">
+      <c r="A467">
+        <v>413</v>
+      </c>
+      <c r="B467" t="s">
+        <v>152</v>
+      </c>
+      <c r="C467" t="s">
+        <v>150</v>
+      </c>
+      <c r="W467" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="468" spans="1:23">
+      <c r="A468">
+        <v>414</v>
+      </c>
+      <c r="B468" t="s">
+        <v>152</v>
+      </c>
+      <c r="C468" t="s">
+        <v>150</v>
+      </c>
+      <c r="W468" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="469" spans="1:23">
+      <c r="A469">
+        <v>415</v>
+      </c>
+      <c r="B469" t="s">
+        <v>152</v>
+      </c>
+      <c r="C469" t="s">
+        <v>150</v>
+      </c>
+      <c r="W469" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="470" spans="1:23">
+      <c r="A470">
+        <v>416</v>
+      </c>
+      <c r="B470" t="s">
+        <v>152</v>
+      </c>
+      <c r="C470" t="s">
+        <v>150</v>
+      </c>
+      <c r="W470" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="471" spans="1:23">
+      <c r="A471">
+        <v>417</v>
+      </c>
+      <c r="B471" t="s">
+        <v>152</v>
+      </c>
+      <c r="C471" t="s">
+        <v>150</v>
+      </c>
+      <c r="W471" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="472" spans="1:23">
+      <c r="A472">
+        <v>418</v>
+      </c>
+      <c r="B472" t="s">
+        <v>152</v>
+      </c>
+      <c r="C472" t="s">
+        <v>150</v>
+      </c>
+      <c r="W472" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="473" spans="1:23">
+      <c r="A473">
+        <v>419</v>
+      </c>
+      <c r="B473" t="s">
+        <v>152</v>
+      </c>
+      <c r="C473" t="s">
+        <v>150</v>
+      </c>
+      <c r="W473" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="474" spans="1:23">
+      <c r="A474">
+        <v>420</v>
+      </c>
+      <c r="B474" t="s">
+        <v>152</v>
+      </c>
+      <c r="C474" t="s">
+        <v>150</v>
+      </c>
+      <c r="W474" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="475" spans="1:23">
+      <c r="A475">
+        <v>421</v>
+      </c>
+      <c r="B475" t="s">
+        <v>152</v>
+      </c>
+      <c r="C475" t="s">
+        <v>150</v>
+      </c>
+      <c r="W475" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="476" spans="1:23">
+      <c r="A476">
+        <v>422</v>
+      </c>
+      <c r="B476" t="s">
+        <v>152</v>
+      </c>
+      <c r="C476" t="s">
+        <v>150</v>
+      </c>
+      <c r="W476" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="477" ht="14.25" spans="1:23">
+      <c r="A477">
+        <v>423</v>
+      </c>
+      <c r="B477" t="s">
+        <v>156</v>
+      </c>
+      <c r="C477" t="s">
+        <v>150</v>
+      </c>
+      <c r="D477">
+        <v>18.3</v>
+      </c>
+      <c r="E477">
+        <v>5.2</v>
+      </c>
+      <c r="F477">
+        <v>3</v>
+      </c>
+      <c r="G477">
+        <v>0.54</v>
+      </c>
+      <c r="H477">
+        <v>0.62</v>
+      </c>
+      <c r="I477">
+        <v>14</v>
+      </c>
+      <c r="J477">
+        <v>2.06</v>
+      </c>
+      <c r="K477">
+        <v>86</v>
+      </c>
+      <c r="L477" t="s">
+        <v>1287</v>
+      </c>
+      <c r="M477" t="s">
+        <v>1288</v>
+      </c>
+      <c r="N477" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="O477" t="s">
+        <v>593</v>
+      </c>
+      <c r="P477" s="39">
+        <v>950</v>
+      </c>
+      <c r="Q477" s="39">
+        <v>267</v>
+      </c>
+      <c r="R477" s="39">
+        <v>28</v>
+      </c>
+      <c r="S477" s="39">
+        <v>154</v>
+      </c>
+      <c r="T477" s="39">
+        <v>31</v>
+      </c>
+      <c r="U477" s="41" t="s">
+        <v>1289</v>
+      </c>
+      <c r="W477" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="478" ht="14.25" spans="1:21">
+      <c r="A478">
+        <v>424</v>
+      </c>
+      <c r="B478" t="s">
+        <v>156</v>
+      </c>
+      <c r="C478" t="s">
+        <v>150</v>
+      </c>
+      <c r="N478" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="O478" t="s">
+        <v>589</v>
+      </c>
+      <c r="P478" s="39">
+        <v>949</v>
+      </c>
+      <c r="Q478" s="39">
+        <v>314</v>
+      </c>
+      <c r="R478" s="39">
+        <v>45</v>
+      </c>
+      <c r="S478" s="39">
+        <v>230</v>
+      </c>
+      <c r="T478" s="39">
+        <v>43</v>
+      </c>
+      <c r="U478" s="41" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="479" ht="14.25" spans="1:21">
+      <c r="A479">
+        <v>425</v>
+      </c>
+      <c r="B479" t="s">
+        <v>156</v>
+      </c>
+      <c r="C479" t="s">
+        <v>150</v>
+      </c>
+      <c r="N479" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="O479" t="s">
+        <v>586</v>
+      </c>
+      <c r="P479" s="39">
+        <v>740</v>
+      </c>
+      <c r="Q479" s="39">
+        <v>316</v>
+      </c>
+      <c r="R479" s="39">
+        <v>50</v>
+      </c>
+      <c r="S479" s="39">
+        <v>166</v>
+      </c>
+      <c r="T479" s="39">
+        <v>36</v>
+      </c>
+      <c r="U479" s="41" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="480" ht="14.25" spans="1:23">
+      <c r="A480">
+        <v>426</v>
+      </c>
+      <c r="B480" t="s">
+        <v>163</v>
+      </c>
+      <c r="C480" t="s">
+        <v>150</v>
+      </c>
+      <c r="D480">
+        <v>18.7</v>
+      </c>
+      <c r="E480">
+        <v>5.6</v>
+      </c>
+      <c r="F480">
+        <v>2.6</v>
+      </c>
+      <c r="G480">
+        <v>0.58</v>
+      </c>
+      <c r="H480">
+        <v>0.36</v>
+      </c>
+      <c r="I480">
+        <v>0</v>
+      </c>
+      <c r="J480">
+        <v>2.06</v>
+      </c>
+      <c r="K480">
+        <v>100</v>
+      </c>
+      <c r="L480" t="s">
+        <v>1293</v>
+      </c>
+      <c r="M480" t="s">
+        <v>1294</v>
+      </c>
+      <c r="N480" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="O480" t="s">
+        <v>593</v>
+      </c>
+      <c r="P480" s="39">
+        <v>1252</v>
+      </c>
+      <c r="Q480" s="39">
+        <v>373</v>
+      </c>
+      <c r="R480" s="39">
+        <v>40</v>
+      </c>
+      <c r="S480" s="39">
+        <v>177</v>
+      </c>
+      <c r="T480" s="39">
+        <v>24</v>
+      </c>
+      <c r="U480" s="41" t="s">
+        <v>1295</v>
+      </c>
+      <c r="W480" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="481" ht="14.25" spans="1:23">
+      <c r="A481">
+        <v>427</v>
+      </c>
+      <c r="B481" t="s">
+        <v>163</v>
+      </c>
+      <c r="C481" t="s">
+        <v>150</v>
+      </c>
+      <c r="N481" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="O481" t="s">
+        <v>589</v>
+      </c>
+      <c r="P481" s="39">
+        <v>1242</v>
+      </c>
+      <c r="Q481" s="39">
+        <v>483</v>
+      </c>
+      <c r="R481" s="39">
+        <v>49</v>
+      </c>
+      <c r="S481" s="39">
+        <v>141</v>
+      </c>
+      <c r="T481" s="39">
+        <v>34</v>
+      </c>
+      <c r="U481" s="41" t="s">
+        <v>1297</v>
+      </c>
+      <c r="W481" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="482" ht="14.25" spans="1:23">
+      <c r="A482">
+        <v>428</v>
+      </c>
+      <c r="B482" t="s">
+        <v>155</v>
+      </c>
+      <c r="C482" t="s">
+        <v>150</v>
+      </c>
+      <c r="D482">
+        <v>9.9</v>
+      </c>
+      <c r="E482">
+        <v>5.3</v>
+      </c>
+      <c r="F482">
+        <v>5.4</v>
+      </c>
+      <c r="G482">
+        <v>1.47</v>
+      </c>
+      <c r="H482">
+        <v>0.4</v>
+      </c>
+      <c r="I482">
+        <v>2</v>
+      </c>
+      <c r="J482">
+        <v>1.98</v>
+      </c>
+      <c r="K482">
+        <v>86</v>
+      </c>
+      <c r="L482" t="s">
+        <v>1299</v>
+      </c>
+      <c r="M482" t="s">
+        <v>1300</v>
+      </c>
+      <c r="N482" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="O482" t="s">
+        <v>593</v>
+      </c>
+      <c r="P482" s="39">
+        <v>465</v>
+      </c>
+      <c r="Q482" s="39">
+        <v>251</v>
+      </c>
+      <c r="R482" s="39">
+        <v>69</v>
+      </c>
+      <c r="S482" s="39">
+        <v>255</v>
+      </c>
+      <c r="T482" s="39">
+        <v>19</v>
+      </c>
+      <c r="U482" s="41" t="s">
+        <v>1301</v>
+      </c>
+      <c r="W482" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="483" ht="14.25" spans="1:21">
+      <c r="A483">
+        <v>429</v>
+      </c>
+      <c r="B483" t="s">
+        <v>155</v>
+      </c>
+      <c r="C483" t="s">
+        <v>150</v>
+      </c>
+      <c r="N483" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="O483" t="s">
+        <v>589</v>
+      </c>
+      <c r="P483" s="39">
+        <v>528</v>
+      </c>
+      <c r="Q483" s="39">
+        <v>360</v>
+      </c>
+      <c r="R483" s="39">
+        <v>88</v>
+      </c>
+      <c r="S483" s="39">
+        <v>376</v>
+      </c>
+      <c r="T483" s="39">
+        <v>43</v>
+      </c>
+      <c r="U483" s="41" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="484" ht="14.25" spans="1:23">
+      <c r="A484">
+        <v>430</v>
+      </c>
+      <c r="B484" t="s">
+        <v>154</v>
+      </c>
+      <c r="C484" t="s">
+        <v>150</v>
+      </c>
+      <c r="D484">
+        <v>8.9</v>
+      </c>
+      <c r="E484">
+        <v>5.2</v>
+      </c>
+      <c r="F484">
+        <v>7.7</v>
+      </c>
+      <c r="G484">
+        <v>1.05</v>
+      </c>
+      <c r="H484">
+        <v>0.15</v>
+      </c>
+      <c r="I484">
+        <v>9</v>
+      </c>
+      <c r="J484">
+        <v>1.85</v>
+      </c>
+      <c r="K484">
+        <v>84</v>
+      </c>
+      <c r="L484" t="s">
+        <v>1304</v>
+      </c>
+      <c r="M484" t="s">
+        <v>1305</v>
+      </c>
+      <c r="N484" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="O484" t="s">
+        <v>593</v>
+      </c>
+      <c r="P484" s="39">
+        <v>349</v>
+      </c>
+      <c r="Q484" s="39">
+        <v>204</v>
+      </c>
+      <c r="R484" s="39">
+        <v>42</v>
+      </c>
+      <c r="S484" s="39">
+        <v>299</v>
+      </c>
+      <c r="T484" s="39">
+        <v>6</v>
+      </c>
+      <c r="U484" s="41" t="s">
+        <v>1306</v>
+      </c>
+      <c r="W484" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="485" ht="14.25" spans="1:23">
+      <c r="A485">
+        <v>431</v>
+      </c>
+      <c r="B485" t="s">
+        <v>154</v>
+      </c>
+      <c r="C485" t="s">
+        <v>150</v>
+      </c>
+      <c r="N485" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="O485" t="s">
+        <v>589</v>
+      </c>
+      <c r="P485" s="39">
+        <v>537</v>
+      </c>
+      <c r="Q485" s="39">
+        <v>263</v>
+      </c>
+      <c r="R485" s="39">
+        <v>70</v>
+      </c>
+      <c r="S485" s="39">
+        <v>533</v>
+      </c>
+      <c r="T485" s="39">
+        <v>10</v>
+      </c>
+      <c r="U485" s="41" t="s">
+        <v>1308</v>
+      </c>
+      <c r="W485" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="486" ht="14.25" spans="1:23">
+      <c r="A486">
+        <v>432</v>
+      </c>
+      <c r="B486" t="s">
+        <v>154</v>
+      </c>
+      <c r="C486" t="s">
+        <v>150</v>
+      </c>
+      <c r="N486" s="39" t="s">
+        <v>470</v>
+      </c>
+      <c r="O486" t="s">
+        <v>586</v>
+      </c>
+      <c r="P486" s="39">
+        <v>538</v>
+      </c>
+      <c r="Q486" s="39">
+        <v>355</v>
+      </c>
+      <c r="R486" s="39">
+        <v>99</v>
+      </c>
+      <c r="S486" s="39">
+        <v>461</v>
+      </c>
+      <c r="T486" s="39">
+        <v>11</v>
+      </c>
+      <c r="U486" s="41" t="s">
+        <v>1310</v>
+      </c>
+      <c r="W486" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="487" ht="14.25" spans="1:23">
+      <c r="A487">
+        <v>433</v>
+      </c>
+      <c r="B487" t="s">
+        <v>154</v>
+      </c>
+      <c r="C487" t="s">
+        <v>150</v>
+      </c>
+      <c r="N487" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="O487" t="s">
+        <v>583</v>
+      </c>
+      <c r="P487" s="39">
+        <v>859</v>
+      </c>
+      <c r="Q487" s="39">
+        <v>435</v>
+      </c>
+      <c r="R487" s="39">
+        <v>141</v>
+      </c>
+      <c r="S487" s="39">
+        <v>839</v>
+      </c>
+      <c r="T487" s="39">
+        <v>10</v>
+      </c>
+      <c r="U487" s="41" t="s">
+        <v>1312</v>
+      </c>
+      <c r="W487" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="488" ht="14.25" spans="1:23">
+      <c r="A488">
+        <v>434</v>
+      </c>
+      <c r="B488" t="s">
+        <v>154</v>
+      </c>
+      <c r="C488" t="s">
+        <v>150</v>
+      </c>
+      <c r="N488" s="39" t="s">
+        <v>961</v>
+      </c>
+      <c r="O488" t="s">
+        <v>581</v>
+      </c>
+      <c r="P488" s="39">
+        <v>426</v>
+      </c>
+      <c r="Q488" s="39">
+        <v>208</v>
+      </c>
+      <c r="R488" s="39">
+        <v>54</v>
+      </c>
+      <c r="S488" s="39">
+        <v>301</v>
+      </c>
+      <c r="T488" s="39">
+        <v>4</v>
+      </c>
+      <c r="U488" s="41" t="s">
+        <v>1314</v>
+      </c>
+      <c r="W488" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="489" ht="14.25" spans="1:23">
+      <c r="A489">
+        <v>435</v>
+      </c>
+      <c r="B489" t="s">
+        <v>154</v>
+      </c>
+      <c r="C489" t="s">
+        <v>150</v>
+      </c>
+      <c r="N489" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="O489" t="s">
+        <v>581</v>
+      </c>
+      <c r="P489" s="39">
+        <v>182</v>
+      </c>
+      <c r="Q489" s="39">
+        <v>165</v>
+      </c>
+      <c r="R489" s="39">
+        <v>37</v>
+      </c>
+      <c r="S489" s="39">
+        <v>237</v>
+      </c>
+      <c r="T489" s="39">
+        <v>3</v>
+      </c>
+      <c r="U489" s="41" t="s">
+        <v>1316</v>
+      </c>
+      <c r="W489" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="490" ht="14.25" spans="1:23">
+      <c r="A490">
+        <v>436</v>
+      </c>
+      <c r="B490" t="s">
+        <v>154</v>
+      </c>
+      <c r="C490" t="s">
+        <v>150</v>
+      </c>
+      <c r="N490" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="O490" t="s">
+        <v>579</v>
+      </c>
+      <c r="P490" s="39">
+        <v>350</v>
+      </c>
+      <c r="Q490" s="39">
+        <v>164</v>
+      </c>
+      <c r="R490" s="39">
+        <v>40</v>
+      </c>
+      <c r="S490" s="39">
+        <v>294</v>
+      </c>
+      <c r="T490" s="39">
+        <v>2</v>
+      </c>
+      <c r="U490" s="41" t="s">
+        <v>1318</v>
+      </c>
+      <c r="W490" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="491" ht="14.25" spans="1:23">
+      <c r="A491">
+        <v>437</v>
+      </c>
+      <c r="B491" t="s">
+        <v>154</v>
+      </c>
+      <c r="C491" t="s">
+        <v>150</v>
+      </c>
+      <c r="N491" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="O491" t="s">
+        <v>577</v>
+      </c>
+      <c r="P491" s="39">
+        <v>522</v>
+      </c>
+      <c r="Q491" s="39">
+        <v>212</v>
+      </c>
+      <c r="R491" s="39">
+        <v>70</v>
+      </c>
+      <c r="S491" s="39">
+        <v>420</v>
+      </c>
+      <c r="T491" s="39">
+        <v>9</v>
+      </c>
+      <c r="U491" s="41" t="s">
+        <v>1320</v>
+      </c>
+      <c r="W491" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="492" ht="14.25" spans="1:23">
+      <c r="A492">
+        <v>438</v>
+      </c>
+      <c r="B492" t="s">
+        <v>154</v>
+      </c>
+      <c r="C492" t="s">
+        <v>150</v>
+      </c>
+      <c r="N492" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="O492" t="s">
+        <v>575</v>
+      </c>
+      <c r="P492" s="39">
+        <v>630</v>
+      </c>
+      <c r="Q492" s="39">
+        <v>257</v>
+      </c>
+      <c r="R492" s="39">
+        <v>95</v>
+      </c>
+      <c r="S492" s="39">
+        <v>620</v>
+      </c>
+      <c r="T492" s="39">
+        <v>3</v>
+      </c>
+      <c r="U492" s="41" t="s">
+        <v>1322</v>
+      </c>
+      <c r="W492" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="493" ht="14.25" spans="1:23">
+      <c r="A493">
+        <v>439</v>
+      </c>
+      <c r="B493" t="s">
+        <v>154</v>
+      </c>
+      <c r="C493" t="s">
+        <v>150</v>
+      </c>
+      <c r="N493" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="O493" t="s">
+        <v>572</v>
+      </c>
+      <c r="P493" s="39">
+        <v>721</v>
+      </c>
+      <c r="Q493" s="39">
+        <v>297</v>
+      </c>
+      <c r="R493" s="39">
+        <v>153</v>
+      </c>
+      <c r="S493" s="39">
+        <v>760</v>
+      </c>
+      <c r="T493" s="39">
+        <v>11</v>
+      </c>
+      <c r="U493" s="41" t="s">
+        <v>1324</v>
+      </c>
+      <c r="W493" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="494" ht="14.25" spans="1:23">
+      <c r="A494">
+        <v>440</v>
+      </c>
+      <c r="B494" t="s">
+        <v>154</v>
+      </c>
+      <c r="C494" t="s">
+        <v>150</v>
+      </c>
+      <c r="N494" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="O494" t="s">
+        <v>570</v>
+      </c>
+      <c r="P494" s="39">
+        <v>1110</v>
+      </c>
+      <c r="Q494" s="39">
+        <v>360</v>
+      </c>
+      <c r="R494" s="39">
+        <v>189</v>
+      </c>
+      <c r="S494" s="39">
+        <v>794</v>
+      </c>
+      <c r="T494" s="39">
+        <v>11</v>
+      </c>
+      <c r="U494" s="41" t="s">
+        <v>1326</v>
+      </c>
+      <c r="W494" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="495" ht="14.25" spans="1:23">
+      <c r="A495">
+        <v>441</v>
+      </c>
+      <c r="B495" t="s">
+        <v>154</v>
+      </c>
+      <c r="C495" t="s">
+        <v>150</v>
+      </c>
+      <c r="N495" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="O495" t="s">
+        <v>568</v>
+      </c>
+      <c r="P495" s="39">
+        <v>953</v>
+      </c>
+      <c r="Q495" s="39">
+        <v>416</v>
+      </c>
+      <c r="R495" s="39">
+        <v>149</v>
+      </c>
+      <c r="S495" s="39">
+        <v>659</v>
+      </c>
+      <c r="T495" s="39">
+        <v>11</v>
+      </c>
+      <c r="U495" s="41" t="s">
+        <v>1328</v>
+      </c>
+      <c r="W495" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="496" ht="14.25" spans="1:23">
+      <c r="A496">
+        <v>442</v>
+      </c>
+      <c r="B496" t="s">
+        <v>154</v>
+      </c>
+      <c r="C496" t="s">
+        <v>150</v>
+      </c>
+      <c r="N496" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="O496" t="s">
+        <v>653</v>
+      </c>
+      <c r="P496" s="39">
+        <v>814</v>
+      </c>
+      <c r="Q496" s="39">
+        <v>322</v>
+      </c>
+      <c r="R496" s="39">
+        <v>129</v>
+      </c>
+      <c r="S496" s="39">
+        <v>393</v>
+      </c>
+      <c r="T496" s="39">
+        <v>13</v>
+      </c>
+      <c r="U496" s="41" t="s">
+        <v>1330</v>
+      </c>
+      <c r="W496" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="497" ht="14.25" spans="1:23">
+      <c r="A497">
+        <v>443</v>
+      </c>
+      <c r="B497" t="s">
+        <v>154</v>
+      </c>
+      <c r="C497" t="s">
+        <v>150</v>
+      </c>
+      <c r="N497" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="O497" t="s">
+        <v>650</v>
+      </c>
+      <c r="P497" s="39">
+        <v>501</v>
+      </c>
+      <c r="Q497" s="39">
+        <v>292</v>
+      </c>
+      <c r="R497" s="39">
+        <v>128</v>
+      </c>
+      <c r="S497" s="39">
+        <v>297</v>
+      </c>
+      <c r="T497" s="39">
+        <v>8</v>
+      </c>
+      <c r="U497" s="41" t="s">
+        <v>1332</v>
+      </c>
+      <c r="W497" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="498" ht="14.25" spans="1:23">
+      <c r="A498">
+        <v>444</v>
+      </c>
+      <c r="B498" t="s">
+        <v>160</v>
+      </c>
+      <c r="C498" t="s">
+        <v>150</v>
+      </c>
+      <c r="D498">
+        <v>11.5</v>
+      </c>
+      <c r="E498">
+        <v>7.2</v>
+      </c>
+      <c r="F498">
+        <v>0.6</v>
+      </c>
+      <c r="G498">
+        <v>0.65</v>
+      </c>
+      <c r="H498">
+        <v>1.95</v>
+      </c>
+      <c r="I498">
+        <v>7</v>
+      </c>
+      <c r="J498">
+        <v>2.13</v>
+      </c>
+      <c r="K498">
+        <v>122</v>
+      </c>
+      <c r="L498" t="s">
+        <v>1334</v>
+      </c>
+      <c r="M498" s="40" t="s">
+        <v>1335</v>
+      </c>
+      <c r="N498" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="O498" t="s">
+        <v>593</v>
+      </c>
+      <c r="P498" s="39">
+        <v>759</v>
+      </c>
+      <c r="Q498" s="39">
+        <v>471</v>
+      </c>
+      <c r="R498" s="39">
+        <v>42</v>
+      </c>
+      <c r="S498" s="39">
+        <v>38</v>
+      </c>
+      <c r="T498" s="39">
+        <v>130</v>
+      </c>
+      <c r="U498" s="41" t="s">
+        <v>1336</v>
+      </c>
+      <c r="W498" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="499" ht="14.25" spans="1:21">
+      <c r="A499">
+        <v>445</v>
+      </c>
+      <c r="B499" t="s">
+        <v>160</v>
+      </c>
+      <c r="C499" t="s">
+        <v>150</v>
+      </c>
+      <c r="N499" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="O499" t="s">
+        <v>589</v>
+      </c>
+      <c r="P499" s="39">
+        <v>310</v>
+      </c>
+      <c r="Q499" s="39">
+        <v>169</v>
+      </c>
+      <c r="R499" s="39">
+        <v>21</v>
+      </c>
+      <c r="S499" s="39">
+        <v>33</v>
+      </c>
+      <c r="T499" s="39">
+        <v>57</v>
+      </c>
+      <c r="U499" s="41" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="500" ht="14.25" spans="1:21">
+      <c r="A500">
+        <v>446</v>
+      </c>
+      <c r="B500" t="s">
+        <v>160</v>
+      </c>
+      <c r="C500" t="s">
+        <v>150</v>
+      </c>
+      <c r="N500" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="O500" t="s">
+        <v>586</v>
+      </c>
+      <c r="P500" s="39">
+        <v>472</v>
+      </c>
+      <c r="Q500" s="39">
+        <v>244</v>
+      </c>
+      <c r="R500" s="39">
+        <v>19</v>
+      </c>
+      <c r="S500" s="39">
+        <v>17</v>
+      </c>
+      <c r="T500" s="39">
+        <v>67</v>
+      </c>
+      <c r="U500" s="41" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="501" ht="14.25" spans="1:21">
+      <c r="A501">
+        <v>447</v>
+      </c>
+      <c r="B501" t="s">
+        <v>160</v>
+      </c>
+      <c r="C501" t="s">
+        <v>150</v>
+      </c>
+      <c r="N501" s="39" t="s">
+        <v>961</v>
+      </c>
+      <c r="O501" t="s">
+        <v>583</v>
+      </c>
+      <c r="P501" s="39">
+        <v>172</v>
+      </c>
+      <c r="Q501" s="39">
+        <v>133</v>
+      </c>
+      <c r="R501" s="39">
+        <v>5</v>
+      </c>
+      <c r="S501" s="39">
+        <v>3</v>
+      </c>
+      <c r="T501" s="39">
+        <v>26</v>
+      </c>
+      <c r="U501" s="41" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="502" ht="14.25" spans="1:21">
+      <c r="A502">
+        <v>448</v>
+      </c>
+      <c r="B502" t="s">
+        <v>160</v>
+      </c>
+      <c r="C502" t="s">
+        <v>150</v>
+      </c>
+      <c r="N502" s="39" t="s">
+        <v>290</v>
+      </c>
+      <c r="O502" t="s">
+        <v>581</v>
+      </c>
+      <c r="P502" s="39">
+        <v>18</v>
+      </c>
+      <c r="Q502" s="39">
+        <v>13</v>
+      </c>
+      <c r="R502" s="39">
+        <v>0</v>
+      </c>
+      <c r="S502" s="39">
+        <v>2</v>
+      </c>
+      <c r="T502" s="39">
+        <v>1</v>
+      </c>
+      <c r="U502" s="41" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="503" ht="14.25" spans="1:21">
+      <c r="A503">
+        <v>449</v>
+      </c>
+      <c r="B503" t="s">
+        <v>160</v>
+      </c>
+      <c r="C503" t="s">
+        <v>150</v>
+      </c>
+      <c r="N503" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="O503" t="s">
+        <v>581</v>
+      </c>
+      <c r="P503" s="39">
+        <v>88</v>
+      </c>
+      <c r="Q503" s="39">
+        <v>48</v>
+      </c>
+      <c r="R503" s="39">
+        <v>2</v>
+      </c>
+      <c r="S503" s="39">
+        <v>1</v>
+      </c>
+      <c r="T503" s="39">
+        <v>19</v>
+      </c>
+      <c r="U503" s="41" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="504" ht="14.25" spans="1:21">
+      <c r="A504">
+        <v>450</v>
+      </c>
+      <c r="B504" t="s">
+        <v>160</v>
+      </c>
+      <c r="C504" t="s">
+        <v>150</v>
+      </c>
+      <c r="N504" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="O504" t="s">
+        <v>579</v>
+      </c>
+      <c r="P504" s="39">
+        <v>35</v>
+      </c>
+      <c r="Q504" s="39">
+        <v>17</v>
+      </c>
+      <c r="R504" s="39">
+        <v>1</v>
+      </c>
+      <c r="S504" s="39">
+        <v>2</v>
+      </c>
+      <c r="T504" s="39">
+        <v>7</v>
+      </c>
+      <c r="U504" s="41" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="505" ht="14.25" spans="1:21">
+      <c r="A505">
+        <v>451</v>
+      </c>
+      <c r="B505" t="s">
+        <v>160</v>
+      </c>
+      <c r="C505" t="s">
+        <v>150</v>
+      </c>
+      <c r="N505" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="O505" t="s">
+        <v>577</v>
+      </c>
+      <c r="P505" s="39">
+        <v>717</v>
+      </c>
+      <c r="Q505" s="39">
+        <v>381</v>
+      </c>
+      <c r="R505" s="39">
+        <v>30</v>
+      </c>
+      <c r="S505" s="39">
+        <v>24</v>
+      </c>
+      <c r="T505" s="39">
+        <v>157</v>
+      </c>
+      <c r="U505" s="41" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="506" ht="14.25" spans="1:21">
+      <c r="A506">
+        <v>452</v>
+      </c>
+      <c r="B506" t="s">
+        <v>160</v>
+      </c>
+      <c r="C506" t="s">
+        <v>150</v>
+      </c>
+      <c r="N506" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="O506" t="s">
+        <v>575</v>
+      </c>
+      <c r="P506" s="39">
+        <v>205</v>
+      </c>
+      <c r="Q506" s="39">
+        <v>115</v>
+      </c>
+      <c r="R506" s="39">
+        <v>10</v>
+      </c>
+      <c r="S506" s="39">
+        <v>6</v>
+      </c>
+      <c r="T506" s="39">
+        <v>31</v>
+      </c>
+      <c r="U506" s="41" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="507" ht="14.25" spans="1:21">
+      <c r="A507">
+        <v>453</v>
+      </c>
+      <c r="B507" t="s">
+        <v>160</v>
+      </c>
+      <c r="C507" t="s">
+        <v>150</v>
+      </c>
+      <c r="N507" s="39" t="s">
+        <v>411</v>
+      </c>
+      <c r="O507" t="s">
+        <v>575</v>
+      </c>
+      <c r="P507" s="39">
+        <v>486</v>
+      </c>
+      <c r="Q507" s="39">
+        <v>362</v>
+      </c>
+      <c r="R507" s="39">
+        <v>25</v>
+      </c>
+      <c r="S507" s="39">
+        <v>25</v>
+      </c>
+      <c r="T507" s="39">
+        <v>101</v>
+      </c>
+      <c r="U507" s="41" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="508" ht="14.25" spans="1:21">
+      <c r="A508">
+        <v>454</v>
+      </c>
+      <c r="B508" t="s">
+        <v>160</v>
+      </c>
+      <c r="C508" t="s">
+        <v>150</v>
+      </c>
+      <c r="N508" s="39" t="s">
+        <v>411</v>
+      </c>
+      <c r="O508" t="s">
+        <v>572</v>
+      </c>
+      <c r="P508" s="39">
+        <v>798</v>
+      </c>
+      <c r="Q508" s="39">
+        <v>634</v>
+      </c>
+      <c r="R508" s="39">
+        <v>41</v>
+      </c>
+      <c r="S508" s="39">
+        <v>38</v>
+      </c>
+      <c r="T508" s="39">
+        <v>193</v>
+      </c>
+      <c r="U508" s="41" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="509" ht="14.25" spans="1:21">
+      <c r="A509">
+        <v>455</v>
+      </c>
+      <c r="B509" t="s">
+        <v>160</v>
+      </c>
+      <c r="C509" t="s">
+        <v>150</v>
+      </c>
+      <c r="N509" s="39" t="s">
+        <v>411</v>
+      </c>
+      <c r="O509" t="s">
+        <v>570</v>
+      </c>
+      <c r="P509" s="39">
+        <v>386</v>
+      </c>
+      <c r="Q509" s="39">
+        <v>243</v>
+      </c>
+      <c r="R509" s="39">
+        <v>16</v>
+      </c>
+      <c r="S509" s="39">
+        <v>14</v>
+      </c>
+      <c r="T509" s="39">
+        <v>101</v>
+      </c>
+      <c r="U509" s="41" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="510" ht="14.25" spans="1:21">
+      <c r="A510">
+        <v>456</v>
+      </c>
+      <c r="B510" t="s">
+        <v>160</v>
+      </c>
+      <c r="C510" t="s">
+        <v>150</v>
+      </c>
+      <c r="N510" s="39" t="s">
+        <v>411</v>
+      </c>
+      <c r="O510" t="s">
+        <v>568</v>
+      </c>
+      <c r="P510" s="39">
+        <v>489</v>
+      </c>
+      <c r="Q510" s="39">
+        <v>294</v>
+      </c>
+      <c r="R510" s="39">
+        <v>33</v>
+      </c>
+      <c r="S510" s="39">
+        <v>23</v>
+      </c>
+      <c r="T510" s="39">
+        <v>75</v>
+      </c>
+      <c r="U510" s="41" t="s">
+        <v>1348</v>
       </c>
     </row>
   </sheetData>
@@ -26294,7 +30393,10 @@
     <hyperlink ref="B208" r:id="rId4" display="朱利叶斯-兰德尔" tooltip="https://nba.hupu.com/players/juliusrandle-4932.html"/>
     <hyperlink ref="B209" r:id="rId4" display="朱利叶斯-兰德尔" tooltip="https://nba.hupu.com/players/juliusrandle-4932.html"/>
     <hyperlink ref="B210" r:id="rId4" display="朱利叶斯-兰德尔" tooltip="https://nba.hupu.com/players/juliusrandle-4932.html"/>
-    <hyperlink ref="B419" r:id="rId5" display="伊维察-祖巴茨" tooltip="https://nba.hupu.com/players/ivicazubac-150201.html"/>
+    <hyperlink ref="B428" r:id="rId5" display="伊维察-祖巴茨" tooltip="https://nba.hupu.com/players/ivicazubac-150201.html"/>
+    <hyperlink ref="B429" r:id="rId5" display="伊维察-祖巴茨" tooltip="https://nba.hupu.com/players/ivicazubac-150201.html"/>
+    <hyperlink ref="B430" r:id="rId5" display="伊维察-祖巴茨" tooltip="https://nba.hupu.com/players/ivicazubac-150201.html"/>
+    <hyperlink ref="B431" r:id="rId5" display="伊维察-祖巴茨" tooltip="https://nba.hupu.com/players/ivicazubac-150201.html"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -26308,7 +30410,7 @@
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A16"/>
+      <selection activeCell="A8" sqref="A8:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/网站相关/data.xlsx
+++ b/网站相关/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4063" uniqueCount="1349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3548" uniqueCount="1184">
   <si>
     <t>主键</t>
   </si>
@@ -3545,15 +3545,9 @@
     <t>2.9篮板5.3助攻0.75抢断0.12盖帽20.2分</t>
   </si>
   <si>
-    <t>2016-17赛季最佳第六人（球员工会评选）</t>
-  </si>
-  <si>
     <t>2.5篮板5.3助攻1.08抢断0.24盖帽22.6分</t>
   </si>
   <si>
-    <t>2014-15赛季最佳第六人</t>
-  </si>
-  <si>
     <t>3.0篮板2.4助攻0.65抢断0.39盖帽14.9分</t>
   </si>
   <si>
@@ -3591,495 +3585,6 @@
   </si>
   <si>
     <t>0.6篮板0.3助攻0.17抢断0盖帽1.9分</t>
-  </si>
-  <si>
-    <t>2015年第2轮第2顺位</t>
-  </si>
-  <si>
-    <t>6.7篮板1.8助攻0.89抢断1.39盖帽16.6分</t>
-  </si>
-  <si>
-    <t>4.0篮板1.0助攻0.47抢断0.68盖帽11.0分</t>
-  </si>
-  <si>
-    <t>3.8篮板1.1助攻0.34抢断0.72盖帽9.1分</t>
-  </si>
-  <si>
-    <t>1.7篮板0.4助攻0.28抢断0.28盖帽3.6分</t>
-  </si>
-  <si>
-    <t>2009年第2轮第12顺位</t>
-  </si>
-  <si>
-    <t>4年2303万美元，2015年夏天签，2019年夏天到期</t>
-  </si>
-  <si>
-    <t>5.0篮板3.8助攻0.89抢断0.55盖帽7.6分</t>
-  </si>
-  <si>
-    <t>2016-17赛季NBA佳防守阵容第一阵容</t>
-  </si>
-  <si>
-    <t>4.1篮板2.9助攻1.64抢断0.45盖帽12.2分</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015年全明星技巧挑战赛冠军 </t>
-  </si>
-  <si>
-    <t>5.9篮板4.2助攻1.48抢断0.37盖帽9.5分</t>
-  </si>
-  <si>
-    <t>2013-14赛季NBA佳防守阵容第一阵容</t>
-  </si>
-  <si>
-    <t>3.5篮板3.4助攻1.32抢断0.37盖帽9.9分</t>
-  </si>
-  <si>
-    <t>4.2篮板3.4助攻1.05抢断0.41盖帽10.1分</t>
-  </si>
-  <si>
-    <t>3.5篮板2.7助攻1.38抢断0.41盖帽10.2分</t>
-  </si>
-  <si>
-    <t>2.7篮板2.9助攻0.90抢断0.51盖帽5.6分</t>
-  </si>
-  <si>
-    <t>2018年第1轮第11顺位</t>
-  </si>
-  <si>
-    <t>4年1696万美元，2018年夏天签，2022年夏天到期</t>
-  </si>
-  <si>
-    <t>2.7篮板3.2助攻1.1抢断0.5盖帽10.4分</t>
-  </si>
-  <si>
-    <t>2016年第2轮第2顺位</t>
-  </si>
-  <si>
-    <t>3年324万美元，2016年夏天签，2019年夏天到期</t>
-  </si>
-  <si>
-    <t>8.0篮板1.7助攻0.22抢断0.94盖帽9.0分</t>
-  </si>
-  <si>
-    <t>4.9篮板0.8助攻0.12抢断0.82盖帽8.5分</t>
-  </si>
-  <si>
-    <t>2.9篮板0.6助攻0.19抢断0.35盖帽3.7分</t>
-  </si>
-  <si>
-    <t>4.2篮板0.8助攻0.37抢断0.87盖帽7.5分</t>
-  </si>
-  <si>
-    <t>2012年第1轮第7顺位</t>
-  </si>
-  <si>
-    <t>4年9400万美元，2016年夏天签，2020年夏天到期</t>
-  </si>
-  <si>
-    <t>6.2篮板2.1助攻0.79抢断0.05盖帽14.9分</t>
-  </si>
-  <si>
-    <t>4.2篮板1.3助攻0.69抢断0.23盖帽17.8分</t>
-  </si>
-  <si>
-    <t>2012-13赛季最佳新秀阵容第一阵容</t>
-  </si>
-  <si>
-    <t>6.1篮板2.0助攻0.64抢断0.18盖帽18.9分</t>
-  </si>
-  <si>
-    <t>5.0篮板1.5助攻0.82抢断0.19盖帽19.2分</t>
-  </si>
-  <si>
-    <t>4.9篮板1.8助攻0.62抢断0.15盖帽11.7分</t>
-  </si>
-  <si>
-    <t>5.5篮板1.4助攻0.74抢断0.23盖帽10.1分</t>
-  </si>
-  <si>
-    <t>4.0篮板1.5助攻0.83抢断0.26盖帽9.5分</t>
-  </si>
-  <si>
-    <t>4.1篮板1.2助攻0.64抢断0.17盖帽9.2分</t>
-  </si>
-  <si>
-    <t>2014年第1轮第27顺位</t>
-  </si>
-  <si>
-    <t>3年2700万美元，2017年夏天签，2020年夏天到期</t>
-  </si>
-  <si>
-    <t>3.5篮板3.8助攻1.07抢断0.23盖帽14.0分</t>
-  </si>
-  <si>
-    <t>2.9篮板3.3助攻0.92抢断0.21盖帽11.8分</t>
-  </si>
-  <si>
-    <t>2018年第1轮第2顺位</t>
-  </si>
-  <si>
-    <t>4年3613万美元，2018年夏天签，2022年夏天到期</t>
-  </si>
-  <si>
-    <t>7.4篮板1助攻0.6抢断1盖帽14.7分</t>
-  </si>
-  <si>
-    <t>2017年第1轮第5顺位</t>
-  </si>
-  <si>
-    <t>4年2457万美元，2017年夏天签，2021年夏天到期</t>
-  </si>
-  <si>
-    <t>3.8篮板7.2助攻1.69抢断0.56盖帽17.4分</t>
-  </si>
-  <si>
-    <t>2.8篮板4.4助攻0.96抢断0.27盖帽11.6分</t>
-  </si>
-  <si>
-    <t>2016年第1轮第6顺位</t>
-  </si>
-  <si>
-    <t>4年1589万美元，2016年夏天签，2020年夏天到期</t>
-  </si>
-  <si>
-    <t>5.2篮板2.5助攻0.68抢断0.40盖帽20.9分</t>
-  </si>
-  <si>
-    <t>3.8篮板1.9助攻1.06抢断0.28盖帽13.5分</t>
-  </si>
-  <si>
-    <t>4.1篮板1.8助攻0.80抢断0.08盖帽15.1分</t>
-  </si>
-  <si>
-    <t>2.9篮板1.4助攻0.32抢断0.12盖帽8.6分</t>
-  </si>
-  <si>
-    <t>2003年第1轮第1顺位</t>
-  </si>
-  <si>
-    <t>4年1.53亿美元，2018年夏天签，2022年夏天到期，2021-22赛季球员选项</t>
-  </si>
-  <si>
-    <t>8.6篮板8.1助攻1.34抢断0.62盖帽27.5分</t>
-  </si>
-  <si>
-    <t>2011-2012NBA总冠军</t>
-  </si>
-  <si>
-    <t>克里夫兰骑士</t>
-  </si>
-  <si>
-    <t>8.6篮板9.1助攻1.41抢断0.87盖帽27.5分</t>
-  </si>
-  <si>
-    <t>2012-2013NBA总冠军</t>
-  </si>
-  <si>
-    <t>8.6篮板8.7助攻1.24抢断0.59盖帽26.4分</t>
-  </si>
-  <si>
-    <t>2015-2016NBA总冠军</t>
-  </si>
-  <si>
-    <t>7.4篮板6.8助攻1.37抢断0.64盖帽25.3分</t>
-  </si>
-  <si>
-    <t>2011-2012FMVP</t>
-  </si>
-  <si>
-    <t>6.0篮板7.4助攻1.58抢断0.71盖帽25.3分</t>
-  </si>
-  <si>
-    <t>2012-2013FMVP</t>
-  </si>
-  <si>
-    <t>6.9篮板6.3助攻1.57抢断0.34盖帽27.1分</t>
-  </si>
-  <si>
-    <t>2015-2016FMVP</t>
-  </si>
-  <si>
-    <t>8.0篮板7.2助攻1.70抢断0.88盖帽26.8分</t>
-  </si>
-  <si>
-    <t>2011-2012MVP</t>
-  </si>
-  <si>
-    <t>7.9篮板6.2助攻1.85抢断0.81盖帽27.1分</t>
-  </si>
-  <si>
-    <t>2012-2013MVP</t>
-  </si>
-  <si>
-    <t>7.5篮板7.0助攻1.57抢断0.63盖帽26.7分</t>
-  </si>
-  <si>
-    <t>2008-2009mvp</t>
-  </si>
-  <si>
-    <t>7.3篮板8.6助攻1.64抢断1.01盖帽29.7分</t>
-  </si>
-  <si>
-    <t>2009-2010MVP</t>
-  </si>
-  <si>
-    <t>7.6篮板7.2助攻1.69抢断1.15盖帽28.4分</t>
-  </si>
-  <si>
-    <t>2005年至2019全明星首发</t>
-  </si>
-  <si>
-    <t>7.9篮板7.2助攻1.84抢断1.08盖帽30.0分</t>
-  </si>
-  <si>
-    <t>2004年最佳新秀</t>
-  </si>
-  <si>
-    <t>6.7篮板6.0助攻1.60抢断0.71盖帽27.3分</t>
-  </si>
-  <si>
-    <t>2004年最佳新秀一阵</t>
-  </si>
-  <si>
-    <t>7.0篮板6.6助攻1.56抢断0.84盖帽31.4分</t>
-  </si>
-  <si>
-    <t>2006年、2008年至2018年入选最佳阵容一阵</t>
-  </si>
-  <si>
-    <t>7.3篮板7.2助攻2.21抢断0.65盖帽27.2分</t>
-  </si>
-  <si>
-    <t>2005年、2007年NBA最佳阵容二阵</t>
-  </si>
-  <si>
-    <t>5.5篮板5.9助攻1.65抢断0.73盖帽20.9分</t>
-  </si>
-  <si>
-    <t>2009年至2013年最佳防守阵容一阵</t>
-  </si>
-  <si>
-    <t>2007-2008得分王</t>
-  </si>
-  <si>
-    <t>34次月最佳</t>
-  </si>
-  <si>
-    <t>56次周最佳</t>
-  </si>
-  <si>
-    <t>多项NBA史上最年轻纪录保持者</t>
-  </si>
-  <si>
-    <t>2012年、2013年、2016年ESPY最佳男运动员</t>
-  </si>
-  <si>
-    <t>2007、2009、2012、2013、2016、2018年ESPY最佳NBA球员</t>
-  </si>
-  <si>
-    <t>2012、2013、2015、2016年ESPY体育奖最佳冠军表现奖</t>
-  </si>
-  <si>
-    <t>20次《体育画报》的封面人物</t>
-  </si>
-  <si>
-    <t>2012年、2016年《体育画报》年度最佳运动员</t>
-  </si>
-  <si>
-    <t>2013年、2016年美联社最佳男运动员</t>
-  </si>
-  <si>
-    <t>2017年杰基罗宾逊体育奖</t>
-  </si>
-  <si>
-    <t>2017年肯尼迪公民奖</t>
-  </si>
-  <si>
-    <t>2016年第1轮第2顺位</t>
-  </si>
-  <si>
-    <t>4年2382万美元，2016年夏天签，2020年夏天到期，2018-19赛季、2019-20赛季球队选项</t>
-  </si>
-  <si>
-    <t>5.1篮板3.0助攻0.54抢断0.60盖帽18.3分</t>
-  </si>
-  <si>
-    <t>2016-17赛季最佳新秀阵容第二阵容</t>
-  </si>
-  <si>
-    <t>5.3篮板3.9助攻0.76抢断0.73盖帽16.1分</t>
-  </si>
-  <si>
-    <t>4.0篮板2.1助攻0.63抢断0.46盖帽9.4分</t>
-  </si>
-  <si>
-    <t>2017年第1轮第27顺位</t>
-  </si>
-  <si>
-    <t>4年874万美元，2017年夏天签，2021年夏天到期，2019-20、2020-21赛季球队选项</t>
-  </si>
-  <si>
-    <t>5.6篮板2.6助攻0.60抢断0.36盖帽18.7分</t>
-  </si>
-  <si>
-    <t>2017-18赛季NBA最佳新秀阵容一阵</t>
-  </si>
-  <si>
-    <t>6.3篮板1.8助攻0.64抢断0.44盖帽16.1分</t>
-  </si>
-  <si>
-    <t>2018-2019新秀赛MVP</t>
-  </si>
-  <si>
-    <t>2017年第1轮第2顺位</t>
-  </si>
-  <si>
-    <t>4年3347万美元，2017年夏天签，2021年夏天到期，2019-20、2020-21赛季球队选项</t>
-  </si>
-  <si>
-    <t>5.3篮板5.4助攻1.47抢断0.40盖帽9.9分</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2017-18赛季NBA最佳新秀二阵</t>
-  </si>
-  <si>
-    <t>6.9篮板7.2助攻1.69抢断0.83盖帽10.2分</t>
-  </si>
-  <si>
-    <t>2006年第1轮第21顺位</t>
-  </si>
-  <si>
-    <t>1年900万美元，2018年夏天签，2019年夏天到期</t>
-  </si>
-  <si>
-    <t>5.2篮板7.7助攻1.08抢断0.15盖帽8.9分</t>
-  </si>
-  <si>
-    <t>2013NBA最佳防守阵容第三阵容</t>
-  </si>
-  <si>
-    <t>4.0篮板8.2助攻1.08抢断0.15盖帽8.3分</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008NBA总冠军 </t>
-  </si>
-  <si>
-    <t>5.1篮板6.7助攻1.43抢断0.16盖帽7.8分</t>
-  </si>
-  <si>
-    <t>2012    NBA最佳防守阵容第二阵容</t>
-  </si>
-  <si>
-    <t>6.0篮板11.7助攻1.96抢断0.14盖帽11.9分</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2011    NBA最佳防守阵容第一阵容 </t>
-  </si>
-  <si>
-    <t>4.5篮板6.5助攻1.17抢断0.09盖帽9.3分</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2010    NBA最佳防守阵容第一阵容 </t>
-  </si>
-  <si>
-    <t>7.5篮板10.8助攻1.68抢断0.14盖帽8.3分</t>
-  </si>
-  <si>
-    <t>2009    NBA最佳防守阵容第二阵容</t>
-  </si>
-  <si>
-    <t>5.5篮板9.8助攻1.33抢断0.07盖帽undefined分</t>
-  </si>
-  <si>
-    <t>2007    NBA最佳新秀阵容第二阵容</t>
-  </si>
-  <si>
-    <t>5.6篮板11.1助攻1.84抢断0.24盖帽13.7分</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2016    NBA助攻王</t>
-  </si>
-  <si>
-    <t>4.8篮板11.7助攻1.79抢断0.06盖帽11.9分</t>
-  </si>
-  <si>
-    <t>2013    NBA助攻王</t>
-  </si>
-  <si>
-    <t>4.4篮板11.2助攻2.25抢断0.16盖帽10.6分</t>
-  </si>
-  <si>
-    <t>2012    NBA助攻王</t>
-  </si>
-  <si>
-    <t>4.4篮板9.8助攻2.33抢断0.14盖帽13.7分</t>
-  </si>
-  <si>
-    <t>2010    NBA抢断王</t>
-  </si>
-  <si>
-    <t>5.2篮板8.2助攻1.86抢断0.14盖帽11.9分</t>
-  </si>
-  <si>
-    <t>2013    东部全明星</t>
-  </si>
-  <si>
-    <t>4.2篮板5.1助攻1.68抢断0.17盖帽10.6分</t>
-  </si>
-  <si>
-    <t>2011    东部全明星</t>
-  </si>
-  <si>
-    <t>3.7篮板3.8助攻1.64抢断0.10盖帽6.4分</t>
-  </si>
-  <si>
-    <t>2010    东部全明星</t>
-  </si>
-  <si>
-    <t>2008年第1轮第18顺位</t>
-  </si>
-  <si>
-    <t>1年239万美元，2018年夏天签，2019年夏天到期</t>
-  </si>
-  <si>
-    <t>7.1篮板0.6助攻0.64抢断1.97盖帽11.5分</t>
-  </si>
-  <si>
-    <t>2.6篮板0.5助攻0.32抢断0.88盖帽4.8分</t>
-  </si>
-  <si>
-    <t>3.2篮板0.2助攻0.25抢断0.87盖帽6.1分</t>
-  </si>
-  <si>
-    <t>3.9篮板0.1助攻0.15抢断0.76盖帽5.1分</t>
-  </si>
-  <si>
-    <t>2.2篮板0.3助攻0抢断0.17盖帽3.0分</t>
-  </si>
-  <si>
-    <t>2.8篮板0.1助攻0.12抢断1.12盖帽5.2分</t>
-  </si>
-  <si>
-    <t>3.4篮板0.4助攻0.20抢断1.40盖帽7.0分</t>
-  </si>
-  <si>
-    <t>4.8篮板0.3助攻0.38抢断1.99盖帽9.1分</t>
-  </si>
-  <si>
-    <t>5.8篮板0.3助攻0.50抢断1.55盖帽10.2分</t>
-  </si>
-  <si>
-    <t>8.8篮板0.6助攻0.61抢断2.46盖帽11.9分</t>
-  </si>
-  <si>
-    <t>8.0篮板0.5助攻0.52抢断2.44盖帽10.1分</t>
-  </si>
-  <si>
-    <t>4.0篮板0.2助攻0.27抢断1.68盖帽6.4分</t>
-  </si>
-  <si>
-    <t>3.9篮板0.3助攻0.44抢断1盖帽6.5分</t>
   </si>
 </sst>
 </file>
@@ -4087,12 +3592,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4166,13 +3671,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <u/>
       <sz val="9"/>
@@ -4190,7 +3688,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4212,14 +3710,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4227,7 +3732,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4257,21 +3770,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -4287,13 +3785,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -4302,16 +3793,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4338,132 +3836,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -4476,7 +3848,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4488,37 +4016,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4746,30 +4244,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -4788,7 +4262,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4800,21 +4283,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4837,8 +4305,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4850,10 +4348,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4862,19 +4360,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4883,116 +4381,116 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="24" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5104,21 +4602,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -5127,7 +4633,7 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -8384,7 +7890,7 @@
       <c r="C192" t="s">
         <v>227</v>
       </c>
-      <c r="J192" s="43" t="s">
+      <c r="J192" s="45" t="s">
         <v>233</v>
       </c>
     </row>
@@ -8620,7 +8126,7 @@
       <c r="C208" t="s">
         <v>243</v>
       </c>
-      <c r="J208" s="45" t="s">
+      <c r="J208" s="47" t="s">
         <v>251</v>
       </c>
     </row>
@@ -8738,7 +8244,7 @@
       <c r="E216">
         <v>18</v>
       </c>
-      <c r="F216" s="44">
+      <c r="F216" s="46">
         <v>0.743</v>
       </c>
       <c r="G216" t="s">
@@ -9134,7 +8640,7 @@
       <c r="C243" t="s">
         <v>276</v>
       </c>
-      <c r="J243" s="46" t="s">
+      <c r="J243" s="48" t="s">
         <v>289</v>
       </c>
     </row>
@@ -9216,7 +8722,7 @@
       <c r="C248" t="s">
         <v>299</v>
       </c>
-      <c r="J248" s="43" t="s">
+      <c r="J248" s="45" t="s">
         <v>300</v>
       </c>
     </row>
@@ -9314,7 +8820,7 @@
       <c r="C255" t="s">
         <v>313</v>
       </c>
-      <c r="J255" s="43" t="s">
+      <c r="J255" s="45" t="s">
         <v>314</v>
       </c>
     </row>
@@ -9328,7 +8834,7 @@
       <c r="C256" t="s">
         <v>315</v>
       </c>
-      <c r="J256" s="43" t="s">
+      <c r="J256" s="45" t="s">
         <v>316</v>
       </c>
     </row>
@@ -9688,7 +9194,7 @@
       <c r="C280" t="s">
         <v>336</v>
       </c>
-      <c r="J280" s="43" t="s">
+      <c r="J280" s="45" t="s">
         <v>344</v>
       </c>
     </row>
@@ -9896,7 +9402,7 @@
       <c r="C294" t="s">
         <v>351</v>
       </c>
-      <c r="J294" s="43" t="s">
+      <c r="J294" s="45" t="s">
         <v>359</v>
       </c>
     </row>
@@ -11892,10 +11398,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X510"/>
+  <dimension ref="A1:X419"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A483" workbookViewId="0">
-      <selection activeCell="A510" sqref="$A510:$XFD510"/>
+    <sheetView tabSelected="1" topLeftCell="A391" workbookViewId="0">
+      <selection activeCell="A415" sqref="A415:A419"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -23858,7 +23364,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="328" spans="1:23">
+    <row r="328" ht="14.25" spans="1:23">
       <c r="A328">
         <v>303</v>
       </c>
@@ -23872,7 +23378,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="329" spans="1:23">
+    <row r="329" ht="14.25" spans="1:23">
       <c r="A329">
         <v>304</v>
       </c>
@@ -23926,25 +23432,25 @@
       <c r="M330" t="s">
         <v>1067</v>
       </c>
-      <c r="N330" s="11" t="s">
+      <c r="N330" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="O330" s="12" t="s">
+      <c r="O330" s="38" t="s">
         <v>593</v>
       </c>
-      <c r="P330" s="11">
+      <c r="P330" s="37">
         <v>1823</v>
       </c>
-      <c r="Q330" s="11">
+      <c r="Q330" s="37">
         <v>443</v>
       </c>
-      <c r="R330" s="11">
+      <c r="R330" s="37">
         <v>51</v>
       </c>
-      <c r="S330" s="11">
+      <c r="S330" s="37">
         <v>380</v>
       </c>
-      <c r="T330" s="11">
+      <c r="T330" s="37">
         <v>75</v>
       </c>
       <c r="U330" t="s">
@@ -23964,25 +23470,25 @@
       <c r="C331" t="s">
         <v>106</v>
       </c>
-      <c r="N331" s="11" t="s">
+      <c r="N331" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="O331" s="12" t="s">
+      <c r="O331" s="38" t="s">
         <v>589</v>
       </c>
-      <c r="P331" s="11">
+      <c r="P331" s="37">
         <v>1792</v>
       </c>
-      <c r="Q331" s="11">
+      <c r="Q331" s="37">
         <v>464</v>
       </c>
-      <c r="R331" s="11">
+      <c r="R331" s="37">
         <v>50</v>
       </c>
-      <c r="S331" s="11">
+      <c r="S331" s="37">
         <v>366</v>
       </c>
-      <c r="T331" s="11">
+      <c r="T331" s="37">
         <v>119</v>
       </c>
       <c r="U331" t="s">
@@ -24002,25 +23508,25 @@
       <c r="C332" t="s">
         <v>106</v>
       </c>
-      <c r="N332" s="11" t="s">
+      <c r="N332" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="O332" s="12" t="s">
+      <c r="O332" s="38" t="s">
         <v>586</v>
       </c>
-      <c r="P332" s="11">
+      <c r="P332" s="37">
         <v>1555</v>
       </c>
-      <c r="Q332" s="11">
+      <c r="Q332" s="37">
         <v>513</v>
       </c>
-      <c r="R332" s="11">
+      <c r="R332" s="37">
         <v>66</v>
       </c>
-      <c r="S332" s="11">
+      <c r="S332" s="37">
         <v>300</v>
       </c>
-      <c r="T332" s="11">
+      <c r="T332" s="37">
         <v>99</v>
       </c>
       <c r="U332" t="s">
@@ -24040,25 +23546,25 @@
       <c r="C333" t="s">
         <v>106</v>
       </c>
-      <c r="N333" s="11" t="s">
+      <c r="N333" s="37" t="s">
         <v>697</v>
       </c>
-      <c r="O333" s="12" t="s">
+      <c r="O333" s="38" t="s">
         <v>583</v>
       </c>
-      <c r="P333" s="11">
+      <c r="P333" s="37">
         <v>2029</v>
       </c>
-      <c r="Q333" s="11">
+      <c r="Q333" s="37">
         <v>589</v>
       </c>
-      <c r="R333" s="11">
+      <c r="R333" s="37">
         <v>69</v>
       </c>
-      <c r="S333" s="11">
+      <c r="S333" s="37">
         <v>361</v>
       </c>
-      <c r="T333" s="11">
+      <c r="T333" s="37">
         <v>85</v>
       </c>
       <c r="U333" t="s">
@@ -24078,25 +23584,25 @@
       <c r="C334" t="s">
         <v>106</v>
       </c>
-      <c r="N334" s="11" t="s">
+      <c r="N334" s="37" t="s">
         <v>697</v>
       </c>
-      <c r="O334" s="12" t="s">
+      <c r="O334" s="38" t="s">
         <v>581</v>
       </c>
-      <c r="P334" s="11">
+      <c r="P334" s="37">
         <v>686</v>
       </c>
-      <c r="Q334" s="11">
+      <c r="Q334" s="37">
         <v>178</v>
       </c>
-      <c r="R334" s="11">
+      <c r="R334" s="37">
         <v>24</v>
       </c>
-      <c r="S334" s="11">
+      <c r="S334" s="37">
         <v>110</v>
       </c>
-      <c r="T334" s="11">
+      <c r="T334" s="37">
         <v>25</v>
       </c>
       <c r="U334" t="s">
@@ -24116,25 +23622,25 @@
       <c r="C335" t="s">
         <v>106</v>
       </c>
-      <c r="N335" s="11" t="s">
+      <c r="N335" s="37" t="s">
         <v>697</v>
       </c>
-      <c r="O335" s="12" t="s">
+      <c r="O335" s="38" t="s">
         <v>579</v>
       </c>
-      <c r="P335" s="11">
+      <c r="P335" s="37">
         <v>2593</v>
       </c>
-      <c r="Q335" s="11">
+      <c r="Q335" s="37">
         <v>598</v>
       </c>
-      <c r="R335" s="11">
+      <c r="R335" s="37">
         <v>103</v>
       </c>
-      <c r="S335" s="11">
+      <c r="S335" s="37">
         <v>445</v>
       </c>
-      <c r="T335" s="11">
+      <c r="T335" s="37">
         <v>59</v>
       </c>
       <c r="U335" t="s">
@@ -24154,25 +23660,25 @@
       <c r="C336" t="s">
         <v>106</v>
       </c>
-      <c r="N336" s="11" t="s">
+      <c r="N336" s="37" t="s">
         <v>697</v>
       </c>
-      <c r="O336" s="12" t="s">
+      <c r="O336" s="38" t="s">
         <v>577</v>
       </c>
-      <c r="P336" s="11">
+      <c r="P336" s="37">
         <v>2280</v>
       </c>
-      <c r="Q336" s="11">
+      <c r="Q336" s="37">
         <v>640</v>
       </c>
-      <c r="R336" s="11">
+      <c r="R336" s="37">
         <v>116</v>
       </c>
-      <c r="S336" s="11">
+      <c r="S336" s="37">
         <v>374</v>
       </c>
-      <c r="T336" s="11">
+      <c r="T336" s="37">
         <v>105</v>
       </c>
       <c r="U336" t="s">
@@ -24192,25 +23698,25 @@
       <c r="C337" t="s">
         <v>106</v>
       </c>
-      <c r="N337" s="11" t="s">
+      <c r="N337" s="37" t="s">
         <v>697</v>
       </c>
-      <c r="O337" s="12" t="s">
+      <c r="O337" s="38" t="s">
         <v>575</v>
       </c>
-      <c r="P337" s="11">
+      <c r="P337" s="37">
         <v>1850</v>
       </c>
-      <c r="Q337" s="11">
+      <c r="Q337" s="37">
         <v>527</v>
       </c>
-      <c r="R337" s="11">
+      <c r="R337" s="37">
         <v>88</v>
       </c>
-      <c r="S337" s="11">
+      <c r="S337" s="37">
         <v>231</v>
       </c>
-      <c r="T337" s="11">
+      <c r="T337" s="37">
         <v>77</v>
       </c>
       <c r="U337" t="s">
@@ -24230,25 +23736,25 @@
       <c r="C338" t="s">
         <v>106</v>
       </c>
-      <c r="N338" s="11" t="s">
+      <c r="N338" s="37" t="s">
         <v>697</v>
       </c>
-      <c r="O338" s="12" t="s">
+      <c r="O338" s="38" t="s">
         <v>572</v>
       </c>
-      <c r="P338" s="11">
+      <c r="P338" s="37">
         <v>2161</v>
       </c>
-      <c r="Q338" s="11">
+      <c r="Q338" s="37">
         <v>533</v>
       </c>
-      <c r="R338" s="11">
+      <c r="R338" s="37">
         <v>88</v>
       </c>
-      <c r="S338" s="11">
+      <c r="S338" s="37">
         <v>214</v>
       </c>
-      <c r="T338" s="11">
+      <c r="T338" s="37">
         <v>76</v>
       </c>
       <c r="U338" t="s">
@@ -24268,25 +23774,25 @@
       <c r="C339" t="s">
         <v>106</v>
       </c>
-      <c r="N339" s="11" t="s">
+      <c r="N339" s="37" t="s">
         <v>697</v>
       </c>
-      <c r="O339" s="12" t="s">
+      <c r="O339" s="38" t="s">
         <v>570</v>
       </c>
-      <c r="P339" s="11">
+      <c r="P339" s="37">
         <v>2472</v>
       </c>
-      <c r="Q339" s="11">
+      <c r="Q339" s="37">
         <v>623</v>
       </c>
-      <c r="R339" s="11">
+      <c r="R339" s="37">
         <v>112</v>
       </c>
-      <c r="S339" s="11">
+      <c r="S339" s="37">
         <v>231</v>
       </c>
-      <c r="T339" s="11">
+      <c r="T339" s="37">
         <v>84</v>
       </c>
       <c r="U339" t="s">
@@ -24306,25 +23812,25 @@
       <c r="C340" t="s">
         <v>106</v>
       </c>
-      <c r="N340" s="11" t="s">
+      <c r="N340" s="37" t="s">
         <v>697</v>
       </c>
-      <c r="O340" s="12" t="s">
+      <c r="O340" s="38" t="s">
         <v>568</v>
       </c>
-      <c r="P340" s="11">
+      <c r="P340" s="37">
         <v>1871</v>
       </c>
-      <c r="Q340" s="11">
+      <c r="Q340" s="37">
         <v>482</v>
       </c>
-      <c r="R340" s="11">
+      <c r="R340" s="37">
         <v>96</v>
       </c>
-      <c r="S340" s="11">
+      <c r="S340" s="37">
         <v>205</v>
       </c>
-      <c r="T340" s="11">
+      <c r="T340" s="37">
         <v>53</v>
       </c>
       <c r="U340" t="s">
@@ -24344,25 +23850,25 @@
       <c r="C341" t="s">
         <v>106</v>
       </c>
-      <c r="N341" s="11" t="s">
+      <c r="N341" s="37" t="s">
         <v>1088</v>
       </c>
-      <c r="O341" s="12" t="s">
+      <c r="O341" s="38" t="s">
         <v>653</v>
       </c>
-      <c r="P341" s="11">
+      <c r="P341" s="37">
         <v>1624</v>
       </c>
-      <c r="Q341" s="11">
+      <c r="Q341" s="37">
         <v>348</v>
       </c>
-      <c r="R341" s="11">
+      <c r="R341" s="37">
         <v>78</v>
       </c>
-      <c r="S341" s="11">
+      <c r="S341" s="37">
         <v>192</v>
       </c>
-      <c r="T341" s="11">
+      <c r="T341" s="37">
         <v>75</v>
       </c>
       <c r="U341" t="s">
@@ -24580,25 +24086,25 @@
       <c r="M354" t="s">
         <v>1104</v>
       </c>
-      <c r="N354" s="18" t="s">
+      <c r="N354" s="39" t="s">
         <v>106</v>
       </c>
       <c r="O354" t="s">
         <v>593</v>
       </c>
-      <c r="P354" s="18">
+      <c r="P354" s="39">
         <v>1507</v>
       </c>
-      <c r="Q354" s="18">
+      <c r="Q354" s="39">
         <v>269</v>
       </c>
-      <c r="R354" s="18">
+      <c r="R354" s="39">
         <v>79</v>
       </c>
-      <c r="S354" s="18">
+      <c r="S354" s="39">
         <v>163</v>
       </c>
-      <c r="T354" s="18">
+      <c r="T354" s="39">
         <v>43</v>
       </c>
       <c r="U354" t="s">
@@ -24618,25 +24124,25 @@
       <c r="C355" t="s">
         <v>106</v>
       </c>
-      <c r="N355" s="18" t="s">
+      <c r="N355" s="39" t="s">
         <v>106</v>
       </c>
       <c r="O355" t="s">
         <v>589</v>
       </c>
-      <c r="P355" s="18">
+      <c r="P355" s="39">
         <v>1461</v>
       </c>
-      <c r="Q355" s="18">
+      <c r="Q355" s="39">
         <v>277</v>
       </c>
-      <c r="R355" s="18">
+      <c r="R355" s="39">
         <v>55</v>
       </c>
-      <c r="S355" s="18">
+      <c r="S355" s="39">
         <v>185</v>
       </c>
-      <c r="T355" s="18">
+      <c r="T355" s="39">
         <v>34</v>
       </c>
       <c r="U355" t="s">
@@ -24656,25 +24162,25 @@
       <c r="C356" t="s">
         <v>106</v>
       </c>
-      <c r="N356" s="18" t="s">
+      <c r="N356" s="39" t="s">
         <v>106</v>
       </c>
       <c r="O356" t="s">
         <v>586</v>
       </c>
-      <c r="P356" s="18">
+      <c r="P356" s="39">
         <v>1742</v>
       </c>
-      <c r="Q356" s="18">
+      <c r="Q356" s="39">
         <v>285</v>
       </c>
-      <c r="R356" s="18">
+      <c r="R356" s="39">
         <v>66</v>
       </c>
-      <c r="S356" s="18">
+      <c r="S356" s="39">
         <v>160</v>
       </c>
-      <c r="T356" s="18">
+      <c r="T356" s="39">
         <v>40</v>
       </c>
       <c r="U356" t="s">
@@ -24694,25 +24200,25 @@
       <c r="C357" t="s">
         <v>106</v>
       </c>
-      <c r="N357" s="18" t="s">
+      <c r="N357" s="39" t="s">
         <v>106</v>
       </c>
       <c r="O357" t="s">
         <v>583</v>
       </c>
-      <c r="P357" s="18">
+      <c r="P357" s="39">
         <v>1771</v>
       </c>
-      <c r="Q357" s="18">
+      <c r="Q357" s="39">
         <v>306</v>
       </c>
-      <c r="R357" s="18">
+      <c r="R357" s="39">
         <v>60</v>
       </c>
-      <c r="S357" s="18">
+      <c r="S357" s="39">
         <v>166</v>
       </c>
-      <c r="T357" s="18">
+      <c r="T357" s="39">
         <v>49</v>
       </c>
       <c r="U357" t="s">
@@ -24732,25 +24238,25 @@
       <c r="C358" t="s">
         <v>106</v>
       </c>
-      <c r="N358" s="18" t="s">
+      <c r="N358" s="39" t="s">
         <v>106</v>
       </c>
       <c r="O358" t="s">
         <v>581</v>
       </c>
-      <c r="P358" s="18">
+      <c r="P358" s="39">
         <v>1668</v>
       </c>
-      <c r="Q358" s="18">
+      <c r="Q358" s="39">
         <v>247</v>
       </c>
-      <c r="R358" s="18">
+      <c r="R358" s="39">
         <v>87</v>
       </c>
-      <c r="S358" s="18">
+      <c r="S358" s="39">
         <v>222</v>
       </c>
-      <c r="T358" s="18">
+      <c r="T358" s="39">
         <v>60</v>
       </c>
       <c r="U358" t="s">
@@ -24770,25 +24276,25 @@
       <c r="C359" t="s">
         <v>106</v>
       </c>
-      <c r="N359" s="18" t="s">
+      <c r="N359" s="39" t="s">
         <v>106</v>
       </c>
       <c r="O359" t="s">
         <v>579</v>
       </c>
-      <c r="P359" s="18">
+      <c r="P359" s="39">
         <v>1488</v>
       </c>
-      <c r="Q359" s="18">
+      <c r="Q359" s="39">
         <v>249</v>
       </c>
-      <c r="R359" s="18">
+      <c r="R359" s="39">
         <v>74</v>
       </c>
-      <c r="S359" s="18">
+      <c r="S359" s="39">
         <v>181</v>
       </c>
-      <c r="T359" s="18">
+      <c r="T359" s="39">
         <v>37</v>
       </c>
       <c r="U359" t="s">
@@ -24808,25 +24314,25 @@
       <c r="C360" t="s">
         <v>106</v>
       </c>
-      <c r="N360" s="18" t="s">
+      <c r="N360" s="39" t="s">
         <v>106</v>
       </c>
       <c r="O360" t="s">
         <v>577</v>
       </c>
-      <c r="P360" s="18">
+      <c r="P360" s="39">
         <v>1359</v>
       </c>
-      <c r="Q360" s="18">
+      <c r="Q360" s="39">
         <v>306</v>
       </c>
-      <c r="R360" s="18">
+      <c r="R360" s="39">
         <v>86</v>
       </c>
-      <c r="S360" s="18">
+      <c r="S360" s="39">
         <v>183</v>
       </c>
-      <c r="T360" s="18">
+      <c r="T360" s="39">
         <v>45</v>
       </c>
       <c r="U360" t="s">
@@ -24846,25 +24352,25 @@
       <c r="C361" t="s">
         <v>106</v>
       </c>
-      <c r="N361" s="18" t="s">
+      <c r="N361" s="39" t="s">
         <v>106</v>
       </c>
       <c r="O361" t="s">
         <v>575</v>
       </c>
-      <c r="P361" s="18">
+      <c r="P361" s="39">
         <v>826</v>
       </c>
-      <c r="Q361" s="18">
+      <c r="Q361" s="39">
         <v>161</v>
       </c>
-      <c r="R361" s="18">
+      <c r="R361" s="39">
         <v>49</v>
       </c>
-      <c r="S361" s="18">
+      <c r="S361" s="39">
         <v>133</v>
       </c>
-      <c r="T361" s="18">
+      <c r="T361" s="39">
         <v>20</v>
       </c>
       <c r="U361" t="s">
@@ -24970,25 +24476,25 @@
       <c r="M366" t="s">
         <v>1122</v>
       </c>
-      <c r="N366" s="18" t="s">
+      <c r="N366" s="39" t="s">
         <v>106</v>
       </c>
       <c r="O366" t="s">
         <v>593</v>
       </c>
-      <c r="P366" s="18">
+      <c r="P366" s="39">
         <v>383</v>
       </c>
-      <c r="Q366" s="18">
+      <c r="Q366" s="39">
         <v>407</v>
       </c>
-      <c r="R366" s="18">
+      <c r="R366" s="39">
         <v>80</v>
       </c>
-      <c r="S366" s="18">
+      <c r="S366" s="39">
         <v>388</v>
       </c>
-      <c r="T366" s="18">
+      <c r="T366" s="39">
         <v>59</v>
       </c>
       <c r="U366" t="s">
@@ -25008,25 +24514,25 @@
       <c r="C367" t="s">
         <v>106</v>
       </c>
-      <c r="N367" s="18" t="s">
+      <c r="N367" s="39" t="s">
         <v>106</v>
       </c>
       <c r="O367" t="s">
         <v>589</v>
       </c>
-      <c r="P367" s="18">
+      <c r="P367" s="39">
         <v>773</v>
       </c>
-      <c r="Q367" s="18">
+      <c r="Q367" s="39">
         <v>535</v>
       </c>
-      <c r="R367" s="18">
+      <c r="R367" s="39">
         <v>94</v>
       </c>
-      <c r="S367" s="18">
+      <c r="S367" s="39">
         <v>508</v>
       </c>
-      <c r="T367" s="18">
+      <c r="T367" s="39">
         <v>91</v>
       </c>
       <c r="U367" t="s">
@@ -25046,25 +24552,25 @@
       <c r="C368" t="s">
         <v>106</v>
       </c>
-      <c r="N368" s="18" t="s">
+      <c r="N368" s="39" t="s">
         <v>106</v>
       </c>
       <c r="O368" t="s">
         <v>586</v>
       </c>
-      <c r="P368" s="18">
+      <c r="P368" s="39">
         <v>776</v>
       </c>
-      <c r="Q368" s="18">
+      <c r="Q368" s="39">
         <v>599</v>
       </c>
-      <c r="R368" s="18">
+      <c r="R368" s="39">
         <v>154</v>
       </c>
-      <c r="S368" s="18">
+      <c r="S368" s="39">
         <v>533</v>
       </c>
-      <c r="T368" s="18">
+      <c r="T368" s="39">
         <v>106</v>
       </c>
       <c r="U368" t="s">
@@ -25084,25 +24590,25 @@
       <c r="C369" t="s">
         <v>106</v>
       </c>
-      <c r="N369" s="18" t="s">
+      <c r="N369" s="39" t="s">
         <v>106</v>
       </c>
       <c r="O369" t="s">
         <v>583</v>
       </c>
-      <c r="P369" s="18">
+      <c r="P369" s="39">
         <v>1131</v>
       </c>
-      <c r="Q369" s="18">
+      <c r="Q369" s="39">
         <v>769</v>
       </c>
-      <c r="R369" s="18">
+      <c r="R369" s="39">
         <v>119</v>
       </c>
-      <c r="S369" s="18">
+      <c r="S369" s="39">
         <v>598</v>
       </c>
-      <c r="T369" s="18">
+      <c r="T369" s="39">
         <v>113</v>
       </c>
       <c r="U369" t="s">
@@ -25122,25 +24628,25 @@
       <c r="C370" t="s">
         <v>106</v>
       </c>
-      <c r="N370" s="18" t="s">
+      <c r="N370" s="39" t="s">
         <v>106</v>
       </c>
       <c r="O370" t="s">
         <v>581</v>
       </c>
-      <c r="P370" s="18">
+      <c r="P370" s="39">
         <v>921</v>
       </c>
-      <c r="Q370" s="18">
+      <c r="Q370" s="39">
         <v>647</v>
       </c>
-      <c r="R370" s="18">
+      <c r="R370" s="39">
         <v>123</v>
       </c>
-      <c r="S370" s="18">
+      <c r="S370" s="39">
         <v>291</v>
       </c>
-      <c r="T370" s="18">
+      <c r="T370" s="39">
         <v>99</v>
       </c>
       <c r="U370" t="s">
@@ -25160,25 +24666,25 @@
       <c r="C371" t="s">
         <v>106</v>
       </c>
-      <c r="N371" s="18" t="s">
+      <c r="N371" s="39" t="s">
         <v>106</v>
       </c>
       <c r="O371" t="s">
         <v>579</v>
       </c>
-      <c r="P371" s="18">
+      <c r="P371" s="39">
         <v>511</v>
       </c>
-      <c r="Q371" s="18">
+      <c r="Q371" s="39">
         <v>409</v>
       </c>
-      <c r="R371" s="18">
+      <c r="R371" s="39">
         <v>102</v>
       </c>
-      <c r="S371" s="18">
+      <c r="S371" s="39">
         <v>152</v>
       </c>
-      <c r="T371" s="18">
+      <c r="T371" s="39">
         <v>72</v>
       </c>
       <c r="U371" t="s">
@@ -25198,25 +24704,25 @@
       <c r="C372" t="s">
         <v>106</v>
       </c>
-      <c r="N372" s="18" t="s">
+      <c r="N372" s="39" t="s">
         <v>106</v>
       </c>
       <c r="O372" t="s">
         <v>577</v>
       </c>
-      <c r="P372" s="18">
+      <c r="P372" s="39">
         <v>227</v>
       </c>
-      <c r="Q372" s="18">
+      <c r="Q372" s="39">
         <v>260</v>
       </c>
-      <c r="R372" s="18">
+      <c r="R372" s="39">
         <v>42</v>
       </c>
-      <c r="S372" s="18">
+      <c r="S372" s="39">
         <v>53</v>
       </c>
-      <c r="T372" s="18">
+      <c r="T372" s="39">
         <v>25</v>
       </c>
       <c r="U372" t="s">
@@ -25310,7 +24816,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="379" spans="1:23">
+    <row r="379" ht="14.25" spans="1:23">
       <c r="A379">
         <v>335</v>
       </c>
@@ -25324,7 +24830,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="380" ht="14.25" spans="1:24">
+    <row r="380" ht="15" spans="1:24">
       <c r="A380">
         <v>336</v>
       </c>
@@ -25364,37 +24870,37 @@
       <c r="M380" t="s">
         <v>1138</v>
       </c>
-      <c r="N380" s="11" t="s">
+      <c r="N380" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="O380" s="12" t="s">
+      <c r="O380" s="38" t="s">
         <v>593</v>
       </c>
-      <c r="P380" s="11">
+      <c r="P380" s="37">
         <v>347</v>
       </c>
-      <c r="Q380" s="11">
+      <c r="Q380" s="37">
         <v>176</v>
       </c>
-      <c r="R380" s="11">
+      <c r="R380" s="37">
         <v>28</v>
       </c>
-      <c r="S380" s="11">
+      <c r="S380" s="37">
         <v>80</v>
       </c>
-      <c r="T380" s="11">
+      <c r="T380" s="37">
         <v>34</v>
       </c>
       <c r="U380" t="s">
         <v>1139</v>
       </c>
-      <c r="V380" s="37"/>
-      <c r="W380" s="37" t="s">
+      <c r="V380" s="40"/>
+      <c r="W380" s="40" t="s">
         <v>854</v>
       </c>
-      <c r="X380" s="37"/>
-    </row>
-    <row r="381" ht="14.25" spans="1:24">
+      <c r="X380" s="40"/>
+    </row>
+    <row r="381" ht="15" spans="1:24">
       <c r="A381">
         <v>337</v>
       </c>
@@ -25404,37 +24910,37 @@
       <c r="C381" t="s">
         <v>106</v>
       </c>
-      <c r="N381" s="11" t="s">
+      <c r="N381" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="O381" s="12" t="s">
+      <c r="O381" s="38" t="s">
         <v>589</v>
       </c>
-      <c r="P381" s="11">
+      <c r="P381" s="37">
         <v>1210</v>
       </c>
-      <c r="Q381" s="11">
+      <c r="Q381" s="37">
         <v>617</v>
       </c>
-      <c r="R381" s="11">
+      <c r="R381" s="37">
         <v>79</v>
       </c>
-      <c r="S381" s="11">
+      <c r="S381" s="37">
         <v>257</v>
       </c>
-      <c r="T381" s="11">
+      <c r="T381" s="37">
         <v>76</v>
       </c>
       <c r="U381" t="s">
         <v>1140</v>
       </c>
-      <c r="V381" s="37"/>
-      <c r="W381" s="37" t="s">
+      <c r="V381" s="40"/>
+      <c r="W381" s="40" t="s">
         <v>1117</v>
       </c>
-      <c r="X381" s="37"/>
-    </row>
-    <row r="382" ht="14.25" spans="1:24">
+      <c r="X381" s="40"/>
+    </row>
+    <row r="382" ht="15" spans="1:24">
       <c r="A382">
         <v>338</v>
       </c>
@@ -25444,37 +24950,37 @@
       <c r="C382" t="s">
         <v>106</v>
       </c>
-      <c r="N382" s="11" t="s">
+      <c r="N382" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="O382" s="12" t="s">
+      <c r="O382" s="38" t="s">
         <v>586</v>
       </c>
-      <c r="P382" s="11">
+      <c r="P382" s="37">
         <v>414</v>
       </c>
-      <c r="Q382" s="11">
+      <c r="Q382" s="37">
         <v>211</v>
       </c>
-      <c r="R382" s="11">
+      <c r="R382" s="37">
         <v>25</v>
       </c>
-      <c r="S382" s="11">
+      <c r="S382" s="37">
         <v>66</v>
       </c>
-      <c r="T382" s="11">
+      <c r="T382" s="37">
         <v>19</v>
       </c>
       <c r="U382" t="s">
         <v>1141</v>
       </c>
-      <c r="V382" s="37"/>
-      <c r="W382" s="37" t="s">
+      <c r="V382" s="40"/>
+      <c r="W382" s="40" t="s">
         <v>1142</v>
       </c>
-      <c r="X382" s="37"/>
-    </row>
-    <row r="383" ht="14.25" spans="1:24">
+      <c r="X382" s="40"/>
+    </row>
+    <row r="383" ht="15" spans="1:24">
       <c r="A383">
         <v>339</v>
       </c>
@@ -25484,37 +24990,37 @@
       <c r="C383" t="s">
         <v>106</v>
       </c>
-      <c r="N383" s="11" t="s">
+      <c r="N383" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="O383" s="12" t="s">
+      <c r="O383" s="38" t="s">
         <v>586</v>
       </c>
-      <c r="P383" s="11">
+      <c r="P383" s="37">
         <v>1528</v>
       </c>
-      <c r="Q383" s="11">
+      <c r="Q383" s="37">
         <v>583</v>
       </c>
-      <c r="R383" s="11">
+      <c r="R383" s="37">
         <v>75</v>
       </c>
-      <c r="S383" s="11">
+      <c r="S383" s="37">
         <v>266</v>
       </c>
-      <c r="T383" s="11">
+      <c r="T383" s="37">
         <v>74</v>
       </c>
       <c r="U383" t="s">
         <v>1143</v>
       </c>
-      <c r="V383" s="37"/>
-      <c r="W383" s="37" t="s">
+      <c r="V383" s="40"/>
+      <c r="W383" s="40" t="s">
         <v>1144</v>
       </c>
-      <c r="X383" s="37"/>
-    </row>
-    <row r="384" ht="14.25" spans="1:24">
+      <c r="X383" s="40"/>
+    </row>
+    <row r="384" ht="15" spans="1:24">
       <c r="A384">
         <v>340</v>
       </c>
@@ -25524,37 +25030,37 @@
       <c r="C384" t="s">
         <v>106</v>
       </c>
-      <c r="N384" s="11" t="s">
+      <c r="N384" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="O384" s="12" t="s">
+      <c r="O384" s="38" t="s">
         <v>583</v>
       </c>
-      <c r="P384" s="11">
+      <c r="P384" s="37">
         <v>1748</v>
       </c>
-      <c r="Q384" s="11">
+      <c r="Q384" s="37">
         <v>747</v>
       </c>
-      <c r="R384" s="11">
+      <c r="R384" s="37">
         <v>101</v>
       </c>
-      <c r="S384" s="11">
+      <c r="S384" s="37">
         <v>214</v>
       </c>
-      <c r="T384" s="11">
+      <c r="T384" s="37">
         <v>92</v>
       </c>
       <c r="U384" t="s">
         <v>1145</v>
       </c>
-      <c r="V384" s="37"/>
-      <c r="W384" s="37" t="s">
+      <c r="V384" s="40"/>
+      <c r="W384" s="40" t="s">
         <v>1146</v>
       </c>
-      <c r="X384" s="37"/>
-    </row>
-    <row r="385" ht="14.25" spans="1:24">
+      <c r="X384" s="40"/>
+    </row>
+    <row r="385" ht="15" spans="1:24">
       <c r="A385">
         <v>341</v>
       </c>
@@ -25564,37 +25070,37 @@
       <c r="C385" t="s">
         <v>106</v>
       </c>
-      <c r="N385" s="11" t="s">
+      <c r="N385" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="O385" s="12" t="s">
+      <c r="O385" s="38" t="s">
         <v>581</v>
       </c>
-      <c r="P385" s="11">
+      <c r="P385" s="37">
         <v>1421</v>
       </c>
-      <c r="Q385" s="11">
+      <c r="Q385" s="37">
         <v>747</v>
       </c>
-      <c r="R385" s="11">
+      <c r="R385" s="37">
         <v>90</v>
       </c>
-      <c r="S385" s="11">
+      <c r="S385" s="37">
         <v>210</v>
       </c>
-      <c r="T385" s="11">
+      <c r="T385" s="37">
         <v>103</v>
       </c>
       <c r="U385" t="s">
         <v>1147</v>
       </c>
-      <c r="V385" s="37"/>
-      <c r="W385" s="7" t="s">
+      <c r="V385" s="40"/>
+      <c r="W385" s="44" t="s">
         <v>1148</v>
       </c>
-      <c r="X385" s="37"/>
-    </row>
-    <row r="386" ht="14.25" spans="1:24">
+      <c r="X385" s="40"/>
+    </row>
+    <row r="386" ht="15" spans="1:24">
       <c r="A386">
         <v>342</v>
       </c>
@@ -25604,37 +25110,37 @@
       <c r="C386" t="s">
         <v>106</v>
       </c>
-      <c r="N386" s="11" t="s">
+      <c r="N386" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="O386" s="12" t="s">
+      <c r="O386" s="38" t="s">
         <v>579</v>
       </c>
-      <c r="P386" s="11">
+      <c r="P386" s="37">
         <v>1614</v>
       </c>
-      <c r="Q386" s="11">
+      <c r="Q386" s="37">
         <v>831</v>
       </c>
-      <c r="R386" s="11">
+      <c r="R386" s="37">
         <v>109</v>
       </c>
-      <c r="S386" s="11">
+      <c r="S386" s="37">
         <v>207</v>
       </c>
-      <c r="T386" s="11">
+      <c r="T386" s="37">
         <v>91</v>
       </c>
       <c r="U386" t="s">
         <v>1149</v>
       </c>
-      <c r="V386" s="37"/>
-      <c r="W386" s="37" t="s">
+      <c r="V386" s="40"/>
+      <c r="W386" s="40" t="s">
         <v>1150</v>
       </c>
-      <c r="X386" s="37"/>
-    </row>
-    <row r="387" ht="14.25" spans="1:24">
+      <c r="X386" s="40"/>
+    </row>
+    <row r="387" ht="15" spans="1:24">
       <c r="A387">
         <v>343</v>
       </c>
@@ -25644,35 +25150,35 @@
       <c r="C387" t="s">
         <v>106</v>
       </c>
-      <c r="N387" s="11" t="s">
+      <c r="N387" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="O387" s="12" t="s">
+      <c r="O387" s="38" t="s">
         <v>577</v>
       </c>
-      <c r="P387" s="11">
+      <c r="P387" s="37">
         <v>1280</v>
       </c>
-      <c r="Q387" s="11">
+      <c r="Q387" s="37">
         <v>746</v>
       </c>
-      <c r="R387" s="11">
+      <c r="R387" s="37">
         <v>108</v>
       </c>
-      <c r="S387" s="11">
+      <c r="S387" s="37">
         <v>199</v>
       </c>
-      <c r="T387" s="11">
+      <c r="T387" s="37">
         <v>55</v>
       </c>
       <c r="U387" t="s">
         <v>1151</v>
       </c>
-      <c r="V387" s="37"/>
-      <c r="W387" s="37"/>
-      <c r="X387" s="37"/>
-    </row>
-    <row r="388" ht="14.25" spans="1:24">
+      <c r="V387" s="40"/>
+      <c r="W387" s="40"/>
+      <c r="X387" s="40"/>
+    </row>
+    <row r="388" ht="15" spans="1:24">
       <c r="A388">
         <v>344</v>
       </c>
@@ -25682,33 +25188,33 @@
       <c r="C388" t="s">
         <v>106</v>
       </c>
-      <c r="N388" s="11" t="s">
+      <c r="N388" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="O388" s="12" t="s">
+      <c r="O388" s="38" t="s">
         <v>575</v>
       </c>
-      <c r="P388" s="11">
+      <c r="P388" s="37">
         <v>1160</v>
       </c>
-      <c r="Q388" s="11">
+      <c r="Q388" s="37">
         <v>703</v>
       </c>
-      <c r="R388" s="11">
+      <c r="R388" s="37">
         <v>93</v>
       </c>
-      <c r="S388" s="11">
+      <c r="S388" s="37">
         <v>102</v>
       </c>
-      <c r="T388" s="11">
+      <c r="T388" s="37">
         <v>75</v>
       </c>
       <c r="U388" t="s">
         <v>1152</v>
       </c>
-      <c r="V388" s="37"/>
-      <c r="W388" s="37"/>
-      <c r="X388" s="37"/>
+      <c r="V388" s="40"/>
+      <c r="W388" s="40"/>
+      <c r="X388" s="40"/>
     </row>
     <row r="389" ht="14.25" spans="1:24">
       <c r="A389">
@@ -25720,33 +25226,33 @@
       <c r="C389" t="s">
         <v>106</v>
       </c>
-      <c r="N389" s="11" t="s">
+      <c r="N389" s="37" t="s">
         <v>136</v>
       </c>
-      <c r="O389" s="12" t="s">
+      <c r="O389" s="38" t="s">
         <v>572</v>
       </c>
-      <c r="P389" s="11">
+      <c r="P389" s="37">
         <v>1143</v>
       </c>
-      <c r="Q389" s="11">
+      <c r="Q389" s="37">
         <v>699</v>
       </c>
-      <c r="R389" s="11">
+      <c r="R389" s="37">
         <v>85</v>
       </c>
-      <c r="S389" s="11">
+      <c r="S389" s="37">
         <v>204</v>
       </c>
-      <c r="T389" s="11">
+      <c r="T389" s="37">
         <v>68</v>
       </c>
       <c r="U389" t="s">
         <v>1153</v>
       </c>
-      <c r="V389" s="37"/>
-      <c r="W389" s="37"/>
-      <c r="X389" s="37"/>
+      <c r="V389" s="40"/>
+      <c r="W389" s="40"/>
+      <c r="X389" s="40"/>
     </row>
     <row r="390" ht="14.25" spans="1:24">
       <c r="A390">
@@ -25788,33 +25294,33 @@
       <c r="M390" t="s">
         <v>1155</v>
       </c>
-      <c r="N390" s="11" t="s">
+      <c r="N390" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="O390" s="12" t="s">
+      <c r="O390" s="38" t="s">
         <v>593</v>
       </c>
-      <c r="P390" s="11">
+      <c r="P390" s="37">
         <v>1198</v>
       </c>
-      <c r="Q390" s="11">
+      <c r="Q390" s="37">
         <v>362</v>
       </c>
-      <c r="R390" s="11">
+      <c r="R390" s="37">
         <v>43</v>
       </c>
-      <c r="S390" s="11">
+      <c r="S390" s="37">
         <v>150</v>
       </c>
-      <c r="T390" s="11">
+      <c r="T390" s="37">
         <v>21</v>
       </c>
-      <c r="U390" s="37" t="s">
+      <c r="U390" s="40" t="s">
         <v>1156</v>
       </c>
-      <c r="V390" s="37"/>
-      <c r="W390" s="37"/>
-      <c r="X390" s="37"/>
+      <c r="V390" s="40"/>
+      <c r="W390" s="40"/>
+      <c r="X390" s="40"/>
     </row>
     <row r="391" spans="1:21">
       <c r="A391">
@@ -25826,25 +25332,25 @@
       <c r="C391" t="s">
         <v>121</v>
       </c>
-      <c r="N391" s="11" t="s">
+      <c r="N391" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="O391" s="12" t="s">
+      <c r="O391" s="38" t="s">
         <v>589</v>
       </c>
-      <c r="P391" s="11">
+      <c r="P391" s="37">
         <v>321</v>
       </c>
-      <c r="Q391" s="11">
+      <c r="Q391" s="37">
         <v>101</v>
       </c>
-      <c r="R391" s="11">
+      <c r="R391" s="37">
         <v>12</v>
       </c>
-      <c r="S391" s="11">
+      <c r="S391" s="37">
         <v>41</v>
       </c>
-      <c r="T391" s="11">
+      <c r="T391" s="37">
         <v>10</v>
       </c>
       <c r="U391" t="s">
@@ -25861,25 +25367,25 @@
       <c r="C392" t="s">
         <v>121</v>
       </c>
-      <c r="N392" s="11" t="s">
+      <c r="N392" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="O392" s="12" t="s">
+      <c r="O392" s="38" t="s">
         <v>586</v>
       </c>
-      <c r="P392" s="11">
+      <c r="P392" s="37">
         <v>1145</v>
       </c>
-      <c r="Q392" s="11">
+      <c r="Q392" s="37">
         <v>325</v>
       </c>
-      <c r="R392" s="11">
+      <c r="R392" s="37">
         <v>40</v>
       </c>
-      <c r="S392" s="11">
+      <c r="S392" s="37">
         <v>135</v>
       </c>
-      <c r="T392" s="11">
+      <c r="T392" s="37">
         <v>15</v>
       </c>
       <c r="U392" t="s">
@@ -25896,25 +25402,25 @@
       <c r="C393" t="s">
         <v>121</v>
       </c>
-      <c r="N393" s="11" t="s">
+      <c r="N393" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="O393" s="12" t="s">
+      <c r="O393" s="38" t="s">
         <v>583</v>
       </c>
-      <c r="P393" s="11">
+      <c r="P393" s="37">
         <v>1036</v>
       </c>
-      <c r="Q393" s="11">
+      <c r="Q393" s="37">
         <v>281</v>
       </c>
-      <c r="R393" s="11">
+      <c r="R393" s="37">
         <v>42</v>
       </c>
-      <c r="S393" s="11">
+      <c r="S393" s="37">
         <v>135</v>
       </c>
-      <c r="T393" s="11">
+      <c r="T393" s="37">
         <v>19</v>
       </c>
       <c r="U393" t="s">
@@ -25931,25 +25437,25 @@
       <c r="C394" t="s">
         <v>121</v>
       </c>
-      <c r="N394" s="11" t="s">
+      <c r="N394" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="O394" s="12" t="s">
+      <c r="O394" s="38" t="s">
         <v>581</v>
       </c>
-      <c r="P394" s="11">
+      <c r="P394" s="37">
         <v>734</v>
       </c>
-      <c r="Q394" s="11">
+      <c r="Q394" s="37">
         <v>218</v>
       </c>
-      <c r="R394" s="11">
+      <c r="R394" s="37">
         <v>47</v>
       </c>
-      <c r="S394" s="11">
+      <c r="S394" s="37">
         <v>83</v>
       </c>
-      <c r="T394" s="11">
+      <c r="T394" s="37">
         <v>20</v>
       </c>
       <c r="U394" t="s">
@@ -25966,25 +25472,25 @@
       <c r="C395" t="s">
         <v>121</v>
       </c>
-      <c r="N395" s="11" t="s">
+      <c r="N395" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="O395" s="12" t="s">
+      <c r="O395" s="38" t="s">
         <v>577</v>
       </c>
-      <c r="P395" s="11">
+      <c r="P395" s="37">
         <v>1149</v>
       </c>
-      <c r="Q395" s="11">
+      <c r="Q395" s="37">
         <v>367</v>
       </c>
-      <c r="R395" s="11">
+      <c r="R395" s="37">
         <v>64</v>
       </c>
-      <c r="S395" s="11">
+      <c r="S395" s="37">
         <v>176</v>
       </c>
-      <c r="T395" s="11">
+      <c r="T395" s="37">
         <v>36</v>
       </c>
       <c r="U395" t="s">
@@ -26001,25 +25507,25 @@
       <c r="C396" t="s">
         <v>121</v>
       </c>
-      <c r="N396" s="11" t="s">
+      <c r="N396" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="O396" s="12" t="s">
+      <c r="O396" s="38" t="s">
         <v>575</v>
       </c>
-      <c r="P396" s="11">
+      <c r="P396" s="37">
         <v>628</v>
       </c>
-      <c r="Q396" s="11">
+      <c r="Q396" s="37">
         <v>202</v>
       </c>
-      <c r="R396" s="11">
+      <c r="R396" s="37">
         <v>42</v>
       </c>
-      <c r="S396" s="11">
+      <c r="S396" s="37">
         <v>116</v>
       </c>
-      <c r="T396" s="11">
+      <c r="T396" s="37">
         <v>23</v>
       </c>
       <c r="U396" t="s">
@@ -26036,25 +25542,25 @@
       <c r="C397" t="s">
         <v>121</v>
       </c>
-      <c r="N397" s="11" t="s">
+      <c r="N397" s="37" t="s">
         <v>181</v>
       </c>
-      <c r="O397" s="12" t="s">
+      <c r="O397" s="38" t="s">
         <v>572</v>
       </c>
-      <c r="P397" s="11">
+      <c r="P397" s="37">
         <v>206</v>
       </c>
-      <c r="Q397" s="11">
+      <c r="Q397" s="37">
         <v>76</v>
       </c>
-      <c r="R397" s="11">
+      <c r="R397" s="37">
         <v>13</v>
       </c>
-      <c r="S397" s="11">
+      <c r="S397" s="37">
         <v>22</v>
       </c>
-      <c r="T397" s="11">
+      <c r="T397" s="37">
         <v>9</v>
       </c>
       <c r="U397" t="s">
@@ -26071,25 +25577,25 @@
       <c r="C398" t="s">
         <v>121</v>
       </c>
-      <c r="N398" s="11" t="s">
+      <c r="N398" s="37" t="s">
         <v>351</v>
       </c>
-      <c r="O398" s="12" t="s">
+      <c r="O398" s="38" t="s">
         <v>570</v>
       </c>
-      <c r="P398" s="11">
+      <c r="P398" s="37">
         <v>764</v>
       </c>
-      <c r="Q398" s="11">
+      <c r="Q398" s="37">
         <v>229</v>
       </c>
-      <c r="R398" s="11">
+      <c r="R398" s="37">
         <v>38</v>
       </c>
-      <c r="S398" s="11">
+      <c r="S398" s="37">
         <v>82</v>
       </c>
-      <c r="T398" s="11">
+      <c r="T398" s="37">
         <v>18</v>
       </c>
       <c r="U398" t="s">
@@ -26106,32 +25612,32 @@
       <c r="C399" t="s">
         <v>121</v>
       </c>
-      <c r="N399" s="11" t="s">
+      <c r="N399" s="37" t="s">
         <v>351</v>
       </c>
-      <c r="O399" s="12" t="s">
+      <c r="O399" s="38" t="s">
         <v>568</v>
       </c>
-      <c r="P399" s="11">
+      <c r="P399" s="37">
         <v>1221</v>
       </c>
-      <c r="Q399" s="11">
+      <c r="Q399" s="37">
         <v>398</v>
       </c>
-      <c r="R399" s="11">
+      <c r="R399" s="37">
         <v>75</v>
       </c>
-      <c r="S399" s="11">
+      <c r="S399" s="37">
         <v>135</v>
       </c>
-      <c r="T399" s="11">
+      <c r="T399" s="37">
         <v>58</v>
       </c>
       <c r="U399" t="s">
         <v>1165</v>
       </c>
     </row>
-    <row r="400" spans="1:21">
+    <row r="400" ht="14.25" spans="1:21">
       <c r="A400">
         <v>356</v>
       </c>
@@ -26141,32 +25647,32 @@
       <c r="C400" t="s">
         <v>121</v>
       </c>
-      <c r="N400" s="24" t="s">
+      <c r="N400" s="42" t="s">
         <v>351</v>
       </c>
-      <c r="O400" s="38" t="s">
+      <c r="O400" s="43" t="s">
         <v>568</v>
       </c>
-      <c r="P400" s="24">
+      <c r="P400" s="42">
         <v>170</v>
       </c>
-      <c r="Q400" s="24">
+      <c r="Q400" s="42">
         <v>55</v>
       </c>
-      <c r="R400" s="24">
+      <c r="R400" s="42">
         <v>14</v>
       </c>
-      <c r="S400" s="24">
+      <c r="S400" s="42">
         <v>15</v>
       </c>
-      <c r="T400" s="24">
+      <c r="T400" s="42">
         <v>4</v>
       </c>
       <c r="U400" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="401" spans="1:23">
+    <row r="401" spans="1:21">
       <c r="A401">
         <v>347</v>
       </c>
@@ -26206,35 +25712,32 @@
       <c r="M401" t="s">
         <v>1168</v>
       </c>
-      <c r="N401" s="11" t="s">
+      <c r="N401" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="O401" s="12" t="s">
+      <c r="O401" s="38" t="s">
         <v>593</v>
       </c>
-      <c r="P401" s="11">
+      <c r="P401" s="37">
         <v>1354</v>
       </c>
-      <c r="Q401" s="11">
+      <c r="Q401" s="37">
         <v>197</v>
       </c>
-      <c r="R401" s="11">
+      <c r="R401" s="37">
         <v>49</v>
       </c>
-      <c r="S401" s="11">
+      <c r="S401" s="37">
         <v>355</v>
       </c>
-      <c r="T401" s="11">
+      <c r="T401" s="37">
         <v>8</v>
       </c>
-      <c r="U401" s="12" t="s">
+      <c r="U401" s="38" t="s">
         <v>1169</v>
       </c>
-      <c r="W401" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="402" spans="1:23">
+    </row>
+    <row r="402" spans="1:21">
       <c r="A402">
         <v>348</v>
       </c>
@@ -26244,32 +25747,29 @@
       <c r="C402" t="s">
         <v>121</v>
       </c>
-      <c r="N402" s="11" t="s">
+      <c r="N402" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="O402" s="12" t="s">
+      <c r="O402" s="38" t="s">
         <v>589</v>
       </c>
-      <c r="P402" s="11">
+      <c r="P402" s="37">
         <v>1782</v>
       </c>
-      <c r="Q402" s="11">
+      <c r="Q402" s="37">
         <v>198</v>
       </c>
-      <c r="R402" s="11">
+      <c r="R402" s="37">
         <v>85</v>
       </c>
-      <c r="S402" s="11">
+      <c r="S402" s="37">
         <v>417</v>
       </c>
-      <c r="T402" s="11">
+      <c r="T402" s="37">
         <v>19</v>
       </c>
-      <c r="U402" s="12" t="s">
-        <v>1171</v>
-      </c>
-      <c r="W402" t="s">
-        <v>1172</v>
+      <c r="U402" s="38" t="s">
+        <v>1170</v>
       </c>
     </row>
     <row r="403" spans="1:21">
@@ -26282,29 +25782,29 @@
       <c r="C403" t="s">
         <v>121</v>
       </c>
-      <c r="N403" s="11" t="s">
+      <c r="N403" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="O403" s="12" t="s">
+      <c r="O403" s="38" t="s">
         <v>586</v>
       </c>
-      <c r="P403" s="11">
+      <c r="P403" s="37">
         <v>343</v>
       </c>
-      <c r="Q403" s="11">
+      <c r="Q403" s="37">
         <v>70</v>
       </c>
-      <c r="R403" s="11">
+      <c r="R403" s="37">
         <v>15</v>
       </c>
-      <c r="S403" s="11">
+      <c r="S403" s="37">
         <v>56</v>
       </c>
-      <c r="T403" s="11">
+      <c r="T403" s="37">
         <v>9</v>
       </c>
-      <c r="U403" s="12" t="s">
-        <v>1173</v>
+      <c r="U403" s="38" t="s">
+        <v>1171</v>
       </c>
     </row>
     <row r="404" spans="1:21">
@@ -26317,29 +25817,29 @@
       <c r="C404" t="s">
         <v>121</v>
       </c>
-      <c r="N404" s="11" t="s">
+      <c r="N404" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="O404" s="12" t="s">
+      <c r="O404" s="38" t="s">
         <v>586</v>
       </c>
-      <c r="P404" s="11">
+      <c r="P404" s="37">
         <v>1078</v>
       </c>
-      <c r="Q404" s="11">
+      <c r="Q404" s="37">
         <v>132</v>
       </c>
-      <c r="R404" s="11">
+      <c r="R404" s="37">
         <v>65</v>
       </c>
-      <c r="S404" s="11">
+      <c r="S404" s="37">
         <v>183</v>
       </c>
-      <c r="T404" s="11">
+      <c r="T404" s="37">
         <v>10</v>
       </c>
-      <c r="U404" s="12" t="s">
-        <v>1174</v>
+      <c r="U404" s="38" t="s">
+        <v>1172</v>
       </c>
     </row>
     <row r="405" spans="1:21">
@@ -26352,29 +25852,29 @@
       <c r="C405" t="s">
         <v>121</v>
       </c>
-      <c r="N405" s="11" t="s">
+      <c r="N405" s="37" t="s">
         <v>150</v>
       </c>
-      <c r="O405" s="12" t="s">
+      <c r="O405" s="38" t="s">
         <v>583</v>
       </c>
-      <c r="P405" s="11">
+      <c r="P405" s="37">
         <v>1028</v>
       </c>
-      <c r="Q405" s="11">
+      <c r="Q405" s="37">
         <v>169</v>
       </c>
-      <c r="R405" s="11">
+      <c r="R405" s="37">
         <v>62</v>
       </c>
-      <c r="S405" s="11">
+      <c r="S405" s="37">
         <v>167</v>
       </c>
-      <c r="T405" s="11">
+      <c r="T405" s="37">
         <v>19</v>
       </c>
-      <c r="U405" s="12" t="s">
-        <v>1175</v>
+      <c r="U405" s="38" t="s">
+        <v>1173</v>
       </c>
     </row>
     <row r="406" spans="1:21">
@@ -26387,29 +25887,29 @@
       <c r="C406" t="s">
         <v>121</v>
       </c>
-      <c r="N406" s="11" t="s">
+      <c r="N406" s="37" t="s">
         <v>276</v>
       </c>
-      <c r="O406" s="12" t="s">
+      <c r="O406" s="38" t="s">
         <v>581</v>
       </c>
-      <c r="P406" s="11">
+      <c r="P406" s="37">
         <v>1242</v>
       </c>
-      <c r="Q406" s="11">
+      <c r="Q406" s="37">
         <v>151</v>
       </c>
-      <c r="R406" s="11">
+      <c r="R406" s="37">
         <v>88</v>
       </c>
-      <c r="S406" s="11">
+      <c r="S406" s="37">
         <v>164</v>
       </c>
-      <c r="T406" s="11">
+      <c r="T406" s="37">
         <v>10</v>
       </c>
-      <c r="U406" s="12" t="s">
-        <v>1176</v>
+      <c r="U406" s="38" t="s">
+        <v>1174</v>
       </c>
     </row>
     <row r="407" spans="1:21">
@@ -26422,29 +25922,29 @@
       <c r="C407" t="s">
         <v>121</v>
       </c>
-      <c r="N407" s="11" t="s">
+      <c r="N407" s="37" t="s">
         <v>426</v>
       </c>
-      <c r="O407" s="12" t="s">
+      <c r="O407" s="38" t="s">
         <v>579</v>
       </c>
-      <c r="P407" s="11">
+      <c r="P407" s="37">
         <v>625</v>
       </c>
-      <c r="Q407" s="11">
+      <c r="Q407" s="37">
         <v>124</v>
       </c>
-      <c r="R407" s="11">
+      <c r="R407" s="37">
         <v>45</v>
       </c>
-      <c r="S407" s="11">
+      <c r="S407" s="37">
         <v>210</v>
       </c>
-      <c r="T407" s="11">
+      <c r="T407" s="37">
         <v>4</v>
       </c>
-      <c r="U407" s="12" t="s">
-        <v>1177</v>
+      <c r="U407" s="38" t="s">
+        <v>1175</v>
       </c>
     </row>
     <row r="408" spans="1:21">
@@ -26457,29 +25957,29 @@
       <c r="C408" t="s">
         <v>121</v>
       </c>
-      <c r="N408" s="11" t="s">
+      <c r="N408" s="37" t="s">
         <v>426</v>
       </c>
-      <c r="O408" s="12" t="s">
+      <c r="O408" s="38" t="s">
         <v>577</v>
       </c>
-      <c r="P408" s="11">
+      <c r="P408" s="37">
         <v>551</v>
       </c>
-      <c r="Q408" s="11">
+      <c r="Q408" s="37">
         <v>80</v>
       </c>
-      <c r="R408" s="11">
+      <c r="R408" s="37">
         <v>44</v>
       </c>
-      <c r="S408" s="11">
+      <c r="S408" s="37">
         <v>139</v>
       </c>
-      <c r="T408" s="11">
+      <c r="T408" s="37">
         <v>10</v>
       </c>
-      <c r="U408" s="12" t="s">
-        <v>1178</v>
+      <c r="U408" s="38" t="s">
+        <v>1176</v>
       </c>
     </row>
     <row r="409" spans="1:21">
@@ -26492,29 +25992,29 @@
       <c r="C409" t="s">
         <v>121</v>
       </c>
-      <c r="N409" s="11" t="s">
+      <c r="N409" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="O409" s="12" t="s">
+      <c r="O409" s="38" t="s">
         <v>575</v>
       </c>
-      <c r="P409" s="11">
+      <c r="P409" s="37">
         <v>956</v>
       </c>
-      <c r="Q409" s="11">
+      <c r="Q409" s="37">
         <v>155</v>
       </c>
-      <c r="R409" s="11">
+      <c r="R409" s="37">
         <v>53</v>
       </c>
-      <c r="S409" s="11">
+      <c r="S409" s="37">
         <v>221</v>
       </c>
-      <c r="T409" s="11">
+      <c r="T409" s="37">
         <v>18</v>
       </c>
-      <c r="U409" s="12" t="s">
-        <v>1179</v>
+      <c r="U409" s="38" t="s">
+        <v>1177</v>
       </c>
     </row>
     <row r="410" spans="1:21">
@@ -26527,29 +26027,29 @@
       <c r="C410" t="s">
         <v>121</v>
       </c>
-      <c r="N410" s="11" t="s">
+      <c r="N410" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="O410" s="12" t="s">
+      <c r="O410" s="38" t="s">
         <v>572</v>
       </c>
-      <c r="P410" s="11">
+      <c r="P410" s="37">
         <v>1027</v>
       </c>
-      <c r="Q410" s="11">
+      <c r="Q410" s="37">
         <v>149</v>
       </c>
-      <c r="R410" s="11">
+      <c r="R410" s="37">
         <v>47</v>
       </c>
-      <c r="S410" s="11">
+      <c r="S410" s="37">
         <v>252</v>
       </c>
-      <c r="T410" s="11">
+      <c r="T410" s="37">
         <v>17</v>
       </c>
-      <c r="U410" s="12" t="s">
-        <v>1180</v>
+      <c r="U410" s="38" t="s">
+        <v>1178</v>
       </c>
     </row>
     <row r="411" spans="1:21">
@@ -26562,29 +26062,29 @@
       <c r="C411" t="s">
         <v>121</v>
       </c>
-      <c r="N411" s="11" t="s">
+      <c r="N411" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="O411" s="12" t="s">
+      <c r="O411" s="38" t="s">
         <v>570</v>
       </c>
-      <c r="P411" s="11">
+      <c r="P411" s="37">
         <v>898</v>
       </c>
-      <c r="Q411" s="11">
+      <c r="Q411" s="37">
         <v>187</v>
       </c>
-      <c r="R411" s="11">
+      <c r="R411" s="37">
         <v>80</v>
       </c>
-      <c r="S411" s="11">
+      <c r="S411" s="37">
         <v>268</v>
       </c>
-      <c r="T411" s="11">
+      <c r="T411" s="37">
         <v>15</v>
       </c>
-      <c r="U411" s="12" t="s">
-        <v>1181</v>
+      <c r="U411" s="38" t="s">
+        <v>1179</v>
       </c>
     </row>
     <row r="412" spans="1:21">
@@ -26597,29 +26097,29 @@
       <c r="C412" t="s">
         <v>121</v>
       </c>
-      <c r="N412" s="11" t="s">
+      <c r="N412" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="O412" s="12" t="s">
+      <c r="O412" s="38" t="s">
         <v>568</v>
       </c>
-      <c r="P412" s="11">
+      <c r="P412" s="37">
         <v>1039</v>
       </c>
-      <c r="Q412" s="11">
+      <c r="Q412" s="37">
         <v>165</v>
       </c>
-      <c r="R412" s="11">
+      <c r="R412" s="37">
         <v>85</v>
       </c>
-      <c r="S412" s="11">
+      <c r="S412" s="37">
         <v>242</v>
       </c>
-      <c r="T412" s="11">
+      <c r="T412" s="37">
         <v>14</v>
       </c>
-      <c r="U412" s="12" t="s">
-        <v>1182</v>
+      <c r="U412" s="38" t="s">
+        <v>1180</v>
       </c>
     </row>
     <row r="413" spans="1:21">
@@ -26632,29 +26132,29 @@
       <c r="C413" t="s">
         <v>121</v>
       </c>
-      <c r="N413" s="11" t="s">
+      <c r="N413" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="O413" s="12" t="s">
+      <c r="O413" s="38" t="s">
         <v>653</v>
       </c>
-      <c r="P413" s="11">
+      <c r="P413" s="37">
         <v>920</v>
       </c>
-      <c r="Q413" s="11">
+      <c r="Q413" s="37">
         <v>167</v>
       </c>
-      <c r="R413" s="11">
+      <c r="R413" s="37">
         <v>81</v>
       </c>
-      <c r="S413" s="11">
+      <c r="S413" s="37">
         <v>253</v>
       </c>
-      <c r="T413" s="11">
+      <c r="T413" s="37">
         <v>13</v>
       </c>
-      <c r="U413" s="12" t="s">
-        <v>1183</v>
+      <c r="U413" s="38" t="s">
+        <v>1181</v>
       </c>
     </row>
     <row r="414" spans="1:21">
@@ -26667,29 +26167,29 @@
       <c r="C414" t="s">
         <v>121</v>
       </c>
-      <c r="N414" s="11" t="s">
+      <c r="N414" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="O414" s="12" t="s">
+      <c r="O414" s="38" t="s">
         <v>650</v>
       </c>
-      <c r="P414" s="11">
+      <c r="P414" s="37">
         <v>262</v>
       </c>
-      <c r="Q414" s="11">
+      <c r="Q414" s="37">
         <v>70</v>
       </c>
-      <c r="R414" s="11">
+      <c r="R414" s="37">
         <v>22</v>
       </c>
-      <c r="S414" s="11">
+      <c r="S414" s="37">
         <v>110</v>
       </c>
-      <c r="T414" s="11">
+      <c r="T414" s="37">
         <v>1</v>
       </c>
-      <c r="U414" s="12" t="s">
-        <v>1184</v>
+      <c r="U414" s="38" t="s">
+        <v>1182</v>
       </c>
     </row>
     <row r="415" spans="1:21">
@@ -26702,32 +26202,32 @@
       <c r="C415" t="s">
         <v>121</v>
       </c>
-      <c r="N415" s="11" t="s">
+      <c r="N415" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="O415" s="12" t="s">
+      <c r="O415" s="38" t="s">
         <v>647</v>
       </c>
-      <c r="P415" s="11">
+      <c r="P415" s="37">
         <v>56</v>
       </c>
-      <c r="Q415" s="11">
+      <c r="Q415" s="37">
         <v>19</v>
       </c>
-      <c r="R415" s="11">
+      <c r="R415" s="37">
         <v>5</v>
       </c>
-      <c r="S415" s="11">
+      <c r="S415" s="37">
         <v>10</v>
       </c>
-      <c r="T415" s="11">
+      <c r="T415" s="37">
         <v>0</v>
       </c>
-      <c r="U415" s="12" t="s">
-        <v>1185</v>
-      </c>
-    </row>
-    <row r="416" ht="14.25" spans="1:21">
+      <c r="U415" s="38" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3">
       <c r="A416">
         <v>362</v>
       </c>
@@ -26737,3637 +26237,38 @@
       <c r="C416" t="s">
         <v>121</v>
       </c>
-      <c r="D416">
-        <v>16.6</v>
-      </c>
-      <c r="E416">
-        <v>6.7</v>
-      </c>
-      <c r="F416">
-        <v>1.8</v>
-      </c>
-      <c r="G416">
-        <v>0.9</v>
-      </c>
-      <c r="H416">
-        <v>1.4</v>
-      </c>
-      <c r="I416">
-        <v>5</v>
-      </c>
-      <c r="J416">
-        <v>2.03</v>
-      </c>
-      <c r="K416">
-        <v>109</v>
-      </c>
-      <c r="L416" t="s">
-        <v>1186</v>
-      </c>
-      <c r="M416" t="s">
-        <v>821</v>
-      </c>
-      <c r="N416" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="O416" t="s">
-        <v>593</v>
-      </c>
-      <c r="P416" s="39">
-        <v>1225</v>
-      </c>
-      <c r="Q416" s="39">
-        <v>495</v>
-      </c>
-      <c r="R416" s="39">
-        <v>66</v>
-      </c>
-      <c r="S416" s="39">
-        <v>136</v>
-      </c>
-      <c r="T416" s="39">
-        <v>103</v>
-      </c>
-      <c r="U416" s="41" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="417" ht="14.25" spans="1:21">
+    </row>
+    <row r="417" spans="1:3">
       <c r="A417">
         <v>363</v>
       </c>
       <c r="B417" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C417" t="s">
         <v>121</v>
       </c>
-      <c r="N417" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="O417" t="s">
-        <v>589</v>
-      </c>
-      <c r="P417" s="39">
-        <v>836</v>
-      </c>
-      <c r="Q417" s="39">
-        <v>307</v>
-      </c>
-      <c r="R417" s="39">
-        <v>36</v>
-      </c>
-      <c r="S417" s="39">
-        <v>74</v>
-      </c>
-      <c r="T417" s="39">
-        <v>52</v>
-      </c>
-      <c r="U417" s="41" t="s">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="418" ht="14.25" spans="1:21">
+    </row>
+    <row r="418" spans="1:3">
       <c r="A418">
         <v>364</v>
       </c>
       <c r="B418" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C418" t="s">
         <v>121</v>
       </c>
-      <c r="N418" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="O418" t="s">
-        <v>586</v>
-      </c>
-      <c r="P418" s="39">
-        <v>527</v>
-      </c>
-      <c r="Q418" s="39">
-        <v>219</v>
-      </c>
-      <c r="R418" s="39">
-        <v>20</v>
-      </c>
-      <c r="S418" s="39">
-        <v>64</v>
-      </c>
-      <c r="T418" s="39">
-        <v>42</v>
-      </c>
-      <c r="U418" s="41" t="s">
-        <v>1189</v>
-      </c>
-    </row>
-    <row r="419" ht="14.25" spans="1:21">
+    </row>
+    <row r="419" spans="1:3">
       <c r="A419">
         <v>365</v>
       </c>
-      <c r="B419" t="s">
-        <v>127</v>
+      <c r="B419" s="41" t="s">
+        <v>135</v>
       </c>
       <c r="C419" t="s">
         <v>121</v>
-      </c>
-      <c r="N419" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="O419" t="s">
-        <v>583</v>
-      </c>
-      <c r="P419" s="39">
-        <v>140</v>
-      </c>
-      <c r="Q419" s="39">
-        <v>65</v>
-      </c>
-      <c r="R419" s="39">
-        <v>11</v>
-      </c>
-      <c r="S419" s="39">
-        <v>17</v>
-      </c>
-      <c r="T419" s="39">
-        <v>11</v>
-      </c>
-      <c r="U419" s="41" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="420" ht="14.25" spans="1:23">
-      <c r="A420">
-        <v>366</v>
-      </c>
-      <c r="B420" t="s">
-        <v>128</v>
-      </c>
-      <c r="C420" t="s">
-        <v>121</v>
-      </c>
-      <c r="D420">
-        <v>7.6</v>
-      </c>
-      <c r="E420">
-        <v>5</v>
-      </c>
-      <c r="F420">
-        <v>3.8</v>
-      </c>
-      <c r="G420">
-        <v>0.9</v>
-      </c>
-      <c r="H420">
-        <v>0.6</v>
-      </c>
-      <c r="I420">
-        <v>21</v>
-      </c>
-      <c r="J420">
-        <v>1.85</v>
-      </c>
-      <c r="K420">
-        <v>84</v>
-      </c>
-      <c r="L420" t="s">
-        <v>1191</v>
-      </c>
-      <c r="M420" t="s">
-        <v>1192</v>
-      </c>
-      <c r="N420" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="O420" t="s">
-        <v>593</v>
-      </c>
-      <c r="P420" s="39">
-        <v>564</v>
-      </c>
-      <c r="Q420" s="39">
-        <v>373</v>
-      </c>
-      <c r="R420" s="39">
-        <v>66</v>
-      </c>
-      <c r="S420" s="39">
-        <v>279</v>
-      </c>
-      <c r="T420" s="39">
-        <v>41</v>
-      </c>
-      <c r="U420" s="41" t="s">
-        <v>1193</v>
-      </c>
-      <c r="W420" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="421" ht="14.25" spans="1:23">
-      <c r="A421">
-        <v>367</v>
-      </c>
-      <c r="B421" t="s">
-        <v>128</v>
-      </c>
-      <c r="C421" t="s">
-        <v>121</v>
-      </c>
-      <c r="N421" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="O421" t="s">
-        <v>589</v>
-      </c>
-      <c r="P421" s="39">
-        <v>134</v>
-      </c>
-      <c r="Q421" s="39">
-        <v>45</v>
-      </c>
-      <c r="R421" s="39">
-        <v>19</v>
-      </c>
-      <c r="S421" s="39">
-        <v>32</v>
-      </c>
-      <c r="T421" s="39">
-        <v>5</v>
-      </c>
-      <c r="U421" s="41" t="s">
-        <v>1195</v>
-      </c>
-      <c r="W421" t="s">
-        <v>1196</v>
-      </c>
-    </row>
-    <row r="422" ht="14.25" spans="1:23">
-      <c r="A422">
-        <v>368</v>
-      </c>
-      <c r="B422" t="s">
-        <v>128</v>
-      </c>
-      <c r="C422" t="s">
-        <v>121</v>
-      </c>
-      <c r="N422" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="O422" t="s">
-        <v>586</v>
-      </c>
-      <c r="P422" s="39">
-        <v>639</v>
-      </c>
-      <c r="Q422" s="39">
-        <v>393</v>
-      </c>
-      <c r="R422" s="39">
-        <v>99</v>
-      </c>
-      <c r="S422" s="39">
-        <v>281</v>
-      </c>
-      <c r="T422" s="39">
-        <v>25</v>
-      </c>
-      <c r="U422" s="41" t="s">
-        <v>1197</v>
-      </c>
-      <c r="W422" s="42" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="423" ht="14.25" spans="1:21">
-      <c r="A423">
-        <v>369</v>
-      </c>
-      <c r="B423" t="s">
-        <v>128</v>
-      </c>
-      <c r="C423" t="s">
-        <v>121</v>
-      </c>
-      <c r="N423" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="O423" t="s">
-        <v>583</v>
-      </c>
-      <c r="P423" s="39">
-        <v>700</v>
-      </c>
-      <c r="Q423" s="39">
-        <v>250</v>
-      </c>
-      <c r="R423" s="39">
-        <v>94</v>
-      </c>
-      <c r="S423" s="39">
-        <v>239</v>
-      </c>
-      <c r="T423" s="39">
-        <v>26</v>
-      </c>
-      <c r="U423" s="41" t="s">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="424" ht="14.25" spans="1:21">
-      <c r="A424">
-        <v>370</v>
-      </c>
-      <c r="B424" t="s">
-        <v>128</v>
-      </c>
-      <c r="C424" t="s">
-        <v>121</v>
-      </c>
-      <c r="N424" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="O424" t="s">
-        <v>581</v>
-      </c>
-      <c r="P424" s="39">
-        <v>568</v>
-      </c>
-      <c r="Q424" s="39">
-        <v>237</v>
-      </c>
-      <c r="R424" s="39">
-        <v>59</v>
-      </c>
-      <c r="S424" s="39">
-        <v>192</v>
-      </c>
-      <c r="T424" s="39">
-        <v>23</v>
-      </c>
-      <c r="U424" s="41" t="s">
-        <v>1200</v>
-      </c>
-    </row>
-    <row r="425" ht="14.25" spans="1:21">
-      <c r="A425">
-        <v>371</v>
-      </c>
-      <c r="B425" t="s">
-        <v>128</v>
-      </c>
-      <c r="C425" t="s">
-        <v>121</v>
-      </c>
-      <c r="N425" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="O425" t="s">
-        <v>579</v>
-      </c>
-      <c r="P425" s="39">
-        <v>573</v>
-      </c>
-      <c r="Q425" s="39">
-        <v>196</v>
-      </c>
-      <c r="R425" s="39">
-        <v>77</v>
-      </c>
-      <c r="S425" s="39">
-        <v>151</v>
-      </c>
-      <c r="T425" s="39">
-        <v>23</v>
-      </c>
-      <c r="U425" s="41" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="426" ht="14.25" spans="1:21">
-      <c r="A426">
-        <v>372</v>
-      </c>
-      <c r="B426" t="s">
-        <v>128</v>
-      </c>
-      <c r="C426" t="s">
-        <v>121</v>
-      </c>
-      <c r="N426" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="O426" t="s">
-        <v>577</v>
-      </c>
-      <c r="P426" s="39">
-        <v>228</v>
-      </c>
-      <c r="Q426" s="39">
-        <v>109</v>
-      </c>
-      <c r="R426" s="39">
-        <v>37</v>
-      </c>
-      <c r="S426" s="39">
-        <v>117</v>
-      </c>
-      <c r="T426" s="39">
-        <v>21</v>
-      </c>
-      <c r="U426" s="41" t="s">
-        <v>1202</v>
-      </c>
-    </row>
-    <row r="427" ht="14.25" spans="1:21">
-      <c r="A427">
-        <v>373</v>
-      </c>
-      <c r="B427" t="s">
-        <v>130</v>
-      </c>
-      <c r="C427" t="s">
-        <v>121</v>
-      </c>
-      <c r="D427">
-        <v>10.4</v>
-      </c>
-      <c r="E427">
-        <v>2.7</v>
-      </c>
-      <c r="F427">
-        <v>3.2</v>
-      </c>
-      <c r="G427">
-        <v>1.1</v>
-      </c>
-      <c r="H427">
-        <v>0.5</v>
-      </c>
-      <c r="I427">
-        <v>2</v>
-      </c>
-      <c r="J427">
-        <v>1.98</v>
-      </c>
-      <c r="K427">
-        <v>82</v>
-      </c>
-      <c r="L427" t="s">
-        <v>1203</v>
-      </c>
-      <c r="M427" s="40" t="s">
-        <v>1204</v>
-      </c>
-      <c r="N427" t="s">
-        <v>121</v>
-      </c>
-      <c r="O427" t="s">
-        <v>593</v>
-      </c>
-      <c r="P427">
-        <v>770</v>
-      </c>
-      <c r="Q427">
-        <v>201</v>
-      </c>
-      <c r="R427">
-        <v>83</v>
-      </c>
-      <c r="S427">
-        <v>237</v>
-      </c>
-      <c r="T427">
-        <v>40</v>
-      </c>
-      <c r="U427" s="41" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="428" ht="14.25" spans="1:21">
-      <c r="A428">
-        <v>374</v>
-      </c>
-      <c r="B428" t="s">
-        <v>135</v>
-      </c>
-      <c r="C428" t="s">
-        <v>121</v>
-      </c>
-      <c r="D428">
-        <v>8.7</v>
-      </c>
-      <c r="E428">
-        <v>6</v>
-      </c>
-      <c r="F428">
-        <v>1.1</v>
-      </c>
-      <c r="G428">
-        <v>0.18</v>
-      </c>
-      <c r="H428">
-        <v>0.86</v>
-      </c>
-      <c r="I428">
-        <v>40</v>
-      </c>
-      <c r="J428">
-        <v>2.16</v>
-      </c>
-      <c r="K428">
-        <v>109</v>
-      </c>
-      <c r="L428" t="s">
-        <v>1206</v>
-      </c>
-      <c r="M428" t="s">
-        <v>1207</v>
-      </c>
-      <c r="N428" s="39" t="s">
-        <v>121</v>
-      </c>
-      <c r="O428" t="s">
-        <v>593</v>
-      </c>
-      <c r="P428" s="39">
-        <v>162</v>
-      </c>
-      <c r="Q428" s="39">
-        <v>144</v>
-      </c>
-      <c r="R428" s="39">
-        <v>4</v>
-      </c>
-      <c r="S428" s="39">
-        <v>31</v>
-      </c>
-      <c r="T428" s="39">
-        <v>17</v>
-      </c>
-      <c r="U428" s="41" t="s">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="429" ht="14.25" spans="1:21">
-      <c r="A429">
-        <v>375</v>
-      </c>
-      <c r="B429" t="s">
-        <v>135</v>
-      </c>
-      <c r="C429" t="s">
-        <v>121</v>
-      </c>
-      <c r="N429" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="O429" t="s">
-        <v>593</v>
-      </c>
-      <c r="P429" s="39">
-        <v>281</v>
-      </c>
-      <c r="Q429" s="39">
-        <v>162</v>
-      </c>
-      <c r="R429" s="39">
-        <v>4</v>
-      </c>
-      <c r="S429" s="39">
-        <v>25</v>
-      </c>
-      <c r="T429" s="39">
-        <v>27</v>
-      </c>
-      <c r="U429" s="41" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="430" ht="14.25" spans="1:21">
-      <c r="A430">
-        <v>376</v>
-      </c>
-      <c r="B430" t="s">
-        <v>135</v>
-      </c>
-      <c r="C430" t="s">
-        <v>121</v>
-      </c>
-      <c r="N430" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="O430" t="s">
-        <v>589</v>
-      </c>
-      <c r="P430" s="39">
-        <v>161</v>
-      </c>
-      <c r="Q430" s="39">
-        <v>123</v>
-      </c>
-      <c r="R430" s="39">
-        <v>8</v>
-      </c>
-      <c r="S430" s="39">
-        <v>25</v>
-      </c>
-      <c r="T430" s="39">
-        <v>15</v>
-      </c>
-      <c r="U430" s="41" t="s">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="431" ht="14.25" spans="1:21">
-      <c r="A431">
-        <v>377</v>
-      </c>
-      <c r="B431" t="s">
-        <v>135</v>
-      </c>
-      <c r="C431" t="s">
-        <v>121</v>
-      </c>
-      <c r="N431" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="O431" t="s">
-        <v>586</v>
-      </c>
-      <c r="P431" s="39">
-        <v>284</v>
-      </c>
-      <c r="Q431" s="39">
-        <v>159</v>
-      </c>
-      <c r="R431" s="39">
-        <v>14</v>
-      </c>
-      <c r="S431" s="39">
-        <v>30</v>
-      </c>
-      <c r="T431" s="39">
-        <v>33</v>
-      </c>
-      <c r="U431" s="41" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="432" ht="14.25" spans="1:23">
-      <c r="A432">
-        <v>378</v>
-      </c>
-      <c r="B432" t="s">
-        <v>137</v>
-      </c>
-      <c r="C432" t="s">
-        <v>136</v>
-      </c>
-      <c r="D432">
-        <v>14.9</v>
-      </c>
-      <c r="E432">
-        <v>6.1</v>
-      </c>
-      <c r="F432">
-        <v>2.1</v>
-      </c>
-      <c r="G432">
-        <v>0.79</v>
-      </c>
-      <c r="H432">
-        <v>0.05</v>
-      </c>
-      <c r="I432">
-        <v>40</v>
-      </c>
-      <c r="J432">
-        <v>2.03</v>
-      </c>
-      <c r="K432">
-        <v>102</v>
-      </c>
-      <c r="L432" t="s">
-        <v>1212</v>
-      </c>
-      <c r="M432" t="s">
-        <v>1213</v>
-      </c>
-      <c r="N432" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="O432" t="s">
-        <v>593</v>
-      </c>
-      <c r="P432" s="39">
-        <v>283</v>
-      </c>
-      <c r="Q432" s="39">
-        <v>117</v>
-      </c>
-      <c r="R432" s="39">
-        <v>15</v>
-      </c>
-      <c r="S432" s="39">
-        <v>40</v>
-      </c>
-      <c r="T432" s="39">
-        <v>1</v>
-      </c>
-      <c r="U432" s="41" t="s">
-        <v>1214</v>
-      </c>
-      <c r="W432" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="433" ht="14.25" spans="1:23">
-      <c r="A433">
-        <v>379</v>
-      </c>
-      <c r="B433" t="s">
-        <v>137</v>
-      </c>
-      <c r="C433" t="s">
-        <v>136</v>
-      </c>
-      <c r="N433" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="O433" t="s">
-        <v>593</v>
-      </c>
-      <c r="P433" s="39">
-        <v>866</v>
-      </c>
-      <c r="Q433" s="39">
-        <v>207</v>
-      </c>
-      <c r="R433" s="39">
-        <v>33</v>
-      </c>
-      <c r="S433" s="39">
-        <v>62</v>
-      </c>
-      <c r="T433" s="39">
-        <v>11</v>
-      </c>
-      <c r="U433" s="41" t="s">
-        <v>1215</v>
-      </c>
-      <c r="W433" s="42" t="s">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="434" ht="14.25" spans="1:21">
-      <c r="A434">
-        <v>380</v>
-      </c>
-      <c r="B434" t="s">
-        <v>137</v>
-      </c>
-      <c r="C434" t="s">
-        <v>136</v>
-      </c>
-      <c r="N434" s="39" t="s">
-        <v>89</v>
-      </c>
-      <c r="O434" t="s">
-        <v>589</v>
-      </c>
-      <c r="P434" s="39">
-        <v>1452</v>
-      </c>
-      <c r="Q434" s="39">
-        <v>468</v>
-      </c>
-      <c r="R434" s="39">
-        <v>49</v>
-      </c>
-      <c r="S434" s="39">
-        <v>152</v>
-      </c>
-      <c r="T434" s="39">
-        <v>14</v>
-      </c>
-      <c r="U434" s="41" t="s">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="435" ht="14.25" spans="1:21">
-      <c r="A435">
-        <v>381</v>
-      </c>
-      <c r="B435" t="s">
-        <v>137</v>
-      </c>
-      <c r="C435" t="s">
-        <v>136</v>
-      </c>
-      <c r="N435" s="39" t="s">
-        <v>961</v>
-      </c>
-      <c r="O435" t="s">
-        <v>586</v>
-      </c>
-      <c r="P435" s="39">
-        <v>1518</v>
-      </c>
-      <c r="Q435" s="39">
-        <v>394</v>
-      </c>
-      <c r="R435" s="39">
-        <v>65</v>
-      </c>
-      <c r="S435" s="39">
-        <v>117</v>
-      </c>
-      <c r="T435" s="39">
-        <v>15</v>
-      </c>
-      <c r="U435" s="41" t="s">
-        <v>1218</v>
-      </c>
-    </row>
-    <row r="436" ht="14.25" spans="1:21">
-      <c r="A436">
-        <v>382</v>
-      </c>
-      <c r="B436" t="s">
-        <v>137</v>
-      </c>
-      <c r="C436" t="s">
-        <v>136</v>
-      </c>
-      <c r="N436" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="O436" t="s">
-        <v>583</v>
-      </c>
-      <c r="P436" s="39">
-        <v>774</v>
-      </c>
-      <c r="Q436" s="39">
-        <v>325</v>
-      </c>
-      <c r="R436" s="39">
-        <v>41</v>
-      </c>
-      <c r="S436" s="39">
-        <v>117</v>
-      </c>
-      <c r="T436" s="39">
-        <v>10</v>
-      </c>
-      <c r="U436" s="41" t="s">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="437" ht="14.25" spans="1:21">
-      <c r="A437">
-        <v>383</v>
-      </c>
-      <c r="B437" t="s">
-        <v>137</v>
-      </c>
-      <c r="C437" t="s">
-        <v>136</v>
-      </c>
-      <c r="N437" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="O437" t="s">
-        <v>581</v>
-      </c>
-      <c r="P437" s="39">
-        <v>827</v>
-      </c>
-      <c r="Q437" s="39">
-        <v>453</v>
-      </c>
-      <c r="R437" s="39">
-        <v>61</v>
-      </c>
-      <c r="S437" s="39">
-        <v>116</v>
-      </c>
-      <c r="T437" s="39">
-        <v>19</v>
-      </c>
-      <c r="U437" s="41" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="438" ht="14.25" spans="1:21">
-      <c r="A438">
-        <v>384</v>
-      </c>
-      <c r="B438" t="s">
-        <v>137</v>
-      </c>
-      <c r="C438" t="s">
-        <v>136</v>
-      </c>
-      <c r="N438" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="O438" t="s">
-        <v>579</v>
-      </c>
-      <c r="P438" s="39">
-        <v>738</v>
-      </c>
-      <c r="Q438" s="39">
-        <v>311</v>
-      </c>
-      <c r="R438" s="39">
-        <v>65</v>
-      </c>
-      <c r="S438" s="39">
-        <v>116</v>
-      </c>
-      <c r="T438" s="39">
-        <v>20</v>
-      </c>
-      <c r="U438" s="41" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="439" ht="14.25" spans="1:21">
-      <c r="A439">
-        <v>385</v>
-      </c>
-      <c r="B439" t="s">
-        <v>137</v>
-      </c>
-      <c r="C439" t="s">
-        <v>136</v>
-      </c>
-      <c r="N439" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="O439" t="s">
-        <v>577</v>
-      </c>
-      <c r="P439" s="39">
-        <v>748</v>
-      </c>
-      <c r="Q439" s="39">
-        <v>333</v>
-      </c>
-      <c r="R439" s="39">
-        <v>52</v>
-      </c>
-      <c r="S439" s="39">
-        <v>98</v>
-      </c>
-      <c r="T439" s="39">
-        <v>14</v>
-      </c>
-      <c r="U439" s="41" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="440" ht="14.25" spans="1:21">
-      <c r="A440">
-        <v>386</v>
-      </c>
-      <c r="B440" t="s">
-        <v>140</v>
-      </c>
-      <c r="C440" t="s">
-        <v>136</v>
-      </c>
-      <c r="D440">
-        <v>14.1</v>
-      </c>
-      <c r="E440">
-        <v>3.5</v>
-      </c>
-      <c r="F440">
-        <v>3.8</v>
-      </c>
-      <c r="G440">
-        <v>1.05</v>
-      </c>
-      <c r="H440">
-        <v>0.22</v>
-      </c>
-      <c r="I440">
-        <v>8</v>
-      </c>
-      <c r="J440">
-        <v>1.98</v>
-      </c>
-      <c r="K440">
-        <v>93</v>
-      </c>
-      <c r="L440" t="s">
-        <v>1223</v>
-      </c>
-      <c r="M440" t="s">
-        <v>1224</v>
-      </c>
-      <c r="N440" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="O440" t="s">
-        <v>593</v>
-      </c>
-      <c r="P440" s="39">
-        <v>854</v>
-      </c>
-      <c r="Q440" s="39">
-        <v>214</v>
-      </c>
-      <c r="R440" s="39">
-        <v>65</v>
-      </c>
-      <c r="S440" s="39">
-        <v>233</v>
-      </c>
-      <c r="T440" s="39">
-        <v>14</v>
-      </c>
-      <c r="U440" s="41" t="s">
-        <v>1225</v>
-      </c>
-    </row>
-    <row r="441" ht="14.25" spans="1:21">
-      <c r="A441">
-        <v>387</v>
-      </c>
-      <c r="B441" t="s">
-        <v>140</v>
-      </c>
-      <c r="C441" t="s">
-        <v>136</v>
-      </c>
-      <c r="N441" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="O441" t="s">
-        <v>589</v>
-      </c>
-      <c r="P441" s="39">
-        <v>917</v>
-      </c>
-      <c r="Q441" s="39">
-        <v>223</v>
-      </c>
-      <c r="R441" s="39">
-        <v>72</v>
-      </c>
-      <c r="S441" s="39">
-        <v>258</v>
-      </c>
-      <c r="T441" s="39">
-        <v>16</v>
-      </c>
-      <c r="U441" s="41" t="s">
-        <v>1226</v>
-      </c>
-    </row>
-    <row r="442" ht="14.25" spans="1:21">
-      <c r="A442">
-        <v>388</v>
-      </c>
-      <c r="B442" t="s">
-        <v>141</v>
-      </c>
-      <c r="C442" t="s">
-        <v>136</v>
-      </c>
-      <c r="D442">
-        <v>14.7</v>
-      </c>
-      <c r="E442">
-        <v>7.4</v>
-      </c>
-      <c r="F442">
-        <v>1</v>
-      </c>
-      <c r="G442">
-        <v>0.59</v>
-      </c>
-      <c r="H442">
-        <v>0.98</v>
-      </c>
-      <c r="I442">
-        <v>35</v>
-      </c>
-      <c r="J442">
-        <v>2.11</v>
-      </c>
-      <c r="K442">
-        <v>107</v>
-      </c>
-      <c r="L442" t="s">
-        <v>1227</v>
-      </c>
-      <c r="M442" t="s">
-        <v>1228</v>
-      </c>
-      <c r="N442" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="O442" t="s">
-        <v>593</v>
-      </c>
-      <c r="P442">
-        <v>793</v>
-      </c>
-      <c r="Q442">
-        <v>398</v>
-      </c>
-      <c r="R442">
-        <v>31</v>
-      </c>
-      <c r="S442">
-        <v>55</v>
-      </c>
-      <c r="T442">
-        <v>53</v>
-      </c>
-      <c r="U442" s="41" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="443" ht="14.25" spans="1:21">
-      <c r="A443">
-        <v>389</v>
-      </c>
-      <c r="B443" t="s">
-        <v>143</v>
-      </c>
-      <c r="C443" t="s">
-        <v>136</v>
-      </c>
-      <c r="D443">
-        <v>17.4</v>
-      </c>
-      <c r="E443">
-        <v>3.8</v>
-      </c>
-      <c r="F443">
-        <v>7.2</v>
-      </c>
-      <c r="G443">
-        <v>1.69</v>
-      </c>
-      <c r="H443">
-        <v>0.56</v>
-      </c>
-      <c r="I443">
-        <v>5</v>
-      </c>
-      <c r="J443">
-        <v>1.91</v>
-      </c>
-      <c r="K443">
-        <v>79</v>
-      </c>
-      <c r="L443" t="s">
-        <v>1230</v>
-      </c>
-      <c r="M443" t="s">
-        <v>1231</v>
-      </c>
-      <c r="N443" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="O443" t="s">
-        <v>593</v>
-      </c>
-      <c r="P443" s="39">
-        <v>1251</v>
-      </c>
-      <c r="Q443" s="39">
-        <v>270</v>
-      </c>
-      <c r="R443" s="39">
-        <v>122</v>
-      </c>
-      <c r="S443" s="39">
-        <v>519</v>
-      </c>
-      <c r="T443" s="39">
-        <v>40</v>
-      </c>
-      <c r="U443" s="41" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="444" ht="14.25" spans="1:21">
-      <c r="A444">
-        <v>390</v>
-      </c>
-      <c r="B444" t="s">
-        <v>143</v>
-      </c>
-      <c r="C444" t="s">
-        <v>136</v>
-      </c>
-      <c r="N444" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="O444" t="s">
-        <v>589</v>
-      </c>
-      <c r="P444" s="39">
-        <v>844</v>
-      </c>
-      <c r="Q444" s="39">
-        <v>204</v>
-      </c>
-      <c r="R444" s="39">
-        <v>70</v>
-      </c>
-      <c r="S444" s="39">
-        <v>320</v>
-      </c>
-      <c r="T444" s="39">
-        <v>20</v>
-      </c>
-      <c r="U444" s="41" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="445" ht="14.25" spans="1:21">
-      <c r="A445">
-        <v>391</v>
-      </c>
-      <c r="B445" t="s">
-        <v>145</v>
-      </c>
-      <c r="C445" t="s">
-        <v>136</v>
-      </c>
-      <c r="D445">
-        <v>20.9</v>
-      </c>
-      <c r="E445">
-        <v>5.2</v>
-      </c>
-      <c r="F445">
-        <v>2.5</v>
-      </c>
-      <c r="G445">
-        <v>0.68</v>
-      </c>
-      <c r="H445">
-        <v>0.38</v>
-      </c>
-      <c r="I445">
-        <v>24</v>
-      </c>
-      <c r="J445">
-        <v>1.93</v>
-      </c>
-      <c r="K445">
-        <v>97</v>
-      </c>
-      <c r="L445" t="s">
-        <v>1234</v>
-      </c>
-      <c r="M445" t="s">
-        <v>1235</v>
-      </c>
-      <c r="N445" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="O445" t="s">
-        <v>593</v>
-      </c>
-      <c r="P445" s="39">
-        <v>1523</v>
-      </c>
-      <c r="Q445" s="39">
-        <v>377</v>
-      </c>
-      <c r="R445" s="39">
-        <v>50</v>
-      </c>
-      <c r="S445" s="39">
-        <v>180</v>
-      </c>
-      <c r="T445" s="39">
-        <v>29</v>
-      </c>
-      <c r="U445" s="41" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="446" ht="14.25" spans="1:21">
-      <c r="A446">
-        <v>392</v>
-      </c>
-      <c r="B446" t="s">
-        <v>145</v>
-      </c>
-      <c r="C446" t="s">
-        <v>136</v>
-      </c>
-      <c r="N446" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="O446" t="s">
-        <v>589</v>
-      </c>
-      <c r="P446" s="39">
-        <v>1079</v>
-      </c>
-      <c r="Q446" s="39">
-        <v>307</v>
-      </c>
-      <c r="R446" s="39">
-        <v>85</v>
-      </c>
-      <c r="S446" s="39">
-        <v>155</v>
-      </c>
-      <c r="T446" s="39">
-        <v>22</v>
-      </c>
-      <c r="U446" s="41" t="s">
-        <v>1237</v>
-      </c>
-    </row>
-    <row r="447" ht="14.25" spans="1:21">
-      <c r="A447">
-        <v>393</v>
-      </c>
-      <c r="B447" t="s">
-        <v>145</v>
-      </c>
-      <c r="C447" t="s">
-        <v>136</v>
-      </c>
-      <c r="N447" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="O447" t="s">
-        <v>586</v>
-      </c>
-      <c r="P447" s="39">
-        <v>378</v>
-      </c>
-      <c r="Q447" s="39">
-        <v>103</v>
-      </c>
-      <c r="R447" s="39">
-        <v>20</v>
-      </c>
-      <c r="S447" s="39">
-        <v>44</v>
-      </c>
-      <c r="T447" s="39">
-        <v>2</v>
-      </c>
-      <c r="U447" s="41" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="448" ht="14.25" spans="1:21">
-      <c r="A448">
-        <v>394</v>
-      </c>
-      <c r="B448" t="s">
-        <v>145</v>
-      </c>
-      <c r="C448" t="s">
-        <v>136</v>
-      </c>
-      <c r="N448" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="O448" t="s">
-        <v>586</v>
-      </c>
-      <c r="P448" s="39">
-        <v>488</v>
-      </c>
-      <c r="Q448" s="39">
-        <v>166</v>
-      </c>
-      <c r="R448" s="39">
-        <v>18</v>
-      </c>
-      <c r="S448" s="39">
-        <v>77</v>
-      </c>
-      <c r="T448" s="39">
-        <v>7</v>
-      </c>
-      <c r="U448" s="41" t="s">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="449" ht="14.25" spans="1:23">
-      <c r="A449">
-        <v>395</v>
-      </c>
-      <c r="B449" t="s">
-        <v>152</v>
-      </c>
-      <c r="C449" t="s">
-        <v>150</v>
-      </c>
-      <c r="D449">
-        <v>27.5</v>
-      </c>
-      <c r="E449">
-        <v>8.5</v>
-      </c>
-      <c r="F449">
-        <v>8.1</v>
-      </c>
-      <c r="G449">
-        <v>1.34</v>
-      </c>
-      <c r="H449">
-        <v>0.62</v>
-      </c>
-      <c r="I449">
-        <v>23</v>
-      </c>
-      <c r="J449">
-        <v>2.03</v>
-      </c>
-      <c r="K449">
-        <v>113</v>
-      </c>
-      <c r="L449" t="s">
-        <v>1240</v>
-      </c>
-      <c r="M449" t="s">
-        <v>1241</v>
-      </c>
-      <c r="N449" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="O449" t="s">
-        <v>593</v>
-      </c>
-      <c r="P449" s="39">
-        <v>1455</v>
-      </c>
-      <c r="Q449" s="39">
-        <v>455</v>
-      </c>
-      <c r="R449" s="39">
-        <v>71</v>
-      </c>
-      <c r="S449" s="39">
-        <v>431</v>
-      </c>
-      <c r="T449" s="39">
-        <v>33</v>
-      </c>
-      <c r="U449" s="41" t="s">
-        <v>1242</v>
-      </c>
-      <c r="W449" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="450" ht="14.25" spans="1:23">
-      <c r="A450">
-        <v>396</v>
-      </c>
-      <c r="B450" t="s">
-        <v>152</v>
-      </c>
-      <c r="C450" t="s">
-        <v>150</v>
-      </c>
-      <c r="N450" s="39" t="s">
-        <v>1244</v>
-      </c>
-      <c r="O450" t="s">
-        <v>589</v>
-      </c>
-      <c r="P450" s="39">
-        <v>2251</v>
-      </c>
-      <c r="Q450" s="39">
-        <v>709</v>
-      </c>
-      <c r="R450" s="39">
-        <v>116</v>
-      </c>
-      <c r="S450" s="39">
-        <v>747</v>
-      </c>
-      <c r="T450" s="39">
-        <v>71</v>
-      </c>
-      <c r="U450" s="41" t="s">
-        <v>1245</v>
-      </c>
-      <c r="W450" t="s">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="451" ht="14.25" spans="1:23">
-      <c r="A451">
-        <v>397</v>
-      </c>
-      <c r="B451" t="s">
-        <v>152</v>
-      </c>
-      <c r="C451" t="s">
-        <v>150</v>
-      </c>
-      <c r="N451" s="39" t="s">
-        <v>1244</v>
-      </c>
-      <c r="O451" t="s">
-        <v>586</v>
-      </c>
-      <c r="P451" s="39">
-        <v>1954</v>
-      </c>
-      <c r="Q451" s="39">
-        <v>639</v>
-      </c>
-      <c r="R451" s="39">
-        <v>92</v>
-      </c>
-      <c r="S451" s="39">
-        <v>646</v>
-      </c>
-      <c r="T451" s="39">
-        <v>44</v>
-      </c>
-      <c r="U451" s="41" t="s">
-        <v>1247</v>
-      </c>
-      <c r="W451" t="s">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="452" ht="14.25" spans="1:23">
-      <c r="A452">
-        <v>398</v>
-      </c>
-      <c r="B452" t="s">
-        <v>152</v>
-      </c>
-      <c r="C452" t="s">
-        <v>150</v>
-      </c>
-      <c r="N452" s="39" t="s">
-        <v>1244</v>
-      </c>
-      <c r="O452" t="s">
-        <v>583</v>
-      </c>
-      <c r="P452" s="39">
-        <v>1920</v>
-      </c>
-      <c r="Q452" s="39">
-        <v>565</v>
-      </c>
-      <c r="R452" s="39">
-        <v>104</v>
-      </c>
-      <c r="S452" s="39">
-        <v>514</v>
-      </c>
-      <c r="T452" s="39">
-        <v>49</v>
-      </c>
-      <c r="U452" s="41" t="s">
-        <v>1249</v>
-      </c>
-      <c r="W452" t="s">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="453" ht="14.25" spans="1:23">
-      <c r="A453">
-        <v>399</v>
-      </c>
-      <c r="B453" t="s">
-        <v>152</v>
-      </c>
-      <c r="C453" t="s">
-        <v>150</v>
-      </c>
-      <c r="N453" s="39" t="s">
-        <v>1244</v>
-      </c>
-      <c r="O453" t="s">
-        <v>581</v>
-      </c>
-      <c r="P453" s="39">
-        <v>1743</v>
-      </c>
-      <c r="Q453" s="39">
-        <v>416</v>
-      </c>
-      <c r="R453" s="39">
-        <v>109</v>
-      </c>
-      <c r="S453" s="39">
-        <v>511</v>
-      </c>
-      <c r="T453" s="39">
-        <v>49</v>
-      </c>
-      <c r="U453" s="41" t="s">
-        <v>1251</v>
-      </c>
-      <c r="W453" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="454" ht="14.25" spans="1:23">
-      <c r="A454">
-        <v>400</v>
-      </c>
-      <c r="B454" t="s">
-        <v>152</v>
-      </c>
-      <c r="C454" t="s">
-        <v>150</v>
-      </c>
-      <c r="N454" s="39" t="s">
-        <v>365</v>
-      </c>
-      <c r="O454" t="s">
-        <v>579</v>
-      </c>
-      <c r="P454" s="39">
-        <v>2089</v>
-      </c>
-      <c r="Q454" s="39">
-        <v>533</v>
-      </c>
-      <c r="R454" s="39">
-        <v>121</v>
-      </c>
-      <c r="S454" s="39">
-        <v>488</v>
-      </c>
-      <c r="T454" s="39">
-        <v>26</v>
-      </c>
-      <c r="U454" s="41" t="s">
-        <v>1253</v>
-      </c>
-      <c r="W454" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="455" ht="14.25" spans="1:23">
-      <c r="A455">
-        <v>401</v>
-      </c>
-      <c r="B455" t="s">
-        <v>152</v>
-      </c>
-      <c r="C455" t="s">
-        <v>150</v>
-      </c>
-      <c r="N455" s="39" t="s">
-        <v>365</v>
-      </c>
-      <c r="O455" t="s">
-        <v>577</v>
-      </c>
-      <c r="P455" s="39">
-        <v>2036</v>
-      </c>
-      <c r="Q455" s="39">
-        <v>610</v>
-      </c>
-      <c r="R455" s="39">
-        <v>129</v>
-      </c>
-      <c r="S455" s="39">
-        <v>551</v>
-      </c>
-      <c r="T455" s="39">
-        <v>67</v>
-      </c>
-      <c r="U455" s="41" t="s">
-        <v>1255</v>
-      </c>
-      <c r="W455" t="s">
-        <v>1256</v>
-      </c>
-    </row>
-    <row r="456" ht="14.25" spans="1:23">
-      <c r="A456">
-        <v>402</v>
-      </c>
-      <c r="B456" t="s">
-        <v>152</v>
-      </c>
-      <c r="C456" t="s">
-        <v>150</v>
-      </c>
-      <c r="N456" s="39" t="s">
-        <v>365</v>
-      </c>
-      <c r="O456" t="s">
-        <v>575</v>
-      </c>
-      <c r="P456" s="39">
-        <v>1683</v>
-      </c>
-      <c r="Q456" s="39">
-        <v>492</v>
-      </c>
-      <c r="R456" s="39">
-        <v>115</v>
-      </c>
-      <c r="S456" s="39">
-        <v>387</v>
-      </c>
-      <c r="T456" s="39">
-        <v>50</v>
-      </c>
-      <c r="U456" s="41" t="s">
-        <v>1257</v>
-      </c>
-      <c r="W456" t="s">
-        <v>1258</v>
-      </c>
-    </row>
-    <row r="457" ht="14.25" spans="1:23">
-      <c r="A457">
-        <v>403</v>
-      </c>
-      <c r="B457" t="s">
-        <v>152</v>
-      </c>
-      <c r="C457" t="s">
-        <v>150</v>
-      </c>
-      <c r="N457" s="39" t="s">
-        <v>365</v>
-      </c>
-      <c r="O457" t="s">
-        <v>572</v>
-      </c>
-      <c r="P457" s="39">
-        <v>2111</v>
-      </c>
-      <c r="Q457" s="39">
-        <v>590</v>
-      </c>
-      <c r="R457" s="39">
-        <v>124</v>
-      </c>
-      <c r="S457" s="39">
-        <v>554</v>
-      </c>
-      <c r="T457" s="39">
-        <v>50</v>
-      </c>
-      <c r="U457" s="41" t="s">
-        <v>1259</v>
-      </c>
-      <c r="W457" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="458" ht="14.25" spans="1:23">
-      <c r="A458">
-        <v>404</v>
-      </c>
-      <c r="B458" t="s">
-        <v>152</v>
-      </c>
-      <c r="C458" t="s">
-        <v>150</v>
-      </c>
-      <c r="N458" s="39" t="s">
-        <v>1244</v>
-      </c>
-      <c r="O458" t="s">
-        <v>570</v>
-      </c>
-      <c r="P458" s="39">
-        <v>2258</v>
-      </c>
-      <c r="Q458" s="39">
-        <v>554</v>
-      </c>
-      <c r="R458" s="39">
-        <v>125</v>
-      </c>
-      <c r="S458" s="39">
-        <v>651</v>
-      </c>
-      <c r="T458" s="39">
-        <v>77</v>
-      </c>
-      <c r="U458" s="41" t="s">
-        <v>1261</v>
-      </c>
-      <c r="W458" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="459" ht="14.25" spans="1:23">
-      <c r="A459">
-        <v>405</v>
-      </c>
-      <c r="B459" t="s">
-        <v>152</v>
-      </c>
-      <c r="C459" t="s">
-        <v>150</v>
-      </c>
-      <c r="N459" s="39" t="s">
-        <v>1244</v>
-      </c>
-      <c r="O459" t="s">
-        <v>568</v>
-      </c>
-      <c r="P459" s="39">
-        <v>2304</v>
-      </c>
-      <c r="Q459" s="39">
-        <v>613</v>
-      </c>
-      <c r="R459" s="39">
-        <v>137</v>
-      </c>
-      <c r="S459" s="39">
-        <v>587</v>
-      </c>
-      <c r="T459" s="39">
-        <v>93</v>
-      </c>
-      <c r="U459" s="41" t="s">
-        <v>1263</v>
-      </c>
-      <c r="W459" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="460" ht="14.25" spans="1:23">
-      <c r="A460">
-        <v>406</v>
-      </c>
-      <c r="B460" t="s">
-        <v>152</v>
-      </c>
-      <c r="C460" t="s">
-        <v>150</v>
-      </c>
-      <c r="N460" s="39" t="s">
-        <v>1244</v>
-      </c>
-      <c r="O460" t="s">
-        <v>653</v>
-      </c>
-      <c r="P460" s="39">
-        <v>2250</v>
-      </c>
-      <c r="Q460" s="39">
-        <v>592</v>
-      </c>
-      <c r="R460" s="39">
-        <v>138</v>
-      </c>
-      <c r="S460" s="39">
-        <v>539</v>
-      </c>
-      <c r="T460" s="39">
-        <v>81</v>
-      </c>
-      <c r="U460" s="41" t="s">
-        <v>1265</v>
-      </c>
-      <c r="W460" t="s">
-        <v>1266</v>
-      </c>
-    </row>
-    <row r="461" ht="14.25" spans="1:23">
-      <c r="A461">
-        <v>407</v>
-      </c>
-      <c r="B461" t="s">
-        <v>152</v>
-      </c>
-      <c r="C461" t="s">
-        <v>150</v>
-      </c>
-      <c r="N461" s="39" t="s">
-        <v>1244</v>
-      </c>
-      <c r="O461" t="s">
-        <v>650</v>
-      </c>
-      <c r="P461" s="39">
-        <v>2132</v>
-      </c>
-      <c r="Q461" s="39">
-        <v>526</v>
-      </c>
-      <c r="R461" s="39">
-        <v>125</v>
-      </c>
-      <c r="S461" s="39">
-        <v>470</v>
-      </c>
-      <c r="T461" s="39">
-        <v>55</v>
-      </c>
-      <c r="U461" s="41" t="s">
-        <v>1267</v>
-      </c>
-      <c r="W461" t="s">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="462" ht="14.25" spans="1:23">
-      <c r="A462">
-        <v>408</v>
-      </c>
-      <c r="B462" t="s">
-        <v>152</v>
-      </c>
-      <c r="C462" t="s">
-        <v>150</v>
-      </c>
-      <c r="N462" s="39" t="s">
-        <v>1244</v>
-      </c>
-      <c r="O462" t="s">
-        <v>647</v>
-      </c>
-      <c r="P462" s="39">
-        <v>2478</v>
-      </c>
-      <c r="Q462" s="39">
-        <v>556</v>
-      </c>
-      <c r="R462" s="39">
-        <v>123</v>
-      </c>
-      <c r="S462" s="39">
-        <v>521</v>
-      </c>
-      <c r="T462" s="39">
-        <v>66</v>
-      </c>
-      <c r="U462" s="41" t="s">
-        <v>1269</v>
-      </c>
-      <c r="W462" t="s">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="463" ht="14.25" spans="1:23">
-      <c r="A463">
-        <v>409</v>
-      </c>
-      <c r="B463" t="s">
-        <v>152</v>
-      </c>
-      <c r="C463" t="s">
-        <v>150</v>
-      </c>
-      <c r="N463" s="39" t="s">
-        <v>1244</v>
-      </c>
-      <c r="O463" t="s">
-        <v>986</v>
-      </c>
-      <c r="P463" s="39">
-        <v>2175</v>
-      </c>
-      <c r="Q463" s="39">
-        <v>588</v>
-      </c>
-      <c r="R463" s="39">
-        <v>177</v>
-      </c>
-      <c r="S463" s="39">
-        <v>577</v>
-      </c>
-      <c r="T463" s="39">
-        <v>52</v>
-      </c>
-      <c r="U463" s="41" t="s">
-        <v>1271</v>
-      </c>
-      <c r="W463" t="s">
-        <v>1272</v>
-      </c>
-    </row>
-    <row r="464" ht="14.25" spans="1:23">
-      <c r="A464">
-        <v>410</v>
-      </c>
-      <c r="B464" t="s">
-        <v>152</v>
-      </c>
-      <c r="C464" t="s">
-        <v>150</v>
-      </c>
-      <c r="N464" s="39" t="s">
-        <v>1244</v>
-      </c>
-      <c r="O464" t="s">
-        <v>989</v>
-      </c>
-      <c r="P464" s="39">
-        <v>1654</v>
-      </c>
-      <c r="Q464" s="39">
-        <v>432</v>
-      </c>
-      <c r="R464" s="39">
-        <v>130</v>
-      </c>
-      <c r="S464" s="39">
-        <v>465</v>
-      </c>
-      <c r="T464" s="39">
-        <v>58</v>
-      </c>
-      <c r="U464" s="41" t="s">
-        <v>1273</v>
-      </c>
-      <c r="W464" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="465" spans="1:23">
-      <c r="A465">
-        <v>411</v>
-      </c>
-      <c r="B465" t="s">
-        <v>152</v>
-      </c>
-      <c r="C465" t="s">
-        <v>150</v>
-      </c>
-      <c r="W465" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="466" spans="1:23">
-      <c r="A466">
-        <v>412</v>
-      </c>
-      <c r="B466" t="s">
-        <v>152</v>
-      </c>
-      <c r="C466" t="s">
-        <v>150</v>
-      </c>
-      <c r="W466" t="s">
-        <v>1276</v>
-      </c>
-    </row>
-    <row r="467" spans="1:23">
-      <c r="A467">
-        <v>413</v>
-      </c>
-      <c r="B467" t="s">
-        <v>152</v>
-      </c>
-      <c r="C467" t="s">
-        <v>150</v>
-      </c>
-      <c r="W467" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="468" spans="1:23">
-      <c r="A468">
-        <v>414</v>
-      </c>
-      <c r="B468" t="s">
-        <v>152</v>
-      </c>
-      <c r="C468" t="s">
-        <v>150</v>
-      </c>
-      <c r="W468" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="469" spans="1:23">
-      <c r="A469">
-        <v>415</v>
-      </c>
-      <c r="B469" t="s">
-        <v>152</v>
-      </c>
-      <c r="C469" t="s">
-        <v>150</v>
-      </c>
-      <c r="W469" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="470" spans="1:23">
-      <c r="A470">
-        <v>416</v>
-      </c>
-      <c r="B470" t="s">
-        <v>152</v>
-      </c>
-      <c r="C470" t="s">
-        <v>150</v>
-      </c>
-      <c r="W470" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="471" spans="1:23">
-      <c r="A471">
-        <v>417</v>
-      </c>
-      <c r="B471" t="s">
-        <v>152</v>
-      </c>
-      <c r="C471" t="s">
-        <v>150</v>
-      </c>
-      <c r="W471" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="472" spans="1:23">
-      <c r="A472">
-        <v>418</v>
-      </c>
-      <c r="B472" t="s">
-        <v>152</v>
-      </c>
-      <c r="C472" t="s">
-        <v>150</v>
-      </c>
-      <c r="W472" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="473" spans="1:23">
-      <c r="A473">
-        <v>419</v>
-      </c>
-      <c r="B473" t="s">
-        <v>152</v>
-      </c>
-      <c r="C473" t="s">
-        <v>150</v>
-      </c>
-      <c r="W473" t="s">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="474" spans="1:23">
-      <c r="A474">
-        <v>420</v>
-      </c>
-      <c r="B474" t="s">
-        <v>152</v>
-      </c>
-      <c r="C474" t="s">
-        <v>150</v>
-      </c>
-      <c r="W474" t="s">
-        <v>1284</v>
-      </c>
-    </row>
-    <row r="475" spans="1:23">
-      <c r="A475">
-        <v>421</v>
-      </c>
-      <c r="B475" t="s">
-        <v>152</v>
-      </c>
-      <c r="C475" t="s">
-        <v>150</v>
-      </c>
-      <c r="W475" t="s">
-        <v>1285</v>
-      </c>
-    </row>
-    <row r="476" spans="1:23">
-      <c r="A476">
-        <v>422</v>
-      </c>
-      <c r="B476" t="s">
-        <v>152</v>
-      </c>
-      <c r="C476" t="s">
-        <v>150</v>
-      </c>
-      <c r="W476" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="477" ht="14.25" spans="1:23">
-      <c r="A477">
-        <v>423</v>
-      </c>
-      <c r="B477" t="s">
-        <v>156</v>
-      </c>
-      <c r="C477" t="s">
-        <v>150</v>
-      </c>
-      <c r="D477">
-        <v>18.3</v>
-      </c>
-      <c r="E477">
-        <v>5.2</v>
-      </c>
-      <c r="F477">
-        <v>3</v>
-      </c>
-      <c r="G477">
-        <v>0.54</v>
-      </c>
-      <c r="H477">
-        <v>0.62</v>
-      </c>
-      <c r="I477">
-        <v>14</v>
-      </c>
-      <c r="J477">
-        <v>2.06</v>
-      </c>
-      <c r="K477">
-        <v>86</v>
-      </c>
-      <c r="L477" t="s">
-        <v>1287</v>
-      </c>
-      <c r="M477" t="s">
-        <v>1288</v>
-      </c>
-      <c r="N477" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="O477" t="s">
-        <v>593</v>
-      </c>
-      <c r="P477" s="39">
-        <v>950</v>
-      </c>
-      <c r="Q477" s="39">
-        <v>267</v>
-      </c>
-      <c r="R477" s="39">
-        <v>28</v>
-      </c>
-      <c r="S477" s="39">
-        <v>154</v>
-      </c>
-      <c r="T477" s="39">
-        <v>31</v>
-      </c>
-      <c r="U477" s="41" t="s">
-        <v>1289</v>
-      </c>
-      <c r="W477" t="s">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="478" ht="14.25" spans="1:21">
-      <c r="A478">
-        <v>424</v>
-      </c>
-      <c r="B478" t="s">
-        <v>156</v>
-      </c>
-      <c r="C478" t="s">
-        <v>150</v>
-      </c>
-      <c r="N478" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="O478" t="s">
-        <v>589</v>
-      </c>
-      <c r="P478" s="39">
-        <v>949</v>
-      </c>
-      <c r="Q478" s="39">
-        <v>314</v>
-      </c>
-      <c r="R478" s="39">
-        <v>45</v>
-      </c>
-      <c r="S478" s="39">
-        <v>230</v>
-      </c>
-      <c r="T478" s="39">
-        <v>43</v>
-      </c>
-      <c r="U478" s="41" t="s">
-        <v>1291</v>
-      </c>
-    </row>
-    <row r="479" ht="14.25" spans="1:21">
-      <c r="A479">
-        <v>425</v>
-      </c>
-      <c r="B479" t="s">
-        <v>156</v>
-      </c>
-      <c r="C479" t="s">
-        <v>150</v>
-      </c>
-      <c r="N479" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="O479" t="s">
-        <v>586</v>
-      </c>
-      <c r="P479" s="39">
-        <v>740</v>
-      </c>
-      <c r="Q479" s="39">
-        <v>316</v>
-      </c>
-      <c r="R479" s="39">
-        <v>50</v>
-      </c>
-      <c r="S479" s="39">
-        <v>166</v>
-      </c>
-      <c r="T479" s="39">
-        <v>36</v>
-      </c>
-      <c r="U479" s="41" t="s">
-        <v>1292</v>
-      </c>
-    </row>
-    <row r="480" ht="14.25" spans="1:23">
-      <c r="A480">
-        <v>426</v>
-      </c>
-      <c r="B480" t="s">
-        <v>163</v>
-      </c>
-      <c r="C480" t="s">
-        <v>150</v>
-      </c>
-      <c r="D480">
-        <v>18.7</v>
-      </c>
-      <c r="E480">
-        <v>5.6</v>
-      </c>
-      <c r="F480">
-        <v>2.6</v>
-      </c>
-      <c r="G480">
-        <v>0.58</v>
-      </c>
-      <c r="H480">
-        <v>0.36</v>
-      </c>
-      <c r="I480">
-        <v>0</v>
-      </c>
-      <c r="J480">
-        <v>2.06</v>
-      </c>
-      <c r="K480">
-        <v>100</v>
-      </c>
-      <c r="L480" t="s">
-        <v>1293</v>
-      </c>
-      <c r="M480" t="s">
-        <v>1294</v>
-      </c>
-      <c r="N480" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="O480" t="s">
-        <v>593</v>
-      </c>
-      <c r="P480" s="39">
-        <v>1252</v>
-      </c>
-      <c r="Q480" s="39">
-        <v>373</v>
-      </c>
-      <c r="R480" s="39">
-        <v>40</v>
-      </c>
-      <c r="S480" s="39">
-        <v>177</v>
-      </c>
-      <c r="T480" s="39">
-        <v>24</v>
-      </c>
-      <c r="U480" s="41" t="s">
-        <v>1295</v>
-      </c>
-      <c r="W480" t="s">
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="481" ht="14.25" spans="1:23">
-      <c r="A481">
-        <v>427</v>
-      </c>
-      <c r="B481" t="s">
-        <v>163</v>
-      </c>
-      <c r="C481" t="s">
-        <v>150</v>
-      </c>
-      <c r="N481" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="O481" t="s">
-        <v>589</v>
-      </c>
-      <c r="P481" s="39">
-        <v>1242</v>
-      </c>
-      <c r="Q481" s="39">
-        <v>483</v>
-      </c>
-      <c r="R481" s="39">
-        <v>49</v>
-      </c>
-      <c r="S481" s="39">
-        <v>141</v>
-      </c>
-      <c r="T481" s="39">
-        <v>34</v>
-      </c>
-      <c r="U481" s="41" t="s">
-        <v>1297</v>
-      </c>
-      <c r="W481" t="s">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="482" ht="14.25" spans="1:23">
-      <c r="A482">
-        <v>428</v>
-      </c>
-      <c r="B482" t="s">
-        <v>155</v>
-      </c>
-      <c r="C482" t="s">
-        <v>150</v>
-      </c>
-      <c r="D482">
-        <v>9.9</v>
-      </c>
-      <c r="E482">
-        <v>5.3</v>
-      </c>
-      <c r="F482">
-        <v>5.4</v>
-      </c>
-      <c r="G482">
-        <v>1.47</v>
-      </c>
-      <c r="H482">
-        <v>0.4</v>
-      </c>
-      <c r="I482">
-        <v>2</v>
-      </c>
-      <c r="J482">
-        <v>1.98</v>
-      </c>
-      <c r="K482">
-        <v>86</v>
-      </c>
-      <c r="L482" t="s">
-        <v>1299</v>
-      </c>
-      <c r="M482" t="s">
-        <v>1300</v>
-      </c>
-      <c r="N482" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="O482" t="s">
-        <v>593</v>
-      </c>
-      <c r="P482" s="39">
-        <v>465</v>
-      </c>
-      <c r="Q482" s="39">
-        <v>251</v>
-      </c>
-      <c r="R482" s="39">
-        <v>69</v>
-      </c>
-      <c r="S482" s="39">
-        <v>255</v>
-      </c>
-      <c r="T482" s="39">
-        <v>19</v>
-      </c>
-      <c r="U482" s="41" t="s">
-        <v>1301</v>
-      </c>
-      <c r="W482" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="483" ht="14.25" spans="1:21">
-      <c r="A483">
-        <v>429</v>
-      </c>
-      <c r="B483" t="s">
-        <v>155</v>
-      </c>
-      <c r="C483" t="s">
-        <v>150</v>
-      </c>
-      <c r="N483" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="O483" t="s">
-        <v>589</v>
-      </c>
-      <c r="P483" s="39">
-        <v>528</v>
-      </c>
-      <c r="Q483" s="39">
-        <v>360</v>
-      </c>
-      <c r="R483" s="39">
-        <v>88</v>
-      </c>
-      <c r="S483" s="39">
-        <v>376</v>
-      </c>
-      <c r="T483" s="39">
-        <v>43</v>
-      </c>
-      <c r="U483" s="41" t="s">
-        <v>1303</v>
-      </c>
-    </row>
-    <row r="484" ht="14.25" spans="1:23">
-      <c r="A484">
-        <v>430</v>
-      </c>
-      <c r="B484" t="s">
-        <v>154</v>
-      </c>
-      <c r="C484" t="s">
-        <v>150</v>
-      </c>
-      <c r="D484">
-        <v>8.9</v>
-      </c>
-      <c r="E484">
-        <v>5.2</v>
-      </c>
-      <c r="F484">
-        <v>7.7</v>
-      </c>
-      <c r="G484">
-        <v>1.05</v>
-      </c>
-      <c r="H484">
-        <v>0.15</v>
-      </c>
-      <c r="I484">
-        <v>9</v>
-      </c>
-      <c r="J484">
-        <v>1.85</v>
-      </c>
-      <c r="K484">
-        <v>84</v>
-      </c>
-      <c r="L484" t="s">
-        <v>1304</v>
-      </c>
-      <c r="M484" t="s">
-        <v>1305</v>
-      </c>
-      <c r="N484" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="O484" t="s">
-        <v>593</v>
-      </c>
-      <c r="P484" s="39">
-        <v>349</v>
-      </c>
-      <c r="Q484" s="39">
-        <v>204</v>
-      </c>
-      <c r="R484" s="39">
-        <v>42</v>
-      </c>
-      <c r="S484" s="39">
-        <v>299</v>
-      </c>
-      <c r="T484" s="39">
-        <v>6</v>
-      </c>
-      <c r="U484" s="41" t="s">
-        <v>1306</v>
-      </c>
-      <c r="W484" t="s">
-        <v>1307</v>
-      </c>
-    </row>
-    <row r="485" ht="14.25" spans="1:23">
-      <c r="A485">
-        <v>431</v>
-      </c>
-      <c r="B485" t="s">
-        <v>154</v>
-      </c>
-      <c r="C485" t="s">
-        <v>150</v>
-      </c>
-      <c r="N485" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="O485" t="s">
-        <v>589</v>
-      </c>
-      <c r="P485" s="39">
-        <v>537</v>
-      </c>
-      <c r="Q485" s="39">
-        <v>263</v>
-      </c>
-      <c r="R485" s="39">
-        <v>70</v>
-      </c>
-      <c r="S485" s="39">
-        <v>533</v>
-      </c>
-      <c r="T485" s="39">
-        <v>10</v>
-      </c>
-      <c r="U485" s="41" t="s">
-        <v>1308</v>
-      </c>
-      <c r="W485" t="s">
-        <v>1309</v>
-      </c>
-    </row>
-    <row r="486" ht="14.25" spans="1:23">
-      <c r="A486">
-        <v>432</v>
-      </c>
-      <c r="B486" t="s">
-        <v>154</v>
-      </c>
-      <c r="C486" t="s">
-        <v>150</v>
-      </c>
-      <c r="N486" s="39" t="s">
-        <v>470</v>
-      </c>
-      <c r="O486" t="s">
-        <v>586</v>
-      </c>
-      <c r="P486" s="39">
-        <v>538</v>
-      </c>
-      <c r="Q486" s="39">
-        <v>355</v>
-      </c>
-      <c r="R486" s="39">
-        <v>99</v>
-      </c>
-      <c r="S486" s="39">
-        <v>461</v>
-      </c>
-      <c r="T486" s="39">
-        <v>11</v>
-      </c>
-      <c r="U486" s="41" t="s">
-        <v>1310</v>
-      </c>
-      <c r="W486" t="s">
-        <v>1311</v>
-      </c>
-    </row>
-    <row r="487" ht="14.25" spans="1:23">
-      <c r="A487">
-        <v>433</v>
-      </c>
-      <c r="B487" t="s">
-        <v>154</v>
-      </c>
-      <c r="C487" t="s">
-        <v>150</v>
-      </c>
-      <c r="N487" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="O487" t="s">
-        <v>583</v>
-      </c>
-      <c r="P487" s="39">
-        <v>859</v>
-      </c>
-      <c r="Q487" s="39">
-        <v>435</v>
-      </c>
-      <c r="R487" s="39">
-        <v>141</v>
-      </c>
-      <c r="S487" s="39">
-        <v>839</v>
-      </c>
-      <c r="T487" s="39">
-        <v>10</v>
-      </c>
-      <c r="U487" s="41" t="s">
-        <v>1312</v>
-      </c>
-      <c r="W487" t="s">
-        <v>1313</v>
-      </c>
-    </row>
-    <row r="488" ht="14.25" spans="1:23">
-      <c r="A488">
-        <v>434</v>
-      </c>
-      <c r="B488" t="s">
-        <v>154</v>
-      </c>
-      <c r="C488" t="s">
-        <v>150</v>
-      </c>
-      <c r="N488" s="39" t="s">
-        <v>961</v>
-      </c>
-      <c r="O488" t="s">
-        <v>581</v>
-      </c>
-      <c r="P488" s="39">
-        <v>426</v>
-      </c>
-      <c r="Q488" s="39">
-        <v>208</v>
-      </c>
-      <c r="R488" s="39">
-        <v>54</v>
-      </c>
-      <c r="S488" s="39">
-        <v>301</v>
-      </c>
-      <c r="T488" s="39">
-        <v>4</v>
-      </c>
-      <c r="U488" s="41" t="s">
-        <v>1314</v>
-      </c>
-      <c r="W488" t="s">
-        <v>1315</v>
-      </c>
-    </row>
-    <row r="489" ht="14.25" spans="1:23">
-      <c r="A489">
-        <v>435</v>
-      </c>
-      <c r="B489" t="s">
-        <v>154</v>
-      </c>
-      <c r="C489" t="s">
-        <v>150</v>
-      </c>
-      <c r="N489" s="39" t="s">
-        <v>321</v>
-      </c>
-      <c r="O489" t="s">
-        <v>581</v>
-      </c>
-      <c r="P489" s="39">
-        <v>182</v>
-      </c>
-      <c r="Q489" s="39">
-        <v>165</v>
-      </c>
-      <c r="R489" s="39">
-        <v>37</v>
-      </c>
-      <c r="S489" s="39">
-        <v>237</v>
-      </c>
-      <c r="T489" s="39">
-        <v>3</v>
-      </c>
-      <c r="U489" s="41" t="s">
-        <v>1316</v>
-      </c>
-      <c r="W489" t="s">
-        <v>1317</v>
-      </c>
-    </row>
-    <row r="490" ht="14.25" spans="1:23">
-      <c r="A490">
-        <v>436</v>
-      </c>
-      <c r="B490" t="s">
-        <v>154</v>
-      </c>
-      <c r="C490" t="s">
-        <v>150</v>
-      </c>
-      <c r="N490" s="39" t="s">
-        <v>321</v>
-      </c>
-      <c r="O490" t="s">
-        <v>579</v>
-      </c>
-      <c r="P490" s="39">
-        <v>350</v>
-      </c>
-      <c r="Q490" s="39">
-        <v>164</v>
-      </c>
-      <c r="R490" s="39">
-        <v>40</v>
-      </c>
-      <c r="S490" s="39">
-        <v>294</v>
-      </c>
-      <c r="T490" s="39">
-        <v>2</v>
-      </c>
-      <c r="U490" s="41" t="s">
-        <v>1318</v>
-      </c>
-      <c r="W490" t="s">
-        <v>1319</v>
-      </c>
-    </row>
-    <row r="491" ht="14.25" spans="1:23">
-      <c r="A491">
-        <v>437</v>
-      </c>
-      <c r="B491" t="s">
-        <v>154</v>
-      </c>
-      <c r="C491" t="s">
-        <v>150</v>
-      </c>
-      <c r="N491" s="39" t="s">
-        <v>321</v>
-      </c>
-      <c r="O491" t="s">
-        <v>577</v>
-      </c>
-      <c r="P491" s="39">
-        <v>522</v>
-      </c>
-      <c r="Q491" s="39">
-        <v>212</v>
-      </c>
-      <c r="R491" s="39">
-        <v>70</v>
-      </c>
-      <c r="S491" s="39">
-        <v>420</v>
-      </c>
-      <c r="T491" s="39">
-        <v>9</v>
-      </c>
-      <c r="U491" s="41" t="s">
-        <v>1320</v>
-      </c>
-      <c r="W491" t="s">
-        <v>1321</v>
-      </c>
-    </row>
-    <row r="492" ht="14.25" spans="1:23">
-      <c r="A492">
-        <v>438</v>
-      </c>
-      <c r="B492" t="s">
-        <v>154</v>
-      </c>
-      <c r="C492" t="s">
-        <v>150</v>
-      </c>
-      <c r="N492" s="39" t="s">
-        <v>321</v>
-      </c>
-      <c r="O492" t="s">
-        <v>575</v>
-      </c>
-      <c r="P492" s="39">
-        <v>630</v>
-      </c>
-      <c r="Q492" s="39">
-        <v>257</v>
-      </c>
-      <c r="R492" s="39">
-        <v>95</v>
-      </c>
-      <c r="S492" s="39">
-        <v>620</v>
-      </c>
-      <c r="T492" s="39">
-        <v>3</v>
-      </c>
-      <c r="U492" s="41" t="s">
-        <v>1322</v>
-      </c>
-      <c r="W492" t="s">
-        <v>1323</v>
-      </c>
-    </row>
-    <row r="493" ht="14.25" spans="1:23">
-      <c r="A493">
-        <v>439</v>
-      </c>
-      <c r="B493" t="s">
-        <v>154</v>
-      </c>
-      <c r="C493" t="s">
-        <v>150</v>
-      </c>
-      <c r="N493" s="39" t="s">
-        <v>321</v>
-      </c>
-      <c r="O493" t="s">
-        <v>572</v>
-      </c>
-      <c r="P493" s="39">
-        <v>721</v>
-      </c>
-      <c r="Q493" s="39">
-        <v>297</v>
-      </c>
-      <c r="R493" s="39">
-        <v>153</v>
-      </c>
-      <c r="S493" s="39">
-        <v>760</v>
-      </c>
-      <c r="T493" s="39">
-        <v>11</v>
-      </c>
-      <c r="U493" s="41" t="s">
-        <v>1324</v>
-      </c>
-      <c r="W493" t="s">
-        <v>1325</v>
-      </c>
-    </row>
-    <row r="494" ht="14.25" spans="1:23">
-      <c r="A494">
-        <v>440</v>
-      </c>
-      <c r="B494" t="s">
-        <v>154</v>
-      </c>
-      <c r="C494" t="s">
-        <v>150</v>
-      </c>
-      <c r="N494" s="39" t="s">
-        <v>321</v>
-      </c>
-      <c r="O494" t="s">
-        <v>570</v>
-      </c>
-      <c r="P494" s="39">
-        <v>1110</v>
-      </c>
-      <c r="Q494" s="39">
-        <v>360</v>
-      </c>
-      <c r="R494" s="39">
-        <v>189</v>
-      </c>
-      <c r="S494" s="39">
-        <v>794</v>
-      </c>
-      <c r="T494" s="39">
-        <v>11</v>
-      </c>
-      <c r="U494" s="41" t="s">
-        <v>1326</v>
-      </c>
-      <c r="W494" t="s">
-        <v>1327</v>
-      </c>
-    </row>
-    <row r="495" ht="14.25" spans="1:23">
-      <c r="A495">
-        <v>441</v>
-      </c>
-      <c r="B495" t="s">
-        <v>154</v>
-      </c>
-      <c r="C495" t="s">
-        <v>150</v>
-      </c>
-      <c r="N495" s="39" t="s">
-        <v>321</v>
-      </c>
-      <c r="O495" t="s">
-        <v>568</v>
-      </c>
-      <c r="P495" s="39">
-        <v>953</v>
-      </c>
-      <c r="Q495" s="39">
-        <v>416</v>
-      </c>
-      <c r="R495" s="39">
-        <v>149</v>
-      </c>
-      <c r="S495" s="39">
-        <v>659</v>
-      </c>
-      <c r="T495" s="39">
-        <v>11</v>
-      </c>
-      <c r="U495" s="41" t="s">
-        <v>1328</v>
-      </c>
-      <c r="W495" t="s">
-        <v>1329</v>
-      </c>
-    </row>
-    <row r="496" ht="14.25" spans="1:23">
-      <c r="A496">
-        <v>442</v>
-      </c>
-      <c r="B496" t="s">
-        <v>154</v>
-      </c>
-      <c r="C496" t="s">
-        <v>150</v>
-      </c>
-      <c r="N496" s="39" t="s">
-        <v>321</v>
-      </c>
-      <c r="O496" t="s">
-        <v>653</v>
-      </c>
-      <c r="P496" s="39">
-        <v>814</v>
-      </c>
-      <c r="Q496" s="39">
-        <v>322</v>
-      </c>
-      <c r="R496" s="39">
-        <v>129</v>
-      </c>
-      <c r="S496" s="39">
-        <v>393</v>
-      </c>
-      <c r="T496" s="39">
-        <v>13</v>
-      </c>
-      <c r="U496" s="41" t="s">
-        <v>1330</v>
-      </c>
-      <c r="W496" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="497" ht="14.25" spans="1:23">
-      <c r="A497">
-        <v>443</v>
-      </c>
-      <c r="B497" t="s">
-        <v>154</v>
-      </c>
-      <c r="C497" t="s">
-        <v>150</v>
-      </c>
-      <c r="N497" s="39" t="s">
-        <v>321</v>
-      </c>
-      <c r="O497" t="s">
-        <v>650</v>
-      </c>
-      <c r="P497" s="39">
-        <v>501</v>
-      </c>
-      <c r="Q497" s="39">
-        <v>292</v>
-      </c>
-      <c r="R497" s="39">
-        <v>128</v>
-      </c>
-      <c r="S497" s="39">
-        <v>297</v>
-      </c>
-      <c r="T497" s="39">
-        <v>8</v>
-      </c>
-      <c r="U497" s="41" t="s">
-        <v>1332</v>
-      </c>
-      <c r="W497" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="498" ht="14.25" spans="1:23">
-      <c r="A498">
-        <v>444</v>
-      </c>
-      <c r="B498" t="s">
-        <v>160</v>
-      </c>
-      <c r="C498" t="s">
-        <v>150</v>
-      </c>
-      <c r="D498">
-        <v>11.5</v>
-      </c>
-      <c r="E498">
-        <v>7.2</v>
-      </c>
-      <c r="F498">
-        <v>0.6</v>
-      </c>
-      <c r="G498">
-        <v>0.65</v>
-      </c>
-      <c r="H498">
-        <v>1.95</v>
-      </c>
-      <c r="I498">
-        <v>7</v>
-      </c>
-      <c r="J498">
-        <v>2.13</v>
-      </c>
-      <c r="K498">
-        <v>122</v>
-      </c>
-      <c r="L498" t="s">
-        <v>1334</v>
-      </c>
-      <c r="M498" s="40" t="s">
-        <v>1335</v>
-      </c>
-      <c r="N498" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="O498" t="s">
-        <v>593</v>
-      </c>
-      <c r="P498" s="39">
-        <v>759</v>
-      </c>
-      <c r="Q498" s="39">
-        <v>471</v>
-      </c>
-      <c r="R498" s="39">
-        <v>42</v>
-      </c>
-      <c r="S498" s="39">
-        <v>38</v>
-      </c>
-      <c r="T498" s="39">
-        <v>130</v>
-      </c>
-      <c r="U498" s="41" t="s">
-        <v>1336</v>
-      </c>
-      <c r="W498" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="499" ht="14.25" spans="1:21">
-      <c r="A499">
-        <v>445</v>
-      </c>
-      <c r="B499" t="s">
-        <v>160</v>
-      </c>
-      <c r="C499" t="s">
-        <v>150</v>
-      </c>
-      <c r="N499" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="O499" t="s">
-        <v>589</v>
-      </c>
-      <c r="P499" s="39">
-        <v>310</v>
-      </c>
-      <c r="Q499" s="39">
-        <v>169</v>
-      </c>
-      <c r="R499" s="39">
-        <v>21</v>
-      </c>
-      <c r="S499" s="39">
-        <v>33</v>
-      </c>
-      <c r="T499" s="39">
-        <v>57</v>
-      </c>
-      <c r="U499" s="41" t="s">
-        <v>1337</v>
-      </c>
-    </row>
-    <row r="500" ht="14.25" spans="1:21">
-      <c r="A500">
-        <v>446</v>
-      </c>
-      <c r="B500" t="s">
-        <v>160</v>
-      </c>
-      <c r="C500" t="s">
-        <v>150</v>
-      </c>
-      <c r="N500" s="39" t="s">
-        <v>106</v>
-      </c>
-      <c r="O500" t="s">
-        <v>586</v>
-      </c>
-      <c r="P500" s="39">
-        <v>472</v>
-      </c>
-      <c r="Q500" s="39">
-        <v>244</v>
-      </c>
-      <c r="R500" s="39">
-        <v>19</v>
-      </c>
-      <c r="S500" s="39">
-        <v>17</v>
-      </c>
-      <c r="T500" s="39">
-        <v>67</v>
-      </c>
-      <c r="U500" s="41" t="s">
-        <v>1338</v>
-      </c>
-    </row>
-    <row r="501" ht="14.25" spans="1:21">
-      <c r="A501">
-        <v>447</v>
-      </c>
-      <c r="B501" t="s">
-        <v>160</v>
-      </c>
-      <c r="C501" t="s">
-        <v>150</v>
-      </c>
-      <c r="N501" s="39" t="s">
-        <v>961</v>
-      </c>
-      <c r="O501" t="s">
-        <v>583</v>
-      </c>
-      <c r="P501" s="39">
-        <v>172</v>
-      </c>
-      <c r="Q501" s="39">
-        <v>133</v>
-      </c>
-      <c r="R501" s="39">
-        <v>5</v>
-      </c>
-      <c r="S501" s="39">
-        <v>3</v>
-      </c>
-      <c r="T501" s="39">
-        <v>26</v>
-      </c>
-      <c r="U501" s="41" t="s">
-        <v>1339</v>
-      </c>
-    </row>
-    <row r="502" ht="14.25" spans="1:21">
-      <c r="A502">
-        <v>448</v>
-      </c>
-      <c r="B502" t="s">
-        <v>160</v>
-      </c>
-      <c r="C502" t="s">
-        <v>150</v>
-      </c>
-      <c r="N502" s="39" t="s">
-        <v>290</v>
-      </c>
-      <c r="O502" t="s">
-        <v>581</v>
-      </c>
-      <c r="P502" s="39">
-        <v>18</v>
-      </c>
-      <c r="Q502" s="39">
-        <v>13</v>
-      </c>
-      <c r="R502" s="39">
-        <v>0</v>
-      </c>
-      <c r="S502" s="39">
-        <v>2</v>
-      </c>
-      <c r="T502" s="39">
-        <v>1</v>
-      </c>
-      <c r="U502" s="41" t="s">
-        <v>1340</v>
-      </c>
-    </row>
-    <row r="503" ht="14.25" spans="1:21">
-      <c r="A503">
-        <v>449</v>
-      </c>
-      <c r="B503" t="s">
-        <v>160</v>
-      </c>
-      <c r="C503" t="s">
-        <v>150</v>
-      </c>
-      <c r="N503" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="O503" t="s">
-        <v>581</v>
-      </c>
-      <c r="P503" s="39">
-        <v>88</v>
-      </c>
-      <c r="Q503" s="39">
-        <v>48</v>
-      </c>
-      <c r="R503" s="39">
-        <v>2</v>
-      </c>
-      <c r="S503" s="39">
-        <v>1</v>
-      </c>
-      <c r="T503" s="39">
-        <v>19</v>
-      </c>
-      <c r="U503" s="41" t="s">
-        <v>1341</v>
-      </c>
-    </row>
-    <row r="504" ht="14.25" spans="1:21">
-      <c r="A504">
-        <v>450</v>
-      </c>
-      <c r="B504" t="s">
-        <v>160</v>
-      </c>
-      <c r="C504" t="s">
-        <v>150</v>
-      </c>
-      <c r="N504" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="O504" t="s">
-        <v>579</v>
-      </c>
-      <c r="P504" s="39">
-        <v>35</v>
-      </c>
-      <c r="Q504" s="39">
-        <v>17</v>
-      </c>
-      <c r="R504" s="39">
-        <v>1</v>
-      </c>
-      <c r="S504" s="39">
-        <v>2</v>
-      </c>
-      <c r="T504" s="39">
-        <v>7</v>
-      </c>
-      <c r="U504" s="41" t="s">
-        <v>1342</v>
-      </c>
-    </row>
-    <row r="505" ht="14.25" spans="1:21">
-      <c r="A505">
-        <v>451</v>
-      </c>
-      <c r="B505" t="s">
-        <v>160</v>
-      </c>
-      <c r="C505" t="s">
-        <v>150</v>
-      </c>
-      <c r="N505" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="O505" t="s">
-        <v>577</v>
-      </c>
-      <c r="P505" s="39">
-        <v>717</v>
-      </c>
-      <c r="Q505" s="39">
-        <v>381</v>
-      </c>
-      <c r="R505" s="39">
-        <v>30</v>
-      </c>
-      <c r="S505" s="39">
-        <v>24</v>
-      </c>
-      <c r="T505" s="39">
-        <v>157</v>
-      </c>
-      <c r="U505" s="41" t="s">
-        <v>1343</v>
-      </c>
-    </row>
-    <row r="506" ht="14.25" spans="1:21">
-      <c r="A506">
-        <v>452</v>
-      </c>
-      <c r="B506" t="s">
-        <v>160</v>
-      </c>
-      <c r="C506" t="s">
-        <v>150</v>
-      </c>
-      <c r="N506" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="O506" t="s">
-        <v>575</v>
-      </c>
-      <c r="P506" s="39">
-        <v>205</v>
-      </c>
-      <c r="Q506" s="39">
-        <v>115</v>
-      </c>
-      <c r="R506" s="39">
-        <v>10</v>
-      </c>
-      <c r="S506" s="39">
-        <v>6</v>
-      </c>
-      <c r="T506" s="39">
-        <v>31</v>
-      </c>
-      <c r="U506" s="41" t="s">
-        <v>1344</v>
-      </c>
-    </row>
-    <row r="507" ht="14.25" spans="1:21">
-      <c r="A507">
-        <v>453</v>
-      </c>
-      <c r="B507" t="s">
-        <v>160</v>
-      </c>
-      <c r="C507" t="s">
-        <v>150</v>
-      </c>
-      <c r="N507" s="39" t="s">
-        <v>411</v>
-      </c>
-      <c r="O507" t="s">
-        <v>575</v>
-      </c>
-      <c r="P507" s="39">
-        <v>486</v>
-      </c>
-      <c r="Q507" s="39">
-        <v>362</v>
-      </c>
-      <c r="R507" s="39">
-        <v>25</v>
-      </c>
-      <c r="S507" s="39">
-        <v>25</v>
-      </c>
-      <c r="T507" s="39">
-        <v>101</v>
-      </c>
-      <c r="U507" s="41" t="s">
-        <v>1345</v>
-      </c>
-    </row>
-    <row r="508" ht="14.25" spans="1:21">
-      <c r="A508">
-        <v>454</v>
-      </c>
-      <c r="B508" t="s">
-        <v>160</v>
-      </c>
-      <c r="C508" t="s">
-        <v>150</v>
-      </c>
-      <c r="N508" s="39" t="s">
-        <v>411</v>
-      </c>
-      <c r="O508" t="s">
-        <v>572</v>
-      </c>
-      <c r="P508" s="39">
-        <v>798</v>
-      </c>
-      <c r="Q508" s="39">
-        <v>634</v>
-      </c>
-      <c r="R508" s="39">
-        <v>41</v>
-      </c>
-      <c r="S508" s="39">
-        <v>38</v>
-      </c>
-      <c r="T508" s="39">
-        <v>193</v>
-      </c>
-      <c r="U508" s="41" t="s">
-        <v>1346</v>
-      </c>
-    </row>
-    <row r="509" ht="14.25" spans="1:21">
-      <c r="A509">
-        <v>455</v>
-      </c>
-      <c r="B509" t="s">
-        <v>160</v>
-      </c>
-      <c r="C509" t="s">
-        <v>150</v>
-      </c>
-      <c r="N509" s="39" t="s">
-        <v>411</v>
-      </c>
-      <c r="O509" t="s">
-        <v>570</v>
-      </c>
-      <c r="P509" s="39">
-        <v>386</v>
-      </c>
-      <c r="Q509" s="39">
-        <v>243</v>
-      </c>
-      <c r="R509" s="39">
-        <v>16</v>
-      </c>
-      <c r="S509" s="39">
-        <v>14</v>
-      </c>
-      <c r="T509" s="39">
-        <v>101</v>
-      </c>
-      <c r="U509" s="41" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="510" ht="14.25" spans="1:21">
-      <c r="A510">
-        <v>456</v>
-      </c>
-      <c r="B510" t="s">
-        <v>160</v>
-      </c>
-      <c r="C510" t="s">
-        <v>150</v>
-      </c>
-      <c r="N510" s="39" t="s">
-        <v>411</v>
-      </c>
-      <c r="O510" t="s">
-        <v>568</v>
-      </c>
-      <c r="P510" s="39">
-        <v>489</v>
-      </c>
-      <c r="Q510" s="39">
-        <v>294</v>
-      </c>
-      <c r="R510" s="39">
-        <v>33</v>
-      </c>
-      <c r="S510" s="39">
-        <v>23</v>
-      </c>
-      <c r="T510" s="39">
-        <v>75</v>
-      </c>
-      <c r="U510" s="41" t="s">
-        <v>1348</v>
       </c>
     </row>
   </sheetData>
@@ -30393,10 +26294,7 @@
     <hyperlink ref="B208" r:id="rId4" display="朱利叶斯-兰德尔" tooltip="https://nba.hupu.com/players/juliusrandle-4932.html"/>
     <hyperlink ref="B209" r:id="rId4" display="朱利叶斯-兰德尔" tooltip="https://nba.hupu.com/players/juliusrandle-4932.html"/>
     <hyperlink ref="B210" r:id="rId4" display="朱利叶斯-兰德尔" tooltip="https://nba.hupu.com/players/juliusrandle-4932.html"/>
-    <hyperlink ref="B428" r:id="rId5" display="伊维察-祖巴茨" tooltip="https://nba.hupu.com/players/ivicazubac-150201.html"/>
-    <hyperlink ref="B429" r:id="rId5" display="伊维察-祖巴茨" tooltip="https://nba.hupu.com/players/ivicazubac-150201.html"/>
-    <hyperlink ref="B430" r:id="rId5" display="伊维察-祖巴茨" tooltip="https://nba.hupu.com/players/ivicazubac-150201.html"/>
-    <hyperlink ref="B431" r:id="rId5" display="伊维察-祖巴茨" tooltip="https://nba.hupu.com/players/ivicazubac-150201.html"/>
+    <hyperlink ref="B419" r:id="rId5" display="伊维察-祖巴茨" tooltip="https://nba.hupu.com/players/ivicazubac-150201.html"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -30410,7 +26308,7 @@
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A11"/>
+      <selection activeCell="A4" sqref="A4:A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/网站相关/data.xlsx
+++ b/网站相关/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3548" uniqueCount="1184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3707" uniqueCount="1230">
   <si>
     <t>主键</t>
   </si>
@@ -3586,18 +3586,156 @@
   <si>
     <t>0.6篮板0.3助攻0.17抢断0盖帽1.9分</t>
   </si>
+  <si>
+    <t>2014年第2轮第11顺位</t>
+  </si>
+  <si>
+    <t>5年1.48亿美元，2018年夏天签，2023年夏天到期</t>
+  </si>
+  <si>
+    <t>10.8篮板7.6助攻1.34抢断0.70盖帽20.2分</t>
+  </si>
+  <si>
+    <t>2015-16赛季最佳新秀阵容第一阵容</t>
+  </si>
+  <si>
+    <t>10.7篮板6.1助攻1.20抢断0.81盖帽18.5分</t>
+  </si>
+  <si>
+    <t>9.8篮板4.9助攻0.84抢断0.75盖帽16.7分</t>
+  </si>
+  <si>
+    <t>7.0篮板2.4助攻0.99抢断0.62盖帽9.9分</t>
+  </si>
+  <si>
+    <t>2016年第1轮第7顺位</t>
+  </si>
+  <si>
+    <t>4年1451万美元，2016年夏天签，2020年夏天到期，2018-19赛季、2019-20赛季球队保障</t>
+  </si>
+  <si>
+    <t>4.2篮板4.8助攻0.83抢断0.36盖帽17.9分</t>
+  </si>
+  <si>
+    <t>2017年全明星新秀挑战赛MVP</t>
+  </si>
+  <si>
+    <t>3.7篮板3.4助攻0.98抢断0.35盖帽16.7分</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2016-17赛季NBA最佳新秀阵容第二阵容</t>
+  </si>
+  <si>
+    <t>2.6篮板2.1助攻0.62抢断0.29盖帽9.9分</t>
+  </si>
+  <si>
+    <t>2006年第2轮第17顺位</t>
+  </si>
+  <si>
+    <t>3年9150万美元，2017年夏天签，2020年夏天到期，2019-2020赛季球队选项</t>
+  </si>
+  <si>
+    <t>7.2篮板2.0助攻1.28抢断0.82盖帽12.9分</t>
+  </si>
+  <si>
+    <t>2017年全明星东部替补阵容</t>
+  </si>
+  <si>
+    <t>6.4篮板2.8助攻1.03抢断1.16盖帽14.6分</t>
+  </si>
+  <si>
+    <t>7.7篮板3.7助攻1.30抢断0.90盖帽18.1分</t>
+  </si>
+  <si>
+    <t>2015-16赛季最佳防守阵容第二阵容</t>
+  </si>
+  <si>
+    <t>9.0篮板3.3助攻1.81抢断1.72盖帽17.1分</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2015年全明星东部替补阵容</t>
+  </si>
+  <si>
+    <t>7.8篮板3.1助攻1.78抢断0.95盖帽16.7分</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014年全明星东部替补阵容 </t>
+  </si>
+  <si>
+    <t>8.5篮板3.1助攻1.74抢断1.05盖帽17.9分</t>
+  </si>
+  <si>
+    <t>2006-07赛季最佳新秀阵容第二队</t>
+  </si>
+  <si>
+    <t>7.1篮板2.6助攻1.31抢断1.03盖帽14.6分</t>
+  </si>
+  <si>
+    <t>8.8篮板2.3助攻1.84抢断0.81盖帽16.6分</t>
+  </si>
+  <si>
+    <t>7.6篮板2.5助攻1.36抢断0.91盖帽17.3分</t>
+  </si>
+  <si>
+    <t>6.8篮板1.6助攻0.78抢断1.21盖帽11.6分</t>
+  </si>
+  <si>
+    <t>8.6篮板1.8助攻1.03抢断0.96盖帽13.5分</t>
+  </si>
+  <si>
+    <t>5.6篮板1.0助攻0.88抢断0.89盖帽8.1分</t>
+  </si>
+  <si>
+    <t>5.2篮板0.8助攻0.82抢断0.90盖帽6.8分</t>
+  </si>
+  <si>
+    <t>2014年第1轮第19顺位</t>
+  </si>
+  <si>
+    <t>4年731万美元，2014年夏天签，2018年夏天到期，2016-17赛季、2017-18赛季球队选项（已执行），2017年10月以4年8400万美元提前续约，2018年夏天生效，2022年夏天到期，</t>
+  </si>
+  <si>
+    <t>3.0篮板2.4助攻0.94抢断0.38盖帽13.5分</t>
+  </si>
+  <si>
+    <t>2.6篮板2.9助攻1.82抢断0.22盖帽17.5分</t>
+  </si>
+  <si>
+    <t>3.1篮板2.9助攻1.25抢断0.14盖帽14.9分</t>
+  </si>
+  <si>
+    <t>2.9篮板1.9助攻1.28抢断0.24盖帽12.3分</t>
+  </si>
+  <si>
+    <t>1.2篮板0.5助攻0.71抢断0.13盖帽3.4分</t>
+  </si>
+  <si>
+    <t>2016年第1轮第19顺位</t>
+  </si>
+  <si>
+    <t>4年783万美元，2016年夏天签，2020年夏天到期，2018-19赛季、2019-20赛季球队选项</t>
+  </si>
+  <si>
+    <t>2.5篮板1.2助攻0.65抢断0.12盖帽11.4分</t>
+  </si>
+  <si>
+    <t>1.1篮板0.5助攻0.24抢断0.11盖帽3.2分</t>
+  </si>
+  <si>
+    <t>0.8篮板0.5助攻0.32抢断0盖帽3.8分</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3671,6 +3809,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <u/>
       <sz val="9"/>
@@ -3688,22 +3833,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3717,30 +3847,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3771,7 +3885,37 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3779,7 +3923,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3801,17 +3953,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3836,7 +3981,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3854,55 +4125,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3914,43 +4149,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3962,61 +4161,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4243,17 +4388,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4262,27 +4403,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4305,8 +4426,47 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4325,21 +4485,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4348,10 +4493,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4360,19 +4505,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4381,116 +4526,116 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4602,29 +4747,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4633,7 +4767,7 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -7890,7 +8024,7 @@
       <c r="C192" t="s">
         <v>227</v>
       </c>
-      <c r="J192" s="45" t="s">
+      <c r="J192" s="42" t="s">
         <v>233</v>
       </c>
     </row>
@@ -8126,7 +8260,7 @@
       <c r="C208" t="s">
         <v>243</v>
       </c>
-      <c r="J208" s="47" t="s">
+      <c r="J208" s="44" t="s">
         <v>251</v>
       </c>
     </row>
@@ -8244,7 +8378,7 @@
       <c r="E216">
         <v>18</v>
       </c>
-      <c r="F216" s="46">
+      <c r="F216" s="43">
         <v>0.743</v>
       </c>
       <c r="G216" t="s">
@@ -8640,7 +8774,7 @@
       <c r="C243" t="s">
         <v>276</v>
       </c>
-      <c r="J243" s="48" t="s">
+      <c r="J243" s="45" t="s">
         <v>289</v>
       </c>
     </row>
@@ -8722,7 +8856,7 @@
       <c r="C248" t="s">
         <v>299</v>
       </c>
-      <c r="J248" s="45" t="s">
+      <c r="J248" s="42" t="s">
         <v>300</v>
       </c>
     </row>
@@ -8820,7 +8954,7 @@
       <c r="C255" t="s">
         <v>313</v>
       </c>
-      <c r="J255" s="45" t="s">
+      <c r="J255" s="42" t="s">
         <v>314</v>
       </c>
     </row>
@@ -8834,7 +8968,7 @@
       <c r="C256" t="s">
         <v>315</v>
       </c>
-      <c r="J256" s="45" t="s">
+      <c r="J256" s="42" t="s">
         <v>316</v>
       </c>
     </row>
@@ -9194,7 +9328,7 @@
       <c r="C280" t="s">
         <v>336</v>
       </c>
-      <c r="J280" s="45" t="s">
+      <c r="J280" s="42" t="s">
         <v>344</v>
       </c>
     </row>
@@ -9402,7 +9536,7 @@
       <c r="C294" t="s">
         <v>351</v>
       </c>
-      <c r="J294" s="45" t="s">
+      <c r="J294" s="42" t="s">
         <v>359</v>
       </c>
     </row>
@@ -11398,10 +11532,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X419"/>
+  <dimension ref="A1:X447"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A391" workbookViewId="0">
-      <selection activeCell="A415" sqref="A415:A419"/>
+    <sheetView tabSelected="1" topLeftCell="A421" workbookViewId="0">
+      <selection activeCell="B445" sqref="B445:C447"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -23364,7 +23498,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="328" ht="14.25" spans="1:23">
+    <row r="328" spans="1:23">
       <c r="A328">
         <v>303</v>
       </c>
@@ -23378,7 +23512,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="329" ht="14.25" spans="1:23">
+    <row r="329" spans="1:23">
       <c r="A329">
         <v>304</v>
       </c>
@@ -23432,25 +23566,25 @@
       <c r="M330" t="s">
         <v>1067</v>
       </c>
-      <c r="N330" s="37" t="s">
+      <c r="N330" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="O330" s="38" t="s">
+      <c r="O330" s="12" t="s">
         <v>593</v>
       </c>
-      <c r="P330" s="37">
+      <c r="P330" s="11">
         <v>1823</v>
       </c>
-      <c r="Q330" s="37">
+      <c r="Q330" s="11">
         <v>443</v>
       </c>
-      <c r="R330" s="37">
+      <c r="R330" s="11">
         <v>51</v>
       </c>
-      <c r="S330" s="37">
+      <c r="S330" s="11">
         <v>380</v>
       </c>
-      <c r="T330" s="37">
+      <c r="T330" s="11">
         <v>75</v>
       </c>
       <c r="U330" t="s">
@@ -23470,25 +23604,25 @@
       <c r="C331" t="s">
         <v>106</v>
       </c>
-      <c r="N331" s="37" t="s">
+      <c r="N331" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="O331" s="38" t="s">
+      <c r="O331" s="12" t="s">
         <v>589</v>
       </c>
-      <c r="P331" s="37">
+      <c r="P331" s="11">
         <v>1792</v>
       </c>
-      <c r="Q331" s="37">
+      <c r="Q331" s="11">
         <v>464</v>
       </c>
-      <c r="R331" s="37">
+      <c r="R331" s="11">
         <v>50</v>
       </c>
-      <c r="S331" s="37">
+      <c r="S331" s="11">
         <v>366</v>
       </c>
-      <c r="T331" s="37">
+      <c r="T331" s="11">
         <v>119</v>
       </c>
       <c r="U331" t="s">
@@ -23508,25 +23642,25 @@
       <c r="C332" t="s">
         <v>106</v>
       </c>
-      <c r="N332" s="37" t="s">
+      <c r="N332" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="O332" s="38" t="s">
+      <c r="O332" s="12" t="s">
         <v>586</v>
       </c>
-      <c r="P332" s="37">
+      <c r="P332" s="11">
         <v>1555</v>
       </c>
-      <c r="Q332" s="37">
+      <c r="Q332" s="11">
         <v>513</v>
       </c>
-      <c r="R332" s="37">
+      <c r="R332" s="11">
         <v>66</v>
       </c>
-      <c r="S332" s="37">
+      <c r="S332" s="11">
         <v>300</v>
       </c>
-      <c r="T332" s="37">
+      <c r="T332" s="11">
         <v>99</v>
       </c>
       <c r="U332" t="s">
@@ -23546,25 +23680,25 @@
       <c r="C333" t="s">
         <v>106</v>
       </c>
-      <c r="N333" s="37" t="s">
+      <c r="N333" s="11" t="s">
         <v>697</v>
       </c>
-      <c r="O333" s="38" t="s">
+      <c r="O333" s="12" t="s">
         <v>583</v>
       </c>
-      <c r="P333" s="37">
+      <c r="P333" s="11">
         <v>2029</v>
       </c>
-      <c r="Q333" s="37">
+      <c r="Q333" s="11">
         <v>589</v>
       </c>
-      <c r="R333" s="37">
+      <c r="R333" s="11">
         <v>69</v>
       </c>
-      <c r="S333" s="37">
+      <c r="S333" s="11">
         <v>361</v>
       </c>
-      <c r="T333" s="37">
+      <c r="T333" s="11">
         <v>85</v>
       </c>
       <c r="U333" t="s">
@@ -23584,25 +23718,25 @@
       <c r="C334" t="s">
         <v>106</v>
       </c>
-      <c r="N334" s="37" t="s">
+      <c r="N334" s="11" t="s">
         <v>697</v>
       </c>
-      <c r="O334" s="38" t="s">
+      <c r="O334" s="12" t="s">
         <v>581</v>
       </c>
-      <c r="P334" s="37">
+      <c r="P334" s="11">
         <v>686</v>
       </c>
-      <c r="Q334" s="37">
+      <c r="Q334" s="11">
         <v>178</v>
       </c>
-      <c r="R334" s="37">
+      <c r="R334" s="11">
         <v>24</v>
       </c>
-      <c r="S334" s="37">
+      <c r="S334" s="11">
         <v>110</v>
       </c>
-      <c r="T334" s="37">
+      <c r="T334" s="11">
         <v>25</v>
       </c>
       <c r="U334" t="s">
@@ -23622,25 +23756,25 @@
       <c r="C335" t="s">
         <v>106</v>
       </c>
-      <c r="N335" s="37" t="s">
+      <c r="N335" s="11" t="s">
         <v>697</v>
       </c>
-      <c r="O335" s="38" t="s">
+      <c r="O335" s="12" t="s">
         <v>579</v>
       </c>
-      <c r="P335" s="37">
+      <c r="P335" s="11">
         <v>2593</v>
       </c>
-      <c r="Q335" s="37">
+      <c r="Q335" s="11">
         <v>598</v>
       </c>
-      <c r="R335" s="37">
+      <c r="R335" s="11">
         <v>103</v>
       </c>
-      <c r="S335" s="37">
+      <c r="S335" s="11">
         <v>445</v>
       </c>
-      <c r="T335" s="37">
+      <c r="T335" s="11">
         <v>59</v>
       </c>
       <c r="U335" t="s">
@@ -23660,25 +23794,25 @@
       <c r="C336" t="s">
         <v>106</v>
       </c>
-      <c r="N336" s="37" t="s">
+      <c r="N336" s="11" t="s">
         <v>697</v>
       </c>
-      <c r="O336" s="38" t="s">
+      <c r="O336" s="12" t="s">
         <v>577</v>
       </c>
-      <c r="P336" s="37">
+      <c r="P336" s="11">
         <v>2280</v>
       </c>
-      <c r="Q336" s="37">
+      <c r="Q336" s="11">
         <v>640</v>
       </c>
-      <c r="R336" s="37">
+      <c r="R336" s="11">
         <v>116</v>
       </c>
-      <c r="S336" s="37">
+      <c r="S336" s="11">
         <v>374</v>
       </c>
-      <c r="T336" s="37">
+      <c r="T336" s="11">
         <v>105</v>
       </c>
       <c r="U336" t="s">
@@ -23698,25 +23832,25 @@
       <c r="C337" t="s">
         <v>106</v>
       </c>
-      <c r="N337" s="37" t="s">
+      <c r="N337" s="11" t="s">
         <v>697</v>
       </c>
-      <c r="O337" s="38" t="s">
+      <c r="O337" s="12" t="s">
         <v>575</v>
       </c>
-      <c r="P337" s="37">
+      <c r="P337" s="11">
         <v>1850</v>
       </c>
-      <c r="Q337" s="37">
+      <c r="Q337" s="11">
         <v>527</v>
       </c>
-      <c r="R337" s="37">
+      <c r="R337" s="11">
         <v>88</v>
       </c>
-      <c r="S337" s="37">
+      <c r="S337" s="11">
         <v>231</v>
       </c>
-      <c r="T337" s="37">
+      <c r="T337" s="11">
         <v>77</v>
       </c>
       <c r="U337" t="s">
@@ -23736,25 +23870,25 @@
       <c r="C338" t="s">
         <v>106</v>
       </c>
-      <c r="N338" s="37" t="s">
+      <c r="N338" s="11" t="s">
         <v>697</v>
       </c>
-      <c r="O338" s="38" t="s">
+      <c r="O338" s="12" t="s">
         <v>572</v>
       </c>
-      <c r="P338" s="37">
+      <c r="P338" s="11">
         <v>2161</v>
       </c>
-      <c r="Q338" s="37">
+      <c r="Q338" s="11">
         <v>533</v>
       </c>
-      <c r="R338" s="37">
+      <c r="R338" s="11">
         <v>88</v>
       </c>
-      <c r="S338" s="37">
+      <c r="S338" s="11">
         <v>214</v>
       </c>
-      <c r="T338" s="37">
+      <c r="T338" s="11">
         <v>76</v>
       </c>
       <c r="U338" t="s">
@@ -23774,25 +23908,25 @@
       <c r="C339" t="s">
         <v>106</v>
       </c>
-      <c r="N339" s="37" t="s">
+      <c r="N339" s="11" t="s">
         <v>697</v>
       </c>
-      <c r="O339" s="38" t="s">
+      <c r="O339" s="12" t="s">
         <v>570</v>
       </c>
-      <c r="P339" s="37">
+      <c r="P339" s="11">
         <v>2472</v>
       </c>
-      <c r="Q339" s="37">
+      <c r="Q339" s="11">
         <v>623</v>
       </c>
-      <c r="R339" s="37">
+      <c r="R339" s="11">
         <v>112</v>
       </c>
-      <c r="S339" s="37">
+      <c r="S339" s="11">
         <v>231</v>
       </c>
-      <c r="T339" s="37">
+      <c r="T339" s="11">
         <v>84</v>
       </c>
       <c r="U339" t="s">
@@ -23812,25 +23946,25 @@
       <c r="C340" t="s">
         <v>106</v>
       </c>
-      <c r="N340" s="37" t="s">
+      <c r="N340" s="11" t="s">
         <v>697</v>
       </c>
-      <c r="O340" s="38" t="s">
+      <c r="O340" s="12" t="s">
         <v>568</v>
       </c>
-      <c r="P340" s="37">
+      <c r="P340" s="11">
         <v>1871</v>
       </c>
-      <c r="Q340" s="37">
+      <c r="Q340" s="11">
         <v>482</v>
       </c>
-      <c r="R340" s="37">
+      <c r="R340" s="11">
         <v>96</v>
       </c>
-      <c r="S340" s="37">
+      <c r="S340" s="11">
         <v>205</v>
       </c>
-      <c r="T340" s="37">
+      <c r="T340" s="11">
         <v>53</v>
       </c>
       <c r="U340" t="s">
@@ -23850,25 +23984,25 @@
       <c r="C341" t="s">
         <v>106</v>
       </c>
-      <c r="N341" s="37" t="s">
+      <c r="N341" s="11" t="s">
         <v>1088</v>
       </c>
-      <c r="O341" s="38" t="s">
+      <c r="O341" s="12" t="s">
         <v>653</v>
       </c>
-      <c r="P341" s="37">
+      <c r="P341" s="11">
         <v>1624</v>
       </c>
-      <c r="Q341" s="37">
+      <c r="Q341" s="11">
         <v>348</v>
       </c>
-      <c r="R341" s="37">
+      <c r="R341" s="11">
         <v>78</v>
       </c>
-      <c r="S341" s="37">
+      <c r="S341" s="11">
         <v>192</v>
       </c>
-      <c r="T341" s="37">
+      <c r="T341" s="11">
         <v>75</v>
       </c>
       <c r="U341" t="s">
@@ -24086,25 +24220,25 @@
       <c r="M354" t="s">
         <v>1104</v>
       </c>
-      <c r="N354" s="39" t="s">
+      <c r="N354" s="18" t="s">
         <v>106</v>
       </c>
       <c r="O354" t="s">
         <v>593</v>
       </c>
-      <c r="P354" s="39">
+      <c r="P354" s="18">
         <v>1507</v>
       </c>
-      <c r="Q354" s="39">
+      <c r="Q354" s="18">
         <v>269</v>
       </c>
-      <c r="R354" s="39">
+      <c r="R354" s="18">
         <v>79</v>
       </c>
-      <c r="S354" s="39">
+      <c r="S354" s="18">
         <v>163</v>
       </c>
-      <c r="T354" s="39">
+      <c r="T354" s="18">
         <v>43</v>
       </c>
       <c r="U354" t="s">
@@ -24124,25 +24258,25 @@
       <c r="C355" t="s">
         <v>106</v>
       </c>
-      <c r="N355" s="39" t="s">
+      <c r="N355" s="18" t="s">
         <v>106</v>
       </c>
       <c r="O355" t="s">
         <v>589</v>
       </c>
-      <c r="P355" s="39">
+      <c r="P355" s="18">
         <v>1461</v>
       </c>
-      <c r="Q355" s="39">
+      <c r="Q355" s="18">
         <v>277</v>
       </c>
-      <c r="R355" s="39">
+      <c r="R355" s="18">
         <v>55</v>
       </c>
-      <c r="S355" s="39">
+      <c r="S355" s="18">
         <v>185</v>
       </c>
-      <c r="T355" s="39">
+      <c r="T355" s="18">
         <v>34</v>
       </c>
       <c r="U355" t="s">
@@ -24162,25 +24296,25 @@
       <c r="C356" t="s">
         <v>106</v>
       </c>
-      <c r="N356" s="39" t="s">
+      <c r="N356" s="18" t="s">
         <v>106</v>
       </c>
       <c r="O356" t="s">
         <v>586</v>
       </c>
-      <c r="P356" s="39">
+      <c r="P356" s="18">
         <v>1742</v>
       </c>
-      <c r="Q356" s="39">
+      <c r="Q356" s="18">
         <v>285</v>
       </c>
-      <c r="R356" s="39">
+      <c r="R356" s="18">
         <v>66</v>
       </c>
-      <c r="S356" s="39">
+      <c r="S356" s="18">
         <v>160</v>
       </c>
-      <c r="T356" s="39">
+      <c r="T356" s="18">
         <v>40</v>
       </c>
       <c r="U356" t="s">
@@ -24200,25 +24334,25 @@
       <c r="C357" t="s">
         <v>106</v>
       </c>
-      <c r="N357" s="39" t="s">
+      <c r="N357" s="18" t="s">
         <v>106</v>
       </c>
       <c r="O357" t="s">
         <v>583</v>
       </c>
-      <c r="P357" s="39">
+      <c r="P357" s="18">
         <v>1771</v>
       </c>
-      <c r="Q357" s="39">
+      <c r="Q357" s="18">
         <v>306</v>
       </c>
-      <c r="R357" s="39">
+      <c r="R357" s="18">
         <v>60</v>
       </c>
-      <c r="S357" s="39">
+      <c r="S357" s="18">
         <v>166</v>
       </c>
-      <c r="T357" s="39">
+      <c r="T357" s="18">
         <v>49</v>
       </c>
       <c r="U357" t="s">
@@ -24238,25 +24372,25 @@
       <c r="C358" t="s">
         <v>106</v>
       </c>
-      <c r="N358" s="39" t="s">
+      <c r="N358" s="18" t="s">
         <v>106</v>
       </c>
       <c r="O358" t="s">
         <v>581</v>
       </c>
-      <c r="P358" s="39">
+      <c r="P358" s="18">
         <v>1668</v>
       </c>
-      <c r="Q358" s="39">
+      <c r="Q358" s="18">
         <v>247</v>
       </c>
-      <c r="R358" s="39">
+      <c r="R358" s="18">
         <v>87</v>
       </c>
-      <c r="S358" s="39">
+      <c r="S358" s="18">
         <v>222</v>
       </c>
-      <c r="T358" s="39">
+      <c r="T358" s="18">
         <v>60</v>
       </c>
       <c r="U358" t="s">
@@ -24276,25 +24410,25 @@
       <c r="C359" t="s">
         <v>106</v>
       </c>
-      <c r="N359" s="39" t="s">
+      <c r="N359" s="18" t="s">
         <v>106</v>
       </c>
       <c r="O359" t="s">
         <v>579</v>
       </c>
-      <c r="P359" s="39">
+      <c r="P359" s="18">
         <v>1488</v>
       </c>
-      <c r="Q359" s="39">
+      <c r="Q359" s="18">
         <v>249</v>
       </c>
-      <c r="R359" s="39">
+      <c r="R359" s="18">
         <v>74</v>
       </c>
-      <c r="S359" s="39">
+      <c r="S359" s="18">
         <v>181</v>
       </c>
-      <c r="T359" s="39">
+      <c r="T359" s="18">
         <v>37</v>
       </c>
       <c r="U359" t="s">
@@ -24314,25 +24448,25 @@
       <c r="C360" t="s">
         <v>106</v>
       </c>
-      <c r="N360" s="39" t="s">
+      <c r="N360" s="18" t="s">
         <v>106</v>
       </c>
       <c r="O360" t="s">
         <v>577</v>
       </c>
-      <c r="P360" s="39">
+      <c r="P360" s="18">
         <v>1359</v>
       </c>
-      <c r="Q360" s="39">
+      <c r="Q360" s="18">
         <v>306</v>
       </c>
-      <c r="R360" s="39">
+      <c r="R360" s="18">
         <v>86</v>
       </c>
-      <c r="S360" s="39">
+      <c r="S360" s="18">
         <v>183</v>
       </c>
-      <c r="T360" s="39">
+      <c r="T360" s="18">
         <v>45</v>
       </c>
       <c r="U360" t="s">
@@ -24352,25 +24486,25 @@
       <c r="C361" t="s">
         <v>106</v>
       </c>
-      <c r="N361" s="39" t="s">
+      <c r="N361" s="18" t="s">
         <v>106</v>
       </c>
       <c r="O361" t="s">
         <v>575</v>
       </c>
-      <c r="P361" s="39">
+      <c r="P361" s="18">
         <v>826</v>
       </c>
-      <c r="Q361" s="39">
+      <c r="Q361" s="18">
         <v>161</v>
       </c>
-      <c r="R361" s="39">
+      <c r="R361" s="18">
         <v>49</v>
       </c>
-      <c r="S361" s="39">
+      <c r="S361" s="18">
         <v>133</v>
       </c>
-      <c r="T361" s="39">
+      <c r="T361" s="18">
         <v>20</v>
       </c>
       <c r="U361" t="s">
@@ -24476,25 +24610,25 @@
       <c r="M366" t="s">
         <v>1122</v>
       </c>
-      <c r="N366" s="39" t="s">
+      <c r="N366" s="18" t="s">
         <v>106</v>
       </c>
       <c r="O366" t="s">
         <v>593</v>
       </c>
-      <c r="P366" s="39">
+      <c r="P366" s="18">
         <v>383</v>
       </c>
-      <c r="Q366" s="39">
+      <c r="Q366" s="18">
         <v>407</v>
       </c>
-      <c r="R366" s="39">
+      <c r="R366" s="18">
         <v>80</v>
       </c>
-      <c r="S366" s="39">
+      <c r="S366" s="18">
         <v>388</v>
       </c>
-      <c r="T366" s="39">
+      <c r="T366" s="18">
         <v>59</v>
       </c>
       <c r="U366" t="s">
@@ -24514,25 +24648,25 @@
       <c r="C367" t="s">
         <v>106</v>
       </c>
-      <c r="N367" s="39" t="s">
+      <c r="N367" s="18" t="s">
         <v>106</v>
       </c>
       <c r="O367" t="s">
         <v>589</v>
       </c>
-      <c r="P367" s="39">
+      <c r="P367" s="18">
         <v>773</v>
       </c>
-      <c r="Q367" s="39">
+      <c r="Q367" s="18">
         <v>535</v>
       </c>
-      <c r="R367" s="39">
+      <c r="R367" s="18">
         <v>94</v>
       </c>
-      <c r="S367" s="39">
+      <c r="S367" s="18">
         <v>508</v>
       </c>
-      <c r="T367" s="39">
+      <c r="T367" s="18">
         <v>91</v>
       </c>
       <c r="U367" t="s">
@@ -24552,25 +24686,25 @@
       <c r="C368" t="s">
         <v>106</v>
       </c>
-      <c r="N368" s="39" t="s">
+      <c r="N368" s="18" t="s">
         <v>106</v>
       </c>
       <c r="O368" t="s">
         <v>586</v>
       </c>
-      <c r="P368" s="39">
+      <c r="P368" s="18">
         <v>776</v>
       </c>
-      <c r="Q368" s="39">
+      <c r="Q368" s="18">
         <v>599</v>
       </c>
-      <c r="R368" s="39">
+      <c r="R368" s="18">
         <v>154</v>
       </c>
-      <c r="S368" s="39">
+      <c r="S368" s="18">
         <v>533</v>
       </c>
-      <c r="T368" s="39">
+      <c r="T368" s="18">
         <v>106</v>
       </c>
       <c r="U368" t="s">
@@ -24590,25 +24724,25 @@
       <c r="C369" t="s">
         <v>106</v>
       </c>
-      <c r="N369" s="39" t="s">
+      <c r="N369" s="18" t="s">
         <v>106</v>
       </c>
       <c r="O369" t="s">
         <v>583</v>
       </c>
-      <c r="P369" s="39">
+      <c r="P369" s="18">
         <v>1131</v>
       </c>
-      <c r="Q369" s="39">
+      <c r="Q369" s="18">
         <v>769</v>
       </c>
-      <c r="R369" s="39">
+      <c r="R369" s="18">
         <v>119</v>
       </c>
-      <c r="S369" s="39">
+      <c r="S369" s="18">
         <v>598</v>
       </c>
-      <c r="T369" s="39">
+      <c r="T369" s="18">
         <v>113</v>
       </c>
       <c r="U369" t="s">
@@ -24628,25 +24762,25 @@
       <c r="C370" t="s">
         <v>106</v>
       </c>
-      <c r="N370" s="39" t="s">
+      <c r="N370" s="18" t="s">
         <v>106</v>
       </c>
       <c r="O370" t="s">
         <v>581</v>
       </c>
-      <c r="P370" s="39">
+      <c r="P370" s="18">
         <v>921</v>
       </c>
-      <c r="Q370" s="39">
+      <c r="Q370" s="18">
         <v>647</v>
       </c>
-      <c r="R370" s="39">
+      <c r="R370" s="18">
         <v>123</v>
       </c>
-      <c r="S370" s="39">
+      <c r="S370" s="18">
         <v>291</v>
       </c>
-      <c r="T370" s="39">
+      <c r="T370" s="18">
         <v>99</v>
       </c>
       <c r="U370" t="s">
@@ -24666,25 +24800,25 @@
       <c r="C371" t="s">
         <v>106</v>
       </c>
-      <c r="N371" s="39" t="s">
+      <c r="N371" s="18" t="s">
         <v>106</v>
       </c>
       <c r="O371" t="s">
         <v>579</v>
       </c>
-      <c r="P371" s="39">
+      <c r="P371" s="18">
         <v>511</v>
       </c>
-      <c r="Q371" s="39">
+      <c r="Q371" s="18">
         <v>409</v>
       </c>
-      <c r="R371" s="39">
+      <c r="R371" s="18">
         <v>102</v>
       </c>
-      <c r="S371" s="39">
+      <c r="S371" s="18">
         <v>152</v>
       </c>
-      <c r="T371" s="39">
+      <c r="T371" s="18">
         <v>72</v>
       </c>
       <c r="U371" t="s">
@@ -24704,25 +24838,25 @@
       <c r="C372" t="s">
         <v>106</v>
       </c>
-      <c r="N372" s="39" t="s">
+      <c r="N372" s="18" t="s">
         <v>106</v>
       </c>
       <c r="O372" t="s">
         <v>577</v>
       </c>
-      <c r="P372" s="39">
+      <c r="P372" s="18">
         <v>227</v>
       </c>
-      <c r="Q372" s="39">
+      <c r="Q372" s="18">
         <v>260</v>
       </c>
-      <c r="R372" s="39">
+      <c r="R372" s="18">
         <v>42</v>
       </c>
-      <c r="S372" s="39">
+      <c r="S372" s="18">
         <v>53</v>
       </c>
-      <c r="T372" s="39">
+      <c r="T372" s="18">
         <v>25</v>
       </c>
       <c r="U372" t="s">
@@ -24816,7 +24950,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="379" ht="14.25" spans="1:23">
+    <row r="379" spans="1:23">
       <c r="A379">
         <v>335</v>
       </c>
@@ -24830,7 +24964,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="380" ht="15" spans="1:24">
+    <row r="380" ht="14.25" spans="1:24">
       <c r="A380">
         <v>336</v>
       </c>
@@ -24870,37 +25004,37 @@
       <c r="M380" t="s">
         <v>1138</v>
       </c>
-      <c r="N380" s="37" t="s">
+      <c r="N380" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="O380" s="38" t="s">
+      <c r="O380" s="12" t="s">
         <v>593</v>
       </c>
-      <c r="P380" s="37">
+      <c r="P380" s="11">
         <v>347</v>
       </c>
-      <c r="Q380" s="37">
+      <c r="Q380" s="11">
         <v>176</v>
       </c>
-      <c r="R380" s="37">
+      <c r="R380" s="11">
         <v>28</v>
       </c>
-      <c r="S380" s="37">
+      <c r="S380" s="11">
         <v>80</v>
       </c>
-      <c r="T380" s="37">
+      <c r="T380" s="11">
         <v>34</v>
       </c>
       <c r="U380" t="s">
         <v>1139</v>
       </c>
-      <c r="V380" s="40"/>
-      <c r="W380" s="40" t="s">
+      <c r="V380" s="37"/>
+      <c r="W380" s="37" t="s">
         <v>854</v>
       </c>
-      <c r="X380" s="40"/>
-    </row>
-    <row r="381" ht="15" spans="1:24">
+      <c r="X380" s="37"/>
+    </row>
+    <row r="381" ht="14.25" spans="1:24">
       <c r="A381">
         <v>337</v>
       </c>
@@ -24910,37 +25044,37 @@
       <c r="C381" t="s">
         <v>106</v>
       </c>
-      <c r="N381" s="37" t="s">
+      <c r="N381" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="O381" s="38" t="s">
+      <c r="O381" s="12" t="s">
         <v>589</v>
       </c>
-      <c r="P381" s="37">
+      <c r="P381" s="11">
         <v>1210</v>
       </c>
-      <c r="Q381" s="37">
+      <c r="Q381" s="11">
         <v>617</v>
       </c>
-      <c r="R381" s="37">
+      <c r="R381" s="11">
         <v>79</v>
       </c>
-      <c r="S381" s="37">
+      <c r="S381" s="11">
         <v>257</v>
       </c>
-      <c r="T381" s="37">
+      <c r="T381" s="11">
         <v>76</v>
       </c>
       <c r="U381" t="s">
         <v>1140</v>
       </c>
-      <c r="V381" s="40"/>
-      <c r="W381" s="40" t="s">
+      <c r="V381" s="37"/>
+      <c r="W381" s="37" t="s">
         <v>1117</v>
       </c>
-      <c r="X381" s="40"/>
-    </row>
-    <row r="382" ht="15" spans="1:24">
+      <c r="X381" s="37"/>
+    </row>
+    <row r="382" ht="14.25" spans="1:24">
       <c r="A382">
         <v>338</v>
       </c>
@@ -24950,37 +25084,37 @@
       <c r="C382" t="s">
         <v>106</v>
       </c>
-      <c r="N382" s="37" t="s">
+      <c r="N382" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="O382" s="38" t="s">
+      <c r="O382" s="12" t="s">
         <v>586</v>
       </c>
-      <c r="P382" s="37">
+      <c r="P382" s="11">
         <v>414</v>
       </c>
-      <c r="Q382" s="37">
+      <c r="Q382" s="11">
         <v>211</v>
       </c>
-      <c r="R382" s="37">
+      <c r="R382" s="11">
         <v>25</v>
       </c>
-      <c r="S382" s="37">
+      <c r="S382" s="11">
         <v>66</v>
       </c>
-      <c r="T382" s="37">
+      <c r="T382" s="11">
         <v>19</v>
       </c>
       <c r="U382" t="s">
         <v>1141</v>
       </c>
-      <c r="V382" s="40"/>
-      <c r="W382" s="40" t="s">
+      <c r="V382" s="37"/>
+      <c r="W382" s="37" t="s">
         <v>1142</v>
       </c>
-      <c r="X382" s="40"/>
-    </row>
-    <row r="383" ht="15" spans="1:24">
+      <c r="X382" s="37"/>
+    </row>
+    <row r="383" ht="14.25" spans="1:24">
       <c r="A383">
         <v>339</v>
       </c>
@@ -24990,37 +25124,37 @@
       <c r="C383" t="s">
         <v>106</v>
       </c>
-      <c r="N383" s="37" t="s">
+      <c r="N383" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="O383" s="38" t="s">
+      <c r="O383" s="12" t="s">
         <v>586</v>
       </c>
-      <c r="P383" s="37">
+      <c r="P383" s="11">
         <v>1528</v>
       </c>
-      <c r="Q383" s="37">
+      <c r="Q383" s="11">
         <v>583</v>
       </c>
-      <c r="R383" s="37">
+      <c r="R383" s="11">
         <v>75</v>
       </c>
-      <c r="S383" s="37">
+      <c r="S383" s="11">
         <v>266</v>
       </c>
-      <c r="T383" s="37">
+      <c r="T383" s="11">
         <v>74</v>
       </c>
       <c r="U383" t="s">
         <v>1143</v>
       </c>
-      <c r="V383" s="40"/>
-      <c r="W383" s="40" t="s">
+      <c r="V383" s="37"/>
+      <c r="W383" s="37" t="s">
         <v>1144</v>
       </c>
-      <c r="X383" s="40"/>
-    </row>
-    <row r="384" ht="15" spans="1:24">
+      <c r="X383" s="37"/>
+    </row>
+    <row r="384" ht="14.25" spans="1:24">
       <c r="A384">
         <v>340</v>
       </c>
@@ -25030,37 +25164,37 @@
       <c r="C384" t="s">
         <v>106</v>
       </c>
-      <c r="N384" s="37" t="s">
+      <c r="N384" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="O384" s="38" t="s">
+      <c r="O384" s="12" t="s">
         <v>583</v>
       </c>
-      <c r="P384" s="37">
+      <c r="P384" s="11">
         <v>1748</v>
       </c>
-      <c r="Q384" s="37">
+      <c r="Q384" s="11">
         <v>747</v>
       </c>
-      <c r="R384" s="37">
+      <c r="R384" s="11">
         <v>101</v>
       </c>
-      <c r="S384" s="37">
+      <c r="S384" s="11">
         <v>214</v>
       </c>
-      <c r="T384" s="37">
+      <c r="T384" s="11">
         <v>92</v>
       </c>
       <c r="U384" t="s">
         <v>1145</v>
       </c>
-      <c r="V384" s="40"/>
-      <c r="W384" s="40" t="s">
+      <c r="V384" s="37"/>
+      <c r="W384" s="37" t="s">
         <v>1146</v>
       </c>
-      <c r="X384" s="40"/>
-    </row>
-    <row r="385" ht="15" spans="1:24">
+      <c r="X384" s="37"/>
+    </row>
+    <row r="385" ht="14.25" spans="1:24">
       <c r="A385">
         <v>341</v>
       </c>
@@ -25070,37 +25204,37 @@
       <c r="C385" t="s">
         <v>106</v>
       </c>
-      <c r="N385" s="37" t="s">
+      <c r="N385" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="O385" s="38" t="s">
+      <c r="O385" s="12" t="s">
         <v>581</v>
       </c>
-      <c r="P385" s="37">
+      <c r="P385" s="11">
         <v>1421</v>
       </c>
-      <c r="Q385" s="37">
+      <c r="Q385" s="11">
         <v>747</v>
       </c>
-      <c r="R385" s="37">
+      <c r="R385" s="11">
         <v>90</v>
       </c>
-      <c r="S385" s="37">
+      <c r="S385" s="11">
         <v>210</v>
       </c>
-      <c r="T385" s="37">
+      <c r="T385" s="11">
         <v>103</v>
       </c>
       <c r="U385" t="s">
         <v>1147</v>
       </c>
-      <c r="V385" s="40"/>
-      <c r="W385" s="44" t="s">
+      <c r="V385" s="37"/>
+      <c r="W385" s="7" t="s">
         <v>1148</v>
       </c>
-      <c r="X385" s="40"/>
-    </row>
-    <row r="386" ht="15" spans="1:24">
+      <c r="X385" s="37"/>
+    </row>
+    <row r="386" ht="14.25" spans="1:24">
       <c r="A386">
         <v>342</v>
       </c>
@@ -25110,37 +25244,37 @@
       <c r="C386" t="s">
         <v>106</v>
       </c>
-      <c r="N386" s="37" t="s">
+      <c r="N386" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="O386" s="38" t="s">
+      <c r="O386" s="12" t="s">
         <v>579</v>
       </c>
-      <c r="P386" s="37">
+      <c r="P386" s="11">
         <v>1614</v>
       </c>
-      <c r="Q386" s="37">
+      <c r="Q386" s="11">
         <v>831</v>
       </c>
-      <c r="R386" s="37">
+      <c r="R386" s="11">
         <v>109</v>
       </c>
-      <c r="S386" s="37">
+      <c r="S386" s="11">
         <v>207</v>
       </c>
-      <c r="T386" s="37">
+      <c r="T386" s="11">
         <v>91</v>
       </c>
       <c r="U386" t="s">
         <v>1149</v>
       </c>
-      <c r="V386" s="40"/>
-      <c r="W386" s="40" t="s">
+      <c r="V386" s="37"/>
+      <c r="W386" s="37" t="s">
         <v>1150</v>
       </c>
-      <c r="X386" s="40"/>
-    </row>
-    <row r="387" ht="15" spans="1:24">
+      <c r="X386" s="37"/>
+    </row>
+    <row r="387" ht="14.25" spans="1:24">
       <c r="A387">
         <v>343</v>
       </c>
@@ -25150,35 +25284,35 @@
       <c r="C387" t="s">
         <v>106</v>
       </c>
-      <c r="N387" s="37" t="s">
+      <c r="N387" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="O387" s="38" t="s">
+      <c r="O387" s="12" t="s">
         <v>577</v>
       </c>
-      <c r="P387" s="37">
+      <c r="P387" s="11">
         <v>1280</v>
       </c>
-      <c r="Q387" s="37">
+      <c r="Q387" s="11">
         <v>746</v>
       </c>
-      <c r="R387" s="37">
+      <c r="R387" s="11">
         <v>108</v>
       </c>
-      <c r="S387" s="37">
+      <c r="S387" s="11">
         <v>199</v>
       </c>
-      <c r="T387" s="37">
+      <c r="T387" s="11">
         <v>55</v>
       </c>
       <c r="U387" t="s">
         <v>1151</v>
       </c>
-      <c r="V387" s="40"/>
-      <c r="W387" s="40"/>
-      <c r="X387" s="40"/>
-    </row>
-    <row r="388" ht="15" spans="1:24">
+      <c r="V387" s="37"/>
+      <c r="W387" s="37"/>
+      <c r="X387" s="37"/>
+    </row>
+    <row r="388" ht="14.25" spans="1:24">
       <c r="A388">
         <v>344</v>
       </c>
@@ -25188,33 +25322,33 @@
       <c r="C388" t="s">
         <v>106</v>
       </c>
-      <c r="N388" s="37" t="s">
+      <c r="N388" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="O388" s="38" t="s">
+      <c r="O388" s="12" t="s">
         <v>575</v>
       </c>
-      <c r="P388" s="37">
+      <c r="P388" s="11">
         <v>1160</v>
       </c>
-      <c r="Q388" s="37">
+      <c r="Q388" s="11">
         <v>703</v>
       </c>
-      <c r="R388" s="37">
+      <c r="R388" s="11">
         <v>93</v>
       </c>
-      <c r="S388" s="37">
+      <c r="S388" s="11">
         <v>102</v>
       </c>
-      <c r="T388" s="37">
+      <c r="T388" s="11">
         <v>75</v>
       </c>
       <c r="U388" t="s">
         <v>1152</v>
       </c>
-      <c r="V388" s="40"/>
-      <c r="W388" s="40"/>
-      <c r="X388" s="40"/>
+      <c r="V388" s="37"/>
+      <c r="W388" s="37"/>
+      <c r="X388" s="37"/>
     </row>
     <row r="389" ht="14.25" spans="1:24">
       <c r="A389">
@@ -25226,33 +25360,33 @@
       <c r="C389" t="s">
         <v>106</v>
       </c>
-      <c r="N389" s="37" t="s">
+      <c r="N389" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="O389" s="38" t="s">
+      <c r="O389" s="12" t="s">
         <v>572</v>
       </c>
-      <c r="P389" s="37">
+      <c r="P389" s="11">
         <v>1143</v>
       </c>
-      <c r="Q389" s="37">
+      <c r="Q389" s="11">
         <v>699</v>
       </c>
-      <c r="R389" s="37">
+      <c r="R389" s="11">
         <v>85</v>
       </c>
-      <c r="S389" s="37">
+      <c r="S389" s="11">
         <v>204</v>
       </c>
-      <c r="T389" s="37">
+      <c r="T389" s="11">
         <v>68</v>
       </c>
       <c r="U389" t="s">
         <v>1153</v>
       </c>
-      <c r="V389" s="40"/>
-      <c r="W389" s="40"/>
-      <c r="X389" s="40"/>
+      <c r="V389" s="37"/>
+      <c r="W389" s="37"/>
+      <c r="X389" s="37"/>
     </row>
     <row r="390" ht="14.25" spans="1:24">
       <c r="A390">
@@ -25294,33 +25428,33 @@
       <c r="M390" t="s">
         <v>1155</v>
       </c>
-      <c r="N390" s="37" t="s">
+      <c r="N390" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="O390" s="38" t="s">
+      <c r="O390" s="12" t="s">
         <v>593</v>
       </c>
-      <c r="P390" s="37">
+      <c r="P390" s="11">
         <v>1198</v>
       </c>
-      <c r="Q390" s="37">
+      <c r="Q390" s="11">
         <v>362</v>
       </c>
-      <c r="R390" s="37">
+      <c r="R390" s="11">
         <v>43</v>
       </c>
-      <c r="S390" s="37">
+      <c r="S390" s="11">
         <v>150</v>
       </c>
-      <c r="T390" s="37">
+      <c r="T390" s="11">
         <v>21</v>
       </c>
-      <c r="U390" s="40" t="s">
+      <c r="U390" s="37" t="s">
         <v>1156</v>
       </c>
-      <c r="V390" s="40"/>
-      <c r="W390" s="40"/>
-      <c r="X390" s="40"/>
+      <c r="V390" s="37"/>
+      <c r="W390" s="37"/>
+      <c r="X390" s="37"/>
     </row>
     <row r="391" spans="1:21">
       <c r="A391">
@@ -25332,25 +25466,25 @@
       <c r="C391" t="s">
         <v>121</v>
       </c>
-      <c r="N391" s="37" t="s">
+      <c r="N391" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="O391" s="38" t="s">
+      <c r="O391" s="12" t="s">
         <v>589</v>
       </c>
-      <c r="P391" s="37">
+      <c r="P391" s="11">
         <v>321</v>
       </c>
-      <c r="Q391" s="37">
+      <c r="Q391" s="11">
         <v>101</v>
       </c>
-      <c r="R391" s="37">
+      <c r="R391" s="11">
         <v>12</v>
       </c>
-      <c r="S391" s="37">
+      <c r="S391" s="11">
         <v>41</v>
       </c>
-      <c r="T391" s="37">
+      <c r="T391" s="11">
         <v>10</v>
       </c>
       <c r="U391" t="s">
@@ -25367,25 +25501,25 @@
       <c r="C392" t="s">
         <v>121</v>
       </c>
-      <c r="N392" s="37" t="s">
+      <c r="N392" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="O392" s="38" t="s">
+      <c r="O392" s="12" t="s">
         <v>586</v>
       </c>
-      <c r="P392" s="37">
+      <c r="P392" s="11">
         <v>1145</v>
       </c>
-      <c r="Q392" s="37">
+      <c r="Q392" s="11">
         <v>325</v>
       </c>
-      <c r="R392" s="37">
+      <c r="R392" s="11">
         <v>40</v>
       </c>
-      <c r="S392" s="37">
+      <c r="S392" s="11">
         <v>135</v>
       </c>
-      <c r="T392" s="37">
+      <c r="T392" s="11">
         <v>15</v>
       </c>
       <c r="U392" t="s">
@@ -25402,25 +25536,25 @@
       <c r="C393" t="s">
         <v>121</v>
       </c>
-      <c r="N393" s="37" t="s">
+      <c r="N393" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="O393" s="38" t="s">
+      <c r="O393" s="12" t="s">
         <v>583</v>
       </c>
-      <c r="P393" s="37">
+      <c r="P393" s="11">
         <v>1036</v>
       </c>
-      <c r="Q393" s="37">
+      <c r="Q393" s="11">
         <v>281</v>
       </c>
-      <c r="R393" s="37">
+      <c r="R393" s="11">
         <v>42</v>
       </c>
-      <c r="S393" s="37">
+      <c r="S393" s="11">
         <v>135</v>
       </c>
-      <c r="T393" s="37">
+      <c r="T393" s="11">
         <v>19</v>
       </c>
       <c r="U393" t="s">
@@ -25437,25 +25571,25 @@
       <c r="C394" t="s">
         <v>121</v>
       </c>
-      <c r="N394" s="37" t="s">
+      <c r="N394" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="O394" s="38" t="s">
+      <c r="O394" s="12" t="s">
         <v>581</v>
       </c>
-      <c r="P394" s="37">
+      <c r="P394" s="11">
         <v>734</v>
       </c>
-      <c r="Q394" s="37">
+      <c r="Q394" s="11">
         <v>218</v>
       </c>
-      <c r="R394" s="37">
+      <c r="R394" s="11">
         <v>47</v>
       </c>
-      <c r="S394" s="37">
+      <c r="S394" s="11">
         <v>83</v>
       </c>
-      <c r="T394" s="37">
+      <c r="T394" s="11">
         <v>20</v>
       </c>
       <c r="U394" t="s">
@@ -25472,25 +25606,25 @@
       <c r="C395" t="s">
         <v>121</v>
       </c>
-      <c r="N395" s="37" t="s">
+      <c r="N395" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="O395" s="38" t="s">
+      <c r="O395" s="12" t="s">
         <v>577</v>
       </c>
-      <c r="P395" s="37">
+      <c r="P395" s="11">
         <v>1149</v>
       </c>
-      <c r="Q395" s="37">
+      <c r="Q395" s="11">
         <v>367</v>
       </c>
-      <c r="R395" s="37">
+      <c r="R395" s="11">
         <v>64</v>
       </c>
-      <c r="S395" s="37">
+      <c r="S395" s="11">
         <v>176</v>
       </c>
-      <c r="T395" s="37">
+      <c r="T395" s="11">
         <v>36</v>
       </c>
       <c r="U395" t="s">
@@ -25507,25 +25641,25 @@
       <c r="C396" t="s">
         <v>121</v>
       </c>
-      <c r="N396" s="37" t="s">
+      <c r="N396" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="O396" s="38" t="s">
+      <c r="O396" s="12" t="s">
         <v>575</v>
       </c>
-      <c r="P396" s="37">
+      <c r="P396" s="11">
         <v>628</v>
       </c>
-      <c r="Q396" s="37">
+      <c r="Q396" s="11">
         <v>202</v>
       </c>
-      <c r="R396" s="37">
+      <c r="R396" s="11">
         <v>42</v>
       </c>
-      <c r="S396" s="37">
+      <c r="S396" s="11">
         <v>116</v>
       </c>
-      <c r="T396" s="37">
+      <c r="T396" s="11">
         <v>23</v>
       </c>
       <c r="U396" t="s">
@@ -25542,25 +25676,25 @@
       <c r="C397" t="s">
         <v>121</v>
       </c>
-      <c r="N397" s="37" t="s">
+      <c r="N397" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="O397" s="38" t="s">
+      <c r="O397" s="12" t="s">
         <v>572</v>
       </c>
-      <c r="P397" s="37">
+      <c r="P397" s="11">
         <v>206</v>
       </c>
-      <c r="Q397" s="37">
+      <c r="Q397" s="11">
         <v>76</v>
       </c>
-      <c r="R397" s="37">
+      <c r="R397" s="11">
         <v>13</v>
       </c>
-      <c r="S397" s="37">
+      <c r="S397" s="11">
         <v>22</v>
       </c>
-      <c r="T397" s="37">
+      <c r="T397" s="11">
         <v>9</v>
       </c>
       <c r="U397" t="s">
@@ -25577,25 +25711,25 @@
       <c r="C398" t="s">
         <v>121</v>
       </c>
-      <c r="N398" s="37" t="s">
+      <c r="N398" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="O398" s="38" t="s">
+      <c r="O398" s="12" t="s">
         <v>570</v>
       </c>
-      <c r="P398" s="37">
+      <c r="P398" s="11">
         <v>764</v>
       </c>
-      <c r="Q398" s="37">
+      <c r="Q398" s="11">
         <v>229</v>
       </c>
-      <c r="R398" s="37">
+      <c r="R398" s="11">
         <v>38</v>
       </c>
-      <c r="S398" s="37">
+      <c r="S398" s="11">
         <v>82</v>
       </c>
-      <c r="T398" s="37">
+      <c r="T398" s="11">
         <v>18</v>
       </c>
       <c r="U398" t="s">
@@ -25612,32 +25746,32 @@
       <c r="C399" t="s">
         <v>121</v>
       </c>
-      <c r="N399" s="37" t="s">
+      <c r="N399" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="O399" s="38" t="s">
+      <c r="O399" s="12" t="s">
         <v>568</v>
       </c>
-      <c r="P399" s="37">
+      <c r="P399" s="11">
         <v>1221</v>
       </c>
-      <c r="Q399" s="37">
+      <c r="Q399" s="11">
         <v>398</v>
       </c>
-      <c r="R399" s="37">
+      <c r="R399" s="11">
         <v>75</v>
       </c>
-      <c r="S399" s="37">
+      <c r="S399" s="11">
         <v>135</v>
       </c>
-      <c r="T399" s="37">
+      <c r="T399" s="11">
         <v>58</v>
       </c>
       <c r="U399" t="s">
         <v>1165</v>
       </c>
     </row>
-    <row r="400" ht="14.25" spans="1:21">
+    <row r="400" spans="1:21">
       <c r="A400">
         <v>356</v>
       </c>
@@ -25647,25 +25781,25 @@
       <c r="C400" t="s">
         <v>121</v>
       </c>
-      <c r="N400" s="42" t="s">
+      <c r="N400" s="24" t="s">
         <v>351</v>
       </c>
-      <c r="O400" s="43" t="s">
+      <c r="O400" s="38" t="s">
         <v>568</v>
       </c>
-      <c r="P400" s="42">
+      <c r="P400" s="24">
         <v>170</v>
       </c>
-      <c r="Q400" s="42">
+      <c r="Q400" s="24">
         <v>55</v>
       </c>
-      <c r="R400" s="42">
+      <c r="R400" s="24">
         <v>14</v>
       </c>
-      <c r="S400" s="42">
+      <c r="S400" s="24">
         <v>15</v>
       </c>
-      <c r="T400" s="42">
+      <c r="T400" s="24">
         <v>4</v>
       </c>
       <c r="U400" t="s">
@@ -25712,28 +25846,28 @@
       <c r="M401" t="s">
         <v>1168</v>
       </c>
-      <c r="N401" s="37" t="s">
+      <c r="N401" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="O401" s="38" t="s">
+      <c r="O401" s="12" t="s">
         <v>593</v>
       </c>
-      <c r="P401" s="37">
+      <c r="P401" s="11">
         <v>1354</v>
       </c>
-      <c r="Q401" s="37">
+      <c r="Q401" s="11">
         <v>197</v>
       </c>
-      <c r="R401" s="37">
+      <c r="R401" s="11">
         <v>49</v>
       </c>
-      <c r="S401" s="37">
+      <c r="S401" s="11">
         <v>355</v>
       </c>
-      <c r="T401" s="37">
+      <c r="T401" s="11">
         <v>8</v>
       </c>
-      <c r="U401" s="38" t="s">
+      <c r="U401" s="12" t="s">
         <v>1169</v>
       </c>
     </row>
@@ -25747,28 +25881,28 @@
       <c r="C402" t="s">
         <v>121</v>
       </c>
-      <c r="N402" s="37" t="s">
+      <c r="N402" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="O402" s="38" t="s">
+      <c r="O402" s="12" t="s">
         <v>589</v>
       </c>
-      <c r="P402" s="37">
+      <c r="P402" s="11">
         <v>1782</v>
       </c>
-      <c r="Q402" s="37">
+      <c r="Q402" s="11">
         <v>198</v>
       </c>
-      <c r="R402" s="37">
+      <c r="R402" s="11">
         <v>85</v>
       </c>
-      <c r="S402" s="37">
+      <c r="S402" s="11">
         <v>417</v>
       </c>
-      <c r="T402" s="37">
+      <c r="T402" s="11">
         <v>19</v>
       </c>
-      <c r="U402" s="38" t="s">
+      <c r="U402" s="12" t="s">
         <v>1170</v>
       </c>
     </row>
@@ -25782,28 +25916,28 @@
       <c r="C403" t="s">
         <v>121</v>
       </c>
-      <c r="N403" s="37" t="s">
+      <c r="N403" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="O403" s="38" t="s">
+      <c r="O403" s="12" t="s">
         <v>586</v>
       </c>
-      <c r="P403" s="37">
+      <c r="P403" s="11">
         <v>343</v>
       </c>
-      <c r="Q403" s="37">
+      <c r="Q403" s="11">
         <v>70</v>
       </c>
-      <c r="R403" s="37">
+      <c r="R403" s="11">
         <v>15</v>
       </c>
-      <c r="S403" s="37">
+      <c r="S403" s="11">
         <v>56</v>
       </c>
-      <c r="T403" s="37">
+      <c r="T403" s="11">
         <v>9</v>
       </c>
-      <c r="U403" s="38" t="s">
+      <c r="U403" s="12" t="s">
         <v>1171</v>
       </c>
     </row>
@@ -25817,28 +25951,28 @@
       <c r="C404" t="s">
         <v>121</v>
       </c>
-      <c r="N404" s="37" t="s">
+      <c r="N404" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="O404" s="38" t="s">
+      <c r="O404" s="12" t="s">
         <v>586</v>
       </c>
-      <c r="P404" s="37">
+      <c r="P404" s="11">
         <v>1078</v>
       </c>
-      <c r="Q404" s="37">
+      <c r="Q404" s="11">
         <v>132</v>
       </c>
-      <c r="R404" s="37">
+      <c r="R404" s="11">
         <v>65</v>
       </c>
-      <c r="S404" s="37">
+      <c r="S404" s="11">
         <v>183</v>
       </c>
-      <c r="T404" s="37">
+      <c r="T404" s="11">
         <v>10</v>
       </c>
-      <c r="U404" s="38" t="s">
+      <c r="U404" s="12" t="s">
         <v>1172</v>
       </c>
     </row>
@@ -25852,28 +25986,28 @@
       <c r="C405" t="s">
         <v>121</v>
       </c>
-      <c r="N405" s="37" t="s">
+      <c r="N405" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="O405" s="38" t="s">
+      <c r="O405" s="12" t="s">
         <v>583</v>
       </c>
-      <c r="P405" s="37">
+      <c r="P405" s="11">
         <v>1028</v>
       </c>
-      <c r="Q405" s="37">
+      <c r="Q405" s="11">
         <v>169</v>
       </c>
-      <c r="R405" s="37">
+      <c r="R405" s="11">
         <v>62</v>
       </c>
-      <c r="S405" s="37">
+      <c r="S405" s="11">
         <v>167</v>
       </c>
-      <c r="T405" s="37">
+      <c r="T405" s="11">
         <v>19</v>
       </c>
-      <c r="U405" s="38" t="s">
+      <c r="U405" s="12" t="s">
         <v>1173</v>
       </c>
     </row>
@@ -25887,28 +26021,28 @@
       <c r="C406" t="s">
         <v>121</v>
       </c>
-      <c r="N406" s="37" t="s">
+      <c r="N406" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="O406" s="38" t="s">
+      <c r="O406" s="12" t="s">
         <v>581</v>
       </c>
-      <c r="P406" s="37">
+      <c r="P406" s="11">
         <v>1242</v>
       </c>
-      <c r="Q406" s="37">
+      <c r="Q406" s="11">
         <v>151</v>
       </c>
-      <c r="R406" s="37">
+      <c r="R406" s="11">
         <v>88</v>
       </c>
-      <c r="S406" s="37">
+      <c r="S406" s="11">
         <v>164</v>
       </c>
-      <c r="T406" s="37">
+      <c r="T406" s="11">
         <v>10</v>
       </c>
-      <c r="U406" s="38" t="s">
+      <c r="U406" s="12" t="s">
         <v>1174</v>
       </c>
     </row>
@@ -25922,28 +26056,28 @@
       <c r="C407" t="s">
         <v>121</v>
       </c>
-      <c r="N407" s="37" t="s">
+      <c r="N407" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="O407" s="38" t="s">
+      <c r="O407" s="12" t="s">
         <v>579</v>
       </c>
-      <c r="P407" s="37">
+      <c r="P407" s="11">
         <v>625</v>
       </c>
-      <c r="Q407" s="37">
+      <c r="Q407" s="11">
         <v>124</v>
       </c>
-      <c r="R407" s="37">
+      <c r="R407" s="11">
         <v>45</v>
       </c>
-      <c r="S407" s="37">
+      <c r="S407" s="11">
         <v>210</v>
       </c>
-      <c r="T407" s="37">
+      <c r="T407" s="11">
         <v>4</v>
       </c>
-      <c r="U407" s="38" t="s">
+      <c r="U407" s="12" t="s">
         <v>1175</v>
       </c>
     </row>
@@ -25957,28 +26091,28 @@
       <c r="C408" t="s">
         <v>121</v>
       </c>
-      <c r="N408" s="37" t="s">
+      <c r="N408" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="O408" s="38" t="s">
+      <c r="O408" s="12" t="s">
         <v>577</v>
       </c>
-      <c r="P408" s="37">
+      <c r="P408" s="11">
         <v>551</v>
       </c>
-      <c r="Q408" s="37">
+      <c r="Q408" s="11">
         <v>80</v>
       </c>
-      <c r="R408" s="37">
+      <c r="R408" s="11">
         <v>44</v>
       </c>
-      <c r="S408" s="37">
+      <c r="S408" s="11">
         <v>139</v>
       </c>
-      <c r="T408" s="37">
+      <c r="T408" s="11">
         <v>10</v>
       </c>
-      <c r="U408" s="38" t="s">
+      <c r="U408" s="12" t="s">
         <v>1176</v>
       </c>
     </row>
@@ -25992,28 +26126,28 @@
       <c r="C409" t="s">
         <v>121</v>
       </c>
-      <c r="N409" s="37" t="s">
+      <c r="N409" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="O409" s="38" t="s">
+      <c r="O409" s="12" t="s">
         <v>575</v>
       </c>
-      <c r="P409" s="37">
+      <c r="P409" s="11">
         <v>956</v>
       </c>
-      <c r="Q409" s="37">
+      <c r="Q409" s="11">
         <v>155</v>
       </c>
-      <c r="R409" s="37">
+      <c r="R409" s="11">
         <v>53</v>
       </c>
-      <c r="S409" s="37">
+      <c r="S409" s="11">
         <v>221</v>
       </c>
-      <c r="T409" s="37">
+      <c r="T409" s="11">
         <v>18</v>
       </c>
-      <c r="U409" s="38" t="s">
+      <c r="U409" s="12" t="s">
         <v>1177</v>
       </c>
     </row>
@@ -26027,28 +26161,28 @@
       <c r="C410" t="s">
         <v>121</v>
       </c>
-      <c r="N410" s="37" t="s">
+      <c r="N410" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="O410" s="38" t="s">
+      <c r="O410" s="12" t="s">
         <v>572</v>
       </c>
-      <c r="P410" s="37">
+      <c r="P410" s="11">
         <v>1027</v>
       </c>
-      <c r="Q410" s="37">
+      <c r="Q410" s="11">
         <v>149</v>
       </c>
-      <c r="R410" s="37">
+      <c r="R410" s="11">
         <v>47</v>
       </c>
-      <c r="S410" s="37">
+      <c r="S410" s="11">
         <v>252</v>
       </c>
-      <c r="T410" s="37">
+      <c r="T410" s="11">
         <v>17</v>
       </c>
-      <c r="U410" s="38" t="s">
+      <c r="U410" s="12" t="s">
         <v>1178</v>
       </c>
     </row>
@@ -26062,28 +26196,28 @@
       <c r="C411" t="s">
         <v>121</v>
       </c>
-      <c r="N411" s="37" t="s">
+      <c r="N411" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="O411" s="38" t="s">
+      <c r="O411" s="12" t="s">
         <v>570</v>
       </c>
-      <c r="P411" s="37">
+      <c r="P411" s="11">
         <v>898</v>
       </c>
-      <c r="Q411" s="37">
+      <c r="Q411" s="11">
         <v>187</v>
       </c>
-      <c r="R411" s="37">
+      <c r="R411" s="11">
         <v>80</v>
       </c>
-      <c r="S411" s="37">
+      <c r="S411" s="11">
         <v>268</v>
       </c>
-      <c r="T411" s="37">
+      <c r="T411" s="11">
         <v>15</v>
       </c>
-      <c r="U411" s="38" t="s">
+      <c r="U411" s="12" t="s">
         <v>1179</v>
       </c>
     </row>
@@ -26097,28 +26231,28 @@
       <c r="C412" t="s">
         <v>121</v>
       </c>
-      <c r="N412" s="37" t="s">
+      <c r="N412" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="O412" s="38" t="s">
+      <c r="O412" s="12" t="s">
         <v>568</v>
       </c>
-      <c r="P412" s="37">
+      <c r="P412" s="11">
         <v>1039</v>
       </c>
-      <c r="Q412" s="37">
+      <c r="Q412" s="11">
         <v>165</v>
       </c>
-      <c r="R412" s="37">
+      <c r="R412" s="11">
         <v>85</v>
       </c>
-      <c r="S412" s="37">
+      <c r="S412" s="11">
         <v>242</v>
       </c>
-      <c r="T412" s="37">
+      <c r="T412" s="11">
         <v>14</v>
       </c>
-      <c r="U412" s="38" t="s">
+      <c r="U412" s="12" t="s">
         <v>1180</v>
       </c>
     </row>
@@ -26132,28 +26266,28 @@
       <c r="C413" t="s">
         <v>121</v>
       </c>
-      <c r="N413" s="37" t="s">
+      <c r="N413" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="O413" s="38" t="s">
+      <c r="O413" s="12" t="s">
         <v>653</v>
       </c>
-      <c r="P413" s="37">
+      <c r="P413" s="11">
         <v>920</v>
       </c>
-      <c r="Q413" s="37">
+      <c r="Q413" s="11">
         <v>167</v>
       </c>
-      <c r="R413" s="37">
+      <c r="R413" s="11">
         <v>81</v>
       </c>
-      <c r="S413" s="37">
+      <c r="S413" s="11">
         <v>253</v>
       </c>
-      <c r="T413" s="37">
+      <c r="T413" s="11">
         <v>13</v>
       </c>
-      <c r="U413" s="38" t="s">
+      <c r="U413" s="12" t="s">
         <v>1181</v>
       </c>
     </row>
@@ -26167,28 +26301,28 @@
       <c r="C414" t="s">
         <v>121</v>
       </c>
-      <c r="N414" s="37" t="s">
+      <c r="N414" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="O414" s="38" t="s">
+      <c r="O414" s="12" t="s">
         <v>650</v>
       </c>
-      <c r="P414" s="37">
+      <c r="P414" s="11">
         <v>262</v>
       </c>
-      <c r="Q414" s="37">
+      <c r="Q414" s="11">
         <v>70</v>
       </c>
-      <c r="R414" s="37">
+      <c r="R414" s="11">
         <v>22</v>
       </c>
-      <c r="S414" s="37">
+      <c r="S414" s="11">
         <v>110</v>
       </c>
-      <c r="T414" s="37">
+      <c r="T414" s="11">
         <v>1</v>
       </c>
-      <c r="U414" s="38" t="s">
+      <c r="U414" s="12" t="s">
         <v>1182</v>
       </c>
     </row>
@@ -26202,28 +26336,28 @@
       <c r="C415" t="s">
         <v>121</v>
       </c>
-      <c r="N415" s="37" t="s">
+      <c r="N415" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="O415" s="38" t="s">
+      <c r="O415" s="12" t="s">
         <v>647</v>
       </c>
-      <c r="P415" s="37">
+      <c r="P415" s="11">
         <v>56</v>
       </c>
-      <c r="Q415" s="37">
+      <c r="Q415" s="11">
         <v>19</v>
       </c>
-      <c r="R415" s="37">
+      <c r="R415" s="11">
         <v>5</v>
       </c>
-      <c r="S415" s="37">
+      <c r="S415" s="11">
         <v>10</v>
       </c>
-      <c r="T415" s="37">
+      <c r="T415" s="11">
         <v>0</v>
       </c>
-      <c r="U415" s="38" t="s">
+      <c r="U415" s="12" t="s">
         <v>1183</v>
       </c>
     </row>
@@ -26264,11 +26398,1105 @@
       <c r="A419">
         <v>365</v>
       </c>
-      <c r="B419" s="41" t="s">
+      <c r="B419" s="5" t="s">
         <v>135</v>
       </c>
       <c r="C419" t="s">
         <v>121</v>
+      </c>
+    </row>
+    <row r="420" ht="14.25" spans="1:23">
+      <c r="A420">
+        <v>366</v>
+      </c>
+      <c r="B420" t="s">
+        <v>184</v>
+      </c>
+      <c r="C420" t="s">
+        <v>181</v>
+      </c>
+      <c r="D420">
+        <v>20.2</v>
+      </c>
+      <c r="E420">
+        <v>10.8</v>
+      </c>
+      <c r="F420">
+        <v>7.6</v>
+      </c>
+      <c r="G420">
+        <v>1.34</v>
+      </c>
+      <c r="H420">
+        <v>0.69</v>
+      </c>
+      <c r="I420">
+        <v>15</v>
+      </c>
+      <c r="J420">
+        <v>2.13</v>
+      </c>
+      <c r="K420">
+        <v>113</v>
+      </c>
+      <c r="L420" t="s">
+        <v>1184</v>
+      </c>
+      <c r="M420" t="s">
+        <v>1185</v>
+      </c>
+      <c r="N420" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="O420" t="s">
+        <v>593</v>
+      </c>
+      <c r="P420" s="39">
+        <v>1436</v>
+      </c>
+      <c r="Q420" s="39">
+        <v>764</v>
+      </c>
+      <c r="R420" s="39">
+        <v>95</v>
+      </c>
+      <c r="S420" s="39">
+        <v>537</v>
+      </c>
+      <c r="T420" s="39">
+        <v>50</v>
+      </c>
+      <c r="U420" s="40" t="s">
+        <v>1186</v>
+      </c>
+      <c r="W420" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="421" ht="14.25" spans="1:21">
+      <c r="A421">
+        <v>367</v>
+      </c>
+      <c r="B421" t="s">
+        <v>184</v>
+      </c>
+      <c r="C421" t="s">
+        <v>181</v>
+      </c>
+      <c r="N421" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="O421" t="s">
+        <v>589</v>
+      </c>
+      <c r="P421" s="39">
+        <v>1385</v>
+      </c>
+      <c r="Q421" s="39">
+        <v>803</v>
+      </c>
+      <c r="R421" s="39">
+        <v>90</v>
+      </c>
+      <c r="S421" s="39">
+        <v>458</v>
+      </c>
+      <c r="T421" s="39">
+        <v>61</v>
+      </c>
+      <c r="U421" s="40" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="422" ht="14.25" spans="1:21">
+      <c r="A422">
+        <v>368</v>
+      </c>
+      <c r="B422" t="s">
+        <v>184</v>
+      </c>
+      <c r="C422" t="s">
+        <v>181</v>
+      </c>
+      <c r="N422" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="O422" t="s">
+        <v>586</v>
+      </c>
+      <c r="P422" s="39">
+        <v>1221</v>
+      </c>
+      <c r="Q422" s="39">
+        <v>718</v>
+      </c>
+      <c r="R422" s="39">
+        <v>61</v>
+      </c>
+      <c r="S422" s="39">
+        <v>359</v>
+      </c>
+      <c r="T422" s="39">
+        <v>55</v>
+      </c>
+      <c r="U422" s="40" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="423" ht="14.25" spans="1:21">
+      <c r="A423">
+        <v>369</v>
+      </c>
+      <c r="B423" t="s">
+        <v>184</v>
+      </c>
+      <c r="C423" t="s">
+        <v>181</v>
+      </c>
+      <c r="N423" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="O423" t="s">
+        <v>583</v>
+      </c>
+      <c r="P423" s="39">
+        <v>796</v>
+      </c>
+      <c r="Q423" s="39">
+        <v>560</v>
+      </c>
+      <c r="R423" s="39">
+        <v>79</v>
+      </c>
+      <c r="S423" s="39">
+        <v>189</v>
+      </c>
+      <c r="T423" s="39">
+        <v>50</v>
+      </c>
+      <c r="U423" s="40" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="424" ht="14.25" spans="1:23">
+      <c r="A424">
+        <v>370</v>
+      </c>
+      <c r="B424" t="s">
+        <v>188</v>
+      </c>
+      <c r="C424" t="s">
+        <v>181</v>
+      </c>
+      <c r="D424">
+        <v>17.9</v>
+      </c>
+      <c r="E424">
+        <v>4.2</v>
+      </c>
+      <c r="F424">
+        <v>4.8</v>
+      </c>
+      <c r="G424">
+        <v>0.83</v>
+      </c>
+      <c r="H424">
+        <v>0.83</v>
+      </c>
+      <c r="I424">
+        <v>27</v>
+      </c>
+      <c r="J424">
+        <v>1.93</v>
+      </c>
+      <c r="K424">
+        <v>94</v>
+      </c>
+      <c r="L424" t="s">
+        <v>1191</v>
+      </c>
+      <c r="M424" t="s">
+        <v>1192</v>
+      </c>
+      <c r="N424" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="O424" t="s">
+        <v>593</v>
+      </c>
+      <c r="P424" s="39">
+        <v>1182</v>
+      </c>
+      <c r="Q424" s="39">
+        <v>276</v>
+      </c>
+      <c r="R424" s="39">
+        <v>55</v>
+      </c>
+      <c r="S424" s="39">
+        <v>316</v>
+      </c>
+      <c r="T424" s="39">
+        <v>24</v>
+      </c>
+      <c r="U424" s="40" t="s">
+        <v>1193</v>
+      </c>
+      <c r="W424" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="425" ht="14.25" spans="1:23">
+      <c r="A425">
+        <v>371</v>
+      </c>
+      <c r="B425" t="s">
+        <v>188</v>
+      </c>
+      <c r="C425" t="s">
+        <v>181</v>
+      </c>
+      <c r="N425" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="O425" t="s">
+        <v>589</v>
+      </c>
+      <c r="P425" s="39">
+        <v>1352</v>
+      </c>
+      <c r="Q425" s="39">
+        <v>297</v>
+      </c>
+      <c r="R425" s="39">
+        <v>79</v>
+      </c>
+      <c r="S425" s="39">
+        <v>274</v>
+      </c>
+      <c r="T425" s="39">
+        <v>28</v>
+      </c>
+      <c r="U425" s="40" t="s">
+        <v>1195</v>
+      </c>
+      <c r="W425" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="426" ht="14.25" spans="1:21">
+      <c r="A426">
+        <v>372</v>
+      </c>
+      <c r="B426" t="s">
+        <v>188</v>
+      </c>
+      <c r="C426" t="s">
+        <v>181</v>
+      </c>
+      <c r="N426" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="O426" t="s">
+        <v>586</v>
+      </c>
+      <c r="P426" s="39">
+        <v>811</v>
+      </c>
+      <c r="Q426" s="39">
+        <v>214</v>
+      </c>
+      <c r="R426" s="39">
+        <v>51</v>
+      </c>
+      <c r="S426" s="39">
+        <v>170</v>
+      </c>
+      <c r="T426" s="39">
+        <v>24</v>
+      </c>
+      <c r="U426" s="40" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="427" ht="14.25" spans="2:23">
+      <c r="B427" t="s">
+        <v>183</v>
+      </c>
+      <c r="C427" t="s">
+        <v>181</v>
+      </c>
+      <c r="D427">
+        <v>12.9</v>
+      </c>
+      <c r="E427">
+        <v>7.2</v>
+      </c>
+      <c r="F427">
+        <v>2</v>
+      </c>
+      <c r="G427">
+        <v>1.26</v>
+      </c>
+      <c r="H427">
+        <v>0.82</v>
+      </c>
+      <c r="I427">
+        <v>4</v>
+      </c>
+      <c r="J427">
+        <v>2.03</v>
+      </c>
+      <c r="K427">
+        <v>112</v>
+      </c>
+      <c r="L427" t="s">
+        <v>1198</v>
+      </c>
+      <c r="M427" t="s">
+        <v>1199</v>
+      </c>
+      <c r="N427" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="O427" t="s">
+        <v>593</v>
+      </c>
+      <c r="P427" s="39">
+        <v>785</v>
+      </c>
+      <c r="Q427" s="39">
+        <v>438</v>
+      </c>
+      <c r="R427" s="39">
+        <v>78</v>
+      </c>
+      <c r="S427" s="39">
+        <v>120</v>
+      </c>
+      <c r="T427" s="39">
+        <v>50</v>
+      </c>
+      <c r="U427" s="40" t="s">
+        <v>1200</v>
+      </c>
+      <c r="W427" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="428" ht="14.25" spans="2:23">
+      <c r="B428" t="s">
+        <v>183</v>
+      </c>
+      <c r="C428" t="s">
+        <v>181</v>
+      </c>
+      <c r="N428" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="O428" t="s">
+        <v>589</v>
+      </c>
+      <c r="P428" s="39">
+        <v>555</v>
+      </c>
+      <c r="Q428" s="39">
+        <v>245</v>
+      </c>
+      <c r="R428" s="39">
+        <v>39</v>
+      </c>
+      <c r="S428" s="39">
+        <v>105</v>
+      </c>
+      <c r="T428" s="39">
+        <v>44</v>
+      </c>
+      <c r="U428" s="40" t="s">
+        <v>1202</v>
+      </c>
+      <c r="W428" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="429" ht="14.25" spans="2:23">
+      <c r="B429" t="s">
+        <v>183</v>
+      </c>
+      <c r="C429" t="s">
+        <v>181</v>
+      </c>
+      <c r="N429" s="39" t="s">
+        <v>426</v>
+      </c>
+      <c r="O429" t="s">
+        <v>586</v>
+      </c>
+      <c r="P429" s="39">
+        <v>1246</v>
+      </c>
+      <c r="Q429" s="39">
+        <v>533</v>
+      </c>
+      <c r="R429" s="39">
+        <v>90</v>
+      </c>
+      <c r="S429" s="39">
+        <v>252</v>
+      </c>
+      <c r="T429" s="39">
+        <v>62</v>
+      </c>
+      <c r="U429" s="40" t="s">
+        <v>1203</v>
+      </c>
+      <c r="W429" s="41" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="430" ht="14.25" spans="2:23">
+      <c r="B430" t="s">
+        <v>183</v>
+      </c>
+      <c r="C430" t="s">
+        <v>181</v>
+      </c>
+      <c r="N430" s="39" t="s">
+        <v>426</v>
+      </c>
+      <c r="O430" t="s">
+        <v>583</v>
+      </c>
+      <c r="P430" s="39">
+        <v>1385</v>
+      </c>
+      <c r="Q430" s="39">
+        <v>732</v>
+      </c>
+      <c r="R430" s="39">
+        <v>147</v>
+      </c>
+      <c r="S430" s="39">
+        <v>265</v>
+      </c>
+      <c r="T430" s="39">
+        <v>139</v>
+      </c>
+      <c r="U430" s="40" t="s">
+        <v>1205</v>
+      </c>
+      <c r="W430" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="431" ht="14.25" spans="2:23">
+      <c r="B431" t="s">
+        <v>183</v>
+      </c>
+      <c r="C431" t="s">
+        <v>181</v>
+      </c>
+      <c r="N431" s="39" t="s">
+        <v>426</v>
+      </c>
+      <c r="O431" t="s">
+        <v>581</v>
+      </c>
+      <c r="P431" s="39">
+        <v>1218</v>
+      </c>
+      <c r="Q431" s="39">
+        <v>570</v>
+      </c>
+      <c r="R431" s="39">
+        <v>130</v>
+      </c>
+      <c r="S431" s="39">
+        <v>223</v>
+      </c>
+      <c r="T431" s="39">
+        <v>69</v>
+      </c>
+      <c r="U431" s="40" t="s">
+        <v>1207</v>
+      </c>
+      <c r="W431" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="432" ht="14.25" spans="2:23">
+      <c r="B432" t="s">
+        <v>183</v>
+      </c>
+      <c r="C432" t="s">
+        <v>181</v>
+      </c>
+      <c r="N432" s="39" t="s">
+        <v>426</v>
+      </c>
+      <c r="O432" t="s">
+        <v>579</v>
+      </c>
+      <c r="P432" s="39">
+        <v>1328</v>
+      </c>
+      <c r="Q432" s="39">
+        <v>627</v>
+      </c>
+      <c r="R432" s="39">
+        <v>129</v>
+      </c>
+      <c r="S432" s="39">
+        <v>232</v>
+      </c>
+      <c r="T432" s="39">
+        <v>78</v>
+      </c>
+      <c r="U432" s="40" t="s">
+        <v>1209</v>
+      </c>
+      <c r="W432" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="433" ht="14.25" spans="2:21">
+      <c r="B433" t="s">
+        <v>183</v>
+      </c>
+      <c r="C433" t="s">
+        <v>181</v>
+      </c>
+      <c r="N433" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="O433" t="s">
+        <v>577</v>
+      </c>
+      <c r="P433" s="39">
+        <v>1135</v>
+      </c>
+      <c r="Q433" s="39">
+        <v>554</v>
+      </c>
+      <c r="R433" s="39">
+        <v>102</v>
+      </c>
+      <c r="S433" s="39">
+        <v>201</v>
+      </c>
+      <c r="T433" s="39">
+        <v>80</v>
+      </c>
+      <c r="U433" s="40" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="434" ht="14.25" spans="2:21">
+      <c r="B434" t="s">
+        <v>183</v>
+      </c>
+      <c r="C434" t="s">
+        <v>181</v>
+      </c>
+      <c r="N434" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="O434" t="s">
+        <v>575</v>
+      </c>
+      <c r="P434" s="39">
+        <v>1061</v>
+      </c>
+      <c r="Q434" s="39">
+        <v>563</v>
+      </c>
+      <c r="R434" s="39">
+        <v>118</v>
+      </c>
+      <c r="S434" s="39">
+        <v>150</v>
+      </c>
+      <c r="T434" s="39">
+        <v>52</v>
+      </c>
+      <c r="U434" s="40" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="435" ht="14.25" spans="2:21">
+      <c r="B435" t="s">
+        <v>183</v>
+      </c>
+      <c r="C435" t="s">
+        <v>181</v>
+      </c>
+      <c r="N435" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="O435" t="s">
+        <v>572</v>
+      </c>
+      <c r="P435" s="39">
+        <v>1315</v>
+      </c>
+      <c r="Q435" s="39">
+        <v>579</v>
+      </c>
+      <c r="R435" s="39">
+        <v>103</v>
+      </c>
+      <c r="S435" s="39">
+        <v>187</v>
+      </c>
+      <c r="T435" s="39">
+        <v>69</v>
+      </c>
+      <c r="U435" s="40" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="436" ht="14.25" spans="2:21">
+      <c r="B436" t="s">
+        <v>183</v>
+      </c>
+      <c r="C436" t="s">
+        <v>181</v>
+      </c>
+      <c r="N436" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="O436" t="s">
+        <v>570</v>
+      </c>
+      <c r="P436" s="39">
+        <v>954</v>
+      </c>
+      <c r="Q436" s="39">
+        <v>559</v>
+      </c>
+      <c r="R436" s="39">
+        <v>64</v>
+      </c>
+      <c r="S436" s="39">
+        <v>131</v>
+      </c>
+      <c r="T436" s="39">
+        <v>99</v>
+      </c>
+      <c r="U436" s="40" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="437" ht="14.25" spans="2:21">
+      <c r="B437" t="s">
+        <v>183</v>
+      </c>
+      <c r="C437" t="s">
+        <v>181</v>
+      </c>
+      <c r="N437" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="O437" t="s">
+        <v>568</v>
+      </c>
+      <c r="P437" s="39">
+        <v>1028</v>
+      </c>
+      <c r="Q437" s="39">
+        <v>654</v>
+      </c>
+      <c r="R437" s="39">
+        <v>78</v>
+      </c>
+      <c r="S437" s="39">
+        <v>138</v>
+      </c>
+      <c r="T437" s="39">
+        <v>73</v>
+      </c>
+      <c r="U437" s="40" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="438" ht="14.25" spans="2:21">
+      <c r="B438" t="s">
+        <v>183</v>
+      </c>
+      <c r="C438" t="s">
+        <v>181</v>
+      </c>
+      <c r="N438" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="O438" t="s">
+        <v>653</v>
+      </c>
+      <c r="P438" s="39">
+        <v>661</v>
+      </c>
+      <c r="Q438" s="39">
+        <v>460</v>
+      </c>
+      <c r="R438" s="39">
+        <v>72</v>
+      </c>
+      <c r="S438" s="39">
+        <v>81</v>
+      </c>
+      <c r="T438" s="39">
+        <v>73</v>
+      </c>
+      <c r="U438" s="40" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="439" ht="14.25" spans="2:21">
+      <c r="B439" t="s">
+        <v>183</v>
+      </c>
+      <c r="C439" t="s">
+        <v>181</v>
+      </c>
+      <c r="N439" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="O439" t="s">
+        <v>650</v>
+      </c>
+      <c r="P439" s="39">
+        <v>559</v>
+      </c>
+      <c r="Q439" s="39">
+        <v>423</v>
+      </c>
+      <c r="R439" s="39">
+        <v>67</v>
+      </c>
+      <c r="S439" s="39">
+        <v>62</v>
+      </c>
+      <c r="T439" s="39">
+        <v>74</v>
+      </c>
+      <c r="U439" s="40" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="440" ht="14.25" spans="2:21">
+      <c r="B440" t="s">
+        <v>185</v>
+      </c>
+      <c r="C440" t="s">
+        <v>181</v>
+      </c>
+      <c r="D440">
+        <v>13.5</v>
+      </c>
+      <c r="E440">
+        <v>2.9</v>
+      </c>
+      <c r="F440">
+        <v>2.4</v>
+      </c>
+      <c r="G440">
+        <v>0.94</v>
+      </c>
+      <c r="H440">
+        <v>0.38</v>
+      </c>
+      <c r="I440">
+        <v>14</v>
+      </c>
+      <c r="J440">
+        <v>1.93</v>
+      </c>
+      <c r="K440">
+        <v>95</v>
+      </c>
+      <c r="L440" t="s">
+        <v>1218</v>
+      </c>
+      <c r="M440" t="s">
+        <v>1219</v>
+      </c>
+      <c r="N440" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="O440" t="s">
+        <v>593</v>
+      </c>
+      <c r="P440" s="39">
+        <v>636</v>
+      </c>
+      <c r="Q440" s="39">
+        <v>139</v>
+      </c>
+      <c r="R440" s="39">
+        <v>44</v>
+      </c>
+      <c r="S440" s="39">
+        <v>112</v>
+      </c>
+      <c r="T440" s="39">
+        <v>18</v>
+      </c>
+      <c r="U440" s="40" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="441" ht="14.25" spans="2:21">
+      <c r="B441" t="s">
+        <v>185</v>
+      </c>
+      <c r="C441" t="s">
+        <v>181</v>
+      </c>
+      <c r="N441" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="O441" t="s">
+        <v>589</v>
+      </c>
+      <c r="P441" s="39">
+        <v>1170</v>
+      </c>
+      <c r="Q441" s="39">
+        <v>176</v>
+      </c>
+      <c r="R441" s="39">
+        <v>122</v>
+      </c>
+      <c r="S441" s="39">
+        <v>194</v>
+      </c>
+      <c r="T441" s="39">
+        <v>15</v>
+      </c>
+      <c r="U441" s="40" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="442" ht="14.25" spans="2:21">
+      <c r="B442" t="s">
+        <v>185</v>
+      </c>
+      <c r="C442" t="s">
+        <v>181</v>
+      </c>
+      <c r="N442" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="O442" t="s">
+        <v>586</v>
+      </c>
+      <c r="P442" s="39">
+        <v>851</v>
+      </c>
+      <c r="Q442" s="39">
+        <v>178</v>
+      </c>
+      <c r="R442" s="39">
+        <v>71</v>
+      </c>
+      <c r="S442" s="39">
+        <v>164</v>
+      </c>
+      <c r="T442" s="39">
+        <v>8</v>
+      </c>
+      <c r="U442" s="40" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="443" ht="14.25" spans="2:21">
+      <c r="B443" t="s">
+        <v>185</v>
+      </c>
+      <c r="C443" t="s">
+        <v>181</v>
+      </c>
+      <c r="N443" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="O443" t="s">
+        <v>583</v>
+      </c>
+      <c r="P443" s="39">
+        <v>932</v>
+      </c>
+      <c r="Q443" s="39">
+        <v>220</v>
+      </c>
+      <c r="R443" s="39">
+        <v>97</v>
+      </c>
+      <c r="S443" s="39">
+        <v>147</v>
+      </c>
+      <c r="T443" s="39">
+        <v>18</v>
+      </c>
+      <c r="U443" s="40" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="444" ht="14.25" spans="2:21">
+      <c r="B444" t="s">
+        <v>185</v>
+      </c>
+      <c r="C444" t="s">
+        <v>181</v>
+      </c>
+      <c r="N444" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="O444" t="s">
+        <v>581</v>
+      </c>
+      <c r="P444" s="39">
+        <v>188</v>
+      </c>
+      <c r="Q444" s="39">
+        <v>64</v>
+      </c>
+      <c r="R444" s="39">
+        <v>39</v>
+      </c>
+      <c r="S444" s="39">
+        <v>29</v>
+      </c>
+      <c r="T444" s="39">
+        <v>7</v>
+      </c>
+      <c r="U444" s="40" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="445" ht="14.25" spans="2:21">
+      <c r="B445" t="s">
+        <v>195</v>
+      </c>
+      <c r="C445" t="s">
+        <v>181</v>
+      </c>
+      <c r="D445">
+        <v>11.4</v>
+      </c>
+      <c r="E445">
+        <v>2.5</v>
+      </c>
+      <c r="F445">
+        <v>1.2</v>
+      </c>
+      <c r="G445">
+        <v>0.65</v>
+      </c>
+      <c r="H445">
+        <v>0.12</v>
+      </c>
+      <c r="I445">
+        <v>25</v>
+      </c>
+      <c r="J445">
+        <v>1.96</v>
+      </c>
+      <c r="K445">
+        <v>89</v>
+      </c>
+      <c r="L445" t="s">
+        <v>1225</v>
+      </c>
+      <c r="M445" t="s">
+        <v>1226</v>
+      </c>
+      <c r="N445" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="O445" t="s">
+        <v>593</v>
+      </c>
+      <c r="P445" s="39">
+        <v>822</v>
+      </c>
+      <c r="Q445" s="39">
+        <v>183</v>
+      </c>
+      <c r="R445" s="39">
+        <v>47</v>
+      </c>
+      <c r="S445" s="39">
+        <v>89</v>
+      </c>
+      <c r="T445" s="39">
+        <v>9</v>
+      </c>
+      <c r="U445" s="40" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="446" ht="14.25" spans="2:21">
+      <c r="B446" t="s">
+        <v>195</v>
+      </c>
+      <c r="C446" t="s">
+        <v>181</v>
+      </c>
+      <c r="N446" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="O446" t="s">
+        <v>589</v>
+      </c>
+      <c r="P446" s="39">
+        <v>196</v>
+      </c>
+      <c r="Q446" s="39">
+        <v>71</v>
+      </c>
+      <c r="R446" s="39">
+        <v>15</v>
+      </c>
+      <c r="S446" s="39">
+        <v>31</v>
+      </c>
+      <c r="T446" s="39">
+        <v>7</v>
+      </c>
+      <c r="U446" s="40" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="447" ht="14.25" spans="2:21">
+      <c r="B447" t="s">
+        <v>195</v>
+      </c>
+      <c r="C447" t="s">
+        <v>181</v>
+      </c>
+      <c r="N447" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="O447" t="s">
+        <v>586</v>
+      </c>
+      <c r="P447" s="39">
+        <v>83</v>
+      </c>
+      <c r="Q447" s="39">
+        <v>17</v>
+      </c>
+      <c r="R447" s="39">
+        <v>7</v>
+      </c>
+      <c r="S447" s="39">
+        <v>11</v>
+      </c>
+      <c r="T447" s="39">
+        <v>0</v>
+      </c>
+      <c r="U447" s="40" t="s">
+        <v>1229</v>
       </c>
     </row>
   </sheetData>
@@ -26308,7 +27536,7 @@
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A16"/>
+      <selection activeCell="A1" sqref="A1:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/网站相关/data.xlsx
+++ b/网站相关/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3707" uniqueCount="1230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3913" uniqueCount="1285">
   <si>
     <t>主键</t>
   </si>
@@ -3723,6 +3723,171 @@
   </si>
   <si>
     <t>0.8篮板0.5助攻0.32抢断0盖帽3.8分</t>
+  </si>
+  <si>
+    <t>2012年第1轮第6顺位</t>
+  </si>
+  <si>
+    <t>5年1.4亿美元，2015年夏天签，2016年夏天生效，2021年夏天到期</t>
+  </si>
+  <si>
+    <t>4.6篮板6.8助攻1.15抢断0.43盖帽26.4分</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2019年全明星西部替补阵容</t>
+  </si>
+  <si>
+    <t>4.5篮板6.6助攻1.05抢断0.37盖帽26.9分</t>
+  </si>
+  <si>
+    <t>4.9篮板5.9助攻0.91抢断0.27盖帽27.0分</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2017-18赛季最佳阵容第一阵容</t>
+  </si>
+  <si>
+    <t>4.0篮板6.8助攻0.87抢断0.37盖帽25.1分</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2016-17赛季魔术师约翰逊奖 </t>
+  </si>
+  <si>
+    <t>4.6篮板6.2助攻1.18抢断0.26盖帽21.0分</t>
+  </si>
+  <si>
+    <t>3.5篮板5.6助攻0.78抢断0.27盖帽20.7分</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2015年全明星阵容 </t>
+  </si>
+  <si>
+    <t>3.1篮板6.5助攻0.90抢断0.23盖帽19.0分</t>
+  </si>
+  <si>
+    <t>2013-14赛季最佳阵容第三阵容</t>
+  </si>
+  <si>
+    <t>全明星技巧挑战赛冠军</t>
+  </si>
+  <si>
+    <t>2014全明星西部替补阵容</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-13赛季最佳新秀  </t>
+  </si>
+  <si>
+    <t>2013年第1轮第10顺位</t>
+  </si>
+  <si>
+    <t>4年1047万美元，2013年夏天签，2017年夏天到期；2016年夏天以4年1.07亿提前续约，2017年夏天生效，2021年夏天到期</t>
+  </si>
+  <si>
+    <t>4.0篮板2.9助攻0.79抢断0.40盖帽21.3分</t>
+  </si>
+  <si>
+    <t>4.0篮板3.4助攻0.95抢断0.43盖帽21.4分</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-16赛季进步最快球员 </t>
+  </si>
+  <si>
+    <t>3.6篮板3.6助攻0.90抢断0.53盖帽23.0分</t>
+  </si>
+  <si>
+    <t>3.2篮板4.3助攻1.21抢断0.29盖帽20.8分</t>
+  </si>
+  <si>
+    <t>1.5篮板1.0助攻0.69抢断0.13盖帽6.8分</t>
+  </si>
+  <si>
+    <t>1.3篮板0.7助攻0.37抢断0.05盖帽5.3分</t>
+  </si>
+  <si>
+    <t>2014年第1轮第16顺位</t>
+  </si>
+  <si>
+    <t>4年4800万美元，2018年夏天签，2022年夏天到期，2021-22赛季交易保证金400万</t>
+  </si>
+  <si>
+    <t>10.4篮板3.2助攻0.99抢断1.43盖帽15.6分</t>
+  </si>
+  <si>
+    <t>2014-15赛季最佳新秀阵容第二阵容</t>
+  </si>
+  <si>
+    <t>9.0篮板1.8助攻0.81抢断1.41盖帽14.3分</t>
+  </si>
+  <si>
+    <t>10.3篮板3.1助攻1.25抢断1.90盖帽15.2分</t>
+  </si>
+  <si>
+    <t>5.8篮板1.3助攻0.56抢断0.80盖帽8.0分</t>
+  </si>
+  <si>
+    <t>5.5篮板1.2助攻0.75抢断1.38盖帽8.2分</t>
+  </si>
+  <si>
+    <t>6.2篮板0.8助攻0.84抢断1.10盖帽6.9分</t>
+  </si>
+  <si>
+    <t>2010年第1轮第8顺位</t>
+  </si>
+  <si>
+    <t>4年3000万美元，2015年夏天签，2019年夏天到期</t>
+  </si>
+  <si>
+    <t>7.4篮板1.3助攻0.86抢断0.40盖帽9.3分</t>
+  </si>
+  <si>
+    <t>7.6篮板1.2助攻1.14抢断0.58盖帽9.3分</t>
+  </si>
+  <si>
+    <t>7.4篮板1.6助攻0.98抢断0.72盖帽8.7分</t>
+  </si>
+  <si>
+    <t>6.1篮板1.7助攻0.88抢断0.65盖帽10.2分</t>
+  </si>
+  <si>
+    <t>4.6篮板0.8助攻0.95抢断0.84盖帽5.6分</t>
+  </si>
+  <si>
+    <t>6.2篮板1.4助攻1.02抢断0.47盖帽7.2分</t>
+  </si>
+  <si>
+    <t>7.7篮板1.4助攻1.21抢断0.67盖帽7.3分</t>
+  </si>
+  <si>
+    <t>4.7篮板1助攻0.89抢断0.52盖帽6.0分</t>
+  </si>
+  <si>
+    <t>3.3篮板0.7助攻0.73抢断0.31盖帽5.6分</t>
+  </si>
+  <si>
+    <t>2012年第1轮第15顺位</t>
+  </si>
+  <si>
+    <t>4年4200万，2016年夏天签，2020年夏天到期</t>
+  </si>
+  <si>
+    <t>4.3篮板1.2助攻1.12抢断0.81盖帽7.3分</t>
+  </si>
+  <si>
+    <t>2.7篮板0.9助攻0.81抢断0.73盖帽6.5分</t>
+  </si>
+  <si>
+    <t>4.4篮板1.1助攻1.10抢断0.91盖帽10.0分</t>
+  </si>
+  <si>
+    <t>3.6篮板0.9助攻0.63抢断0.45盖帽6.4分</t>
+  </si>
+  <si>
+    <t>2.4篮板0.6助攻0.71抢断0.20盖帽3.5分</t>
+  </si>
+  <si>
+    <t>3.3篮板1助攻1.21抢断0.62盖帽7.4分</t>
+  </si>
+  <si>
+    <t>4.4篮板0.7助攻1.16抢断0.82盖帽8.2分</t>
   </si>
 </sst>
 </file>
@@ -3825,14 +3990,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -3840,7 +3997,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3848,13 +4012,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3884,18 +4041,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3908,7 +4073,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3931,7 +4096,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3942,21 +4122,6 @@
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3981,7 +4146,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3993,7 +4242,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4005,109 +4314,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4119,49 +4326,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4390,59 +4555,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4485,6 +4600,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4493,10 +4658,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4505,7 +4670,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4514,10 +4679,10 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4526,116 +4691,116 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="34" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4755,9 +4920,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -8024,7 +8186,7 @@
       <c r="C192" t="s">
         <v>227</v>
       </c>
-      <c r="J192" s="42" t="s">
+      <c r="J192" s="41" t="s">
         <v>233</v>
       </c>
     </row>
@@ -8260,7 +8422,7 @@
       <c r="C208" t="s">
         <v>243</v>
       </c>
-      <c r="J208" s="44" t="s">
+      <c r="J208" s="43" t="s">
         <v>251</v>
       </c>
     </row>
@@ -8378,7 +8540,7 @@
       <c r="E216">
         <v>18</v>
       </c>
-      <c r="F216" s="43">
+      <c r="F216" s="42">
         <v>0.743</v>
       </c>
       <c r="G216" t="s">
@@ -8774,7 +8936,7 @@
       <c r="C243" t="s">
         <v>276</v>
       </c>
-      <c r="J243" s="45" t="s">
+      <c r="J243" s="44" t="s">
         <v>289</v>
       </c>
     </row>
@@ -8856,7 +9018,7 @@
       <c r="C248" t="s">
         <v>299</v>
       </c>
-      <c r="J248" s="42" t="s">
+      <c r="J248" s="41" t="s">
         <v>300</v>
       </c>
     </row>
@@ -8954,7 +9116,7 @@
       <c r="C255" t="s">
         <v>313</v>
       </c>
-      <c r="J255" s="42" t="s">
+      <c r="J255" s="41" t="s">
         <v>314</v>
       </c>
     </row>
@@ -8968,7 +9130,7 @@
       <c r="C256" t="s">
         <v>315</v>
       </c>
-      <c r="J256" s="42" t="s">
+      <c r="J256" s="41" t="s">
         <v>316</v>
       </c>
     </row>
@@ -9328,7 +9490,7 @@
       <c r="C280" t="s">
         <v>336</v>
       </c>
-      <c r="J280" s="42" t="s">
+      <c r="J280" s="41" t="s">
         <v>344</v>
       </c>
     </row>
@@ -9536,7 +9698,7 @@
       <c r="C294" t="s">
         <v>351</v>
       </c>
-      <c r="J294" s="42" t="s">
+      <c r="J294" s="41" t="s">
         <v>359</v>
       </c>
     </row>
@@ -11532,10 +11694,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X447"/>
+  <dimension ref="A1:X486"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A421" workbookViewId="0">
-      <selection activeCell="B445" sqref="B445:C447"/>
+    <sheetView tabSelected="1" topLeftCell="A457" workbookViewId="0">
+      <selection activeCell="B480" sqref="B480:C486"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -26445,28 +26607,28 @@
       <c r="M420" t="s">
         <v>1185</v>
       </c>
-      <c r="N420" s="39" t="s">
+      <c r="N420" s="32" t="s">
         <v>181</v>
       </c>
       <c r="O420" t="s">
         <v>593</v>
       </c>
-      <c r="P420" s="39">
+      <c r="P420" s="32">
         <v>1436</v>
       </c>
-      <c r="Q420" s="39">
+      <c r="Q420" s="32">
         <v>764</v>
       </c>
-      <c r="R420" s="39">
+      <c r="R420" s="32">
         <v>95</v>
       </c>
-      <c r="S420" s="39">
+      <c r="S420" s="32">
         <v>537</v>
       </c>
-      <c r="T420" s="39">
+      <c r="T420" s="32">
         <v>50</v>
       </c>
-      <c r="U420" s="40" t="s">
+      <c r="U420" s="37" t="s">
         <v>1186</v>
       </c>
       <c r="W420" t="s">
@@ -26483,28 +26645,28 @@
       <c r="C421" t="s">
         <v>181</v>
       </c>
-      <c r="N421" s="39" t="s">
+      <c r="N421" s="32" t="s">
         <v>181</v>
       </c>
       <c r="O421" t="s">
         <v>589</v>
       </c>
-      <c r="P421" s="39">
+      <c r="P421" s="32">
         <v>1385</v>
       </c>
-      <c r="Q421" s="39">
+      <c r="Q421" s="32">
         <v>803</v>
       </c>
-      <c r="R421" s="39">
+      <c r="R421" s="32">
         <v>90</v>
       </c>
-      <c r="S421" s="39">
+      <c r="S421" s="32">
         <v>458</v>
       </c>
-      <c r="T421" s="39">
+      <c r="T421" s="32">
         <v>61</v>
       </c>
-      <c r="U421" s="40" t="s">
+      <c r="U421" s="37" t="s">
         <v>1188</v>
       </c>
     </row>
@@ -26518,28 +26680,28 @@
       <c r="C422" t="s">
         <v>181</v>
       </c>
-      <c r="N422" s="39" t="s">
+      <c r="N422" s="32" t="s">
         <v>181</v>
       </c>
       <c r="O422" t="s">
         <v>586</v>
       </c>
-      <c r="P422" s="39">
+      <c r="P422" s="32">
         <v>1221</v>
       </c>
-      <c r="Q422" s="39">
+      <c r="Q422" s="32">
         <v>718</v>
       </c>
-      <c r="R422" s="39">
+      <c r="R422" s="32">
         <v>61</v>
       </c>
-      <c r="S422" s="39">
+      <c r="S422" s="32">
         <v>359</v>
       </c>
-      <c r="T422" s="39">
+      <c r="T422" s="32">
         <v>55</v>
       </c>
-      <c r="U422" s="40" t="s">
+      <c r="U422" s="37" t="s">
         <v>1189</v>
       </c>
     </row>
@@ -26553,28 +26715,28 @@
       <c r="C423" t="s">
         <v>181</v>
       </c>
-      <c r="N423" s="39" t="s">
+      <c r="N423" s="32" t="s">
         <v>181</v>
       </c>
       <c r="O423" t="s">
         <v>583</v>
       </c>
-      <c r="P423" s="39">
+      <c r="P423" s="32">
         <v>796</v>
       </c>
-      <c r="Q423" s="39">
+      <c r="Q423" s="32">
         <v>560</v>
       </c>
-      <c r="R423" s="39">
+      <c r="R423" s="32">
         <v>79</v>
       </c>
-      <c r="S423" s="39">
+      <c r="S423" s="32">
         <v>189</v>
       </c>
-      <c r="T423" s="39">
+      <c r="T423" s="32">
         <v>50</v>
       </c>
-      <c r="U423" s="40" t="s">
+      <c r="U423" s="37" t="s">
         <v>1190</v>
       </c>
     </row>
@@ -26618,28 +26780,28 @@
       <c r="M424" t="s">
         <v>1192</v>
       </c>
-      <c r="N424" s="39" t="s">
+      <c r="N424" s="32" t="s">
         <v>181</v>
       </c>
       <c r="O424" t="s">
         <v>593</v>
       </c>
-      <c r="P424" s="39">
+      <c r="P424" s="32">
         <v>1182</v>
       </c>
-      <c r="Q424" s="39">
+      <c r="Q424" s="32">
         <v>276</v>
       </c>
-      <c r="R424" s="39">
+      <c r="R424" s="32">
         <v>55</v>
       </c>
-      <c r="S424" s="39">
+      <c r="S424" s="32">
         <v>316</v>
       </c>
-      <c r="T424" s="39">
+      <c r="T424" s="32">
         <v>24</v>
       </c>
-      <c r="U424" s="40" t="s">
+      <c r="U424" s="37" t="s">
         <v>1193</v>
       </c>
       <c r="W424" t="s">
@@ -26656,28 +26818,28 @@
       <c r="C425" t="s">
         <v>181</v>
       </c>
-      <c r="N425" s="39" t="s">
+      <c r="N425" s="32" t="s">
         <v>181</v>
       </c>
       <c r="O425" t="s">
         <v>589</v>
       </c>
-      <c r="P425" s="39">
+      <c r="P425" s="32">
         <v>1352</v>
       </c>
-      <c r="Q425" s="39">
+      <c r="Q425" s="32">
         <v>297</v>
       </c>
-      <c r="R425" s="39">
+      <c r="R425" s="32">
         <v>79</v>
       </c>
-      <c r="S425" s="39">
+      <c r="S425" s="32">
         <v>274</v>
       </c>
-      <c r="T425" s="39">
+      <c r="T425" s="32">
         <v>28</v>
       </c>
-      <c r="U425" s="40" t="s">
+      <c r="U425" s="37" t="s">
         <v>1195</v>
       </c>
       <c r="W425" t="s">
@@ -26694,28 +26856,28 @@
       <c r="C426" t="s">
         <v>181</v>
       </c>
-      <c r="N426" s="39" t="s">
+      <c r="N426" s="32" t="s">
         <v>181</v>
       </c>
       <c r="O426" t="s">
         <v>586</v>
       </c>
-      <c r="P426" s="39">
+      <c r="P426" s="32">
         <v>811</v>
       </c>
-      <c r="Q426" s="39">
+      <c r="Q426" s="32">
         <v>214</v>
       </c>
-      <c r="R426" s="39">
+      <c r="R426" s="32">
         <v>51</v>
       </c>
-      <c r="S426" s="39">
+      <c r="S426" s="32">
         <v>170</v>
       </c>
-      <c r="T426" s="39">
+      <c r="T426" s="32">
         <v>24</v>
       </c>
-      <c r="U426" s="40" t="s">
+      <c r="U426" s="37" t="s">
         <v>1197</v>
       </c>
     </row>
@@ -26756,28 +26918,28 @@
       <c r="M427" t="s">
         <v>1199</v>
       </c>
-      <c r="N427" s="39" t="s">
+      <c r="N427" s="32" t="s">
         <v>181</v>
       </c>
       <c r="O427" t="s">
         <v>593</v>
       </c>
-      <c r="P427" s="39">
+      <c r="P427" s="32">
         <v>785</v>
       </c>
-      <c r="Q427" s="39">
+      <c r="Q427" s="32">
         <v>438</v>
       </c>
-      <c r="R427" s="39">
+      <c r="R427" s="32">
         <v>78</v>
       </c>
-      <c r="S427" s="39">
+      <c r="S427" s="32">
         <v>120</v>
       </c>
-      <c r="T427" s="39">
+      <c r="T427" s="32">
         <v>50</v>
       </c>
-      <c r="U427" s="40" t="s">
+      <c r="U427" s="37" t="s">
         <v>1200</v>
       </c>
       <c r="W427" t="s">
@@ -26791,28 +26953,28 @@
       <c r="C428" t="s">
         <v>181</v>
       </c>
-      <c r="N428" s="39" t="s">
+      <c r="N428" s="32" t="s">
         <v>181</v>
       </c>
       <c r="O428" t="s">
         <v>589</v>
       </c>
-      <c r="P428" s="39">
+      <c r="P428" s="32">
         <v>555</v>
       </c>
-      <c r="Q428" s="39">
+      <c r="Q428" s="32">
         <v>245</v>
       </c>
-      <c r="R428" s="39">
+      <c r="R428" s="32">
         <v>39</v>
       </c>
-      <c r="S428" s="39">
+      <c r="S428" s="32">
         <v>105</v>
       </c>
-      <c r="T428" s="39">
+      <c r="T428" s="32">
         <v>44</v>
       </c>
-      <c r="U428" s="40" t="s">
+      <c r="U428" s="37" t="s">
         <v>1202</v>
       </c>
       <c r="W428" t="s">
@@ -26826,31 +26988,31 @@
       <c r="C429" t="s">
         <v>181</v>
       </c>
-      <c r="N429" s="39" t="s">
+      <c r="N429" s="32" t="s">
         <v>426</v>
       </c>
       <c r="O429" t="s">
         <v>586</v>
       </c>
-      <c r="P429" s="39">
+      <c r="P429" s="32">
         <v>1246</v>
       </c>
-      <c r="Q429" s="39">
+      <c r="Q429" s="32">
         <v>533</v>
       </c>
-      <c r="R429" s="39">
+      <c r="R429" s="32">
         <v>90</v>
       </c>
-      <c r="S429" s="39">
+      <c r="S429" s="32">
         <v>252</v>
       </c>
-      <c r="T429" s="39">
+      <c r="T429" s="32">
         <v>62</v>
       </c>
-      <c r="U429" s="40" t="s">
+      <c r="U429" s="37" t="s">
         <v>1203</v>
       </c>
-      <c r="W429" s="41" t="s">
+      <c r="W429" s="7" t="s">
         <v>1204</v>
       </c>
     </row>
@@ -26861,28 +27023,28 @@
       <c r="C430" t="s">
         <v>181</v>
       </c>
-      <c r="N430" s="39" t="s">
+      <c r="N430" s="32" t="s">
         <v>426</v>
       </c>
       <c r="O430" t="s">
         <v>583</v>
       </c>
-      <c r="P430" s="39">
+      <c r="P430" s="32">
         <v>1385</v>
       </c>
-      <c r="Q430" s="39">
+      <c r="Q430" s="32">
         <v>732</v>
       </c>
-      <c r="R430" s="39">
+      <c r="R430" s="32">
         <v>147</v>
       </c>
-      <c r="S430" s="39">
+      <c r="S430" s="32">
         <v>265</v>
       </c>
-      <c r="T430" s="39">
+      <c r="T430" s="32">
         <v>139</v>
       </c>
-      <c r="U430" s="40" t="s">
+      <c r="U430" s="37" t="s">
         <v>1205</v>
       </c>
       <c r="W430" t="s">
@@ -26896,28 +27058,28 @@
       <c r="C431" t="s">
         <v>181</v>
       </c>
-      <c r="N431" s="39" t="s">
+      <c r="N431" s="32" t="s">
         <v>426</v>
       </c>
       <c r="O431" t="s">
         <v>581</v>
       </c>
-      <c r="P431" s="39">
+      <c r="P431" s="32">
         <v>1218</v>
       </c>
-      <c r="Q431" s="39">
+      <c r="Q431" s="32">
         <v>570</v>
       </c>
-      <c r="R431" s="39">
+      <c r="R431" s="32">
         <v>130</v>
       </c>
-      <c r="S431" s="39">
+      <c r="S431" s="32">
         <v>223</v>
       </c>
-      <c r="T431" s="39">
+      <c r="T431" s="32">
         <v>69</v>
       </c>
-      <c r="U431" s="40" t="s">
+      <c r="U431" s="37" t="s">
         <v>1207</v>
       </c>
       <c r="W431" t="s">
@@ -26931,28 +27093,28 @@
       <c r="C432" t="s">
         <v>181</v>
       </c>
-      <c r="N432" s="39" t="s">
+      <c r="N432" s="32" t="s">
         <v>426</v>
       </c>
       <c r="O432" t="s">
         <v>579</v>
       </c>
-      <c r="P432" s="39">
+      <c r="P432" s="32">
         <v>1328</v>
       </c>
-      <c r="Q432" s="39">
+      <c r="Q432" s="32">
         <v>627</v>
       </c>
-      <c r="R432" s="39">
+      <c r="R432" s="32">
         <v>129</v>
       </c>
-      <c r="S432" s="39">
+      <c r="S432" s="32">
         <v>232</v>
       </c>
-      <c r="T432" s="39">
+      <c r="T432" s="32">
         <v>78</v>
       </c>
-      <c r="U432" s="40" t="s">
+      <c r="U432" s="37" t="s">
         <v>1209</v>
       </c>
       <c r="W432" t="s">
@@ -26966,28 +27128,28 @@
       <c r="C433" t="s">
         <v>181</v>
       </c>
-      <c r="N433" s="39" t="s">
+      <c r="N433" s="32" t="s">
         <v>227</v>
       </c>
       <c r="O433" t="s">
         <v>577</v>
       </c>
-      <c r="P433" s="39">
+      <c r="P433" s="32">
         <v>1135</v>
       </c>
-      <c r="Q433" s="39">
+      <c r="Q433" s="32">
         <v>554</v>
       </c>
-      <c r="R433" s="39">
+      <c r="R433" s="32">
         <v>102</v>
       </c>
-      <c r="S433" s="39">
+      <c r="S433" s="32">
         <v>201</v>
       </c>
-      <c r="T433" s="39">
+      <c r="T433" s="32">
         <v>80</v>
       </c>
-      <c r="U433" s="40" t="s">
+      <c r="U433" s="37" t="s">
         <v>1211</v>
       </c>
     </row>
@@ -26998,28 +27160,28 @@
       <c r="C434" t="s">
         <v>181</v>
       </c>
-      <c r="N434" s="39" t="s">
+      <c r="N434" s="32" t="s">
         <v>227</v>
       </c>
       <c r="O434" t="s">
         <v>575</v>
       </c>
-      <c r="P434" s="39">
+      <c r="P434" s="32">
         <v>1061</v>
       </c>
-      <c r="Q434" s="39">
+      <c r="Q434" s="32">
         <v>563</v>
       </c>
-      <c r="R434" s="39">
+      <c r="R434" s="32">
         <v>118</v>
       </c>
-      <c r="S434" s="39">
+      <c r="S434" s="32">
         <v>150</v>
       </c>
-      <c r="T434" s="39">
+      <c r="T434" s="32">
         <v>52</v>
       </c>
-      <c r="U434" s="40" t="s">
+      <c r="U434" s="37" t="s">
         <v>1212</v>
       </c>
     </row>
@@ -27030,28 +27192,28 @@
       <c r="C435" t="s">
         <v>181</v>
       </c>
-      <c r="N435" s="39" t="s">
+      <c r="N435" s="32" t="s">
         <v>227</v>
       </c>
       <c r="O435" t="s">
         <v>572</v>
       </c>
-      <c r="P435" s="39">
+      <c r="P435" s="32">
         <v>1315</v>
       </c>
-      <c r="Q435" s="39">
+      <c r="Q435" s="32">
         <v>579</v>
       </c>
-      <c r="R435" s="39">
+      <c r="R435" s="32">
         <v>103</v>
       </c>
-      <c r="S435" s="39">
+      <c r="S435" s="32">
         <v>187</v>
       </c>
-      <c r="T435" s="39">
+      <c r="T435" s="32">
         <v>69</v>
       </c>
-      <c r="U435" s="40" t="s">
+      <c r="U435" s="37" t="s">
         <v>1213</v>
       </c>
     </row>
@@ -27062,28 +27224,28 @@
       <c r="C436" t="s">
         <v>181</v>
       </c>
-      <c r="N436" s="39" t="s">
+      <c r="N436" s="32" t="s">
         <v>227</v>
       </c>
       <c r="O436" t="s">
         <v>570</v>
       </c>
-      <c r="P436" s="39">
+      <c r="P436" s="32">
         <v>954</v>
       </c>
-      <c r="Q436" s="39">
+      <c r="Q436" s="32">
         <v>559</v>
       </c>
-      <c r="R436" s="39">
+      <c r="R436" s="32">
         <v>64</v>
       </c>
-      <c r="S436" s="39">
+      <c r="S436" s="32">
         <v>131</v>
       </c>
-      <c r="T436" s="39">
+      <c r="T436" s="32">
         <v>99</v>
       </c>
-      <c r="U436" s="40" t="s">
+      <c r="U436" s="37" t="s">
         <v>1214</v>
       </c>
     </row>
@@ -27094,28 +27256,28 @@
       <c r="C437" t="s">
         <v>181</v>
       </c>
-      <c r="N437" s="39" t="s">
+      <c r="N437" s="32" t="s">
         <v>227</v>
       </c>
       <c r="O437" t="s">
         <v>568</v>
       </c>
-      <c r="P437" s="39">
+      <c r="P437" s="32">
         <v>1028</v>
       </c>
-      <c r="Q437" s="39">
+      <c r="Q437" s="32">
         <v>654</v>
       </c>
-      <c r="R437" s="39">
+      <c r="R437" s="32">
         <v>78</v>
       </c>
-      <c r="S437" s="39">
+      <c r="S437" s="32">
         <v>138</v>
       </c>
-      <c r="T437" s="39">
+      <c r="T437" s="32">
         <v>73</v>
       </c>
-      <c r="U437" s="40" t="s">
+      <c r="U437" s="37" t="s">
         <v>1215</v>
       </c>
     </row>
@@ -27126,28 +27288,28 @@
       <c r="C438" t="s">
         <v>181</v>
       </c>
-      <c r="N438" s="39" t="s">
+      <c r="N438" s="32" t="s">
         <v>227</v>
       </c>
       <c r="O438" t="s">
         <v>653</v>
       </c>
-      <c r="P438" s="39">
+      <c r="P438" s="32">
         <v>661</v>
       </c>
-      <c r="Q438" s="39">
+      <c r="Q438" s="32">
         <v>460</v>
       </c>
-      <c r="R438" s="39">
+      <c r="R438" s="32">
         <v>72</v>
       </c>
-      <c r="S438" s="39">
+      <c r="S438" s="32">
         <v>81</v>
       </c>
-      <c r="T438" s="39">
+      <c r="T438" s="32">
         <v>73</v>
       </c>
-      <c r="U438" s="40" t="s">
+      <c r="U438" s="37" t="s">
         <v>1216</v>
       </c>
     </row>
@@ -27158,28 +27320,28 @@
       <c r="C439" t="s">
         <v>181</v>
       </c>
-      <c r="N439" s="39" t="s">
+      <c r="N439" s="32" t="s">
         <v>227</v>
       </c>
       <c r="O439" t="s">
         <v>650</v>
       </c>
-      <c r="P439" s="39">
+      <c r="P439" s="32">
         <v>559</v>
       </c>
-      <c r="Q439" s="39">
+      <c r="Q439" s="32">
         <v>423</v>
       </c>
-      <c r="R439" s="39">
+      <c r="R439" s="32">
         <v>67</v>
       </c>
-      <c r="S439" s="39">
+      <c r="S439" s="32">
         <v>62</v>
       </c>
-      <c r="T439" s="39">
+      <c r="T439" s="32">
         <v>74</v>
       </c>
-      <c r="U439" s="40" t="s">
+      <c r="U439" s="37" t="s">
         <v>1217</v>
       </c>
     </row>
@@ -27220,28 +27382,28 @@
       <c r="M440" t="s">
         <v>1219</v>
       </c>
-      <c r="N440" s="39" t="s">
+      <c r="N440" s="32" t="s">
         <v>181</v>
       </c>
       <c r="O440" t="s">
         <v>593</v>
       </c>
-      <c r="P440" s="39">
+      <c r="P440" s="32">
         <v>636</v>
       </c>
-      <c r="Q440" s="39">
+      <c r="Q440" s="32">
         <v>139</v>
       </c>
-      <c r="R440" s="39">
+      <c r="R440" s="32">
         <v>44</v>
       </c>
-      <c r="S440" s="39">
+      <c r="S440" s="32">
         <v>112</v>
       </c>
-      <c r="T440" s="39">
+      <c r="T440" s="32">
         <v>18</v>
       </c>
-      <c r="U440" s="40" t="s">
+      <c r="U440" s="37" t="s">
         <v>1220</v>
       </c>
     </row>
@@ -27252,28 +27414,28 @@
       <c r="C441" t="s">
         <v>181</v>
       </c>
-      <c r="N441" s="39" t="s">
+      <c r="N441" s="32" t="s">
         <v>181</v>
       </c>
       <c r="O441" t="s">
         <v>589</v>
       </c>
-      <c r="P441" s="39">
+      <c r="P441" s="32">
         <v>1170</v>
       </c>
-      <c r="Q441" s="39">
+      <c r="Q441" s="32">
         <v>176</v>
       </c>
-      <c r="R441" s="39">
+      <c r="R441" s="32">
         <v>122</v>
       </c>
-      <c r="S441" s="39">
+      <c r="S441" s="32">
         <v>194</v>
       </c>
-      <c r="T441" s="39">
+      <c r="T441" s="32">
         <v>15</v>
       </c>
-      <c r="U441" s="40" t="s">
+      <c r="U441" s="37" t="s">
         <v>1221</v>
       </c>
     </row>
@@ -27284,28 +27446,28 @@
       <c r="C442" t="s">
         <v>181</v>
       </c>
-      <c r="N442" s="39" t="s">
+      <c r="N442" s="32" t="s">
         <v>181</v>
       </c>
       <c r="O442" t="s">
         <v>586</v>
       </c>
-      <c r="P442" s="39">
+      <c r="P442" s="32">
         <v>851</v>
       </c>
-      <c r="Q442" s="39">
+      <c r="Q442" s="32">
         <v>178</v>
       </c>
-      <c r="R442" s="39">
+      <c r="R442" s="32">
         <v>71</v>
       </c>
-      <c r="S442" s="39">
+      <c r="S442" s="32">
         <v>164</v>
       </c>
-      <c r="T442" s="39">
+      <c r="T442" s="32">
         <v>8</v>
       </c>
-      <c r="U442" s="40" t="s">
+      <c r="U442" s="37" t="s">
         <v>1222</v>
       </c>
     </row>
@@ -27316,28 +27478,28 @@
       <c r="C443" t="s">
         <v>181</v>
       </c>
-      <c r="N443" s="39" t="s">
+      <c r="N443" s="32" t="s">
         <v>181</v>
       </c>
       <c r="O443" t="s">
         <v>583</v>
       </c>
-      <c r="P443" s="39">
+      <c r="P443" s="32">
         <v>932</v>
       </c>
-      <c r="Q443" s="39">
+      <c r="Q443" s="32">
         <v>220</v>
       </c>
-      <c r="R443" s="39">
+      <c r="R443" s="32">
         <v>97</v>
       </c>
-      <c r="S443" s="39">
+      <c r="S443" s="32">
         <v>147</v>
       </c>
-      <c r="T443" s="39">
+      <c r="T443" s="32">
         <v>18</v>
       </c>
-      <c r="U443" s="40" t="s">
+      <c r="U443" s="37" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -27348,28 +27510,28 @@
       <c r="C444" t="s">
         <v>181</v>
       </c>
-      <c r="N444" s="39" t="s">
+      <c r="N444" s="32" t="s">
         <v>181</v>
       </c>
       <c r="O444" t="s">
         <v>581</v>
       </c>
-      <c r="P444" s="39">
+      <c r="P444" s="32">
         <v>188</v>
       </c>
-      <c r="Q444" s="39">
+      <c r="Q444" s="32">
         <v>64</v>
       </c>
-      <c r="R444" s="39">
+      <c r="R444" s="32">
         <v>39</v>
       </c>
-      <c r="S444" s="39">
+      <c r="S444" s="32">
         <v>29</v>
       </c>
-      <c r="T444" s="39">
+      <c r="T444" s="32">
         <v>7</v>
       </c>
-      <c r="U444" s="40" t="s">
+      <c r="U444" s="37" t="s">
         <v>1224</v>
       </c>
     </row>
@@ -27410,28 +27572,28 @@
       <c r="M445" t="s">
         <v>1226</v>
       </c>
-      <c r="N445" s="39" t="s">
+      <c r="N445" s="32" t="s">
         <v>181</v>
       </c>
       <c r="O445" t="s">
         <v>593</v>
       </c>
-      <c r="P445" s="39">
+      <c r="P445" s="32">
         <v>822</v>
       </c>
-      <c r="Q445" s="39">
+      <c r="Q445" s="32">
         <v>183</v>
       </c>
-      <c r="R445" s="39">
+      <c r="R445" s="32">
         <v>47</v>
       </c>
-      <c r="S445" s="39">
+      <c r="S445" s="32">
         <v>89</v>
       </c>
-      <c r="T445" s="39">
+      <c r="T445" s="32">
         <v>9</v>
       </c>
-      <c r="U445" s="40" t="s">
+      <c r="U445" s="37" t="s">
         <v>1227</v>
       </c>
     </row>
@@ -27442,28 +27604,28 @@
       <c r="C446" t="s">
         <v>181</v>
       </c>
-      <c r="N446" s="39" t="s">
+      <c r="N446" s="32" t="s">
         <v>181</v>
       </c>
       <c r="O446" t="s">
         <v>589</v>
       </c>
-      <c r="P446" s="39">
+      <c r="P446" s="32">
         <v>196</v>
       </c>
-      <c r="Q446" s="39">
+      <c r="Q446" s="32">
         <v>71</v>
       </c>
-      <c r="R446" s="39">
+      <c r="R446" s="32">
         <v>15</v>
       </c>
-      <c r="S446" s="39">
+      <c r="S446" s="32">
         <v>31</v>
       </c>
-      <c r="T446" s="39">
+      <c r="T446" s="32">
         <v>7</v>
       </c>
-      <c r="U446" s="40" t="s">
+      <c r="U446" s="37" t="s">
         <v>1228</v>
       </c>
     </row>
@@ -27474,29 +27636,1374 @@
       <c r="C447" t="s">
         <v>181</v>
       </c>
-      <c r="N447" s="39" t="s">
+      <c r="N447" s="32" t="s">
         <v>181</v>
       </c>
       <c r="O447" t="s">
         <v>586</v>
       </c>
-      <c r="P447" s="39">
+      <c r="P447" s="32">
         <v>83</v>
       </c>
-      <c r="Q447" s="39">
+      <c r="Q447" s="32">
         <v>17</v>
       </c>
-      <c r="R447" s="39">
+      <c r="R447" s="32">
         <v>7</v>
       </c>
-      <c r="S447" s="39">
+      <c r="S447" s="32">
         <v>11</v>
       </c>
-      <c r="T447" s="39">
+      <c r="T447" s="32">
         <v>0</v>
       </c>
-      <c r="U447" s="40" t="s">
+      <c r="U447" s="37" t="s">
         <v>1229</v>
+      </c>
+    </row>
+    <row r="448" ht="14.25" spans="2:23">
+      <c r="B448" t="s">
+        <v>199</v>
+      </c>
+      <c r="C448" t="s">
+        <v>198</v>
+      </c>
+      <c r="D448">
+        <v>26.4</v>
+      </c>
+      <c r="E448">
+        <v>4.6</v>
+      </c>
+      <c r="F448">
+        <v>6.8</v>
+      </c>
+      <c r="G448">
+        <v>1.17</v>
+      </c>
+      <c r="H448">
+        <v>0.42</v>
+      </c>
+      <c r="I448">
+        <v>0</v>
+      </c>
+      <c r="J448">
+        <v>1.91</v>
+      </c>
+      <c r="K448">
+        <v>88</v>
+      </c>
+      <c r="L448" t="s">
+        <v>1230</v>
+      </c>
+      <c r="M448" t="s">
+        <v>1231</v>
+      </c>
+      <c r="N448" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="O448" t="s">
+        <v>593</v>
+      </c>
+      <c r="P448">
+        <v>1898</v>
+      </c>
+      <c r="Q448">
+        <v>328</v>
+      </c>
+      <c r="R448">
+        <v>83</v>
+      </c>
+      <c r="S448">
+        <v>491</v>
+      </c>
+      <c r="T448">
+        <v>31</v>
+      </c>
+      <c r="U448" s="40" t="s">
+        <v>1232</v>
+      </c>
+      <c r="W448" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="449" ht="14.25" spans="2:23">
+      <c r="B449" t="s">
+        <v>199</v>
+      </c>
+      <c r="C449" t="s">
+        <v>198</v>
+      </c>
+      <c r="D449"/>
+      <c r="N449" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="O449" t="s">
+        <v>589</v>
+      </c>
+      <c r="P449">
+        <v>1962</v>
+      </c>
+      <c r="Q449">
+        <v>325</v>
+      </c>
+      <c r="R449">
+        <v>77</v>
+      </c>
+      <c r="S449">
+        <v>481</v>
+      </c>
+      <c r="T449">
+        <v>27</v>
+      </c>
+      <c r="U449" s="40" t="s">
+        <v>1234</v>
+      </c>
+      <c r="W449" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="450" ht="14.25" spans="2:23">
+      <c r="B450" t="s">
+        <v>199</v>
+      </c>
+      <c r="C450" t="s">
+        <v>198</v>
+      </c>
+      <c r="D450"/>
+      <c r="N450" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="O450" t="s">
+        <v>586</v>
+      </c>
+      <c r="P450">
+        <v>2024</v>
+      </c>
+      <c r="Q450">
+        <v>368</v>
+      </c>
+      <c r="R450">
+        <v>68</v>
+      </c>
+      <c r="S450">
+        <v>440</v>
+      </c>
+      <c r="T450">
+        <v>20</v>
+      </c>
+      <c r="U450" s="40" t="s">
+        <v>1235</v>
+      </c>
+      <c r="W450" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="451" ht="14.25" spans="2:23">
+      <c r="B451" t="s">
+        <v>199</v>
+      </c>
+      <c r="C451" t="s">
+        <v>198</v>
+      </c>
+      <c r="D451"/>
+      <c r="N451" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="O451" t="s">
+        <v>583</v>
+      </c>
+      <c r="P451">
+        <v>1879</v>
+      </c>
+      <c r="Q451">
+        <v>302</v>
+      </c>
+      <c r="R451">
+        <v>65</v>
+      </c>
+      <c r="S451">
+        <v>512</v>
+      </c>
+      <c r="T451">
+        <v>28</v>
+      </c>
+      <c r="U451" s="40" t="s">
+        <v>1237</v>
+      </c>
+      <c r="W451" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="452" ht="14.25" spans="2:23">
+      <c r="B452" t="s">
+        <v>199</v>
+      </c>
+      <c r="C452" t="s">
+        <v>198</v>
+      </c>
+      <c r="D452"/>
+      <c r="N452" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="O452" t="s">
+        <v>581</v>
+      </c>
+      <c r="P452">
+        <v>1720</v>
+      </c>
+      <c r="Q452">
+        <v>378</v>
+      </c>
+      <c r="R452">
+        <v>97</v>
+      </c>
+      <c r="S452">
+        <v>507</v>
+      </c>
+      <c r="T452">
+        <v>21</v>
+      </c>
+      <c r="U452" s="40" t="s">
+        <v>1239</v>
+      </c>
+      <c r="W452" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="453" ht="14.25" spans="2:23">
+      <c r="B453" t="s">
+        <v>199</v>
+      </c>
+      <c r="C453" t="s">
+        <v>198</v>
+      </c>
+      <c r="N453" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="O453" t="s">
+        <v>579</v>
+      </c>
+      <c r="P453">
+        <v>1695</v>
+      </c>
+      <c r="Q453">
+        <v>288</v>
+      </c>
+      <c r="R453">
+        <v>64</v>
+      </c>
+      <c r="S453">
+        <v>457</v>
+      </c>
+      <c r="T453">
+        <v>22</v>
+      </c>
+      <c r="U453" s="40" t="s">
+        <v>1240</v>
+      </c>
+      <c r="W453" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="454" ht="14.25" spans="2:23">
+      <c r="B454" t="s">
+        <v>199</v>
+      </c>
+      <c r="C454" t="s">
+        <v>198</v>
+      </c>
+      <c r="N454" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="O454" t="s">
+        <v>577</v>
+      </c>
+      <c r="P454">
+        <v>1562</v>
+      </c>
+      <c r="Q454">
+        <v>257</v>
+      </c>
+      <c r="R454">
+        <v>74</v>
+      </c>
+      <c r="S454">
+        <v>531</v>
+      </c>
+      <c r="T454">
+        <v>19</v>
+      </c>
+      <c r="U454" s="40" t="s">
+        <v>1242</v>
+      </c>
+      <c r="W454" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="455" spans="2:23">
+      <c r="B455" t="s">
+        <v>199</v>
+      </c>
+      <c r="C455" t="s">
+        <v>198</v>
+      </c>
+      <c r="W455" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="456" spans="2:23">
+      <c r="B456" t="s">
+        <v>199</v>
+      </c>
+      <c r="C456" t="s">
+        <v>198</v>
+      </c>
+      <c r="W456" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="457" spans="2:23">
+      <c r="B457" t="s">
+        <v>199</v>
+      </c>
+      <c r="C457" t="s">
+        <v>198</v>
+      </c>
+      <c r="W457" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="458" spans="2:23">
+      <c r="B458" t="s">
+        <v>199</v>
+      </c>
+      <c r="C458" t="s">
+        <v>198</v>
+      </c>
+      <c r="W458" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="459" ht="14.25" spans="2:21">
+      <c r="B459" t="s">
+        <v>200</v>
+      </c>
+      <c r="C459" t="s">
+        <v>198</v>
+      </c>
+      <c r="D459">
+        <v>21.3</v>
+      </c>
+      <c r="E459">
+        <v>4</v>
+      </c>
+      <c r="F459">
+        <v>2.9</v>
+      </c>
+      <c r="G459">
+        <v>0.79</v>
+      </c>
+      <c r="H459">
+        <v>0.38</v>
+      </c>
+      <c r="I459">
+        <v>3</v>
+      </c>
+      <c r="J459">
+        <v>1.91</v>
+      </c>
+      <c r="K459">
+        <v>86</v>
+      </c>
+      <c r="L459" t="s">
+        <v>1247</v>
+      </c>
+      <c r="M459" t="s">
+        <v>1248</v>
+      </c>
+      <c r="N459" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="O459" t="s">
+        <v>593</v>
+      </c>
+      <c r="P459" s="39">
+        <v>1448</v>
+      </c>
+      <c r="Q459" s="39">
+        <v>275</v>
+      </c>
+      <c r="R459" s="39">
+        <v>54</v>
+      </c>
+      <c r="S459" s="39">
+        <v>198</v>
+      </c>
+      <c r="T459" s="39">
+        <v>27</v>
+      </c>
+      <c r="U459" s="40" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="460" ht="14.25" spans="2:23">
+      <c r="B460" t="s">
+        <v>200</v>
+      </c>
+      <c r="C460" t="s">
+        <v>198</v>
+      </c>
+      <c r="N460" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="O460" t="s">
+        <v>589</v>
+      </c>
+      <c r="P460" s="39">
+        <v>1732</v>
+      </c>
+      <c r="Q460" s="39">
+        <v>321</v>
+      </c>
+      <c r="R460" s="39">
+        <v>77</v>
+      </c>
+      <c r="S460" s="39">
+        <v>272</v>
+      </c>
+      <c r="T460" s="39">
+        <v>35</v>
+      </c>
+      <c r="U460" s="40" t="s">
+        <v>1250</v>
+      </c>
+      <c r="W460" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="461" ht="14.25" spans="2:21">
+      <c r="B461" t="s">
+        <v>200</v>
+      </c>
+      <c r="C461" t="s">
+        <v>198</v>
+      </c>
+      <c r="N461" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="O461" t="s">
+        <v>586</v>
+      </c>
+      <c r="P461" s="39">
+        <v>1837</v>
+      </c>
+      <c r="Q461" s="39">
+        <v>289</v>
+      </c>
+      <c r="R461" s="39">
+        <v>72</v>
+      </c>
+      <c r="S461" s="39">
+        <v>285</v>
+      </c>
+      <c r="T461" s="39">
+        <v>42</v>
+      </c>
+      <c r="U461" s="40" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="462" ht="14.25" spans="2:21">
+      <c r="B462" t="s">
+        <v>200</v>
+      </c>
+      <c r="C462" t="s">
+        <v>198</v>
+      </c>
+      <c r="N462" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="O462" t="s">
+        <v>583</v>
+      </c>
+      <c r="P462" s="39">
+        <v>1666</v>
+      </c>
+      <c r="Q462" s="39">
+        <v>259</v>
+      </c>
+      <c r="R462" s="39">
+        <v>97</v>
+      </c>
+      <c r="S462" s="39">
+        <v>341</v>
+      </c>
+      <c r="T462" s="39">
+        <v>23</v>
+      </c>
+      <c r="U462" s="40" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="463" ht="14.25" spans="2:21">
+      <c r="B463" t="s">
+        <v>200</v>
+      </c>
+      <c r="C463" t="s">
+        <v>198</v>
+      </c>
+      <c r="N463" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="O463" t="s">
+        <v>581</v>
+      </c>
+      <c r="P463" s="39">
+        <v>424</v>
+      </c>
+      <c r="Q463" s="39">
+        <v>91</v>
+      </c>
+      <c r="R463" s="39">
+        <v>43</v>
+      </c>
+      <c r="S463" s="39">
+        <v>64</v>
+      </c>
+      <c r="T463" s="39">
+        <v>8</v>
+      </c>
+      <c r="U463" s="40" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="464" ht="14.25" spans="2:21">
+      <c r="B464" t="s">
+        <v>200</v>
+      </c>
+      <c r="C464" t="s">
+        <v>198</v>
+      </c>
+      <c r="N464" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="O464" t="s">
+        <v>579</v>
+      </c>
+      <c r="P464" s="39">
+        <v>201</v>
+      </c>
+      <c r="Q464" s="39">
+        <v>48</v>
+      </c>
+      <c r="R464" s="39">
+        <v>14</v>
+      </c>
+      <c r="S464" s="39">
+        <v>27</v>
+      </c>
+      <c r="T464" s="39">
+        <v>2</v>
+      </c>
+      <c r="U464" s="40" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="465" ht="14.25" spans="2:23">
+      <c r="B465" t="s">
+        <v>202</v>
+      </c>
+      <c r="C465" t="s">
+        <v>198</v>
+      </c>
+      <c r="D465">
+        <v>15.6</v>
+      </c>
+      <c r="E465">
+        <v>10.4</v>
+      </c>
+      <c r="F465">
+        <v>3.2</v>
+      </c>
+      <c r="G465">
+        <v>0.97</v>
+      </c>
+      <c r="H465">
+        <v>1.43</v>
+      </c>
+      <c r="I465">
+        <v>27</v>
+      </c>
+      <c r="J465">
+        <v>2.13</v>
+      </c>
+      <c r="K465">
+        <v>127</v>
+      </c>
+      <c r="L465" t="s">
+        <v>1256</v>
+      </c>
+      <c r="M465" t="s">
+        <v>1257</v>
+      </c>
+      <c r="N465" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="O465" t="s">
+        <v>593</v>
+      </c>
+      <c r="P465" s="39">
+        <v>1125</v>
+      </c>
+      <c r="Q465" s="39">
+        <v>748</v>
+      </c>
+      <c r="R465" s="39">
+        <v>71</v>
+      </c>
+      <c r="S465" s="39">
+        <v>233</v>
+      </c>
+      <c r="T465" s="39">
+        <v>103</v>
+      </c>
+      <c r="U465" s="40" t="s">
+        <v>1258</v>
+      </c>
+      <c r="W465" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="466" ht="14.25" spans="2:21">
+      <c r="B466" t="s">
+        <v>202</v>
+      </c>
+      <c r="C466" t="s">
+        <v>198</v>
+      </c>
+      <c r="N466" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="O466" t="s">
+        <v>589</v>
+      </c>
+      <c r="P466" s="39">
+        <v>1132</v>
+      </c>
+      <c r="Q466" s="39">
+        <v>708</v>
+      </c>
+      <c r="R466" s="39">
+        <v>64</v>
+      </c>
+      <c r="S466" s="39">
+        <v>143</v>
+      </c>
+      <c r="T466" s="39">
+        <v>111</v>
+      </c>
+      <c r="U466" s="40" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="467" ht="14.25" spans="2:21">
+      <c r="B467" t="s">
+        <v>202</v>
+      </c>
+      <c r="C467" t="s">
+        <v>198</v>
+      </c>
+      <c r="N467" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="O467" t="s">
+        <v>586</v>
+      </c>
+      <c r="P467" s="39">
+        <v>304</v>
+      </c>
+      <c r="Q467" s="39">
+        <v>207</v>
+      </c>
+      <c r="R467" s="39">
+        <v>25</v>
+      </c>
+      <c r="S467" s="39">
+        <v>63</v>
+      </c>
+      <c r="T467" s="39">
+        <v>38</v>
+      </c>
+      <c r="U467" s="40" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="468" ht="14.25" spans="2:21">
+      <c r="B468" t="s">
+        <v>202</v>
+      </c>
+      <c r="C468" t="s">
+        <v>198</v>
+      </c>
+      <c r="N468" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="O468" t="s">
+        <v>586</v>
+      </c>
+      <c r="P468" s="39">
+        <v>358</v>
+      </c>
+      <c r="Q468" s="39">
+        <v>260</v>
+      </c>
+      <c r="R468" s="39">
+        <v>25</v>
+      </c>
+      <c r="S468" s="39">
+        <v>59</v>
+      </c>
+      <c r="T468" s="39">
+        <v>35</v>
+      </c>
+      <c r="U468" s="40" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="469" ht="14.25" spans="2:21">
+      <c r="B469" t="s">
+        <v>202</v>
+      </c>
+      <c r="C469" t="s">
+        <v>198</v>
+      </c>
+      <c r="N469" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="O469" t="s">
+        <v>583</v>
+      </c>
+      <c r="P469" s="39">
+        <v>263</v>
+      </c>
+      <c r="Q469" s="39">
+        <v>175</v>
+      </c>
+      <c r="R469" s="39">
+        <v>24</v>
+      </c>
+      <c r="S469" s="39">
+        <v>40</v>
+      </c>
+      <c r="T469" s="39">
+        <v>44</v>
+      </c>
+      <c r="U469" s="40" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="470" ht="14.25" spans="2:21">
+      <c r="B470" t="s">
+        <v>202</v>
+      </c>
+      <c r="C470" t="s">
+        <v>198</v>
+      </c>
+      <c r="N470" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="O470" t="s">
+        <v>581</v>
+      </c>
+      <c r="P470" s="39">
+        <v>426</v>
+      </c>
+      <c r="Q470" s="39">
+        <v>382</v>
+      </c>
+      <c r="R470" s="39">
+        <v>52</v>
+      </c>
+      <c r="S470" s="39">
+        <v>50</v>
+      </c>
+      <c r="T470" s="39">
+        <v>68</v>
+      </c>
+      <c r="U470" s="40" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="471" ht="14.25" spans="2:21">
+      <c r="B471" t="s">
+        <v>205</v>
+      </c>
+      <c r="C471" t="s">
+        <v>198</v>
+      </c>
+      <c r="D471">
+        <v>9.3</v>
+      </c>
+      <c r="E471">
+        <v>7.4</v>
+      </c>
+      <c r="F471">
+        <v>1.3</v>
+      </c>
+      <c r="G471">
+        <v>0.86</v>
+      </c>
+      <c r="H471">
+        <v>0.4</v>
+      </c>
+      <c r="I471">
+        <v>8</v>
+      </c>
+      <c r="J471">
+        <v>2.06</v>
+      </c>
+      <c r="K471">
+        <v>100</v>
+      </c>
+      <c r="L471" t="s">
+        <v>1265</v>
+      </c>
+      <c r="M471" t="s">
+        <v>1266</v>
+      </c>
+      <c r="N471" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="O471" t="s">
+        <v>593</v>
+      </c>
+      <c r="P471" s="39">
+        <v>680</v>
+      </c>
+      <c r="Q471" s="39">
+        <v>543</v>
+      </c>
+      <c r="R471" s="39">
+        <v>63</v>
+      </c>
+      <c r="S471" s="39">
+        <v>96</v>
+      </c>
+      <c r="T471" s="39">
+        <v>29</v>
+      </c>
+      <c r="U471" s="40" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="472" ht="14.25" spans="2:21">
+      <c r="B472" t="s">
+        <v>205</v>
+      </c>
+      <c r="C472" t="s">
+        <v>198</v>
+      </c>
+      <c r="N472" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="O472" t="s">
+        <v>589</v>
+      </c>
+      <c r="P472" s="39">
+        <v>644</v>
+      </c>
+      <c r="Q472" s="39">
+        <v>525</v>
+      </c>
+      <c r="R472" s="39">
+        <v>79</v>
+      </c>
+      <c r="S472" s="39">
+        <v>84</v>
+      </c>
+      <c r="T472" s="39">
+        <v>40</v>
+      </c>
+      <c r="U472" s="40" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="473" ht="14.25" spans="2:21">
+      <c r="B473" t="s">
+        <v>205</v>
+      </c>
+      <c r="C473" t="s">
+        <v>198</v>
+      </c>
+      <c r="N473" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="O473" t="s">
+        <v>586</v>
+      </c>
+      <c r="P473" s="39">
+        <v>532</v>
+      </c>
+      <c r="Q473" s="39">
+        <v>451</v>
+      </c>
+      <c r="R473" s="39">
+        <v>60</v>
+      </c>
+      <c r="S473" s="39">
+        <v>99</v>
+      </c>
+      <c r="T473" s="39">
+        <v>44</v>
+      </c>
+      <c r="U473" s="40" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="474" ht="14.25" spans="2:21">
+      <c r="B474" t="s">
+        <v>205</v>
+      </c>
+      <c r="C474" t="s">
+        <v>198</v>
+      </c>
+      <c r="N474" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="O474" t="s">
+        <v>583</v>
+      </c>
+      <c r="P474" s="39">
+        <v>839</v>
+      </c>
+      <c r="Q474" s="39">
+        <v>499</v>
+      </c>
+      <c r="R474" s="39">
+        <v>72</v>
+      </c>
+      <c r="S474" s="39">
+        <v>138</v>
+      </c>
+      <c r="T474" s="39">
+        <v>53</v>
+      </c>
+      <c r="U474" s="40" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="475" ht="14.25" spans="2:21">
+      <c r="B475" t="s">
+        <v>205</v>
+      </c>
+      <c r="C475" t="s">
+        <v>198</v>
+      </c>
+      <c r="N475" s="39" t="s">
+        <v>961</v>
+      </c>
+      <c r="O475" t="s">
+        <v>581</v>
+      </c>
+      <c r="P475" s="39">
+        <v>412</v>
+      </c>
+      <c r="Q475" s="39">
+        <v>342</v>
+      </c>
+      <c r="R475" s="39">
+        <v>70</v>
+      </c>
+      <c r="S475" s="39">
+        <v>59</v>
+      </c>
+      <c r="T475" s="39">
+        <v>62</v>
+      </c>
+      <c r="U475" s="40" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="476" ht="14.25" spans="2:21">
+      <c r="B476" t="s">
+        <v>205</v>
+      </c>
+      <c r="C476" t="s">
+        <v>198</v>
+      </c>
+      <c r="N476" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="O476" t="s">
+        <v>579</v>
+      </c>
+      <c r="P476" s="39">
+        <v>572</v>
+      </c>
+      <c r="Q476" s="39">
+        <v>496</v>
+      </c>
+      <c r="R476" s="39">
+        <v>82</v>
+      </c>
+      <c r="S476" s="39">
+        <v>114</v>
+      </c>
+      <c r="T476" s="39">
+        <v>38</v>
+      </c>
+      <c r="U476" s="40" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="477" ht="14.25" spans="2:21">
+      <c r="B477" t="s">
+        <v>205</v>
+      </c>
+      <c r="C477" t="s">
+        <v>198</v>
+      </c>
+      <c r="N477" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="O477" t="s">
+        <v>577</v>
+      </c>
+      <c r="P477" s="39">
+        <v>555</v>
+      </c>
+      <c r="Q477" s="39">
+        <v>585</v>
+      </c>
+      <c r="R477" s="39">
+        <v>92</v>
+      </c>
+      <c r="S477" s="39">
+        <v>103</v>
+      </c>
+      <c r="T477" s="39">
+        <v>51</v>
+      </c>
+      <c r="U477" s="40" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="478" ht="14.25" spans="2:21">
+      <c r="B478" t="s">
+        <v>205</v>
+      </c>
+      <c r="C478" t="s">
+        <v>198</v>
+      </c>
+      <c r="N478" s="39" t="s">
+        <v>646</v>
+      </c>
+      <c r="O478" t="s">
+        <v>575</v>
+      </c>
+      <c r="P478" s="39">
+        <v>399</v>
+      </c>
+      <c r="Q478" s="39">
+        <v>308</v>
+      </c>
+      <c r="R478" s="39">
+        <v>59</v>
+      </c>
+      <c r="S478" s="39">
+        <v>66</v>
+      </c>
+      <c r="T478" s="39">
+        <v>34</v>
+      </c>
+      <c r="U478" s="40" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="479" ht="14.25" spans="2:21">
+      <c r="B479" t="s">
+        <v>205</v>
+      </c>
+      <c r="C479" t="s">
+        <v>198</v>
+      </c>
+      <c r="N479" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="O479" t="s">
+        <v>572</v>
+      </c>
+      <c r="P479" s="39">
+        <v>457</v>
+      </c>
+      <c r="Q479" s="39">
+        <v>267</v>
+      </c>
+      <c r="R479" s="39">
+        <v>59</v>
+      </c>
+      <c r="S479" s="39">
+        <v>60</v>
+      </c>
+      <c r="T479" s="39">
+        <v>25</v>
+      </c>
+      <c r="U479" s="40" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="480" ht="14.25" spans="2:21">
+      <c r="B480" t="s">
+        <v>204</v>
+      </c>
+      <c r="C480" t="s">
+        <v>198</v>
+      </c>
+      <c r="D480">
+        <v>7.3</v>
+      </c>
+      <c r="E480">
+        <v>4.2</v>
+      </c>
+      <c r="F480">
+        <v>1.2</v>
+      </c>
+      <c r="G480">
+        <v>1.12</v>
+      </c>
+      <c r="H480">
+        <v>0.85</v>
+      </c>
+      <c r="I480">
+        <v>4</v>
+      </c>
+      <c r="J480">
+        <v>2.06</v>
+      </c>
+      <c r="K480">
+        <v>100</v>
+      </c>
+      <c r="L480" t="s">
+        <v>1276</v>
+      </c>
+      <c r="M480" t="s">
+        <v>1277</v>
+      </c>
+      <c r="N480" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="O480" t="s">
+        <v>593</v>
+      </c>
+      <c r="P480" s="39">
+        <v>381</v>
+      </c>
+      <c r="Q480" s="39">
+        <v>223</v>
+      </c>
+      <c r="R480" s="39">
+        <v>58</v>
+      </c>
+      <c r="S480" s="39">
+        <v>62</v>
+      </c>
+      <c r="T480" s="39">
+        <v>44</v>
+      </c>
+      <c r="U480" s="40" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="481" ht="14.25" spans="2:21">
+      <c r="B481" t="s">
+        <v>204</v>
+      </c>
+      <c r="C481" t="s">
+        <v>198</v>
+      </c>
+      <c r="N481" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="O481" t="s">
+        <v>589</v>
+      </c>
+      <c r="P481" s="39">
+        <v>385</v>
+      </c>
+      <c r="Q481" s="39">
+        <v>162</v>
+      </c>
+      <c r="R481" s="39">
+        <v>48</v>
+      </c>
+      <c r="S481" s="39">
+        <v>53</v>
+      </c>
+      <c r="T481" s="39">
+        <v>43</v>
+      </c>
+      <c r="U481" s="40" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="482" ht="14.25" spans="2:21">
+      <c r="B482" t="s">
+        <v>204</v>
+      </c>
+      <c r="C482" t="s">
+        <v>198</v>
+      </c>
+      <c r="N482" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="O482" t="s">
+        <v>586</v>
+      </c>
+      <c r="P482" s="39">
+        <v>773</v>
+      </c>
+      <c r="Q482" s="39">
+        <v>341</v>
+      </c>
+      <c r="R482" s="39">
+        <v>85</v>
+      </c>
+      <c r="S482" s="39">
+        <v>88</v>
+      </c>
+      <c r="T482" s="39">
+        <v>70</v>
+      </c>
+      <c r="U482" s="40" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="483" ht="14.25" spans="2:21">
+      <c r="B483" t="s">
+        <v>204</v>
+      </c>
+      <c r="C483" t="s">
+        <v>198</v>
+      </c>
+      <c r="N483" s="39" t="s">
+        <v>198</v>
+      </c>
+      <c r="O483" t="s">
+        <v>583</v>
+      </c>
+      <c r="P483" s="39">
+        <v>498</v>
+      </c>
+      <c r="Q483" s="39">
+        <v>280</v>
+      </c>
+      <c r="R483" s="39">
+        <v>49</v>
+      </c>
+      <c r="S483" s="39">
+        <v>67</v>
+      </c>
+      <c r="T483" s="39">
+        <v>35</v>
+      </c>
+      <c r="U483" s="40" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="484" ht="14.25" spans="2:21">
+      <c r="B484" t="s">
+        <v>204</v>
+      </c>
+      <c r="C484" t="s">
+        <v>198</v>
+      </c>
+      <c r="N484" s="39" t="s">
+        <v>379</v>
+      </c>
+      <c r="O484" t="s">
+        <v>581</v>
+      </c>
+      <c r="P484" s="39">
+        <v>158</v>
+      </c>
+      <c r="Q484" s="39">
+        <v>106</v>
+      </c>
+      <c r="R484" s="39">
+        <v>32</v>
+      </c>
+      <c r="S484" s="39">
+        <v>25</v>
+      </c>
+      <c r="T484" s="39">
+        <v>9</v>
+      </c>
+      <c r="U484" s="40" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="485" ht="14.25" spans="2:21">
+      <c r="B485" t="s">
+        <v>204</v>
+      </c>
+      <c r="C485" t="s">
+        <v>198</v>
+      </c>
+      <c r="N485" s="39" t="s">
+        <v>379</v>
+      </c>
+      <c r="O485" t="s">
+        <v>579</v>
+      </c>
+      <c r="P485" s="39">
+        <v>592</v>
+      </c>
+      <c r="Q485" s="39">
+        <v>264</v>
+      </c>
+      <c r="R485" s="39">
+        <v>97</v>
+      </c>
+      <c r="S485" s="39">
+        <v>80</v>
+      </c>
+      <c r="T485" s="39">
+        <v>50</v>
+      </c>
+      <c r="U485" s="40" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="486" ht="14.25" spans="2:21">
+      <c r="B486" t="s">
+        <v>204</v>
+      </c>
+      <c r="C486" t="s">
+        <v>198</v>
+      </c>
+      <c r="N486" s="39" t="s">
+        <v>379</v>
+      </c>
+      <c r="O486" t="s">
+        <v>577</v>
+      </c>
+      <c r="P486" s="39">
+        <v>625</v>
+      </c>
+      <c r="Q486" s="39">
+        <v>335</v>
+      </c>
+      <c r="R486" s="39">
+        <v>88</v>
+      </c>
+      <c r="S486" s="39">
+        <v>50</v>
+      </c>
+      <c r="T486" s="39">
+        <v>62</v>
+      </c>
+      <c r="U486" s="40" t="s">
+        <v>1284</v>
       </c>
     </row>
   </sheetData>
@@ -27536,7 +29043,7 @@
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A13"/>
+      <selection activeCell="A9" sqref="A1:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/网站相关/data.xlsx
+++ b/网站相关/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="球队信息" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3913" uniqueCount="1285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313">
   <si>
     <t>主键</t>
   </si>
@@ -3545,9 +3545,15 @@
     <t>2.9篮板5.3助攻0.75抢断0.12盖帽20.2分</t>
   </si>
   <si>
+    <t>2016-17赛季最佳第六人（球员工会评选）</t>
+  </si>
+  <si>
     <t>2.5篮板5.3助攻1.08抢断0.24盖帽22.6分</t>
   </si>
   <si>
+    <t>2014-15赛季最佳第六人</t>
+  </si>
+  <si>
     <t>3.0篮板2.4助攻0.65抢断0.39盖帽14.9分</t>
   </si>
   <si>
@@ -3585,6 +3591,84 @@
   </si>
   <si>
     <t>0.6篮板0.3助攻0.17抢断0盖帽1.9分</t>
+  </si>
+  <si>
+    <t>2015年第2轮第2顺位</t>
+  </si>
+  <si>
+    <t>6.7篮板1.8助攻0.89抢断1.39盖帽16.6分</t>
+  </si>
+  <si>
+    <t>4.0篮板1.0助攻0.47抢断0.68盖帽11.0分</t>
+  </si>
+  <si>
+    <t>3.8篮板1.1助攻0.34抢断0.72盖帽9.1分</t>
+  </si>
+  <si>
+    <t>1.7篮板0.4助攻0.28抢断0.28盖帽3.6分</t>
+  </si>
+  <si>
+    <t>2009年第2轮第12顺位</t>
+  </si>
+  <si>
+    <t>4年2303万美元，2015年夏天签，2019年夏天到期，2018-19赛季无保障</t>
+  </si>
+  <si>
+    <t>5.0篮板3.8助攻0.89抢断0.55盖帽7.6分</t>
+  </si>
+  <si>
+    <t>2016-17赛季NBA佳防守阵容第一阵容</t>
+  </si>
+  <si>
+    <t>4.1篮板2.9助攻1.64抢断0.45盖帽12.2分</t>
+  </si>
+  <si>
+    <t>2015年全明星技巧挑战赛冠军</t>
+  </si>
+  <si>
+    <t>5.9篮板4.2助攻1.48抢断0.37盖帽9.5分</t>
+  </si>
+  <si>
+    <t>2013-14赛季NBA佳防守阵容第一阵容</t>
+  </si>
+  <si>
+    <t>3.5篮板3.4助攻1.32抢断0.37盖帽9.9分</t>
+  </si>
+  <si>
+    <t>4.2篮板3.4助攻1.05抢断0.41盖帽10.1分</t>
+  </si>
+  <si>
+    <t>3.5篮板2.7助攻1.38抢断0.41盖帽10.2分</t>
+  </si>
+  <si>
+    <t>2.7篮板2.9助攻0.90抢断0.51盖帽5.6分</t>
+  </si>
+  <si>
+    <t>2018年第1轮第11顺位</t>
+  </si>
+  <si>
+    <t>4年1696万美元，2018年夏天签，2022年夏天到期，2020-21赛季及2021-22赛季球队选项</t>
+  </si>
+  <si>
+    <t>2.7篮板3.2助攻1.1抢断0.5盖帽10.4分</t>
+  </si>
+  <si>
+    <t>2016年第2轮第2顺位</t>
+  </si>
+  <si>
+    <t>3年324万美元，2016年夏天签，2019年夏天到期，2018-19赛季无保障。</t>
+  </si>
+  <si>
+    <t>8.0篮板1.7助攻0.22抢断0.94盖帽9.0分</t>
+  </si>
+  <si>
+    <t>4.9篮板0.8助攻0.12抢断0.82盖帽8.5分</t>
+  </si>
+  <si>
+    <t>2.9篮板0.6助攻0.19抢断0.35盖帽3.7分</t>
+  </si>
+  <si>
+    <t>4.2篮板0.8助攻0.37抢断0.87盖帽7.5分</t>
   </si>
   <si>
     <t>2014年第2轮第11顺位</t>
@@ -3895,10 +3979,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -3990,13 +4074,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -4011,6 +4088,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -4019,6 +4126,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -4042,6 +4165,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -4050,32 +4180,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4088,21 +4195,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -4111,15 +4203,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4146,13 +4230,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4164,7 +4242,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4176,73 +4278,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4254,25 +4290,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4296,7 +4314,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4314,7 +4344,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4326,7 +4386,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4553,11 +4637,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4618,11 +4719,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4630,23 +4729,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4658,10 +4742,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4670,19 +4754,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4691,112 +4775,112 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -11694,10 +11778,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X486"/>
+  <dimension ref="A1:X498"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A457" workbookViewId="0">
-      <selection activeCell="B480" sqref="B480:C486"/>
+    <sheetView tabSelected="1" topLeftCell="A466" workbookViewId="0">
+      <selection activeCell="A431" sqref="A431:A498"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -25968,7 +26052,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="401" spans="1:21">
+    <row r="401" spans="1:23">
       <c r="A401">
         <v>347</v>
       </c>
@@ -26032,8 +26116,11 @@
       <c r="U401" s="12" t="s">
         <v>1169</v>
       </c>
-    </row>
-    <row r="402" spans="1:21">
+      <c r="W401" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="402" spans="1:23">
       <c r="A402">
         <v>348</v>
       </c>
@@ -26065,7 +26152,10 @@
         <v>19</v>
       </c>
       <c r="U402" s="12" t="s">
-        <v>1170</v>
+        <v>1171</v>
+      </c>
+      <c r="W402" t="s">
+        <v>1172</v>
       </c>
     </row>
     <row r="403" spans="1:21">
@@ -26100,7 +26190,7 @@
         <v>9</v>
       </c>
       <c r="U403" s="12" t="s">
-        <v>1171</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="404" spans="1:21">
@@ -26135,7 +26225,7 @@
         <v>10</v>
       </c>
       <c r="U404" s="12" t="s">
-        <v>1172</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="405" spans="1:21">
@@ -26170,7 +26260,7 @@
         <v>19</v>
       </c>
       <c r="U405" s="12" t="s">
-        <v>1173</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="406" spans="1:21">
@@ -26205,7 +26295,7 @@
         <v>10</v>
       </c>
       <c r="U406" s="12" t="s">
-        <v>1174</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="407" spans="1:21">
@@ -26240,7 +26330,7 @@
         <v>4</v>
       </c>
       <c r="U407" s="12" t="s">
-        <v>1175</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="408" spans="1:21">
@@ -26275,7 +26365,7 @@
         <v>10</v>
       </c>
       <c r="U408" s="12" t="s">
-        <v>1176</v>
+        <v>1178</v>
       </c>
     </row>
     <row r="409" spans="1:21">
@@ -26310,7 +26400,7 @@
         <v>18</v>
       </c>
       <c r="U409" s="12" t="s">
-        <v>1177</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="410" spans="1:21">
@@ -26345,7 +26435,7 @@
         <v>17</v>
       </c>
       <c r="U410" s="12" t="s">
-        <v>1178</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="411" spans="1:21">
@@ -26380,7 +26470,7 @@
         <v>15</v>
       </c>
       <c r="U411" s="12" t="s">
-        <v>1179</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="412" spans="1:21">
@@ -26415,7 +26505,7 @@
         <v>14</v>
       </c>
       <c r="U412" s="12" t="s">
-        <v>1180</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="413" spans="1:21">
@@ -26450,7 +26540,7 @@
         <v>13</v>
       </c>
       <c r="U413" s="12" t="s">
-        <v>1181</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="414" spans="1:21">
@@ -26485,7 +26575,7 @@
         <v>1</v>
       </c>
       <c r="U414" s="12" t="s">
-        <v>1182</v>
+        <v>1184</v>
       </c>
     </row>
     <row r="415" spans="1:21">
@@ -26520,10 +26610,10 @@
         <v>0</v>
       </c>
       <c r="U415" s="12" t="s">
-        <v>1183</v>
-      </c>
-    </row>
-    <row r="416" spans="1:3">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="416" ht="14.25" spans="1:21">
       <c r="A416">
         <v>362</v>
       </c>
@@ -26533,2477 +26623,3298 @@
       <c r="C416" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="417" spans="1:3">
+      <c r="D416">
+        <v>16.4</v>
+      </c>
+      <c r="E416">
+        <v>6.6</v>
+      </c>
+      <c r="F416">
+        <v>1.9</v>
+      </c>
+      <c r="G416">
+        <v>0.88</v>
+      </c>
+      <c r="H416">
+        <v>1.37</v>
+      </c>
+      <c r="I416">
+        <v>5</v>
+      </c>
+      <c r="J416">
+        <v>2.03</v>
+      </c>
+      <c r="K416">
+        <v>109</v>
+      </c>
+      <c r="L416" t="s">
+        <v>1186</v>
+      </c>
+      <c r="M416" t="s">
+        <v>821</v>
+      </c>
+      <c r="N416" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="O416" t="s">
+        <v>593</v>
+      </c>
+      <c r="P416" s="39">
+        <v>1225</v>
+      </c>
+      <c r="Q416" s="39">
+        <v>495</v>
+      </c>
+      <c r="R416" s="39">
+        <v>66</v>
+      </c>
+      <c r="S416" s="39">
+        <v>136</v>
+      </c>
+      <c r="T416" s="39">
+        <v>103</v>
+      </c>
+      <c r="U416" s="40" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="417" ht="14.25" spans="1:21">
       <c r="A417">
         <v>363</v>
       </c>
       <c r="B417" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C417" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="418" spans="1:3">
+      <c r="N417" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="O417" t="s">
+        <v>589</v>
+      </c>
+      <c r="P417" s="39">
+        <v>836</v>
+      </c>
+      <c r="Q417" s="39">
+        <v>307</v>
+      </c>
+      <c r="R417" s="39">
+        <v>36</v>
+      </c>
+      <c r="S417" s="39">
+        <v>74</v>
+      </c>
+      <c r="T417" s="39">
+        <v>52</v>
+      </c>
+      <c r="U417" s="40" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="418" ht="14.25" spans="1:21">
       <c r="A418">
         <v>364</v>
       </c>
       <c r="B418" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C418" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="419" spans="1:3">
+      <c r="N418" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="O418" t="s">
+        <v>586</v>
+      </c>
+      <c r="P418" s="39">
+        <v>527</v>
+      </c>
+      <c r="Q418" s="39">
+        <v>219</v>
+      </c>
+      <c r="R418" s="39">
+        <v>20</v>
+      </c>
+      <c r="S418" s="39">
+        <v>64</v>
+      </c>
+      <c r="T418" s="39">
+        <v>42</v>
+      </c>
+      <c r="U418" s="40" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="419" ht="14.25" spans="1:21">
       <c r="A419">
         <v>365</v>
       </c>
-      <c r="B419" s="5" t="s">
-        <v>135</v>
+      <c r="B419" t="s">
+        <v>127</v>
       </c>
       <c r="C419" t="s">
         <v>121</v>
       </c>
+      <c r="N419" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="O419" t="s">
+        <v>583</v>
+      </c>
+      <c r="P419" s="39">
+        <v>140</v>
+      </c>
+      <c r="Q419" s="39">
+        <v>65</v>
+      </c>
+      <c r="R419" s="39">
+        <v>11</v>
+      </c>
+      <c r="S419" s="39">
+        <v>17</v>
+      </c>
+      <c r="T419" s="39">
+        <v>11</v>
+      </c>
+      <c r="U419" s="40" t="s">
+        <v>1190</v>
+      </c>
     </row>
     <row r="420" ht="14.25" spans="1:23">
       <c r="A420">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B420" t="s">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="C420" t="s">
-        <v>181</v>
+        <v>121</v>
       </c>
       <c r="D420">
-        <v>20.2</v>
+        <v>7.7</v>
       </c>
       <c r="E420">
-        <v>10.8</v>
+        <v>5</v>
       </c>
       <c r="F420">
-        <v>7.6</v>
+        <v>3.8</v>
       </c>
       <c r="G420">
-        <v>1.34</v>
+        <v>0.88</v>
       </c>
       <c r="H420">
-        <v>0.69</v>
+        <v>0.57</v>
       </c>
       <c r="I420">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="J420">
-        <v>2.13</v>
+        <v>1.85</v>
       </c>
       <c r="K420">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="L420" t="s">
-        <v>1184</v>
+        <v>1191</v>
       </c>
       <c r="M420" t="s">
-        <v>1185</v>
-      </c>
-      <c r="N420" s="32" t="s">
-        <v>181</v>
+        <v>1192</v>
+      </c>
+      <c r="N420" s="39" t="s">
+        <v>121</v>
       </c>
       <c r="O420" t="s">
         <v>593</v>
       </c>
-      <c r="P420" s="32">
-        <v>1436</v>
-      </c>
-      <c r="Q420" s="32">
-        <v>764</v>
-      </c>
-      <c r="R420" s="32">
-        <v>95</v>
-      </c>
-      <c r="S420" s="32">
-        <v>537</v>
-      </c>
-      <c r="T420" s="32">
-        <v>50</v>
-      </c>
-      <c r="U420" s="37" t="s">
-        <v>1186</v>
+      <c r="P420" s="39">
+        <v>564</v>
+      </c>
+      <c r="Q420" s="39">
+        <v>373</v>
+      </c>
+      <c r="R420" s="39">
+        <v>66</v>
+      </c>
+      <c r="S420" s="39">
+        <v>279</v>
+      </c>
+      <c r="T420" s="39">
+        <v>41</v>
+      </c>
+      <c r="U420" s="40" t="s">
+        <v>1193</v>
       </c>
       <c r="W420" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="421" ht="14.25" spans="1:21">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="421" ht="14.25" spans="1:23">
       <c r="A421">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B421" t="s">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="C421" t="s">
-        <v>181</v>
-      </c>
-      <c r="N421" s="32" t="s">
-        <v>181</v>
+        <v>121</v>
+      </c>
+      <c r="N421" s="39" t="s">
+        <v>121</v>
       </c>
       <c r="O421" t="s">
         <v>589</v>
       </c>
-      <c r="P421" s="32">
-        <v>1385</v>
-      </c>
-      <c r="Q421" s="32">
-        <v>803</v>
-      </c>
-      <c r="R421" s="32">
-        <v>90</v>
-      </c>
-      <c r="S421" s="32">
-        <v>458</v>
-      </c>
-      <c r="T421" s="32">
-        <v>61</v>
-      </c>
-      <c r="U421" s="37" t="s">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="422" ht="14.25" spans="1:21">
+      <c r="P421" s="39">
+        <v>134</v>
+      </c>
+      <c r="Q421" s="39">
+        <v>45</v>
+      </c>
+      <c r="R421" s="39">
+        <v>19</v>
+      </c>
+      <c r="S421" s="39">
+        <v>32</v>
+      </c>
+      <c r="T421" s="39">
+        <v>5</v>
+      </c>
+      <c r="U421" s="40" t="s">
+        <v>1195</v>
+      </c>
+      <c r="W421" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="422" ht="14.25" spans="1:23">
       <c r="A422">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B422" t="s">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="C422" t="s">
-        <v>181</v>
-      </c>
-      <c r="N422" s="32" t="s">
-        <v>181</v>
+        <v>121</v>
+      </c>
+      <c r="N422" s="39" t="s">
+        <v>23</v>
       </c>
       <c r="O422" t="s">
         <v>586</v>
       </c>
-      <c r="P422" s="32">
-        <v>1221</v>
-      </c>
-      <c r="Q422" s="32">
-        <v>718</v>
-      </c>
-      <c r="R422" s="32">
-        <v>61</v>
-      </c>
-      <c r="S422" s="32">
-        <v>359</v>
-      </c>
-      <c r="T422" s="32">
-        <v>55</v>
-      </c>
-      <c r="U422" s="37" t="s">
-        <v>1189</v>
+      <c r="P422" s="39">
+        <v>639</v>
+      </c>
+      <c r="Q422" s="39">
+        <v>393</v>
+      </c>
+      <c r="R422" s="39">
+        <v>99</v>
+      </c>
+      <c r="S422" s="39">
+        <v>281</v>
+      </c>
+      <c r="T422" s="39">
+        <v>25</v>
+      </c>
+      <c r="U422" s="40" t="s">
+        <v>1197</v>
+      </c>
+      <c r="W422" t="s">
+        <v>1198</v>
       </c>
     </row>
     <row r="423" ht="14.25" spans="1:21">
       <c r="A423">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B423" t="s">
-        <v>184</v>
+        <v>128</v>
       </c>
       <c r="C423" t="s">
-        <v>181</v>
-      </c>
-      <c r="N423" s="32" t="s">
-        <v>181</v>
+        <v>121</v>
+      </c>
+      <c r="N423" s="39" t="s">
+        <v>23</v>
       </c>
       <c r="O423" t="s">
         <v>583</v>
       </c>
-      <c r="P423" s="32">
-        <v>796</v>
-      </c>
-      <c r="Q423" s="32">
-        <v>560</v>
-      </c>
-      <c r="R423" s="32">
-        <v>79</v>
-      </c>
-      <c r="S423" s="32">
-        <v>189</v>
-      </c>
-      <c r="T423" s="32">
-        <v>50</v>
-      </c>
-      <c r="U423" s="37" t="s">
-        <v>1190</v>
-      </c>
-    </row>
-    <row r="424" ht="14.25" spans="1:23">
+      <c r="P423" s="39">
+        <v>700</v>
+      </c>
+      <c r="Q423" s="39">
+        <v>250</v>
+      </c>
+      <c r="R423" s="39">
+        <v>94</v>
+      </c>
+      <c r="S423" s="39">
+        <v>239</v>
+      </c>
+      <c r="T423" s="39">
+        <v>26</v>
+      </c>
+      <c r="U423" s="40" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="424" ht="14.25" spans="1:21">
       <c r="A424">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B424" t="s">
-        <v>188</v>
+        <v>128</v>
       </c>
       <c r="C424" t="s">
-        <v>181</v>
-      </c>
-      <c r="D424">
-        <v>17.9</v>
-      </c>
-      <c r="E424">
-        <v>4.2</v>
-      </c>
-      <c r="F424">
-        <v>4.8</v>
-      </c>
-      <c r="G424">
-        <v>0.83</v>
-      </c>
-      <c r="H424">
-        <v>0.83</v>
-      </c>
-      <c r="I424">
-        <v>27</v>
-      </c>
-      <c r="J424">
-        <v>1.93</v>
-      </c>
-      <c r="K424">
-        <v>94</v>
-      </c>
-      <c r="L424" t="s">
-        <v>1191</v>
-      </c>
-      <c r="M424" t="s">
-        <v>1192</v>
-      </c>
-      <c r="N424" s="32" t="s">
-        <v>181</v>
+        <v>121</v>
+      </c>
+      <c r="N424" s="39" t="s">
+        <v>23</v>
       </c>
       <c r="O424" t="s">
-        <v>593</v>
-      </c>
-      <c r="P424" s="32">
-        <v>1182</v>
-      </c>
-      <c r="Q424" s="32">
-        <v>276</v>
-      </c>
-      <c r="R424" s="32">
-        <v>55</v>
-      </c>
-      <c r="S424" s="32">
-        <v>316</v>
-      </c>
-      <c r="T424" s="32">
-        <v>24</v>
-      </c>
-      <c r="U424" s="37" t="s">
-        <v>1193</v>
-      </c>
-      <c r="W424" t="s">
-        <v>1194</v>
-      </c>
-    </row>
-    <row r="425" ht="14.25" spans="1:23">
+        <v>581</v>
+      </c>
+      <c r="P424" s="39">
+        <v>568</v>
+      </c>
+      <c r="Q424" s="39">
+        <v>237</v>
+      </c>
+      <c r="R424" s="39">
+        <v>59</v>
+      </c>
+      <c r="S424" s="39">
+        <v>192</v>
+      </c>
+      <c r="T424" s="39">
+        <v>23</v>
+      </c>
+      <c r="U424" s="40" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="425" ht="14.25" spans="1:21">
       <c r="A425">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B425" t="s">
-        <v>188</v>
+        <v>128</v>
       </c>
       <c r="C425" t="s">
-        <v>181</v>
-      </c>
-      <c r="N425" s="32" t="s">
-        <v>181</v>
+        <v>121</v>
+      </c>
+      <c r="N425" s="39" t="s">
+        <v>23</v>
       </c>
       <c r="O425" t="s">
-        <v>589</v>
-      </c>
-      <c r="P425" s="32">
-        <v>1352</v>
-      </c>
-      <c r="Q425" s="32">
-        <v>297</v>
-      </c>
-      <c r="R425" s="32">
-        <v>79</v>
-      </c>
-      <c r="S425" s="32">
-        <v>274</v>
-      </c>
-      <c r="T425" s="32">
-        <v>28</v>
-      </c>
-      <c r="U425" s="37" t="s">
-        <v>1195</v>
-      </c>
-      <c r="W425" t="s">
-        <v>1196</v>
+        <v>579</v>
+      </c>
+      <c r="P425" s="39">
+        <v>573</v>
+      </c>
+      <c r="Q425" s="39">
+        <v>196</v>
+      </c>
+      <c r="R425" s="39">
+        <v>77</v>
+      </c>
+      <c r="S425" s="39">
+        <v>151</v>
+      </c>
+      <c r="T425" s="39">
+        <v>23</v>
+      </c>
+      <c r="U425" s="40" t="s">
+        <v>1201</v>
       </c>
     </row>
     <row r="426" ht="14.25" spans="1:21">
       <c r="A426">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B426" t="s">
-        <v>188</v>
+        <v>128</v>
       </c>
       <c r="C426" t="s">
-        <v>181</v>
-      </c>
-      <c r="N426" s="32" t="s">
-        <v>181</v>
+        <v>121</v>
+      </c>
+      <c r="N426" s="39" t="s">
+        <v>23</v>
       </c>
       <c r="O426" t="s">
-        <v>586</v>
-      </c>
-      <c r="P426" s="32">
-        <v>811</v>
-      </c>
-      <c r="Q426" s="32">
-        <v>214</v>
-      </c>
-      <c r="R426" s="32">
-        <v>51</v>
-      </c>
-      <c r="S426" s="32">
-        <v>170</v>
-      </c>
-      <c r="T426" s="32">
-        <v>24</v>
-      </c>
-      <c r="U426" s="37" t="s">
-        <v>1197</v>
-      </c>
-    </row>
-    <row r="427" ht="14.25" spans="2:23">
+        <v>577</v>
+      </c>
+      <c r="P426" s="39">
+        <v>228</v>
+      </c>
+      <c r="Q426" s="39">
+        <v>109</v>
+      </c>
+      <c r="R426" s="39">
+        <v>37</v>
+      </c>
+      <c r="S426" s="39">
+        <v>117</v>
+      </c>
+      <c r="T426" s="39">
+        <v>21</v>
+      </c>
+      <c r="U426" s="40" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="427" spans="1:21">
+      <c r="A427">
+        <v>370</v>
+      </c>
       <c r="B427" t="s">
-        <v>183</v>
+        <v>130</v>
       </c>
       <c r="C427" t="s">
-        <v>181</v>
+        <v>121</v>
       </c>
       <c r="D427">
-        <v>12.9</v>
+        <v>10.4</v>
       </c>
       <c r="E427">
-        <v>7.2</v>
+        <v>2.7</v>
       </c>
       <c r="F427">
+        <v>3.2</v>
+      </c>
+      <c r="G427">
+        <v>1.13</v>
+      </c>
+      <c r="H427">
+        <v>0.53</v>
+      </c>
+      <c r="I427">
         <v>2</v>
       </c>
-      <c r="G427">
-        <v>1.26</v>
-      </c>
-      <c r="H427">
-        <v>0.82</v>
-      </c>
-      <c r="I427">
-        <v>4</v>
-      </c>
       <c r="J427">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="K427">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="L427" t="s">
-        <v>1198</v>
+        <v>1203</v>
       </c>
       <c r="M427" t="s">
-        <v>1199</v>
-      </c>
-      <c r="N427" s="32" t="s">
-        <v>181</v>
+        <v>1204</v>
+      </c>
+      <c r="N427" s="39" t="s">
+        <v>121</v>
       </c>
       <c r="O427" t="s">
         <v>593</v>
       </c>
-      <c r="P427" s="32">
-        <v>785</v>
-      </c>
-      <c r="Q427" s="32">
-        <v>438</v>
-      </c>
-      <c r="R427" s="32">
-        <v>78</v>
-      </c>
-      <c r="S427" s="32">
-        <v>120</v>
-      </c>
-      <c r="T427" s="32">
-        <v>50</v>
-      </c>
-      <c r="U427" s="37" t="s">
-        <v>1200</v>
-      </c>
-      <c r="W427" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="428" ht="14.25" spans="2:23">
+      <c r="P427">
+        <v>770</v>
+      </c>
+      <c r="Q427">
+        <v>201</v>
+      </c>
+      <c r="R427">
+        <v>83</v>
+      </c>
+      <c r="S427">
+        <v>237</v>
+      </c>
+      <c r="T427">
+        <v>40</v>
+      </c>
+      <c r="U427" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="428" ht="14.25" spans="1:21">
+      <c r="A428">
+        <v>371</v>
+      </c>
       <c r="B428" t="s">
-        <v>183</v>
+        <v>135</v>
       </c>
       <c r="C428" t="s">
-        <v>181</v>
-      </c>
-      <c r="N428" s="32" t="s">
-        <v>181</v>
+        <v>121</v>
+      </c>
+      <c r="D428">
+        <v>8.9</v>
+      </c>
+      <c r="E428">
+        <v>7.9</v>
+      </c>
+      <c r="F428">
+        <v>1.7</v>
+      </c>
+      <c r="G428">
+        <v>0.26</v>
+      </c>
+      <c r="H428">
+        <v>0.89</v>
+      </c>
+      <c r="I428">
+        <v>40</v>
+      </c>
+      <c r="J428">
+        <v>2.16</v>
+      </c>
+      <c r="K428">
+        <v>109</v>
+      </c>
+      <c r="L428" t="s">
+        <v>1206</v>
+      </c>
+      <c r="M428" t="s">
+        <v>1207</v>
+      </c>
+      <c r="N428" s="39" t="s">
+        <v>121</v>
       </c>
       <c r="O428" t="s">
+        <v>593</v>
+      </c>
+      <c r="P428" s="39">
+        <v>162</v>
+      </c>
+      <c r="Q428" s="39">
+        <v>144</v>
+      </c>
+      <c r="R428" s="39">
+        <v>4</v>
+      </c>
+      <c r="S428" s="39">
+        <v>31</v>
+      </c>
+      <c r="T428" s="39">
+        <v>17</v>
+      </c>
+      <c r="U428" s="40" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="429" ht="14.25" spans="1:21">
+      <c r="A429">
+        <v>372</v>
+      </c>
+      <c r="B429" t="s">
+        <v>135</v>
+      </c>
+      <c r="C429" t="s">
+        <v>121</v>
+      </c>
+      <c r="N429" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="O429" t="s">
+        <v>593</v>
+      </c>
+      <c r="P429" s="39">
+        <v>281</v>
+      </c>
+      <c r="Q429" s="39">
+        <v>162</v>
+      </c>
+      <c r="R429" s="39">
+        <v>4</v>
+      </c>
+      <c r="S429" s="39">
+        <v>25</v>
+      </c>
+      <c r="T429" s="39">
+        <v>27</v>
+      </c>
+      <c r="U429" s="40" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="430" ht="14.25" spans="1:21">
+      <c r="A430">
+        <v>373</v>
+      </c>
+      <c r="B430" t="s">
+        <v>135</v>
+      </c>
+      <c r="C430" t="s">
+        <v>121</v>
+      </c>
+      <c r="N430" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="O430" t="s">
         <v>589</v>
       </c>
-      <c r="P428" s="32">
-        <v>555</v>
-      </c>
-      <c r="Q428" s="32">
-        <v>245</v>
-      </c>
-      <c r="R428" s="32">
-        <v>39</v>
-      </c>
-      <c r="S428" s="32">
-        <v>105</v>
-      </c>
-      <c r="T428" s="32">
-        <v>44</v>
-      </c>
-      <c r="U428" s="37" t="s">
-        <v>1202</v>
-      </c>
-      <c r="W428" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="429" ht="14.25" spans="2:23">
-      <c r="B429" t="s">
-        <v>183</v>
-      </c>
-      <c r="C429" t="s">
-        <v>181</v>
-      </c>
-      <c r="N429" s="32" t="s">
-        <v>426</v>
-      </c>
-      <c r="O429" t="s">
+      <c r="P430" s="39">
+        <v>161</v>
+      </c>
+      <c r="Q430" s="39">
+        <v>123</v>
+      </c>
+      <c r="R430" s="39">
+        <v>8</v>
+      </c>
+      <c r="S430" s="39">
+        <v>25</v>
+      </c>
+      <c r="T430" s="39">
+        <v>15</v>
+      </c>
+      <c r="U430" s="40" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="431" ht="14.25" spans="1:21">
+      <c r="A431">
+        <v>374</v>
+      </c>
+      <c r="B431" t="s">
+        <v>135</v>
+      </c>
+      <c r="C431" t="s">
+        <v>121</v>
+      </c>
+      <c r="N431" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="O431" t="s">
         <v>586</v>
       </c>
-      <c r="P429" s="32">
-        <v>1246</v>
-      </c>
-      <c r="Q429" s="32">
-        <v>533</v>
-      </c>
-      <c r="R429" s="32">
-        <v>90</v>
-      </c>
-      <c r="S429" s="32">
-        <v>252</v>
-      </c>
-      <c r="T429" s="32">
-        <v>62</v>
-      </c>
-      <c r="U429" s="37" t="s">
-        <v>1203</v>
-      </c>
-      <c r="W429" s="7" t="s">
-        <v>1204</v>
-      </c>
-    </row>
-    <row r="430" ht="14.25" spans="2:23">
-      <c r="B430" t="s">
-        <v>183</v>
-      </c>
-      <c r="C430" t="s">
-        <v>181</v>
-      </c>
-      <c r="N430" s="32" t="s">
-        <v>426</v>
-      </c>
-      <c r="O430" t="s">
-        <v>583</v>
-      </c>
-      <c r="P430" s="32">
-        <v>1385</v>
-      </c>
-      <c r="Q430" s="32">
-        <v>732</v>
-      </c>
-      <c r="R430" s="32">
-        <v>147</v>
-      </c>
-      <c r="S430" s="32">
-        <v>265</v>
-      </c>
-      <c r="T430" s="32">
-        <v>139</v>
-      </c>
-      <c r="U430" s="37" t="s">
-        <v>1205</v>
-      </c>
-      <c r="W430" t="s">
-        <v>1206</v>
-      </c>
-    </row>
-    <row r="431" ht="14.25" spans="2:23">
-      <c r="B431" t="s">
-        <v>183</v>
-      </c>
-      <c r="C431" t="s">
-        <v>181</v>
-      </c>
-      <c r="N431" s="32" t="s">
-        <v>426</v>
-      </c>
-      <c r="O431" t="s">
-        <v>581</v>
-      </c>
-      <c r="P431" s="32">
-        <v>1218</v>
-      </c>
-      <c r="Q431" s="32">
-        <v>570</v>
-      </c>
-      <c r="R431" s="32">
-        <v>130</v>
-      </c>
-      <c r="S431" s="32">
-        <v>223</v>
-      </c>
-      <c r="T431" s="32">
-        <v>69</v>
-      </c>
-      <c r="U431" s="37" t="s">
-        <v>1207</v>
-      </c>
-      <c r="W431" t="s">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="432" ht="14.25" spans="2:23">
+      <c r="P431" s="39">
+        <v>284</v>
+      </c>
+      <c r="Q431" s="39">
+        <v>159</v>
+      </c>
+      <c r="R431" s="39">
+        <v>14</v>
+      </c>
+      <c r="S431" s="39">
+        <v>30</v>
+      </c>
+      <c r="T431" s="39">
+        <v>33</v>
+      </c>
+      <c r="U431" s="40" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="432" ht="14.25" spans="1:23">
+      <c r="A432">
+        <v>375</v>
+      </c>
       <c r="B432" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C432" t="s">
         <v>181</v>
       </c>
+      <c r="D432">
+        <v>20.2</v>
+      </c>
+      <c r="E432">
+        <v>10.8</v>
+      </c>
+      <c r="F432">
+        <v>7.6</v>
+      </c>
+      <c r="G432">
+        <v>1.34</v>
+      </c>
+      <c r="H432">
+        <v>0.69</v>
+      </c>
+      <c r="I432">
+        <v>15</v>
+      </c>
+      <c r="J432">
+        <v>2.13</v>
+      </c>
+      <c r="K432">
+        <v>113</v>
+      </c>
+      <c r="L432" t="s">
+        <v>1212</v>
+      </c>
+      <c r="M432" t="s">
+        <v>1213</v>
+      </c>
       <c r="N432" s="32" t="s">
-        <v>426</v>
+        <v>181</v>
       </c>
       <c r="O432" t="s">
-        <v>579</v>
+        <v>593</v>
       </c>
       <c r="P432" s="32">
-        <v>1328</v>
+        <v>1436</v>
       </c>
       <c r="Q432" s="32">
-        <v>627</v>
+        <v>764</v>
       </c>
       <c r="R432" s="32">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="S432" s="32">
-        <v>232</v>
+        <v>537</v>
       </c>
       <c r="T432" s="32">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="U432" s="37" t="s">
-        <v>1209</v>
+        <v>1214</v>
       </c>
       <c r="W432" t="s">
-        <v>1210</v>
-      </c>
-    </row>
-    <row r="433" ht="14.25" spans="2:21">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="433" ht="14.25" spans="1:21">
+      <c r="A433">
+        <v>376</v>
+      </c>
       <c r="B433" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C433" t="s">
         <v>181</v>
       </c>
       <c r="N433" s="32" t="s">
-        <v>227</v>
+        <v>181</v>
       </c>
       <c r="O433" t="s">
-        <v>577</v>
+        <v>589</v>
       </c>
       <c r="P433" s="32">
-        <v>1135</v>
+        <v>1385</v>
       </c>
       <c r="Q433" s="32">
-        <v>554</v>
+        <v>803</v>
       </c>
       <c r="R433" s="32">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="S433" s="32">
-        <v>201</v>
+        <v>458</v>
       </c>
       <c r="T433" s="32">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="U433" s="37" t="s">
-        <v>1211</v>
-      </c>
-    </row>
-    <row r="434" ht="14.25" spans="2:21">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="434" ht="14.25" spans="1:21">
+      <c r="A434">
+        <v>377</v>
+      </c>
       <c r="B434" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C434" t="s">
         <v>181</v>
       </c>
       <c r="N434" s="32" t="s">
-        <v>227</v>
+        <v>181</v>
       </c>
       <c r="O434" t="s">
-        <v>575</v>
+        <v>586</v>
       </c>
       <c r="P434" s="32">
-        <v>1061</v>
+        <v>1221</v>
       </c>
       <c r="Q434" s="32">
-        <v>563</v>
+        <v>718</v>
       </c>
       <c r="R434" s="32">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="S434" s="32">
-        <v>150</v>
+        <v>359</v>
       </c>
       <c r="T434" s="32">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="U434" s="37" t="s">
-        <v>1212</v>
-      </c>
-    </row>
-    <row r="435" ht="14.25" spans="2:21">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="435" ht="14.25" spans="1:21">
+      <c r="A435">
+        <v>378</v>
+      </c>
       <c r="B435" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C435" t="s">
         <v>181</v>
       </c>
       <c r="N435" s="32" t="s">
-        <v>227</v>
+        <v>181</v>
       </c>
       <c r="O435" t="s">
-        <v>572</v>
+        <v>583</v>
       </c>
       <c r="P435" s="32">
-        <v>1315</v>
+        <v>796</v>
       </c>
       <c r="Q435" s="32">
-        <v>579</v>
+        <v>560</v>
       </c>
       <c r="R435" s="32">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="S435" s="32">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="T435" s="32">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="U435" s="37" t="s">
-        <v>1213</v>
-      </c>
-    </row>
-    <row r="436" ht="14.25" spans="2:21">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="436" ht="14.25" spans="1:23">
+      <c r="A436">
+        <v>379</v>
+      </c>
       <c r="B436" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C436" t="s">
         <v>181</v>
       </c>
+      <c r="D436">
+        <v>17.9</v>
+      </c>
+      <c r="E436">
+        <v>4.2</v>
+      </c>
+      <c r="F436">
+        <v>4.8</v>
+      </c>
+      <c r="G436">
+        <v>0.83</v>
+      </c>
+      <c r="H436">
+        <v>0.83</v>
+      </c>
+      <c r="I436">
+        <v>27</v>
+      </c>
+      <c r="J436">
+        <v>1.93</v>
+      </c>
+      <c r="K436">
+        <v>94</v>
+      </c>
+      <c r="L436" t="s">
+        <v>1219</v>
+      </c>
+      <c r="M436" t="s">
+        <v>1220</v>
+      </c>
       <c r="N436" s="32" t="s">
-        <v>227</v>
+        <v>181</v>
       </c>
       <c r="O436" t="s">
-        <v>570</v>
+        <v>593</v>
       </c>
       <c r="P436" s="32">
-        <v>954</v>
+        <v>1182</v>
       </c>
       <c r="Q436" s="32">
-        <v>559</v>
+        <v>276</v>
       </c>
       <c r="R436" s="32">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="S436" s="32">
-        <v>131</v>
+        <v>316</v>
       </c>
       <c r="T436" s="32">
-        <v>99</v>
+        <v>24</v>
       </c>
       <c r="U436" s="37" t="s">
-        <v>1214</v>
-      </c>
-    </row>
-    <row r="437" ht="14.25" spans="2:21">
+        <v>1221</v>
+      </c>
+      <c r="W436" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="437" ht="14.25" spans="1:23">
+      <c r="A437">
+        <v>380</v>
+      </c>
       <c r="B437" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C437" t="s">
         <v>181</v>
       </c>
       <c r="N437" s="32" t="s">
-        <v>227</v>
+        <v>181</v>
       </c>
       <c r="O437" t="s">
-        <v>568</v>
+        <v>589</v>
       </c>
       <c r="P437" s="32">
-        <v>1028</v>
+        <v>1352</v>
       </c>
       <c r="Q437" s="32">
-        <v>654</v>
+        <v>297</v>
       </c>
       <c r="R437" s="32">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="S437" s="32">
-        <v>138</v>
+        <v>274</v>
       </c>
       <c r="T437" s="32">
-        <v>73</v>
+        <v>28</v>
       </c>
       <c r="U437" s="37" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="438" ht="14.25" spans="2:21">
+        <v>1223</v>
+      </c>
+      <c r="W437" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="438" ht="14.25" spans="1:21">
+      <c r="A438">
+        <v>381</v>
+      </c>
       <c r="B438" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C438" t="s">
         <v>181</v>
       </c>
       <c r="N438" s="32" t="s">
-        <v>227</v>
+        <v>181</v>
       </c>
       <c r="O438" t="s">
-        <v>653</v>
+        <v>586</v>
       </c>
       <c r="P438" s="32">
-        <v>661</v>
+        <v>811</v>
       </c>
       <c r="Q438" s="32">
-        <v>460</v>
+        <v>214</v>
       </c>
       <c r="R438" s="32">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="S438" s="32">
-        <v>81</v>
+        <v>170</v>
       </c>
       <c r="T438" s="32">
-        <v>73</v>
+        <v>24</v>
       </c>
       <c r="U438" s="37" t="s">
-        <v>1216</v>
-      </c>
-    </row>
-    <row r="439" ht="14.25" spans="2:21">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="439" ht="14.25" spans="1:23">
+      <c r="A439">
+        <v>382</v>
+      </c>
       <c r="B439" t="s">
         <v>183</v>
       </c>
       <c r="C439" t="s">
         <v>181</v>
       </c>
+      <c r="D439">
+        <v>12.9</v>
+      </c>
+      <c r="E439">
+        <v>7.2</v>
+      </c>
+      <c r="F439">
+        <v>2</v>
+      </c>
+      <c r="G439">
+        <v>1.26</v>
+      </c>
+      <c r="H439">
+        <v>0.82</v>
+      </c>
+      <c r="I439">
+        <v>4</v>
+      </c>
+      <c r="J439">
+        <v>2.03</v>
+      </c>
+      <c r="K439">
+        <v>112</v>
+      </c>
+      <c r="L439" t="s">
+        <v>1226</v>
+      </c>
+      <c r="M439" t="s">
+        <v>1227</v>
+      </c>
       <c r="N439" s="32" t="s">
-        <v>227</v>
+        <v>181</v>
       </c>
       <c r="O439" t="s">
-        <v>650</v>
+        <v>593</v>
       </c>
       <c r="P439" s="32">
-        <v>559</v>
+        <v>785</v>
       </c>
       <c r="Q439" s="32">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="R439" s="32">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="S439" s="32">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="T439" s="32">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="U439" s="37" t="s">
-        <v>1217</v>
-      </c>
-    </row>
-    <row r="440" ht="14.25" spans="2:21">
+        <v>1228</v>
+      </c>
+      <c r="W439" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="440" ht="14.25" spans="1:23">
+      <c r="A440">
+        <v>383</v>
+      </c>
       <c r="B440" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C440" t="s">
         <v>181</v>
       </c>
-      <c r="D440">
-        <v>13.5</v>
-      </c>
-      <c r="E440">
-        <v>2.9</v>
-      </c>
-      <c r="F440">
-        <v>2.4</v>
-      </c>
-      <c r="G440">
-        <v>0.94</v>
-      </c>
-      <c r="H440">
-        <v>0.38</v>
-      </c>
-      <c r="I440">
-        <v>14</v>
-      </c>
-      <c r="J440">
-        <v>1.93</v>
-      </c>
-      <c r="K440">
-        <v>95</v>
-      </c>
-      <c r="L440" t="s">
-        <v>1218</v>
-      </c>
-      <c r="M440" t="s">
-        <v>1219</v>
-      </c>
       <c r="N440" s="32" t="s">
         <v>181</v>
       </c>
       <c r="O440" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="P440" s="32">
-        <v>636</v>
+        <v>555</v>
       </c>
       <c r="Q440" s="32">
-        <v>139</v>
+        <v>245</v>
       </c>
       <c r="R440" s="32">
+        <v>39</v>
+      </c>
+      <c r="S440" s="32">
+        <v>105</v>
+      </c>
+      <c r="T440" s="32">
         <v>44</v>
       </c>
-      <c r="S440" s="32">
-        <v>112</v>
-      </c>
-      <c r="T440" s="32">
-        <v>18</v>
-      </c>
       <c r="U440" s="37" t="s">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="441" ht="14.25" spans="2:21">
+        <v>1230</v>
+      </c>
+      <c r="W440" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="441" ht="14.25" spans="1:23">
+      <c r="A441">
+        <v>384</v>
+      </c>
       <c r="B441" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C441" t="s">
         <v>181</v>
       </c>
       <c r="N441" s="32" t="s">
-        <v>181</v>
+        <v>426</v>
       </c>
       <c r="O441" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="P441" s="32">
-        <v>1170</v>
+        <v>1246</v>
       </c>
       <c r="Q441" s="32">
-        <v>176</v>
+        <v>533</v>
       </c>
       <c r="R441" s="32">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="S441" s="32">
-        <v>194</v>
+        <v>252</v>
       </c>
       <c r="T441" s="32">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="U441" s="37" t="s">
-        <v>1221</v>
-      </c>
-    </row>
-    <row r="442" ht="14.25" spans="2:21">
+        <v>1231</v>
+      </c>
+      <c r="W441" s="7" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="442" ht="14.25" spans="1:23">
+      <c r="A442">
+        <v>385</v>
+      </c>
       <c r="B442" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C442" t="s">
         <v>181</v>
       </c>
       <c r="N442" s="32" t="s">
-        <v>181</v>
+        <v>426</v>
       </c>
       <c r="O442" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="P442" s="32">
-        <v>851</v>
+        <v>1385</v>
       </c>
       <c r="Q442" s="32">
-        <v>178</v>
+        <v>732</v>
       </c>
       <c r="R442" s="32">
-        <v>71</v>
+        <v>147</v>
       </c>
       <c r="S442" s="32">
-        <v>164</v>
+        <v>265</v>
       </c>
       <c r="T442" s="32">
-        <v>8</v>
+        <v>139</v>
       </c>
       <c r="U442" s="37" t="s">
-        <v>1222</v>
-      </c>
-    </row>
-    <row r="443" ht="14.25" spans="2:21">
+        <v>1233</v>
+      </c>
+      <c r="W442" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="443" ht="14.25" spans="1:23">
+      <c r="A443">
+        <v>386</v>
+      </c>
       <c r="B443" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C443" t="s">
         <v>181</v>
       </c>
       <c r="N443" s="32" t="s">
-        <v>181</v>
+        <v>426</v>
       </c>
       <c r="O443" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="P443" s="32">
-        <v>932</v>
+        <v>1218</v>
       </c>
       <c r="Q443" s="32">
-        <v>220</v>
+        <v>570</v>
       </c>
       <c r="R443" s="32">
-        <v>97</v>
+        <v>130</v>
       </c>
       <c r="S443" s="32">
-        <v>147</v>
+        <v>223</v>
       </c>
       <c r="T443" s="32">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="U443" s="37" t="s">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="444" ht="14.25" spans="2:21">
+        <v>1235</v>
+      </c>
+      <c r="W443" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="444" ht="14.25" spans="1:23">
+      <c r="A444">
+        <v>387</v>
+      </c>
       <c r="B444" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C444" t="s">
         <v>181</v>
       </c>
       <c r="N444" s="32" t="s">
-        <v>181</v>
+        <v>426</v>
       </c>
       <c r="O444" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="P444" s="32">
-        <v>188</v>
+        <v>1328</v>
       </c>
       <c r="Q444" s="32">
-        <v>64</v>
+        <v>627</v>
       </c>
       <c r="R444" s="32">
-        <v>39</v>
+        <v>129</v>
       </c>
       <c r="S444" s="32">
-        <v>29</v>
+        <v>232</v>
       </c>
       <c r="T444" s="32">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="U444" s="37" t="s">
-        <v>1224</v>
-      </c>
-    </row>
-    <row r="445" ht="14.25" spans="2:21">
+        <v>1237</v>
+      </c>
+      <c r="W444" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="445" ht="14.25" spans="1:21">
+      <c r="A445">
+        <v>388</v>
+      </c>
       <c r="B445" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="C445" t="s">
         <v>181</v>
       </c>
-      <c r="D445">
-        <v>11.4</v>
-      </c>
-      <c r="E445">
-        <v>2.5</v>
-      </c>
-      <c r="F445">
-        <v>1.2</v>
-      </c>
-      <c r="G445">
-        <v>0.65</v>
-      </c>
-      <c r="H445">
-        <v>0.12</v>
-      </c>
-      <c r="I445">
-        <v>25</v>
-      </c>
-      <c r="J445">
-        <v>1.96</v>
-      </c>
-      <c r="K445">
-        <v>89</v>
-      </c>
-      <c r="L445" t="s">
-        <v>1225</v>
-      </c>
-      <c r="M445" t="s">
-        <v>1226</v>
-      </c>
       <c r="N445" s="32" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
       <c r="O445" t="s">
-        <v>593</v>
+        <v>577</v>
       </c>
       <c r="P445" s="32">
-        <v>822</v>
+        <v>1135</v>
       </c>
       <c r="Q445" s="32">
+        <v>554</v>
+      </c>
+      <c r="R445" s="32">
+        <v>102</v>
+      </c>
+      <c r="S445" s="32">
+        <v>201</v>
+      </c>
+      <c r="T445" s="32">
+        <v>80</v>
+      </c>
+      <c r="U445" s="37" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="446" ht="14.25" spans="1:21">
+      <c r="A446">
+        <v>389</v>
+      </c>
+      <c r="B446" t="s">
         <v>183</v>
-      </c>
-      <c r="R445" s="32">
-        <v>47</v>
-      </c>
-      <c r="S445" s="32">
-        <v>89</v>
-      </c>
-      <c r="T445" s="32">
-        <v>9</v>
-      </c>
-      <c r="U445" s="37" t="s">
-        <v>1227</v>
-      </c>
-    </row>
-    <row r="446" ht="14.25" spans="2:21">
-      <c r="B446" t="s">
-        <v>195</v>
       </c>
       <c r="C446" t="s">
         <v>181</v>
       </c>
       <c r="N446" s="32" t="s">
-        <v>181</v>
+        <v>227</v>
       </c>
       <c r="O446" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="P446" s="32">
-        <v>196</v>
+        <v>1061</v>
       </c>
       <c r="Q446" s="32">
-        <v>71</v>
+        <v>563</v>
       </c>
       <c r="R446" s="32">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c r="S446" s="32">
-        <v>31</v>
+        <v>150</v>
       </c>
       <c r="T446" s="32">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="U446" s="37" t="s">
-        <v>1228</v>
-      </c>
-    </row>
-    <row r="447" ht="14.25" spans="2:21">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="447" ht="14.25" spans="1:21">
+      <c r="A447">
+        <v>390</v>
+      </c>
       <c r="B447" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="C447" t="s">
         <v>181</v>
       </c>
       <c r="N447" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="O447" t="s">
+        <v>572</v>
+      </c>
+      <c r="P447" s="32">
+        <v>1315</v>
+      </c>
+      <c r="Q447" s="32">
+        <v>579</v>
+      </c>
+      <c r="R447" s="32">
+        <v>103</v>
+      </c>
+      <c r="S447" s="32">
+        <v>187</v>
+      </c>
+      <c r="T447" s="32">
+        <v>69</v>
+      </c>
+      <c r="U447" s="37" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="448" ht="14.25" spans="1:21">
+      <c r="A448">
+        <v>391</v>
+      </c>
+      <c r="B448" t="s">
+        <v>183</v>
+      </c>
+      <c r="C448" t="s">
         <v>181</v>
       </c>
-      <c r="O447" t="s">
+      <c r="N448" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="O448" t="s">
+        <v>570</v>
+      </c>
+      <c r="P448" s="32">
+        <v>954</v>
+      </c>
+      <c r="Q448" s="32">
+        <v>559</v>
+      </c>
+      <c r="R448" s="32">
+        <v>64</v>
+      </c>
+      <c r="S448" s="32">
+        <v>131</v>
+      </c>
+      <c r="T448" s="32">
+        <v>99</v>
+      </c>
+      <c r="U448" s="37" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="449" ht="14.25" spans="1:21">
+      <c r="A449">
+        <v>392</v>
+      </c>
+      <c r="B449" t="s">
+        <v>183</v>
+      </c>
+      <c r="C449" t="s">
+        <v>181</v>
+      </c>
+      <c r="N449" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="O449" t="s">
+        <v>568</v>
+      </c>
+      <c r="P449" s="32">
+        <v>1028</v>
+      </c>
+      <c r="Q449" s="32">
+        <v>654</v>
+      </c>
+      <c r="R449" s="32">
+        <v>78</v>
+      </c>
+      <c r="S449" s="32">
+        <v>138</v>
+      </c>
+      <c r="T449" s="32">
+        <v>73</v>
+      </c>
+      <c r="U449" s="37" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="450" ht="14.25" spans="1:21">
+      <c r="A450">
+        <v>393</v>
+      </c>
+      <c r="B450" t="s">
+        <v>183</v>
+      </c>
+      <c r="C450" t="s">
+        <v>181</v>
+      </c>
+      <c r="N450" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="O450" t="s">
+        <v>653</v>
+      </c>
+      <c r="P450" s="32">
+        <v>661</v>
+      </c>
+      <c r="Q450" s="32">
+        <v>460</v>
+      </c>
+      <c r="R450" s="32">
+        <v>72</v>
+      </c>
+      <c r="S450" s="32">
+        <v>81</v>
+      </c>
+      <c r="T450" s="32">
+        <v>73</v>
+      </c>
+      <c r="U450" s="37" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="451" ht="14.25" spans="1:21">
+      <c r="A451">
+        <v>394</v>
+      </c>
+      <c r="B451" t="s">
+        <v>183</v>
+      </c>
+      <c r="C451" t="s">
+        <v>181</v>
+      </c>
+      <c r="N451" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="O451" t="s">
+        <v>650</v>
+      </c>
+      <c r="P451" s="32">
+        <v>559</v>
+      </c>
+      <c r="Q451" s="32">
+        <v>423</v>
+      </c>
+      <c r="R451" s="32">
+        <v>67</v>
+      </c>
+      <c r="S451" s="32">
+        <v>62</v>
+      </c>
+      <c r="T451" s="32">
+        <v>74</v>
+      </c>
+      <c r="U451" s="37" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="452" ht="14.25" spans="1:21">
+      <c r="A452">
+        <v>395</v>
+      </c>
+      <c r="B452" t="s">
+        <v>185</v>
+      </c>
+      <c r="C452" t="s">
+        <v>181</v>
+      </c>
+      <c r="D452">
+        <v>13.5</v>
+      </c>
+      <c r="E452">
+        <v>2.9</v>
+      </c>
+      <c r="F452">
+        <v>2.4</v>
+      </c>
+      <c r="G452">
+        <v>0.94</v>
+      </c>
+      <c r="H452">
+        <v>0.38</v>
+      </c>
+      <c r="I452">
+        <v>14</v>
+      </c>
+      <c r="J452">
+        <v>1.93</v>
+      </c>
+      <c r="K452">
+        <v>95</v>
+      </c>
+      <c r="L452" t="s">
+        <v>1246</v>
+      </c>
+      <c r="M452" t="s">
+        <v>1247</v>
+      </c>
+      <c r="N452" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="O452" t="s">
+        <v>593</v>
+      </c>
+      <c r="P452" s="32">
+        <v>636</v>
+      </c>
+      <c r="Q452" s="32">
+        <v>139</v>
+      </c>
+      <c r="R452" s="32">
+        <v>44</v>
+      </c>
+      <c r="S452" s="32">
+        <v>112</v>
+      </c>
+      <c r="T452" s="32">
+        <v>18</v>
+      </c>
+      <c r="U452" s="37" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="453" ht="14.25" spans="1:21">
+      <c r="A453">
+        <v>396</v>
+      </c>
+      <c r="B453" t="s">
+        <v>185</v>
+      </c>
+      <c r="C453" t="s">
+        <v>181</v>
+      </c>
+      <c r="N453" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="O453" t="s">
+        <v>589</v>
+      </c>
+      <c r="P453" s="32">
+        <v>1170</v>
+      </c>
+      <c r="Q453" s="32">
+        <v>176</v>
+      </c>
+      <c r="R453" s="32">
+        <v>122</v>
+      </c>
+      <c r="S453" s="32">
+        <v>194</v>
+      </c>
+      <c r="T453" s="32">
+        <v>15</v>
+      </c>
+      <c r="U453" s="37" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="454" ht="14.25" spans="1:21">
+      <c r="A454">
+        <v>397</v>
+      </c>
+      <c r="B454" t="s">
+        <v>185</v>
+      </c>
+      <c r="C454" t="s">
+        <v>181</v>
+      </c>
+      <c r="N454" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="O454" t="s">
         <v>586</v>
       </c>
-      <c r="P447" s="32">
+      <c r="P454" s="32">
+        <v>851</v>
+      </c>
+      <c r="Q454" s="32">
+        <v>178</v>
+      </c>
+      <c r="R454" s="32">
+        <v>71</v>
+      </c>
+      <c r="S454" s="32">
+        <v>164</v>
+      </c>
+      <c r="T454" s="32">
+        <v>8</v>
+      </c>
+      <c r="U454" s="37" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="455" ht="14.25" spans="1:21">
+      <c r="A455">
+        <v>398</v>
+      </c>
+      <c r="B455" t="s">
+        <v>185</v>
+      </c>
+      <c r="C455" t="s">
+        <v>181</v>
+      </c>
+      <c r="N455" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="O455" t="s">
+        <v>583</v>
+      </c>
+      <c r="P455" s="32">
+        <v>932</v>
+      </c>
+      <c r="Q455" s="32">
+        <v>220</v>
+      </c>
+      <c r="R455" s="32">
+        <v>97</v>
+      </c>
+      <c r="S455" s="32">
+        <v>147</v>
+      </c>
+      <c r="T455" s="32">
+        <v>18</v>
+      </c>
+      <c r="U455" s="37" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="456" ht="14.25" spans="1:21">
+      <c r="A456">
+        <v>399</v>
+      </c>
+      <c r="B456" t="s">
+        <v>185</v>
+      </c>
+      <c r="C456" t="s">
+        <v>181</v>
+      </c>
+      <c r="N456" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="O456" t="s">
+        <v>581</v>
+      </c>
+      <c r="P456" s="32">
+        <v>188</v>
+      </c>
+      <c r="Q456" s="32">
+        <v>64</v>
+      </c>
+      <c r="R456" s="32">
+        <v>39</v>
+      </c>
+      <c r="S456" s="32">
+        <v>29</v>
+      </c>
+      <c r="T456" s="32">
+        <v>7</v>
+      </c>
+      <c r="U456" s="37" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="457" ht="14.25" spans="1:21">
+      <c r="A457">
+        <v>400</v>
+      </c>
+      <c r="B457" t="s">
+        <v>195</v>
+      </c>
+      <c r="C457" t="s">
+        <v>181</v>
+      </c>
+      <c r="D457">
+        <v>11.4</v>
+      </c>
+      <c r="E457">
+        <v>2.5</v>
+      </c>
+      <c r="F457">
+        <v>1.2</v>
+      </c>
+      <c r="G457">
+        <v>0.65</v>
+      </c>
+      <c r="H457">
+        <v>0.12</v>
+      </c>
+      <c r="I457">
+        <v>25</v>
+      </c>
+      <c r="J457">
+        <v>1.96</v>
+      </c>
+      <c r="K457">
+        <v>89</v>
+      </c>
+      <c r="L457" t="s">
+        <v>1253</v>
+      </c>
+      <c r="M457" t="s">
+        <v>1254</v>
+      </c>
+      <c r="N457" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="O457" t="s">
+        <v>593</v>
+      </c>
+      <c r="P457" s="32">
+        <v>822</v>
+      </c>
+      <c r="Q457" s="32">
+        <v>183</v>
+      </c>
+      <c r="R457" s="32">
+        <v>47</v>
+      </c>
+      <c r="S457" s="32">
+        <v>89</v>
+      </c>
+      <c r="T457" s="32">
+        <v>9</v>
+      </c>
+      <c r="U457" s="37" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="458" ht="14.25" spans="1:21">
+      <c r="A458">
+        <v>401</v>
+      </c>
+      <c r="B458" t="s">
+        <v>195</v>
+      </c>
+      <c r="C458" t="s">
+        <v>181</v>
+      </c>
+      <c r="N458" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="O458" t="s">
+        <v>589</v>
+      </c>
+      <c r="P458" s="32">
+        <v>196</v>
+      </c>
+      <c r="Q458" s="32">
+        <v>71</v>
+      </c>
+      <c r="R458" s="32">
+        <v>15</v>
+      </c>
+      <c r="S458" s="32">
+        <v>31</v>
+      </c>
+      <c r="T458" s="32">
+        <v>7</v>
+      </c>
+      <c r="U458" s="37" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="459" ht="14.25" spans="1:21">
+      <c r="A459">
+        <v>402</v>
+      </c>
+      <c r="B459" t="s">
+        <v>195</v>
+      </c>
+      <c r="C459" t="s">
+        <v>181</v>
+      </c>
+      <c r="N459" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="O459" t="s">
+        <v>586</v>
+      </c>
+      <c r="P459" s="32">
         <v>83</v>
       </c>
-      <c r="Q447" s="32">
+      <c r="Q459" s="32">
         <v>17</v>
       </c>
-      <c r="R447" s="32">
+      <c r="R459" s="32">
         <v>7</v>
       </c>
-      <c r="S447" s="32">
+      <c r="S459" s="32">
         <v>11</v>
       </c>
-      <c r="T447" s="32">
+      <c r="T459" s="32">
         <v>0</v>
       </c>
-      <c r="U447" s="37" t="s">
-        <v>1229</v>
-      </c>
-    </row>
-    <row r="448" ht="14.25" spans="2:23">
-      <c r="B448" t="s">
+      <c r="U459" s="37" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="460" ht="14.25" spans="1:23">
+      <c r="A460">
+        <v>403</v>
+      </c>
+      <c r="B460" t="s">
         <v>199</v>
-      </c>
-      <c r="C448" t="s">
-        <v>198</v>
-      </c>
-      <c r="D448">
-        <v>26.4</v>
-      </c>
-      <c r="E448">
-        <v>4.6</v>
-      </c>
-      <c r="F448">
-        <v>6.8</v>
-      </c>
-      <c r="G448">
-        <v>1.17</v>
-      </c>
-      <c r="H448">
-        <v>0.42</v>
-      </c>
-      <c r="I448">
-        <v>0</v>
-      </c>
-      <c r="J448">
-        <v>1.91</v>
-      </c>
-      <c r="K448">
-        <v>88</v>
-      </c>
-      <c r="L448" t="s">
-        <v>1230</v>
-      </c>
-      <c r="M448" t="s">
-        <v>1231</v>
-      </c>
-      <c r="N448" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="O448" t="s">
-        <v>593</v>
-      </c>
-      <c r="P448">
-        <v>1898</v>
-      </c>
-      <c r="Q448">
-        <v>328</v>
-      </c>
-      <c r="R448">
-        <v>83</v>
-      </c>
-      <c r="S448">
-        <v>491</v>
-      </c>
-      <c r="T448">
-        <v>31</v>
-      </c>
-      <c r="U448" s="40" t="s">
-        <v>1232</v>
-      </c>
-      <c r="W448" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="449" ht="14.25" spans="2:23">
-      <c r="B449" t="s">
-        <v>199</v>
-      </c>
-      <c r="C449" t="s">
-        <v>198</v>
-      </c>
-      <c r="D449"/>
-      <c r="N449" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="O449" t="s">
-        <v>589</v>
-      </c>
-      <c r="P449">
-        <v>1962</v>
-      </c>
-      <c r="Q449">
-        <v>325</v>
-      </c>
-      <c r="R449">
-        <v>77</v>
-      </c>
-      <c r="S449">
-        <v>481</v>
-      </c>
-      <c r="T449">
-        <v>27</v>
-      </c>
-      <c r="U449" s="40" t="s">
-        <v>1234</v>
-      </c>
-      <c r="W449" t="s">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="450" ht="14.25" spans="2:23">
-      <c r="B450" t="s">
-        <v>199</v>
-      </c>
-      <c r="C450" t="s">
-        <v>198</v>
-      </c>
-      <c r="D450"/>
-      <c r="N450" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="O450" t="s">
-        <v>586</v>
-      </c>
-      <c r="P450">
-        <v>2024</v>
-      </c>
-      <c r="Q450">
-        <v>368</v>
-      </c>
-      <c r="R450">
-        <v>68</v>
-      </c>
-      <c r="S450">
-        <v>440</v>
-      </c>
-      <c r="T450">
-        <v>20</v>
-      </c>
-      <c r="U450" s="40" t="s">
-        <v>1235</v>
-      </c>
-      <c r="W450" t="s">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="451" ht="14.25" spans="2:23">
-      <c r="B451" t="s">
-        <v>199</v>
-      </c>
-      <c r="C451" t="s">
-        <v>198</v>
-      </c>
-      <c r="D451"/>
-      <c r="N451" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="O451" t="s">
-        <v>583</v>
-      </c>
-      <c r="P451">
-        <v>1879</v>
-      </c>
-      <c r="Q451">
-        <v>302</v>
-      </c>
-      <c r="R451">
-        <v>65</v>
-      </c>
-      <c r="S451">
-        <v>512</v>
-      </c>
-      <c r="T451">
-        <v>28</v>
-      </c>
-      <c r="U451" s="40" t="s">
-        <v>1237</v>
-      </c>
-      <c r="W451" t="s">
-        <v>1238</v>
-      </c>
-    </row>
-    <row r="452" ht="14.25" spans="2:23">
-      <c r="B452" t="s">
-        <v>199</v>
-      </c>
-      <c r="C452" t="s">
-        <v>198</v>
-      </c>
-      <c r="D452"/>
-      <c r="N452" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="O452" t="s">
-        <v>581</v>
-      </c>
-      <c r="P452">
-        <v>1720</v>
-      </c>
-      <c r="Q452">
-        <v>378</v>
-      </c>
-      <c r="R452">
-        <v>97</v>
-      </c>
-      <c r="S452">
-        <v>507</v>
-      </c>
-      <c r="T452">
-        <v>21</v>
-      </c>
-      <c r="U452" s="40" t="s">
-        <v>1239</v>
-      </c>
-      <c r="W452" t="s">
-        <v>1133</v>
-      </c>
-    </row>
-    <row r="453" ht="14.25" spans="2:23">
-      <c r="B453" t="s">
-        <v>199</v>
-      </c>
-      <c r="C453" t="s">
-        <v>198</v>
-      </c>
-      <c r="N453" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="O453" t="s">
-        <v>579</v>
-      </c>
-      <c r="P453">
-        <v>1695</v>
-      </c>
-      <c r="Q453">
-        <v>288</v>
-      </c>
-      <c r="R453">
-        <v>64</v>
-      </c>
-      <c r="S453">
-        <v>457</v>
-      </c>
-      <c r="T453">
-        <v>22</v>
-      </c>
-      <c r="U453" s="40" t="s">
-        <v>1240</v>
-      </c>
-      <c r="W453" t="s">
-        <v>1241</v>
-      </c>
-    </row>
-    <row r="454" ht="14.25" spans="2:23">
-      <c r="B454" t="s">
-        <v>199</v>
-      </c>
-      <c r="C454" t="s">
-        <v>198</v>
-      </c>
-      <c r="N454" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="O454" t="s">
-        <v>577</v>
-      </c>
-      <c r="P454">
-        <v>1562</v>
-      </c>
-      <c r="Q454">
-        <v>257</v>
-      </c>
-      <c r="R454">
-        <v>74</v>
-      </c>
-      <c r="S454">
-        <v>531</v>
-      </c>
-      <c r="T454">
-        <v>19</v>
-      </c>
-      <c r="U454" s="40" t="s">
-        <v>1242</v>
-      </c>
-      <c r="W454" t="s">
-        <v>1243</v>
-      </c>
-    </row>
-    <row r="455" spans="2:23">
-      <c r="B455" t="s">
-        <v>199</v>
-      </c>
-      <c r="C455" t="s">
-        <v>198</v>
-      </c>
-      <c r="W455" t="s">
-        <v>1244</v>
-      </c>
-    </row>
-    <row r="456" spans="2:23">
-      <c r="B456" t="s">
-        <v>199</v>
-      </c>
-      <c r="C456" t="s">
-        <v>198</v>
-      </c>
-      <c r="W456" t="s">
-        <v>1245</v>
-      </c>
-    </row>
-    <row r="457" spans="2:23">
-      <c r="B457" t="s">
-        <v>199</v>
-      </c>
-      <c r="C457" t="s">
-        <v>198</v>
-      </c>
-      <c r="W457" t="s">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="458" spans="2:23">
-      <c r="B458" t="s">
-        <v>199</v>
-      </c>
-      <c r="C458" t="s">
-        <v>198</v>
-      </c>
-      <c r="W458" t="s">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="459" ht="14.25" spans="2:21">
-      <c r="B459" t="s">
-        <v>200</v>
-      </c>
-      <c r="C459" t="s">
-        <v>198</v>
-      </c>
-      <c r="D459">
-        <v>21.3</v>
-      </c>
-      <c r="E459">
-        <v>4</v>
-      </c>
-      <c r="F459">
-        <v>2.9</v>
-      </c>
-      <c r="G459">
-        <v>0.79</v>
-      </c>
-      <c r="H459">
-        <v>0.38</v>
-      </c>
-      <c r="I459">
-        <v>3</v>
-      </c>
-      <c r="J459">
-        <v>1.91</v>
-      </c>
-      <c r="K459">
-        <v>86</v>
-      </c>
-      <c r="L459" t="s">
-        <v>1247</v>
-      </c>
-      <c r="M459" t="s">
-        <v>1248</v>
-      </c>
-      <c r="N459" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="O459" t="s">
-        <v>593</v>
-      </c>
-      <c r="P459" s="39">
-        <v>1448</v>
-      </c>
-      <c r="Q459" s="39">
-        <v>275</v>
-      </c>
-      <c r="R459" s="39">
-        <v>54</v>
-      </c>
-      <c r="S459" s="39">
-        <v>198</v>
-      </c>
-      <c r="T459" s="39">
-        <v>27</v>
-      </c>
-      <c r="U459" s="40" t="s">
-        <v>1249</v>
-      </c>
-    </row>
-    <row r="460" ht="14.25" spans="2:23">
-      <c r="B460" t="s">
-        <v>200</v>
       </c>
       <c r="C460" t="s">
         <v>198</v>
       </c>
-      <c r="N460" s="39" t="s">
+      <c r="D460">
+        <v>26.4</v>
+      </c>
+      <c r="E460">
+        <v>4.6</v>
+      </c>
+      <c r="F460">
+        <v>6.8</v>
+      </c>
+      <c r="G460">
+        <v>1.17</v>
+      </c>
+      <c r="H460">
+        <v>0.42</v>
+      </c>
+      <c r="I460">
+        <v>0</v>
+      </c>
+      <c r="J460">
+        <v>1.91</v>
+      </c>
+      <c r="K460">
+        <v>88</v>
+      </c>
+      <c r="L460" t="s">
+        <v>1258</v>
+      </c>
+      <c r="M460" t="s">
+        <v>1259</v>
+      </c>
+      <c r="N460" s="32" t="s">
         <v>198</v>
       </c>
       <c r="O460" t="s">
-        <v>589</v>
-      </c>
-      <c r="P460" s="39">
-        <v>1732</v>
-      </c>
-      <c r="Q460" s="39">
-        <v>321</v>
-      </c>
-      <c r="R460" s="39">
-        <v>77</v>
-      </c>
-      <c r="S460" s="39">
-        <v>272</v>
-      </c>
-      <c r="T460" s="39">
-        <v>35</v>
-      </c>
-      <c r="U460" s="40" t="s">
-        <v>1250</v>
+        <v>593</v>
+      </c>
+      <c r="P460">
+        <v>1898</v>
+      </c>
+      <c r="Q460">
+        <v>328</v>
+      </c>
+      <c r="R460">
+        <v>83</v>
+      </c>
+      <c r="S460">
+        <v>491</v>
+      </c>
+      <c r="T460">
+        <v>31</v>
+      </c>
+      <c r="U460" s="37" t="s">
+        <v>1260</v>
       </c>
       <c r="W460" t="s">
-        <v>1251</v>
-      </c>
-    </row>
-    <row r="461" ht="14.25" spans="2:21">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="461" ht="14.25" spans="1:23">
+      <c r="A461">
+        <v>404</v>
+      </c>
       <c r="B461" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C461" t="s">
         <v>198</v>
       </c>
-      <c r="N461" s="39" t="s">
+      <c r="N461" s="32" t="s">
         <v>198</v>
       </c>
       <c r="O461" t="s">
-        <v>586</v>
-      </c>
-      <c r="P461" s="39">
-        <v>1837</v>
-      </c>
-      <c r="Q461" s="39">
-        <v>289</v>
-      </c>
-      <c r="R461" s="39">
-        <v>72</v>
-      </c>
-      <c r="S461" s="39">
-        <v>285</v>
-      </c>
-      <c r="T461" s="39">
-        <v>42</v>
-      </c>
-      <c r="U461" s="40" t="s">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="462" ht="14.25" spans="2:21">
+        <v>589</v>
+      </c>
+      <c r="P461">
+        <v>1962</v>
+      </c>
+      <c r="Q461">
+        <v>325</v>
+      </c>
+      <c r="R461">
+        <v>77</v>
+      </c>
+      <c r="S461">
+        <v>481</v>
+      </c>
+      <c r="T461">
+        <v>27</v>
+      </c>
+      <c r="U461" s="37" t="s">
+        <v>1262</v>
+      </c>
+      <c r="W461" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="462" ht="14.25" spans="1:23">
+      <c r="A462">
+        <v>405</v>
+      </c>
       <c r="B462" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C462" t="s">
         <v>198</v>
       </c>
-      <c r="N462" s="39" t="s">
+      <c r="N462" s="32" t="s">
         <v>198</v>
       </c>
       <c r="O462" t="s">
-        <v>583</v>
-      </c>
-      <c r="P462" s="39">
-        <v>1666</v>
-      </c>
-      <c r="Q462" s="39">
-        <v>259</v>
-      </c>
-      <c r="R462" s="39">
-        <v>97</v>
-      </c>
-      <c r="S462" s="39">
-        <v>341</v>
-      </c>
-      <c r="T462" s="39">
-        <v>23</v>
-      </c>
-      <c r="U462" s="40" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="463" ht="14.25" spans="2:21">
+        <v>586</v>
+      </c>
+      <c r="P462">
+        <v>2024</v>
+      </c>
+      <c r="Q462">
+        <v>368</v>
+      </c>
+      <c r="R462">
+        <v>68</v>
+      </c>
+      <c r="S462">
+        <v>440</v>
+      </c>
+      <c r="T462">
+        <v>20</v>
+      </c>
+      <c r="U462" s="37" t="s">
+        <v>1263</v>
+      </c>
+      <c r="W462" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="463" ht="14.25" spans="1:23">
+      <c r="A463">
+        <v>406</v>
+      </c>
       <c r="B463" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C463" t="s">
         <v>198</v>
       </c>
-      <c r="N463" s="39" t="s">
+      <c r="N463" s="32" t="s">
         <v>198</v>
       </c>
       <c r="O463" t="s">
-        <v>581</v>
-      </c>
-      <c r="P463" s="39">
-        <v>424</v>
-      </c>
-      <c r="Q463" s="39">
-        <v>91</v>
-      </c>
-      <c r="R463" s="39">
-        <v>43</v>
-      </c>
-      <c r="S463" s="39">
-        <v>64</v>
-      </c>
-      <c r="T463" s="39">
-        <v>8</v>
-      </c>
-      <c r="U463" s="40" t="s">
-        <v>1254</v>
-      </c>
-    </row>
-    <row r="464" ht="14.25" spans="2:21">
+        <v>583</v>
+      </c>
+      <c r="P463">
+        <v>1879</v>
+      </c>
+      <c r="Q463">
+        <v>302</v>
+      </c>
+      <c r="R463">
+        <v>65</v>
+      </c>
+      <c r="S463">
+        <v>512</v>
+      </c>
+      <c r="T463">
+        <v>28</v>
+      </c>
+      <c r="U463" s="37" t="s">
+        <v>1265</v>
+      </c>
+      <c r="W463" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="464" ht="14.25" spans="1:23">
+      <c r="A464">
+        <v>407</v>
+      </c>
       <c r="B464" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C464" t="s">
         <v>198</v>
       </c>
-      <c r="N464" s="39" t="s">
+      <c r="N464" s="32" t="s">
         <v>198</v>
       </c>
       <c r="O464" t="s">
-        <v>579</v>
-      </c>
-      <c r="P464" s="39">
-        <v>201</v>
-      </c>
-      <c r="Q464" s="39">
-        <v>48</v>
-      </c>
-      <c r="R464" s="39">
-        <v>14</v>
-      </c>
-      <c r="S464" s="39">
-        <v>27</v>
-      </c>
-      <c r="T464" s="39">
-        <v>2</v>
-      </c>
-      <c r="U464" s="40" t="s">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="465" ht="14.25" spans="2:23">
+        <v>581</v>
+      </c>
+      <c r="P464">
+        <v>1720</v>
+      </c>
+      <c r="Q464">
+        <v>378</v>
+      </c>
+      <c r="R464">
+        <v>97</v>
+      </c>
+      <c r="S464">
+        <v>507</v>
+      </c>
+      <c r="T464">
+        <v>21</v>
+      </c>
+      <c r="U464" s="37" t="s">
+        <v>1267</v>
+      </c>
+      <c r="W464" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="465" ht="14.25" spans="1:23">
+      <c r="A465">
+        <v>408</v>
+      </c>
       <c r="B465" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C465" t="s">
         <v>198</v>
       </c>
-      <c r="D465">
-        <v>15.6</v>
-      </c>
-      <c r="E465">
-        <v>10.4</v>
-      </c>
-      <c r="F465">
-        <v>3.2</v>
-      </c>
-      <c r="G465">
-        <v>0.97</v>
-      </c>
-      <c r="H465">
-        <v>1.43</v>
-      </c>
-      <c r="I465">
-        <v>27</v>
-      </c>
-      <c r="J465">
-        <v>2.13</v>
-      </c>
-      <c r="K465">
-        <v>127</v>
-      </c>
-      <c r="L465" t="s">
-        <v>1256</v>
-      </c>
-      <c r="M465" t="s">
-        <v>1257</v>
-      </c>
-      <c r="N465" s="39" t="s">
+      <c r="N465" s="32" t="s">
         <v>198</v>
       </c>
       <c r="O465" t="s">
-        <v>593</v>
-      </c>
-      <c r="P465" s="39">
-        <v>1125</v>
-      </c>
-      <c r="Q465" s="39">
-        <v>748</v>
-      </c>
-      <c r="R465" s="39">
-        <v>71</v>
-      </c>
-      <c r="S465" s="39">
-        <v>233</v>
-      </c>
-      <c r="T465" s="39">
-        <v>103</v>
-      </c>
-      <c r="U465" s="40" t="s">
-        <v>1258</v>
+        <v>579</v>
+      </c>
+      <c r="P465">
+        <v>1695</v>
+      </c>
+      <c r="Q465">
+        <v>288</v>
+      </c>
+      <c r="R465">
+        <v>64</v>
+      </c>
+      <c r="S465">
+        <v>457</v>
+      </c>
+      <c r="T465">
+        <v>22</v>
+      </c>
+      <c r="U465" s="37" t="s">
+        <v>1268</v>
       </c>
       <c r="W465" t="s">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="466" ht="14.25" spans="2:21">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="466" ht="14.25" spans="1:23">
+      <c r="A466">
+        <v>409</v>
+      </c>
       <c r="B466" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C466" t="s">
         <v>198</v>
       </c>
-      <c r="N466" s="39" t="s">
+      <c r="N466" s="32" t="s">
         <v>198</v>
       </c>
       <c r="O466" t="s">
-        <v>589</v>
-      </c>
-      <c r="P466" s="39">
-        <v>1132</v>
-      </c>
-      <c r="Q466" s="39">
-        <v>708</v>
-      </c>
-      <c r="R466" s="39">
-        <v>64</v>
-      </c>
-      <c r="S466" s="39">
-        <v>143</v>
-      </c>
-      <c r="T466" s="39">
-        <v>111</v>
-      </c>
-      <c r="U466" s="40" t="s">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="467" ht="14.25" spans="2:21">
+        <v>577</v>
+      </c>
+      <c r="P466">
+        <v>1562</v>
+      </c>
+      <c r="Q466">
+        <v>257</v>
+      </c>
+      <c r="R466">
+        <v>74</v>
+      </c>
+      <c r="S466">
+        <v>531</v>
+      </c>
+      <c r="T466">
+        <v>19</v>
+      </c>
+      <c r="U466" s="37" t="s">
+        <v>1270</v>
+      </c>
+      <c r="W466" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="467" spans="1:23">
+      <c r="A467">
+        <v>410</v>
+      </c>
       <c r="B467" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C467" t="s">
         <v>198</v>
       </c>
-      <c r="N467" s="39" t="s">
-        <v>198</v>
-      </c>
-      <c r="O467" t="s">
-        <v>586</v>
-      </c>
-      <c r="P467" s="39">
-        <v>304</v>
-      </c>
-      <c r="Q467" s="39">
-        <v>207</v>
-      </c>
-      <c r="R467" s="39">
-        <v>25</v>
-      </c>
-      <c r="S467" s="39">
-        <v>63</v>
-      </c>
-      <c r="T467" s="39">
-        <v>38</v>
-      </c>
-      <c r="U467" s="40" t="s">
-        <v>1261</v>
-      </c>
-    </row>
-    <row r="468" ht="14.25" spans="2:21">
+      <c r="W467" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="468" spans="1:23">
+      <c r="A468">
+        <v>411</v>
+      </c>
       <c r="B468" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C468" t="s">
         <v>198</v>
       </c>
-      <c r="N468" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="O468" t="s">
-        <v>586</v>
-      </c>
-      <c r="P468" s="39">
-        <v>358</v>
-      </c>
-      <c r="Q468" s="39">
-        <v>260</v>
-      </c>
-      <c r="R468" s="39">
-        <v>25</v>
-      </c>
-      <c r="S468" s="39">
-        <v>59</v>
-      </c>
-      <c r="T468" s="39">
-        <v>35</v>
-      </c>
-      <c r="U468" s="40" t="s">
-        <v>1262</v>
-      </c>
-    </row>
-    <row r="469" ht="14.25" spans="2:21">
+      <c r="W468" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="469" spans="1:23">
+      <c r="A469">
+        <v>412</v>
+      </c>
       <c r="B469" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C469" t="s">
         <v>198</v>
       </c>
-      <c r="N469" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="O469" t="s">
-        <v>583</v>
-      </c>
-      <c r="P469" s="39">
-        <v>263</v>
-      </c>
-      <c r="Q469" s="39">
-        <v>175</v>
-      </c>
-      <c r="R469" s="39">
-        <v>24</v>
-      </c>
-      <c r="S469" s="39">
-        <v>40</v>
-      </c>
-      <c r="T469" s="39">
-        <v>44</v>
-      </c>
-      <c r="U469" s="40" t="s">
-        <v>1263</v>
-      </c>
-    </row>
-    <row r="470" ht="14.25" spans="2:21">
+      <c r="W469" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="470" spans="1:23">
+      <c r="A470">
+        <v>413</v>
+      </c>
       <c r="B470" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C470" t="s">
         <v>198</v>
       </c>
-      <c r="N470" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="O470" t="s">
-        <v>581</v>
-      </c>
-      <c r="P470" s="39">
-        <v>426</v>
-      </c>
-      <c r="Q470" s="39">
-        <v>382</v>
-      </c>
-      <c r="R470" s="39">
-        <v>52</v>
-      </c>
-      <c r="S470" s="39">
-        <v>50</v>
-      </c>
-      <c r="T470" s="39">
-        <v>68</v>
-      </c>
-      <c r="U470" s="40" t="s">
-        <v>1264</v>
-      </c>
-    </row>
-    <row r="471" ht="14.25" spans="2:21">
+      <c r="W470" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="471" ht="14.25" spans="1:21">
+      <c r="A471">
+        <v>414</v>
+      </c>
       <c r="B471" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C471" t="s">
         <v>198</v>
       </c>
       <c r="D471">
-        <v>9.3</v>
+        <v>21.3</v>
       </c>
       <c r="E471">
-        <v>7.4</v>
+        <v>4</v>
       </c>
       <c r="F471">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="G471">
-        <v>0.86</v>
+        <v>0.79</v>
       </c>
       <c r="H471">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="I471">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J471">
-        <v>2.06</v>
+        <v>1.91</v>
       </c>
       <c r="K471">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="L471" t="s">
-        <v>1265</v>
+        <v>1275</v>
       </c>
       <c r="M471" t="s">
-        <v>1266</v>
-      </c>
-      <c r="N471" s="39" t="s">
+        <v>1276</v>
+      </c>
+      <c r="N471" s="32" t="s">
         <v>198</v>
       </c>
       <c r="O471" t="s">
         <v>593</v>
       </c>
-      <c r="P471" s="39">
-        <v>680</v>
-      </c>
-      <c r="Q471" s="39">
-        <v>543</v>
-      </c>
-      <c r="R471" s="39">
-        <v>63</v>
-      </c>
-      <c r="S471" s="39">
-        <v>96</v>
-      </c>
-      <c r="T471" s="39">
-        <v>29</v>
-      </c>
-      <c r="U471" s="40" t="s">
-        <v>1267</v>
-      </c>
-    </row>
-    <row r="472" ht="14.25" spans="2:21">
+      <c r="P471" s="32">
+        <v>1448</v>
+      </c>
+      <c r="Q471" s="32">
+        <v>275</v>
+      </c>
+      <c r="R471" s="32">
+        <v>54</v>
+      </c>
+      <c r="S471" s="32">
+        <v>198</v>
+      </c>
+      <c r="T471" s="32">
+        <v>27</v>
+      </c>
+      <c r="U471" s="37" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="472" ht="14.25" spans="1:23">
+      <c r="A472">
+        <v>415</v>
+      </c>
       <c r="B472" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C472" t="s">
         <v>198</v>
       </c>
-      <c r="N472" s="39" t="s">
+      <c r="N472" s="32" t="s">
         <v>198</v>
       </c>
       <c r="O472" t="s">
         <v>589</v>
       </c>
-      <c r="P472" s="39">
-        <v>644</v>
-      </c>
-      <c r="Q472" s="39">
-        <v>525</v>
-      </c>
-      <c r="R472" s="39">
-        <v>79</v>
-      </c>
-      <c r="S472" s="39">
-        <v>84</v>
-      </c>
-      <c r="T472" s="39">
-        <v>40</v>
-      </c>
-      <c r="U472" s="40" t="s">
-        <v>1268</v>
-      </c>
-    </row>
-    <row r="473" ht="14.25" spans="2:21">
+      <c r="P472" s="32">
+        <v>1732</v>
+      </c>
+      <c r="Q472" s="32">
+        <v>321</v>
+      </c>
+      <c r="R472" s="32">
+        <v>77</v>
+      </c>
+      <c r="S472" s="32">
+        <v>272</v>
+      </c>
+      <c r="T472" s="32">
+        <v>35</v>
+      </c>
+      <c r="U472" s="37" t="s">
+        <v>1278</v>
+      </c>
+      <c r="W472" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="473" ht="14.25" spans="1:21">
+      <c r="A473">
+        <v>416</v>
+      </c>
       <c r="B473" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C473" t="s">
         <v>198</v>
       </c>
-      <c r="N473" s="39" t="s">
+      <c r="N473" s="32" t="s">
         <v>198</v>
       </c>
       <c r="O473" t="s">
         <v>586</v>
       </c>
-      <c r="P473" s="39">
-        <v>532</v>
-      </c>
-      <c r="Q473" s="39">
-        <v>451</v>
-      </c>
-      <c r="R473" s="39">
-        <v>60</v>
-      </c>
-      <c r="S473" s="39">
-        <v>99</v>
-      </c>
-      <c r="T473" s="39">
-        <v>44</v>
-      </c>
-      <c r="U473" s="40" t="s">
-        <v>1269</v>
-      </c>
-    </row>
-    <row r="474" ht="14.25" spans="2:21">
+      <c r="P473" s="32">
+        <v>1837</v>
+      </c>
+      <c r="Q473" s="32">
+        <v>289</v>
+      </c>
+      <c r="R473" s="32">
+        <v>72</v>
+      </c>
+      <c r="S473" s="32">
+        <v>285</v>
+      </c>
+      <c r="T473" s="32">
+        <v>42</v>
+      </c>
+      <c r="U473" s="37" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="474" ht="14.25" spans="1:21">
+      <c r="A474">
+        <v>417</v>
+      </c>
       <c r="B474" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C474" t="s">
         <v>198</v>
       </c>
-      <c r="N474" s="39" t="s">
+      <c r="N474" s="32" t="s">
         <v>198</v>
       </c>
       <c r="O474" t="s">
         <v>583</v>
       </c>
-      <c r="P474" s="39">
-        <v>839</v>
-      </c>
-      <c r="Q474" s="39">
-        <v>499</v>
-      </c>
-      <c r="R474" s="39">
-        <v>72</v>
-      </c>
-      <c r="S474" s="39">
-        <v>138</v>
-      </c>
-      <c r="T474" s="39">
-        <v>53</v>
-      </c>
-      <c r="U474" s="40" t="s">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="475" ht="14.25" spans="2:21">
+      <c r="P474" s="32">
+        <v>1666</v>
+      </c>
+      <c r="Q474" s="32">
+        <v>259</v>
+      </c>
+      <c r="R474" s="32">
+        <v>97</v>
+      </c>
+      <c r="S474" s="32">
+        <v>341</v>
+      </c>
+      <c r="T474" s="32">
+        <v>23</v>
+      </c>
+      <c r="U474" s="37" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="475" ht="14.25" spans="1:21">
+      <c r="A475">
+        <v>418</v>
+      </c>
       <c r="B475" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C475" t="s">
         <v>198</v>
       </c>
-      <c r="N475" s="39" t="s">
-        <v>961</v>
+      <c r="N475" s="32" t="s">
+        <v>198</v>
       </c>
       <c r="O475" t="s">
         <v>581</v>
       </c>
-      <c r="P475" s="39">
-        <v>412</v>
-      </c>
-      <c r="Q475" s="39">
-        <v>342</v>
-      </c>
-      <c r="R475" s="39">
-        <v>70</v>
-      </c>
-      <c r="S475" s="39">
-        <v>59</v>
-      </c>
-      <c r="T475" s="39">
-        <v>62</v>
-      </c>
-      <c r="U475" s="40" t="s">
-        <v>1271</v>
-      </c>
-    </row>
-    <row r="476" ht="14.25" spans="2:21">
+      <c r="P475" s="32">
+        <v>424</v>
+      </c>
+      <c r="Q475" s="32">
+        <v>91</v>
+      </c>
+      <c r="R475" s="32">
+        <v>43</v>
+      </c>
+      <c r="S475" s="32">
+        <v>64</v>
+      </c>
+      <c r="T475" s="32">
+        <v>8</v>
+      </c>
+      <c r="U475" s="37" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="476" ht="14.25" spans="1:21">
+      <c r="A476">
+        <v>419</v>
+      </c>
       <c r="B476" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C476" t="s">
         <v>198</v>
       </c>
-      <c r="N476" s="39" t="s">
-        <v>56</v>
+      <c r="N476" s="32" t="s">
+        <v>198</v>
       </c>
       <c r="O476" t="s">
         <v>579</v>
       </c>
-      <c r="P476" s="39">
-        <v>572</v>
-      </c>
-      <c r="Q476" s="39">
-        <v>496</v>
-      </c>
-      <c r="R476" s="39">
-        <v>82</v>
-      </c>
-      <c r="S476" s="39">
-        <v>114</v>
-      </c>
-      <c r="T476" s="39">
-        <v>38</v>
-      </c>
-      <c r="U476" s="40" t="s">
-        <v>1272</v>
-      </c>
-    </row>
-    <row r="477" ht="14.25" spans="2:21">
+      <c r="P476" s="32">
+        <v>201</v>
+      </c>
+      <c r="Q476" s="32">
+        <v>48</v>
+      </c>
+      <c r="R476" s="32">
+        <v>14</v>
+      </c>
+      <c r="S476" s="32">
+        <v>27</v>
+      </c>
+      <c r="T476" s="32">
+        <v>2</v>
+      </c>
+      <c r="U476" s="37" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="477" ht="14.25" spans="1:23">
+      <c r="A477">
+        <v>420</v>
+      </c>
       <c r="B477" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C477" t="s">
         <v>198</v>
       </c>
-      <c r="N477" s="39" t="s">
-        <v>56</v>
+      <c r="D477">
+        <v>15.6</v>
+      </c>
+      <c r="E477">
+        <v>10.4</v>
+      </c>
+      <c r="F477">
+        <v>3.2</v>
+      </c>
+      <c r="G477">
+        <v>0.97</v>
+      </c>
+      <c r="H477">
+        <v>1.43</v>
+      </c>
+      <c r="I477">
+        <v>27</v>
+      </c>
+      <c r="J477">
+        <v>2.13</v>
+      </c>
+      <c r="K477">
+        <v>127</v>
+      </c>
+      <c r="L477" t="s">
+        <v>1284</v>
+      </c>
+      <c r="M477" t="s">
+        <v>1285</v>
+      </c>
+      <c r="N477" s="32" t="s">
+        <v>198</v>
       </c>
       <c r="O477" t="s">
-        <v>577</v>
-      </c>
-      <c r="P477" s="39">
-        <v>555</v>
-      </c>
-      <c r="Q477" s="39">
-        <v>585</v>
-      </c>
-      <c r="R477" s="39">
-        <v>92</v>
-      </c>
-      <c r="S477" s="39">
+        <v>593</v>
+      </c>
+      <c r="P477" s="32">
+        <v>1125</v>
+      </c>
+      <c r="Q477" s="32">
+        <v>748</v>
+      </c>
+      <c r="R477" s="32">
+        <v>71</v>
+      </c>
+      <c r="S477" s="32">
+        <v>233</v>
+      </c>
+      <c r="T477" s="32">
         <v>103</v>
       </c>
-      <c r="T477" s="39">
-        <v>51</v>
-      </c>
-      <c r="U477" s="40" t="s">
-        <v>1273</v>
-      </c>
-    </row>
-    <row r="478" ht="14.25" spans="2:21">
+      <c r="U477" s="37" t="s">
+        <v>1286</v>
+      </c>
+      <c r="W477" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="478" ht="14.25" spans="1:21">
+      <c r="A478">
+        <v>421</v>
+      </c>
       <c r="B478" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C478" t="s">
         <v>198</v>
       </c>
-      <c r="N478" s="39" t="s">
-        <v>646</v>
+      <c r="N478" s="32" t="s">
+        <v>198</v>
       </c>
       <c r="O478" t="s">
-        <v>575</v>
-      </c>
-      <c r="P478" s="39">
-        <v>399</v>
-      </c>
-      <c r="Q478" s="39">
-        <v>308</v>
-      </c>
-      <c r="R478" s="39">
-        <v>59</v>
-      </c>
-      <c r="S478" s="39">
-        <v>66</v>
-      </c>
-      <c r="T478" s="39">
-        <v>34</v>
-      </c>
-      <c r="U478" s="40" t="s">
-        <v>1274</v>
-      </c>
-    </row>
-    <row r="479" ht="14.25" spans="2:21">
+        <v>589</v>
+      </c>
+      <c r="P478" s="32">
+        <v>1132</v>
+      </c>
+      <c r="Q478" s="32">
+        <v>708</v>
+      </c>
+      <c r="R478" s="32">
+        <v>64</v>
+      </c>
+      <c r="S478" s="32">
+        <v>143</v>
+      </c>
+      <c r="T478" s="32">
+        <v>111</v>
+      </c>
+      <c r="U478" s="37" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="479" ht="14.25" spans="1:21">
+      <c r="A479">
+        <v>422</v>
+      </c>
       <c r="B479" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C479" t="s">
         <v>198</v>
       </c>
-      <c r="N479" s="39" t="s">
-        <v>121</v>
+      <c r="N479" s="32" t="s">
+        <v>198</v>
       </c>
       <c r="O479" t="s">
-        <v>572</v>
-      </c>
-      <c r="P479" s="39">
-        <v>457</v>
-      </c>
-      <c r="Q479" s="39">
-        <v>267</v>
-      </c>
-      <c r="R479" s="39">
-        <v>59</v>
-      </c>
-      <c r="S479" s="39">
-        <v>60</v>
-      </c>
-      <c r="T479" s="39">
+        <v>586</v>
+      </c>
+      <c r="P479" s="32">
+        <v>304</v>
+      </c>
+      <c r="Q479" s="32">
+        <v>207</v>
+      </c>
+      <c r="R479" s="32">
         <v>25</v>
       </c>
-      <c r="U479" s="40" t="s">
-        <v>1275</v>
-      </c>
-    </row>
-    <row r="480" ht="14.25" spans="2:21">
+      <c r="S479" s="32">
+        <v>63</v>
+      </c>
+      <c r="T479" s="32">
+        <v>38</v>
+      </c>
+      <c r="U479" s="37" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="480" ht="14.25" spans="1:21">
+      <c r="A480">
+        <v>423</v>
+      </c>
       <c r="B480" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C480" t="s">
         <v>198</v>
       </c>
-      <c r="D480">
-        <v>7.3</v>
-      </c>
-      <c r="E480">
-        <v>4.2</v>
-      </c>
-      <c r="F480">
-        <v>1.2</v>
-      </c>
-      <c r="G480">
-        <v>1.12</v>
-      </c>
-      <c r="H480">
-        <v>0.85</v>
-      </c>
-      <c r="I480">
-        <v>4</v>
-      </c>
-      <c r="J480">
-        <v>2.06</v>
-      </c>
-      <c r="K480">
-        <v>100</v>
-      </c>
-      <c r="L480" t="s">
-        <v>1276</v>
-      </c>
-      <c r="M480" t="s">
-        <v>1277</v>
-      </c>
-      <c r="N480" s="39" t="s">
-        <v>198</v>
+      <c r="N480" s="32" t="s">
+        <v>181</v>
       </c>
       <c r="O480" t="s">
-        <v>593</v>
-      </c>
-      <c r="P480" s="39">
-        <v>381</v>
-      </c>
-      <c r="Q480" s="39">
-        <v>223</v>
-      </c>
-      <c r="R480" s="39">
-        <v>58</v>
-      </c>
-      <c r="S480" s="39">
-        <v>62</v>
-      </c>
-      <c r="T480" s="39">
-        <v>44</v>
-      </c>
-      <c r="U480" s="40" t="s">
-        <v>1278</v>
-      </c>
-    </row>
-    <row r="481" ht="14.25" spans="2:21">
+        <v>586</v>
+      </c>
+      <c r="P480" s="32">
+        <v>358</v>
+      </c>
+      <c r="Q480" s="32">
+        <v>260</v>
+      </c>
+      <c r="R480" s="32">
+        <v>25</v>
+      </c>
+      <c r="S480" s="32">
+        <v>59</v>
+      </c>
+      <c r="T480" s="32">
+        <v>35</v>
+      </c>
+      <c r="U480" s="37" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="481" ht="14.25" spans="1:21">
+      <c r="A481">
+        <v>424</v>
+      </c>
       <c r="B481" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C481" t="s">
         <v>198</v>
       </c>
-      <c r="N481" s="39" t="s">
-        <v>198</v>
+      <c r="N481" s="32" t="s">
+        <v>181</v>
       </c>
       <c r="O481" t="s">
-        <v>589</v>
-      </c>
-      <c r="P481" s="39">
-        <v>385</v>
-      </c>
-      <c r="Q481" s="39">
-        <v>162</v>
-      </c>
-      <c r="R481" s="39">
-        <v>48</v>
-      </c>
-      <c r="S481" s="39">
-        <v>53</v>
-      </c>
-      <c r="T481" s="39">
-        <v>43</v>
-      </c>
-      <c r="U481" s="40" t="s">
-        <v>1279</v>
-      </c>
-    </row>
-    <row r="482" ht="14.25" spans="2:21">
+        <v>583</v>
+      </c>
+      <c r="P481" s="32">
+        <v>263</v>
+      </c>
+      <c r="Q481" s="32">
+        <v>175</v>
+      </c>
+      <c r="R481" s="32">
+        <v>24</v>
+      </c>
+      <c r="S481" s="32">
+        <v>40</v>
+      </c>
+      <c r="T481" s="32">
+        <v>44</v>
+      </c>
+      <c r="U481" s="37" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="482" ht="14.25" spans="1:21">
+      <c r="A482">
+        <v>425</v>
+      </c>
       <c r="B482" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C482" t="s">
         <v>198</v>
       </c>
-      <c r="N482" s="39" t="s">
-        <v>198</v>
+      <c r="N482" s="32" t="s">
+        <v>181</v>
       </c>
       <c r="O482" t="s">
-        <v>586</v>
-      </c>
-      <c r="P482" s="39">
-        <v>773</v>
-      </c>
-      <c r="Q482" s="39">
-        <v>341</v>
-      </c>
-      <c r="R482" s="39">
-        <v>85</v>
-      </c>
-      <c r="S482" s="39">
-        <v>88</v>
-      </c>
-      <c r="T482" s="39">
-        <v>70</v>
-      </c>
-      <c r="U482" s="40" t="s">
-        <v>1280</v>
-      </c>
-    </row>
-    <row r="483" ht="14.25" spans="2:21">
+        <v>581</v>
+      </c>
+      <c r="P482" s="32">
+        <v>426</v>
+      </c>
+      <c r="Q482" s="32">
+        <v>382</v>
+      </c>
+      <c r="R482" s="32">
+        <v>52</v>
+      </c>
+      <c r="S482" s="32">
+        <v>50</v>
+      </c>
+      <c r="T482" s="32">
+        <v>68</v>
+      </c>
+      <c r="U482" s="37" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="483" ht="14.25" spans="1:21">
+      <c r="A483">
+        <v>426</v>
+      </c>
       <c r="B483" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C483" t="s">
         <v>198</v>
       </c>
-      <c r="N483" s="39" t="s">
+      <c r="D483">
+        <v>9.3</v>
+      </c>
+      <c r="E483">
+        <v>7.4</v>
+      </c>
+      <c r="F483">
+        <v>1.3</v>
+      </c>
+      <c r="G483">
+        <v>0.86</v>
+      </c>
+      <c r="H483">
+        <v>0.4</v>
+      </c>
+      <c r="I483">
+        <v>8</v>
+      </c>
+      <c r="J483">
+        <v>2.06</v>
+      </c>
+      <c r="K483">
+        <v>100</v>
+      </c>
+      <c r="L483" t="s">
+        <v>1293</v>
+      </c>
+      <c r="M483" t="s">
+        <v>1294</v>
+      </c>
+      <c r="N483" s="32" t="s">
         <v>198</v>
       </c>
       <c r="O483" t="s">
-        <v>583</v>
-      </c>
-      <c r="P483" s="39">
-        <v>498</v>
-      </c>
-      <c r="Q483" s="39">
-        <v>280</v>
-      </c>
-      <c r="R483" s="39">
-        <v>49</v>
-      </c>
-      <c r="S483" s="39">
-        <v>67</v>
-      </c>
-      <c r="T483" s="39">
-        <v>35</v>
-      </c>
-      <c r="U483" s="40" t="s">
-        <v>1281</v>
-      </c>
-    </row>
-    <row r="484" ht="14.25" spans="2:21">
+        <v>593</v>
+      </c>
+      <c r="P483" s="32">
+        <v>680</v>
+      </c>
+      <c r="Q483" s="32">
+        <v>543</v>
+      </c>
+      <c r="R483" s="32">
+        <v>63</v>
+      </c>
+      <c r="S483" s="32">
+        <v>96</v>
+      </c>
+      <c r="T483" s="32">
+        <v>29</v>
+      </c>
+      <c r="U483" s="37" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="484" ht="14.25" spans="1:21">
+      <c r="A484">
+        <v>427</v>
+      </c>
       <c r="B484" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C484" t="s">
         <v>198</v>
       </c>
-      <c r="N484" s="39" t="s">
-        <v>379</v>
+      <c r="N484" s="32" t="s">
+        <v>198</v>
       </c>
       <c r="O484" t="s">
-        <v>581</v>
-      </c>
-      <c r="P484" s="39">
-        <v>158</v>
-      </c>
-      <c r="Q484" s="39">
-        <v>106</v>
-      </c>
-      <c r="R484" s="39">
-        <v>32</v>
-      </c>
-      <c r="S484" s="39">
-        <v>25</v>
-      </c>
-      <c r="T484" s="39">
-        <v>9</v>
-      </c>
-      <c r="U484" s="40" t="s">
-        <v>1282</v>
-      </c>
-    </row>
-    <row r="485" ht="14.25" spans="2:21">
+        <v>589</v>
+      </c>
+      <c r="P484" s="32">
+        <v>644</v>
+      </c>
+      <c r="Q484" s="32">
+        <v>525</v>
+      </c>
+      <c r="R484" s="32">
+        <v>79</v>
+      </c>
+      <c r="S484" s="32">
+        <v>84</v>
+      </c>
+      <c r="T484" s="32">
+        <v>40</v>
+      </c>
+      <c r="U484" s="37" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="485" ht="14.25" spans="1:21">
+      <c r="A485">
+        <v>428</v>
+      </c>
       <c r="B485" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C485" t="s">
         <v>198</v>
       </c>
-      <c r="N485" s="39" t="s">
-        <v>379</v>
+      <c r="N485" s="32" t="s">
+        <v>198</v>
       </c>
       <c r="O485" t="s">
-        <v>579</v>
-      </c>
-      <c r="P485" s="39">
-        <v>592</v>
-      </c>
-      <c r="Q485" s="39">
-        <v>264</v>
-      </c>
-      <c r="R485" s="39">
-        <v>97</v>
-      </c>
-      <c r="S485" s="39">
-        <v>80</v>
-      </c>
-      <c r="T485" s="39">
-        <v>50</v>
-      </c>
-      <c r="U485" s="40" t="s">
-        <v>1283</v>
-      </c>
-    </row>
-    <row r="486" ht="14.25" spans="2:21">
+        <v>586</v>
+      </c>
+      <c r="P485" s="32">
+        <v>532</v>
+      </c>
+      <c r="Q485" s="32">
+        <v>451</v>
+      </c>
+      <c r="R485" s="32">
+        <v>60</v>
+      </c>
+      <c r="S485" s="32">
+        <v>99</v>
+      </c>
+      <c r="T485" s="32">
+        <v>44</v>
+      </c>
+      <c r="U485" s="37" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="486" ht="14.25" spans="1:21">
+      <c r="A486">
+        <v>429</v>
+      </c>
       <c r="B486" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C486" t="s">
         <v>198</v>
       </c>
-      <c r="N486" s="39" t="s">
+      <c r="N486" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="O486" t="s">
+        <v>583</v>
+      </c>
+      <c r="P486" s="32">
+        <v>839</v>
+      </c>
+      <c r="Q486" s="32">
+        <v>499</v>
+      </c>
+      <c r="R486" s="32">
+        <v>72</v>
+      </c>
+      <c r="S486" s="32">
+        <v>138</v>
+      </c>
+      <c r="T486" s="32">
+        <v>53</v>
+      </c>
+      <c r="U486" s="37" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="487" ht="14.25" spans="1:21">
+      <c r="A487">
+        <v>430</v>
+      </c>
+      <c r="B487" t="s">
+        <v>205</v>
+      </c>
+      <c r="C487" t="s">
+        <v>198</v>
+      </c>
+      <c r="N487" s="32" t="s">
+        <v>961</v>
+      </c>
+      <c r="O487" t="s">
+        <v>581</v>
+      </c>
+      <c r="P487" s="32">
+        <v>412</v>
+      </c>
+      <c r="Q487" s="32">
+        <v>342</v>
+      </c>
+      <c r="R487" s="32">
+        <v>70</v>
+      </c>
+      <c r="S487" s="32">
+        <v>59</v>
+      </c>
+      <c r="T487" s="32">
+        <v>62</v>
+      </c>
+      <c r="U487" s="37" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="488" ht="14.25" spans="1:21">
+      <c r="A488">
+        <v>431</v>
+      </c>
+      <c r="B488" t="s">
+        <v>205</v>
+      </c>
+      <c r="C488" t="s">
+        <v>198</v>
+      </c>
+      <c r="N488" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="O488" t="s">
+        <v>579</v>
+      </c>
+      <c r="P488" s="32">
+        <v>572</v>
+      </c>
+      <c r="Q488" s="32">
+        <v>496</v>
+      </c>
+      <c r="R488" s="32">
+        <v>82</v>
+      </c>
+      <c r="S488" s="32">
+        <v>114</v>
+      </c>
+      <c r="T488" s="32">
+        <v>38</v>
+      </c>
+      <c r="U488" s="37" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="489" ht="14.25" spans="1:21">
+      <c r="A489">
+        <v>432</v>
+      </c>
+      <c r="B489" t="s">
+        <v>205</v>
+      </c>
+      <c r="C489" t="s">
+        <v>198</v>
+      </c>
+      <c r="N489" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="O489" t="s">
+        <v>577</v>
+      </c>
+      <c r="P489" s="32">
+        <v>555</v>
+      </c>
+      <c r="Q489" s="32">
+        <v>585</v>
+      </c>
+      <c r="R489" s="32">
+        <v>92</v>
+      </c>
+      <c r="S489" s="32">
+        <v>103</v>
+      </c>
+      <c r="T489" s="32">
+        <v>51</v>
+      </c>
+      <c r="U489" s="37" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="490" ht="14.25" spans="1:21">
+      <c r="A490">
+        <v>433</v>
+      </c>
+      <c r="B490" t="s">
+        <v>205</v>
+      </c>
+      <c r="C490" t="s">
+        <v>198</v>
+      </c>
+      <c r="N490" s="32" t="s">
+        <v>646</v>
+      </c>
+      <c r="O490" t="s">
+        <v>575</v>
+      </c>
+      <c r="P490" s="32">
+        <v>399</v>
+      </c>
+      <c r="Q490" s="32">
+        <v>308</v>
+      </c>
+      <c r="R490" s="32">
+        <v>59</v>
+      </c>
+      <c r="S490" s="32">
+        <v>66</v>
+      </c>
+      <c r="T490" s="32">
+        <v>34</v>
+      </c>
+      <c r="U490" s="37" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="491" ht="14.25" spans="1:21">
+      <c r="A491">
+        <v>434</v>
+      </c>
+      <c r="B491" t="s">
+        <v>205</v>
+      </c>
+      <c r="C491" t="s">
+        <v>198</v>
+      </c>
+      <c r="N491" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="O491" t="s">
+        <v>572</v>
+      </c>
+      <c r="P491" s="32">
+        <v>457</v>
+      </c>
+      <c r="Q491" s="32">
+        <v>267</v>
+      </c>
+      <c r="R491" s="32">
+        <v>59</v>
+      </c>
+      <c r="S491" s="32">
+        <v>60</v>
+      </c>
+      <c r="T491" s="32">
+        <v>25</v>
+      </c>
+      <c r="U491" s="37" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="492" ht="14.25" spans="1:21">
+      <c r="A492">
+        <v>435</v>
+      </c>
+      <c r="B492" t="s">
+        <v>204</v>
+      </c>
+      <c r="C492" t="s">
+        <v>198</v>
+      </c>
+      <c r="D492">
+        <v>7.3</v>
+      </c>
+      <c r="E492">
+        <v>4.2</v>
+      </c>
+      <c r="F492">
+        <v>1.2</v>
+      </c>
+      <c r="G492">
+        <v>1.12</v>
+      </c>
+      <c r="H492">
+        <v>0.85</v>
+      </c>
+      <c r="I492">
+        <v>4</v>
+      </c>
+      <c r="J492">
+        <v>2.06</v>
+      </c>
+      <c r="K492">
+        <v>100</v>
+      </c>
+      <c r="L492" t="s">
+        <v>1304</v>
+      </c>
+      <c r="M492" t="s">
+        <v>1305</v>
+      </c>
+      <c r="N492" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="O492" t="s">
+        <v>593</v>
+      </c>
+      <c r="P492" s="32">
+        <v>381</v>
+      </c>
+      <c r="Q492" s="32">
+        <v>223</v>
+      </c>
+      <c r="R492" s="32">
+        <v>58</v>
+      </c>
+      <c r="S492" s="32">
+        <v>62</v>
+      </c>
+      <c r="T492" s="32">
+        <v>44</v>
+      </c>
+      <c r="U492" s="37" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="493" ht="14.25" spans="1:21">
+      <c r="A493">
+        <v>436</v>
+      </c>
+      <c r="B493" t="s">
+        <v>204</v>
+      </c>
+      <c r="C493" t="s">
+        <v>198</v>
+      </c>
+      <c r="N493" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="O493" t="s">
+        <v>589</v>
+      </c>
+      <c r="P493" s="32">
+        <v>385</v>
+      </c>
+      <c r="Q493" s="32">
+        <v>162</v>
+      </c>
+      <c r="R493" s="32">
+        <v>48</v>
+      </c>
+      <c r="S493" s="32">
+        <v>53</v>
+      </c>
+      <c r="T493" s="32">
+        <v>43</v>
+      </c>
+      <c r="U493" s="37" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="494" ht="14.25" spans="1:21">
+      <c r="A494">
+        <v>437</v>
+      </c>
+      <c r="B494" t="s">
+        <v>204</v>
+      </c>
+      <c r="C494" t="s">
+        <v>198</v>
+      </c>
+      <c r="N494" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="O494" t="s">
+        <v>586</v>
+      </c>
+      <c r="P494" s="32">
+        <v>773</v>
+      </c>
+      <c r="Q494" s="32">
+        <v>341</v>
+      </c>
+      <c r="R494" s="32">
+        <v>85</v>
+      </c>
+      <c r="S494" s="32">
+        <v>88</v>
+      </c>
+      <c r="T494" s="32">
+        <v>70</v>
+      </c>
+      <c r="U494" s="37" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="495" ht="14.25" spans="1:21">
+      <c r="A495">
+        <v>438</v>
+      </c>
+      <c r="B495" t="s">
+        <v>204</v>
+      </c>
+      <c r="C495" t="s">
+        <v>198</v>
+      </c>
+      <c r="N495" s="32" t="s">
+        <v>198</v>
+      </c>
+      <c r="O495" t="s">
+        <v>583</v>
+      </c>
+      <c r="P495" s="32">
+        <v>498</v>
+      </c>
+      <c r="Q495" s="32">
+        <v>280</v>
+      </c>
+      <c r="R495" s="32">
+        <v>49</v>
+      </c>
+      <c r="S495" s="32">
+        <v>67</v>
+      </c>
+      <c r="T495" s="32">
+        <v>35</v>
+      </c>
+      <c r="U495" s="37" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="496" ht="14.25" spans="1:21">
+      <c r="A496">
+        <v>439</v>
+      </c>
+      <c r="B496" t="s">
+        <v>204</v>
+      </c>
+      <c r="C496" t="s">
+        <v>198</v>
+      </c>
+      <c r="N496" s="32" t="s">
         <v>379</v>
       </c>
-      <c r="O486" t="s">
+      <c r="O496" t="s">
+        <v>581</v>
+      </c>
+      <c r="P496" s="32">
+        <v>158</v>
+      </c>
+      <c r="Q496" s="32">
+        <v>106</v>
+      </c>
+      <c r="R496" s="32">
+        <v>32</v>
+      </c>
+      <c r="S496" s="32">
+        <v>25</v>
+      </c>
+      <c r="T496" s="32">
+        <v>9</v>
+      </c>
+      <c r="U496" s="37" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="497" ht="14.25" spans="1:21">
+      <c r="A497">
+        <v>440</v>
+      </c>
+      <c r="B497" t="s">
+        <v>204</v>
+      </c>
+      <c r="C497" t="s">
+        <v>198</v>
+      </c>
+      <c r="N497" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="O497" t="s">
+        <v>579</v>
+      </c>
+      <c r="P497" s="32">
+        <v>592</v>
+      </c>
+      <c r="Q497" s="32">
+        <v>264</v>
+      </c>
+      <c r="R497" s="32">
+        <v>97</v>
+      </c>
+      <c r="S497" s="32">
+        <v>80</v>
+      </c>
+      <c r="T497" s="32">
+        <v>50</v>
+      </c>
+      <c r="U497" s="37" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="498" ht="14.25" spans="1:21">
+      <c r="A498">
+        <v>441</v>
+      </c>
+      <c r="B498" t="s">
+        <v>204</v>
+      </c>
+      <c r="C498" t="s">
+        <v>198</v>
+      </c>
+      <c r="N498" s="32" t="s">
+        <v>379</v>
+      </c>
+      <c r="O498" t="s">
         <v>577</v>
       </c>
-      <c r="P486" s="39">
+      <c r="P498" s="32">
         <v>625</v>
       </c>
-      <c r="Q486" s="39">
+      <c r="Q498" s="32">
         <v>335</v>
       </c>
-      <c r="R486" s="39">
+      <c r="R498" s="32">
         <v>88</v>
       </c>
-      <c r="S486" s="39">
+      <c r="S498" s="32">
         <v>50</v>
       </c>
-      <c r="T486" s="39">
+      <c r="T498" s="32">
         <v>62</v>
       </c>
-      <c r="U486" s="40" t="s">
-        <v>1284</v>
+      <c r="U498" s="37" t="s">
+        <v>1312</v>
       </c>
     </row>
   </sheetData>
@@ -29029,7 +29940,6 @@
     <hyperlink ref="B208" r:id="rId4" display="朱利叶斯-兰德尔" tooltip="https://nba.hupu.com/players/juliusrandle-4932.html"/>
     <hyperlink ref="B209" r:id="rId4" display="朱利叶斯-兰德尔" tooltip="https://nba.hupu.com/players/juliusrandle-4932.html"/>
     <hyperlink ref="B210" r:id="rId4" display="朱利叶斯-兰德尔" tooltip="https://nba.hupu.com/players/juliusrandle-4932.html"/>
-    <hyperlink ref="B419" r:id="rId5" display="伊维察-祖巴茨" tooltip="https://nba.hupu.com/players/ivicazubac-150201.html"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -29043,7 +29953,7 @@
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A1:A9"/>
+      <selection activeCell="A1" sqref="A1:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/网站相关/data.xlsx
+++ b/网站相关/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343">
   <si>
     <t>主键</t>
   </si>
@@ -3972,6 +3972,96 @@
   </si>
   <si>
     <t>4.4篮板0.7助攻1.16抢断0.82盖帽8.2分</t>
+  </si>
+  <si>
+    <t>2012年第1轮第7顺位</t>
+  </si>
+  <si>
+    <t>4年9400万美元，2016年夏天签，2020年夏天到期，2019-20赛季球员选项</t>
+  </si>
+  <si>
+    <t>6.0篮板2.0助攻0.75抢断0.05盖帽15.1分</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2014-15赛季NBA总冠军</t>
+  </si>
+  <si>
+    <t>4.2篮板1.3助攻0.69抢断0.23盖帽17.8分</t>
+  </si>
+  <si>
+    <t>2012-13赛季最佳新秀阵容第一阵容</t>
+  </si>
+  <si>
+    <t>6.1篮板2.0助攻0.64抢断0.18盖帽18.9分</t>
+  </si>
+  <si>
+    <t>5.0篮板1.5助攻0.82抢断0.19盖帽19.2分</t>
+  </si>
+  <si>
+    <t>4.9篮板1.8助攻0.62抢断0.15盖帽11.7分</t>
+  </si>
+  <si>
+    <t>5.5篮板1.4助攻0.74抢断0.23盖帽10.1分</t>
+  </si>
+  <si>
+    <t>4.0篮板1.5助攻0.83抢断0.26盖帽9.5分</t>
+  </si>
+  <si>
+    <t>4.1篮板1.2助攻0.64抢断0.17盖帽9.2分</t>
+  </si>
+  <si>
+    <t>2014年第1轮第27顺位</t>
+  </si>
+  <si>
+    <t>3年2700万美元，2017年夏天签，2020年夏天到期</t>
+  </si>
+  <si>
+    <t>3.5篮板3.8助攻1.06抢断0.23盖帽14.0分</t>
+  </si>
+  <si>
+    <t>2.9篮板3.3助攻0.92抢断0.21盖帽11.8分</t>
+  </si>
+  <si>
+    <t>2018年第1轮第2顺位</t>
+  </si>
+  <si>
+    <t>4年3613万美元，2018年夏天签，2022年夏天到期，2020-21赛季及2021-22赛季球队选项</t>
+  </si>
+  <si>
+    <t>7.3篮板1助攻0.6抢断1盖帽14.7分</t>
+  </si>
+  <si>
+    <t>2017年第1轮第5顺位</t>
+  </si>
+  <si>
+    <t>4年2457万美元，2017年夏天签，2021年夏天到期，2019-20、2020-21赛季球队选项</t>
+  </si>
+  <si>
+    <t>3.8篮板7.2助攻1.67抢断0.55盖帽17.5分</t>
+  </si>
+  <si>
+    <t>2.8篮板4.4助攻0.96抢断0.27盖帽11.6分</t>
+  </si>
+  <si>
+    <t>2016年第1轮第6顺位</t>
+  </si>
+  <si>
+    <t>4年1589万美元，2016年夏天签，2020年夏天到期，2018-19赛季、2019-20赛季球队选项</t>
+  </si>
+  <si>
+    <t>5.2篮板2.5助攻0.69抢断0.41盖帽20.8分</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2016-17赛季最佳新秀阵容第一阵容</t>
+  </si>
+  <si>
+    <t>3.8篮板1.9助攻1.06抢断0.28盖帽13.5分</t>
+  </si>
+  <si>
+    <t>4.1篮板1.8助攻0.80抢断0.08盖帽15.1分</t>
+  </si>
+  <si>
+    <t>2.9篮板1.4助攻0.32抢断0.12盖帽8.6分</t>
   </si>
 </sst>
 </file>
@@ -4074,7 +4164,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4088,6 +4178,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -4095,25 +4192,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4126,25 +4215,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4164,6 +4237,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -4172,7 +4261,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4187,15 +4276,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4203,9 +4285,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -4230,7 +4320,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4242,13 +4332,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4260,7 +4392,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4272,61 +4452,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4344,13 +4470,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4362,55 +4500,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4637,47 +4727,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -4698,6 +4747,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4734,6 +4798,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4742,10 +4832,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4754,19 +4844,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4775,112 +4865,112 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -11778,10 +11868,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X498"/>
+  <dimension ref="A1:X515"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A466" workbookViewId="0">
-      <selection activeCell="A431" sqref="A431:A498"/>
+    <sheetView tabSelected="1" topLeftCell="A469" workbookViewId="0">
+      <selection activeCell="W513" sqref="W513"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -26653,28 +26743,28 @@
       <c r="M416" t="s">
         <v>821</v>
       </c>
-      <c r="N416" s="39" t="s">
+      <c r="N416" s="32" t="s">
         <v>121</v>
       </c>
       <c r="O416" t="s">
         <v>593</v>
       </c>
-      <c r="P416" s="39">
+      <c r="P416" s="32">
         <v>1225</v>
       </c>
-      <c r="Q416" s="39">
+      <c r="Q416" s="32">
         <v>495</v>
       </c>
-      <c r="R416" s="39">
+      <c r="R416" s="32">
         <v>66</v>
       </c>
-      <c r="S416" s="39">
+      <c r="S416" s="32">
         <v>136</v>
       </c>
-      <c r="T416" s="39">
+      <c r="T416" s="32">
         <v>103</v>
       </c>
-      <c r="U416" s="40" t="s">
+      <c r="U416" s="37" t="s">
         <v>1187</v>
       </c>
     </row>
@@ -26688,28 +26778,28 @@
       <c r="C417" t="s">
         <v>121</v>
       </c>
-      <c r="N417" s="39" t="s">
+      <c r="N417" s="32" t="s">
         <v>121</v>
       </c>
       <c r="O417" t="s">
         <v>589</v>
       </c>
-      <c r="P417" s="39">
+      <c r="P417" s="32">
         <v>836</v>
       </c>
-      <c r="Q417" s="39">
+      <c r="Q417" s="32">
         <v>307</v>
       </c>
-      <c r="R417" s="39">
+      <c r="R417" s="32">
         <v>36</v>
       </c>
-      <c r="S417" s="39">
+      <c r="S417" s="32">
         <v>74</v>
       </c>
-      <c r="T417" s="39">
+      <c r="T417" s="32">
         <v>52</v>
       </c>
-      <c r="U417" s="40" t="s">
+      <c r="U417" s="37" t="s">
         <v>1188</v>
       </c>
     </row>
@@ -26723,28 +26813,28 @@
       <c r="C418" t="s">
         <v>121</v>
       </c>
-      <c r="N418" s="39" t="s">
+      <c r="N418" s="32" t="s">
         <v>23</v>
       </c>
       <c r="O418" t="s">
         <v>586</v>
       </c>
-      <c r="P418" s="39">
+      <c r="P418" s="32">
         <v>527</v>
       </c>
-      <c r="Q418" s="39">
+      <c r="Q418" s="32">
         <v>219</v>
       </c>
-      <c r="R418" s="39">
+      <c r="R418" s="32">
         <v>20</v>
       </c>
-      <c r="S418" s="39">
+      <c r="S418" s="32">
         <v>64</v>
       </c>
-      <c r="T418" s="39">
+      <c r="T418" s="32">
         <v>42</v>
       </c>
-      <c r="U418" s="40" t="s">
+      <c r="U418" s="37" t="s">
         <v>1189</v>
       </c>
     </row>
@@ -26758,28 +26848,28 @@
       <c r="C419" t="s">
         <v>121</v>
       </c>
-      <c r="N419" s="39" t="s">
+      <c r="N419" s="32" t="s">
         <v>23</v>
       </c>
       <c r="O419" t="s">
         <v>583</v>
       </c>
-      <c r="P419" s="39">
+      <c r="P419" s="32">
         <v>140</v>
       </c>
-      <c r="Q419" s="39">
+      <c r="Q419" s="32">
         <v>65</v>
       </c>
-      <c r="R419" s="39">
+      <c r="R419" s="32">
         <v>11</v>
       </c>
-      <c r="S419" s="39">
+      <c r="S419" s="32">
         <v>17</v>
       </c>
-      <c r="T419" s="39">
+      <c r="T419" s="32">
         <v>11</v>
       </c>
-      <c r="U419" s="40" t="s">
+      <c r="U419" s="37" t="s">
         <v>1190</v>
       </c>
     </row>
@@ -26823,28 +26913,28 @@
       <c r="M420" t="s">
         <v>1192</v>
       </c>
-      <c r="N420" s="39" t="s">
+      <c r="N420" s="32" t="s">
         <v>121</v>
       </c>
       <c r="O420" t="s">
         <v>593</v>
       </c>
-      <c r="P420" s="39">
+      <c r="P420" s="32">
         <v>564</v>
       </c>
-      <c r="Q420" s="39">
+      <c r="Q420" s="32">
         <v>373</v>
       </c>
-      <c r="R420" s="39">
+      <c r="R420" s="32">
         <v>66</v>
       </c>
-      <c r="S420" s="39">
+      <c r="S420" s="32">
         <v>279</v>
       </c>
-      <c r="T420" s="39">
+      <c r="T420" s="32">
         <v>41</v>
       </c>
-      <c r="U420" s="40" t="s">
+      <c r="U420" s="37" t="s">
         <v>1193</v>
       </c>
       <c r="W420" t="s">
@@ -26861,28 +26951,28 @@
       <c r="C421" t="s">
         <v>121</v>
       </c>
-      <c r="N421" s="39" t="s">
+      <c r="N421" s="32" t="s">
         <v>121</v>
       </c>
       <c r="O421" t="s">
         <v>589</v>
       </c>
-      <c r="P421" s="39">
+      <c r="P421" s="32">
         <v>134</v>
       </c>
-      <c r="Q421" s="39">
+      <c r="Q421" s="32">
         <v>45</v>
       </c>
-      <c r="R421" s="39">
+      <c r="R421" s="32">
         <v>19</v>
       </c>
-      <c r="S421" s="39">
+      <c r="S421" s="32">
         <v>32</v>
       </c>
-      <c r="T421" s="39">
+      <c r="T421" s="32">
         <v>5</v>
       </c>
-      <c r="U421" s="40" t="s">
+      <c r="U421" s="37" t="s">
         <v>1195</v>
       </c>
       <c r="W421" t="s">
@@ -26899,28 +26989,28 @@
       <c r="C422" t="s">
         <v>121</v>
       </c>
-      <c r="N422" s="39" t="s">
+      <c r="N422" s="32" t="s">
         <v>23</v>
       </c>
       <c r="O422" t="s">
         <v>586</v>
       </c>
-      <c r="P422" s="39">
+      <c r="P422" s="32">
         <v>639</v>
       </c>
-      <c r="Q422" s="39">
+      <c r="Q422" s="32">
         <v>393</v>
       </c>
-      <c r="R422" s="39">
+      <c r="R422" s="32">
         <v>99</v>
       </c>
-      <c r="S422" s="39">
+      <c r="S422" s="32">
         <v>281</v>
       </c>
-      <c r="T422" s="39">
+      <c r="T422" s="32">
         <v>25</v>
       </c>
-      <c r="U422" s="40" t="s">
+      <c r="U422" s="37" t="s">
         <v>1197</v>
       </c>
       <c r="W422" t="s">
@@ -26937,28 +27027,28 @@
       <c r="C423" t="s">
         <v>121</v>
       </c>
-      <c r="N423" s="39" t="s">
+      <c r="N423" s="32" t="s">
         <v>23</v>
       </c>
       <c r="O423" t="s">
         <v>583</v>
       </c>
-      <c r="P423" s="39">
+      <c r="P423" s="32">
         <v>700</v>
       </c>
-      <c r="Q423" s="39">
+      <c r="Q423" s="32">
         <v>250</v>
       </c>
-      <c r="R423" s="39">
+      <c r="R423" s="32">
         <v>94</v>
       </c>
-      <c r="S423" s="39">
+      <c r="S423" s="32">
         <v>239</v>
       </c>
-      <c r="T423" s="39">
+      <c r="T423" s="32">
         <v>26</v>
       </c>
-      <c r="U423" s="40" t="s">
+      <c r="U423" s="37" t="s">
         <v>1199</v>
       </c>
     </row>
@@ -26972,28 +27062,28 @@
       <c r="C424" t="s">
         <v>121</v>
       </c>
-      <c r="N424" s="39" t="s">
+      <c r="N424" s="32" t="s">
         <v>23</v>
       </c>
       <c r="O424" t="s">
         <v>581</v>
       </c>
-      <c r="P424" s="39">
+      <c r="P424" s="32">
         <v>568</v>
       </c>
-      <c r="Q424" s="39">
+      <c r="Q424" s="32">
         <v>237</v>
       </c>
-      <c r="R424" s="39">
+      <c r="R424" s="32">
         <v>59</v>
       </c>
-      <c r="S424" s="39">
+      <c r="S424" s="32">
         <v>192</v>
       </c>
-      <c r="T424" s="39">
+      <c r="T424" s="32">
         <v>23</v>
       </c>
-      <c r="U424" s="40" t="s">
+      <c r="U424" s="37" t="s">
         <v>1200</v>
       </c>
     </row>
@@ -27007,28 +27097,28 @@
       <c r="C425" t="s">
         <v>121</v>
       </c>
-      <c r="N425" s="39" t="s">
+      <c r="N425" s="32" t="s">
         <v>23</v>
       </c>
       <c r="O425" t="s">
         <v>579</v>
       </c>
-      <c r="P425" s="39">
+      <c r="P425" s="32">
         <v>573</v>
       </c>
-      <c r="Q425" s="39">
+      <c r="Q425" s="32">
         <v>196</v>
       </c>
-      <c r="R425" s="39">
+      <c r="R425" s="32">
         <v>77</v>
       </c>
-      <c r="S425" s="39">
+      <c r="S425" s="32">
         <v>151</v>
       </c>
-      <c r="T425" s="39">
+      <c r="T425" s="32">
         <v>23</v>
       </c>
-      <c r="U425" s="40" t="s">
+      <c r="U425" s="37" t="s">
         <v>1201</v>
       </c>
     </row>
@@ -27042,28 +27132,28 @@
       <c r="C426" t="s">
         <v>121</v>
       </c>
-      <c r="N426" s="39" t="s">
+      <c r="N426" s="32" t="s">
         <v>23</v>
       </c>
       <c r="O426" t="s">
         <v>577</v>
       </c>
-      <c r="P426" s="39">
+      <c r="P426" s="32">
         <v>228</v>
       </c>
-      <c r="Q426" s="39">
+      <c r="Q426" s="32">
         <v>109</v>
       </c>
-      <c r="R426" s="39">
+      <c r="R426" s="32">
         <v>37</v>
       </c>
-      <c r="S426" s="39">
+      <c r="S426" s="32">
         <v>117</v>
       </c>
-      <c r="T426" s="39">
+      <c r="T426" s="32">
         <v>21</v>
       </c>
-      <c r="U426" s="40" t="s">
+      <c r="U426" s="37" t="s">
         <v>1202</v>
       </c>
     </row>
@@ -27107,7 +27197,7 @@
       <c r="M427" t="s">
         <v>1204</v>
       </c>
-      <c r="N427" s="39" t="s">
+      <c r="N427" s="32" t="s">
         <v>121</v>
       </c>
       <c r="O427" t="s">
@@ -27172,28 +27262,28 @@
       <c r="M428" t="s">
         <v>1207</v>
       </c>
-      <c r="N428" s="39" t="s">
+      <c r="N428" s="32" t="s">
         <v>121</v>
       </c>
       <c r="O428" t="s">
         <v>593</v>
       </c>
-      <c r="P428" s="39">
+      <c r="P428" s="32">
         <v>162</v>
       </c>
-      <c r="Q428" s="39">
+      <c r="Q428" s="32">
         <v>144</v>
       </c>
-      <c r="R428" s="39">
+      <c r="R428" s="32">
         <v>4</v>
       </c>
-      <c r="S428" s="39">
+      <c r="S428" s="32">
         <v>31</v>
       </c>
-      <c r="T428" s="39">
+      <c r="T428" s="32">
         <v>17</v>
       </c>
-      <c r="U428" s="40" t="s">
+      <c r="U428" s="37" t="s">
         <v>1208</v>
       </c>
     </row>
@@ -27207,28 +27297,28 @@
       <c r="C429" t="s">
         <v>121</v>
       </c>
-      <c r="N429" s="39" t="s">
+      <c r="N429" s="32" t="s">
         <v>150</v>
       </c>
       <c r="O429" t="s">
         <v>593</v>
       </c>
-      <c r="P429" s="39">
+      <c r="P429" s="32">
         <v>281</v>
       </c>
-      <c r="Q429" s="39">
+      <c r="Q429" s="32">
         <v>162</v>
       </c>
-      <c r="R429" s="39">
+      <c r="R429" s="32">
         <v>4</v>
       </c>
-      <c r="S429" s="39">
+      <c r="S429" s="32">
         <v>25</v>
       </c>
-      <c r="T429" s="39">
+      <c r="T429" s="32">
         <v>27</v>
       </c>
-      <c r="U429" s="40" t="s">
+      <c r="U429" s="37" t="s">
         <v>1209</v>
       </c>
     </row>
@@ -27242,28 +27332,28 @@
       <c r="C430" t="s">
         <v>121</v>
       </c>
-      <c r="N430" s="39" t="s">
+      <c r="N430" s="32" t="s">
         <v>150</v>
       </c>
       <c r="O430" t="s">
         <v>589</v>
       </c>
-      <c r="P430" s="39">
+      <c r="P430" s="32">
         <v>161</v>
       </c>
-      <c r="Q430" s="39">
+      <c r="Q430" s="32">
         <v>123</v>
       </c>
-      <c r="R430" s="39">
+      <c r="R430" s="32">
         <v>8</v>
       </c>
-      <c r="S430" s="39">
+      <c r="S430" s="32">
         <v>25</v>
       </c>
-      <c r="T430" s="39">
+      <c r="T430" s="32">
         <v>15</v>
       </c>
-      <c r="U430" s="40" t="s">
+      <c r="U430" s="37" t="s">
         <v>1210</v>
       </c>
     </row>
@@ -27277,28 +27367,28 @@
       <c r="C431" t="s">
         <v>121</v>
       </c>
-      <c r="N431" s="39" t="s">
+      <c r="N431" s="32" t="s">
         <v>150</v>
       </c>
       <c r="O431" t="s">
         <v>586</v>
       </c>
-      <c r="P431" s="39">
+      <c r="P431" s="32">
         <v>284</v>
       </c>
-      <c r="Q431" s="39">
+      <c r="Q431" s="32">
         <v>159</v>
       </c>
-      <c r="R431" s="39">
+      <c r="R431" s="32">
         <v>14</v>
       </c>
-      <c r="S431" s="39">
+      <c r="S431" s="32">
         <v>30</v>
       </c>
-      <c r="T431" s="39">
+      <c r="T431" s="32">
         <v>33</v>
       </c>
-      <c r="U431" s="40" t="s">
+      <c r="U431" s="37" t="s">
         <v>1211</v>
       </c>
     </row>
@@ -29915,6 +30005,760 @@
       </c>
       <c r="U498" s="37" t="s">
         <v>1312</v>
+      </c>
+    </row>
+    <row r="499" ht="14.25" spans="1:23">
+      <c r="A499">
+        <v>442</v>
+      </c>
+      <c r="B499" t="s">
+        <v>137</v>
+      </c>
+      <c r="C499" t="s">
+        <v>136</v>
+      </c>
+      <c r="D499">
+        <v>15.1</v>
+      </c>
+      <c r="E499">
+        <v>6</v>
+      </c>
+      <c r="F499">
+        <v>2</v>
+      </c>
+      <c r="G499">
+        <v>0.75</v>
+      </c>
+      <c r="H499">
+        <v>0.05</v>
+      </c>
+      <c r="I499">
+        <v>40</v>
+      </c>
+      <c r="J499">
+        <v>2.03</v>
+      </c>
+      <c r="K499">
+        <v>102</v>
+      </c>
+      <c r="L499" t="s">
+        <v>1313</v>
+      </c>
+      <c r="M499" t="s">
+        <v>1314</v>
+      </c>
+      <c r="N499" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="O499" t="s">
+        <v>593</v>
+      </c>
+      <c r="P499" s="39">
+        <v>283</v>
+      </c>
+      <c r="Q499" s="39">
+        <v>117</v>
+      </c>
+      <c r="R499" s="39">
+        <v>15</v>
+      </c>
+      <c r="S499" s="39">
+        <v>40</v>
+      </c>
+      <c r="T499" s="39">
+        <v>1</v>
+      </c>
+      <c r="U499" s="40" t="s">
+        <v>1315</v>
+      </c>
+      <c r="W499" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="500" ht="14.25" spans="1:23">
+      <c r="A500">
+        <v>443</v>
+      </c>
+      <c r="B500" t="s">
+        <v>137</v>
+      </c>
+      <c r="C500" t="s">
+        <v>136</v>
+      </c>
+      <c r="N500" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="O500" t="s">
+        <v>593</v>
+      </c>
+      <c r="P500" s="39">
+        <v>866</v>
+      </c>
+      <c r="Q500" s="39">
+        <v>207</v>
+      </c>
+      <c r="R500" s="39">
+        <v>33</v>
+      </c>
+      <c r="S500" s="39">
+        <v>62</v>
+      </c>
+      <c r="T500" s="39">
+        <v>11</v>
+      </c>
+      <c r="U500" s="40" t="s">
+        <v>1317</v>
+      </c>
+      <c r="W500" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="501" ht="14.25" spans="1:21">
+      <c r="A501">
+        <v>444</v>
+      </c>
+      <c r="B501" t="s">
+        <v>137</v>
+      </c>
+      <c r="C501" t="s">
+        <v>136</v>
+      </c>
+      <c r="N501" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="O501" t="s">
+        <v>589</v>
+      </c>
+      <c r="P501" s="39">
+        <v>1452</v>
+      </c>
+      <c r="Q501" s="39">
+        <v>468</v>
+      </c>
+      <c r="R501" s="39">
+        <v>49</v>
+      </c>
+      <c r="S501" s="39">
+        <v>152</v>
+      </c>
+      <c r="T501" s="39">
+        <v>14</v>
+      </c>
+      <c r="U501" s="40" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="502" ht="14.25" spans="1:21">
+      <c r="A502">
+        <v>445</v>
+      </c>
+      <c r="B502" t="s">
+        <v>137</v>
+      </c>
+      <c r="C502" t="s">
+        <v>136</v>
+      </c>
+      <c r="N502" s="39" t="s">
+        <v>961</v>
+      </c>
+      <c r="O502" t="s">
+        <v>586</v>
+      </c>
+      <c r="P502" s="39">
+        <v>1518</v>
+      </c>
+      <c r="Q502" s="39">
+        <v>394</v>
+      </c>
+      <c r="R502" s="39">
+        <v>65</v>
+      </c>
+      <c r="S502" s="39">
+        <v>117</v>
+      </c>
+      <c r="T502" s="39">
+        <v>15</v>
+      </c>
+      <c r="U502" s="40" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="503" ht="14.25" spans="1:21">
+      <c r="A503">
+        <v>446</v>
+      </c>
+      <c r="B503" t="s">
+        <v>137</v>
+      </c>
+      <c r="C503" t="s">
+        <v>136</v>
+      </c>
+      <c r="N503" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="O503" t="s">
+        <v>583</v>
+      </c>
+      <c r="P503" s="39">
+        <v>774</v>
+      </c>
+      <c r="Q503" s="39">
+        <v>325</v>
+      </c>
+      <c r="R503" s="39">
+        <v>41</v>
+      </c>
+      <c r="S503" s="39">
+        <v>117</v>
+      </c>
+      <c r="T503" s="39">
+        <v>10</v>
+      </c>
+      <c r="U503" s="40" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="504" ht="14.25" spans="1:21">
+      <c r="A504">
+        <v>447</v>
+      </c>
+      <c r="B504" t="s">
+        <v>137</v>
+      </c>
+      <c r="C504" t="s">
+        <v>136</v>
+      </c>
+      <c r="N504" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="O504" t="s">
+        <v>581</v>
+      </c>
+      <c r="P504" s="39">
+        <v>827</v>
+      </c>
+      <c r="Q504" s="39">
+        <v>453</v>
+      </c>
+      <c r="R504" s="39">
+        <v>61</v>
+      </c>
+      <c r="S504" s="39">
+        <v>116</v>
+      </c>
+      <c r="T504" s="39">
+        <v>19</v>
+      </c>
+      <c r="U504" s="40" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="505" ht="14.25" spans="1:21">
+      <c r="A505">
+        <v>448</v>
+      </c>
+      <c r="B505" t="s">
+        <v>137</v>
+      </c>
+      <c r="C505" t="s">
+        <v>136</v>
+      </c>
+      <c r="N505" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="O505" t="s">
+        <v>579</v>
+      </c>
+      <c r="P505" s="39">
+        <v>738</v>
+      </c>
+      <c r="Q505" s="39">
+        <v>311</v>
+      </c>
+      <c r="R505" s="39">
+        <v>65</v>
+      </c>
+      <c r="S505" s="39">
+        <v>116</v>
+      </c>
+      <c r="T505" s="39">
+        <v>20</v>
+      </c>
+      <c r="U505" s="40" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="506" ht="14.25" spans="1:21">
+      <c r="A506">
+        <v>449</v>
+      </c>
+      <c r="B506" t="s">
+        <v>137</v>
+      </c>
+      <c r="C506" t="s">
+        <v>136</v>
+      </c>
+      <c r="N506" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="O506" t="s">
+        <v>577</v>
+      </c>
+      <c r="P506" s="39">
+        <v>748</v>
+      </c>
+      <c r="Q506" s="39">
+        <v>333</v>
+      </c>
+      <c r="R506" s="39">
+        <v>52</v>
+      </c>
+      <c r="S506" s="39">
+        <v>98</v>
+      </c>
+      <c r="T506" s="39">
+        <v>14</v>
+      </c>
+      <c r="U506" s="40" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="507" ht="14.25" spans="1:21">
+      <c r="A507">
+        <v>450</v>
+      </c>
+      <c r="B507" t="s">
+        <v>140</v>
+      </c>
+      <c r="C507" t="s">
+        <v>136</v>
+      </c>
+      <c r="D507">
+        <v>14</v>
+      </c>
+      <c r="E507">
+        <v>3.5</v>
+      </c>
+      <c r="F507">
+        <v>3.9</v>
+      </c>
+      <c r="G507">
+        <v>1.05</v>
+      </c>
+      <c r="H507">
+        <v>0.21</v>
+      </c>
+      <c r="I507">
+        <v>8</v>
+      </c>
+      <c r="J507">
+        <v>1.98</v>
+      </c>
+      <c r="K507">
+        <v>93</v>
+      </c>
+      <c r="L507" t="s">
+        <v>1325</v>
+      </c>
+      <c r="M507" t="s">
+        <v>1326</v>
+      </c>
+      <c r="N507" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="O507" t="s">
+        <v>593</v>
+      </c>
+      <c r="P507" s="39">
+        <v>854</v>
+      </c>
+      <c r="Q507" s="39">
+        <v>214</v>
+      </c>
+      <c r="R507" s="39">
+        <v>65</v>
+      </c>
+      <c r="S507" s="39">
+        <v>233</v>
+      </c>
+      <c r="T507" s="39">
+        <v>14</v>
+      </c>
+      <c r="U507" s="40" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="508" ht="14.25" spans="1:21">
+      <c r="A508">
+        <v>451</v>
+      </c>
+      <c r="B508" t="s">
+        <v>140</v>
+      </c>
+      <c r="C508" t="s">
+        <v>136</v>
+      </c>
+      <c r="N508" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="O508" t="s">
+        <v>589</v>
+      </c>
+      <c r="P508" s="39">
+        <v>917</v>
+      </c>
+      <c r="Q508" s="39">
+        <v>223</v>
+      </c>
+      <c r="R508" s="39">
+        <v>72</v>
+      </c>
+      <c r="S508" s="39">
+        <v>258</v>
+      </c>
+      <c r="T508" s="39">
+        <v>16</v>
+      </c>
+      <c r="U508" s="40" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="509" ht="14.25" spans="1:21">
+      <c r="A509">
+        <v>452</v>
+      </c>
+      <c r="B509" t="s">
+        <v>141</v>
+      </c>
+      <c r="C509" t="s">
+        <v>136</v>
+      </c>
+      <c r="D509">
+        <v>14.7</v>
+      </c>
+      <c r="E509">
+        <v>7.3</v>
+      </c>
+      <c r="F509">
+        <v>1</v>
+      </c>
+      <c r="G509">
+        <v>0.58</v>
+      </c>
+      <c r="H509">
+        <v>0.96</v>
+      </c>
+      <c r="I509">
+        <v>35</v>
+      </c>
+      <c r="J509">
+        <v>2.11</v>
+      </c>
+      <c r="K509">
+        <v>107</v>
+      </c>
+      <c r="L509" t="s">
+        <v>1329</v>
+      </c>
+      <c r="M509" t="s">
+        <v>1330</v>
+      </c>
+      <c r="N509" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="O509" t="s">
+        <v>593</v>
+      </c>
+      <c r="P509">
+        <v>793</v>
+      </c>
+      <c r="Q509">
+        <v>398</v>
+      </c>
+      <c r="R509">
+        <v>31</v>
+      </c>
+      <c r="S509">
+        <v>55</v>
+      </c>
+      <c r="T509">
+        <v>53</v>
+      </c>
+      <c r="U509" s="40" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="510" ht="14.25" spans="1:21">
+      <c r="A510">
+        <v>453</v>
+      </c>
+      <c r="B510" t="s">
+        <v>143</v>
+      </c>
+      <c r="C510" t="s">
+        <v>136</v>
+      </c>
+      <c r="D510">
+        <v>17.5</v>
+      </c>
+      <c r="E510">
+        <v>3.8</v>
+      </c>
+      <c r="F510">
+        <v>7.2</v>
+      </c>
+      <c r="G510">
+        <v>1.67</v>
+      </c>
+      <c r="H510">
+        <v>0.55</v>
+      </c>
+      <c r="I510">
+        <v>5</v>
+      </c>
+      <c r="J510">
+        <v>1.91</v>
+      </c>
+      <c r="K510">
+        <v>79</v>
+      </c>
+      <c r="L510" t="s">
+        <v>1332</v>
+      </c>
+      <c r="M510" t="s">
+        <v>1333</v>
+      </c>
+      <c r="N510" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="O510" t="s">
+        <v>593</v>
+      </c>
+      <c r="P510">
+        <v>1251</v>
+      </c>
+      <c r="Q510">
+        <v>270</v>
+      </c>
+      <c r="R510">
+        <v>122</v>
+      </c>
+      <c r="S510">
+        <v>519</v>
+      </c>
+      <c r="T510">
+        <v>40</v>
+      </c>
+      <c r="U510" s="40" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="511" ht="14.25" spans="1:21">
+      <c r="A511">
+        <v>454</v>
+      </c>
+      <c r="B511" t="s">
+        <v>143</v>
+      </c>
+      <c r="C511" t="s">
+        <v>136</v>
+      </c>
+      <c r="N511" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="O511" t="s">
+        <v>589</v>
+      </c>
+      <c r="P511">
+        <v>844</v>
+      </c>
+      <c r="Q511">
+        <v>204</v>
+      </c>
+      <c r="R511">
+        <v>70</v>
+      </c>
+      <c r="S511">
+        <v>320</v>
+      </c>
+      <c r="T511">
+        <v>20</v>
+      </c>
+      <c r="U511" s="40" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="512" ht="14.25" spans="1:23">
+      <c r="A512">
+        <v>455</v>
+      </c>
+      <c r="B512" t="s">
+        <v>145</v>
+      </c>
+      <c r="C512" t="s">
+        <v>136</v>
+      </c>
+      <c r="D512">
+        <v>20.8</v>
+      </c>
+      <c r="E512">
+        <v>5.2</v>
+      </c>
+      <c r="F512">
+        <v>2.5</v>
+      </c>
+      <c r="G512">
+        <v>0.39</v>
+      </c>
+      <c r="H512">
+        <v>0.39</v>
+      </c>
+      <c r="I512">
+        <v>24</v>
+      </c>
+      <c r="J512">
+        <v>1.93</v>
+      </c>
+      <c r="K512">
+        <v>97</v>
+      </c>
+      <c r="L512" t="s">
+        <v>1336</v>
+      </c>
+      <c r="M512" t="s">
+        <v>1337</v>
+      </c>
+      <c r="N512" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="O512" t="s">
+        <v>593</v>
+      </c>
+      <c r="P512" s="39">
+        <v>1523</v>
+      </c>
+      <c r="Q512" s="39">
+        <v>377</v>
+      </c>
+      <c r="R512" s="39">
+        <v>50</v>
+      </c>
+      <c r="S512" s="39">
+        <v>180</v>
+      </c>
+      <c r="T512" s="39">
+        <v>29</v>
+      </c>
+      <c r="U512" s="40" t="s">
+        <v>1338</v>
+      </c>
+      <c r="W512" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="513" ht="14.25" spans="1:21">
+      <c r="A513">
+        <v>456</v>
+      </c>
+      <c r="B513" t="s">
+        <v>145</v>
+      </c>
+      <c r="C513" t="s">
+        <v>136</v>
+      </c>
+      <c r="N513" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="O513" t="s">
+        <v>589</v>
+      </c>
+      <c r="P513" s="39">
+        <v>1079</v>
+      </c>
+      <c r="Q513" s="39">
+        <v>307</v>
+      </c>
+      <c r="R513" s="39">
+        <v>85</v>
+      </c>
+      <c r="S513" s="39">
+        <v>155</v>
+      </c>
+      <c r="T513" s="39">
+        <v>22</v>
+      </c>
+      <c r="U513" s="40" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="514" ht="14.25" spans="1:21">
+      <c r="A514">
+        <v>457</v>
+      </c>
+      <c r="B514" t="s">
+        <v>145</v>
+      </c>
+      <c r="C514" t="s">
+        <v>136</v>
+      </c>
+      <c r="N514" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="O514" t="s">
+        <v>586</v>
+      </c>
+      <c r="P514" s="39">
+        <v>378</v>
+      </c>
+      <c r="Q514" s="39">
+        <v>103</v>
+      </c>
+      <c r="R514" s="39">
+        <v>20</v>
+      </c>
+      <c r="S514" s="39">
+        <v>44</v>
+      </c>
+      <c r="T514" s="39">
+        <v>2</v>
+      </c>
+      <c r="U514" s="40" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="515" ht="14.25" spans="1:21">
+      <c r="A515">
+        <v>458</v>
+      </c>
+      <c r="B515" t="s">
+        <v>145</v>
+      </c>
+      <c r="C515" t="s">
+        <v>136</v>
+      </c>
+      <c r="N515" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="O515" t="s">
+        <v>586</v>
+      </c>
+      <c r="P515" s="39">
+        <v>488</v>
+      </c>
+      <c r="Q515" s="39">
+        <v>166</v>
+      </c>
+      <c r="R515" s="39">
+        <v>18</v>
+      </c>
+      <c r="S515" s="39">
+        <v>77</v>
+      </c>
+      <c r="T515" s="39">
+        <v>7</v>
+      </c>
+      <c r="U515" s="40" t="s">
+        <v>1342</v>
       </c>
     </row>
   </sheetData>
@@ -29953,7 +30797,7 @@
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A3"/>
+      <selection activeCell="A1" sqref="A1:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/网站相关/data.xlsx
+++ b/网站相关/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390">
   <si>
     <t>主键</t>
   </si>
@@ -4063,16 +4063,157 @@
   <si>
     <t>2.9篮板1.4助攻0.32抢断0.12盖帽8.6分</t>
   </si>
+  <si>
+    <t>2013年第1轮第27顺位</t>
+  </si>
+  <si>
+    <t>4年550万美元，2013年夏天签，2017年夏天到期，2016年10月以4年1.02亿美元续约，2017年夏天生效，2021年夏天到期</t>
+  </si>
+  <si>
+    <t>12.9篮板2.0助攻0.80抢断2.23盖帽15.6分</t>
+  </si>
+  <si>
+    <t>10.7篮板1.4助攻0.79抢断2.30盖帽13.5分</t>
+  </si>
+  <si>
+    <t>2017-18赛季防守奖</t>
+  </si>
+  <si>
+    <t>12.8篮板1.2助攻0.60抢断2.64盖帽14.0分</t>
+  </si>
+  <si>
+    <t>2016-17赛季常规赛盖帽王</t>
+  </si>
+  <si>
+    <t>11.0篮板1.5助攻0.74抢断2.21盖帽9.1分</t>
+  </si>
+  <si>
+    <t>9.5篮板1.3助攻0.78抢断2.30盖帽8.4分</t>
+  </si>
+  <si>
+    <t>3.4篮板0.2助攻0.18抢断0.91盖帽2.3分</t>
+  </si>
+  <si>
+    <t>2017年第1轮第13顺位</t>
+  </si>
+  <si>
+    <t>4年1456万美元，2017年夏天签，2021年夏天到期，2019-20、2020-21赛季球队选项</t>
+  </si>
+  <si>
+    <t>4.1篮板4.1助攻1.39抢断0.43盖帽23.4分</t>
+  </si>
+  <si>
+    <t>2018年全明星扣篮大赛冠军</t>
+  </si>
+  <si>
+    <t>3.7篮板3.7助攻1.49抢断0.34盖帽20.5分</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2017-18赛季NBA最佳新秀阵容一阵</t>
+  </si>
+  <si>
+    <t>2017-18赛季新生奖</t>
+  </si>
+  <si>
+    <t>4年5200万美元，2017年夏天签，2021年夏天到期</t>
+  </si>
+  <si>
+    <t>3.9篮板5.4助攻1.26抢断0.27盖帽11.9分</t>
+  </si>
+  <si>
+    <t>4.2篮板4.8助攻1.10抢断0.24盖帽11.5分</t>
+  </si>
+  <si>
+    <t>3.2篮板2.7助攻1.17抢断0.10盖帽7.1分</t>
+  </si>
+  <si>
+    <t>1.9篮板1.2助攻0.68抢断0.05盖帽4.2分</t>
+  </si>
+  <si>
+    <t>2.2篮板2.3助攻0.91抢断0.13盖帽5.0分</t>
+  </si>
+  <si>
+    <t>2009年第1轮第5顺位</t>
+  </si>
+  <si>
+    <t>4年5500万美元，2014年10月签，2015年夏天生效，2019年夏天到期</t>
+  </si>
+  <si>
+    <t>3.6篮板6.1助攻1.38抢断0.16盖帽12.7分</t>
+  </si>
+  <si>
+    <t>2012NBA新秀阵容一阵</t>
+  </si>
+  <si>
+    <t>4.6篮板5.3助攻1.57抢断0.14盖帽13.1分</t>
+  </si>
+  <si>
+    <t>4.1篮板9.1助攻1.71抢断0.13盖帽11.1分</t>
+  </si>
+  <si>
+    <t>4.3篮板8.7助攻2.13抢断0.13盖帽10.1分</t>
+  </si>
+  <si>
+    <t>5.7篮板8.8助攻1.73抢断0.05盖帽10.3分</t>
+  </si>
+  <si>
+    <t>4.2篮板8.6助攻2.33抢断0.13盖帽9.5分</t>
+  </si>
+  <si>
+    <t>4.0篮板7.3助攻2.40抢断0.09盖帽10.7分</t>
+  </si>
+  <si>
+    <t>4.2篮板8.2助攻2.22抢断0.20盖帽10.6分</t>
+  </si>
+  <si>
+    <t>杰-克劳德</t>
+  </si>
+  <si>
+    <t>2012年第2轮第4顺位</t>
+  </si>
+  <si>
+    <t>5年3500万美元，2015年夏天签，2020年夏天到期</t>
+  </si>
+  <si>
+    <t>4.8篮板1.7助攻0.85抢断0.36盖帽12.0分</t>
+  </si>
+  <si>
+    <t>3.8篮板1.5助攻0.85抢断0.33盖帽11.8分</t>
+  </si>
+  <si>
+    <t>克里夫兰骑士</t>
+  </si>
+  <si>
+    <t>3.3篮板1.1助攻0.77抢断0.23盖帽8.6分</t>
+  </si>
+  <si>
+    <t>5.8篮板2.2助攻1.01抢断0.32盖帽13.9分</t>
+  </si>
+  <si>
+    <t>5.1篮板1.8助攻1.73抢断0.48盖帽14.2分</t>
+  </si>
+  <si>
+    <t>4.6篮板1.4助攻1抢断0.35盖帽9.5分</t>
+  </si>
+  <si>
+    <t>1.2篮板0.5助攻0.60抢断0.20盖帽3.6分</t>
+  </si>
+  <si>
+    <t>2.5篮板0.8助攻0.76抢断0.27盖帽4.6分</t>
+  </si>
+  <si>
+    <t>2.4篮板1.2助攻0.81抢断0.22盖帽5.0分</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -4164,20 +4305,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -4185,7 +4312,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4193,6 +4335,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4206,16 +4364,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4237,17 +4388,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4261,6 +4403,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -4268,18 +4418,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4291,11 +4433,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -4320,13 +4461,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4338,91 +4533,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4440,19 +4563,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4464,19 +4581,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4494,13 +4635,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4727,6 +4868,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -4751,32 +4907,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4800,16 +4941,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4832,10 +4973,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4844,19 +4985,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4865,112 +5006,112 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -11868,10 +12009,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X515"/>
+  <dimension ref="A1:X546"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A469" workbookViewId="0">
-      <selection activeCell="W513" sqref="W513"/>
+    <sheetView tabSelected="1" topLeftCell="A523" workbookViewId="0">
+      <selection activeCell="A515" sqref="A515:A546"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -30047,28 +30188,28 @@
       <c r="M499" t="s">
         <v>1314</v>
       </c>
-      <c r="N499" s="39" t="s">
+      <c r="N499" s="32" t="s">
         <v>136</v>
       </c>
       <c r="O499" t="s">
         <v>593</v>
       </c>
-      <c r="P499" s="39">
+      <c r="P499" s="32">
         <v>283</v>
       </c>
-      <c r="Q499" s="39">
+      <c r="Q499" s="32">
         <v>117</v>
       </c>
-      <c r="R499" s="39">
+      <c r="R499" s="32">
         <v>15</v>
       </c>
-      <c r="S499" s="39">
+      <c r="S499" s="32">
         <v>40</v>
       </c>
-      <c r="T499" s="39">
+      <c r="T499" s="32">
         <v>1</v>
       </c>
-      <c r="U499" s="40" t="s">
+      <c r="U499" s="37" t="s">
         <v>1315</v>
       </c>
       <c r="W499" t="s">
@@ -30085,28 +30226,28 @@
       <c r="C500" t="s">
         <v>136</v>
       </c>
-      <c r="N500" s="39" t="s">
+      <c r="N500" s="32" t="s">
         <v>89</v>
       </c>
       <c r="O500" t="s">
         <v>593</v>
       </c>
-      <c r="P500" s="39">
+      <c r="P500" s="32">
         <v>866</v>
       </c>
-      <c r="Q500" s="39">
+      <c r="Q500" s="32">
         <v>207</v>
       </c>
-      <c r="R500" s="39">
+      <c r="R500" s="32">
         <v>33</v>
       </c>
-      <c r="S500" s="39">
+      <c r="S500" s="32">
         <v>62</v>
       </c>
-      <c r="T500" s="39">
+      <c r="T500" s="32">
         <v>11</v>
       </c>
-      <c r="U500" s="40" t="s">
+      <c r="U500" s="37" t="s">
         <v>1317</v>
       </c>
       <c r="W500" t="s">
@@ -30123,28 +30264,28 @@
       <c r="C501" t="s">
         <v>136</v>
       </c>
-      <c r="N501" s="39" t="s">
+      <c r="N501" s="32" t="s">
         <v>89</v>
       </c>
       <c r="O501" t="s">
         <v>589</v>
       </c>
-      <c r="P501" s="39">
+      <c r="P501" s="32">
         <v>1452</v>
       </c>
-      <c r="Q501" s="39">
+      <c r="Q501" s="32">
         <v>468</v>
       </c>
-      <c r="R501" s="39">
+      <c r="R501" s="32">
         <v>49</v>
       </c>
-      <c r="S501" s="39">
+      <c r="S501" s="32">
         <v>152</v>
       </c>
-      <c r="T501" s="39">
+      <c r="T501" s="32">
         <v>14</v>
       </c>
-      <c r="U501" s="40" t="s">
+      <c r="U501" s="37" t="s">
         <v>1319</v>
       </c>
     </row>
@@ -30158,28 +30299,28 @@
       <c r="C502" t="s">
         <v>136</v>
       </c>
-      <c r="N502" s="39" t="s">
+      <c r="N502" s="32" t="s">
         <v>961</v>
       </c>
       <c r="O502" t="s">
         <v>586</v>
       </c>
-      <c r="P502" s="39">
+      <c r="P502" s="32">
         <v>1518</v>
       </c>
-      <c r="Q502" s="39">
+      <c r="Q502" s="32">
         <v>394</v>
       </c>
-      <c r="R502" s="39">
+      <c r="R502" s="32">
         <v>65</v>
       </c>
-      <c r="S502" s="39">
+      <c r="S502" s="32">
         <v>117</v>
       </c>
-      <c r="T502" s="39">
+      <c r="T502" s="32">
         <v>15</v>
       </c>
-      <c r="U502" s="40" t="s">
+      <c r="U502" s="37" t="s">
         <v>1320</v>
       </c>
     </row>
@@ -30193,28 +30334,28 @@
       <c r="C503" t="s">
         <v>136</v>
       </c>
-      <c r="N503" s="39" t="s">
+      <c r="N503" s="32" t="s">
         <v>106</v>
       </c>
       <c r="O503" t="s">
         <v>583</v>
       </c>
-      <c r="P503" s="39">
+      <c r="P503" s="32">
         <v>774</v>
       </c>
-      <c r="Q503" s="39">
+      <c r="Q503" s="32">
         <v>325</v>
       </c>
-      <c r="R503" s="39">
+      <c r="R503" s="32">
         <v>41</v>
       </c>
-      <c r="S503" s="39">
+      <c r="S503" s="32">
         <v>117</v>
       </c>
-      <c r="T503" s="39">
+      <c r="T503" s="32">
         <v>10</v>
       </c>
-      <c r="U503" s="40" t="s">
+      <c r="U503" s="37" t="s">
         <v>1321</v>
       </c>
     </row>
@@ -30228,28 +30369,28 @@
       <c r="C504" t="s">
         <v>136</v>
       </c>
-      <c r="N504" s="39" t="s">
+      <c r="N504" s="32" t="s">
         <v>106</v>
       </c>
       <c r="O504" t="s">
         <v>581</v>
       </c>
-      <c r="P504" s="39">
+      <c r="P504" s="32">
         <v>827</v>
       </c>
-      <c r="Q504" s="39">
+      <c r="Q504" s="32">
         <v>453</v>
       </c>
-      <c r="R504" s="39">
+      <c r="R504" s="32">
         <v>61</v>
       </c>
-      <c r="S504" s="39">
+      <c r="S504" s="32">
         <v>116</v>
       </c>
-      <c r="T504" s="39">
+      <c r="T504" s="32">
         <v>19</v>
       </c>
-      <c r="U504" s="40" t="s">
+      <c r="U504" s="37" t="s">
         <v>1322</v>
       </c>
     </row>
@@ -30263,28 +30404,28 @@
       <c r="C505" t="s">
         <v>136</v>
       </c>
-      <c r="N505" s="39" t="s">
+      <c r="N505" s="32" t="s">
         <v>106</v>
       </c>
       <c r="O505" t="s">
         <v>579</v>
       </c>
-      <c r="P505" s="39">
+      <c r="P505" s="32">
         <v>738</v>
       </c>
-      <c r="Q505" s="39">
+      <c r="Q505" s="32">
         <v>311</v>
       </c>
-      <c r="R505" s="39">
+      <c r="R505" s="32">
         <v>65</v>
       </c>
-      <c r="S505" s="39">
+      <c r="S505" s="32">
         <v>116</v>
       </c>
-      <c r="T505" s="39">
+      <c r="T505" s="32">
         <v>20</v>
       </c>
-      <c r="U505" s="40" t="s">
+      <c r="U505" s="37" t="s">
         <v>1323</v>
       </c>
     </row>
@@ -30298,28 +30439,28 @@
       <c r="C506" t="s">
         <v>136</v>
       </c>
-      <c r="N506" s="39" t="s">
+      <c r="N506" s="32" t="s">
         <v>106</v>
       </c>
       <c r="O506" t="s">
         <v>577</v>
       </c>
-      <c r="P506" s="39">
+      <c r="P506" s="32">
         <v>748</v>
       </c>
-      <c r="Q506" s="39">
+      <c r="Q506" s="32">
         <v>333</v>
       </c>
-      <c r="R506" s="39">
+      <c r="R506" s="32">
         <v>52</v>
       </c>
-      <c r="S506" s="39">
+      <c r="S506" s="32">
         <v>98</v>
       </c>
-      <c r="T506" s="39">
+      <c r="T506" s="32">
         <v>14</v>
       </c>
-      <c r="U506" s="40" t="s">
+      <c r="U506" s="37" t="s">
         <v>1324</v>
       </c>
     </row>
@@ -30363,28 +30504,28 @@
       <c r="M507" t="s">
         <v>1326</v>
       </c>
-      <c r="N507" s="39" t="s">
+      <c r="N507" s="32" t="s">
         <v>136</v>
       </c>
       <c r="O507" t="s">
         <v>593</v>
       </c>
-      <c r="P507" s="39">
+      <c r="P507" s="32">
         <v>854</v>
       </c>
-      <c r="Q507" s="39">
+      <c r="Q507" s="32">
         <v>214</v>
       </c>
-      <c r="R507" s="39">
+      <c r="R507" s="32">
         <v>65</v>
       </c>
-      <c r="S507" s="39">
+      <c r="S507" s="32">
         <v>233</v>
       </c>
-      <c r="T507" s="39">
+      <c r="T507" s="32">
         <v>14</v>
       </c>
-      <c r="U507" s="40" t="s">
+      <c r="U507" s="37" t="s">
         <v>1327</v>
       </c>
     </row>
@@ -30398,28 +30539,28 @@
       <c r="C508" t="s">
         <v>136</v>
       </c>
-      <c r="N508" s="39" t="s">
+      <c r="N508" s="32" t="s">
         <v>136</v>
       </c>
       <c r="O508" t="s">
         <v>589</v>
       </c>
-      <c r="P508" s="39">
+      <c r="P508" s="32">
         <v>917</v>
       </c>
-      <c r="Q508" s="39">
+      <c r="Q508" s="32">
         <v>223</v>
       </c>
-      <c r="R508" s="39">
+      <c r="R508" s="32">
         <v>72</v>
       </c>
-      <c r="S508" s="39">
+      <c r="S508" s="32">
         <v>258</v>
       </c>
-      <c r="T508" s="39">
+      <c r="T508" s="32">
         <v>16</v>
       </c>
-      <c r="U508" s="40" t="s">
+      <c r="U508" s="37" t="s">
         <v>1328</v>
       </c>
     </row>
@@ -30463,7 +30604,7 @@
       <c r="M509" t="s">
         <v>1330</v>
       </c>
-      <c r="N509" s="39" t="s">
+      <c r="N509" s="32" t="s">
         <v>136</v>
       </c>
       <c r="O509" t="s">
@@ -30484,7 +30625,7 @@
       <c r="T509">
         <v>53</v>
       </c>
-      <c r="U509" s="40" t="s">
+      <c r="U509" s="37" t="s">
         <v>1331</v>
       </c>
     </row>
@@ -30528,7 +30669,7 @@
       <c r="M510" t="s">
         <v>1333</v>
       </c>
-      <c r="N510" s="39" t="s">
+      <c r="N510" s="32" t="s">
         <v>136</v>
       </c>
       <c r="O510" t="s">
@@ -30549,7 +30690,7 @@
       <c r="T510">
         <v>40</v>
       </c>
-      <c r="U510" s="40" t="s">
+      <c r="U510" s="37" t="s">
         <v>1334</v>
       </c>
     </row>
@@ -30563,7 +30704,7 @@
       <c r="C511" t="s">
         <v>136</v>
       </c>
-      <c r="N511" s="39" t="s">
+      <c r="N511" s="32" t="s">
         <v>136</v>
       </c>
       <c r="O511" t="s">
@@ -30584,7 +30725,7 @@
       <c r="T511">
         <v>20</v>
       </c>
-      <c r="U511" s="40" t="s">
+      <c r="U511" s="37" t="s">
         <v>1335</v>
       </c>
     </row>
@@ -30628,28 +30769,28 @@
       <c r="M512" t="s">
         <v>1337</v>
       </c>
-      <c r="N512" s="39" t="s">
+      <c r="N512" s="32" t="s">
         <v>136</v>
       </c>
       <c r="O512" t="s">
         <v>593</v>
       </c>
-      <c r="P512" s="39">
+      <c r="P512" s="32">
         <v>1523</v>
       </c>
-      <c r="Q512" s="39">
+      <c r="Q512" s="32">
         <v>377</v>
       </c>
-      <c r="R512" s="39">
+      <c r="R512" s="32">
         <v>50</v>
       </c>
-      <c r="S512" s="39">
+      <c r="S512" s="32">
         <v>180</v>
       </c>
-      <c r="T512" s="39">
+      <c r="T512" s="32">
         <v>29</v>
       </c>
-      <c r="U512" s="40" t="s">
+      <c r="U512" s="37" t="s">
         <v>1338</v>
       </c>
       <c r="W512" t="s">
@@ -30666,28 +30807,28 @@
       <c r="C513" t="s">
         <v>136</v>
       </c>
-      <c r="N513" s="39" t="s">
+      <c r="N513" s="32" t="s">
         <v>136</v>
       </c>
       <c r="O513" t="s">
         <v>589</v>
       </c>
-      <c r="P513" s="39">
+      <c r="P513" s="32">
         <v>1079</v>
       </c>
-      <c r="Q513" s="39">
+      <c r="Q513" s="32">
         <v>307</v>
       </c>
-      <c r="R513" s="39">
+      <c r="R513" s="32">
         <v>85</v>
       </c>
-      <c r="S513" s="39">
+      <c r="S513" s="32">
         <v>155</v>
       </c>
-      <c r="T513" s="39">
+      <c r="T513" s="32">
         <v>22</v>
       </c>
-      <c r="U513" s="40" t="s">
+      <c r="U513" s="37" t="s">
         <v>1340</v>
       </c>
     </row>
@@ -30701,28 +30842,28 @@
       <c r="C514" t="s">
         <v>136</v>
       </c>
-      <c r="N514" s="39" t="s">
+      <c r="N514" s="32" t="s">
         <v>136</v>
       </c>
       <c r="O514" t="s">
         <v>586</v>
       </c>
-      <c r="P514" s="39">
+      <c r="P514" s="32">
         <v>378</v>
       </c>
-      <c r="Q514" s="39">
+      <c r="Q514" s="32">
         <v>103</v>
       </c>
-      <c r="R514" s="39">
+      <c r="R514" s="32">
         <v>20</v>
       </c>
-      <c r="S514" s="39">
+      <c r="S514" s="32">
         <v>44</v>
       </c>
-      <c r="T514" s="39">
+      <c r="T514" s="32">
         <v>2</v>
       </c>
-      <c r="U514" s="40" t="s">
+      <c r="U514" s="37" t="s">
         <v>1341</v>
       </c>
     </row>
@@ -30736,29 +30877,1264 @@
       <c r="C515" t="s">
         <v>136</v>
       </c>
-      <c r="N515" s="39" t="s">
+      <c r="N515" s="32" t="s">
         <v>56</v>
       </c>
       <c r="O515" t="s">
         <v>586</v>
       </c>
-      <c r="P515" s="39">
+      <c r="P515" s="32">
         <v>488</v>
       </c>
-      <c r="Q515" s="39">
+      <c r="Q515" s="32">
         <v>166</v>
       </c>
-      <c r="R515" s="39">
+      <c r="R515" s="32">
         <v>18</v>
       </c>
-      <c r="S515" s="39">
+      <c r="S515" s="32">
         <v>77</v>
       </c>
-      <c r="T515" s="39">
+      <c r="T515" s="32">
         <v>7</v>
       </c>
-      <c r="U515" s="40" t="s">
+      <c r="U515" s="37" t="s">
         <v>1342</v>
+      </c>
+    </row>
+    <row r="516" ht="14.25" spans="1:23">
+      <c r="A516">
+        <v>459</v>
+      </c>
+      <c r="B516" t="s">
+        <v>228</v>
+      </c>
+      <c r="C516" t="s">
+        <v>227</v>
+      </c>
+      <c r="D516">
+        <v>15.6</v>
+      </c>
+      <c r="E516">
+        <v>12.8</v>
+      </c>
+      <c r="F516">
+        <v>2</v>
+      </c>
+      <c r="G516">
+        <v>0.8</v>
+      </c>
+      <c r="H516">
+        <v>2.22</v>
+      </c>
+      <c r="I516">
+        <v>27</v>
+      </c>
+      <c r="J516">
+        <v>2.16</v>
+      </c>
+      <c r="K516">
+        <v>111</v>
+      </c>
+      <c r="L516" t="s">
+        <v>1343</v>
+      </c>
+      <c r="M516" t="s">
+        <v>1344</v>
+      </c>
+      <c r="N516" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="O516" t="s">
+        <v>593</v>
+      </c>
+      <c r="P516" s="39">
+        <v>1156</v>
+      </c>
+      <c r="Q516" s="39">
+        <v>951</v>
+      </c>
+      <c r="R516" s="39">
+        <v>59</v>
+      </c>
+      <c r="S516" s="39">
+        <v>150</v>
+      </c>
+      <c r="T516" s="39">
+        <v>165</v>
+      </c>
+      <c r="U516" s="40" t="s">
+        <v>1345</v>
+      </c>
+      <c r="W516" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="517" ht="14.25" spans="1:23">
+      <c r="A517">
+        <v>460</v>
+      </c>
+      <c r="B517" t="s">
+        <v>228</v>
+      </c>
+      <c r="C517" t="s">
+        <v>227</v>
+      </c>
+      <c r="N517" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="O517" t="s">
+        <v>589</v>
+      </c>
+      <c r="P517" s="39">
+        <v>756</v>
+      </c>
+      <c r="Q517" s="39">
+        <v>601</v>
+      </c>
+      <c r="R517" s="39">
+        <v>44</v>
+      </c>
+      <c r="S517" s="39">
+        <v>80</v>
+      </c>
+      <c r="T517" s="39">
+        <v>129</v>
+      </c>
+      <c r="U517" s="40" t="s">
+        <v>1346</v>
+      </c>
+      <c r="W517" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="518" ht="14.25" spans="1:23">
+      <c r="A518">
+        <v>461</v>
+      </c>
+      <c r="B518" t="s">
+        <v>228</v>
+      </c>
+      <c r="C518" t="s">
+        <v>227</v>
+      </c>
+      <c r="N518" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="O518" t="s">
+        <v>586</v>
+      </c>
+      <c r="P518" s="39">
+        <v>1137</v>
+      </c>
+      <c r="Q518" s="39">
+        <v>1035</v>
+      </c>
+      <c r="R518" s="39">
+        <v>49</v>
+      </c>
+      <c r="S518" s="39">
+        <v>97</v>
+      </c>
+      <c r="T518" s="39">
+        <v>214</v>
+      </c>
+      <c r="U518" s="40" t="s">
+        <v>1348</v>
+      </c>
+      <c r="W518" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="519" ht="14.25" spans="1:23">
+      <c r="A519">
+        <v>462</v>
+      </c>
+      <c r="B519" t="s">
+        <v>228</v>
+      </c>
+      <c r="C519" t="s">
+        <v>227</v>
+      </c>
+      <c r="N519" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="O519" t="s">
+        <v>583</v>
+      </c>
+      <c r="P519" s="39">
+        <v>557</v>
+      </c>
+      <c r="Q519" s="39">
+        <v>668</v>
+      </c>
+      <c r="R519" s="39">
+        <v>45</v>
+      </c>
+      <c r="S519" s="39">
+        <v>91</v>
+      </c>
+      <c r="T519" s="39">
+        <v>135</v>
+      </c>
+      <c r="U519" s="40" t="s">
+        <v>1350</v>
+      </c>
+      <c r="W519" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="520" ht="14.25" spans="1:21">
+      <c r="A520">
+        <v>463</v>
+      </c>
+      <c r="B520" t="s">
+        <v>228</v>
+      </c>
+      <c r="C520" t="s">
+        <v>227</v>
+      </c>
+      <c r="N520" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="O520" t="s">
+        <v>581</v>
+      </c>
+      <c r="P520" s="39">
+        <v>686</v>
+      </c>
+      <c r="Q520" s="39">
+        <v>775</v>
+      </c>
+      <c r="R520" s="39">
+        <v>64</v>
+      </c>
+      <c r="S520" s="39">
+        <v>109</v>
+      </c>
+      <c r="T520" s="39">
+        <v>189</v>
+      </c>
+      <c r="U520" s="40" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="521" ht="14.25" spans="1:21">
+      <c r="A521">
+        <v>464</v>
+      </c>
+      <c r="B521" t="s">
+        <v>228</v>
+      </c>
+      <c r="C521" t="s">
+        <v>227</v>
+      </c>
+      <c r="N521" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="O521" t="s">
+        <v>579</v>
+      </c>
+      <c r="P521" s="39">
+        <v>104</v>
+      </c>
+      <c r="Q521" s="39">
+        <v>155</v>
+      </c>
+      <c r="R521" s="39">
+        <v>8</v>
+      </c>
+      <c r="S521" s="39">
+        <v>7</v>
+      </c>
+      <c r="T521" s="39">
+        <v>41</v>
+      </c>
+      <c r="U521" s="40" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="522" ht="14.25" spans="1:23">
+      <c r="A522">
+        <v>465</v>
+      </c>
+      <c r="B522" t="s">
+        <v>237</v>
+      </c>
+      <c r="C522" t="s">
+        <v>227</v>
+      </c>
+      <c r="D522">
+        <v>23.4</v>
+      </c>
+      <c r="E522">
+        <v>4.1</v>
+      </c>
+      <c r="F522">
+        <v>4.1</v>
+      </c>
+      <c r="G522">
+        <v>1.39</v>
+      </c>
+      <c r="H522">
+        <v>0.43</v>
+      </c>
+      <c r="I522">
+        <v>45</v>
+      </c>
+      <c r="J522">
+        <v>1.91</v>
+      </c>
+      <c r="K522">
+        <v>98</v>
+      </c>
+      <c r="L522" t="s">
+        <v>1353</v>
+      </c>
+      <c r="M522" t="s">
+        <v>1354</v>
+      </c>
+      <c r="N522" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="O522" t="s">
+        <v>593</v>
+      </c>
+      <c r="P522" s="39">
+        <v>1641</v>
+      </c>
+      <c r="Q522" s="39">
+        <v>285</v>
+      </c>
+      <c r="R522" s="39">
+        <v>97</v>
+      </c>
+      <c r="S522" s="39">
+        <v>284</v>
+      </c>
+      <c r="T522" s="39">
+        <v>30</v>
+      </c>
+      <c r="U522" s="40" t="s">
+        <v>1355</v>
+      </c>
+      <c r="W522" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="523" ht="14.25" spans="1:23">
+      <c r="A523">
+        <v>466</v>
+      </c>
+      <c r="B523" t="s">
+        <v>237</v>
+      </c>
+      <c r="C523" t="s">
+        <v>227</v>
+      </c>
+      <c r="N523" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="O523" t="s">
+        <v>589</v>
+      </c>
+      <c r="P523" s="39">
+        <v>1616</v>
+      </c>
+      <c r="Q523" s="39">
+        <v>296</v>
+      </c>
+      <c r="R523" s="39">
+        <v>118</v>
+      </c>
+      <c r="S523" s="39">
+        <v>291</v>
+      </c>
+      <c r="T523" s="39">
+        <v>27</v>
+      </c>
+      <c r="U523" s="40" t="s">
+        <v>1357</v>
+      </c>
+      <c r="W523" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="524" spans="1:23">
+      <c r="A524">
+        <v>467</v>
+      </c>
+      <c r="B524" t="s">
+        <v>237</v>
+      </c>
+      <c r="C524" t="s">
+        <v>227</v>
+      </c>
+      <c r="W524" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="525" ht="14.25" spans="1:21">
+      <c r="A525">
+        <v>468</v>
+      </c>
+      <c r="B525" t="s">
+        <v>231</v>
+      </c>
+      <c r="C525" t="s">
+        <v>227</v>
+      </c>
+      <c r="D525">
+        <v>11.9</v>
+      </c>
+      <c r="E525">
+        <v>3.9</v>
+      </c>
+      <c r="F525">
+        <v>5.4</v>
+      </c>
+      <c r="G525">
+        <v>1.24</v>
+      </c>
+      <c r="H525">
+        <v>0.27</v>
+      </c>
+      <c r="I525">
+        <v>2</v>
+      </c>
+      <c r="J525">
+        <v>2.03</v>
+      </c>
+      <c r="K525">
+        <v>102</v>
+      </c>
+      <c r="L525" t="s">
+        <v>815</v>
+      </c>
+      <c r="M525" t="s">
+        <v>1360</v>
+      </c>
+      <c r="N525" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="O525" t="s">
+        <v>593</v>
+      </c>
+      <c r="P525" s="39">
+        <v>879</v>
+      </c>
+      <c r="Q525" s="39">
+        <v>290</v>
+      </c>
+      <c r="R525" s="39">
+        <v>93</v>
+      </c>
+      <c r="S525" s="39">
+        <v>403</v>
+      </c>
+      <c r="T525" s="39">
+        <v>20</v>
+      </c>
+      <c r="U525" s="40" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="526" ht="14.25" spans="1:21">
+      <c r="A526">
+        <v>469</v>
+      </c>
+      <c r="B526" t="s">
+        <v>231</v>
+      </c>
+      <c r="C526" t="s">
+        <v>227</v>
+      </c>
+      <c r="N526" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="O526" t="s">
+        <v>589</v>
+      </c>
+      <c r="P526" s="39">
+        <v>940</v>
+      </c>
+      <c r="Q526" s="39">
+        <v>344</v>
+      </c>
+      <c r="R526" s="39">
+        <v>90</v>
+      </c>
+      <c r="S526" s="39">
+        <v>392</v>
+      </c>
+      <c r="T526" s="39">
+        <v>20</v>
+      </c>
+      <c r="U526" s="40" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="527" ht="14.25" spans="1:21">
+      <c r="A527">
+        <v>470</v>
+      </c>
+      <c r="B527" t="s">
+        <v>231</v>
+      </c>
+      <c r="C527" t="s">
+        <v>227</v>
+      </c>
+      <c r="N527" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="O527" t="s">
+        <v>586</v>
+      </c>
+      <c r="P527" s="39">
+        <v>581</v>
+      </c>
+      <c r="Q527" s="39">
+        <v>261</v>
+      </c>
+      <c r="R527" s="39">
+        <v>96</v>
+      </c>
+      <c r="S527" s="39">
+        <v>225</v>
+      </c>
+      <c r="T527" s="39">
+        <v>8</v>
+      </c>
+      <c r="U527" s="40" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="528" ht="14.25" spans="1:21">
+      <c r="A528">
+        <v>471</v>
+      </c>
+      <c r="B528" t="s">
+        <v>231</v>
+      </c>
+      <c r="C528" t="s">
+        <v>227</v>
+      </c>
+      <c r="N528" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="O528" t="s">
+        <v>583</v>
+      </c>
+      <c r="P528" s="39">
+        <v>342</v>
+      </c>
+      <c r="Q528" s="39">
+        <v>151</v>
+      </c>
+      <c r="R528" s="39">
+        <v>55</v>
+      </c>
+      <c r="S528" s="39">
+        <v>96</v>
+      </c>
+      <c r="T528" s="39">
+        <v>4</v>
+      </c>
+      <c r="U528" s="40" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="529" ht="14.25" spans="1:21">
+      <c r="A529">
+        <v>472</v>
+      </c>
+      <c r="B529" t="s">
+        <v>231</v>
+      </c>
+      <c r="C529" t="s">
+        <v>227</v>
+      </c>
+      <c r="N529" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="O529" t="s">
+        <v>581</v>
+      </c>
+      <c r="P529" s="39">
+        <v>396</v>
+      </c>
+      <c r="Q529" s="39">
+        <v>175</v>
+      </c>
+      <c r="R529" s="39">
+        <v>72</v>
+      </c>
+      <c r="S529" s="39">
+        <v>182</v>
+      </c>
+      <c r="T529" s="39">
+        <v>10</v>
+      </c>
+      <c r="U529" s="40" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="530" spans="1:23">
+      <c r="A530">
+        <v>473</v>
+      </c>
+      <c r="B530" t="s">
+        <v>230</v>
+      </c>
+      <c r="C530" t="s">
+        <v>227</v>
+      </c>
+      <c r="D530">
+        <v>12.7</v>
+      </c>
+      <c r="E530">
+        <v>3.6</v>
+      </c>
+      <c r="F530">
+        <v>6.4</v>
+      </c>
+      <c r="G530">
+        <v>1.39</v>
+      </c>
+      <c r="H530">
+        <v>0.16</v>
+      </c>
+      <c r="I530">
+        <v>3</v>
+      </c>
+      <c r="J530">
+        <v>1.93</v>
+      </c>
+      <c r="K530">
+        <v>86</v>
+      </c>
+      <c r="L530" t="s">
+        <v>1366</v>
+      </c>
+      <c r="M530" t="s">
+        <v>1367</v>
+      </c>
+      <c r="N530" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="O530" t="s">
+        <v>593</v>
+      </c>
+      <c r="P530" s="39">
+        <v>813</v>
+      </c>
+      <c r="Q530" s="39">
+        <v>232</v>
+      </c>
+      <c r="R530" s="39">
+        <v>88</v>
+      </c>
+      <c r="S530" s="39">
+        <v>392</v>
+      </c>
+      <c r="T530" s="39">
+        <v>10</v>
+      </c>
+      <c r="U530" t="s">
+        <v>1368</v>
+      </c>
+      <c r="W530" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="531" spans="1:21">
+      <c r="A531">
+        <v>474</v>
+      </c>
+      <c r="B531" t="s">
+        <v>230</v>
+      </c>
+      <c r="C531" t="s">
+        <v>227</v>
+      </c>
+      <c r="N531" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="O531" t="s">
+        <v>589</v>
+      </c>
+      <c r="P531" s="39">
+        <v>1008</v>
+      </c>
+      <c r="Q531" s="39">
+        <v>351</v>
+      </c>
+      <c r="R531" s="39">
+        <v>121</v>
+      </c>
+      <c r="S531" s="39">
+        <v>410</v>
+      </c>
+      <c r="T531" s="39">
+        <v>11</v>
+      </c>
+      <c r="U531" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="532" spans="1:21">
+      <c r="A532">
+        <v>475</v>
+      </c>
+      <c r="B532" t="s">
+        <v>230</v>
+      </c>
+      <c r="C532" t="s">
+        <v>227</v>
+      </c>
+      <c r="N532" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="O532" t="s">
+        <v>586</v>
+      </c>
+      <c r="P532" s="39">
+        <v>836</v>
+      </c>
+      <c r="Q532" s="39">
+        <v>305</v>
+      </c>
+      <c r="R532" s="39">
+        <v>128</v>
+      </c>
+      <c r="S532" s="39">
+        <v>682</v>
+      </c>
+      <c r="T532" s="39">
+        <v>10</v>
+      </c>
+      <c r="U532" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="533" spans="1:21">
+      <c r="A533">
+        <v>476</v>
+      </c>
+      <c r="B533" t="s">
+        <v>230</v>
+      </c>
+      <c r="C533" t="s">
+        <v>227</v>
+      </c>
+      <c r="N533" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="O533" t="s">
+        <v>583</v>
+      </c>
+      <c r="P533" s="39">
+        <v>766</v>
+      </c>
+      <c r="Q533" s="39">
+        <v>326</v>
+      </c>
+      <c r="R533" s="39">
+        <v>162</v>
+      </c>
+      <c r="S533" s="39">
+        <v>658</v>
+      </c>
+      <c r="T533" s="39">
+        <v>10</v>
+      </c>
+      <c r="U533" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="534" spans="1:21">
+      <c r="A534">
+        <v>477</v>
+      </c>
+      <c r="B534" t="s">
+        <v>230</v>
+      </c>
+      <c r="C534" t="s">
+        <v>227</v>
+      </c>
+      <c r="N534" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="O534" t="s">
+        <v>581</v>
+      </c>
+      <c r="P534" s="39">
+        <v>226</v>
+      </c>
+      <c r="Q534" s="39">
+        <v>125</v>
+      </c>
+      <c r="R534" s="39">
+        <v>38</v>
+      </c>
+      <c r="S534" s="39">
+        <v>193</v>
+      </c>
+      <c r="T534" s="39">
+        <v>1</v>
+      </c>
+      <c r="U534" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="535" spans="1:21">
+      <c r="A535">
+        <v>478</v>
+      </c>
+      <c r="B535" t="s">
+        <v>230</v>
+      </c>
+      <c r="C535" t="s">
+        <v>227</v>
+      </c>
+      <c r="N535" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="O535" t="s">
+        <v>579</v>
+      </c>
+      <c r="P535" s="39">
+        <v>781</v>
+      </c>
+      <c r="Q535" s="39">
+        <v>342</v>
+      </c>
+      <c r="R535" s="39">
+        <v>191</v>
+      </c>
+      <c r="S535" s="39">
+        <v>704</v>
+      </c>
+      <c r="T535" s="39">
+        <v>11</v>
+      </c>
+      <c r="U535" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="536" spans="1:21">
+      <c r="A536">
+        <v>479</v>
+      </c>
+      <c r="B536" t="s">
+        <v>230</v>
+      </c>
+      <c r="C536" t="s">
+        <v>227</v>
+      </c>
+      <c r="N536" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="O536" t="s">
+        <v>577</v>
+      </c>
+      <c r="P536" s="39">
+        <v>608</v>
+      </c>
+      <c r="Q536" s="39">
+        <v>229</v>
+      </c>
+      <c r="R536" s="39">
+        <v>137</v>
+      </c>
+      <c r="S536" s="39">
+        <v>418</v>
+      </c>
+      <c r="T536" s="39">
+        <v>5</v>
+      </c>
+      <c r="U536" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="537" spans="1:21">
+      <c r="A537">
+        <v>480</v>
+      </c>
+      <c r="B537" t="s">
+        <v>230</v>
+      </c>
+      <c r="C537" t="s">
+        <v>227</v>
+      </c>
+      <c r="N537" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="O537" t="s">
+        <v>575</v>
+      </c>
+      <c r="P537" s="39">
+        <v>436</v>
+      </c>
+      <c r="Q537" s="39">
+        <v>171</v>
+      </c>
+      <c r="R537" s="39">
+        <v>91</v>
+      </c>
+      <c r="S537" s="39">
+        <v>336</v>
+      </c>
+      <c r="T537" s="39">
+        <v>8</v>
+      </c>
+      <c r="U537" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="538" ht="14.25" spans="1:21">
+      <c r="A538">
+        <v>481</v>
+      </c>
+      <c r="B538" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C538" t="s">
+        <v>227</v>
+      </c>
+      <c r="D538">
+        <v>12</v>
+      </c>
+      <c r="E538">
+        <v>4.8</v>
+      </c>
+      <c r="F538">
+        <v>1.7</v>
+      </c>
+      <c r="G538">
+        <v>0.85</v>
+      </c>
+      <c r="H538">
+        <v>0.36</v>
+      </c>
+      <c r="I538">
+        <v>99</v>
+      </c>
+      <c r="J538">
+        <v>1.98</v>
+      </c>
+      <c r="K538">
+        <v>107</v>
+      </c>
+      <c r="L538" t="s">
+        <v>1378</v>
+      </c>
+      <c r="M538" t="s">
+        <v>1379</v>
+      </c>
+      <c r="N538" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="O538" t="s">
+        <v>593</v>
+      </c>
+      <c r="P538" s="39">
+        <v>875</v>
+      </c>
+      <c r="Q538" s="39">
+        <v>351</v>
+      </c>
+      <c r="R538" s="39">
+        <v>62</v>
+      </c>
+      <c r="S538" s="39">
+        <v>123</v>
+      </c>
+      <c r="T538" s="39">
+        <v>26</v>
+      </c>
+      <c r="U538" s="40" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="539" ht="14.25" spans="1:21">
+      <c r="A539">
+        <v>482</v>
+      </c>
+      <c r="B539" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C539" t="s">
+        <v>227</v>
+      </c>
+      <c r="N539" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="O539" t="s">
+        <v>589</v>
+      </c>
+      <c r="P539" s="39">
+        <v>319</v>
+      </c>
+      <c r="Q539" s="39">
+        <v>102</v>
+      </c>
+      <c r="R539" s="39">
+        <v>23</v>
+      </c>
+      <c r="S539" s="39">
+        <v>41</v>
+      </c>
+      <c r="T539" s="39">
+        <v>9</v>
+      </c>
+      <c r="U539" s="40" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="540" ht="14.25" spans="1:21">
+      <c r="A540">
+        <v>483</v>
+      </c>
+      <c r="B540" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C540" t="s">
+        <v>227</v>
+      </c>
+      <c r="N540" s="39" t="s">
+        <v>1382</v>
+      </c>
+      <c r="O540" t="s">
+        <v>589</v>
+      </c>
+      <c r="P540" s="39">
+        <v>454</v>
+      </c>
+      <c r="Q540" s="39">
+        <v>173</v>
+      </c>
+      <c r="R540" s="39">
+        <v>41</v>
+      </c>
+      <c r="S540" s="39">
+        <v>58</v>
+      </c>
+      <c r="T540" s="39">
+        <v>12</v>
+      </c>
+      <c r="U540" s="40" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="541" ht="14.25" spans="1:21">
+      <c r="A541">
+        <v>484</v>
+      </c>
+      <c r="B541" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C541" t="s">
+        <v>227</v>
+      </c>
+      <c r="N541" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="O541" t="s">
+        <v>586</v>
+      </c>
+      <c r="P541" s="39">
+        <v>999</v>
+      </c>
+      <c r="Q541" s="39">
+        <v>415</v>
+      </c>
+      <c r="R541" s="39">
+        <v>73</v>
+      </c>
+      <c r="S541" s="39">
+        <v>155</v>
+      </c>
+      <c r="T541" s="39">
+        <v>23</v>
+      </c>
+      <c r="U541" s="40" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="542" ht="14.25" spans="1:21">
+      <c r="A542">
+        <v>485</v>
+      </c>
+      <c r="B542" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C542" t="s">
+        <v>227</v>
+      </c>
+      <c r="N542" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="O542" t="s">
+        <v>583</v>
+      </c>
+      <c r="P542" s="39">
+        <v>1038</v>
+      </c>
+      <c r="Q542" s="39">
+        <v>373</v>
+      </c>
+      <c r="R542" s="39">
+        <v>126</v>
+      </c>
+      <c r="S542" s="39">
+        <v>135</v>
+      </c>
+      <c r="T542" s="39">
+        <v>35</v>
+      </c>
+      <c r="U542" s="40" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="543" ht="14.25" spans="1:21">
+      <c r="A543">
+        <v>486</v>
+      </c>
+      <c r="B543" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C543" t="s">
+        <v>227</v>
+      </c>
+      <c r="N543" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="O543" t="s">
+        <v>581</v>
+      </c>
+      <c r="P543" s="39">
+        <v>539</v>
+      </c>
+      <c r="Q543" s="39">
+        <v>264</v>
+      </c>
+      <c r="R543" s="39">
+        <v>57</v>
+      </c>
+      <c r="S543" s="39">
+        <v>82</v>
+      </c>
+      <c r="T543" s="39">
+        <v>20</v>
+      </c>
+      <c r="U543" s="40" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="544" ht="14.25" spans="1:21">
+      <c r="A544">
+        <v>487</v>
+      </c>
+      <c r="B544" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C544" t="s">
+        <v>227</v>
+      </c>
+      <c r="N544" s="39" t="s">
+        <v>961</v>
+      </c>
+      <c r="O544" t="s">
+        <v>581</v>
+      </c>
+      <c r="P544" s="39">
+        <v>89</v>
+      </c>
+      <c r="Q544" s="39">
+        <v>29</v>
+      </c>
+      <c r="R544" s="39">
+        <v>15</v>
+      </c>
+      <c r="S544" s="39">
+        <v>12</v>
+      </c>
+      <c r="T544" s="39">
+        <v>5</v>
+      </c>
+      <c r="U544" s="40" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="545" ht="14.25" spans="1:21">
+      <c r="A545">
+        <v>488</v>
+      </c>
+      <c r="B545" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C545" t="s">
+        <v>227</v>
+      </c>
+      <c r="N545" s="39" t="s">
+        <v>961</v>
+      </c>
+      <c r="O545" t="s">
+        <v>579</v>
+      </c>
+      <c r="P545" s="39">
+        <v>356</v>
+      </c>
+      <c r="Q545" s="39">
+        <v>194</v>
+      </c>
+      <c r="R545" s="39">
+        <v>59</v>
+      </c>
+      <c r="S545" s="39">
+        <v>60</v>
+      </c>
+      <c r="T545" s="39">
+        <v>21</v>
+      </c>
+      <c r="U545" s="40" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="546" ht="14.25" spans="1:21">
+      <c r="A546">
+        <v>489</v>
+      </c>
+      <c r="B546" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C546" t="s">
+        <v>227</v>
+      </c>
+      <c r="N546" s="39" t="s">
+        <v>961</v>
+      </c>
+      <c r="O546" t="s">
+        <v>577</v>
+      </c>
+      <c r="P546" s="39">
+        <v>392</v>
+      </c>
+      <c r="Q546" s="39">
+        <v>187</v>
+      </c>
+      <c r="R546" s="39">
+        <v>63</v>
+      </c>
+      <c r="S546" s="39">
+        <v>94</v>
+      </c>
+      <c r="T546" s="39">
+        <v>17</v>
+      </c>
+      <c r="U546" s="40" t="s">
+        <v>1389</v>
       </c>
     </row>
   </sheetData>
@@ -30797,7 +32173,7 @@
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A5"/>
+      <selection activeCell="A1" sqref="A1:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/网站相关/data.xlsx
+++ b/网站相关/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
+    <workbookView windowWidth="21600" windowHeight="9765" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="球队信息" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4957" uniqueCount="1602">
   <si>
     <t>主键</t>
   </si>
@@ -4203,6 +4203,664 @@
   </si>
   <si>
     <t>2.4篮板1.2助攻0.81抢断0.22盖帽5.0分</t>
+  </si>
+  <si>
+    <t>2003年第1轮第1顺位</t>
+  </si>
+  <si>
+    <t>4年1.53亿美元，2018年夏天签，2022年夏天到期，2021-22赛季球员选项</t>
+  </si>
+  <si>
+    <t>8.6篮板8.2助攻1.33抢断0.61盖帽27.4分</t>
+  </si>
+  <si>
+    <t>2016年NBA总冠军</t>
+  </si>
+  <si>
+    <t>8.6篮板9.1助攻1.41抢断0.87盖帽27.5分</t>
+  </si>
+  <si>
+    <t>2016FMVP</t>
+  </si>
+  <si>
+    <t>8.6篮板8.7助攻1.24抢断0.59盖帽26.4分</t>
+  </si>
+  <si>
+    <t>2013年NBA总冠军</t>
+  </si>
+  <si>
+    <t>7.4篮板6.8助攻1.37抢断0.64盖帽25.3分</t>
+  </si>
+  <si>
+    <t>2013年FMVP</t>
+  </si>
+  <si>
+    <t>6.0篮板7.4助攻1.58抢断0.71盖帽25.3分</t>
+  </si>
+  <si>
+    <t>2013MVP</t>
+  </si>
+  <si>
+    <t>6.9篮板6.3助攻1.57抢断0.34盖帽27.1分</t>
+  </si>
+  <si>
+    <t>2012年NBA总冠军</t>
+  </si>
+  <si>
+    <t>8.0篮板7.2助攻1.70抢断0.88盖帽26.8分</t>
+  </si>
+  <si>
+    <t>2012年FMVP</t>
+  </si>
+  <si>
+    <t>7.9篮板6.2助攻1.85抢断0.81盖帽27.1分</t>
+  </si>
+  <si>
+    <t>2012MVP</t>
+  </si>
+  <si>
+    <t>7.5篮板7.0助攻1.57抢断0.63盖帽26.7分</t>
+  </si>
+  <si>
+    <t>2009年MVP</t>
+  </si>
+  <si>
+    <t>7.3篮板8.6助攻1.64抢断1.01盖帽29.7分</t>
+  </si>
+  <si>
+    <t>2010年MVP</t>
+  </si>
+  <si>
+    <t>7.6篮板7.2助攻1.69抢断1.15盖帽28.4分</t>
+  </si>
+  <si>
+    <t>2006、2008、2018全明星MVP</t>
+  </si>
+  <si>
+    <t>7.9篮板7.2助攻1.84抢断1.08盖帽30.0分</t>
+  </si>
+  <si>
+    <t>2005-2019年共15次全明星首发</t>
+  </si>
+  <si>
+    <t>6.7篮板6.0助攻1.60抢断0.71盖帽27.3分</t>
+  </si>
+  <si>
+    <t>2004年最佳新秀</t>
+  </si>
+  <si>
+    <t>7.0篮板6.6助攻1.56抢断0.84盖帽31.4分</t>
+  </si>
+  <si>
+    <t>2004年NBA最佳新秀阵容第一阵容</t>
+  </si>
+  <si>
+    <t>7.3篮板7.2助攻2.21抢断0.65盖帽27.2分</t>
+  </si>
+  <si>
+    <t>12次NBA最佳阵容一阵</t>
+  </si>
+  <si>
+    <t>5.5篮板5.9助攻1.65抢断0.73盖帽20.9分</t>
+  </si>
+  <si>
+    <t>2次NBA最佳阵容二阵</t>
+  </si>
+  <si>
+    <t>5次NBA最佳防守阵容</t>
+  </si>
+  <si>
+    <t>2007-2008赛季NBA得分王</t>
+  </si>
+  <si>
+    <t>20次《体育画报》的封面人物</t>
+  </si>
+  <si>
+    <t>2012年、2016年《体育画报》年度最佳运动员</t>
+  </si>
+  <si>
+    <t>2013年、2016年美联社最佳男运动员</t>
+  </si>
+  <si>
+    <t>2012年、2013年、2016年ESPY最佳男运动员</t>
+  </si>
+  <si>
+    <t>2007年，2009年，2012年，2013年，2016年 ，2018年ESPY最佳NBA球员</t>
+  </si>
+  <si>
+    <t>2012年、2013年、2015年、2016年ESPY体育奖最佳冠军表现奖</t>
+  </si>
+  <si>
+    <t>56次NBA周最佳球员</t>
+  </si>
+  <si>
+    <t>34次月最佳</t>
+  </si>
+  <si>
+    <t>多项最年轻记录保持者</t>
+  </si>
+  <si>
+    <t>2017年第1轮第2顺位</t>
+  </si>
+  <si>
+    <t>4年3347万美元，2017年夏天签，2021年夏天到期，2019-20、2020-21赛季球队选项</t>
+  </si>
+  <si>
+    <t>5.3篮板5.4助攻1.47抢断0.40盖帽9.9分</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-18赛季NBA最佳新秀二阵 </t>
+  </si>
+  <si>
+    <t>6.9篮板7.2助攻1.69抢断0.83盖帽10.2分</t>
+  </si>
+  <si>
+    <t>2016年第1轮第2顺位</t>
+  </si>
+  <si>
+    <t>4年2382万美元，2016年夏天签，2020年夏天到期，2018-19赛季、2019-20赛季球队选项</t>
+  </si>
+  <si>
+    <t>5.1篮板3.0助攻0.54抢断0.60盖帽18.3分</t>
+  </si>
+  <si>
+    <t>2016-17赛季最佳新秀阵容第二阵容</t>
+  </si>
+  <si>
+    <t>5.3篮板3.9助攻0.76抢断0.73盖帽16.1分</t>
+  </si>
+  <si>
+    <t>4.0篮板2.1助攻0.63抢断0.46盖帽9.4分</t>
+  </si>
+  <si>
+    <t>2017年第1轮第27顺位</t>
+  </si>
+  <si>
+    <t>4年874万美元，2017年夏天签，2021年夏天到期，2019-20、2020-21赛季球队选项</t>
+  </si>
+  <si>
+    <t>5.5篮板2.6助攻0.60抢断0.35盖帽18.6分</t>
+  </si>
+  <si>
+    <t>2017-18赛季NBA最佳新秀阵容一阵</t>
+  </si>
+  <si>
+    <t>6.3篮板1.8助攻0.64抢断0.44盖帽16.1分</t>
+  </si>
+  <si>
+    <t>2018-2019全明星新秀赛MVP</t>
+  </si>
+  <si>
+    <t>2008年第1轮第18顺位</t>
+  </si>
+  <si>
+    <t>1年239万美元，2018年夏天签，2019年夏天到期</t>
+  </si>
+  <si>
+    <t>7.2篮板0.6助攻0.66抢断2.00盖帽11.6分</t>
+  </si>
+  <si>
+    <t>2.6篮板0.5助攻0.32抢断0.88盖帽4.8分</t>
+  </si>
+  <si>
+    <t>3.2篮板0.2助攻0.25抢断0.87盖帽6.1分</t>
+  </si>
+  <si>
+    <t>3.9篮板0.1助攻0.15抢断0.76盖帽5.1分</t>
+  </si>
+  <si>
+    <t>2.2篮板0.3助攻0抢断0.17盖帽3.0分</t>
+  </si>
+  <si>
+    <t>2.8篮板0.1助攻0.12抢断1.12盖帽5.2分</t>
+  </si>
+  <si>
+    <t>3.4篮板0.4助攻0.20抢断1.40盖帽7.0分</t>
+  </si>
+  <si>
+    <t>4.8篮板0.3助攻0.38抢断1.99盖帽9.1分</t>
+  </si>
+  <si>
+    <t>5.8篮板0.3助攻0.50抢断1.55盖帽10.2分</t>
+  </si>
+  <si>
+    <t>8.8篮板0.6助攻0.61抢断2.46盖帽11.9分</t>
+  </si>
+  <si>
+    <t>8.0篮板0.5助攻0.52抢断2.44盖帽10.1分</t>
+  </si>
+  <si>
+    <t>4.0篮板0.2助攻0.27抢断1.68盖帽6.4分</t>
+  </si>
+  <si>
+    <t>3.9篮板0.3助攻0.44抢断1盖帽6.5分</t>
+  </si>
+  <si>
+    <t>2006年第1轮第21顺位</t>
+  </si>
+  <si>
+    <t>1年900万美元，2018年夏天签，2019年夏天到期</t>
+  </si>
+  <si>
+    <t>5.2篮板7.7助攻1.10抢断0.15盖帽8.9分</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2013    NBA最佳防守阵容第三阵容</t>
+  </si>
+  <si>
+    <t>4.0篮板8.2助攻1.08抢断0.15盖帽8.3分</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012    NBA最佳防守阵容第二阵容  </t>
+  </si>
+  <si>
+    <t>5.1篮板6.7助攻1.43抢断0.16盖帽7.8分</t>
+  </si>
+  <si>
+    <t>2011    NBA最佳防守阵容第一阵容</t>
+  </si>
+  <si>
+    <t>6.0篮板11.7助攻1.96抢断0.14盖帽11.9分</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010    NBA最佳防守阵容第一阵容 </t>
+  </si>
+  <si>
+    <t>4.5篮板6.5助攻1.17抢断0.09盖帽9.3分</t>
+  </si>
+  <si>
+    <t>2009    NBA最佳防守阵容第二阵容</t>
+  </si>
+  <si>
+    <t>7.5篮板10.8助攻1.68抢断0.14盖帽8.3分</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2007    NBA最佳新秀阵容第二阵容</t>
+  </si>
+  <si>
+    <t>5.5篮板9.8助攻1.33抢断0.07盖帽11.7分</t>
+  </si>
+  <si>
+    <t>2008    NBA总冠军</t>
+  </si>
+  <si>
+    <t>5.6篮板11.1助攻1.84抢断0.24盖帽13.7分</t>
+  </si>
+  <si>
+    <t>2016    NBA助攻王</t>
+  </si>
+  <si>
+    <t>4.8篮板11.7助攻1.79抢断0.06盖帽11.9分</t>
+  </si>
+  <si>
+    <t>2012    NBA助攻王</t>
+  </si>
+  <si>
+    <t>4.4篮板11.2助攻2.25抢断0.16盖帽10.6分</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2013    NBA助攻王</t>
+  </si>
+  <si>
+    <t>4.4篮板9.8助攻2.33抢断0.14盖帽13.7分</t>
+  </si>
+  <si>
+    <t>2010    NBA抢断王</t>
+  </si>
+  <si>
+    <t>5.2篮板8.2助攻1.86抢断0.14盖帽11.9分</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2013    东部全明星</t>
+  </si>
+  <si>
+    <t>4.2篮板5.1助攻1.68抢断0.17盖帽10.6分</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2011    东部全明星</t>
+  </si>
+  <si>
+    <t>3.7篮板3.8助攻1.64抢断0.10盖帽6.4分</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2010    东部全明星 </t>
+  </si>
+  <si>
+    <r>
+      <t> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2017    球员工会最佳队</t>
+    </r>
+  </si>
+  <si>
+    <t>2014年第1轮第14顺位</t>
+  </si>
+  <si>
+    <t>4年972万美元，2014年夏天签，2018年夏天到期，2016-17赛季、2017-18赛季球队选项（已执行），2017年9月以4年4700万美元提前续约，2018年夏天生效，2022年夏天到期</t>
+  </si>
+  <si>
+    <t>4.0篮板1.5助攻1.19抢断0.67盖帽18.0分</t>
+  </si>
+  <si>
+    <t>5.1篮板1.3助攻1抢断0.63盖帽19.6分</t>
+  </si>
+  <si>
+    <t>5.1篮板1.1助攻1.15抢断0.59盖帽14.4分</t>
+  </si>
+  <si>
+    <t>3.1篮板0.9助攻0.79抢断0.34盖帽11.0分</t>
+  </si>
+  <si>
+    <t>2.1篮板0.6助攻0.45抢断0.23盖帽6.1分</t>
+  </si>
+  <si>
+    <t>2018年第1轮第1顺位</t>
+  </si>
+  <si>
+    <t>4年4037万美元，2018年夏天签，2022年夏天到期，2020-21赛季及2021-22赛季球队选项</t>
+  </si>
+  <si>
+    <t>10.2篮板1.8助攻0.9抢断0.9盖帽16.3分</t>
+  </si>
+  <si>
+    <t>2017年第1轮第4顺位</t>
+  </si>
+  <si>
+    <t>4年2712万美元，2017年夏天签，2021年夏天到期，2019-20、2020-21赛季球队选项</t>
+  </si>
+  <si>
+    <t>4.2篮板2.2助攻0.93抢断0.66盖帽11.0分</t>
+  </si>
+  <si>
+    <t>4.6篮板1.5助攻1.04抢断0.45盖帽13.1分</t>
+  </si>
+  <si>
+    <t>2015年第1轮第13顺位</t>
+  </si>
+  <si>
+    <t>4年999万美元，2015年夏天签，2019年夏天到期，2017-18赛季、2018-19赛季球队选项 2018年7月提前续约5年1.58亿美元，2019年夏天生效</t>
+  </si>
+  <si>
+    <t>4.2篮板6.7助攻0.92抢断0.20盖帽26.1分</t>
+  </si>
+  <si>
+    <t>2018年全明星三分大赛冠军</t>
+  </si>
+  <si>
+    <t>4.5篮板4.7助攻0.87抢断0.26盖帽24.9分</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2015-16赛季最佳新秀阵容第一阵容</t>
+  </si>
+  <si>
+    <t>3.2篮板3.4助攻0.92抢断0.27盖帽22.1分</t>
+  </si>
+  <si>
+    <t>2.5篮板2.6助攻0.58抢断0.26盖帽13.8分</t>
+  </si>
+  <si>
+    <t>2015年第1轮第15顺位</t>
+  </si>
+  <si>
+    <t>4年923万美元，2015年夏天签，2019年夏天到期，2017-18赛季、2018-19赛季球队选项</t>
+  </si>
+  <si>
+    <t>4.9篮板1.6助攻1.43抢断0.97盖帽16.9分</t>
+  </si>
+  <si>
+    <t>4.4篮板0.7助攻0.93抢断0.69盖帽12.9分</t>
+  </si>
+  <si>
+    <t>4.5篮板1.2助攻0.99抢断0.43盖帽11.8分</t>
+  </si>
+  <si>
+    <t>3.3篮板0.6助攻0.73抢断0.22盖帽6.3分</t>
+  </si>
+  <si>
+    <t>2.1篮板0.2助攻0.35抢断0.11盖帽3.7分</t>
+  </si>
+  <si>
+    <t>2008年第1轮第4顺位</t>
+  </si>
+  <si>
+    <t>5年8000万美元，2012年1月签，2012年夏天生效，2017年夏天到期；2016年夏天以3年8600万美元重新续约；2017年9月以5年2.05亿美元提前续约，2018年夏天生效，2023年夏天</t>
+  </si>
+  <si>
+    <t>11.0篮板10.4助攻2.00抢断0.48盖帽23.0分</t>
+  </si>
+  <si>
+    <t>2017-18赛季常规赛助攻王</t>
+  </si>
+  <si>
+    <t>10.1篮板10.2助攻1.84抢断0.25盖帽25.4分</t>
+  </si>
+  <si>
+    <t>10.7篮板10.4助攻1.63抢断0.38盖帽31.6分</t>
+  </si>
+  <si>
+    <t>2016-17赛季常规赛得分王</t>
+  </si>
+  <si>
+    <t>7.8篮板10.4助攻2.04抢断0.25盖帽23.5分</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-17赛季最佳阵容第一阵容 </t>
+  </si>
+  <si>
+    <t>7.3篮板8.6助攻2.09抢断0.21盖帽28.1分</t>
+  </si>
+  <si>
+    <t>2016-17赛季常规赛MVP</t>
+  </si>
+  <si>
+    <t>5.7篮板6.9助攻1.91抢断0.15盖帽21.8分</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-16赛季最佳阵容第一阵容  </t>
+  </si>
+  <si>
+    <t>5.2篮板7.4助攻1.77抢断0.29盖帽23.2分</t>
+  </si>
+  <si>
+    <t>4.6篮板5.5助攻1.70抢断0.32盖帽23.6分</t>
+  </si>
+  <si>
+    <t>2014-15赛季常规赛得分王</t>
+  </si>
+  <si>
+    <t>4.6篮板8.2助攻1.89抢断0.37盖帽21.9分</t>
+  </si>
+  <si>
+    <t>2012-13赛季最佳阵容第二阵容</t>
+  </si>
+  <si>
+    <t>4.9篮板8.0助攻1.32抢断0.41盖帽16.1分</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2011-12赛季最佳阵容第二阵容</t>
+  </si>
+  <si>
+    <t>4.9篮板5.3助攻1.34抢断0.20盖帽15.3分</t>
+  </si>
+  <si>
+    <t>2010-11赛季最佳阵容第二阵容</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2015年全明星正赛MVP </t>
+  </si>
+  <si>
+    <t>第25届ESPY最佳男运动员奖</t>
+  </si>
+  <si>
+    <t>2011、2012、2013、2015、2016、2017、2018、2019NBA全明星</t>
+  </si>
+  <si>
+    <r>
+      <t>2016年全明星正赛MVP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t> </t>
+    </r>
+  </si>
+  <si>
+    <t>2010年第1轮第10顺位</t>
+  </si>
+  <si>
+    <t>4年1.37亿美元，2018年夏天签，2022年夏天到期，2021年球员选项</t>
+  </si>
+  <si>
+    <t>8.2篮板4.2助攻2.19抢断0.46盖帽28.2分</t>
+  </si>
+  <si>
+    <t>2010-11    最佳新秀阵容第2阵</t>
+  </si>
+  <si>
+    <t>5.7篮板3.3助攻2.04抢断0.49盖帽21.9分</t>
+  </si>
+  <si>
+    <t>6.6篮板3.3助攻1.59抢断0.36盖帽23.7分</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2013-14    最佳阵容第3阵</t>
+  </si>
+  <si>
+    <t>7.0篮板4.1助攻1.88抢断0.36盖帽23.1分</t>
+  </si>
+  <si>
+    <t>2012-13    最佳阵容第3阵</t>
+  </si>
+  <si>
+    <t>3.7篮板1助攻0.83抢断0.17盖帽8.8分</t>
+  </si>
+  <si>
+    <t>2012-13    最佳防守阵容第2阵</t>
+  </si>
+  <si>
+    <t>6.8篮板3.5助攻1.89抢断0.28盖帽21.7分</t>
+  </si>
+  <si>
+    <t>2013-14    最佳防守阵容第1阵</t>
+  </si>
+  <si>
+    <t>7.6篮板4.1助攻1.81抢断0.65盖帽17.4分</t>
+  </si>
+  <si>
+    <t>5.6篮板2.4助攻1.64抢断0.58盖帽12.1分</t>
+  </si>
+  <si>
+    <t>2012-13    最快进步球员（MIP）</t>
+  </si>
+  <si>
+    <t>3.7篮板1.1助攻1.02抢断0.43盖帽7.8分</t>
+  </si>
+  <si>
+    <t>2015-16    最佳防守阵容第2阵</t>
+  </si>
+  <si>
+    <t>2016-17    NBA全明星</t>
+  </si>
+  <si>
+    <t>2017-18    最佳阵容第3阵</t>
+  </si>
+  <si>
+    <t>2013年第1轮第12顺位</t>
+  </si>
+  <si>
+    <t>4年969万美元，2013年夏天签，2017年夏天到期，2016年10月以4年1亿美元提前续约，2017年夏天生效，2021年到期</t>
+  </si>
+  <si>
+    <t>9.5篮板1.6助攻1.57抢断0.89盖帽13.9分</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-14赛季最佳新秀阵容第二阵容 </t>
+  </si>
+  <si>
+    <t>9.0篮板1.2助攻1.21抢断1.03盖帽13.9分</t>
+  </si>
+  <si>
+    <t>7.7篮板1.1助攻1.11抢断0.97盖帽11.3分</t>
+  </si>
+  <si>
+    <t>6.7篮板0.8助攻0.53抢断1.11盖帽8.0分</t>
+  </si>
+  <si>
+    <t>7.5篮板0.9助攻0.54抢断1.23盖帽7.7分</t>
+  </si>
+  <si>
+    <t>4.1篮板0.5助攻0.49抢断0.70盖帽3.3分</t>
+  </si>
+  <si>
+    <t>2013年第1轮第17顺位</t>
+  </si>
+  <si>
+    <t>4年7500万，2013年夏天签，2016年10月以4年7000万美元提前续约，2017年夏天生效，2021年夏天到期</t>
+  </si>
+  <si>
+    <t>3.6篮板4.2助攻0.80抢断0.15盖帽15.7分</t>
+  </si>
+  <si>
+    <t>3.1篮板6.2助攻1.07抢断0.09盖帽19.4分</t>
+  </si>
+  <si>
+    <t>3.1篮板6.3助攻0.94抢断0.20盖帽17.9分</t>
+  </si>
+  <si>
+    <t>2.5篮板4.4助攻0.88抢断0.11盖帽11.0分</t>
+  </si>
+  <si>
+    <t>2.1篮板4.1助攻0.64抢断0.05盖帽10.0分</t>
+  </si>
+  <si>
+    <t>1.2篮板1.9助攻0.35抢断0盖帽3.7分</t>
+  </si>
+  <si>
+    <t>2014年第2轮第9顺位</t>
+  </si>
+  <si>
+    <t>3年2735万美元，2018年夏天签，2021年夏天到期，2020年球员选项</t>
+  </si>
+  <si>
+    <t>5.2篮板1助攻0.79抢断1.26盖帽13.2分</t>
+  </si>
+  <si>
+    <t>3.9篮板0.7助攻0.38抢断0.95盖帽8.4分</t>
+  </si>
+  <si>
+    <t>2.6篮板0.6助攻0.42抢断0.96盖帽5.4分</t>
+  </si>
+  <si>
+    <t>3.0篮板0助攻0抢断2.00盖帽8.0分</t>
+  </si>
+  <si>
+    <t>4.7篮板1.8助攻0.70抢断1.65盖帽9.7分</t>
+  </si>
+  <si>
+    <t>3.0篮板1.2助攻0.62抢断1.05盖帽6.3分</t>
+  </si>
+  <si>
+    <t>2017年第1轮第21顺位</t>
+  </si>
+  <si>
+    <t>4年1032万美元，2017年夏天签，2021年夏天到期，2019-2020、2020-2021赛季球队选项</t>
+  </si>
+  <si>
+    <t>1.8篮板0.9助攻0.58抢断0.23盖帽6.8分</t>
+  </si>
+  <si>
+    <t>0.8篮板0.3助攻0.39抢断0.16盖帽3.1分</t>
   </si>
 </sst>
 </file>
@@ -4305,6 +4963,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -4312,7 +4977,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4320,6 +4985,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -4333,8 +5006,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4350,23 +5047,36 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4383,58 +5093,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4461,43 +5119,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4515,6 +5143,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -4527,13 +5191,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4545,103 +5293,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4868,16 +5526,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -4907,17 +5565,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4939,32 +5623,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4973,10 +5631,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4985,19 +5643,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5006,116 +5664,116 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5235,6 +5893,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -8501,7 +9165,7 @@
       <c r="C192" t="s">
         <v>227</v>
       </c>
-      <c r="J192" s="41" t="s">
+      <c r="J192" s="43" t="s">
         <v>233</v>
       </c>
     </row>
@@ -8737,7 +9401,7 @@
       <c r="C208" t="s">
         <v>243</v>
       </c>
-      <c r="J208" s="43" t="s">
+      <c r="J208" s="45" t="s">
         <v>251</v>
       </c>
     </row>
@@ -8855,7 +9519,7 @@
       <c r="E216">
         <v>18</v>
       </c>
-      <c r="F216" s="42">
+      <c r="F216" s="44">
         <v>0.743</v>
       </c>
       <c r="G216" t="s">
@@ -9251,7 +9915,7 @@
       <c r="C243" t="s">
         <v>276</v>
       </c>
-      <c r="J243" s="44" t="s">
+      <c r="J243" s="46" t="s">
         <v>289</v>
       </c>
     </row>
@@ -9333,7 +9997,7 @@
       <c r="C248" t="s">
         <v>299</v>
       </c>
-      <c r="J248" s="41" t="s">
+      <c r="J248" s="43" t="s">
         <v>300</v>
       </c>
     </row>
@@ -9431,7 +10095,7 @@
       <c r="C255" t="s">
         <v>313</v>
       </c>
-      <c r="J255" s="41" t="s">
+      <c r="J255" s="43" t="s">
         <v>314</v>
       </c>
     </row>
@@ -9445,7 +10109,7 @@
       <c r="C256" t="s">
         <v>315</v>
       </c>
-      <c r="J256" s="41" t="s">
+      <c r="J256" s="43" t="s">
         <v>316</v>
       </c>
     </row>
@@ -9805,7 +10469,7 @@
       <c r="C280" t="s">
         <v>336</v>
       </c>
-      <c r="J280" s="41" t="s">
+      <c r="J280" s="43" t="s">
         <v>344</v>
       </c>
     </row>
@@ -10013,7 +10677,7 @@
       <c r="C294" t="s">
         <v>351</v>
       </c>
-      <c r="J294" s="41" t="s">
+      <c r="J294" s="43" t="s">
         <v>359</v>
       </c>
     </row>
@@ -12009,10 +12673,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X546"/>
+  <dimension ref="A1:X674"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A523" workbookViewId="0">
-      <selection activeCell="A515" sqref="A515:A546"/>
+    <sheetView tabSelected="1" topLeftCell="A645" workbookViewId="0">
+      <selection activeCell="A673" sqref="A673:C674"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -30942,28 +31606,28 @@
       <c r="M516" t="s">
         <v>1344</v>
       </c>
-      <c r="N516" s="39" t="s">
+      <c r="N516" s="32" t="s">
         <v>227</v>
       </c>
       <c r="O516" t="s">
         <v>593</v>
       </c>
-      <c r="P516" s="39">
+      <c r="P516" s="32">
         <v>1156</v>
       </c>
-      <c r="Q516" s="39">
+      <c r="Q516" s="32">
         <v>951</v>
       </c>
-      <c r="R516" s="39">
+      <c r="R516" s="32">
         <v>59</v>
       </c>
-      <c r="S516" s="39">
+      <c r="S516" s="32">
         <v>150</v>
       </c>
-      <c r="T516" s="39">
+      <c r="T516" s="32">
         <v>165</v>
       </c>
-      <c r="U516" s="40" t="s">
+      <c r="U516" s="37" t="s">
         <v>1345</v>
       </c>
       <c r="W516" t="s">
@@ -30980,28 +31644,28 @@
       <c r="C517" t="s">
         <v>227</v>
       </c>
-      <c r="N517" s="39" t="s">
+      <c r="N517" s="32" t="s">
         <v>227</v>
       </c>
       <c r="O517" t="s">
         <v>589</v>
       </c>
-      <c r="P517" s="39">
+      <c r="P517" s="32">
         <v>756</v>
       </c>
-      <c r="Q517" s="39">
+      <c r="Q517" s="32">
         <v>601</v>
       </c>
-      <c r="R517" s="39">
+      <c r="R517" s="32">
         <v>44</v>
       </c>
-      <c r="S517" s="39">
+      <c r="S517" s="32">
         <v>80</v>
       </c>
-      <c r="T517" s="39">
+      <c r="T517" s="32">
         <v>129</v>
       </c>
-      <c r="U517" s="40" t="s">
+      <c r="U517" s="37" t="s">
         <v>1346</v>
       </c>
       <c r="W517" t="s">
@@ -31018,28 +31682,28 @@
       <c r="C518" t="s">
         <v>227</v>
       </c>
-      <c r="N518" s="39" t="s">
+      <c r="N518" s="32" t="s">
         <v>227</v>
       </c>
       <c r="O518" t="s">
         <v>586</v>
       </c>
-      <c r="P518" s="39">
+      <c r="P518" s="32">
         <v>1137</v>
       </c>
-      <c r="Q518" s="39">
+      <c r="Q518" s="32">
         <v>1035</v>
       </c>
-      <c r="R518" s="39">
+      <c r="R518" s="32">
         <v>49</v>
       </c>
-      <c r="S518" s="39">
+      <c r="S518" s="32">
         <v>97</v>
       </c>
-      <c r="T518" s="39">
+      <c r="T518" s="32">
         <v>214</v>
       </c>
-      <c r="U518" s="40" t="s">
+      <c r="U518" s="37" t="s">
         <v>1348</v>
       </c>
       <c r="W518" t="s">
@@ -31056,28 +31720,28 @@
       <c r="C519" t="s">
         <v>227</v>
       </c>
-      <c r="N519" s="39" t="s">
+      <c r="N519" s="32" t="s">
         <v>227</v>
       </c>
       <c r="O519" t="s">
         <v>583</v>
       </c>
-      <c r="P519" s="39">
+      <c r="P519" s="32">
         <v>557</v>
       </c>
-      <c r="Q519" s="39">
+      <c r="Q519" s="32">
         <v>668</v>
       </c>
-      <c r="R519" s="39">
+      <c r="R519" s="32">
         <v>45</v>
       </c>
-      <c r="S519" s="39">
+      <c r="S519" s="32">
         <v>91</v>
       </c>
-      <c r="T519" s="39">
+      <c r="T519" s="32">
         <v>135</v>
       </c>
-      <c r="U519" s="40" t="s">
+      <c r="U519" s="37" t="s">
         <v>1350</v>
       </c>
       <c r="W519" t="s">
@@ -31094,28 +31758,28 @@
       <c r="C520" t="s">
         <v>227</v>
       </c>
-      <c r="N520" s="39" t="s">
+      <c r="N520" s="32" t="s">
         <v>227</v>
       </c>
       <c r="O520" t="s">
         <v>581</v>
       </c>
-      <c r="P520" s="39">
+      <c r="P520" s="32">
         <v>686</v>
       </c>
-      <c r="Q520" s="39">
+      <c r="Q520" s="32">
         <v>775</v>
       </c>
-      <c r="R520" s="39">
+      <c r="R520" s="32">
         <v>64</v>
       </c>
-      <c r="S520" s="39">
+      <c r="S520" s="32">
         <v>109</v>
       </c>
-      <c r="T520" s="39">
+      <c r="T520" s="32">
         <v>189</v>
       </c>
-      <c r="U520" s="40" t="s">
+      <c r="U520" s="37" t="s">
         <v>1351</v>
       </c>
     </row>
@@ -31129,28 +31793,28 @@
       <c r="C521" t="s">
         <v>227</v>
       </c>
-      <c r="N521" s="39" t="s">
+      <c r="N521" s="32" t="s">
         <v>227</v>
       </c>
       <c r="O521" t="s">
         <v>579</v>
       </c>
-      <c r="P521" s="39">
+      <c r="P521" s="32">
         <v>104</v>
       </c>
-      <c r="Q521" s="39">
+      <c r="Q521" s="32">
         <v>155</v>
       </c>
-      <c r="R521" s="39">
+      <c r="R521" s="32">
         <v>8</v>
       </c>
-      <c r="S521" s="39">
+      <c r="S521" s="32">
         <v>7</v>
       </c>
-      <c r="T521" s="39">
+      <c r="T521" s="32">
         <v>41</v>
       </c>
-      <c r="U521" s="40" t="s">
+      <c r="U521" s="37" t="s">
         <v>1352</v>
       </c>
     </row>
@@ -31194,28 +31858,28 @@
       <c r="M522" t="s">
         <v>1354</v>
       </c>
-      <c r="N522" s="39" t="s">
+      <c r="N522" s="32" t="s">
         <v>227</v>
       </c>
       <c r="O522" t="s">
         <v>593</v>
       </c>
-      <c r="P522" s="39">
+      <c r="P522" s="32">
         <v>1641</v>
       </c>
-      <c r="Q522" s="39">
+      <c r="Q522" s="32">
         <v>285</v>
       </c>
-      <c r="R522" s="39">
+      <c r="R522" s="32">
         <v>97</v>
       </c>
-      <c r="S522" s="39">
+      <c r="S522" s="32">
         <v>284</v>
       </c>
-      <c r="T522" s="39">
+      <c r="T522" s="32">
         <v>30</v>
       </c>
-      <c r="U522" s="40" t="s">
+      <c r="U522" s="37" t="s">
         <v>1355</v>
       </c>
       <c r="W522" t="s">
@@ -31232,28 +31896,28 @@
       <c r="C523" t="s">
         <v>227</v>
       </c>
-      <c r="N523" s="39" t="s">
+      <c r="N523" s="32" t="s">
         <v>227</v>
       </c>
       <c r="O523" t="s">
         <v>589</v>
       </c>
-      <c r="P523" s="39">
+      <c r="P523" s="32">
         <v>1616</v>
       </c>
-      <c r="Q523" s="39">
+      <c r="Q523" s="32">
         <v>296</v>
       </c>
-      <c r="R523" s="39">
+      <c r="R523" s="32">
         <v>118</v>
       </c>
-      <c r="S523" s="39">
+      <c r="S523" s="32">
         <v>291</v>
       </c>
-      <c r="T523" s="39">
+      <c r="T523" s="32">
         <v>27</v>
       </c>
-      <c r="U523" s="40" t="s">
+      <c r="U523" s="37" t="s">
         <v>1357</v>
       </c>
       <c r="W523" t="s">
@@ -31314,28 +31978,28 @@
       <c r="M525" t="s">
         <v>1360</v>
       </c>
-      <c r="N525" s="39" t="s">
+      <c r="N525" s="32" t="s">
         <v>227</v>
       </c>
       <c r="O525" t="s">
         <v>593</v>
       </c>
-      <c r="P525" s="39">
+      <c r="P525" s="32">
         <v>879</v>
       </c>
-      <c r="Q525" s="39">
+      <c r="Q525" s="32">
         <v>290</v>
       </c>
-      <c r="R525" s="39">
+      <c r="R525" s="32">
         <v>93</v>
       </c>
-      <c r="S525" s="39">
+      <c r="S525" s="32">
         <v>403</v>
       </c>
-      <c r="T525" s="39">
+      <c r="T525" s="32">
         <v>20</v>
       </c>
-      <c r="U525" s="40" t="s">
+      <c r="U525" s="37" t="s">
         <v>1361</v>
       </c>
     </row>
@@ -31349,28 +32013,28 @@
       <c r="C526" t="s">
         <v>227</v>
       </c>
-      <c r="N526" s="39" t="s">
+      <c r="N526" s="32" t="s">
         <v>227</v>
       </c>
       <c r="O526" t="s">
         <v>589</v>
       </c>
-      <c r="P526" s="39">
+      <c r="P526" s="32">
         <v>940</v>
       </c>
-      <c r="Q526" s="39">
+      <c r="Q526" s="32">
         <v>344</v>
       </c>
-      <c r="R526" s="39">
+      <c r="R526" s="32">
         <v>90</v>
       </c>
-      <c r="S526" s="39">
+      <c r="S526" s="32">
         <v>392</v>
       </c>
-      <c r="T526" s="39">
+      <c r="T526" s="32">
         <v>20</v>
       </c>
-      <c r="U526" s="40" t="s">
+      <c r="U526" s="37" t="s">
         <v>1362</v>
       </c>
     </row>
@@ -31384,28 +32048,28 @@
       <c r="C527" t="s">
         <v>227</v>
       </c>
-      <c r="N527" s="39" t="s">
+      <c r="N527" s="32" t="s">
         <v>227</v>
       </c>
       <c r="O527" t="s">
         <v>586</v>
       </c>
-      <c r="P527" s="39">
+      <c r="P527" s="32">
         <v>581</v>
       </c>
-      <c r="Q527" s="39">
+      <c r="Q527" s="32">
         <v>261</v>
       </c>
-      <c r="R527" s="39">
+      <c r="R527" s="32">
         <v>96</v>
       </c>
-      <c r="S527" s="39">
+      <c r="S527" s="32">
         <v>225</v>
       </c>
-      <c r="T527" s="39">
+      <c r="T527" s="32">
         <v>8</v>
       </c>
-      <c r="U527" s="40" t="s">
+      <c r="U527" s="37" t="s">
         <v>1363</v>
       </c>
     </row>
@@ -31419,28 +32083,28 @@
       <c r="C528" t="s">
         <v>227</v>
       </c>
-      <c r="N528" s="39" t="s">
+      <c r="N528" s="32" t="s">
         <v>227</v>
       </c>
       <c r="O528" t="s">
         <v>583</v>
       </c>
-      <c r="P528" s="39">
+      <c r="P528" s="32">
         <v>342</v>
       </c>
-      <c r="Q528" s="39">
+      <c r="Q528" s="32">
         <v>151</v>
       </c>
-      <c r="R528" s="39">
+      <c r="R528" s="32">
         <v>55</v>
       </c>
-      <c r="S528" s="39">
+      <c r="S528" s="32">
         <v>96</v>
       </c>
-      <c r="T528" s="39">
+      <c r="T528" s="32">
         <v>4</v>
       </c>
-      <c r="U528" s="40" t="s">
+      <c r="U528" s="37" t="s">
         <v>1364</v>
       </c>
     </row>
@@ -31454,28 +32118,28 @@
       <c r="C529" t="s">
         <v>227</v>
       </c>
-      <c r="N529" s="39" t="s">
+      <c r="N529" s="32" t="s">
         <v>227</v>
       </c>
       <c r="O529" t="s">
         <v>581</v>
       </c>
-      <c r="P529" s="39">
+      <c r="P529" s="32">
         <v>396</v>
       </c>
-      <c r="Q529" s="39">
+      <c r="Q529" s="32">
         <v>175</v>
       </c>
-      <c r="R529" s="39">
+      <c r="R529" s="32">
         <v>72</v>
       </c>
-      <c r="S529" s="39">
+      <c r="S529" s="32">
         <v>182</v>
       </c>
-      <c r="T529" s="39">
+      <c r="T529" s="32">
         <v>10</v>
       </c>
-      <c r="U529" s="40" t="s">
+      <c r="U529" s="37" t="s">
         <v>1365</v>
       </c>
     </row>
@@ -31519,25 +32183,25 @@
       <c r="M530" t="s">
         <v>1367</v>
       </c>
-      <c r="N530" s="39" t="s">
+      <c r="N530" s="32" t="s">
         <v>227</v>
       </c>
       <c r="O530" t="s">
         <v>593</v>
       </c>
-      <c r="P530" s="39">
+      <c r="P530" s="32">
         <v>813</v>
       </c>
-      <c r="Q530" s="39">
+      <c r="Q530" s="32">
         <v>232</v>
       </c>
-      <c r="R530" s="39">
+      <c r="R530" s="32">
         <v>88</v>
       </c>
-      <c r="S530" s="39">
+      <c r="S530" s="32">
         <v>392</v>
       </c>
-      <c r="T530" s="39">
+      <c r="T530" s="32">
         <v>10</v>
       </c>
       <c r="U530" t="s">
@@ -31557,25 +32221,25 @@
       <c r="C531" t="s">
         <v>227</v>
       </c>
-      <c r="N531" s="39" t="s">
+      <c r="N531" s="32" t="s">
         <v>227</v>
       </c>
       <c r="O531" t="s">
         <v>589</v>
       </c>
-      <c r="P531" s="39">
+      <c r="P531" s="32">
         <v>1008</v>
       </c>
-      <c r="Q531" s="39">
+      <c r="Q531" s="32">
         <v>351</v>
       </c>
-      <c r="R531" s="39">
+      <c r="R531" s="32">
         <v>121</v>
       </c>
-      <c r="S531" s="39">
+      <c r="S531" s="32">
         <v>410</v>
       </c>
-      <c r="T531" s="39">
+      <c r="T531" s="32">
         <v>11</v>
       </c>
       <c r="U531" t="s">
@@ -31592,25 +32256,25 @@
       <c r="C532" t="s">
         <v>227</v>
       </c>
-      <c r="N532" s="39" t="s">
+      <c r="N532" s="32" t="s">
         <v>243</v>
       </c>
       <c r="O532" t="s">
         <v>586</v>
       </c>
-      <c r="P532" s="39">
+      <c r="P532" s="32">
         <v>836</v>
       </c>
-      <c r="Q532" s="39">
+      <c r="Q532" s="32">
         <v>305</v>
       </c>
-      <c r="R532" s="39">
+      <c r="R532" s="32">
         <v>128</v>
       </c>
-      <c r="S532" s="39">
+      <c r="S532" s="32">
         <v>682</v>
       </c>
-      <c r="T532" s="39">
+      <c r="T532" s="32">
         <v>10</v>
       </c>
       <c r="U532" t="s">
@@ -31627,25 +32291,25 @@
       <c r="C533" t="s">
         <v>227</v>
       </c>
-      <c r="N533" s="39" t="s">
+      <c r="N533" s="32" t="s">
         <v>243</v>
       </c>
       <c r="O533" t="s">
         <v>583</v>
       </c>
-      <c r="P533" s="39">
+      <c r="P533" s="32">
         <v>766</v>
       </c>
-      <c r="Q533" s="39">
+      <c r="Q533" s="32">
         <v>326</v>
       </c>
-      <c r="R533" s="39">
+      <c r="R533" s="32">
         <v>162</v>
       </c>
-      <c r="S533" s="39">
+      <c r="S533" s="32">
         <v>658</v>
       </c>
-      <c r="T533" s="39">
+      <c r="T533" s="32">
         <v>10</v>
       </c>
       <c r="U533" t="s">
@@ -31662,25 +32326,25 @@
       <c r="C534" t="s">
         <v>227</v>
       </c>
-      <c r="N534" s="39" t="s">
+      <c r="N534" s="32" t="s">
         <v>243</v>
       </c>
       <c r="O534" t="s">
         <v>581</v>
       </c>
-      <c r="P534" s="39">
+      <c r="P534" s="32">
         <v>226</v>
       </c>
-      <c r="Q534" s="39">
+      <c r="Q534" s="32">
         <v>125</v>
       </c>
-      <c r="R534" s="39">
+      <c r="R534" s="32">
         <v>38</v>
       </c>
-      <c r="S534" s="39">
+      <c r="S534" s="32">
         <v>193</v>
       </c>
-      <c r="T534" s="39">
+      <c r="T534" s="32">
         <v>1</v>
       </c>
       <c r="U534" t="s">
@@ -31697,25 +32361,25 @@
       <c r="C535" t="s">
         <v>227</v>
       </c>
-      <c r="N535" s="39" t="s">
+      <c r="N535" s="32" t="s">
         <v>243</v>
       </c>
       <c r="O535" t="s">
         <v>579</v>
       </c>
-      <c r="P535" s="39">
+      <c r="P535" s="32">
         <v>781</v>
       </c>
-      <c r="Q535" s="39">
+      <c r="Q535" s="32">
         <v>342</v>
       </c>
-      <c r="R535" s="39">
+      <c r="R535" s="32">
         <v>191</v>
       </c>
-      <c r="S535" s="39">
+      <c r="S535" s="32">
         <v>704</v>
       </c>
-      <c r="T535" s="39">
+      <c r="T535" s="32">
         <v>11</v>
       </c>
       <c r="U535" t="s">
@@ -31732,25 +32396,25 @@
       <c r="C536" t="s">
         <v>227</v>
       </c>
-      <c r="N536" s="39" t="s">
+      <c r="N536" s="32" t="s">
         <v>243</v>
       </c>
       <c r="O536" t="s">
         <v>577</v>
       </c>
-      <c r="P536" s="39">
+      <c r="P536" s="32">
         <v>608</v>
       </c>
-      <c r="Q536" s="39">
+      <c r="Q536" s="32">
         <v>229</v>
       </c>
-      <c r="R536" s="39">
+      <c r="R536" s="32">
         <v>137</v>
       </c>
-      <c r="S536" s="39">
+      <c r="S536" s="32">
         <v>418</v>
       </c>
-      <c r="T536" s="39">
+      <c r="T536" s="32">
         <v>5</v>
       </c>
       <c r="U536" t="s">
@@ -31767,25 +32431,25 @@
       <c r="C537" t="s">
         <v>227</v>
       </c>
-      <c r="N537" s="39" t="s">
+      <c r="N537" s="32" t="s">
         <v>243</v>
       </c>
       <c r="O537" t="s">
         <v>575</v>
       </c>
-      <c r="P537" s="39">
+      <c r="P537" s="32">
         <v>436</v>
       </c>
-      <c r="Q537" s="39">
+      <c r="Q537" s="32">
         <v>171</v>
       </c>
-      <c r="R537" s="39">
+      <c r="R537" s="32">
         <v>91</v>
       </c>
-      <c r="S537" s="39">
+      <c r="S537" s="32">
         <v>336</v>
       </c>
-      <c r="T537" s="39">
+      <c r="T537" s="32">
         <v>8</v>
       </c>
       <c r="U537" t="s">
@@ -31832,28 +32496,28 @@
       <c r="M538" t="s">
         <v>1379</v>
       </c>
-      <c r="N538" s="39" t="s">
+      <c r="N538" s="32" t="s">
         <v>227</v>
       </c>
       <c r="O538" t="s">
         <v>593</v>
       </c>
-      <c r="P538" s="39">
+      <c r="P538" s="32">
         <v>875</v>
       </c>
-      <c r="Q538" s="39">
+      <c r="Q538" s="32">
         <v>351</v>
       </c>
-      <c r="R538" s="39">
+      <c r="R538" s="32">
         <v>62</v>
       </c>
-      <c r="S538" s="39">
+      <c r="S538" s="32">
         <v>123</v>
       </c>
-      <c r="T538" s="39">
+      <c r="T538" s="32">
         <v>26</v>
       </c>
-      <c r="U538" s="40" t="s">
+      <c r="U538" s="37" t="s">
         <v>1380</v>
       </c>
     </row>
@@ -31867,28 +32531,28 @@
       <c r="C539" t="s">
         <v>227</v>
       </c>
-      <c r="N539" s="39" t="s">
+      <c r="N539" s="32" t="s">
         <v>227</v>
       </c>
       <c r="O539" t="s">
         <v>589</v>
       </c>
-      <c r="P539" s="39">
+      <c r="P539" s="32">
         <v>319</v>
       </c>
-      <c r="Q539" s="39">
+      <c r="Q539" s="32">
         <v>102</v>
       </c>
-      <c r="R539" s="39">
+      <c r="R539" s="32">
         <v>23</v>
       </c>
-      <c r="S539" s="39">
+      <c r="S539" s="32">
         <v>41</v>
       </c>
-      <c r="T539" s="39">
+      <c r="T539" s="32">
         <v>9</v>
       </c>
-      <c r="U539" s="40" t="s">
+      <c r="U539" s="37" t="s">
         <v>1381</v>
       </c>
     </row>
@@ -31902,28 +32566,28 @@
       <c r="C540" t="s">
         <v>227</v>
       </c>
-      <c r="N540" s="39" t="s">
+      <c r="N540" s="32" t="s">
         <v>1382</v>
       </c>
       <c r="O540" t="s">
         <v>589</v>
       </c>
-      <c r="P540" s="39">
+      <c r="P540" s="32">
         <v>454</v>
       </c>
-      <c r="Q540" s="39">
+      <c r="Q540" s="32">
         <v>173</v>
       </c>
-      <c r="R540" s="39">
+      <c r="R540" s="32">
         <v>41</v>
       </c>
-      <c r="S540" s="39">
+      <c r="S540" s="32">
         <v>58</v>
       </c>
-      <c r="T540" s="39">
+      <c r="T540" s="32">
         <v>12</v>
       </c>
-      <c r="U540" s="40" t="s">
+      <c r="U540" s="37" t="s">
         <v>1383</v>
       </c>
     </row>
@@ -31937,28 +32601,28 @@
       <c r="C541" t="s">
         <v>227</v>
       </c>
-      <c r="N541" s="39" t="s">
+      <c r="N541" s="32" t="s">
         <v>321</v>
       </c>
       <c r="O541" t="s">
         <v>586</v>
       </c>
-      <c r="P541" s="39">
+      <c r="P541" s="32">
         <v>999</v>
       </c>
-      <c r="Q541" s="39">
+      <c r="Q541" s="32">
         <v>415</v>
       </c>
-      <c r="R541" s="39">
+      <c r="R541" s="32">
         <v>73</v>
       </c>
-      <c r="S541" s="39">
+      <c r="S541" s="32">
         <v>155</v>
       </c>
-      <c r="T541" s="39">
+      <c r="T541" s="32">
         <v>23</v>
       </c>
-      <c r="U541" s="40" t="s">
+      <c r="U541" s="37" t="s">
         <v>1384</v>
       </c>
     </row>
@@ -31972,28 +32636,28 @@
       <c r="C542" t="s">
         <v>227</v>
       </c>
-      <c r="N542" s="39" t="s">
+      <c r="N542" s="32" t="s">
         <v>321</v>
       </c>
       <c r="O542" t="s">
         <v>583</v>
       </c>
-      <c r="P542" s="39">
+      <c r="P542" s="32">
         <v>1038</v>
       </c>
-      <c r="Q542" s="39">
+      <c r="Q542" s="32">
         <v>373</v>
       </c>
-      <c r="R542" s="39">
+      <c r="R542" s="32">
         <v>126</v>
       </c>
-      <c r="S542" s="39">
+      <c r="S542" s="32">
         <v>135</v>
       </c>
-      <c r="T542" s="39">
+      <c r="T542" s="32">
         <v>35</v>
       </c>
-      <c r="U542" s="40" t="s">
+      <c r="U542" s="37" t="s">
         <v>1385</v>
       </c>
     </row>
@@ -32007,28 +32671,28 @@
       <c r="C543" t="s">
         <v>227</v>
       </c>
-      <c r="N543" s="39" t="s">
+      <c r="N543" s="32" t="s">
         <v>321</v>
       </c>
       <c r="O543" t="s">
         <v>581</v>
       </c>
-      <c r="P543" s="39">
+      <c r="P543" s="32">
         <v>539</v>
       </c>
-      <c r="Q543" s="39">
+      <c r="Q543" s="32">
         <v>264</v>
       </c>
-      <c r="R543" s="39">
+      <c r="R543" s="32">
         <v>57</v>
       </c>
-      <c r="S543" s="39">
+      <c r="S543" s="32">
         <v>82</v>
       </c>
-      <c r="T543" s="39">
+      <c r="T543" s="32">
         <v>20</v>
       </c>
-      <c r="U543" s="40" t="s">
+      <c r="U543" s="37" t="s">
         <v>1386</v>
       </c>
     </row>
@@ -32042,28 +32706,28 @@
       <c r="C544" t="s">
         <v>227</v>
       </c>
-      <c r="N544" s="39" t="s">
+      <c r="N544" s="32" t="s">
         <v>961</v>
       </c>
       <c r="O544" t="s">
         <v>581</v>
       </c>
-      <c r="P544" s="39">
+      <c r="P544" s="32">
         <v>89</v>
       </c>
-      <c r="Q544" s="39">
+      <c r="Q544" s="32">
         <v>29</v>
       </c>
-      <c r="R544" s="39">
+      <c r="R544" s="32">
         <v>15</v>
       </c>
-      <c r="S544" s="39">
+      <c r="S544" s="32">
         <v>12</v>
       </c>
-      <c r="T544" s="39">
+      <c r="T544" s="32">
         <v>5</v>
       </c>
-      <c r="U544" s="40" t="s">
+      <c r="U544" s="37" t="s">
         <v>1387</v>
       </c>
     </row>
@@ -32077,28 +32741,28 @@
       <c r="C545" t="s">
         <v>227</v>
       </c>
-      <c r="N545" s="39" t="s">
+      <c r="N545" s="32" t="s">
         <v>961</v>
       </c>
       <c r="O545" t="s">
         <v>579</v>
       </c>
-      <c r="P545" s="39">
+      <c r="P545" s="32">
         <v>356</v>
       </c>
-      <c r="Q545" s="39">
+      <c r="Q545" s="32">
         <v>194</v>
       </c>
-      <c r="R545" s="39">
+      <c r="R545" s="32">
         <v>59</v>
       </c>
-      <c r="S545" s="39">
+      <c r="S545" s="32">
         <v>60</v>
       </c>
-      <c r="T545" s="39">
+      <c r="T545" s="32">
         <v>21</v>
       </c>
-      <c r="U545" s="40" t="s">
+      <c r="U545" s="37" t="s">
         <v>1388</v>
       </c>
     </row>
@@ -32112,29 +32776,4755 @@
       <c r="C546" t="s">
         <v>227</v>
       </c>
-      <c r="N546" s="39" t="s">
+      <c r="N546" s="32" t="s">
         <v>961</v>
       </c>
       <c r="O546" t="s">
         <v>577</v>
       </c>
-      <c r="P546" s="39">
+      <c r="P546" s="32">
         <v>392</v>
       </c>
-      <c r="Q546" s="39">
+      <c r="Q546" s="32">
         <v>187</v>
       </c>
-      <c r="R546" s="39">
+      <c r="R546" s="32">
         <v>63</v>
       </c>
-      <c r="S546" s="39">
+      <c r="S546" s="32">
         <v>94</v>
       </c>
-      <c r="T546" s="39">
+      <c r="T546" s="32">
         <v>17</v>
       </c>
-      <c r="U546" s="40" t="s">
+      <c r="U546" s="37" t="s">
         <v>1389</v>
+      </c>
+    </row>
+    <row r="547" ht="14.25" spans="1:23">
+      <c r="A547">
+        <v>490</v>
+      </c>
+      <c r="B547" t="s">
+        <v>152</v>
+      </c>
+      <c r="C547" t="s">
+        <v>150</v>
+      </c>
+      <c r="D547">
+        <v>27.4</v>
+      </c>
+      <c r="E547">
+        <v>8.5</v>
+      </c>
+      <c r="F547">
+        <v>8.2</v>
+      </c>
+      <c r="G547">
+        <v>1.33</v>
+      </c>
+      <c r="H547">
+        <v>0.61</v>
+      </c>
+      <c r="I547">
+        <v>23</v>
+      </c>
+      <c r="J547">
+        <v>2.03</v>
+      </c>
+      <c r="K547">
+        <v>113</v>
+      </c>
+      <c r="L547" t="s">
+        <v>1390</v>
+      </c>
+      <c r="M547" t="s">
+        <v>1391</v>
+      </c>
+      <c r="N547" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="O547" t="s">
+        <v>593</v>
+      </c>
+      <c r="P547" s="39">
+        <v>1478</v>
+      </c>
+      <c r="Q547" s="39">
+        <v>462</v>
+      </c>
+      <c r="R547" s="39">
+        <v>72</v>
+      </c>
+      <c r="S547" s="39">
+        <v>445</v>
+      </c>
+      <c r="T547" s="39">
+        <v>33</v>
+      </c>
+      <c r="U547" s="40" t="s">
+        <v>1392</v>
+      </c>
+      <c r="W547" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="548" ht="14.25" spans="1:23">
+      <c r="A548">
+        <v>491</v>
+      </c>
+      <c r="B548" t="s">
+        <v>152</v>
+      </c>
+      <c r="C548" t="s">
+        <v>150</v>
+      </c>
+      <c r="N548" s="39" t="s">
+        <v>1382</v>
+      </c>
+      <c r="O548" t="s">
+        <v>589</v>
+      </c>
+      <c r="P548" s="39">
+        <v>2251</v>
+      </c>
+      <c r="Q548" s="39">
+        <v>709</v>
+      </c>
+      <c r="R548" s="39">
+        <v>116</v>
+      </c>
+      <c r="S548" s="39">
+        <v>747</v>
+      </c>
+      <c r="T548" s="39">
+        <v>71</v>
+      </c>
+      <c r="U548" s="40" t="s">
+        <v>1394</v>
+      </c>
+      <c r="W548" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="549" ht="14.25" spans="1:23">
+      <c r="A549">
+        <v>492</v>
+      </c>
+      <c r="B549" t="s">
+        <v>152</v>
+      </c>
+      <c r="C549" t="s">
+        <v>150</v>
+      </c>
+      <c r="N549" s="39" t="s">
+        <v>1382</v>
+      </c>
+      <c r="O549" t="s">
+        <v>586</v>
+      </c>
+      <c r="P549" s="39">
+        <v>1954</v>
+      </c>
+      <c r="Q549" s="39">
+        <v>639</v>
+      </c>
+      <c r="R549" s="39">
+        <v>92</v>
+      </c>
+      <c r="S549" s="39">
+        <v>646</v>
+      </c>
+      <c r="T549" s="39">
+        <v>44</v>
+      </c>
+      <c r="U549" s="40" t="s">
+        <v>1396</v>
+      </c>
+      <c r="W549" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="550" ht="14.25" spans="1:23">
+      <c r="A550">
+        <v>493</v>
+      </c>
+      <c r="B550" t="s">
+        <v>152</v>
+      </c>
+      <c r="C550" t="s">
+        <v>150</v>
+      </c>
+      <c r="N550" s="39" t="s">
+        <v>1382</v>
+      </c>
+      <c r="O550" t="s">
+        <v>583</v>
+      </c>
+      <c r="P550" s="39">
+        <v>1920</v>
+      </c>
+      <c r="Q550" s="39">
+        <v>565</v>
+      </c>
+      <c r="R550" s="39">
+        <v>104</v>
+      </c>
+      <c r="S550" s="39">
+        <v>514</v>
+      </c>
+      <c r="T550" s="39">
+        <v>49</v>
+      </c>
+      <c r="U550" s="40" t="s">
+        <v>1398</v>
+      </c>
+      <c r="W550" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="551" ht="14.25" spans="1:23">
+      <c r="A551">
+        <v>494</v>
+      </c>
+      <c r="B551" t="s">
+        <v>152</v>
+      </c>
+      <c r="C551" t="s">
+        <v>150</v>
+      </c>
+      <c r="N551" s="39" t="s">
+        <v>1382</v>
+      </c>
+      <c r="O551" t="s">
+        <v>581</v>
+      </c>
+      <c r="P551" s="39">
+        <v>1743</v>
+      </c>
+      <c r="Q551" s="39">
+        <v>416</v>
+      </c>
+      <c r="R551" s="39">
+        <v>109</v>
+      </c>
+      <c r="S551" s="39">
+        <v>511</v>
+      </c>
+      <c r="T551" s="39">
+        <v>49</v>
+      </c>
+      <c r="U551" s="40" t="s">
+        <v>1400</v>
+      </c>
+      <c r="W551" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="552" ht="14.25" spans="1:23">
+      <c r="A552">
+        <v>495</v>
+      </c>
+      <c r="B552" t="s">
+        <v>152</v>
+      </c>
+      <c r="C552" t="s">
+        <v>150</v>
+      </c>
+      <c r="N552" s="39" t="s">
+        <v>365</v>
+      </c>
+      <c r="O552" t="s">
+        <v>579</v>
+      </c>
+      <c r="P552" s="39">
+        <v>2089</v>
+      </c>
+      <c r="Q552" s="39">
+        <v>533</v>
+      </c>
+      <c r="R552" s="39">
+        <v>121</v>
+      </c>
+      <c r="S552" s="39">
+        <v>488</v>
+      </c>
+      <c r="T552" s="39">
+        <v>26</v>
+      </c>
+      <c r="U552" s="40" t="s">
+        <v>1402</v>
+      </c>
+      <c r="W552" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="553" ht="14.25" spans="1:23">
+      <c r="A553">
+        <v>496</v>
+      </c>
+      <c r="B553" t="s">
+        <v>152</v>
+      </c>
+      <c r="C553" t="s">
+        <v>150</v>
+      </c>
+      <c r="N553" s="39" t="s">
+        <v>365</v>
+      </c>
+      <c r="O553" t="s">
+        <v>577</v>
+      </c>
+      <c r="P553" s="39">
+        <v>2036</v>
+      </c>
+      <c r="Q553" s="39">
+        <v>610</v>
+      </c>
+      <c r="R553" s="39">
+        <v>129</v>
+      </c>
+      <c r="S553" s="39">
+        <v>551</v>
+      </c>
+      <c r="T553" s="39">
+        <v>67</v>
+      </c>
+      <c r="U553" s="40" t="s">
+        <v>1404</v>
+      </c>
+      <c r="W553" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="554" ht="14.25" spans="1:23">
+      <c r="A554">
+        <v>497</v>
+      </c>
+      <c r="B554" t="s">
+        <v>152</v>
+      </c>
+      <c r="C554" t="s">
+        <v>150</v>
+      </c>
+      <c r="N554" s="39" t="s">
+        <v>365</v>
+      </c>
+      <c r="O554" t="s">
+        <v>575</v>
+      </c>
+      <c r="P554" s="39">
+        <v>1683</v>
+      </c>
+      <c r="Q554" s="39">
+        <v>492</v>
+      </c>
+      <c r="R554" s="39">
+        <v>115</v>
+      </c>
+      <c r="S554" s="39">
+        <v>387</v>
+      </c>
+      <c r="T554" s="39">
+        <v>50</v>
+      </c>
+      <c r="U554" s="40" t="s">
+        <v>1406</v>
+      </c>
+      <c r="W554" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="555" ht="14.25" spans="1:23">
+      <c r="A555">
+        <v>498</v>
+      </c>
+      <c r="B555" t="s">
+        <v>152</v>
+      </c>
+      <c r="C555" t="s">
+        <v>150</v>
+      </c>
+      <c r="N555" s="39" t="s">
+        <v>365</v>
+      </c>
+      <c r="O555" t="s">
+        <v>572</v>
+      </c>
+      <c r="P555" s="39">
+        <v>2111</v>
+      </c>
+      <c r="Q555" s="39">
+        <v>590</v>
+      </c>
+      <c r="R555" s="39">
+        <v>124</v>
+      </c>
+      <c r="S555" s="39">
+        <v>554</v>
+      </c>
+      <c r="T555" s="39">
+        <v>50</v>
+      </c>
+      <c r="U555" s="40" t="s">
+        <v>1408</v>
+      </c>
+      <c r="W555" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="556" ht="14.25" spans="1:23">
+      <c r="A556">
+        <v>499</v>
+      </c>
+      <c r="B556" t="s">
+        <v>152</v>
+      </c>
+      <c r="C556" t="s">
+        <v>150</v>
+      </c>
+      <c r="N556" s="39" t="s">
+        <v>1382</v>
+      </c>
+      <c r="O556" t="s">
+        <v>570</v>
+      </c>
+      <c r="P556" s="39">
+        <v>2258</v>
+      </c>
+      <c r="Q556" s="39">
+        <v>554</v>
+      </c>
+      <c r="R556" s="39">
+        <v>125</v>
+      </c>
+      <c r="S556" s="39">
+        <v>651</v>
+      </c>
+      <c r="T556" s="39">
+        <v>77</v>
+      </c>
+      <c r="U556" s="40" t="s">
+        <v>1410</v>
+      </c>
+      <c r="W556" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="557" ht="14.25" spans="1:23">
+      <c r="A557">
+        <v>500</v>
+      </c>
+      <c r="B557" t="s">
+        <v>152</v>
+      </c>
+      <c r="C557" t="s">
+        <v>150</v>
+      </c>
+      <c r="N557" s="39" t="s">
+        <v>1382</v>
+      </c>
+      <c r="O557" t="s">
+        <v>568</v>
+      </c>
+      <c r="P557" s="39">
+        <v>2304</v>
+      </c>
+      <c r="Q557" s="39">
+        <v>613</v>
+      </c>
+      <c r="R557" s="39">
+        <v>137</v>
+      </c>
+      <c r="S557" s="39">
+        <v>587</v>
+      </c>
+      <c r="T557" s="39">
+        <v>93</v>
+      </c>
+      <c r="U557" s="40" t="s">
+        <v>1412</v>
+      </c>
+      <c r="W557" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="558" ht="14.25" spans="1:23">
+      <c r="A558">
+        <v>501</v>
+      </c>
+      <c r="B558" t="s">
+        <v>152</v>
+      </c>
+      <c r="C558" t="s">
+        <v>150</v>
+      </c>
+      <c r="N558" s="39" t="s">
+        <v>1382</v>
+      </c>
+      <c r="O558" t="s">
+        <v>653</v>
+      </c>
+      <c r="P558" s="39">
+        <v>2250</v>
+      </c>
+      <c r="Q558" s="39">
+        <v>592</v>
+      </c>
+      <c r="R558" s="39">
+        <v>138</v>
+      </c>
+      <c r="S558" s="39">
+        <v>539</v>
+      </c>
+      <c r="T558" s="39">
+        <v>81</v>
+      </c>
+      <c r="U558" s="40" t="s">
+        <v>1414</v>
+      </c>
+      <c r="W558" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="559" ht="14.25" spans="1:23">
+      <c r="A559">
+        <v>502</v>
+      </c>
+      <c r="B559" t="s">
+        <v>152</v>
+      </c>
+      <c r="C559" t="s">
+        <v>150</v>
+      </c>
+      <c r="N559" s="39" t="s">
+        <v>1382</v>
+      </c>
+      <c r="O559" t="s">
+        <v>650</v>
+      </c>
+      <c r="P559" s="39">
+        <v>2132</v>
+      </c>
+      <c r="Q559" s="39">
+        <v>526</v>
+      </c>
+      <c r="R559" s="39">
+        <v>125</v>
+      </c>
+      <c r="S559" s="39">
+        <v>470</v>
+      </c>
+      <c r="T559" s="39">
+        <v>55</v>
+      </c>
+      <c r="U559" s="40" t="s">
+        <v>1416</v>
+      </c>
+      <c r="W559" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="560" ht="14.25" spans="1:23">
+      <c r="A560">
+        <v>503</v>
+      </c>
+      <c r="B560" t="s">
+        <v>152</v>
+      </c>
+      <c r="C560" t="s">
+        <v>150</v>
+      </c>
+      <c r="N560" s="39" t="s">
+        <v>1382</v>
+      </c>
+      <c r="O560" t="s">
+        <v>647</v>
+      </c>
+      <c r="P560" s="39">
+        <v>2478</v>
+      </c>
+      <c r="Q560" s="39">
+        <v>556</v>
+      </c>
+      <c r="R560" s="39">
+        <v>123</v>
+      </c>
+      <c r="S560" s="39">
+        <v>521</v>
+      </c>
+      <c r="T560" s="39">
+        <v>66</v>
+      </c>
+      <c r="U560" s="40" t="s">
+        <v>1418</v>
+      </c>
+      <c r="W560" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="561" ht="14.25" spans="1:23">
+      <c r="A561">
+        <v>504</v>
+      </c>
+      <c r="B561" t="s">
+        <v>152</v>
+      </c>
+      <c r="C561" t="s">
+        <v>150</v>
+      </c>
+      <c r="N561" s="39" t="s">
+        <v>1382</v>
+      </c>
+      <c r="O561" t="s">
+        <v>986</v>
+      </c>
+      <c r="P561" s="39">
+        <v>2175</v>
+      </c>
+      <c r="Q561" s="39">
+        <v>588</v>
+      </c>
+      <c r="R561" s="39">
+        <v>177</v>
+      </c>
+      <c r="S561" s="39">
+        <v>577</v>
+      </c>
+      <c r="T561" s="39">
+        <v>52</v>
+      </c>
+      <c r="U561" s="40" t="s">
+        <v>1420</v>
+      </c>
+      <c r="W561" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="562" ht="14.25" spans="1:23">
+      <c r="A562">
+        <v>505</v>
+      </c>
+      <c r="B562" t="s">
+        <v>152</v>
+      </c>
+      <c r="C562" t="s">
+        <v>150</v>
+      </c>
+      <c r="N562" s="39" t="s">
+        <v>1382</v>
+      </c>
+      <c r="O562" t="s">
+        <v>989</v>
+      </c>
+      <c r="P562" s="39">
+        <v>1654</v>
+      </c>
+      <c r="Q562" s="39">
+        <v>432</v>
+      </c>
+      <c r="R562" s="39">
+        <v>130</v>
+      </c>
+      <c r="S562" s="39">
+        <v>465</v>
+      </c>
+      <c r="T562" s="39">
+        <v>58</v>
+      </c>
+      <c r="U562" s="40" t="s">
+        <v>1422</v>
+      </c>
+      <c r="W562" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="563" spans="1:23">
+      <c r="A563">
+        <v>506</v>
+      </c>
+      <c r="B563" t="s">
+        <v>152</v>
+      </c>
+      <c r="C563" t="s">
+        <v>150</v>
+      </c>
+      <c r="W563" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="564" spans="1:23">
+      <c r="A564">
+        <v>507</v>
+      </c>
+      <c r="B564" t="s">
+        <v>152</v>
+      </c>
+      <c r="C564" t="s">
+        <v>150</v>
+      </c>
+      <c r="W564" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="565" spans="1:23">
+      <c r="A565">
+        <v>508</v>
+      </c>
+      <c r="B565" t="s">
+        <v>152</v>
+      </c>
+      <c r="C565" t="s">
+        <v>150</v>
+      </c>
+      <c r="W565" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="566" spans="1:23">
+      <c r="A566">
+        <v>509</v>
+      </c>
+      <c r="B566" t="s">
+        <v>152</v>
+      </c>
+      <c r="C566" t="s">
+        <v>150</v>
+      </c>
+      <c r="W566" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="567" spans="1:23">
+      <c r="A567">
+        <v>510</v>
+      </c>
+      <c r="B567" t="s">
+        <v>152</v>
+      </c>
+      <c r="C567" t="s">
+        <v>150</v>
+      </c>
+      <c r="W567" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="568" spans="1:23">
+      <c r="A568">
+        <v>511</v>
+      </c>
+      <c r="B568" t="s">
+        <v>152</v>
+      </c>
+      <c r="C568" t="s">
+        <v>150</v>
+      </c>
+      <c r="W568" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="569" spans="1:23">
+      <c r="A569">
+        <v>512</v>
+      </c>
+      <c r="B569" t="s">
+        <v>152</v>
+      </c>
+      <c r="C569" t="s">
+        <v>150</v>
+      </c>
+      <c r="W569" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="570" spans="1:23">
+      <c r="A570">
+        <v>513</v>
+      </c>
+      <c r="B570" t="s">
+        <v>152</v>
+      </c>
+      <c r="C570" t="s">
+        <v>150</v>
+      </c>
+      <c r="W570" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="571" spans="1:23">
+      <c r="A571">
+        <v>514</v>
+      </c>
+      <c r="B571" t="s">
+        <v>152</v>
+      </c>
+      <c r="C571" t="s">
+        <v>150</v>
+      </c>
+      <c r="W571" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="572" spans="1:23">
+      <c r="A572">
+        <v>515</v>
+      </c>
+      <c r="B572" t="s">
+        <v>152</v>
+      </c>
+      <c r="C572" t="s">
+        <v>150</v>
+      </c>
+      <c r="W572" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="573" spans="1:23">
+      <c r="A573">
+        <v>516</v>
+      </c>
+      <c r="B573" t="s">
+        <v>152</v>
+      </c>
+      <c r="C573" t="s">
+        <v>150</v>
+      </c>
+      <c r="W573" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="574" ht="14.25" spans="1:23">
+      <c r="A574">
+        <v>517</v>
+      </c>
+      <c r="B574" t="s">
+        <v>155</v>
+      </c>
+      <c r="C574" t="s">
+        <v>150</v>
+      </c>
+      <c r="D574">
+        <v>9.9</v>
+      </c>
+      <c r="E574">
+        <v>5.3</v>
+      </c>
+      <c r="F574">
+        <v>5.4</v>
+      </c>
+      <c r="G574">
+        <v>1.47</v>
+      </c>
+      <c r="H574">
+        <v>0.4</v>
+      </c>
+      <c r="I574">
+        <v>2</v>
+      </c>
+      <c r="J574">
+        <v>1.98</v>
+      </c>
+      <c r="K574">
+        <v>86</v>
+      </c>
+      <c r="L574" t="s">
+        <v>1435</v>
+      </c>
+      <c r="M574" t="s">
+        <v>1436</v>
+      </c>
+      <c r="N574" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="O574" t="s">
+        <v>593</v>
+      </c>
+      <c r="P574" s="39">
+        <v>465</v>
+      </c>
+      <c r="Q574" s="39">
+        <v>251</v>
+      </c>
+      <c r="R574" s="39">
+        <v>69</v>
+      </c>
+      <c r="S574" s="39">
+        <v>255</v>
+      </c>
+      <c r="T574" s="39">
+        <v>19</v>
+      </c>
+      <c r="U574" s="40" t="s">
+        <v>1437</v>
+      </c>
+      <c r="W574" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="575" ht="14.25" spans="1:21">
+      <c r="A575">
+        <v>518</v>
+      </c>
+      <c r="B575" t="s">
+        <v>155</v>
+      </c>
+      <c r="C575" t="s">
+        <v>150</v>
+      </c>
+      <c r="N575" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="O575" t="s">
+        <v>589</v>
+      </c>
+      <c r="P575" s="39">
+        <v>528</v>
+      </c>
+      <c r="Q575" s="39">
+        <v>360</v>
+      </c>
+      <c r="R575" s="39">
+        <v>88</v>
+      </c>
+      <c r="S575" s="39">
+        <v>376</v>
+      </c>
+      <c r="T575" s="39">
+        <v>43</v>
+      </c>
+      <c r="U575" s="40" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="576" ht="14.25" spans="1:23">
+      <c r="A576">
+        <v>519</v>
+      </c>
+      <c r="B576" t="s">
+        <v>156</v>
+      </c>
+      <c r="C576" t="s">
+        <v>150</v>
+      </c>
+      <c r="D576">
+        <v>18.3</v>
+      </c>
+      <c r="E576">
+        <v>5.2</v>
+      </c>
+      <c r="F576">
+        <v>3</v>
+      </c>
+      <c r="G576">
+        <v>0.54</v>
+      </c>
+      <c r="H576">
+        <v>0.62</v>
+      </c>
+      <c r="I576">
+        <v>14</v>
+      </c>
+      <c r="J576">
+        <v>2.06</v>
+      </c>
+      <c r="K576">
+        <v>86</v>
+      </c>
+      <c r="L576" t="s">
+        <v>1440</v>
+      </c>
+      <c r="M576" t="s">
+        <v>1441</v>
+      </c>
+      <c r="N576" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="O576" t="s">
+        <v>593</v>
+      </c>
+      <c r="P576" s="39">
+        <v>950</v>
+      </c>
+      <c r="Q576" s="39">
+        <v>267</v>
+      </c>
+      <c r="R576" s="39">
+        <v>28</v>
+      </c>
+      <c r="S576" s="39">
+        <v>154</v>
+      </c>
+      <c r="T576" s="39">
+        <v>31</v>
+      </c>
+      <c r="U576" s="40" t="s">
+        <v>1442</v>
+      </c>
+      <c r="W576" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="577" ht="14.25" spans="1:21">
+      <c r="A577">
+        <v>520</v>
+      </c>
+      <c r="B577" t="s">
+        <v>156</v>
+      </c>
+      <c r="C577" t="s">
+        <v>150</v>
+      </c>
+      <c r="N577" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="O577" t="s">
+        <v>589</v>
+      </c>
+      <c r="P577" s="39">
+        <v>949</v>
+      </c>
+      <c r="Q577" s="39">
+        <v>314</v>
+      </c>
+      <c r="R577" s="39">
+        <v>45</v>
+      </c>
+      <c r="S577" s="39">
+        <v>230</v>
+      </c>
+      <c r="T577" s="39">
+        <v>43</v>
+      </c>
+      <c r="U577" s="40" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="578" ht="14.25" spans="1:21">
+      <c r="A578">
+        <v>521</v>
+      </c>
+      <c r="B578" t="s">
+        <v>156</v>
+      </c>
+      <c r="C578" t="s">
+        <v>150</v>
+      </c>
+      <c r="N578" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="O578" t="s">
+        <v>586</v>
+      </c>
+      <c r="P578" s="39">
+        <v>740</v>
+      </c>
+      <c r="Q578" s="39">
+        <v>316</v>
+      </c>
+      <c r="R578" s="39">
+        <v>50</v>
+      </c>
+      <c r="S578" s="39">
+        <v>166</v>
+      </c>
+      <c r="T578" s="39">
+        <v>36</v>
+      </c>
+      <c r="U578" s="40" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="579" ht="14.25" spans="1:23">
+      <c r="A579">
+        <v>522</v>
+      </c>
+      <c r="B579" t="s">
+        <v>163</v>
+      </c>
+      <c r="C579" t="s">
+        <v>150</v>
+      </c>
+      <c r="D579">
+        <v>18.6</v>
+      </c>
+      <c r="E579">
+        <v>5.5</v>
+      </c>
+      <c r="F579">
+        <v>2.6</v>
+      </c>
+      <c r="G579">
+        <v>0.59</v>
+      </c>
+      <c r="H579">
+        <v>0.35</v>
+      </c>
+      <c r="I579">
+        <v>0</v>
+      </c>
+      <c r="J579">
+        <v>2.06</v>
+      </c>
+      <c r="K579">
+        <v>100</v>
+      </c>
+      <c r="L579" t="s">
+        <v>1446</v>
+      </c>
+      <c r="M579" t="s">
+        <v>1447</v>
+      </c>
+      <c r="N579" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="O579" t="s">
+        <v>593</v>
+      </c>
+      <c r="P579" s="39">
+        <v>1267</v>
+      </c>
+      <c r="Q579" s="39">
+        <v>377</v>
+      </c>
+      <c r="R579" s="39">
+        <v>41</v>
+      </c>
+      <c r="S579" s="39">
+        <v>177</v>
+      </c>
+      <c r="T579" s="39">
+        <v>24</v>
+      </c>
+      <c r="U579" s="40" t="s">
+        <v>1448</v>
+      </c>
+      <c r="W579" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="580" ht="14.25" spans="1:23">
+      <c r="A580">
+        <v>523</v>
+      </c>
+      <c r="B580" t="s">
+        <v>163</v>
+      </c>
+      <c r="C580" t="s">
+        <v>150</v>
+      </c>
+      <c r="N580" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="O580" t="s">
+        <v>589</v>
+      </c>
+      <c r="P580" s="39">
+        <v>1242</v>
+      </c>
+      <c r="Q580" s="39">
+        <v>483</v>
+      </c>
+      <c r="R580" s="39">
+        <v>49</v>
+      </c>
+      <c r="S580" s="39">
+        <v>141</v>
+      </c>
+      <c r="T580" s="39">
+        <v>34</v>
+      </c>
+      <c r="U580" s="40" t="s">
+        <v>1450</v>
+      </c>
+      <c r="W580" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="581" ht="14.25" spans="1:23">
+      <c r="A581">
+        <v>524</v>
+      </c>
+      <c r="B581" t="s">
+        <v>160</v>
+      </c>
+      <c r="C581" t="s">
+        <v>150</v>
+      </c>
+      <c r="D581">
+        <v>11.6</v>
+      </c>
+      <c r="E581">
+        <v>7.3</v>
+      </c>
+      <c r="F581">
+        <v>0.6</v>
+      </c>
+      <c r="G581">
+        <v>0.67</v>
+      </c>
+      <c r="H581">
+        <v>1.99</v>
+      </c>
+      <c r="I581">
+        <v>7</v>
+      </c>
+      <c r="J581">
+        <v>2.13</v>
+      </c>
+      <c r="K581">
+        <v>122</v>
+      </c>
+      <c r="L581" s="41" t="s">
+        <v>1452</v>
+      </c>
+      <c r="M581" t="s">
+        <v>1453</v>
+      </c>
+      <c r="N581" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="O581" t="s">
+        <v>593</v>
+      </c>
+      <c r="P581" s="39">
+        <v>779</v>
+      </c>
+      <c r="Q581" s="39">
+        <v>486</v>
+      </c>
+      <c r="R581" s="39">
+        <v>44</v>
+      </c>
+      <c r="S581" s="39">
+        <v>40</v>
+      </c>
+      <c r="T581" s="39">
+        <v>134</v>
+      </c>
+      <c r="U581" s="40" t="s">
+        <v>1454</v>
+      </c>
+      <c r="W581" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="582" ht="14.25" spans="1:21">
+      <c r="A582">
+        <v>525</v>
+      </c>
+      <c r="B582" t="s">
+        <v>160</v>
+      </c>
+      <c r="C582" t="s">
+        <v>150</v>
+      </c>
+      <c r="N582" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="O582" t="s">
+        <v>589</v>
+      </c>
+      <c r="P582" s="39">
+        <v>310</v>
+      </c>
+      <c r="Q582" s="39">
+        <v>169</v>
+      </c>
+      <c r="R582" s="39">
+        <v>21</v>
+      </c>
+      <c r="S582" s="39">
+        <v>33</v>
+      </c>
+      <c r="T582" s="39">
+        <v>57</v>
+      </c>
+      <c r="U582" s="40" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="583" ht="14.25" spans="1:21">
+      <c r="A583">
+        <v>526</v>
+      </c>
+      <c r="B583" t="s">
+        <v>160</v>
+      </c>
+      <c r="C583" t="s">
+        <v>150</v>
+      </c>
+      <c r="N583" s="39" t="s">
+        <v>106</v>
+      </c>
+      <c r="O583" t="s">
+        <v>586</v>
+      </c>
+      <c r="P583" s="39">
+        <v>472</v>
+      </c>
+      <c r="Q583" s="39">
+        <v>244</v>
+      </c>
+      <c r="R583" s="39">
+        <v>19</v>
+      </c>
+      <c r="S583" s="39">
+        <v>17</v>
+      </c>
+      <c r="T583" s="39">
+        <v>67</v>
+      </c>
+      <c r="U583" s="40" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="584" ht="14.25" spans="1:21">
+      <c r="A584">
+        <v>527</v>
+      </c>
+      <c r="B584" t="s">
+        <v>160</v>
+      </c>
+      <c r="C584" t="s">
+        <v>150</v>
+      </c>
+      <c r="N584" s="39" t="s">
+        <v>961</v>
+      </c>
+      <c r="O584" t="s">
+        <v>583</v>
+      </c>
+      <c r="P584" s="39">
+        <v>172</v>
+      </c>
+      <c r="Q584" s="39">
+        <v>133</v>
+      </c>
+      <c r="R584" s="39">
+        <v>5</v>
+      </c>
+      <c r="S584" s="39">
+        <v>3</v>
+      </c>
+      <c r="T584" s="39">
+        <v>26</v>
+      </c>
+      <c r="U584" s="40" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="585" ht="14.25" spans="1:21">
+      <c r="A585">
+        <v>528</v>
+      </c>
+      <c r="B585" t="s">
+        <v>160</v>
+      </c>
+      <c r="C585" t="s">
+        <v>150</v>
+      </c>
+      <c r="N585" s="39" t="s">
+        <v>290</v>
+      </c>
+      <c r="O585" t="s">
+        <v>581</v>
+      </c>
+      <c r="P585" s="39">
+        <v>18</v>
+      </c>
+      <c r="Q585" s="39">
+        <v>13</v>
+      </c>
+      <c r="R585" s="39">
+        <v>0</v>
+      </c>
+      <c r="S585" s="39">
+        <v>2</v>
+      </c>
+      <c r="T585" s="39">
+        <v>1</v>
+      </c>
+      <c r="U585" s="40" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="586" ht="14.25" spans="1:21">
+      <c r="A586">
+        <v>529</v>
+      </c>
+      <c r="B586" t="s">
+        <v>160</v>
+      </c>
+      <c r="C586" t="s">
+        <v>150</v>
+      </c>
+      <c r="N586" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="O586" t="s">
+        <v>581</v>
+      </c>
+      <c r="P586" s="39">
+        <v>88</v>
+      </c>
+      <c r="Q586" s="39">
+        <v>48</v>
+      </c>
+      <c r="R586" s="39">
+        <v>2</v>
+      </c>
+      <c r="S586" s="39">
+        <v>1</v>
+      </c>
+      <c r="T586" s="39">
+        <v>19</v>
+      </c>
+      <c r="U586" s="40" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="587" ht="14.25" spans="1:21">
+      <c r="A587">
+        <v>530</v>
+      </c>
+      <c r="B587" t="s">
+        <v>160</v>
+      </c>
+      <c r="C587" t="s">
+        <v>150</v>
+      </c>
+      <c r="N587" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="O587" t="s">
+        <v>579</v>
+      </c>
+      <c r="P587" s="39">
+        <v>35</v>
+      </c>
+      <c r="Q587" s="39">
+        <v>17</v>
+      </c>
+      <c r="R587" s="39">
+        <v>1</v>
+      </c>
+      <c r="S587" s="39">
+        <v>2</v>
+      </c>
+      <c r="T587" s="39">
+        <v>7</v>
+      </c>
+      <c r="U587" s="40" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="588" ht="14.25" spans="1:21">
+      <c r="A588">
+        <v>531</v>
+      </c>
+      <c r="B588" t="s">
+        <v>160</v>
+      </c>
+      <c r="C588" t="s">
+        <v>150</v>
+      </c>
+      <c r="N588" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="O588" t="s">
+        <v>577</v>
+      </c>
+      <c r="P588" s="39">
+        <v>717</v>
+      </c>
+      <c r="Q588" s="39">
+        <v>381</v>
+      </c>
+      <c r="R588" s="39">
+        <v>30</v>
+      </c>
+      <c r="S588" s="39">
+        <v>24</v>
+      </c>
+      <c r="T588" s="39">
+        <v>157</v>
+      </c>
+      <c r="U588" s="40" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="589" ht="14.25" spans="1:21">
+      <c r="A589">
+        <v>532</v>
+      </c>
+      <c r="B589" t="s">
+        <v>160</v>
+      </c>
+      <c r="C589" t="s">
+        <v>150</v>
+      </c>
+      <c r="N589" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="O589" t="s">
+        <v>575</v>
+      </c>
+      <c r="P589" s="39">
+        <v>205</v>
+      </c>
+      <c r="Q589" s="39">
+        <v>115</v>
+      </c>
+      <c r="R589" s="39">
+        <v>10</v>
+      </c>
+      <c r="S589" s="39">
+        <v>6</v>
+      </c>
+      <c r="T589" s="39">
+        <v>31</v>
+      </c>
+      <c r="U589" s="40" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="590" ht="14.25" spans="1:21">
+      <c r="A590">
+        <v>533</v>
+      </c>
+      <c r="B590" t="s">
+        <v>160</v>
+      </c>
+      <c r="C590" t="s">
+        <v>150</v>
+      </c>
+      <c r="N590" s="39" t="s">
+        <v>411</v>
+      </c>
+      <c r="O590" t="s">
+        <v>575</v>
+      </c>
+      <c r="P590" s="39">
+        <v>486</v>
+      </c>
+      <c r="Q590" s="39">
+        <v>362</v>
+      </c>
+      <c r="R590" s="39">
+        <v>25</v>
+      </c>
+      <c r="S590" s="39">
+        <v>25</v>
+      </c>
+      <c r="T590" s="39">
+        <v>101</v>
+      </c>
+      <c r="U590" s="40" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="591" ht="14.25" spans="1:21">
+      <c r="A591">
+        <v>534</v>
+      </c>
+      <c r="B591" t="s">
+        <v>160</v>
+      </c>
+      <c r="C591" t="s">
+        <v>150</v>
+      </c>
+      <c r="N591" s="39" t="s">
+        <v>411</v>
+      </c>
+      <c r="O591" t="s">
+        <v>572</v>
+      </c>
+      <c r="P591" s="39">
+        <v>798</v>
+      </c>
+      <c r="Q591" s="39">
+        <v>634</v>
+      </c>
+      <c r="R591" s="39">
+        <v>41</v>
+      </c>
+      <c r="S591" s="39">
+        <v>38</v>
+      </c>
+      <c r="T591" s="39">
+        <v>193</v>
+      </c>
+      <c r="U591" s="40" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="592" ht="14.25" spans="1:21">
+      <c r="A592">
+        <v>535</v>
+      </c>
+      <c r="B592" t="s">
+        <v>160</v>
+      </c>
+      <c r="C592" t="s">
+        <v>150</v>
+      </c>
+      <c r="N592" s="39" t="s">
+        <v>411</v>
+      </c>
+      <c r="O592" t="s">
+        <v>570</v>
+      </c>
+      <c r="P592" s="39">
+        <v>386</v>
+      </c>
+      <c r="Q592" s="39">
+        <v>243</v>
+      </c>
+      <c r="R592" s="39">
+        <v>16</v>
+      </c>
+      <c r="S592" s="39">
+        <v>14</v>
+      </c>
+      <c r="T592" s="39">
+        <v>101</v>
+      </c>
+      <c r="U592" s="40" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="593" ht="14.25" spans="1:21">
+      <c r="A593">
+        <v>536</v>
+      </c>
+      <c r="B593" t="s">
+        <v>160</v>
+      </c>
+      <c r="C593" t="s">
+        <v>150</v>
+      </c>
+      <c r="N593" s="39" t="s">
+        <v>411</v>
+      </c>
+      <c r="O593" t="s">
+        <v>568</v>
+      </c>
+      <c r="P593" s="39">
+        <v>489</v>
+      </c>
+      <c r="Q593" s="39">
+        <v>294</v>
+      </c>
+      <c r="R593" s="39">
+        <v>33</v>
+      </c>
+      <c r="S593" s="39">
+        <v>23</v>
+      </c>
+      <c r="T593" s="39">
+        <v>75</v>
+      </c>
+      <c r="U593" s="40" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="594" ht="14.25" spans="1:23">
+      <c r="A594">
+        <v>537</v>
+      </c>
+      <c r="B594" t="s">
+        <v>154</v>
+      </c>
+      <c r="C594" t="s">
+        <v>150</v>
+      </c>
+      <c r="D594">
+        <v>8.9</v>
+      </c>
+      <c r="E594">
+        <v>5.2</v>
+      </c>
+      <c r="F594">
+        <v>7.7</v>
+      </c>
+      <c r="G594">
+        <v>1.07</v>
+      </c>
+      <c r="H594">
+        <v>0.15</v>
+      </c>
+      <c r="I594">
+        <v>9</v>
+      </c>
+      <c r="J594">
+        <v>1.85</v>
+      </c>
+      <c r="K594">
+        <v>84</v>
+      </c>
+      <c r="L594" t="s">
+        <v>1467</v>
+      </c>
+      <c r="M594" t="s">
+        <v>1468</v>
+      </c>
+      <c r="N594" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="O594" t="s">
+        <v>593</v>
+      </c>
+      <c r="P594" s="39">
+        <v>356</v>
+      </c>
+      <c r="Q594" s="39">
+        <v>207</v>
+      </c>
+      <c r="R594" s="39">
+        <v>44</v>
+      </c>
+      <c r="S594" s="39">
+        <v>309</v>
+      </c>
+      <c r="T594" s="39">
+        <v>6</v>
+      </c>
+      <c r="U594" s="40" t="s">
+        <v>1469</v>
+      </c>
+      <c r="W594" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="595" ht="14.25" spans="1:23">
+      <c r="A595">
+        <v>538</v>
+      </c>
+      <c r="B595" t="s">
+        <v>154</v>
+      </c>
+      <c r="C595" t="s">
+        <v>150</v>
+      </c>
+      <c r="N595" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="O595" t="s">
+        <v>589</v>
+      </c>
+      <c r="P595" s="39">
+        <v>537</v>
+      </c>
+      <c r="Q595" s="39">
+        <v>263</v>
+      </c>
+      <c r="R595" s="39">
+        <v>70</v>
+      </c>
+      <c r="S595" s="39">
+        <v>533</v>
+      </c>
+      <c r="T595" s="39">
+        <v>10</v>
+      </c>
+      <c r="U595" s="40" t="s">
+        <v>1471</v>
+      </c>
+      <c r="W595" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="596" ht="14.25" spans="1:23">
+      <c r="A596">
+        <v>539</v>
+      </c>
+      <c r="B596" t="s">
+        <v>154</v>
+      </c>
+      <c r="C596" t="s">
+        <v>150</v>
+      </c>
+      <c r="N596" s="39" t="s">
+        <v>470</v>
+      </c>
+      <c r="O596" t="s">
+        <v>586</v>
+      </c>
+      <c r="P596" s="39">
+        <v>538</v>
+      </c>
+      <c r="Q596" s="39">
+        <v>355</v>
+      </c>
+      <c r="R596" s="39">
+        <v>99</v>
+      </c>
+      <c r="S596" s="39">
+        <v>461</v>
+      </c>
+      <c r="T596" s="39">
+        <v>11</v>
+      </c>
+      <c r="U596" s="40" t="s">
+        <v>1473</v>
+      </c>
+      <c r="W596" s="42" t="s">
+        <v>1474</v>
+      </c>
+    </row>
+    <row r="597" ht="14.25" spans="1:23">
+      <c r="A597">
+        <v>540</v>
+      </c>
+      <c r="B597" t="s">
+        <v>154</v>
+      </c>
+      <c r="C597" t="s">
+        <v>150</v>
+      </c>
+      <c r="N597" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="O597" t="s">
+        <v>583</v>
+      </c>
+      <c r="P597" s="39">
+        <v>859</v>
+      </c>
+      <c r="Q597" s="39">
+        <v>435</v>
+      </c>
+      <c r="R597" s="39">
+        <v>141</v>
+      </c>
+      <c r="S597" s="39">
+        <v>839</v>
+      </c>
+      <c r="T597" s="39">
+        <v>10</v>
+      </c>
+      <c r="U597" s="40" t="s">
+        <v>1475</v>
+      </c>
+      <c r="W597" t="s">
+        <v>1476</v>
+      </c>
+    </row>
+    <row r="598" ht="14.25" spans="1:23">
+      <c r="A598">
+        <v>541</v>
+      </c>
+      <c r="B598" t="s">
+        <v>154</v>
+      </c>
+      <c r="C598" t="s">
+        <v>150</v>
+      </c>
+      <c r="N598" s="39" t="s">
+        <v>961</v>
+      </c>
+      <c r="O598" t="s">
+        <v>581</v>
+      </c>
+      <c r="P598" s="39">
+        <v>426</v>
+      </c>
+      <c r="Q598" s="39">
+        <v>208</v>
+      </c>
+      <c r="R598" s="39">
+        <v>54</v>
+      </c>
+      <c r="S598" s="39">
+        <v>301</v>
+      </c>
+      <c r="T598" s="39">
+        <v>4</v>
+      </c>
+      <c r="U598" s="40" t="s">
+        <v>1477</v>
+      </c>
+      <c r="W598" t="s">
+        <v>1478</v>
+      </c>
+    </row>
+    <row r="599" ht="14.25" spans="1:23">
+      <c r="A599">
+        <v>542</v>
+      </c>
+      <c r="B599" t="s">
+        <v>154</v>
+      </c>
+      <c r="C599" t="s">
+        <v>150</v>
+      </c>
+      <c r="N599" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="O599" t="s">
+        <v>581</v>
+      </c>
+      <c r="P599" s="39">
+        <v>182</v>
+      </c>
+      <c r="Q599" s="39">
+        <v>165</v>
+      </c>
+      <c r="R599" s="39">
+        <v>37</v>
+      </c>
+      <c r="S599" s="39">
+        <v>237</v>
+      </c>
+      <c r="T599" s="39">
+        <v>3</v>
+      </c>
+      <c r="U599" s="40" t="s">
+        <v>1479</v>
+      </c>
+      <c r="W599" t="s">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="600" ht="14.25" spans="1:23">
+      <c r="A600">
+        <v>543</v>
+      </c>
+      <c r="B600" t="s">
+        <v>154</v>
+      </c>
+      <c r="C600" t="s">
+        <v>150</v>
+      </c>
+      <c r="N600" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="O600" t="s">
+        <v>579</v>
+      </c>
+      <c r="P600" s="39">
+        <v>350</v>
+      </c>
+      <c r="Q600" s="39">
+        <v>164</v>
+      </c>
+      <c r="R600" s="39">
+        <v>40</v>
+      </c>
+      <c r="S600" s="39">
+        <v>294</v>
+      </c>
+      <c r="T600" s="39">
+        <v>2</v>
+      </c>
+      <c r="U600" s="40" t="s">
+        <v>1481</v>
+      </c>
+      <c r="W600" s="42" t="s">
+        <v>1482</v>
+      </c>
+    </row>
+    <row r="601" ht="14.25" spans="1:23">
+      <c r="A601">
+        <v>544</v>
+      </c>
+      <c r="B601" t="s">
+        <v>154</v>
+      </c>
+      <c r="C601" t="s">
+        <v>150</v>
+      </c>
+      <c r="N601" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="O601" t="s">
+        <v>577</v>
+      </c>
+      <c r="P601" s="39">
+        <v>522</v>
+      </c>
+      <c r="Q601" s="39">
+        <v>212</v>
+      </c>
+      <c r="R601" s="39">
+        <v>70</v>
+      </c>
+      <c r="S601" s="39">
+        <v>420</v>
+      </c>
+      <c r="T601" s="39">
+        <v>9</v>
+      </c>
+      <c r="U601" s="40" t="s">
+        <v>1483</v>
+      </c>
+      <c r="W601" t="s">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="602" ht="14.25" spans="1:23">
+      <c r="A602">
+        <v>545</v>
+      </c>
+      <c r="B602" t="s">
+        <v>154</v>
+      </c>
+      <c r="C602" t="s">
+        <v>150</v>
+      </c>
+      <c r="N602" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="O602" t="s">
+        <v>575</v>
+      </c>
+      <c r="P602" s="39">
+        <v>630</v>
+      </c>
+      <c r="Q602" s="39">
+        <v>257</v>
+      </c>
+      <c r="R602" s="39">
+        <v>95</v>
+      </c>
+      <c r="S602" s="39">
+        <v>620</v>
+      </c>
+      <c r="T602" s="39">
+        <v>3</v>
+      </c>
+      <c r="U602" s="40" t="s">
+        <v>1485</v>
+      </c>
+      <c r="W602" t="s">
+        <v>1486</v>
+      </c>
+    </row>
+    <row r="603" ht="14.25" spans="1:23">
+      <c r="A603">
+        <v>546</v>
+      </c>
+      <c r="B603" t="s">
+        <v>154</v>
+      </c>
+      <c r="C603" t="s">
+        <v>150</v>
+      </c>
+      <c r="N603" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="O603" t="s">
+        <v>572</v>
+      </c>
+      <c r="P603" s="39">
+        <v>721</v>
+      </c>
+      <c r="Q603" s="39">
+        <v>297</v>
+      </c>
+      <c r="R603" s="39">
+        <v>153</v>
+      </c>
+      <c r="S603" s="39">
+        <v>760</v>
+      </c>
+      <c r="T603" s="39">
+        <v>11</v>
+      </c>
+      <c r="U603" s="40" t="s">
+        <v>1487</v>
+      </c>
+      <c r="W603" t="s">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="604" ht="14.25" spans="1:23">
+      <c r="A604">
+        <v>547</v>
+      </c>
+      <c r="B604" t="s">
+        <v>154</v>
+      </c>
+      <c r="C604" t="s">
+        <v>150</v>
+      </c>
+      <c r="N604" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="O604" t="s">
+        <v>570</v>
+      </c>
+      <c r="P604" s="39">
+        <v>1110</v>
+      </c>
+      <c r="Q604" s="39">
+        <v>360</v>
+      </c>
+      <c r="R604" s="39">
+        <v>189</v>
+      </c>
+      <c r="S604" s="39">
+        <v>794</v>
+      </c>
+      <c r="T604" s="39">
+        <v>11</v>
+      </c>
+      <c r="U604" s="40" t="s">
+        <v>1489</v>
+      </c>
+      <c r="W604" t="s">
+        <v>1490</v>
+      </c>
+    </row>
+    <row r="605" ht="14.25" spans="1:23">
+      <c r="A605">
+        <v>548</v>
+      </c>
+      <c r="B605" t="s">
+        <v>154</v>
+      </c>
+      <c r="C605" t="s">
+        <v>150</v>
+      </c>
+      <c r="N605" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="O605" t="s">
+        <v>568</v>
+      </c>
+      <c r="P605" s="39">
+        <v>953</v>
+      </c>
+      <c r="Q605" s="39">
+        <v>416</v>
+      </c>
+      <c r="R605" s="39">
+        <v>149</v>
+      </c>
+      <c r="S605" s="39">
+        <v>659</v>
+      </c>
+      <c r="T605" s="39">
+        <v>11</v>
+      </c>
+      <c r="U605" s="40" t="s">
+        <v>1491</v>
+      </c>
+      <c r="W605" t="s">
+        <v>1492</v>
+      </c>
+    </row>
+    <row r="606" ht="14.25" spans="1:23">
+      <c r="A606">
+        <v>549</v>
+      </c>
+      <c r="B606" t="s">
+        <v>154</v>
+      </c>
+      <c r="C606" t="s">
+        <v>150</v>
+      </c>
+      <c r="N606" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="O606" t="s">
+        <v>653</v>
+      </c>
+      <c r="P606" s="39">
+        <v>814</v>
+      </c>
+      <c r="Q606" s="39">
+        <v>322</v>
+      </c>
+      <c r="R606" s="39">
+        <v>129</v>
+      </c>
+      <c r="S606" s="39">
+        <v>393</v>
+      </c>
+      <c r="T606" s="39">
+        <v>13</v>
+      </c>
+      <c r="U606" s="40" t="s">
+        <v>1493</v>
+      </c>
+      <c r="W606" t="s">
+        <v>1494</v>
+      </c>
+    </row>
+    <row r="607" ht="14.25" spans="1:23">
+      <c r="A607">
+        <v>550</v>
+      </c>
+      <c r="B607" t="s">
+        <v>154</v>
+      </c>
+      <c r="C607" t="s">
+        <v>150</v>
+      </c>
+      <c r="N607" s="39" t="s">
+        <v>321</v>
+      </c>
+      <c r="O607" t="s">
+        <v>650</v>
+      </c>
+      <c r="P607" s="39">
+        <v>501</v>
+      </c>
+      <c r="Q607" s="39">
+        <v>292</v>
+      </c>
+      <c r="R607" s="39">
+        <v>128</v>
+      </c>
+      <c r="S607" s="39">
+        <v>297</v>
+      </c>
+      <c r="T607" s="39">
+        <v>8</v>
+      </c>
+      <c r="U607" s="40" t="s">
+        <v>1495</v>
+      </c>
+      <c r="W607" t="s">
+        <v>1496</v>
+      </c>
+    </row>
+    <row r="608" spans="1:23">
+      <c r="A608">
+        <v>551</v>
+      </c>
+      <c r="B608" t="s">
+        <v>154</v>
+      </c>
+      <c r="C608" t="s">
+        <v>150</v>
+      </c>
+      <c r="W608" s="42" t="s">
+        <v>1497</v>
+      </c>
+    </row>
+    <row r="609" ht="14.25" spans="1:21">
+      <c r="A609">
+        <v>552</v>
+      </c>
+      <c r="B609" t="s">
+        <v>169</v>
+      </c>
+      <c r="C609" t="s">
+        <v>167</v>
+      </c>
+      <c r="D609">
+        <v>18</v>
+      </c>
+      <c r="E609">
+        <v>4</v>
+      </c>
+      <c r="F609">
+        <v>1.5</v>
+      </c>
+      <c r="G609">
+        <v>1.19</v>
+      </c>
+      <c r="H609">
+        <v>0.46</v>
+      </c>
+      <c r="I609">
+        <v>12</v>
+      </c>
+      <c r="J609">
+        <v>2.03</v>
+      </c>
+      <c r="K609">
+        <v>102</v>
+      </c>
+      <c r="L609" t="s">
+        <v>1498</v>
+      </c>
+      <c r="M609" t="s">
+        <v>1499</v>
+      </c>
+      <c r="N609" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="O609" t="s">
+        <v>593</v>
+      </c>
+      <c r="P609" s="39">
+        <v>772</v>
+      </c>
+      <c r="Q609" s="39">
+        <v>174</v>
+      </c>
+      <c r="R609" s="39">
+        <v>51</v>
+      </c>
+      <c r="S609" s="39">
+        <v>64</v>
+      </c>
+      <c r="T609" s="39">
+        <v>29</v>
+      </c>
+      <c r="U609" s="40" t="s">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="610" ht="14.25" spans="1:21">
+      <c r="A610">
+        <v>553</v>
+      </c>
+      <c r="B610" t="s">
+        <v>169</v>
+      </c>
+      <c r="C610" t="s">
+        <v>167</v>
+      </c>
+      <c r="N610" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="O610" t="s">
+        <v>589</v>
+      </c>
+      <c r="P610" s="39">
+        <v>1271</v>
+      </c>
+      <c r="Q610" s="39">
+        <v>333</v>
+      </c>
+      <c r="R610" s="39">
+        <v>65</v>
+      </c>
+      <c r="S610" s="39">
+        <v>85</v>
+      </c>
+      <c r="T610" s="39">
+        <v>41</v>
+      </c>
+      <c r="U610" s="40" t="s">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="611" ht="14.25" spans="1:21">
+      <c r="A611">
+        <v>554</v>
+      </c>
+      <c r="B611" t="s">
+        <v>169</v>
+      </c>
+      <c r="C611" t="s">
+        <v>167</v>
+      </c>
+      <c r="N611" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="O611" t="s">
+        <v>586</v>
+      </c>
+      <c r="P611" s="39">
+        <v>951</v>
+      </c>
+      <c r="Q611" s="39">
+        <v>339</v>
+      </c>
+      <c r="R611" s="39">
+        <v>76</v>
+      </c>
+      <c r="S611" s="39">
+        <v>75</v>
+      </c>
+      <c r="T611" s="39">
+        <v>39</v>
+      </c>
+      <c r="U611" s="40" t="s">
+        <v>1502</v>
+      </c>
+    </row>
+    <row r="612" ht="14.25" spans="1:21">
+      <c r="A612">
+        <v>555</v>
+      </c>
+      <c r="B612" t="s">
+        <v>169</v>
+      </c>
+      <c r="C612" t="s">
+        <v>167</v>
+      </c>
+      <c r="N612" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="O612" t="s">
+        <v>583</v>
+      </c>
+      <c r="P612" s="39">
+        <v>515</v>
+      </c>
+      <c r="Q612" s="39">
+        <v>147</v>
+      </c>
+      <c r="R612" s="39">
+        <v>37</v>
+      </c>
+      <c r="S612" s="39">
+        <v>44</v>
+      </c>
+      <c r="T612" s="39">
+        <v>16</v>
+      </c>
+      <c r="U612" s="40" t="s">
+        <v>1503</v>
+      </c>
+    </row>
+    <row r="613" ht="14.25" spans="1:21">
+      <c r="A613">
+        <v>556</v>
+      </c>
+      <c r="B613" t="s">
+        <v>169</v>
+      </c>
+      <c r="C613" t="s">
+        <v>167</v>
+      </c>
+      <c r="N613" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="O613" t="s">
+        <v>581</v>
+      </c>
+      <c r="P613" s="39">
+        <v>245</v>
+      </c>
+      <c r="Q613" s="39">
+        <v>85</v>
+      </c>
+      <c r="R613" s="39">
+        <v>18</v>
+      </c>
+      <c r="S613" s="39">
+        <v>25</v>
+      </c>
+      <c r="T613" s="39">
+        <v>9</v>
+      </c>
+      <c r="U613" s="40" t="s">
+        <v>1504</v>
+      </c>
+    </row>
+    <row r="614" spans="1:21">
+      <c r="A614">
+        <v>557</v>
+      </c>
+      <c r="B614" t="s">
+        <v>170</v>
+      </c>
+      <c r="C614" t="s">
+        <v>167</v>
+      </c>
+      <c r="D614">
+        <v>16.3</v>
+      </c>
+      <c r="E614">
+        <v>10.2</v>
+      </c>
+      <c r="F614">
+        <v>1.8</v>
+      </c>
+      <c r="G614">
+        <v>0.9</v>
+      </c>
+      <c r="H614">
+        <v>0.93</v>
+      </c>
+      <c r="I614">
+        <v>22</v>
+      </c>
+      <c r="J614">
+        <v>2.16</v>
+      </c>
+      <c r="K614">
+        <v>118</v>
+      </c>
+      <c r="L614" t="s">
+        <v>1505</v>
+      </c>
+      <c r="M614" t="s">
+        <v>1506</v>
+      </c>
+      <c r="N614" t="s">
+        <v>167</v>
+      </c>
+      <c r="O614" t="s">
+        <v>593</v>
+      </c>
+      <c r="P614">
+        <v>1128</v>
+      </c>
+      <c r="Q614">
+        <v>706</v>
+      </c>
+      <c r="R614">
+        <v>61</v>
+      </c>
+      <c r="S614">
+        <v>123</v>
+      </c>
+      <c r="T614">
+        <v>64</v>
+      </c>
+      <c r="U614" t="s">
+        <v>1507</v>
+      </c>
+    </row>
+    <row r="615" ht="14.25" spans="1:23">
+      <c r="A615">
+        <v>558</v>
+      </c>
+      <c r="B615" t="s">
+        <v>171</v>
+      </c>
+      <c r="C615" t="s">
+        <v>167</v>
+      </c>
+      <c r="D615">
+        <v>11</v>
+      </c>
+      <c r="E615">
+        <v>4.2</v>
+      </c>
+      <c r="F615">
+        <v>2.2</v>
+      </c>
+      <c r="G615">
+        <v>0.92</v>
+      </c>
+      <c r="H615">
+        <v>0.66</v>
+      </c>
+      <c r="I615">
+        <v>20</v>
+      </c>
+      <c r="J615">
+        <v>2.03</v>
+      </c>
+      <c r="K615">
+        <v>93</v>
+      </c>
+      <c r="L615" t="s">
+        <v>1508</v>
+      </c>
+      <c r="M615" t="s">
+        <v>1509</v>
+      </c>
+      <c r="N615" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="O615" t="s">
+        <v>593</v>
+      </c>
+      <c r="P615" s="39">
+        <v>805</v>
+      </c>
+      <c r="Q615" s="39">
+        <v>303</v>
+      </c>
+      <c r="R615" s="39">
+        <v>68</v>
+      </c>
+      <c r="S615" s="39">
+        <v>164</v>
+      </c>
+      <c r="T615" s="39">
+        <v>48</v>
+      </c>
+      <c r="U615" s="40" t="s">
+        <v>1510</v>
+      </c>
+      <c r="W615" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="616" ht="14.25" spans="1:21">
+      <c r="A616">
+        <v>559</v>
+      </c>
+      <c r="B616" t="s">
+        <v>171</v>
+      </c>
+      <c r="C616" t="s">
+        <v>167</v>
+      </c>
+      <c r="N616" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="O616" t="s">
+        <v>589</v>
+      </c>
+      <c r="P616" s="39">
+        <v>1012</v>
+      </c>
+      <c r="Q616" s="39">
+        <v>351</v>
+      </c>
+      <c r="R616" s="39">
+        <v>80</v>
+      </c>
+      <c r="S616" s="39">
+        <v>119</v>
+      </c>
+      <c r="T616" s="39">
+        <v>35</v>
+      </c>
+      <c r="U616" s="40" t="s">
+        <v>1511</v>
+      </c>
+    </row>
+    <row r="617" ht="14.25" spans="1:23">
+      <c r="A617">
+        <v>560</v>
+      </c>
+      <c r="B617" t="s">
+        <v>175</v>
+      </c>
+      <c r="C617" t="s">
+        <v>167</v>
+      </c>
+      <c r="D617">
+        <v>26.2</v>
+      </c>
+      <c r="E617">
+        <v>4.2</v>
+      </c>
+      <c r="F617">
+        <v>6.7</v>
+      </c>
+      <c r="G617">
+        <v>0.92</v>
+      </c>
+      <c r="H617">
+        <v>0.2</v>
+      </c>
+      <c r="I617">
+        <v>1</v>
+      </c>
+      <c r="J617">
+        <v>1.98</v>
+      </c>
+      <c r="K617">
+        <v>93</v>
+      </c>
+      <c r="L617" s="41" t="s">
+        <v>1512</v>
+      </c>
+      <c r="M617" t="s">
+        <v>1513</v>
+      </c>
+      <c r="N617" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="O617" t="s">
+        <v>593</v>
+      </c>
+      <c r="P617" s="39">
+        <v>1569</v>
+      </c>
+      <c r="Q617" s="39">
+        <v>249</v>
+      </c>
+      <c r="R617" s="39">
+        <v>55</v>
+      </c>
+      <c r="S617" s="39">
+        <v>404</v>
+      </c>
+      <c r="T617" s="39">
+        <v>12</v>
+      </c>
+      <c r="U617" s="40" t="s">
+        <v>1514</v>
+      </c>
+      <c r="W617" t="s">
+        <v>1515</v>
+      </c>
+    </row>
+    <row r="618" ht="14.25" spans="1:23">
+      <c r="A618">
+        <v>561</v>
+      </c>
+      <c r="B618" t="s">
+        <v>175</v>
+      </c>
+      <c r="C618" t="s">
+        <v>167</v>
+      </c>
+      <c r="N618" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="O618" t="s">
+        <v>589</v>
+      </c>
+      <c r="P618" s="39">
+        <v>1346</v>
+      </c>
+      <c r="Q618" s="39">
+        <v>244</v>
+      </c>
+      <c r="R618" s="39">
+        <v>47</v>
+      </c>
+      <c r="S618" s="39">
+        <v>253</v>
+      </c>
+      <c r="T618" s="39">
+        <v>14</v>
+      </c>
+      <c r="U618" s="40" t="s">
+        <v>1516</v>
+      </c>
+      <c r="W618" t="s">
+        <v>1517</v>
+      </c>
+    </row>
+    <row r="619" ht="14.25" spans="1:21">
+      <c r="A619">
+        <v>562</v>
+      </c>
+      <c r="B619" t="s">
+        <v>175</v>
+      </c>
+      <c r="C619" t="s">
+        <v>167</v>
+      </c>
+      <c r="N619" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="O619" t="s">
+        <v>586</v>
+      </c>
+      <c r="P619" s="39">
+        <v>1726</v>
+      </c>
+      <c r="Q619" s="39">
+        <v>249</v>
+      </c>
+      <c r="R619" s="39">
+        <v>72</v>
+      </c>
+      <c r="S619" s="39">
+        <v>268</v>
+      </c>
+      <c r="T619" s="39">
+        <v>21</v>
+      </c>
+      <c r="U619" s="40" t="s">
+        <v>1518</v>
+      </c>
+    </row>
+    <row r="620" ht="14.25" spans="1:21">
+      <c r="A620">
+        <v>563</v>
+      </c>
+      <c r="B620" t="s">
+        <v>175</v>
+      </c>
+      <c r="C620" t="s">
+        <v>167</v>
+      </c>
+      <c r="N620" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="O620" t="s">
+        <v>583</v>
+      </c>
+      <c r="P620" s="39">
+        <v>1048</v>
+      </c>
+      <c r="Q620" s="39">
+        <v>187</v>
+      </c>
+      <c r="R620" s="39">
+        <v>44</v>
+      </c>
+      <c r="S620" s="39">
+        <v>200</v>
+      </c>
+      <c r="T620" s="39">
+        <v>20</v>
+      </c>
+      <c r="U620" s="40" t="s">
+        <v>1519</v>
+      </c>
+    </row>
+    <row r="621" ht="14.25" spans="1:21">
+      <c r="A621">
+        <v>564</v>
+      </c>
+      <c r="B621" t="s">
+        <v>176</v>
+      </c>
+      <c r="C621" t="s">
+        <v>167</v>
+      </c>
+      <c r="D621">
+        <v>16.9</v>
+      </c>
+      <c r="E621">
+        <v>4.9</v>
+      </c>
+      <c r="F621">
+        <v>1.6</v>
+      </c>
+      <c r="G621">
+        <v>1.45</v>
+      </c>
+      <c r="H621">
+        <v>0.97</v>
+      </c>
+      <c r="I621">
+        <v>3</v>
+      </c>
+      <c r="J621">
+        <v>2.01</v>
+      </c>
+      <c r="K621">
+        <v>93</v>
+      </c>
+      <c r="L621" t="s">
+        <v>1520</v>
+      </c>
+      <c r="M621" t="s">
+        <v>1521</v>
+      </c>
+      <c r="N621" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="O621" t="s">
+        <v>593</v>
+      </c>
+      <c r="P621" s="39">
+        <v>674</v>
+      </c>
+      <c r="Q621" s="39">
+        <v>196</v>
+      </c>
+      <c r="R621" s="39">
+        <v>57</v>
+      </c>
+      <c r="S621" s="39">
+        <v>64</v>
+      </c>
+      <c r="T621" s="39">
+        <v>39</v>
+      </c>
+      <c r="U621" s="40" t="s">
+        <v>1522</v>
+      </c>
+    </row>
+    <row r="622" ht="14.25" spans="1:21">
+      <c r="A622">
+        <v>565</v>
+      </c>
+      <c r="B622" t="s">
+        <v>176</v>
+      </c>
+      <c r="C622" t="s">
+        <v>167</v>
+      </c>
+      <c r="N622" s="39" t="s">
+        <v>411</v>
+      </c>
+      <c r="O622" t="s">
+        <v>593</v>
+      </c>
+      <c r="P622" s="39">
+        <v>373</v>
+      </c>
+      <c r="Q622" s="39">
+        <v>129</v>
+      </c>
+      <c r="R622" s="39">
+        <v>27</v>
+      </c>
+      <c r="S622" s="39">
+        <v>20</v>
+      </c>
+      <c r="T622" s="39">
+        <v>20</v>
+      </c>
+      <c r="U622" s="40" t="s">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="623" ht="14.25" spans="1:21">
+      <c r="A623">
+        <v>566</v>
+      </c>
+      <c r="B623" t="s">
+        <v>176</v>
+      </c>
+      <c r="C623" t="s">
+        <v>167</v>
+      </c>
+      <c r="N623" s="39" t="s">
+        <v>411</v>
+      </c>
+      <c r="O623" t="s">
+        <v>589</v>
+      </c>
+      <c r="P623" s="39">
+        <v>953</v>
+      </c>
+      <c r="Q623" s="39">
+        <v>363</v>
+      </c>
+      <c r="R623" s="39">
+        <v>80</v>
+      </c>
+      <c r="S623" s="39">
+        <v>98</v>
+      </c>
+      <c r="T623" s="39">
+        <v>35</v>
+      </c>
+      <c r="U623" s="40" t="s">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="624" ht="14.25" spans="1:21">
+      <c r="A624">
+        <v>567</v>
+      </c>
+      <c r="B624" t="s">
+        <v>176</v>
+      </c>
+      <c r="C624" t="s">
+        <v>167</v>
+      </c>
+      <c r="N624" s="39" t="s">
+        <v>411</v>
+      </c>
+      <c r="O624" t="s">
+        <v>586</v>
+      </c>
+      <c r="P624" s="39">
+        <v>501</v>
+      </c>
+      <c r="Q624" s="39">
+        <v>261</v>
+      </c>
+      <c r="R624" s="39">
+        <v>58</v>
+      </c>
+      <c r="S624" s="39">
+        <v>47</v>
+      </c>
+      <c r="T624" s="39">
+        <v>17</v>
+      </c>
+      <c r="U624" s="40" t="s">
+        <v>1525</v>
+      </c>
+    </row>
+    <row r="625" ht="14.25" spans="1:21">
+      <c r="A625">
+        <v>568</v>
+      </c>
+      <c r="B625" t="s">
+        <v>176</v>
+      </c>
+      <c r="C625" t="s">
+        <v>167</v>
+      </c>
+      <c r="N625" s="39" t="s">
+        <v>411</v>
+      </c>
+      <c r="O625" t="s">
+        <v>583</v>
+      </c>
+      <c r="P625" s="39">
+        <v>236</v>
+      </c>
+      <c r="Q625" s="39">
+        <v>133</v>
+      </c>
+      <c r="R625" s="39">
+        <v>22</v>
+      </c>
+      <c r="S625" s="39">
+        <v>13</v>
+      </c>
+      <c r="T625" s="39">
+        <v>7</v>
+      </c>
+      <c r="U625" s="40" t="s">
+        <v>1526</v>
+      </c>
+    </row>
+    <row r="626" ht="14.25" spans="1:23">
+      <c r="A626">
+        <v>569</v>
+      </c>
+      <c r="B626" t="s">
+        <v>215</v>
+      </c>
+      <c r="C626" t="s">
+        <v>214</v>
+      </c>
+      <c r="D626">
+        <v>23</v>
+      </c>
+      <c r="E626">
+        <v>11</v>
+      </c>
+      <c r="F626">
+        <v>10.4</v>
+      </c>
+      <c r="G626">
+        <v>2</v>
+      </c>
+      <c r="H626">
+        <v>0.48</v>
+      </c>
+      <c r="I626">
+        <v>0</v>
+      </c>
+      <c r="J626">
+        <v>1.91</v>
+      </c>
+      <c r="K626">
+        <v>91</v>
+      </c>
+      <c r="L626" s="41" t="s">
+        <v>1527</v>
+      </c>
+      <c r="M626" t="s">
+        <v>1528</v>
+      </c>
+      <c r="N626" s="39" t="s">
+        <v>697</v>
+      </c>
+      <c r="O626" t="s">
+        <v>593</v>
+      </c>
+      <c r="P626" s="39">
+        <v>1496</v>
+      </c>
+      <c r="Q626" s="39">
+        <v>715</v>
+      </c>
+      <c r="R626" s="39">
+        <v>130</v>
+      </c>
+      <c r="S626" s="39">
+        <v>674</v>
+      </c>
+      <c r="T626" s="39">
+        <v>31</v>
+      </c>
+      <c r="U626" s="40" t="s">
+        <v>1529</v>
+      </c>
+      <c r="W626" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="627" ht="14.25" spans="1:23">
+      <c r="A627">
+        <v>570</v>
+      </c>
+      <c r="B627" t="s">
+        <v>215</v>
+      </c>
+      <c r="C627" t="s">
+        <v>214</v>
+      </c>
+      <c r="N627" s="39" t="s">
+        <v>697</v>
+      </c>
+      <c r="O627" t="s">
+        <v>589</v>
+      </c>
+      <c r="P627" s="39">
+        <v>2028</v>
+      </c>
+      <c r="Q627" s="39">
+        <v>804</v>
+      </c>
+      <c r="R627" s="39">
+        <v>147</v>
+      </c>
+      <c r="S627" s="39">
+        <v>820</v>
+      </c>
+      <c r="T627" s="39">
+        <v>20</v>
+      </c>
+      <c r="U627" s="40" t="s">
+        <v>1531</v>
+      </c>
+      <c r="W627" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="628" ht="14.25" spans="1:23">
+      <c r="A628">
+        <v>571</v>
+      </c>
+      <c r="B628" t="s">
+        <v>215</v>
+      </c>
+      <c r="C628" t="s">
+        <v>214</v>
+      </c>
+      <c r="N628" s="39" t="s">
+        <v>697</v>
+      </c>
+      <c r="O628" t="s">
+        <v>586</v>
+      </c>
+      <c r="P628" s="39">
+        <v>2558</v>
+      </c>
+      <c r="Q628" s="39">
+        <v>864</v>
+      </c>
+      <c r="R628" s="39">
+        <v>132</v>
+      </c>
+      <c r="S628" s="39">
+        <v>840</v>
+      </c>
+      <c r="T628" s="39">
+        <v>31</v>
+      </c>
+      <c r="U628" s="40" t="s">
+        <v>1532</v>
+      </c>
+      <c r="W628" t="s">
+        <v>1533</v>
+      </c>
+    </row>
+    <row r="629" ht="14.25" spans="1:23">
+      <c r="A629">
+        <v>572</v>
+      </c>
+      <c r="B629" t="s">
+        <v>215</v>
+      </c>
+      <c r="C629" t="s">
+        <v>214</v>
+      </c>
+      <c r="N629" s="39" t="s">
+        <v>697</v>
+      </c>
+      <c r="O629" t="s">
+        <v>583</v>
+      </c>
+      <c r="P629" s="39">
+        <v>1878</v>
+      </c>
+      <c r="Q629" s="39">
+        <v>626</v>
+      </c>
+      <c r="R629" s="39">
+        <v>163</v>
+      </c>
+      <c r="S629" s="39">
+        <v>834</v>
+      </c>
+      <c r="T629" s="39">
+        <v>20</v>
+      </c>
+      <c r="U629" s="40" t="s">
+        <v>1534</v>
+      </c>
+      <c r="W629" t="s">
+        <v>1535</v>
+      </c>
+    </row>
+    <row r="630" ht="14.25" spans="1:23">
+      <c r="A630">
+        <v>573</v>
+      </c>
+      <c r="B630" t="s">
+        <v>215</v>
+      </c>
+      <c r="C630" t="s">
+        <v>214</v>
+      </c>
+      <c r="N630" s="39" t="s">
+        <v>697</v>
+      </c>
+      <c r="O630" t="s">
+        <v>581</v>
+      </c>
+      <c r="P630" s="39">
+        <v>1886</v>
+      </c>
+      <c r="Q630" s="39">
+        <v>488</v>
+      </c>
+      <c r="R630" s="39">
+        <v>140</v>
+      </c>
+      <c r="S630" s="39">
+        <v>574</v>
+      </c>
+      <c r="T630" s="39">
+        <v>14</v>
+      </c>
+      <c r="U630" s="40" t="s">
+        <v>1536</v>
+      </c>
+      <c r="W630" t="s">
+        <v>1537</v>
+      </c>
+    </row>
+    <row r="631" ht="14.25" spans="1:23">
+      <c r="A631">
+        <v>574</v>
+      </c>
+      <c r="B631" t="s">
+        <v>215</v>
+      </c>
+      <c r="C631" t="s">
+        <v>214</v>
+      </c>
+      <c r="N631" s="39" t="s">
+        <v>697</v>
+      </c>
+      <c r="O631" t="s">
+        <v>579</v>
+      </c>
+      <c r="P631" s="39">
+        <v>1002</v>
+      </c>
+      <c r="Q631" s="39">
+        <v>263</v>
+      </c>
+      <c r="R631" s="39">
+        <v>88</v>
+      </c>
+      <c r="S631" s="39">
+        <v>319</v>
+      </c>
+      <c r="T631" s="39">
+        <v>7</v>
+      </c>
+      <c r="U631" s="40" t="s">
+        <v>1538</v>
+      </c>
+      <c r="W631" t="s">
+        <v>1539</v>
+      </c>
+    </row>
+    <row r="632" ht="14.25" spans="1:23">
+      <c r="A632">
+        <v>575</v>
+      </c>
+      <c r="B632" t="s">
+        <v>215</v>
+      </c>
+      <c r="C632" t="s">
+        <v>214</v>
+      </c>
+      <c r="N632" s="39" t="s">
+        <v>697</v>
+      </c>
+      <c r="O632" t="s">
+        <v>577</v>
+      </c>
+      <c r="P632" s="39">
+        <v>1903</v>
+      </c>
+      <c r="Q632" s="39">
+        <v>428</v>
+      </c>
+      <c r="R632" s="39">
+        <v>145</v>
+      </c>
+      <c r="S632" s="39">
+        <v>607</v>
+      </c>
+      <c r="T632" s="39">
+        <v>24</v>
+      </c>
+      <c r="U632" s="40" t="s">
+        <v>1540</v>
+      </c>
+      <c r="W632" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="633" ht="14.25" spans="1:23">
+      <c r="A633">
+        <v>576</v>
+      </c>
+      <c r="B633" t="s">
+        <v>215</v>
+      </c>
+      <c r="C633" t="s">
+        <v>214</v>
+      </c>
+      <c r="N633" s="39" t="s">
+        <v>697</v>
+      </c>
+      <c r="O633" t="s">
+        <v>575</v>
+      </c>
+      <c r="P633" s="39">
+        <v>1558</v>
+      </c>
+      <c r="Q633" s="39">
+        <v>301</v>
+      </c>
+      <c r="R633" s="39">
+        <v>112</v>
+      </c>
+      <c r="S633" s="39">
+        <v>362</v>
+      </c>
+      <c r="T633" s="39">
+        <v>21</v>
+      </c>
+      <c r="U633" s="40" t="s">
+        <v>1541</v>
+      </c>
+      <c r="W633" t="s">
+        <v>1542</v>
+      </c>
+    </row>
+    <row r="634" ht="14.25" spans="1:23">
+      <c r="A634">
+        <v>577</v>
+      </c>
+      <c r="B634" t="s">
+        <v>215</v>
+      </c>
+      <c r="C634" t="s">
+        <v>214</v>
+      </c>
+      <c r="N634" s="39" t="s">
+        <v>697</v>
+      </c>
+      <c r="O634" t="s">
+        <v>572</v>
+      </c>
+      <c r="P634" s="39">
+        <v>1793</v>
+      </c>
+      <c r="Q634" s="39">
+        <v>379</v>
+      </c>
+      <c r="R634" s="39">
+        <v>155</v>
+      </c>
+      <c r="S634" s="39">
+        <v>670</v>
+      </c>
+      <c r="T634" s="39">
+        <v>30</v>
+      </c>
+      <c r="U634" s="40" t="s">
+        <v>1543</v>
+      </c>
+      <c r="W634" t="s">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="635" ht="14.25" spans="1:23">
+      <c r="A635">
+        <v>578</v>
+      </c>
+      <c r="B635" t="s">
+        <v>215</v>
+      </c>
+      <c r="C635" t="s">
+        <v>214</v>
+      </c>
+      <c r="N635" s="39" t="s">
+        <v>697</v>
+      </c>
+      <c r="O635" t="s">
+        <v>570</v>
+      </c>
+      <c r="P635" s="39">
+        <v>1322</v>
+      </c>
+      <c r="Q635" s="39">
+        <v>401</v>
+      </c>
+      <c r="R635" s="39">
+        <v>108</v>
+      </c>
+      <c r="S635" s="39">
+        <v>652</v>
+      </c>
+      <c r="T635" s="39">
+        <v>34</v>
+      </c>
+      <c r="U635" s="40" t="s">
+        <v>1545</v>
+      </c>
+      <c r="W635" t="s">
+        <v>1546</v>
+      </c>
+    </row>
+    <row r="636" ht="14.25" spans="1:23">
+      <c r="A636">
+        <v>579</v>
+      </c>
+      <c r="B636" t="s">
+        <v>215</v>
+      </c>
+      <c r="C636" t="s">
+        <v>214</v>
+      </c>
+      <c r="N636" s="39" t="s">
+        <v>697</v>
+      </c>
+      <c r="O636" t="s">
+        <v>568</v>
+      </c>
+      <c r="P636" s="39">
+        <v>1256</v>
+      </c>
+      <c r="Q636" s="39">
+        <v>399</v>
+      </c>
+      <c r="R636" s="39">
+        <v>110</v>
+      </c>
+      <c r="S636" s="39">
+        <v>435</v>
+      </c>
+      <c r="T636" s="39">
+        <v>16</v>
+      </c>
+      <c r="U636" s="40" t="s">
+        <v>1547</v>
+      </c>
+      <c r="W636" t="s">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="637" spans="1:23">
+      <c r="A637">
+        <v>580</v>
+      </c>
+      <c r="B637" t="s">
+        <v>215</v>
+      </c>
+      <c r="C637" t="s">
+        <v>214</v>
+      </c>
+      <c r="W637" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="638" spans="1:23">
+      <c r="A638">
+        <v>581</v>
+      </c>
+      <c r="B638" t="s">
+        <v>215</v>
+      </c>
+      <c r="C638" t="s">
+        <v>214</v>
+      </c>
+      <c r="W638" t="s">
+        <v>1549</v>
+      </c>
+    </row>
+    <row r="639" spans="1:23">
+      <c r="A639">
+        <v>582</v>
+      </c>
+      <c r="B639" t="s">
+        <v>215</v>
+      </c>
+      <c r="C639" t="s">
+        <v>214</v>
+      </c>
+      <c r="W639" t="s">
+        <v>1550</v>
+      </c>
+    </row>
+    <row r="640" spans="1:23">
+      <c r="A640">
+        <v>583</v>
+      </c>
+      <c r="B640" t="s">
+        <v>215</v>
+      </c>
+      <c r="C640" t="s">
+        <v>214</v>
+      </c>
+      <c r="W640" t="s">
+        <v>1551</v>
+      </c>
+    </row>
+    <row r="641" spans="1:23">
+      <c r="A641">
+        <v>584</v>
+      </c>
+      <c r="B641" t="s">
+        <v>215</v>
+      </c>
+      <c r="C641" t="s">
+        <v>214</v>
+      </c>
+      <c r="W641" s="42" t="s">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="642" ht="14.25" spans="1:23">
+      <c r="A642">
+        <v>585</v>
+      </c>
+      <c r="B642" t="s">
+        <v>216</v>
+      </c>
+      <c r="C642" t="s">
+        <v>214</v>
+      </c>
+      <c r="D642">
+        <v>28.2</v>
+      </c>
+      <c r="E642">
+        <v>8.2</v>
+      </c>
+      <c r="F642">
+        <v>4.2</v>
+      </c>
+      <c r="G642">
+        <v>2.2</v>
+      </c>
+      <c r="H642">
+        <v>0.46</v>
+      </c>
+      <c r="I642">
+        <v>13</v>
+      </c>
+      <c r="J642">
+        <v>2.06</v>
+      </c>
+      <c r="K642">
+        <v>100</v>
+      </c>
+      <c r="L642" t="s">
+        <v>1553</v>
+      </c>
+      <c r="M642" t="s">
+        <v>1554</v>
+      </c>
+      <c r="N642" s="39" t="s">
+        <v>697</v>
+      </c>
+      <c r="O642" t="s">
+        <v>593</v>
+      </c>
+      <c r="P642" s="39">
+        <v>1973</v>
+      </c>
+      <c r="Q642" s="39">
+        <v>574</v>
+      </c>
+      <c r="R642" s="39">
+        <v>153</v>
+      </c>
+      <c r="S642" s="39">
+        <v>293</v>
+      </c>
+      <c r="T642" s="39">
+        <v>32</v>
+      </c>
+      <c r="U642" s="40" t="s">
+        <v>1555</v>
+      </c>
+      <c r="W642" t="s">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="643" ht="14.25" spans="1:23">
+      <c r="A643">
+        <v>586</v>
+      </c>
+      <c r="B643" t="s">
+        <v>216</v>
+      </c>
+      <c r="C643" t="s">
+        <v>214</v>
+      </c>
+      <c r="N643" s="39" t="s">
+        <v>697</v>
+      </c>
+      <c r="O643" t="s">
+        <v>589</v>
+      </c>
+      <c r="P643" s="39">
+        <v>1734</v>
+      </c>
+      <c r="Q643" s="39">
+        <v>447</v>
+      </c>
+      <c r="R643" s="39">
+        <v>161</v>
+      </c>
+      <c r="S643" s="39">
+        <v>263</v>
+      </c>
+      <c r="T643" s="39">
+        <v>39</v>
+      </c>
+      <c r="U643" s="40" t="s">
+        <v>1557</v>
+      </c>
+      <c r="W643" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="644" ht="14.25" spans="1:23">
+      <c r="A644">
+        <v>587</v>
+      </c>
+      <c r="B644" t="s">
+        <v>216</v>
+      </c>
+      <c r="C644" t="s">
+        <v>214</v>
+      </c>
+      <c r="N644" s="39" t="s">
+        <v>439</v>
+      </c>
+      <c r="O644" t="s">
+        <v>586</v>
+      </c>
+      <c r="P644" s="39">
+        <v>1775</v>
+      </c>
+      <c r="Q644" s="39">
+        <v>492</v>
+      </c>
+      <c r="R644" s="39">
+        <v>119</v>
+      </c>
+      <c r="S644" s="39">
+        <v>251</v>
+      </c>
+      <c r="T644" s="39">
+        <v>27</v>
+      </c>
+      <c r="U644" s="40" t="s">
+        <v>1558</v>
+      </c>
+      <c r="W644" t="s">
+        <v>1559</v>
+      </c>
+    </row>
+    <row r="645" ht="14.25" spans="1:23">
+      <c r="A645">
+        <v>588</v>
+      </c>
+      <c r="B645" t="s">
+        <v>216</v>
+      </c>
+      <c r="C645" t="s">
+        <v>214</v>
+      </c>
+      <c r="N645" s="39" t="s">
+        <v>439</v>
+      </c>
+      <c r="O645" t="s">
+        <v>583</v>
+      </c>
+      <c r="P645" s="39">
+        <v>1874</v>
+      </c>
+      <c r="Q645" s="39">
+        <v>563</v>
+      </c>
+      <c r="R645" s="39">
+        <v>152</v>
+      </c>
+      <c r="S645" s="39">
+        <v>329</v>
+      </c>
+      <c r="T645" s="39">
+        <v>29</v>
+      </c>
+      <c r="U645" s="40" t="s">
+        <v>1560</v>
+      </c>
+      <c r="W645" t="s">
+        <v>1561</v>
+      </c>
+    </row>
+    <row r="646" ht="14.25" spans="1:23">
+      <c r="A646">
+        <v>589</v>
+      </c>
+      <c r="B646" t="s">
+        <v>216</v>
+      </c>
+      <c r="C646" t="s">
+        <v>214</v>
+      </c>
+      <c r="N646" s="39" t="s">
+        <v>439</v>
+      </c>
+      <c r="O646" t="s">
+        <v>581</v>
+      </c>
+      <c r="P646" s="39">
+        <v>53</v>
+      </c>
+      <c r="Q646" s="39">
+        <v>22</v>
+      </c>
+      <c r="R646" s="39">
+        <v>5</v>
+      </c>
+      <c r="S646" s="39">
+        <v>6</v>
+      </c>
+      <c r="T646" s="39">
+        <v>1</v>
+      </c>
+      <c r="U646" s="40" t="s">
+        <v>1562</v>
+      </c>
+      <c r="W646" t="s">
+        <v>1563</v>
+      </c>
+    </row>
+    <row r="647" ht="14.25" spans="1:23">
+      <c r="A647">
+        <v>590</v>
+      </c>
+      <c r="B647" t="s">
+        <v>216</v>
+      </c>
+      <c r="C647" t="s">
+        <v>214</v>
+      </c>
+      <c r="N647" s="39" t="s">
+        <v>439</v>
+      </c>
+      <c r="O647" t="s">
+        <v>579</v>
+      </c>
+      <c r="P647" s="39">
+        <v>1737</v>
+      </c>
+      <c r="Q647" s="39">
+        <v>542</v>
+      </c>
+      <c r="R647" s="39">
+        <v>151</v>
+      </c>
+      <c r="S647" s="39">
+        <v>283</v>
+      </c>
+      <c r="T647" s="39">
+        <v>22</v>
+      </c>
+      <c r="U647" s="40" t="s">
+        <v>1564</v>
+      </c>
+      <c r="W647" t="s">
+        <v>1565</v>
+      </c>
+    </row>
+    <row r="648" ht="14.25" spans="1:23">
+      <c r="A648">
+        <v>591</v>
+      </c>
+      <c r="B648" t="s">
+        <v>216</v>
+      </c>
+      <c r="C648" t="s">
+        <v>214</v>
+      </c>
+      <c r="N648" s="39" t="s">
+        <v>439</v>
+      </c>
+      <c r="O648" t="s">
+        <v>577</v>
+      </c>
+      <c r="P648" s="39">
+        <v>1377</v>
+      </c>
+      <c r="Q648" s="39">
+        <v>603</v>
+      </c>
+      <c r="R648" s="39">
+        <v>143</v>
+      </c>
+      <c r="S648" s="39">
+        <v>327</v>
+      </c>
+      <c r="T648" s="39">
+        <v>51</v>
+      </c>
+      <c r="U648" s="40" t="s">
+        <v>1566</v>
+      </c>
+      <c r="W648" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="649" ht="14.25" spans="1:23">
+      <c r="A649">
+        <v>592</v>
+      </c>
+      <c r="B649" t="s">
+        <v>216</v>
+      </c>
+      <c r="C649" t="s">
+        <v>214</v>
+      </c>
+      <c r="N649" s="39" t="s">
+        <v>439</v>
+      </c>
+      <c r="O649" t="s">
+        <v>575</v>
+      </c>
+      <c r="P649" s="39">
+        <v>798</v>
+      </c>
+      <c r="Q649" s="39">
+        <v>370</v>
+      </c>
+      <c r="R649" s="39">
+        <v>108</v>
+      </c>
+      <c r="S649" s="39">
+        <v>158</v>
+      </c>
+      <c r="T649" s="39">
+        <v>38</v>
+      </c>
+      <c r="U649" s="40" t="s">
+        <v>1567</v>
+      </c>
+      <c r="W649" t="s">
+        <v>1568</v>
+      </c>
+    </row>
+    <row r="650" ht="14.25" spans="1:23">
+      <c r="A650">
+        <v>593</v>
+      </c>
+      <c r="B650" t="s">
+        <v>216</v>
+      </c>
+      <c r="C650" t="s">
+        <v>214</v>
+      </c>
+      <c r="N650" s="39" t="s">
+        <v>439</v>
+      </c>
+      <c r="O650" t="s">
+        <v>572</v>
+      </c>
+      <c r="P650" s="39">
+        <v>476</v>
+      </c>
+      <c r="Q650" s="39">
+        <v>224</v>
+      </c>
+      <c r="R650" s="39">
+        <v>62</v>
+      </c>
+      <c r="S650" s="39">
+        <v>65</v>
+      </c>
+      <c r="T650" s="39">
+        <v>26</v>
+      </c>
+      <c r="U650" s="40" t="s">
+        <v>1569</v>
+      </c>
+      <c r="W650" t="s">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="651" spans="1:23">
+      <c r="A651">
+        <v>594</v>
+      </c>
+      <c r="B651" t="s">
+        <v>216</v>
+      </c>
+      <c r="C651" t="s">
+        <v>214</v>
+      </c>
+      <c r="W651" t="s">
+        <v>1571</v>
+      </c>
+    </row>
+    <row r="652" spans="1:23">
+      <c r="A652">
+        <v>595</v>
+      </c>
+      <c r="B652" t="s">
+        <v>216</v>
+      </c>
+      <c r="C652" t="s">
+        <v>214</v>
+      </c>
+      <c r="W652" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="653" spans="1:23">
+      <c r="A653">
+        <v>596</v>
+      </c>
+      <c r="B653" t="s">
+        <v>216</v>
+      </c>
+      <c r="C653" t="s">
+        <v>214</v>
+      </c>
+      <c r="W653" t="s">
+        <v>1572</v>
+      </c>
+    </row>
+    <row r="654" spans="1:23">
+      <c r="A654">
+        <v>597</v>
+      </c>
+      <c r="B654" t="s">
+        <v>216</v>
+      </c>
+      <c r="C654" t="s">
+        <v>214</v>
+      </c>
+      <c r="W654" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="655" ht="14.25" spans="1:23">
+      <c r="A655">
+        <v>598</v>
+      </c>
+      <c r="B655" t="s">
+        <v>217</v>
+      </c>
+      <c r="C655" t="s">
+        <v>214</v>
+      </c>
+      <c r="D655">
+        <v>13.9</v>
+      </c>
+      <c r="E655">
+        <v>9.5</v>
+      </c>
+      <c r="F655">
+        <v>1.6</v>
+      </c>
+      <c r="G655">
+        <v>1.6</v>
+      </c>
+      <c r="H655">
+        <v>0.9</v>
+      </c>
+      <c r="I655">
+        <v>12</v>
+      </c>
+      <c r="J655">
+        <v>2.13</v>
+      </c>
+      <c r="K655">
+        <v>116</v>
+      </c>
+      <c r="L655" t="s">
+        <v>1573</v>
+      </c>
+      <c r="M655" t="s">
+        <v>1574</v>
+      </c>
+      <c r="N655" s="39" t="s">
+        <v>697</v>
+      </c>
+      <c r="O655" t="s">
+        <v>593</v>
+      </c>
+      <c r="P655" s="39">
+        <v>1000</v>
+      </c>
+      <c r="Q655" s="39">
+        <v>685</v>
+      </c>
+      <c r="R655" s="39">
+        <v>113</v>
+      </c>
+      <c r="S655" s="39">
+        <v>112</v>
+      </c>
+      <c r="T655" s="39">
+        <v>64</v>
+      </c>
+      <c r="U655" s="40" t="s">
+        <v>1575</v>
+      </c>
+      <c r="W655" t="s">
+        <v>1576</v>
+      </c>
+    </row>
+    <row r="656" ht="14.25" spans="1:21">
+      <c r="A656">
+        <v>599</v>
+      </c>
+      <c r="B656" t="s">
+        <v>217</v>
+      </c>
+      <c r="C656" t="s">
+        <v>214</v>
+      </c>
+      <c r="N656" s="39" t="s">
+        <v>697</v>
+      </c>
+      <c r="O656" t="s">
+        <v>589</v>
+      </c>
+      <c r="P656" s="39">
+        <v>1056</v>
+      </c>
+      <c r="Q656" s="39">
+        <v>685</v>
+      </c>
+      <c r="R656" s="39">
+        <v>92</v>
+      </c>
+      <c r="S656" s="39">
+        <v>88</v>
+      </c>
+      <c r="T656" s="39">
+        <v>78</v>
+      </c>
+      <c r="U656" s="40" t="s">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="657" ht="14.25" spans="1:21">
+      <c r="A657">
+        <v>600</v>
+      </c>
+      <c r="B657" t="s">
+        <v>217</v>
+      </c>
+      <c r="C657" t="s">
+        <v>214</v>
+      </c>
+      <c r="N657" s="39" t="s">
+        <v>697</v>
+      </c>
+      <c r="O657" t="s">
+        <v>586</v>
+      </c>
+      <c r="P657" s="39">
+        <v>905</v>
+      </c>
+      <c r="Q657" s="39">
+        <v>613</v>
+      </c>
+      <c r="R657" s="39">
+        <v>89</v>
+      </c>
+      <c r="S657" s="39">
+        <v>86</v>
+      </c>
+      <c r="T657" s="39">
+        <v>78</v>
+      </c>
+      <c r="U657" s="40" t="s">
+        <v>1578</v>
+      </c>
+    </row>
+    <row r="658" ht="14.25" spans="1:21">
+      <c r="A658">
+        <v>601</v>
+      </c>
+      <c r="B658" t="s">
+        <v>217</v>
+      </c>
+      <c r="C658" t="s">
+        <v>214</v>
+      </c>
+      <c r="N658" s="39" t="s">
+        <v>697</v>
+      </c>
+      <c r="O658" t="s">
+        <v>583</v>
+      </c>
+      <c r="P658" s="39">
+        <v>636</v>
+      </c>
+      <c r="Q658" s="39">
+        <v>533</v>
+      </c>
+      <c r="R658" s="39">
+        <v>42</v>
+      </c>
+      <c r="S658" s="39">
+        <v>62</v>
+      </c>
+      <c r="T658" s="39">
+        <v>89</v>
+      </c>
+      <c r="U658" s="40" t="s">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="659" ht="14.25" spans="1:21">
+      <c r="A659">
+        <v>602</v>
+      </c>
+      <c r="B659" t="s">
+        <v>217</v>
+      </c>
+      <c r="C659" t="s">
+        <v>214</v>
+      </c>
+      <c r="N659" s="39" t="s">
+        <v>697</v>
+      </c>
+      <c r="O659" t="s">
+        <v>581</v>
+      </c>
+      <c r="P659" s="39">
+        <v>537</v>
+      </c>
+      <c r="Q659" s="39">
+        <v>523</v>
+      </c>
+      <c r="R659" s="39">
+        <v>38</v>
+      </c>
+      <c r="S659" s="39">
+        <v>66</v>
+      </c>
+      <c r="T659" s="39">
+        <v>86</v>
+      </c>
+      <c r="U659" s="40" t="s">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="660" ht="14.25" spans="1:21">
+      <c r="A660">
+        <v>603</v>
+      </c>
+      <c r="B660" t="s">
+        <v>217</v>
+      </c>
+      <c r="C660" t="s">
+        <v>214</v>
+      </c>
+      <c r="N660" s="39" t="s">
+        <v>697</v>
+      </c>
+      <c r="O660" t="s">
+        <v>579</v>
+      </c>
+      <c r="P660" s="39">
+        <v>265</v>
+      </c>
+      <c r="Q660" s="39">
+        <v>332</v>
+      </c>
+      <c r="R660" s="39">
+        <v>40</v>
+      </c>
+      <c r="S660" s="39">
+        <v>43</v>
+      </c>
+      <c r="T660" s="39">
+        <v>57</v>
+      </c>
+      <c r="U660" s="40" t="s">
+        <v>1581</v>
+      </c>
+    </row>
+    <row r="661" spans="1:21">
+      <c r="A661">
+        <v>604</v>
+      </c>
+      <c r="B661" t="s">
+        <v>218</v>
+      </c>
+      <c r="C661" t="s">
+        <v>214</v>
+      </c>
+      <c r="D661">
+        <v>15.7</v>
+      </c>
+      <c r="E661">
+        <v>3.6</v>
+      </c>
+      <c r="F661">
+        <v>4.2</v>
+      </c>
+      <c r="G661">
+        <v>0.77</v>
+      </c>
+      <c r="H661">
+        <v>0.15</v>
+      </c>
+      <c r="I661">
+        <v>17</v>
+      </c>
+      <c r="J661">
+        <v>1.85</v>
+      </c>
+      <c r="K661">
+        <v>78</v>
+      </c>
+      <c r="L661" t="s">
+        <v>1582</v>
+      </c>
+      <c r="M661" t="s">
+        <v>1583</v>
+      </c>
+      <c r="N661" s="39" t="s">
+        <v>697</v>
+      </c>
+      <c r="O661" t="s">
+        <v>593</v>
+      </c>
+      <c r="P661" s="39">
+        <v>1112</v>
+      </c>
+      <c r="Q661" s="39">
+        <v>254</v>
+      </c>
+      <c r="R661" s="39">
+        <v>57</v>
+      </c>
+      <c r="S661" s="39">
+        <v>298</v>
+      </c>
+      <c r="T661" s="39">
+        <v>11</v>
+      </c>
+      <c r="U661" t="s">
+        <v>1584</v>
+      </c>
+    </row>
+    <row r="662" spans="1:21">
+      <c r="A662">
+        <v>605</v>
+      </c>
+      <c r="B662" t="s">
+        <v>218</v>
+      </c>
+      <c r="C662" t="s">
+        <v>214</v>
+      </c>
+      <c r="N662" s="39" t="s">
+        <v>426</v>
+      </c>
+      <c r="O662" t="s">
+        <v>589</v>
+      </c>
+      <c r="P662" s="39">
+        <v>1301</v>
+      </c>
+      <c r="Q662" s="39">
+        <v>208</v>
+      </c>
+      <c r="R662" s="39">
+        <v>72</v>
+      </c>
+      <c r="S662" s="39">
+        <v>417</v>
+      </c>
+      <c r="T662" s="39">
+        <v>6</v>
+      </c>
+      <c r="U662" t="s">
+        <v>1585</v>
+      </c>
+    </row>
+    <row r="663" spans="1:21">
+      <c r="A663">
+        <v>606</v>
+      </c>
+      <c r="B663" t="s">
+        <v>218</v>
+      </c>
+      <c r="C663" t="s">
+        <v>214</v>
+      </c>
+      <c r="N663" s="39" t="s">
+        <v>426</v>
+      </c>
+      <c r="O663" t="s">
+        <v>586</v>
+      </c>
+      <c r="P663" s="39">
+        <v>1414</v>
+      </c>
+      <c r="Q663" s="39">
+        <v>248</v>
+      </c>
+      <c r="R663" s="39">
+        <v>74</v>
+      </c>
+      <c r="S663" s="39">
+        <v>499</v>
+      </c>
+      <c r="T663" s="39">
+        <v>16</v>
+      </c>
+      <c r="U663" t="s">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="664" spans="1:21">
+      <c r="A664">
+        <v>607</v>
+      </c>
+      <c r="B664" t="s">
+        <v>218</v>
+      </c>
+      <c r="C664" t="s">
+        <v>214</v>
+      </c>
+      <c r="N664" s="39" t="s">
+        <v>426</v>
+      </c>
+      <c r="O664" t="s">
+        <v>583</v>
+      </c>
+      <c r="P664" s="39">
+        <v>879</v>
+      </c>
+      <c r="Q664" s="39">
+        <v>204</v>
+      </c>
+      <c r="R664" s="39">
+        <v>70</v>
+      </c>
+      <c r="S664" s="39">
+        <v>349</v>
+      </c>
+      <c r="T664" s="39">
+        <v>9</v>
+      </c>
+      <c r="U664" t="s">
+        <v>1587</v>
+      </c>
+    </row>
+    <row r="665" spans="1:21">
+      <c r="A665">
+        <v>608</v>
+      </c>
+      <c r="B665" t="s">
+        <v>218</v>
+      </c>
+      <c r="C665" t="s">
+        <v>214</v>
+      </c>
+      <c r="N665" s="39" t="s">
+        <v>426</v>
+      </c>
+      <c r="O665" t="s">
+        <v>581</v>
+      </c>
+      <c r="P665" s="39">
+        <v>768</v>
+      </c>
+      <c r="Q665" s="39">
+        <v>164</v>
+      </c>
+      <c r="R665" s="39">
+        <v>49</v>
+      </c>
+      <c r="S665" s="39">
+        <v>317</v>
+      </c>
+      <c r="T665" s="39">
+        <v>4</v>
+      </c>
+      <c r="U665" t="s">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="666" spans="1:21">
+      <c r="A666">
+        <v>609</v>
+      </c>
+      <c r="B666" t="s">
+        <v>218</v>
+      </c>
+      <c r="C666" t="s">
+        <v>214</v>
+      </c>
+      <c r="N666" s="39" t="s">
+        <v>426</v>
+      </c>
+      <c r="O666" t="s">
+        <v>579</v>
+      </c>
+      <c r="P666" s="39">
+        <v>183</v>
+      </c>
+      <c r="Q666" s="39">
+        <v>60</v>
+      </c>
+      <c r="R666" s="39">
+        <v>17</v>
+      </c>
+      <c r="S666" s="39">
+        <v>93</v>
+      </c>
+      <c r="T666" s="39">
+        <v>0</v>
+      </c>
+      <c r="U666" t="s">
+        <v>1589</v>
+      </c>
+    </row>
+    <row r="667" ht="14.25" spans="1:21">
+      <c r="A667">
+        <v>610</v>
+      </c>
+      <c r="B667" t="s">
+        <v>220</v>
+      </c>
+      <c r="C667" t="s">
+        <v>214</v>
+      </c>
+      <c r="D667">
+        <v>13.2</v>
+      </c>
+      <c r="E667">
+        <v>5.2</v>
+      </c>
+      <c r="F667">
+        <v>1</v>
+      </c>
+      <c r="G667">
+        <v>0.79</v>
+      </c>
+      <c r="H667">
+        <v>1.26</v>
+      </c>
+      <c r="I667">
+        <v>9</v>
+      </c>
+      <c r="J667">
+        <v>2.06</v>
+      </c>
+      <c r="K667">
+        <v>95</v>
+      </c>
+      <c r="L667" t="s">
+        <v>1590</v>
+      </c>
+      <c r="M667" t="s">
+        <v>1591</v>
+      </c>
+      <c r="N667" s="39" t="s">
+        <v>697</v>
+      </c>
+      <c r="O667" t="s">
+        <v>593</v>
+      </c>
+      <c r="P667">
+        <v>953</v>
+      </c>
+      <c r="Q667">
+        <v>378</v>
+      </c>
+      <c r="R667">
+        <v>57</v>
+      </c>
+      <c r="S667">
+        <v>72</v>
+      </c>
+      <c r="T667">
+        <v>91</v>
+      </c>
+      <c r="U667" s="40" t="s">
+        <v>1592</v>
+      </c>
+    </row>
+    <row r="668" ht="14.25" spans="1:21">
+      <c r="A668">
+        <v>611</v>
+      </c>
+      <c r="B668" t="s">
+        <v>220</v>
+      </c>
+      <c r="C668" t="s">
+        <v>214</v>
+      </c>
+      <c r="N668" s="39" t="s">
+        <v>697</v>
+      </c>
+      <c r="O668" t="s">
+        <v>589</v>
+      </c>
+      <c r="P668">
+        <v>682</v>
+      </c>
+      <c r="Q668">
+        <v>319</v>
+      </c>
+      <c r="R668">
+        <v>31</v>
+      </c>
+      <c r="S668">
+        <v>57</v>
+      </c>
+      <c r="T668">
+        <v>77</v>
+      </c>
+      <c r="U668" s="40" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="669" ht="14.25" spans="1:21">
+      <c r="A669">
+        <v>612</v>
+      </c>
+      <c r="B669" t="s">
+        <v>220</v>
+      </c>
+      <c r="C669" t="s">
+        <v>214</v>
+      </c>
+      <c r="N669" s="39" t="s">
+        <v>697</v>
+      </c>
+      <c r="O669" t="s">
+        <v>586</v>
+      </c>
+      <c r="P669">
+        <v>421</v>
+      </c>
+      <c r="Q669">
+        <v>199</v>
+      </c>
+      <c r="R669">
+        <v>33</v>
+      </c>
+      <c r="S669">
+        <v>46</v>
+      </c>
+      <c r="T669">
+        <v>75</v>
+      </c>
+      <c r="U669" s="40" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="670" ht="14.25" spans="1:21">
+      <c r="A670">
+        <v>613</v>
+      </c>
+      <c r="B670" t="s">
+        <v>220</v>
+      </c>
+      <c r="C670" t="s">
+        <v>214</v>
+      </c>
+      <c r="N670" s="39" t="s">
+        <v>290</v>
+      </c>
+      <c r="O670" t="s">
+        <v>586</v>
+      </c>
+      <c r="P670">
+        <v>16</v>
+      </c>
+      <c r="Q670">
+        <v>6</v>
+      </c>
+      <c r="R670">
+        <v>0</v>
+      </c>
+      <c r="S670">
+        <v>0</v>
+      </c>
+      <c r="T670">
+        <v>4</v>
+      </c>
+      <c r="U670" s="40" t="s">
+        <v>1595</v>
+      </c>
+    </row>
+    <row r="671" ht="14.25" spans="1:21">
+      <c r="A671">
+        <v>614</v>
+      </c>
+      <c r="B671" t="s">
+        <v>220</v>
+      </c>
+      <c r="C671" t="s">
+        <v>214</v>
+      </c>
+      <c r="N671" s="39" t="s">
+        <v>290</v>
+      </c>
+      <c r="O671" t="s">
+        <v>583</v>
+      </c>
+      <c r="P671">
+        <v>749</v>
+      </c>
+      <c r="Q671">
+        <v>361</v>
+      </c>
+      <c r="R671">
+        <v>54</v>
+      </c>
+      <c r="S671">
+        <v>135</v>
+      </c>
+      <c r="T671">
+        <v>127</v>
+      </c>
+      <c r="U671" s="40" t="s">
+        <v>1596</v>
+      </c>
+    </row>
+    <row r="672" ht="14.25" spans="1:21">
+      <c r="A672">
+        <v>615</v>
+      </c>
+      <c r="B672" t="s">
+        <v>220</v>
+      </c>
+      <c r="C672" t="s">
+        <v>214</v>
+      </c>
+      <c r="N672" s="39" t="s">
+        <v>290</v>
+      </c>
+      <c r="O672" t="s">
+        <v>581</v>
+      </c>
+      <c r="P672">
+        <v>411</v>
+      </c>
+      <c r="Q672">
+        <v>198</v>
+      </c>
+      <c r="R672">
+        <v>40</v>
+      </c>
+      <c r="S672">
+        <v>79</v>
+      </c>
+      <c r="T672">
+        <v>68</v>
+      </c>
+      <c r="U672" s="40" t="s">
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="673" ht="14.25" spans="1:21">
+      <c r="A673">
+        <v>616</v>
+      </c>
+      <c r="B673" t="s">
+        <v>223</v>
+      </c>
+      <c r="C673" t="s">
+        <v>214</v>
+      </c>
+      <c r="D673">
+        <v>6.8</v>
+      </c>
+      <c r="E673">
+        <v>1.8</v>
+      </c>
+      <c r="F673">
+        <v>0.9</v>
+      </c>
+      <c r="G673">
+        <v>0.58</v>
+      </c>
+      <c r="H673">
+        <v>0.23</v>
+      </c>
+      <c r="I673">
+        <v>23</v>
+      </c>
+      <c r="J673">
+        <v>2.01</v>
+      </c>
+      <c r="K673">
+        <v>84</v>
+      </c>
+      <c r="L673" t="s">
+        <v>1598</v>
+      </c>
+      <c r="M673" t="s">
+        <v>1599</v>
+      </c>
+      <c r="N673" s="39" t="s">
+        <v>697</v>
+      </c>
+      <c r="O673" t="s">
+        <v>593</v>
+      </c>
+      <c r="P673" s="39">
+        <v>448</v>
+      </c>
+      <c r="Q673" s="39">
+        <v>118</v>
+      </c>
+      <c r="R673" s="39">
+        <v>38</v>
+      </c>
+      <c r="S673" s="39">
+        <v>61</v>
+      </c>
+      <c r="T673" s="39">
+        <v>15</v>
+      </c>
+      <c r="U673" s="40" t="s">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="674" ht="14.25" spans="1:21">
+      <c r="A674">
+        <v>617</v>
+      </c>
+      <c r="B674" t="s">
+        <v>223</v>
+      </c>
+      <c r="C674" t="s">
+        <v>214</v>
+      </c>
+      <c r="N674" s="39" t="s">
+        <v>697</v>
+      </c>
+      <c r="O674" t="s">
+        <v>589</v>
+      </c>
+      <c r="P674" s="39">
+        <v>189</v>
+      </c>
+      <c r="Q674" s="39">
+        <v>47</v>
+      </c>
+      <c r="R674" s="39">
+        <v>24</v>
+      </c>
+      <c r="S674" s="39">
+        <v>19</v>
+      </c>
+      <c r="T674" s="39">
+        <v>10</v>
+      </c>
+      <c r="U674" s="40" t="s">
+        <v>1601</v>
       </c>
     </row>
   </sheetData>
@@ -32173,7 +37563,7 @@
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A8"/>
+      <selection activeCell="A1" sqref="A1:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/网站相关/data.xlsx
+++ b/网站相关/data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="球队信息" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4957" uniqueCount="1602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666">
   <si>
     <t>主键</t>
   </si>
@@ -4527,6 +4527,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t> </t>
     </r>
     <r>
@@ -4703,6 +4709,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>2016年全明星正赛MVP</t>
     </r>
     <r>
@@ -4862,16 +4874,208 @@
   <si>
     <t>0.8篮板0.3助攻0.39抢断0.16盖帽3.1分</t>
   </si>
+  <si>
+    <t>2014年第1轮第1顺位</t>
+  </si>
+  <si>
+    <t>4年2484万美元，2014年夏天签，2018年夏天到期，2016-17赛季、2017-18赛季球队选项；2017年10月以5年1.48亿美元提前续约，2018年夏天生效，2023年到期</t>
+  </si>
+  <si>
+    <t>4.8篮板2.4助攻1抢断0.66盖帽17.7分</t>
+  </si>
+  <si>
+    <t>2015    全明星新秀挑战赛MVP</t>
+  </si>
+  <si>
+    <t>4.4篮板2.0助攻1.11抢断0.62盖帽17.7分</t>
+  </si>
+  <si>
+    <t>2015    NBA最佳新秀阵容第一队</t>
+  </si>
+  <si>
+    <t>4.0篮板2.3助攻1抢断0.37盖帽23.6分</t>
+  </si>
+  <si>
+    <t>3.6篮板2.0助攻0.96抢断0.57盖帽20.7分</t>
+  </si>
+  <si>
+    <t>4.6篮板2.1助攻1.05抢断0.61盖帽16.9分</t>
+  </si>
+  <si>
+    <t>2009年第1轮第19顺位</t>
+  </si>
+  <si>
+    <t>3年5700万美元，2017年夏天签，2020年夏天到期，2019-2020赛季球员选项</t>
+  </si>
+  <si>
+    <t>2.5篮板8.2助攻1.02抢断0.43盖帽12.1分</t>
+  </si>
+  <si>
+    <t>2015年全明星东部替补阵容</t>
+  </si>
+  <si>
+    <t>3.0篮板7.0助攻1.46抢断0.33盖帽14.2分</t>
+  </si>
+  <si>
+    <t>4.0篮板7.8助攻1.22抢断0.39盖帽15.3分</t>
+  </si>
+  <si>
+    <t>2.7篮板5.9助攻1.23抢断0.30盖帽15.7分</t>
+  </si>
+  <si>
+    <t>2.5篮板7.0助攻1.71抢断0.42盖帽15.9分</t>
+  </si>
+  <si>
+    <t>2.6篮板6.7助攻1.13抢断0.22盖帽16.5分</t>
+  </si>
+  <si>
+    <t>2.2篮板7.2助攻1.46抢断0.35盖帽14.6分</t>
+  </si>
+  <si>
+    <t>2.4篮板4.9助攻1.61抢断0.56盖帽12.6分</t>
+  </si>
+  <si>
+    <t>1.5篮板2.0助攻0.64抢断0.36盖帽5.2分</t>
+  </si>
+  <si>
+    <t>0.9篮板1.7助攻0.48抢断0.15盖帽3.2分</t>
+  </si>
+  <si>
+    <t>2015年第1轮第1顺位</t>
+  </si>
+  <si>
+    <t>4年2572万美元，2015年夏天签，2019年夏天到期。2018年夏天提前续约5年1.58亿美元，2019年夏天生效</t>
+  </si>
+  <si>
+    <t>12.5篮板3.3助攻0.90抢断1.65盖帽24.7分</t>
+  </si>
+  <si>
+    <t>12.3篮板2.4助攻0.78抢断1.40盖帽21.3分</t>
+  </si>
+  <si>
+    <t>2017-18赛季NBA最佳阵容三阵</t>
+  </si>
+  <si>
+    <t>12.3篮板2.7助攻0.68抢断1.26盖帽25.1分</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016年全明星技巧赛冠军 </t>
+  </si>
+  <si>
+    <t>10.5篮板2.0助攻0.71抢断1.68盖帽18.3分</t>
+  </si>
+  <si>
+    <t>2015-16赛季最佳新秀</t>
+  </si>
+  <si>
+    <t>2008年第1轮第1顺位</t>
+  </si>
+  <si>
+    <t>1年240万美元，2018年夏天签，2019年夏天到期</t>
+  </si>
+  <si>
+    <t>2.7篮板4.3助攻0.61抢断0.24盖帽18.0分</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2011-12    NBA全明星首发</t>
+  </si>
+  <si>
+    <t>0.7篮板1.2助攻0.44抢断0盖帽5.8分</t>
+  </si>
+  <si>
+    <t>2010-11    NBA全明星首发</t>
+  </si>
+  <si>
+    <t>1.8篮板1.6助攻0.19抢断0.25盖帽9.8分</t>
+  </si>
+  <si>
+    <t>2010-11NBA最佳阵容第一阵容</t>
+  </si>
+  <si>
+    <t>3.8篮板4.4助攻0.69抢断0.27盖帽18.0分</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2009 NBA技巧大赛冠军 </t>
+  </si>
+  <si>
+    <t>3.4篮板4.7助攻0.67抢断0.21盖帽16.4分</t>
+  </si>
+  <si>
+    <t>2008-09NBA最佳新秀</t>
+  </si>
+  <si>
+    <t>3.2篮板4.9助攻0.71抢断0.31盖帽17.7分</t>
+  </si>
+  <si>
+    <t>2008-09 NBA最佳新秀阵容第一阵容</t>
+  </si>
+  <si>
+    <t>3.2篮板4.3助攻0.50抢断0.10盖帽15.9分</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2010-11NBA常规赛MVP </t>
+  </si>
+  <si>
+    <t>3.4篮板7.9助攻0.90抢断0.72盖帽21.8分</t>
+  </si>
+  <si>
+    <t>4.1篮板7.7助攻1.05抢断0.63盖帽25.0分</t>
+  </si>
+  <si>
+    <t>3.8篮板6.0助攻0.73抢断0.35盖帽20.8分</t>
+  </si>
+  <si>
+    <t>3.9篮板6.3助攻0.81抢断0.22盖帽16.8分</t>
+  </si>
+  <si>
+    <t>2009年第1轮第26顺位</t>
+  </si>
+  <si>
+    <t>2年2800万美元，2017年夏天签，2019年夏天到期</t>
+  </si>
+  <si>
+    <t>6.5篮板1.2助攻0.76抢断0.56盖帽10.8分</t>
+  </si>
+  <si>
+    <t>7.1篮板1.2助攻0.76抢断0.72盖帽12.2分</t>
+  </si>
+  <si>
+    <t>4.5篮板0.6助攻0.61抢断0.65盖帽9.0分</t>
+  </si>
+  <si>
+    <t>6.9篮板1.1助攻0.49抢断0.91盖帽11.6分</t>
+  </si>
+  <si>
+    <t>6.9篮板1.5助攻0.64抢断1.05盖帽8.6分</t>
+  </si>
+  <si>
+    <t>6.4篮板1.1助攻0.58抢断1.21盖帽10.3分</t>
+  </si>
+  <si>
+    <t>6.8篮板1.1助攻0.50抢断1.37盖帽13.0分</t>
+  </si>
+  <si>
+    <t>5.3篮板0.9助攻0.42抢断1.38盖帽8.0分</t>
+  </si>
+  <si>
+    <t>5.3篮板0.7助攻0.43抢断1.29盖帽7.7分</t>
+  </si>
+  <si>
+    <t>5.7篮板0.7助攻0.49抢断1.32盖帽7.1分</t>
+  </si>
+  <si>
+    <t>7.5篮板0.9助攻0.61抢断1.27盖帽9.0分</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="31">
     <font>
@@ -4963,13 +5167,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -4977,7 +5174,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4999,32 +5241,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5046,28 +5287,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -5075,24 +5294,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5119,7 +5323,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5131,25 +5341,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5167,49 +5383,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5221,13 +5401,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5239,55 +5437,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5300,6 +5456,54 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5526,6 +5730,54 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -5565,21 +5817,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -5587,39 +5824,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5631,10 +5835,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="17" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5643,19 +5847,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5664,116 +5868,116 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -5893,12 +6097,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -9165,7 +9363,7 @@
       <c r="C192" t="s">
         <v>227</v>
       </c>
-      <c r="J192" s="43" t="s">
+      <c r="J192" s="41" t="s">
         <v>233</v>
       </c>
     </row>
@@ -9401,7 +9599,7 @@
       <c r="C208" t="s">
         <v>243</v>
       </c>
-      <c r="J208" s="45" t="s">
+      <c r="J208" s="43" t="s">
         <v>251</v>
       </c>
     </row>
@@ -9519,7 +9717,7 @@
       <c r="E216">
         <v>18</v>
       </c>
-      <c r="F216" s="44">
+      <c r="F216" s="42">
         <v>0.743</v>
       </c>
       <c r="G216" t="s">
@@ -9915,7 +10113,7 @@
       <c r="C243" t="s">
         <v>276</v>
       </c>
-      <c r="J243" s="46" t="s">
+      <c r="J243" s="44" t="s">
         <v>289</v>
       </c>
     </row>
@@ -9997,7 +10195,7 @@
       <c r="C248" t="s">
         <v>299</v>
       </c>
-      <c r="J248" s="43" t="s">
+      <c r="J248" s="41" t="s">
         <v>300</v>
       </c>
     </row>
@@ -10095,7 +10293,7 @@
       <c r="C255" t="s">
         <v>313</v>
       </c>
-      <c r="J255" s="43" t="s">
+      <c r="J255" s="41" t="s">
         <v>314</v>
       </c>
     </row>
@@ -10109,7 +10307,7 @@
       <c r="C256" t="s">
         <v>315</v>
       </c>
-      <c r="J256" s="43" t="s">
+      <c r="J256" s="41" t="s">
         <v>316</v>
       </c>
     </row>
@@ -10469,7 +10667,7 @@
       <c r="C280" t="s">
         <v>336</v>
       </c>
-      <c r="J280" s="43" t="s">
+      <c r="J280" s="41" t="s">
         <v>344</v>
       </c>
     </row>
@@ -10677,7 +10875,7 @@
       <c r="C294" t="s">
         <v>351</v>
       </c>
-      <c r="J294" s="43" t="s">
+      <c r="J294" s="41" t="s">
         <v>359</v>
       </c>
     </row>
@@ -12673,10 +12871,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X674"/>
+  <dimension ref="A1:X716"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A645" workbookViewId="0">
-      <selection activeCell="A673" sqref="A673:C674"/>
+    <sheetView tabSelected="1" topLeftCell="A680" workbookViewId="0">
+      <selection activeCell="M708" sqref="M708"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -32841,28 +33039,28 @@
       <c r="M547" t="s">
         <v>1391</v>
       </c>
-      <c r="N547" s="39" t="s">
+      <c r="N547" s="32" t="s">
         <v>150</v>
       </c>
       <c r="O547" t="s">
         <v>593</v>
       </c>
-      <c r="P547" s="39">
+      <c r="P547" s="32">
         <v>1478</v>
       </c>
-      <c r="Q547" s="39">
+      <c r="Q547" s="32">
         <v>462</v>
       </c>
-      <c r="R547" s="39">
+      <c r="R547" s="32">
         <v>72</v>
       </c>
-      <c r="S547" s="39">
+      <c r="S547" s="32">
         <v>445</v>
       </c>
-      <c r="T547" s="39">
+      <c r="T547" s="32">
         <v>33</v>
       </c>
-      <c r="U547" s="40" t="s">
+      <c r="U547" s="37" t="s">
         <v>1392</v>
       </c>
       <c r="W547" t="s">
@@ -32879,28 +33077,28 @@
       <c r="C548" t="s">
         <v>150</v>
       </c>
-      <c r="N548" s="39" t="s">
+      <c r="N548" s="32" t="s">
         <v>1382</v>
       </c>
       <c r="O548" t="s">
         <v>589</v>
       </c>
-      <c r="P548" s="39">
+      <c r="P548" s="32">
         <v>2251</v>
       </c>
-      <c r="Q548" s="39">
+      <c r="Q548" s="32">
         <v>709</v>
       </c>
-      <c r="R548" s="39">
+      <c r="R548" s="32">
         <v>116</v>
       </c>
-      <c r="S548" s="39">
+      <c r="S548" s="32">
         <v>747</v>
       </c>
-      <c r="T548" s="39">
+      <c r="T548" s="32">
         <v>71</v>
       </c>
-      <c r="U548" s="40" t="s">
+      <c r="U548" s="37" t="s">
         <v>1394</v>
       </c>
       <c r="W548" t="s">
@@ -32917,28 +33115,28 @@
       <c r="C549" t="s">
         <v>150</v>
       </c>
-      <c r="N549" s="39" t="s">
+      <c r="N549" s="32" t="s">
         <v>1382</v>
       </c>
       <c r="O549" t="s">
         <v>586</v>
       </c>
-      <c r="P549" s="39">
+      <c r="P549" s="32">
         <v>1954</v>
       </c>
-      <c r="Q549" s="39">
+      <c r="Q549" s="32">
         <v>639</v>
       </c>
-      <c r="R549" s="39">
+      <c r="R549" s="32">
         <v>92</v>
       </c>
-      <c r="S549" s="39">
+      <c r="S549" s="32">
         <v>646</v>
       </c>
-      <c r="T549" s="39">
+      <c r="T549" s="32">
         <v>44</v>
       </c>
-      <c r="U549" s="40" t="s">
+      <c r="U549" s="37" t="s">
         <v>1396</v>
       </c>
       <c r="W549" t="s">
@@ -32955,28 +33153,28 @@
       <c r="C550" t="s">
         <v>150</v>
       </c>
-      <c r="N550" s="39" t="s">
+      <c r="N550" s="32" t="s">
         <v>1382</v>
       </c>
       <c r="O550" t="s">
         <v>583</v>
       </c>
-      <c r="P550" s="39">
+      <c r="P550" s="32">
         <v>1920</v>
       </c>
-      <c r="Q550" s="39">
+      <c r="Q550" s="32">
         <v>565</v>
       </c>
-      <c r="R550" s="39">
+      <c r="R550" s="32">
         <v>104</v>
       </c>
-      <c r="S550" s="39">
+      <c r="S550" s="32">
         <v>514</v>
       </c>
-      <c r="T550" s="39">
+      <c r="T550" s="32">
         <v>49</v>
       </c>
-      <c r="U550" s="40" t="s">
+      <c r="U550" s="37" t="s">
         <v>1398</v>
       </c>
       <c r="W550" t="s">
@@ -32993,28 +33191,28 @@
       <c r="C551" t="s">
         <v>150</v>
       </c>
-      <c r="N551" s="39" t="s">
+      <c r="N551" s="32" t="s">
         <v>1382</v>
       </c>
       <c r="O551" t="s">
         <v>581</v>
       </c>
-      <c r="P551" s="39">
+      <c r="P551" s="32">
         <v>1743</v>
       </c>
-      <c r="Q551" s="39">
+      <c r="Q551" s="32">
         <v>416</v>
       </c>
-      <c r="R551" s="39">
+      <c r="R551" s="32">
         <v>109</v>
       </c>
-      <c r="S551" s="39">
+      <c r="S551" s="32">
         <v>511</v>
       </c>
-      <c r="T551" s="39">
+      <c r="T551" s="32">
         <v>49</v>
       </c>
-      <c r="U551" s="40" t="s">
+      <c r="U551" s="37" t="s">
         <v>1400</v>
       </c>
       <c r="W551" t="s">
@@ -33031,28 +33229,28 @@
       <c r="C552" t="s">
         <v>150</v>
       </c>
-      <c r="N552" s="39" t="s">
+      <c r="N552" s="32" t="s">
         <v>365</v>
       </c>
       <c r="O552" t="s">
         <v>579</v>
       </c>
-      <c r="P552" s="39">
+      <c r="P552" s="32">
         <v>2089</v>
       </c>
-      <c r="Q552" s="39">
+      <c r="Q552" s="32">
         <v>533</v>
       </c>
-      <c r="R552" s="39">
+      <c r="R552" s="32">
         <v>121</v>
       </c>
-      <c r="S552" s="39">
+      <c r="S552" s="32">
         <v>488</v>
       </c>
-      <c r="T552" s="39">
+      <c r="T552" s="32">
         <v>26</v>
       </c>
-      <c r="U552" s="40" t="s">
+      <c r="U552" s="37" t="s">
         <v>1402</v>
       </c>
       <c r="W552" t="s">
@@ -33069,28 +33267,28 @@
       <c r="C553" t="s">
         <v>150</v>
       </c>
-      <c r="N553" s="39" t="s">
+      <c r="N553" s="32" t="s">
         <v>365</v>
       </c>
       <c r="O553" t="s">
         <v>577</v>
       </c>
-      <c r="P553" s="39">
+      <c r="P553" s="32">
         <v>2036</v>
       </c>
-      <c r="Q553" s="39">
+      <c r="Q553" s="32">
         <v>610</v>
       </c>
-      <c r="R553" s="39">
+      <c r="R553" s="32">
         <v>129</v>
       </c>
-      <c r="S553" s="39">
+      <c r="S553" s="32">
         <v>551</v>
       </c>
-      <c r="T553" s="39">
+      <c r="T553" s="32">
         <v>67</v>
       </c>
-      <c r="U553" s="40" t="s">
+      <c r="U553" s="37" t="s">
         <v>1404</v>
       </c>
       <c r="W553" t="s">
@@ -33107,28 +33305,28 @@
       <c r="C554" t="s">
         <v>150</v>
       </c>
-      <c r="N554" s="39" t="s">
+      <c r="N554" s="32" t="s">
         <v>365</v>
       </c>
       <c r="O554" t="s">
         <v>575</v>
       </c>
-      <c r="P554" s="39">
+      <c r="P554" s="32">
         <v>1683</v>
       </c>
-      <c r="Q554" s="39">
+      <c r="Q554" s="32">
         <v>492</v>
       </c>
-      <c r="R554" s="39">
+      <c r="R554" s="32">
         <v>115</v>
       </c>
-      <c r="S554" s="39">
+      <c r="S554" s="32">
         <v>387</v>
       </c>
-      <c r="T554" s="39">
+      <c r="T554" s="32">
         <v>50</v>
       </c>
-      <c r="U554" s="40" t="s">
+      <c r="U554" s="37" t="s">
         <v>1406</v>
       </c>
       <c r="W554" t="s">
@@ -33145,28 +33343,28 @@
       <c r="C555" t="s">
         <v>150</v>
       </c>
-      <c r="N555" s="39" t="s">
+      <c r="N555" s="32" t="s">
         <v>365</v>
       </c>
       <c r="O555" t="s">
         <v>572</v>
       </c>
-      <c r="P555" s="39">
+      <c r="P555" s="32">
         <v>2111</v>
       </c>
-      <c r="Q555" s="39">
+      <c r="Q555" s="32">
         <v>590</v>
       </c>
-      <c r="R555" s="39">
+      <c r="R555" s="32">
         <v>124</v>
       </c>
-      <c r="S555" s="39">
+      <c r="S555" s="32">
         <v>554</v>
       </c>
-      <c r="T555" s="39">
+      <c r="T555" s="32">
         <v>50</v>
       </c>
-      <c r="U555" s="40" t="s">
+      <c r="U555" s="37" t="s">
         <v>1408</v>
       </c>
       <c r="W555" t="s">
@@ -33183,28 +33381,28 @@
       <c r="C556" t="s">
         <v>150</v>
       </c>
-      <c r="N556" s="39" t="s">
+      <c r="N556" s="32" t="s">
         <v>1382</v>
       </c>
       <c r="O556" t="s">
         <v>570</v>
       </c>
-      <c r="P556" s="39">
+      <c r="P556" s="32">
         <v>2258</v>
       </c>
-      <c r="Q556" s="39">
+      <c r="Q556" s="32">
         <v>554</v>
       </c>
-      <c r="R556" s="39">
+      <c r="R556" s="32">
         <v>125</v>
       </c>
-      <c r="S556" s="39">
+      <c r="S556" s="32">
         <v>651</v>
       </c>
-      <c r="T556" s="39">
+      <c r="T556" s="32">
         <v>77</v>
       </c>
-      <c r="U556" s="40" t="s">
+      <c r="U556" s="37" t="s">
         <v>1410</v>
       </c>
       <c r="W556" t="s">
@@ -33221,28 +33419,28 @@
       <c r="C557" t="s">
         <v>150</v>
       </c>
-      <c r="N557" s="39" t="s">
+      <c r="N557" s="32" t="s">
         <v>1382</v>
       </c>
       <c r="O557" t="s">
         <v>568</v>
       </c>
-      <c r="P557" s="39">
+      <c r="P557" s="32">
         <v>2304</v>
       </c>
-      <c r="Q557" s="39">
+      <c r="Q557" s="32">
         <v>613</v>
       </c>
-      <c r="R557" s="39">
+      <c r="R557" s="32">
         <v>137</v>
       </c>
-      <c r="S557" s="39">
+      <c r="S557" s="32">
         <v>587</v>
       </c>
-      <c r="T557" s="39">
+      <c r="T557" s="32">
         <v>93</v>
       </c>
-      <c r="U557" s="40" t="s">
+      <c r="U557" s="37" t="s">
         <v>1412</v>
       </c>
       <c r="W557" t="s">
@@ -33259,28 +33457,28 @@
       <c r="C558" t="s">
         <v>150</v>
       </c>
-      <c r="N558" s="39" t="s">
+      <c r="N558" s="32" t="s">
         <v>1382</v>
       </c>
       <c r="O558" t="s">
         <v>653</v>
       </c>
-      <c r="P558" s="39">
+      <c r="P558" s="32">
         <v>2250</v>
       </c>
-      <c r="Q558" s="39">
+      <c r="Q558" s="32">
         <v>592</v>
       </c>
-      <c r="R558" s="39">
+      <c r="R558" s="32">
         <v>138</v>
       </c>
-      <c r="S558" s="39">
+      <c r="S558" s="32">
         <v>539</v>
       </c>
-      <c r="T558" s="39">
+      <c r="T558" s="32">
         <v>81</v>
       </c>
-      <c r="U558" s="40" t="s">
+      <c r="U558" s="37" t="s">
         <v>1414</v>
       </c>
       <c r="W558" t="s">
@@ -33297,28 +33495,28 @@
       <c r="C559" t="s">
         <v>150</v>
       </c>
-      <c r="N559" s="39" t="s">
+      <c r="N559" s="32" t="s">
         <v>1382</v>
       </c>
       <c r="O559" t="s">
         <v>650</v>
       </c>
-      <c r="P559" s="39">
+      <c r="P559" s="32">
         <v>2132</v>
       </c>
-      <c r="Q559" s="39">
+      <c r="Q559" s="32">
         <v>526</v>
       </c>
-      <c r="R559" s="39">
+      <c r="R559" s="32">
         <v>125</v>
       </c>
-      <c r="S559" s="39">
+      <c r="S559" s="32">
         <v>470</v>
       </c>
-      <c r="T559" s="39">
+      <c r="T559" s="32">
         <v>55</v>
       </c>
-      <c r="U559" s="40" t="s">
+      <c r="U559" s="37" t="s">
         <v>1416</v>
       </c>
       <c r="W559" t="s">
@@ -33335,28 +33533,28 @@
       <c r="C560" t="s">
         <v>150</v>
       </c>
-      <c r="N560" s="39" t="s">
+      <c r="N560" s="32" t="s">
         <v>1382</v>
       </c>
       <c r="O560" t="s">
         <v>647</v>
       </c>
-      <c r="P560" s="39">
+      <c r="P560" s="32">
         <v>2478</v>
       </c>
-      <c r="Q560" s="39">
+      <c r="Q560" s="32">
         <v>556</v>
       </c>
-      <c r="R560" s="39">
+      <c r="R560" s="32">
         <v>123</v>
       </c>
-      <c r="S560" s="39">
+      <c r="S560" s="32">
         <v>521</v>
       </c>
-      <c r="T560" s="39">
+      <c r="T560" s="32">
         <v>66</v>
       </c>
-      <c r="U560" s="40" t="s">
+      <c r="U560" s="37" t="s">
         <v>1418</v>
       </c>
       <c r="W560" t="s">
@@ -33373,28 +33571,28 @@
       <c r="C561" t="s">
         <v>150</v>
       </c>
-      <c r="N561" s="39" t="s">
+      <c r="N561" s="32" t="s">
         <v>1382</v>
       </c>
       <c r="O561" t="s">
         <v>986</v>
       </c>
-      <c r="P561" s="39">
+      <c r="P561" s="32">
         <v>2175</v>
       </c>
-      <c r="Q561" s="39">
+      <c r="Q561" s="32">
         <v>588</v>
       </c>
-      <c r="R561" s="39">
+      <c r="R561" s="32">
         <v>177</v>
       </c>
-      <c r="S561" s="39">
+      <c r="S561" s="32">
         <v>577</v>
       </c>
-      <c r="T561" s="39">
+      <c r="T561" s="32">
         <v>52</v>
       </c>
-      <c r="U561" s="40" t="s">
+      <c r="U561" s="37" t="s">
         <v>1420</v>
       </c>
       <c r="W561" t="s">
@@ -33411,28 +33609,28 @@
       <c r="C562" t="s">
         <v>150</v>
       </c>
-      <c r="N562" s="39" t="s">
+      <c r="N562" s="32" t="s">
         <v>1382</v>
       </c>
       <c r="O562" t="s">
         <v>989</v>
       </c>
-      <c r="P562" s="39">
+      <c r="P562" s="32">
         <v>1654</v>
       </c>
-      <c r="Q562" s="39">
+      <c r="Q562" s="32">
         <v>432</v>
       </c>
-      <c r="R562" s="39">
+      <c r="R562" s="32">
         <v>130</v>
       </c>
-      <c r="S562" s="39">
+      <c r="S562" s="32">
         <v>465</v>
       </c>
-      <c r="T562" s="39">
+      <c r="T562" s="32">
         <v>58</v>
       </c>
-      <c r="U562" s="40" t="s">
+      <c r="U562" s="37" t="s">
         <v>1422</v>
       </c>
       <c r="W562" t="s">
@@ -33633,28 +33831,28 @@
       <c r="M574" t="s">
         <v>1436</v>
       </c>
-      <c r="N574" s="39" t="s">
+      <c r="N574" s="32" t="s">
         <v>150</v>
       </c>
       <c r="O574" t="s">
         <v>593</v>
       </c>
-      <c r="P574" s="39">
+      <c r="P574" s="32">
         <v>465</v>
       </c>
-      <c r="Q574" s="39">
+      <c r="Q574" s="32">
         <v>251</v>
       </c>
-      <c r="R574" s="39">
+      <c r="R574" s="32">
         <v>69</v>
       </c>
-      <c r="S574" s="39">
+      <c r="S574" s="32">
         <v>255</v>
       </c>
-      <c r="T574" s="39">
+      <c r="T574" s="32">
         <v>19</v>
       </c>
-      <c r="U574" s="40" t="s">
+      <c r="U574" s="37" t="s">
         <v>1437</v>
       </c>
       <c r="W574" t="s">
@@ -33671,28 +33869,28 @@
       <c r="C575" t="s">
         <v>150</v>
       </c>
-      <c r="N575" s="39" t="s">
+      <c r="N575" s="32" t="s">
         <v>150</v>
       </c>
       <c r="O575" t="s">
         <v>589</v>
       </c>
-      <c r="P575" s="39">
+      <c r="P575" s="32">
         <v>528</v>
       </c>
-      <c r="Q575" s="39">
+      <c r="Q575" s="32">
         <v>360</v>
       </c>
-      <c r="R575" s="39">
+      <c r="R575" s="32">
         <v>88</v>
       </c>
-      <c r="S575" s="39">
+      <c r="S575" s="32">
         <v>376</v>
       </c>
-      <c r="T575" s="39">
+      <c r="T575" s="32">
         <v>43</v>
       </c>
-      <c r="U575" s="40" t="s">
+      <c r="U575" s="37" t="s">
         <v>1439</v>
       </c>
     </row>
@@ -33736,28 +33934,28 @@
       <c r="M576" t="s">
         <v>1441</v>
       </c>
-      <c r="N576" s="39" t="s">
+      <c r="N576" s="32" t="s">
         <v>150</v>
       </c>
       <c r="O576" t="s">
         <v>593</v>
       </c>
-      <c r="P576" s="39">
+      <c r="P576" s="32">
         <v>950</v>
       </c>
-      <c r="Q576" s="39">
+      <c r="Q576" s="32">
         <v>267</v>
       </c>
-      <c r="R576" s="39">
+      <c r="R576" s="32">
         <v>28</v>
       </c>
-      <c r="S576" s="39">
+      <c r="S576" s="32">
         <v>154</v>
       </c>
-      <c r="T576" s="39">
+      <c r="T576" s="32">
         <v>31</v>
       </c>
-      <c r="U576" s="40" t="s">
+      <c r="U576" s="37" t="s">
         <v>1442</v>
       </c>
       <c r="W576" t="s">
@@ -33774,28 +33972,28 @@
       <c r="C577" t="s">
         <v>150</v>
       </c>
-      <c r="N577" s="39" t="s">
+      <c r="N577" s="32" t="s">
         <v>150</v>
       </c>
       <c r="O577" t="s">
         <v>589</v>
       </c>
-      <c r="P577" s="39">
+      <c r="P577" s="32">
         <v>949</v>
       </c>
-      <c r="Q577" s="39">
+      <c r="Q577" s="32">
         <v>314</v>
       </c>
-      <c r="R577" s="39">
+      <c r="R577" s="32">
         <v>45</v>
       </c>
-      <c r="S577" s="39">
+      <c r="S577" s="32">
         <v>230</v>
       </c>
-      <c r="T577" s="39">
+      <c r="T577" s="32">
         <v>43</v>
       </c>
-      <c r="U577" s="40" t="s">
+      <c r="U577" s="37" t="s">
         <v>1444</v>
       </c>
     </row>
@@ -33809,28 +34007,28 @@
       <c r="C578" t="s">
         <v>150</v>
       </c>
-      <c r="N578" s="39" t="s">
+      <c r="N578" s="32" t="s">
         <v>150</v>
       </c>
       <c r="O578" t="s">
         <v>586</v>
       </c>
-      <c r="P578" s="39">
+      <c r="P578" s="32">
         <v>740</v>
       </c>
-      <c r="Q578" s="39">
+      <c r="Q578" s="32">
         <v>316</v>
       </c>
-      <c r="R578" s="39">
+      <c r="R578" s="32">
         <v>50</v>
       </c>
-      <c r="S578" s="39">
+      <c r="S578" s="32">
         <v>166</v>
       </c>
-      <c r="T578" s="39">
+      <c r="T578" s="32">
         <v>36</v>
       </c>
-      <c r="U578" s="40" t="s">
+      <c r="U578" s="37" t="s">
         <v>1445</v>
       </c>
     </row>
@@ -33874,28 +34072,28 @@
       <c r="M579" t="s">
         <v>1447</v>
       </c>
-      <c r="N579" s="39" t="s">
+      <c r="N579" s="32" t="s">
         <v>150</v>
       </c>
       <c r="O579" t="s">
         <v>593</v>
       </c>
-      <c r="P579" s="39">
+      <c r="P579" s="32">
         <v>1267</v>
       </c>
-      <c r="Q579" s="39">
+      <c r="Q579" s="32">
         <v>377</v>
       </c>
-      <c r="R579" s="39">
+      <c r="R579" s="32">
         <v>41</v>
       </c>
-      <c r="S579" s="39">
+      <c r="S579" s="32">
         <v>177</v>
       </c>
-      <c r="T579" s="39">
+      <c r="T579" s="32">
         <v>24</v>
       </c>
-      <c r="U579" s="40" t="s">
+      <c r="U579" s="37" t="s">
         <v>1448</v>
       </c>
       <c r="W579" t="s">
@@ -33912,28 +34110,28 @@
       <c r="C580" t="s">
         <v>150</v>
       </c>
-      <c r="N580" s="39" t="s">
+      <c r="N580" s="32" t="s">
         <v>150</v>
       </c>
       <c r="O580" t="s">
         <v>589</v>
       </c>
-      <c r="P580" s="39">
+      <c r="P580" s="32">
         <v>1242</v>
       </c>
-      <c r="Q580" s="39">
+      <c r="Q580" s="32">
         <v>483</v>
       </c>
-      <c r="R580" s="39">
+      <c r="R580" s="32">
         <v>49</v>
       </c>
-      <c r="S580" s="39">
+      <c r="S580" s="32">
         <v>141</v>
       </c>
-      <c r="T580" s="39">
+      <c r="T580" s="32">
         <v>34</v>
       </c>
-      <c r="U580" s="40" t="s">
+      <c r="U580" s="37" t="s">
         <v>1450</v>
       </c>
       <c r="W580" t="s">
@@ -33974,34 +34172,34 @@
       <c r="K581">
         <v>122</v>
       </c>
-      <c r="L581" s="41" t="s">
+      <c r="L581" s="5" t="s">
         <v>1452</v>
       </c>
       <c r="M581" t="s">
         <v>1453</v>
       </c>
-      <c r="N581" s="39" t="s">
+      <c r="N581" s="32" t="s">
         <v>150</v>
       </c>
       <c r="O581" t="s">
         <v>593</v>
       </c>
-      <c r="P581" s="39">
+      <c r="P581" s="32">
         <v>779</v>
       </c>
-      <c r="Q581" s="39">
+      <c r="Q581" s="32">
         <v>486</v>
       </c>
-      <c r="R581" s="39">
+      <c r="R581" s="32">
         <v>44</v>
       </c>
-      <c r="S581" s="39">
+      <c r="S581" s="32">
         <v>40</v>
       </c>
-      <c r="T581" s="39">
+      <c r="T581" s="32">
         <v>134</v>
       </c>
-      <c r="U581" s="40" t="s">
+      <c r="U581" s="37" t="s">
         <v>1454</v>
       </c>
       <c r="W581" t="s">
@@ -34018,28 +34216,28 @@
       <c r="C582" t="s">
         <v>150</v>
       </c>
-      <c r="N582" s="39" t="s">
+      <c r="N582" s="32" t="s">
         <v>106</v>
       </c>
       <c r="O582" t="s">
         <v>589</v>
       </c>
-      <c r="P582" s="39">
+      <c r="P582" s="32">
         <v>310</v>
       </c>
-      <c r="Q582" s="39">
+      <c r="Q582" s="32">
         <v>169</v>
       </c>
-      <c r="R582" s="39">
+      <c r="R582" s="32">
         <v>21</v>
       </c>
-      <c r="S582" s="39">
+      <c r="S582" s="32">
         <v>33</v>
       </c>
-      <c r="T582" s="39">
+      <c r="T582" s="32">
         <v>57</v>
       </c>
-      <c r="U582" s="40" t="s">
+      <c r="U582" s="37" t="s">
         <v>1455</v>
       </c>
     </row>
@@ -34053,28 +34251,28 @@
       <c r="C583" t="s">
         <v>150</v>
       </c>
-      <c r="N583" s="39" t="s">
+      <c r="N583" s="32" t="s">
         <v>106</v>
       </c>
       <c r="O583" t="s">
         <v>586</v>
       </c>
-      <c r="P583" s="39">
+      <c r="P583" s="32">
         <v>472</v>
       </c>
-      <c r="Q583" s="39">
+      <c r="Q583" s="32">
         <v>244</v>
       </c>
-      <c r="R583" s="39">
+      <c r="R583" s="32">
         <v>19</v>
       </c>
-      <c r="S583" s="39">
+      <c r="S583" s="32">
         <v>17</v>
       </c>
-      <c r="T583" s="39">
+      <c r="T583" s="32">
         <v>67</v>
       </c>
-      <c r="U583" s="40" t="s">
+      <c r="U583" s="37" t="s">
         <v>1456</v>
       </c>
     </row>
@@ -34088,28 +34286,28 @@
       <c r="C584" t="s">
         <v>150</v>
       </c>
-      <c r="N584" s="39" t="s">
+      <c r="N584" s="32" t="s">
         <v>961</v>
       </c>
       <c r="O584" t="s">
         <v>583</v>
       </c>
-      <c r="P584" s="39">
+      <c r="P584" s="32">
         <v>172</v>
       </c>
-      <c r="Q584" s="39">
+      <c r="Q584" s="32">
         <v>133</v>
       </c>
-      <c r="R584" s="39">
+      <c r="R584" s="32">
         <v>5</v>
       </c>
-      <c r="S584" s="39">
+      <c r="S584" s="32">
         <v>3</v>
       </c>
-      <c r="T584" s="39">
+      <c r="T584" s="32">
         <v>26</v>
       </c>
-      <c r="U584" s="40" t="s">
+      <c r="U584" s="37" t="s">
         <v>1457</v>
       </c>
     </row>
@@ -34123,28 +34321,28 @@
       <c r="C585" t="s">
         <v>150</v>
       </c>
-      <c r="N585" s="39" t="s">
+      <c r="N585" s="32" t="s">
         <v>290</v>
       </c>
       <c r="O585" t="s">
         <v>581</v>
       </c>
-      <c r="P585" s="39">
+      <c r="P585" s="32">
         <v>18</v>
       </c>
-      <c r="Q585" s="39">
+      <c r="Q585" s="32">
         <v>13</v>
       </c>
-      <c r="R585" s="39">
+      <c r="R585" s="32">
         <v>0</v>
       </c>
-      <c r="S585" s="39">
+      <c r="S585" s="32">
         <v>2</v>
       </c>
-      <c r="T585" s="39">
+      <c r="T585" s="32">
         <v>1</v>
       </c>
-      <c r="U585" s="40" t="s">
+      <c r="U585" s="37" t="s">
         <v>1458</v>
       </c>
     </row>
@@ -34158,28 +34356,28 @@
       <c r="C586" t="s">
         <v>150</v>
       </c>
-      <c r="N586" s="39" t="s">
+      <c r="N586" s="32" t="s">
         <v>181</v>
       </c>
       <c r="O586" t="s">
         <v>581</v>
       </c>
-      <c r="P586" s="39">
+      <c r="P586" s="32">
         <v>88</v>
       </c>
-      <c r="Q586" s="39">
+      <c r="Q586" s="32">
         <v>48</v>
       </c>
-      <c r="R586" s="39">
+      <c r="R586" s="32">
         <v>2</v>
       </c>
-      <c r="S586" s="39">
+      <c r="S586" s="32">
         <v>1</v>
       </c>
-      <c r="T586" s="39">
+      <c r="T586" s="32">
         <v>19</v>
       </c>
-      <c r="U586" s="40" t="s">
+      <c r="U586" s="37" t="s">
         <v>1459</v>
       </c>
     </row>
@@ -34193,28 +34391,28 @@
       <c r="C587" t="s">
         <v>150</v>
       </c>
-      <c r="N587" s="39" t="s">
+      <c r="N587" s="32" t="s">
         <v>181</v>
       </c>
       <c r="O587" t="s">
         <v>579</v>
       </c>
-      <c r="P587" s="39">
+      <c r="P587" s="32">
         <v>35</v>
       </c>
-      <c r="Q587" s="39">
+      <c r="Q587" s="32">
         <v>17</v>
       </c>
-      <c r="R587" s="39">
+      <c r="R587" s="32">
         <v>1</v>
       </c>
-      <c r="S587" s="39">
+      <c r="S587" s="32">
         <v>2</v>
       </c>
-      <c r="T587" s="39">
+      <c r="T587" s="32">
         <v>7</v>
       </c>
-      <c r="U587" s="40" t="s">
+      <c r="U587" s="37" t="s">
         <v>1460</v>
       </c>
     </row>
@@ -34228,28 +34426,28 @@
       <c r="C588" t="s">
         <v>150</v>
       </c>
-      <c r="N588" s="39" t="s">
+      <c r="N588" s="32" t="s">
         <v>181</v>
       </c>
       <c r="O588" t="s">
         <v>577</v>
       </c>
-      <c r="P588" s="39">
+      <c r="P588" s="32">
         <v>717</v>
       </c>
-      <c r="Q588" s="39">
+      <c r="Q588" s="32">
         <v>381</v>
       </c>
-      <c r="R588" s="39">
+      <c r="R588" s="32">
         <v>30</v>
       </c>
-      <c r="S588" s="39">
+      <c r="S588" s="32">
         <v>24</v>
       </c>
-      <c r="T588" s="39">
+      <c r="T588" s="32">
         <v>157</v>
       </c>
-      <c r="U588" s="40" t="s">
+      <c r="U588" s="37" t="s">
         <v>1461</v>
       </c>
     </row>
@@ -34263,28 +34461,28 @@
       <c r="C589" t="s">
         <v>150</v>
       </c>
-      <c r="N589" s="39" t="s">
+      <c r="N589" s="32" t="s">
         <v>181</v>
       </c>
       <c r="O589" t="s">
         <v>575</v>
       </c>
-      <c r="P589" s="39">
+      <c r="P589" s="32">
         <v>205</v>
       </c>
-      <c r="Q589" s="39">
+      <c r="Q589" s="32">
         <v>115</v>
       </c>
-      <c r="R589" s="39">
+      <c r="R589" s="32">
         <v>10</v>
       </c>
-      <c r="S589" s="39">
+      <c r="S589" s="32">
         <v>6</v>
       </c>
-      <c r="T589" s="39">
+      <c r="T589" s="32">
         <v>31</v>
       </c>
-      <c r="U589" s="40" t="s">
+      <c r="U589" s="37" t="s">
         <v>1462</v>
       </c>
     </row>
@@ -34298,28 +34496,28 @@
       <c r="C590" t="s">
         <v>150</v>
       </c>
-      <c r="N590" s="39" t="s">
+      <c r="N590" s="32" t="s">
         <v>411</v>
       </c>
       <c r="O590" t="s">
         <v>575</v>
       </c>
-      <c r="P590" s="39">
+      <c r="P590" s="32">
         <v>486</v>
       </c>
-      <c r="Q590" s="39">
+      <c r="Q590" s="32">
         <v>362</v>
       </c>
-      <c r="R590" s="39">
+      <c r="R590" s="32">
         <v>25</v>
       </c>
-      <c r="S590" s="39">
+      <c r="S590" s="32">
         <v>25</v>
       </c>
-      <c r="T590" s="39">
+      <c r="T590" s="32">
         <v>101</v>
       </c>
-      <c r="U590" s="40" t="s">
+      <c r="U590" s="37" t="s">
         <v>1463</v>
       </c>
     </row>
@@ -34333,28 +34531,28 @@
       <c r="C591" t="s">
         <v>150</v>
       </c>
-      <c r="N591" s="39" t="s">
+      <c r="N591" s="32" t="s">
         <v>411</v>
       </c>
       <c r="O591" t="s">
         <v>572</v>
       </c>
-      <c r="P591" s="39">
+      <c r="P591" s="32">
         <v>798</v>
       </c>
-      <c r="Q591" s="39">
+      <c r="Q591" s="32">
         <v>634</v>
       </c>
-      <c r="R591" s="39">
+      <c r="R591" s="32">
         <v>41</v>
       </c>
-      <c r="S591" s="39">
+      <c r="S591" s="32">
         <v>38</v>
       </c>
-      <c r="T591" s="39">
+      <c r="T591" s="32">
         <v>193</v>
       </c>
-      <c r="U591" s="40" t="s">
+      <c r="U591" s="37" t="s">
         <v>1464</v>
       </c>
     </row>
@@ -34368,28 +34566,28 @@
       <c r="C592" t="s">
         <v>150</v>
       </c>
-      <c r="N592" s="39" t="s">
+      <c r="N592" s="32" t="s">
         <v>411</v>
       </c>
       <c r="O592" t="s">
         <v>570</v>
       </c>
-      <c r="P592" s="39">
+      <c r="P592" s="32">
         <v>386</v>
       </c>
-      <c r="Q592" s="39">
+      <c r="Q592" s="32">
         <v>243</v>
       </c>
-      <c r="R592" s="39">
+      <c r="R592" s="32">
         <v>16</v>
       </c>
-      <c r="S592" s="39">
+      <c r="S592" s="32">
         <v>14</v>
       </c>
-      <c r="T592" s="39">
+      <c r="T592" s="32">
         <v>101</v>
       </c>
-      <c r="U592" s="40" t="s">
+      <c r="U592" s="37" t="s">
         <v>1465</v>
       </c>
     </row>
@@ -34403,28 +34601,28 @@
       <c r="C593" t="s">
         <v>150</v>
       </c>
-      <c r="N593" s="39" t="s">
+      <c r="N593" s="32" t="s">
         <v>411</v>
       </c>
       <c r="O593" t="s">
         <v>568</v>
       </c>
-      <c r="P593" s="39">
+      <c r="P593" s="32">
         <v>489</v>
       </c>
-      <c r="Q593" s="39">
+      <c r="Q593" s="32">
         <v>294</v>
       </c>
-      <c r="R593" s="39">
+      <c r="R593" s="32">
         <v>33</v>
       </c>
-      <c r="S593" s="39">
+      <c r="S593" s="32">
         <v>23</v>
       </c>
-      <c r="T593" s="39">
+      <c r="T593" s="32">
         <v>75</v>
       </c>
-      <c r="U593" s="40" t="s">
+      <c r="U593" s="37" t="s">
         <v>1466</v>
       </c>
     </row>
@@ -34468,28 +34666,28 @@
       <c r="M594" t="s">
         <v>1468</v>
       </c>
-      <c r="N594" s="39" t="s">
+      <c r="N594" s="32" t="s">
         <v>150</v>
       </c>
       <c r="O594" t="s">
         <v>593</v>
       </c>
-      <c r="P594" s="39">
+      <c r="P594" s="32">
         <v>356</v>
       </c>
-      <c r="Q594" s="39">
+      <c r="Q594" s="32">
         <v>207</v>
       </c>
-      <c r="R594" s="39">
+      <c r="R594" s="32">
         <v>44</v>
       </c>
-      <c r="S594" s="39">
+      <c r="S594" s="32">
         <v>309</v>
       </c>
-      <c r="T594" s="39">
+      <c r="T594" s="32">
         <v>6</v>
       </c>
-      <c r="U594" s="40" t="s">
+      <c r="U594" s="37" t="s">
         <v>1469</v>
       </c>
       <c r="W594" t="s">
@@ -34506,28 +34704,28 @@
       <c r="C595" t="s">
         <v>150</v>
       </c>
-      <c r="N595" s="39" t="s">
+      <c r="N595" s="32" t="s">
         <v>56</v>
       </c>
       <c r="O595" t="s">
         <v>589</v>
       </c>
-      <c r="P595" s="39">
+      <c r="P595" s="32">
         <v>537</v>
       </c>
-      <c r="Q595" s="39">
+      <c r="Q595" s="32">
         <v>263</v>
       </c>
-      <c r="R595" s="39">
+      <c r="R595" s="32">
         <v>70</v>
       </c>
-      <c r="S595" s="39">
+      <c r="S595" s="32">
         <v>533</v>
       </c>
-      <c r="T595" s="39">
+      <c r="T595" s="32">
         <v>10</v>
       </c>
-      <c r="U595" s="40" t="s">
+      <c r="U595" s="37" t="s">
         <v>1471</v>
       </c>
       <c r="W595" t="s">
@@ -34544,31 +34742,31 @@
       <c r="C596" t="s">
         <v>150</v>
       </c>
-      <c r="N596" s="39" t="s">
+      <c r="N596" s="32" t="s">
         <v>470</v>
       </c>
       <c r="O596" t="s">
         <v>586</v>
       </c>
-      <c r="P596" s="39">
+      <c r="P596" s="32">
         <v>538</v>
       </c>
-      <c r="Q596" s="39">
+      <c r="Q596" s="32">
         <v>355</v>
       </c>
-      <c r="R596" s="39">
+      <c r="R596" s="32">
         <v>99</v>
       </c>
-      <c r="S596" s="39">
+      <c r="S596" s="32">
         <v>461</v>
       </c>
-      <c r="T596" s="39">
+      <c r="T596" s="32">
         <v>11</v>
       </c>
-      <c r="U596" s="40" t="s">
+      <c r="U596" s="37" t="s">
         <v>1473</v>
       </c>
-      <c r="W596" s="42" t="s">
+      <c r="W596" s="7" t="s">
         <v>1474</v>
       </c>
     </row>
@@ -34582,28 +34780,28 @@
       <c r="C597" t="s">
         <v>150</v>
       </c>
-      <c r="N597" s="39" t="s">
+      <c r="N597" s="32" t="s">
         <v>136</v>
       </c>
       <c r="O597" t="s">
         <v>583</v>
       </c>
-      <c r="P597" s="39">
+      <c r="P597" s="32">
         <v>859</v>
       </c>
-      <c r="Q597" s="39">
+      <c r="Q597" s="32">
         <v>435</v>
       </c>
-      <c r="R597" s="39">
+      <c r="R597" s="32">
         <v>141</v>
       </c>
-      <c r="S597" s="39">
+      <c r="S597" s="32">
         <v>839</v>
       </c>
-      <c r="T597" s="39">
+      <c r="T597" s="32">
         <v>10</v>
       </c>
-      <c r="U597" s="40" t="s">
+      <c r="U597" s="37" t="s">
         <v>1475</v>
       </c>
       <c r="W597" t="s">
@@ -34620,28 +34818,28 @@
       <c r="C598" t="s">
         <v>150</v>
       </c>
-      <c r="N598" s="39" t="s">
+      <c r="N598" s="32" t="s">
         <v>961</v>
       </c>
       <c r="O598" t="s">
         <v>581</v>
       </c>
-      <c r="P598" s="39">
+      <c r="P598" s="32">
         <v>426</v>
       </c>
-      <c r="Q598" s="39">
+      <c r="Q598" s="32">
         <v>208</v>
       </c>
-      <c r="R598" s="39">
+      <c r="R598" s="32">
         <v>54</v>
       </c>
-      <c r="S598" s="39">
+      <c r="S598" s="32">
         <v>301</v>
       </c>
-      <c r="T598" s="39">
+      <c r="T598" s="32">
         <v>4</v>
       </c>
-      <c r="U598" s="40" t="s">
+      <c r="U598" s="37" t="s">
         <v>1477</v>
       </c>
       <c r="W598" t="s">
@@ -34658,28 +34856,28 @@
       <c r="C599" t="s">
         <v>150</v>
       </c>
-      <c r="N599" s="39" t="s">
+      <c r="N599" s="32" t="s">
         <v>321</v>
       </c>
       <c r="O599" t="s">
         <v>581</v>
       </c>
-      <c r="P599" s="39">
+      <c r="P599" s="32">
         <v>182</v>
       </c>
-      <c r="Q599" s="39">
+      <c r="Q599" s="32">
         <v>165</v>
       </c>
-      <c r="R599" s="39">
+      <c r="R599" s="32">
         <v>37</v>
       </c>
-      <c r="S599" s="39">
+      <c r="S599" s="32">
         <v>237</v>
       </c>
-      <c r="T599" s="39">
+      <c r="T599" s="32">
         <v>3</v>
       </c>
-      <c r="U599" s="40" t="s">
+      <c r="U599" s="37" t="s">
         <v>1479</v>
       </c>
       <c r="W599" t="s">
@@ -34696,31 +34894,31 @@
       <c r="C600" t="s">
         <v>150</v>
       </c>
-      <c r="N600" s="39" t="s">
+      <c r="N600" s="32" t="s">
         <v>321</v>
       </c>
       <c r="O600" t="s">
         <v>579</v>
       </c>
-      <c r="P600" s="39">
+      <c r="P600" s="32">
         <v>350</v>
       </c>
-      <c r="Q600" s="39">
+      <c r="Q600" s="32">
         <v>164</v>
       </c>
-      <c r="R600" s="39">
+      <c r="R600" s="32">
         <v>40</v>
       </c>
-      <c r="S600" s="39">
+      <c r="S600" s="32">
         <v>294</v>
       </c>
-      <c r="T600" s="39">
+      <c r="T600" s="32">
         <v>2</v>
       </c>
-      <c r="U600" s="40" t="s">
+      <c r="U600" s="37" t="s">
         <v>1481</v>
       </c>
-      <c r="W600" s="42" t="s">
+      <c r="W600" s="7" t="s">
         <v>1482</v>
       </c>
     </row>
@@ -34734,28 +34932,28 @@
       <c r="C601" t="s">
         <v>150</v>
       </c>
-      <c r="N601" s="39" t="s">
+      <c r="N601" s="32" t="s">
         <v>321</v>
       </c>
       <c r="O601" t="s">
         <v>577</v>
       </c>
-      <c r="P601" s="39">
+      <c r="P601" s="32">
         <v>522</v>
       </c>
-      <c r="Q601" s="39">
+      <c r="Q601" s="32">
         <v>212</v>
       </c>
-      <c r="R601" s="39">
+      <c r="R601" s="32">
         <v>70</v>
       </c>
-      <c r="S601" s="39">
+      <c r="S601" s="32">
         <v>420</v>
       </c>
-      <c r="T601" s="39">
+      <c r="T601" s="32">
         <v>9</v>
       </c>
-      <c r="U601" s="40" t="s">
+      <c r="U601" s="37" t="s">
         <v>1483</v>
       </c>
       <c r="W601" t="s">
@@ -34772,28 +34970,28 @@
       <c r="C602" t="s">
         <v>150</v>
       </c>
-      <c r="N602" s="39" t="s">
+      <c r="N602" s="32" t="s">
         <v>321</v>
       </c>
       <c r="O602" t="s">
         <v>575</v>
       </c>
-      <c r="P602" s="39">
+      <c r="P602" s="32">
         <v>630</v>
       </c>
-      <c r="Q602" s="39">
+      <c r="Q602" s="32">
         <v>257</v>
       </c>
-      <c r="R602" s="39">
+      <c r="R602" s="32">
         <v>95</v>
       </c>
-      <c r="S602" s="39">
+      <c r="S602" s="32">
         <v>620</v>
       </c>
-      <c r="T602" s="39">
+      <c r="T602" s="32">
         <v>3</v>
       </c>
-      <c r="U602" s="40" t="s">
+      <c r="U602" s="37" t="s">
         <v>1485</v>
       </c>
       <c r="W602" t="s">
@@ -34810,28 +35008,28 @@
       <c r="C603" t="s">
         <v>150</v>
       </c>
-      <c r="N603" s="39" t="s">
+      <c r="N603" s="32" t="s">
         <v>321</v>
       </c>
       <c r="O603" t="s">
         <v>572</v>
       </c>
-      <c r="P603" s="39">
+      <c r="P603" s="32">
         <v>721</v>
       </c>
-      <c r="Q603" s="39">
+      <c r="Q603" s="32">
         <v>297</v>
       </c>
-      <c r="R603" s="39">
+      <c r="R603" s="32">
         <v>153</v>
       </c>
-      <c r="S603" s="39">
+      <c r="S603" s="32">
         <v>760</v>
       </c>
-      <c r="T603" s="39">
+      <c r="T603" s="32">
         <v>11</v>
       </c>
-      <c r="U603" s="40" t="s">
+      <c r="U603" s="37" t="s">
         <v>1487</v>
       </c>
       <c r="W603" t="s">
@@ -34848,28 +35046,28 @@
       <c r="C604" t="s">
         <v>150</v>
       </c>
-      <c r="N604" s="39" t="s">
+      <c r="N604" s="32" t="s">
         <v>321</v>
       </c>
       <c r="O604" t="s">
         <v>570</v>
       </c>
-      <c r="P604" s="39">
+      <c r="P604" s="32">
         <v>1110</v>
       </c>
-      <c r="Q604" s="39">
+      <c r="Q604" s="32">
         <v>360</v>
       </c>
-      <c r="R604" s="39">
+      <c r="R604" s="32">
         <v>189</v>
       </c>
-      <c r="S604" s="39">
+      <c r="S604" s="32">
         <v>794</v>
       </c>
-      <c r="T604" s="39">
+      <c r="T604" s="32">
         <v>11</v>
       </c>
-      <c r="U604" s="40" t="s">
+      <c r="U604" s="37" t="s">
         <v>1489</v>
       </c>
       <c r="W604" t="s">
@@ -34886,28 +35084,28 @@
       <c r="C605" t="s">
         <v>150</v>
       </c>
-      <c r="N605" s="39" t="s">
+      <c r="N605" s="32" t="s">
         <v>321</v>
       </c>
       <c r="O605" t="s">
         <v>568</v>
       </c>
-      <c r="P605" s="39">
+      <c r="P605" s="32">
         <v>953</v>
       </c>
-      <c r="Q605" s="39">
+      <c r="Q605" s="32">
         <v>416</v>
       </c>
-      <c r="R605" s="39">
+      <c r="R605" s="32">
         <v>149</v>
       </c>
-      <c r="S605" s="39">
+      <c r="S605" s="32">
         <v>659</v>
       </c>
-      <c r="T605" s="39">
+      <c r="T605" s="32">
         <v>11</v>
       </c>
-      <c r="U605" s="40" t="s">
+      <c r="U605" s="37" t="s">
         <v>1491</v>
       </c>
       <c r="W605" t="s">
@@ -34924,28 +35122,28 @@
       <c r="C606" t="s">
         <v>150</v>
       </c>
-      <c r="N606" s="39" t="s">
+      <c r="N606" s="32" t="s">
         <v>321</v>
       </c>
       <c r="O606" t="s">
         <v>653</v>
       </c>
-      <c r="P606" s="39">
+      <c r="P606" s="32">
         <v>814</v>
       </c>
-      <c r="Q606" s="39">
+      <c r="Q606" s="32">
         <v>322</v>
       </c>
-      <c r="R606" s="39">
+      <c r="R606" s="32">
         <v>129</v>
       </c>
-      <c r="S606" s="39">
+      <c r="S606" s="32">
         <v>393</v>
       </c>
-      <c r="T606" s="39">
+      <c r="T606" s="32">
         <v>13</v>
       </c>
-      <c r="U606" s="40" t="s">
+      <c r="U606" s="37" t="s">
         <v>1493</v>
       </c>
       <c r="W606" t="s">
@@ -34962,28 +35160,28 @@
       <c r="C607" t="s">
         <v>150</v>
       </c>
-      <c r="N607" s="39" t="s">
+      <c r="N607" s="32" t="s">
         <v>321</v>
       </c>
       <c r="O607" t="s">
         <v>650</v>
       </c>
-      <c r="P607" s="39">
+      <c r="P607" s="32">
         <v>501</v>
       </c>
-      <c r="Q607" s="39">
+      <c r="Q607" s="32">
         <v>292</v>
       </c>
-      <c r="R607" s="39">
+      <c r="R607" s="32">
         <v>128</v>
       </c>
-      <c r="S607" s="39">
+      <c r="S607" s="32">
         <v>297</v>
       </c>
-      <c r="T607" s="39">
+      <c r="T607" s="32">
         <v>8</v>
       </c>
-      <c r="U607" s="40" t="s">
+      <c r="U607" s="37" t="s">
         <v>1495</v>
       </c>
       <c r="W607" t="s">
@@ -35000,7 +35198,7 @@
       <c r="C608" t="s">
         <v>150</v>
       </c>
-      <c r="W608" s="42" t="s">
+      <c r="W608" s="7" t="s">
         <v>1497</v>
       </c>
     </row>
@@ -35044,28 +35242,28 @@
       <c r="M609" t="s">
         <v>1499</v>
       </c>
-      <c r="N609" s="39" t="s">
+      <c r="N609" s="32" t="s">
         <v>167</v>
       </c>
       <c r="O609" t="s">
         <v>593</v>
       </c>
-      <c r="P609" s="39">
+      <c r="P609" s="32">
         <v>772</v>
       </c>
-      <c r="Q609" s="39">
+      <c r="Q609" s="32">
         <v>174</v>
       </c>
-      <c r="R609" s="39">
+      <c r="R609" s="32">
         <v>51</v>
       </c>
-      <c r="S609" s="39">
+      <c r="S609" s="32">
         <v>64</v>
       </c>
-      <c r="T609" s="39">
+      <c r="T609" s="32">
         <v>29</v>
       </c>
-      <c r="U609" s="40" t="s">
+      <c r="U609" s="37" t="s">
         <v>1500</v>
       </c>
     </row>
@@ -35079,28 +35277,28 @@
       <c r="C610" t="s">
         <v>167</v>
       </c>
-      <c r="N610" s="39" t="s">
+      <c r="N610" s="32" t="s">
         <v>167</v>
       </c>
       <c r="O610" t="s">
         <v>589</v>
       </c>
-      <c r="P610" s="39">
+      <c r="P610" s="32">
         <v>1271</v>
       </c>
-      <c r="Q610" s="39">
+      <c r="Q610" s="32">
         <v>333</v>
       </c>
-      <c r="R610" s="39">
+      <c r="R610" s="32">
         <v>65</v>
       </c>
-      <c r="S610" s="39">
+      <c r="S610" s="32">
         <v>85</v>
       </c>
-      <c r="T610" s="39">
+      <c r="T610" s="32">
         <v>41</v>
       </c>
-      <c r="U610" s="40" t="s">
+      <c r="U610" s="37" t="s">
         <v>1501</v>
       </c>
     </row>
@@ -35114,28 +35312,28 @@
       <c r="C611" t="s">
         <v>167</v>
       </c>
-      <c r="N611" s="39" t="s">
+      <c r="N611" s="32" t="s">
         <v>167</v>
       </c>
       <c r="O611" t="s">
         <v>586</v>
       </c>
-      <c r="P611" s="39">
+      <c r="P611" s="32">
         <v>951</v>
       </c>
-      <c r="Q611" s="39">
+      <c r="Q611" s="32">
         <v>339</v>
       </c>
-      <c r="R611" s="39">
+      <c r="R611" s="32">
         <v>76</v>
       </c>
-      <c r="S611" s="39">
+      <c r="S611" s="32">
         <v>75</v>
       </c>
-      <c r="T611" s="39">
+      <c r="T611" s="32">
         <v>39</v>
       </c>
-      <c r="U611" s="40" t="s">
+      <c r="U611" s="37" t="s">
         <v>1502</v>
       </c>
     </row>
@@ -35149,28 +35347,28 @@
       <c r="C612" t="s">
         <v>167</v>
       </c>
-      <c r="N612" s="39" t="s">
+      <c r="N612" s="32" t="s">
         <v>167</v>
       </c>
       <c r="O612" t="s">
         <v>583</v>
       </c>
-      <c r="P612" s="39">
+      <c r="P612" s="32">
         <v>515</v>
       </c>
-      <c r="Q612" s="39">
+      <c r="Q612" s="32">
         <v>147</v>
       </c>
-      <c r="R612" s="39">
+      <c r="R612" s="32">
         <v>37</v>
       </c>
-      <c r="S612" s="39">
+      <c r="S612" s="32">
         <v>44</v>
       </c>
-      <c r="T612" s="39">
+      <c r="T612" s="32">
         <v>16</v>
       </c>
-      <c r="U612" s="40" t="s">
+      <c r="U612" s="37" t="s">
         <v>1503</v>
       </c>
     </row>
@@ -35184,28 +35382,28 @@
       <c r="C613" t="s">
         <v>167</v>
       </c>
-      <c r="N613" s="39" t="s">
+      <c r="N613" s="32" t="s">
         <v>167</v>
       </c>
       <c r="O613" t="s">
         <v>581</v>
       </c>
-      <c r="P613" s="39">
+      <c r="P613" s="32">
         <v>245</v>
       </c>
-      <c r="Q613" s="39">
+      <c r="Q613" s="32">
         <v>85</v>
       </c>
-      <c r="R613" s="39">
+      <c r="R613" s="32">
         <v>18</v>
       </c>
-      <c r="S613" s="39">
+      <c r="S613" s="32">
         <v>25</v>
       </c>
-      <c r="T613" s="39">
+      <c r="T613" s="32">
         <v>9</v>
       </c>
-      <c r="U613" s="40" t="s">
+      <c r="U613" s="37" t="s">
         <v>1504</v>
       </c>
     </row>
@@ -35314,28 +35512,28 @@
       <c r="M615" t="s">
         <v>1509</v>
       </c>
-      <c r="N615" s="39" t="s">
+      <c r="N615" s="32" t="s">
         <v>167</v>
       </c>
       <c r="O615" t="s">
         <v>593</v>
       </c>
-      <c r="P615" s="39">
+      <c r="P615" s="32">
         <v>805</v>
       </c>
-      <c r="Q615" s="39">
+      <c r="Q615" s="32">
         <v>303</v>
       </c>
-      <c r="R615" s="39">
+      <c r="R615" s="32">
         <v>68</v>
       </c>
-      <c r="S615" s="39">
+      <c r="S615" s="32">
         <v>164</v>
       </c>
-      <c r="T615" s="39">
+      <c r="T615" s="32">
         <v>48</v>
       </c>
-      <c r="U615" s="40" t="s">
+      <c r="U615" s="37" t="s">
         <v>1510</v>
       </c>
       <c r="W615" t="s">
@@ -35352,28 +35550,28 @@
       <c r="C616" t="s">
         <v>167</v>
       </c>
-      <c r="N616" s="39" t="s">
+      <c r="N616" s="32" t="s">
         <v>167</v>
       </c>
       <c r="O616" t="s">
         <v>589</v>
       </c>
-      <c r="P616" s="39">
+      <c r="P616" s="32">
         <v>1012</v>
       </c>
-      <c r="Q616" s="39">
+      <c r="Q616" s="32">
         <v>351</v>
       </c>
-      <c r="R616" s="39">
+      <c r="R616" s="32">
         <v>80</v>
       </c>
-      <c r="S616" s="39">
+      <c r="S616" s="32">
         <v>119</v>
       </c>
-      <c r="T616" s="39">
+      <c r="T616" s="32">
         <v>35</v>
       </c>
-      <c r="U616" s="40" t="s">
+      <c r="U616" s="37" t="s">
         <v>1511</v>
       </c>
     </row>
@@ -35411,34 +35609,34 @@
       <c r="K617">
         <v>93</v>
       </c>
-      <c r="L617" s="41" t="s">
+      <c r="L617" s="5" t="s">
         <v>1512</v>
       </c>
       <c r="M617" t="s">
         <v>1513</v>
       </c>
-      <c r="N617" s="39" t="s">
+      <c r="N617" s="32" t="s">
         <v>167</v>
       </c>
       <c r="O617" t="s">
         <v>593</v>
       </c>
-      <c r="P617" s="39">
+      <c r="P617" s="32">
         <v>1569</v>
       </c>
-      <c r="Q617" s="39">
+      <c r="Q617" s="32">
         <v>249</v>
       </c>
-      <c r="R617" s="39">
+      <c r="R617" s="32">
         <v>55</v>
       </c>
-      <c r="S617" s="39">
+      <c r="S617" s="32">
         <v>404</v>
       </c>
-      <c r="T617" s="39">
+      <c r="T617" s="32">
         <v>12</v>
       </c>
-      <c r="U617" s="40" t="s">
+      <c r="U617" s="37" t="s">
         <v>1514</v>
       </c>
       <c r="W617" t="s">
@@ -35455,28 +35653,28 @@
       <c r="C618" t="s">
         <v>167</v>
       </c>
-      <c r="N618" s="39" t="s">
+      <c r="N618" s="32" t="s">
         <v>167</v>
       </c>
       <c r="O618" t="s">
         <v>589</v>
       </c>
-      <c r="P618" s="39">
+      <c r="P618" s="32">
         <v>1346</v>
       </c>
-      <c r="Q618" s="39">
+      <c r="Q618" s="32">
         <v>244</v>
       </c>
-      <c r="R618" s="39">
+      <c r="R618" s="32">
         <v>47</v>
       </c>
-      <c r="S618" s="39">
+      <c r="S618" s="32">
         <v>253</v>
       </c>
-      <c r="T618" s="39">
+      <c r="T618" s="32">
         <v>14</v>
       </c>
-      <c r="U618" s="40" t="s">
+      <c r="U618" s="37" t="s">
         <v>1516</v>
       </c>
       <c r="W618" t="s">
@@ -35493,28 +35691,28 @@
       <c r="C619" t="s">
         <v>167</v>
       </c>
-      <c r="N619" s="39" t="s">
+      <c r="N619" s="32" t="s">
         <v>167</v>
       </c>
       <c r="O619" t="s">
         <v>586</v>
       </c>
-      <c r="P619" s="39">
+      <c r="P619" s="32">
         <v>1726</v>
       </c>
-      <c r="Q619" s="39">
+      <c r="Q619" s="32">
         <v>249</v>
       </c>
-      <c r="R619" s="39">
+      <c r="R619" s="32">
         <v>72</v>
       </c>
-      <c r="S619" s="39">
+      <c r="S619" s="32">
         <v>268</v>
       </c>
-      <c r="T619" s="39">
+      <c r="T619" s="32">
         <v>21</v>
       </c>
-      <c r="U619" s="40" t="s">
+      <c r="U619" s="37" t="s">
         <v>1518</v>
       </c>
     </row>
@@ -35528,28 +35726,28 @@
       <c r="C620" t="s">
         <v>167</v>
       </c>
-      <c r="N620" s="39" t="s">
+      <c r="N620" s="32" t="s">
         <v>167</v>
       </c>
       <c r="O620" t="s">
         <v>583</v>
       </c>
-      <c r="P620" s="39">
+      <c r="P620" s="32">
         <v>1048</v>
       </c>
-      <c r="Q620" s="39">
+      <c r="Q620" s="32">
         <v>187</v>
       </c>
-      <c r="R620" s="39">
+      <c r="R620" s="32">
         <v>44</v>
       </c>
-      <c r="S620" s="39">
+      <c r="S620" s="32">
         <v>200</v>
       </c>
-      <c r="T620" s="39">
+      <c r="T620" s="32">
         <v>20</v>
       </c>
-      <c r="U620" s="40" t="s">
+      <c r="U620" s="37" t="s">
         <v>1519</v>
       </c>
     </row>
@@ -35593,28 +35791,28 @@
       <c r="M621" t="s">
         <v>1521</v>
       </c>
-      <c r="N621" s="39" t="s">
+      <c r="N621" s="32" t="s">
         <v>167</v>
       </c>
       <c r="O621" t="s">
         <v>593</v>
       </c>
-      <c r="P621" s="39">
+      <c r="P621" s="32">
         <v>674</v>
       </c>
-      <c r="Q621" s="39">
+      <c r="Q621" s="32">
         <v>196</v>
       </c>
-      <c r="R621" s="39">
+      <c r="R621" s="32">
         <v>57</v>
       </c>
-      <c r="S621" s="39">
+      <c r="S621" s="32">
         <v>64</v>
       </c>
-      <c r="T621" s="39">
+      <c r="T621" s="32">
         <v>39</v>
       </c>
-      <c r="U621" s="40" t="s">
+      <c r="U621" s="37" t="s">
         <v>1522</v>
       </c>
     </row>
@@ -35628,28 +35826,28 @@
       <c r="C622" t="s">
         <v>167</v>
       </c>
-      <c r="N622" s="39" t="s">
+      <c r="N622" s="32" t="s">
         <v>411</v>
       </c>
       <c r="O622" t="s">
         <v>593</v>
       </c>
-      <c r="P622" s="39">
+      <c r="P622" s="32">
         <v>373</v>
       </c>
-      <c r="Q622" s="39">
+      <c r="Q622" s="32">
         <v>129</v>
       </c>
-      <c r="R622" s="39">
+      <c r="R622" s="32">
         <v>27</v>
       </c>
-      <c r="S622" s="39">
+      <c r="S622" s="32">
         <v>20</v>
       </c>
-      <c r="T622" s="39">
+      <c r="T622" s="32">
         <v>20</v>
       </c>
-      <c r="U622" s="40" t="s">
+      <c r="U622" s="37" t="s">
         <v>1523</v>
       </c>
     </row>
@@ -35663,28 +35861,28 @@
       <c r="C623" t="s">
         <v>167</v>
       </c>
-      <c r="N623" s="39" t="s">
+      <c r="N623" s="32" t="s">
         <v>411</v>
       </c>
       <c r="O623" t="s">
         <v>589</v>
       </c>
-      <c r="P623" s="39">
+      <c r="P623" s="32">
         <v>953</v>
       </c>
-      <c r="Q623" s="39">
+      <c r="Q623" s="32">
         <v>363</v>
       </c>
-      <c r="R623" s="39">
+      <c r="R623" s="32">
         <v>80</v>
       </c>
-      <c r="S623" s="39">
+      <c r="S623" s="32">
         <v>98</v>
       </c>
-      <c r="T623" s="39">
+      <c r="T623" s="32">
         <v>35</v>
       </c>
-      <c r="U623" s="40" t="s">
+      <c r="U623" s="37" t="s">
         <v>1524</v>
       </c>
     </row>
@@ -35698,28 +35896,28 @@
       <c r="C624" t="s">
         <v>167</v>
       </c>
-      <c r="N624" s="39" t="s">
+      <c r="N624" s="32" t="s">
         <v>411</v>
       </c>
       <c r="O624" t="s">
         <v>586</v>
       </c>
-      <c r="P624" s="39">
+      <c r="P624" s="32">
         <v>501</v>
       </c>
-      <c r="Q624" s="39">
+      <c r="Q624" s="32">
         <v>261</v>
       </c>
-      <c r="R624" s="39">
+      <c r="R624" s="32">
         <v>58</v>
       </c>
-      <c r="S624" s="39">
+      <c r="S624" s="32">
         <v>47</v>
       </c>
-      <c r="T624" s="39">
+      <c r="T624" s="32">
         <v>17</v>
       </c>
-      <c r="U624" s="40" t="s">
+      <c r="U624" s="37" t="s">
         <v>1525</v>
       </c>
     </row>
@@ -35733,28 +35931,28 @@
       <c r="C625" t="s">
         <v>167</v>
       </c>
-      <c r="N625" s="39" t="s">
+      <c r="N625" s="32" t="s">
         <v>411</v>
       </c>
       <c r="O625" t="s">
         <v>583</v>
       </c>
-      <c r="P625" s="39">
+      <c r="P625" s="32">
         <v>236</v>
       </c>
-      <c r="Q625" s="39">
+      <c r="Q625" s="32">
         <v>133</v>
       </c>
-      <c r="R625" s="39">
+      <c r="R625" s="32">
         <v>22</v>
       </c>
-      <c r="S625" s="39">
+      <c r="S625" s="32">
         <v>13</v>
       </c>
-      <c r="T625" s="39">
+      <c r="T625" s="32">
         <v>7</v>
       </c>
-      <c r="U625" s="40" t="s">
+      <c r="U625" s="37" t="s">
         <v>1526</v>
       </c>
     </row>
@@ -35792,34 +35990,34 @@
       <c r="K626">
         <v>91</v>
       </c>
-      <c r="L626" s="41" t="s">
+      <c r="L626" s="5" t="s">
         <v>1527</v>
       </c>
       <c r="M626" t="s">
         <v>1528</v>
       </c>
-      <c r="N626" s="39" t="s">
+      <c r="N626" s="32" t="s">
         <v>697</v>
       </c>
       <c r="O626" t="s">
         <v>593</v>
       </c>
-      <c r="P626" s="39">
+      <c r="P626" s="32">
         <v>1496</v>
       </c>
-      <c r="Q626" s="39">
+      <c r="Q626" s="32">
         <v>715</v>
       </c>
-      <c r="R626" s="39">
+      <c r="R626" s="32">
         <v>130</v>
       </c>
-      <c r="S626" s="39">
+      <c r="S626" s="32">
         <v>674</v>
       </c>
-      <c r="T626" s="39">
+      <c r="T626" s="32">
         <v>31</v>
       </c>
-      <c r="U626" s="40" t="s">
+      <c r="U626" s="37" t="s">
         <v>1529</v>
       </c>
       <c r="W626" t="s">
@@ -35836,28 +36034,28 @@
       <c r="C627" t="s">
         <v>214</v>
       </c>
-      <c r="N627" s="39" t="s">
+      <c r="N627" s="32" t="s">
         <v>697</v>
       </c>
       <c r="O627" t="s">
         <v>589</v>
       </c>
-      <c r="P627" s="39">
+      <c r="P627" s="32">
         <v>2028</v>
       </c>
-      <c r="Q627" s="39">
+      <c r="Q627" s="32">
         <v>804</v>
       </c>
-      <c r="R627" s="39">
+      <c r="R627" s="32">
         <v>147</v>
       </c>
-      <c r="S627" s="39">
+      <c r="S627" s="32">
         <v>820</v>
       </c>
-      <c r="T627" s="39">
+      <c r="T627" s="32">
         <v>20</v>
       </c>
-      <c r="U627" s="40" t="s">
+      <c r="U627" s="37" t="s">
         <v>1531</v>
       </c>
       <c r="W627" t="s">
@@ -35874,28 +36072,28 @@
       <c r="C628" t="s">
         <v>214</v>
       </c>
-      <c r="N628" s="39" t="s">
+      <c r="N628" s="32" t="s">
         <v>697</v>
       </c>
       <c r="O628" t="s">
         <v>586</v>
       </c>
-      <c r="P628" s="39">
+      <c r="P628" s="32">
         <v>2558</v>
       </c>
-      <c r="Q628" s="39">
+      <c r="Q628" s="32">
         <v>864</v>
       </c>
-      <c r="R628" s="39">
+      <c r="R628" s="32">
         <v>132</v>
       </c>
-      <c r="S628" s="39">
+      <c r="S628" s="32">
         <v>840</v>
       </c>
-      <c r="T628" s="39">
+      <c r="T628" s="32">
         <v>31</v>
       </c>
-      <c r="U628" s="40" t="s">
+      <c r="U628" s="37" t="s">
         <v>1532</v>
       </c>
       <c r="W628" t="s">
@@ -35912,28 +36110,28 @@
       <c r="C629" t="s">
         <v>214</v>
       </c>
-      <c r="N629" s="39" t="s">
+      <c r="N629" s="32" t="s">
         <v>697</v>
       </c>
       <c r="O629" t="s">
         <v>583</v>
       </c>
-      <c r="P629" s="39">
+      <c r="P629" s="32">
         <v>1878</v>
       </c>
-      <c r="Q629" s="39">
+      <c r="Q629" s="32">
         <v>626</v>
       </c>
-      <c r="R629" s="39">
+      <c r="R629" s="32">
         <v>163</v>
       </c>
-      <c r="S629" s="39">
+      <c r="S629" s="32">
         <v>834</v>
       </c>
-      <c r="T629" s="39">
+      <c r="T629" s="32">
         <v>20</v>
       </c>
-      <c r="U629" s="40" t="s">
+      <c r="U629" s="37" t="s">
         <v>1534</v>
       </c>
       <c r="W629" t="s">
@@ -35950,28 +36148,28 @@
       <c r="C630" t="s">
         <v>214</v>
       </c>
-      <c r="N630" s="39" t="s">
+      <c r="N630" s="32" t="s">
         <v>697</v>
       </c>
       <c r="O630" t="s">
         <v>581</v>
       </c>
-      <c r="P630" s="39">
+      <c r="P630" s="32">
         <v>1886</v>
       </c>
-      <c r="Q630" s="39">
+      <c r="Q630" s="32">
         <v>488</v>
       </c>
-      <c r="R630" s="39">
+      <c r="R630" s="32">
         <v>140</v>
       </c>
-      <c r="S630" s="39">
+      <c r="S630" s="32">
         <v>574</v>
       </c>
-      <c r="T630" s="39">
+      <c r="T630" s="32">
         <v>14</v>
       </c>
-      <c r="U630" s="40" t="s">
+      <c r="U630" s="37" t="s">
         <v>1536</v>
       </c>
       <c r="W630" t="s">
@@ -35988,28 +36186,28 @@
       <c r="C631" t="s">
         <v>214</v>
       </c>
-      <c r="N631" s="39" t="s">
+      <c r="N631" s="32" t="s">
         <v>697</v>
       </c>
       <c r="O631" t="s">
         <v>579</v>
       </c>
-      <c r="P631" s="39">
+      <c r="P631" s="32">
         <v>1002</v>
       </c>
-      <c r="Q631" s="39">
+      <c r="Q631" s="32">
         <v>263</v>
       </c>
-      <c r="R631" s="39">
+      <c r="R631" s="32">
         <v>88</v>
       </c>
-      <c r="S631" s="39">
+      <c r="S631" s="32">
         <v>319</v>
       </c>
-      <c r="T631" s="39">
+      <c r="T631" s="32">
         <v>7</v>
       </c>
-      <c r="U631" s="40" t="s">
+      <c r="U631" s="37" t="s">
         <v>1538</v>
       </c>
       <c r="W631" t="s">
@@ -36026,28 +36224,28 @@
       <c r="C632" t="s">
         <v>214</v>
       </c>
-      <c r="N632" s="39" t="s">
+      <c r="N632" s="32" t="s">
         <v>697</v>
       </c>
       <c r="O632" t="s">
         <v>577</v>
       </c>
-      <c r="P632" s="39">
+      <c r="P632" s="32">
         <v>1903</v>
       </c>
-      <c r="Q632" s="39">
+      <c r="Q632" s="32">
         <v>428</v>
       </c>
-      <c r="R632" s="39">
+      <c r="R632" s="32">
         <v>145</v>
       </c>
-      <c r="S632" s="39">
+      <c r="S632" s="32">
         <v>607</v>
       </c>
-      <c r="T632" s="39">
+      <c r="T632" s="32">
         <v>24</v>
       </c>
-      <c r="U632" s="40" t="s">
+      <c r="U632" s="37" t="s">
         <v>1540</v>
       </c>
       <c r="W632" t="s">
@@ -36064,28 +36262,28 @@
       <c r="C633" t="s">
         <v>214</v>
       </c>
-      <c r="N633" s="39" t="s">
+      <c r="N633" s="32" t="s">
         <v>697</v>
       </c>
       <c r="O633" t="s">
         <v>575</v>
       </c>
-      <c r="P633" s="39">
+      <c r="P633" s="32">
         <v>1558</v>
       </c>
-      <c r="Q633" s="39">
+      <c r="Q633" s="32">
         <v>301</v>
       </c>
-      <c r="R633" s="39">
+      <c r="R633" s="32">
         <v>112</v>
       </c>
-      <c r="S633" s="39">
+      <c r="S633" s="32">
         <v>362</v>
       </c>
-      <c r="T633" s="39">
+      <c r="T633" s="32">
         <v>21</v>
       </c>
-      <c r="U633" s="40" t="s">
+      <c r="U633" s="37" t="s">
         <v>1541</v>
       </c>
       <c r="W633" t="s">
@@ -36102,28 +36300,28 @@
       <c r="C634" t="s">
         <v>214</v>
       </c>
-      <c r="N634" s="39" t="s">
+      <c r="N634" s="32" t="s">
         <v>697</v>
       </c>
       <c r="O634" t="s">
         <v>572</v>
       </c>
-      <c r="P634" s="39">
+      <c r="P634" s="32">
         <v>1793</v>
       </c>
-      <c r="Q634" s="39">
+      <c r="Q634" s="32">
         <v>379</v>
       </c>
-      <c r="R634" s="39">
+      <c r="R634" s="32">
         <v>155</v>
       </c>
-      <c r="S634" s="39">
+      <c r="S634" s="32">
         <v>670</v>
       </c>
-      <c r="T634" s="39">
+      <c r="T634" s="32">
         <v>30</v>
       </c>
-      <c r="U634" s="40" t="s">
+      <c r="U634" s="37" t="s">
         <v>1543</v>
       </c>
       <c r="W634" t="s">
@@ -36140,28 +36338,28 @@
       <c r="C635" t="s">
         <v>214</v>
       </c>
-      <c r="N635" s="39" t="s">
+      <c r="N635" s="32" t="s">
         <v>697</v>
       </c>
       <c r="O635" t="s">
         <v>570</v>
       </c>
-      <c r="P635" s="39">
+      <c r="P635" s="32">
         <v>1322</v>
       </c>
-      <c r="Q635" s="39">
+      <c r="Q635" s="32">
         <v>401</v>
       </c>
-      <c r="R635" s="39">
+      <c r="R635" s="32">
         <v>108</v>
       </c>
-      <c r="S635" s="39">
+      <c r="S635" s="32">
         <v>652</v>
       </c>
-      <c r="T635" s="39">
+      <c r="T635" s="32">
         <v>34</v>
       </c>
-      <c r="U635" s="40" t="s">
+      <c r="U635" s="37" t="s">
         <v>1545</v>
       </c>
       <c r="W635" t="s">
@@ -36178,28 +36376,28 @@
       <c r="C636" t="s">
         <v>214</v>
       </c>
-      <c r="N636" s="39" t="s">
+      <c r="N636" s="32" t="s">
         <v>697</v>
       </c>
       <c r="O636" t="s">
         <v>568</v>
       </c>
-      <c r="P636" s="39">
+      <c r="P636" s="32">
         <v>1256</v>
       </c>
-      <c r="Q636" s="39">
+      <c r="Q636" s="32">
         <v>399</v>
       </c>
-      <c r="R636" s="39">
+      <c r="R636" s="32">
         <v>110</v>
       </c>
-      <c r="S636" s="39">
+      <c r="S636" s="32">
         <v>435</v>
       </c>
-      <c r="T636" s="39">
+      <c r="T636" s="32">
         <v>16</v>
       </c>
-      <c r="U636" s="40" t="s">
+      <c r="U636" s="37" t="s">
         <v>1547</v>
       </c>
       <c r="W636" t="s">
@@ -36272,7 +36470,7 @@
       <c r="C641" t="s">
         <v>214</v>
       </c>
-      <c r="W641" s="42" t="s">
+      <c r="W641" s="7" t="s">
         <v>1552</v>
       </c>
     </row>
@@ -36316,28 +36514,28 @@
       <c r="M642" t="s">
         <v>1554</v>
       </c>
-      <c r="N642" s="39" t="s">
+      <c r="N642" s="32" t="s">
         <v>697</v>
       </c>
       <c r="O642" t="s">
         <v>593</v>
       </c>
-      <c r="P642" s="39">
+      <c r="P642" s="32">
         <v>1973</v>
       </c>
-      <c r="Q642" s="39">
+      <c r="Q642" s="32">
         <v>574</v>
       </c>
-      <c r="R642" s="39">
+      <c r="R642" s="32">
         <v>153</v>
       </c>
-      <c r="S642" s="39">
+      <c r="S642" s="32">
         <v>293</v>
       </c>
-      <c r="T642" s="39">
+      <c r="T642" s="32">
         <v>32</v>
       </c>
-      <c r="U642" s="40" t="s">
+      <c r="U642" s="37" t="s">
         <v>1555</v>
       </c>
       <c r="W642" t="s">
@@ -36354,28 +36552,28 @@
       <c r="C643" t="s">
         <v>214</v>
       </c>
-      <c r="N643" s="39" t="s">
+      <c r="N643" s="32" t="s">
         <v>697</v>
       </c>
       <c r="O643" t="s">
         <v>589</v>
       </c>
-      <c r="P643" s="39">
+      <c r="P643" s="32">
         <v>1734</v>
       </c>
-      <c r="Q643" s="39">
+      <c r="Q643" s="32">
         <v>447</v>
       </c>
-      <c r="R643" s="39">
+      <c r="R643" s="32">
         <v>161</v>
       </c>
-      <c r="S643" s="39">
+      <c r="S643" s="32">
         <v>263</v>
       </c>
-      <c r="T643" s="39">
+      <c r="T643" s="32">
         <v>39</v>
       </c>
-      <c r="U643" s="40" t="s">
+      <c r="U643" s="37" t="s">
         <v>1557</v>
       </c>
       <c r="W643" t="s">
@@ -36392,28 +36590,28 @@
       <c r="C644" t="s">
         <v>214</v>
       </c>
-      <c r="N644" s="39" t="s">
+      <c r="N644" s="32" t="s">
         <v>439</v>
       </c>
       <c r="O644" t="s">
         <v>586</v>
       </c>
-      <c r="P644" s="39">
+      <c r="P644" s="32">
         <v>1775</v>
       </c>
-      <c r="Q644" s="39">
+      <c r="Q644" s="32">
         <v>492</v>
       </c>
-      <c r="R644" s="39">
+      <c r="R644" s="32">
         <v>119</v>
       </c>
-      <c r="S644" s="39">
+      <c r="S644" s="32">
         <v>251</v>
       </c>
-      <c r="T644" s="39">
+      <c r="T644" s="32">
         <v>27</v>
       </c>
-      <c r="U644" s="40" t="s">
+      <c r="U644" s="37" t="s">
         <v>1558</v>
       </c>
       <c r="W644" t="s">
@@ -36430,28 +36628,28 @@
       <c r="C645" t="s">
         <v>214</v>
       </c>
-      <c r="N645" s="39" t="s">
+      <c r="N645" s="32" t="s">
         <v>439</v>
       </c>
       <c r="O645" t="s">
         <v>583</v>
       </c>
-      <c r="P645" s="39">
+      <c r="P645" s="32">
         <v>1874</v>
       </c>
-      <c r="Q645" s="39">
+      <c r="Q645" s="32">
         <v>563</v>
       </c>
-      <c r="R645" s="39">
+      <c r="R645" s="32">
         <v>152</v>
       </c>
-      <c r="S645" s="39">
+      <c r="S645" s="32">
         <v>329</v>
       </c>
-      <c r="T645" s="39">
+      <c r="T645" s="32">
         <v>29</v>
       </c>
-      <c r="U645" s="40" t="s">
+      <c r="U645" s="37" t="s">
         <v>1560</v>
       </c>
       <c r="W645" t="s">
@@ -36468,28 +36666,28 @@
       <c r="C646" t="s">
         <v>214</v>
       </c>
-      <c r="N646" s="39" t="s">
+      <c r="N646" s="32" t="s">
         <v>439</v>
       </c>
       <c r="O646" t="s">
         <v>581</v>
       </c>
-      <c r="P646" s="39">
+      <c r="P646" s="32">
         <v>53</v>
       </c>
-      <c r="Q646" s="39">
+      <c r="Q646" s="32">
         <v>22</v>
       </c>
-      <c r="R646" s="39">
+      <c r="R646" s="32">
         <v>5</v>
       </c>
-      <c r="S646" s="39">
+      <c r="S646" s="32">
         <v>6</v>
       </c>
-      <c r="T646" s="39">
+      <c r="T646" s="32">
         <v>1</v>
       </c>
-      <c r="U646" s="40" t="s">
+      <c r="U646" s="37" t="s">
         <v>1562</v>
       </c>
       <c r="W646" t="s">
@@ -36506,28 +36704,28 @@
       <c r="C647" t="s">
         <v>214</v>
       </c>
-      <c r="N647" s="39" t="s">
+      <c r="N647" s="32" t="s">
         <v>439</v>
       </c>
       <c r="O647" t="s">
         <v>579</v>
       </c>
-      <c r="P647" s="39">
+      <c r="P647" s="32">
         <v>1737</v>
       </c>
-      <c r="Q647" s="39">
+      <c r="Q647" s="32">
         <v>542</v>
       </c>
-      <c r="R647" s="39">
+      <c r="R647" s="32">
         <v>151</v>
       </c>
-      <c r="S647" s="39">
+      <c r="S647" s="32">
         <v>283</v>
       </c>
-      <c r="T647" s="39">
+      <c r="T647" s="32">
         <v>22</v>
       </c>
-      <c r="U647" s="40" t="s">
+      <c r="U647" s="37" t="s">
         <v>1564</v>
       </c>
       <c r="W647" t="s">
@@ -36544,28 +36742,28 @@
       <c r="C648" t="s">
         <v>214</v>
       </c>
-      <c r="N648" s="39" t="s">
+      <c r="N648" s="32" t="s">
         <v>439</v>
       </c>
       <c r="O648" t="s">
         <v>577</v>
       </c>
-      <c r="P648" s="39">
+      <c r="P648" s="32">
         <v>1377</v>
       </c>
-      <c r="Q648" s="39">
+      <c r="Q648" s="32">
         <v>603</v>
       </c>
-      <c r="R648" s="39">
+      <c r="R648" s="32">
         <v>143</v>
       </c>
-      <c r="S648" s="39">
+      <c r="S648" s="32">
         <v>327</v>
       </c>
-      <c r="T648" s="39">
+      <c r="T648" s="32">
         <v>51</v>
       </c>
-      <c r="U648" s="40" t="s">
+      <c r="U648" s="37" t="s">
         <v>1566</v>
       </c>
       <c r="W648" t="s">
@@ -36582,28 +36780,28 @@
       <c r="C649" t="s">
         <v>214</v>
       </c>
-      <c r="N649" s="39" t="s">
+      <c r="N649" s="32" t="s">
         <v>439</v>
       </c>
       <c r="O649" t="s">
         <v>575</v>
       </c>
-      <c r="P649" s="39">
+      <c r="P649" s="32">
         <v>798</v>
       </c>
-      <c r="Q649" s="39">
+      <c r="Q649" s="32">
         <v>370</v>
       </c>
-      <c r="R649" s="39">
+      <c r="R649" s="32">
         <v>108</v>
       </c>
-      <c r="S649" s="39">
+      <c r="S649" s="32">
         <v>158</v>
       </c>
-      <c r="T649" s="39">
+      <c r="T649" s="32">
         <v>38</v>
       </c>
-      <c r="U649" s="40" t="s">
+      <c r="U649" s="37" t="s">
         <v>1567</v>
       </c>
       <c r="W649" t="s">
@@ -36620,28 +36818,28 @@
       <c r="C650" t="s">
         <v>214</v>
       </c>
-      <c r="N650" s="39" t="s">
+      <c r="N650" s="32" t="s">
         <v>439</v>
       </c>
       <c r="O650" t="s">
         <v>572</v>
       </c>
-      <c r="P650" s="39">
+      <c r="P650" s="32">
         <v>476</v>
       </c>
-      <c r="Q650" s="39">
+      <c r="Q650" s="32">
         <v>224</v>
       </c>
-      <c r="R650" s="39">
+      <c r="R650" s="32">
         <v>62</v>
       </c>
-      <c r="S650" s="39">
+      <c r="S650" s="32">
         <v>65</v>
       </c>
-      <c r="T650" s="39">
+      <c r="T650" s="32">
         <v>26</v>
       </c>
-      <c r="U650" s="40" t="s">
+      <c r="U650" s="37" t="s">
         <v>1569</v>
       </c>
       <c r="W650" t="s">
@@ -36744,28 +36942,28 @@
       <c r="M655" t="s">
         <v>1574</v>
       </c>
-      <c r="N655" s="39" t="s">
+      <c r="N655" s="32" t="s">
         <v>697</v>
       </c>
       <c r="O655" t="s">
         <v>593</v>
       </c>
-      <c r="P655" s="39">
+      <c r="P655" s="32">
         <v>1000</v>
       </c>
-      <c r="Q655" s="39">
+      <c r="Q655" s="32">
         <v>685</v>
       </c>
-      <c r="R655" s="39">
+      <c r="R655" s="32">
         <v>113</v>
       </c>
-      <c r="S655" s="39">
+      <c r="S655" s="32">
         <v>112</v>
       </c>
-      <c r="T655" s="39">
+      <c r="T655" s="32">
         <v>64</v>
       </c>
-      <c r="U655" s="40" t="s">
+      <c r="U655" s="37" t="s">
         <v>1575</v>
       </c>
       <c r="W655" t="s">
@@ -36782,28 +36980,28 @@
       <c r="C656" t="s">
         <v>214</v>
       </c>
-      <c r="N656" s="39" t="s">
+      <c r="N656" s="32" t="s">
         <v>697</v>
       </c>
       <c r="O656" t="s">
         <v>589</v>
       </c>
-      <c r="P656" s="39">
+      <c r="P656" s="32">
         <v>1056</v>
       </c>
-      <c r="Q656" s="39">
+      <c r="Q656" s="32">
         <v>685</v>
       </c>
-      <c r="R656" s="39">
+      <c r="R656" s="32">
         <v>92</v>
       </c>
-      <c r="S656" s="39">
+      <c r="S656" s="32">
         <v>88</v>
       </c>
-      <c r="T656" s="39">
+      <c r="T656" s="32">
         <v>78</v>
       </c>
-      <c r="U656" s="40" t="s">
+      <c r="U656" s="37" t="s">
         <v>1577</v>
       </c>
     </row>
@@ -36817,28 +37015,28 @@
       <c r="C657" t="s">
         <v>214</v>
       </c>
-      <c r="N657" s="39" t="s">
+      <c r="N657" s="32" t="s">
         <v>697</v>
       </c>
       <c r="O657" t="s">
         <v>586</v>
       </c>
-      <c r="P657" s="39">
+      <c r="P657" s="32">
         <v>905</v>
       </c>
-      <c r="Q657" s="39">
+      <c r="Q657" s="32">
         <v>613</v>
       </c>
-      <c r="R657" s="39">
+      <c r="R657" s="32">
         <v>89</v>
       </c>
-      <c r="S657" s="39">
+      <c r="S657" s="32">
         <v>86</v>
       </c>
-      <c r="T657" s="39">
+      <c r="T657" s="32">
         <v>78</v>
       </c>
-      <c r="U657" s="40" t="s">
+      <c r="U657" s="37" t="s">
         <v>1578</v>
       </c>
     </row>
@@ -36852,28 +37050,28 @@
       <c r="C658" t="s">
         <v>214</v>
       </c>
-      <c r="N658" s="39" t="s">
+      <c r="N658" s="32" t="s">
         <v>697</v>
       </c>
       <c r="O658" t="s">
         <v>583</v>
       </c>
-      <c r="P658" s="39">
+      <c r="P658" s="32">
         <v>636</v>
       </c>
-      <c r="Q658" s="39">
+      <c r="Q658" s="32">
         <v>533</v>
       </c>
-      <c r="R658" s="39">
+      <c r="R658" s="32">
         <v>42</v>
       </c>
-      <c r="S658" s="39">
+      <c r="S658" s="32">
         <v>62</v>
       </c>
-      <c r="T658" s="39">
+      <c r="T658" s="32">
         <v>89</v>
       </c>
-      <c r="U658" s="40" t="s">
+      <c r="U658" s="37" t="s">
         <v>1579</v>
       </c>
     </row>
@@ -36887,28 +37085,28 @@
       <c r="C659" t="s">
         <v>214</v>
       </c>
-      <c r="N659" s="39" t="s">
+      <c r="N659" s="32" t="s">
         <v>697</v>
       </c>
       <c r="O659" t="s">
         <v>581</v>
       </c>
-      <c r="P659" s="39">
+      <c r="P659" s="32">
         <v>537</v>
       </c>
-      <c r="Q659" s="39">
+      <c r="Q659" s="32">
         <v>523</v>
       </c>
-      <c r="R659" s="39">
+      <c r="R659" s="32">
         <v>38</v>
       </c>
-      <c r="S659" s="39">
+      <c r="S659" s="32">
         <v>66</v>
       </c>
-      <c r="T659" s="39">
+      <c r="T659" s="32">
         <v>86</v>
       </c>
-      <c r="U659" s="40" t="s">
+      <c r="U659" s="37" t="s">
         <v>1580</v>
       </c>
     </row>
@@ -36922,28 +37120,28 @@
       <c r="C660" t="s">
         <v>214</v>
       </c>
-      <c r="N660" s="39" t="s">
+      <c r="N660" s="32" t="s">
         <v>697</v>
       </c>
       <c r="O660" t="s">
         <v>579</v>
       </c>
-      <c r="P660" s="39">
+      <c r="P660" s="32">
         <v>265</v>
       </c>
-      <c r="Q660" s="39">
+      <c r="Q660" s="32">
         <v>332</v>
       </c>
-      <c r="R660" s="39">
+      <c r="R660" s="32">
         <v>40</v>
       </c>
-      <c r="S660" s="39">
+      <c r="S660" s="32">
         <v>43</v>
       </c>
-      <c r="T660" s="39">
+      <c r="T660" s="32">
         <v>57</v>
       </c>
-      <c r="U660" s="40" t="s">
+      <c r="U660" s="37" t="s">
         <v>1581</v>
       </c>
     </row>
@@ -36987,25 +37185,25 @@
       <c r="M661" t="s">
         <v>1583</v>
       </c>
-      <c r="N661" s="39" t="s">
+      <c r="N661" s="32" t="s">
         <v>697</v>
       </c>
       <c r="O661" t="s">
         <v>593</v>
       </c>
-      <c r="P661" s="39">
+      <c r="P661" s="32">
         <v>1112</v>
       </c>
-      <c r="Q661" s="39">
+      <c r="Q661" s="32">
         <v>254</v>
       </c>
-      <c r="R661" s="39">
+      <c r="R661" s="32">
         <v>57</v>
       </c>
-      <c r="S661" s="39">
+      <c r="S661" s="32">
         <v>298</v>
       </c>
-      <c r="T661" s="39">
+      <c r="T661" s="32">
         <v>11</v>
       </c>
       <c r="U661" t="s">
@@ -37022,25 +37220,25 @@
       <c r="C662" t="s">
         <v>214</v>
       </c>
-      <c r="N662" s="39" t="s">
+      <c r="N662" s="32" t="s">
         <v>426</v>
       </c>
       <c r="O662" t="s">
         <v>589</v>
       </c>
-      <c r="P662" s="39">
+      <c r="P662" s="32">
         <v>1301</v>
       </c>
-      <c r="Q662" s="39">
+      <c r="Q662" s="32">
         <v>208</v>
       </c>
-      <c r="R662" s="39">
+      <c r="R662" s="32">
         <v>72</v>
       </c>
-      <c r="S662" s="39">
+      <c r="S662" s="32">
         <v>417</v>
       </c>
-      <c r="T662" s="39">
+      <c r="T662" s="32">
         <v>6</v>
       </c>
       <c r="U662" t="s">
@@ -37057,25 +37255,25 @@
       <c r="C663" t="s">
         <v>214</v>
       </c>
-      <c r="N663" s="39" t="s">
+      <c r="N663" s="32" t="s">
         <v>426</v>
       </c>
       <c r="O663" t="s">
         <v>586</v>
       </c>
-      <c r="P663" s="39">
+      <c r="P663" s="32">
         <v>1414</v>
       </c>
-      <c r="Q663" s="39">
+      <c r="Q663" s="32">
         <v>248</v>
       </c>
-      <c r="R663" s="39">
+      <c r="R663" s="32">
         <v>74</v>
       </c>
-      <c r="S663" s="39">
+      <c r="S663" s="32">
         <v>499</v>
       </c>
-      <c r="T663" s="39">
+      <c r="T663" s="32">
         <v>16</v>
       </c>
       <c r="U663" t="s">
@@ -37092,25 +37290,25 @@
       <c r="C664" t="s">
         <v>214</v>
       </c>
-      <c r="N664" s="39" t="s">
+      <c r="N664" s="32" t="s">
         <v>426</v>
       </c>
       <c r="O664" t="s">
         <v>583</v>
       </c>
-      <c r="P664" s="39">
+      <c r="P664" s="32">
         <v>879</v>
       </c>
-      <c r="Q664" s="39">
+      <c r="Q664" s="32">
         <v>204</v>
       </c>
-      <c r="R664" s="39">
+      <c r="R664" s="32">
         <v>70</v>
       </c>
-      <c r="S664" s="39">
+      <c r="S664" s="32">
         <v>349</v>
       </c>
-      <c r="T664" s="39">
+      <c r="T664" s="32">
         <v>9</v>
       </c>
       <c r="U664" t="s">
@@ -37127,25 +37325,25 @@
       <c r="C665" t="s">
         <v>214</v>
       </c>
-      <c r="N665" s="39" t="s">
+      <c r="N665" s="32" t="s">
         <v>426</v>
       </c>
       <c r="O665" t="s">
         <v>581</v>
       </c>
-      <c r="P665" s="39">
+      <c r="P665" s="32">
         <v>768</v>
       </c>
-      <c r="Q665" s="39">
+      <c r="Q665" s="32">
         <v>164</v>
       </c>
-      <c r="R665" s="39">
+      <c r="R665" s="32">
         <v>49</v>
       </c>
-      <c r="S665" s="39">
+      <c r="S665" s="32">
         <v>317</v>
       </c>
-      <c r="T665" s="39">
+      <c r="T665" s="32">
         <v>4</v>
       </c>
       <c r="U665" t="s">
@@ -37162,25 +37360,25 @@
       <c r="C666" t="s">
         <v>214</v>
       </c>
-      <c r="N666" s="39" t="s">
+      <c r="N666" s="32" t="s">
         <v>426</v>
       </c>
       <c r="O666" t="s">
         <v>579</v>
       </c>
-      <c r="P666" s="39">
+      <c r="P666" s="32">
         <v>183</v>
       </c>
-      <c r="Q666" s="39">
+      <c r="Q666" s="32">
         <v>60</v>
       </c>
-      <c r="R666" s="39">
+      <c r="R666" s="32">
         <v>17</v>
       </c>
-      <c r="S666" s="39">
+      <c r="S666" s="32">
         <v>93</v>
       </c>
-      <c r="T666" s="39">
+      <c r="T666" s="32">
         <v>0</v>
       </c>
       <c r="U666" t="s">
@@ -37227,7 +37425,7 @@
       <c r="M667" t="s">
         <v>1591</v>
       </c>
-      <c r="N667" s="39" t="s">
+      <c r="N667" s="32" t="s">
         <v>697</v>
       </c>
       <c r="O667" t="s">
@@ -37248,7 +37446,7 @@
       <c r="T667">
         <v>91</v>
       </c>
-      <c r="U667" s="40" t="s">
+      <c r="U667" s="37" t="s">
         <v>1592</v>
       </c>
     </row>
@@ -37262,7 +37460,7 @@
       <c r="C668" t="s">
         <v>214</v>
       </c>
-      <c r="N668" s="39" t="s">
+      <c r="N668" s="32" t="s">
         <v>697</v>
       </c>
       <c r="O668" t="s">
@@ -37283,7 +37481,7 @@
       <c r="T668">
         <v>77</v>
       </c>
-      <c r="U668" s="40" t="s">
+      <c r="U668" s="37" t="s">
         <v>1593</v>
       </c>
     </row>
@@ -37297,7 +37495,7 @@
       <c r="C669" t="s">
         <v>214</v>
       </c>
-      <c r="N669" s="39" t="s">
+      <c r="N669" s="32" t="s">
         <v>697</v>
       </c>
       <c r="O669" t="s">
@@ -37318,7 +37516,7 @@
       <c r="T669">
         <v>75</v>
       </c>
-      <c r="U669" s="40" t="s">
+      <c r="U669" s="37" t="s">
         <v>1594</v>
       </c>
     </row>
@@ -37332,7 +37530,7 @@
       <c r="C670" t="s">
         <v>214</v>
       </c>
-      <c r="N670" s="39" t="s">
+      <c r="N670" s="32" t="s">
         <v>290</v>
       </c>
       <c r="O670" t="s">
@@ -37353,7 +37551,7 @@
       <c r="T670">
         <v>4</v>
       </c>
-      <c r="U670" s="40" t="s">
+      <c r="U670" s="37" t="s">
         <v>1595</v>
       </c>
     </row>
@@ -37367,7 +37565,7 @@
       <c r="C671" t="s">
         <v>214</v>
       </c>
-      <c r="N671" s="39" t="s">
+      <c r="N671" s="32" t="s">
         <v>290</v>
       </c>
       <c r="O671" t="s">
@@ -37388,7 +37586,7 @@
       <c r="T671">
         <v>127</v>
       </c>
-      <c r="U671" s="40" t="s">
+      <c r="U671" s="37" t="s">
         <v>1596</v>
       </c>
     </row>
@@ -37402,7 +37600,7 @@
       <c r="C672" t="s">
         <v>214</v>
       </c>
-      <c r="N672" s="39" t="s">
+      <c r="N672" s="32" t="s">
         <v>290</v>
       </c>
       <c r="O672" t="s">
@@ -37423,7 +37621,7 @@
       <c r="T672">
         <v>68</v>
       </c>
-      <c r="U672" s="40" t="s">
+      <c r="U672" s="37" t="s">
         <v>1597</v>
       </c>
     </row>
@@ -37467,28 +37665,28 @@
       <c r="M673" t="s">
         <v>1599</v>
       </c>
-      <c r="N673" s="39" t="s">
+      <c r="N673" s="32" t="s">
         <v>697</v>
       </c>
       <c r="O673" t="s">
         <v>593</v>
       </c>
-      <c r="P673" s="39">
+      <c r="P673" s="32">
         <v>448</v>
       </c>
-      <c r="Q673" s="39">
+      <c r="Q673" s="32">
         <v>118</v>
       </c>
-      <c r="R673" s="39">
+      <c r="R673" s="32">
         <v>38</v>
       </c>
-      <c r="S673" s="39">
+      <c r="S673" s="32">
         <v>61</v>
       </c>
-      <c r="T673" s="39">
+      <c r="T673" s="32">
         <v>15</v>
       </c>
-      <c r="U673" s="40" t="s">
+      <c r="U673" s="37" t="s">
         <v>1600</v>
       </c>
     </row>
@@ -37502,29 +37700,1670 @@
       <c r="C674" t="s">
         <v>214</v>
       </c>
-      <c r="N674" s="39" t="s">
+      <c r="N674" s="32" t="s">
         <v>697</v>
       </c>
       <c r="O674" t="s">
         <v>589</v>
       </c>
-      <c r="P674" s="39">
+      <c r="P674" s="32">
         <v>189</v>
       </c>
-      <c r="Q674" s="39">
+      <c r="Q674" s="32">
         <v>47</v>
       </c>
-      <c r="R674" s="39">
+      <c r="R674" s="32">
         <v>24</v>
       </c>
-      <c r="S674" s="39">
+      <c r="S674" s="32">
         <v>19</v>
       </c>
-      <c r="T674" s="39">
+      <c r="T674" s="32">
         <v>10</v>
       </c>
-      <c r="U674" s="40" t="s">
+      <c r="U674" s="37" t="s">
         <v>1601</v>
+      </c>
+    </row>
+    <row r="675" ht="14.25" spans="1:23">
+      <c r="A675">
+        <v>618</v>
+      </c>
+      <c r="B675" t="s">
+        <v>245</v>
+      </c>
+      <c r="C675" t="s">
+        <v>243</v>
+      </c>
+      <c r="D675">
+        <v>17.7</v>
+      </c>
+      <c r="E675">
+        <v>4.8</v>
+      </c>
+      <c r="F675">
+        <v>2.4</v>
+      </c>
+      <c r="G675">
+        <v>1</v>
+      </c>
+      <c r="H675">
+        <v>0.66</v>
+      </c>
+      <c r="I675">
+        <v>22</v>
+      </c>
+      <c r="J675">
+        <v>2.03</v>
+      </c>
+      <c r="K675">
+        <v>90</v>
+      </c>
+      <c r="L675" t="s">
+        <v>1602</v>
+      </c>
+      <c r="M675" t="s">
+        <v>1603</v>
+      </c>
+      <c r="N675" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="O675" t="s">
+        <v>593</v>
+      </c>
+      <c r="P675" s="39">
+        <v>1150</v>
+      </c>
+      <c r="Q675" s="39">
+        <v>312</v>
+      </c>
+      <c r="R675" s="39">
+        <v>65</v>
+      </c>
+      <c r="S675" s="39">
+        <v>153</v>
+      </c>
+      <c r="T675" s="39">
+        <v>43</v>
+      </c>
+      <c r="U675" s="40" t="s">
+        <v>1604</v>
+      </c>
+      <c r="W675" t="s">
+        <v>1605</v>
+      </c>
+    </row>
+    <row r="676" ht="14.25" spans="1:23">
+      <c r="A676">
+        <v>619</v>
+      </c>
+      <c r="B676" t="s">
+        <v>245</v>
+      </c>
+      <c r="C676" t="s">
+        <v>243</v>
+      </c>
+      <c r="N676" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="O676" t="s">
+        <v>589</v>
+      </c>
+      <c r="P676" s="39">
+        <v>1452</v>
+      </c>
+      <c r="Q676" s="39">
+        <v>358</v>
+      </c>
+      <c r="R676" s="39">
+        <v>91</v>
+      </c>
+      <c r="S676" s="39">
+        <v>160</v>
+      </c>
+      <c r="T676" s="39">
+        <v>51</v>
+      </c>
+      <c r="U676" s="40" t="s">
+        <v>1606</v>
+      </c>
+      <c r="W676" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="677" ht="14.25" spans="1:21">
+      <c r="A677">
+        <v>620</v>
+      </c>
+      <c r="B677" t="s">
+        <v>245</v>
+      </c>
+      <c r="C677" t="s">
+        <v>243</v>
+      </c>
+      <c r="N677" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="O677" t="s">
+        <v>586</v>
+      </c>
+      <c r="P677" s="39">
+        <v>1933</v>
+      </c>
+      <c r="Q677" s="39">
+        <v>328</v>
+      </c>
+      <c r="R677" s="39">
+        <v>82</v>
+      </c>
+      <c r="S677" s="39">
+        <v>189</v>
+      </c>
+      <c r="T677" s="39">
+        <v>30</v>
+      </c>
+      <c r="U677" s="40" t="s">
+        <v>1608</v>
+      </c>
+    </row>
+    <row r="678" ht="14.25" spans="1:21">
+      <c r="A678">
+        <v>621</v>
+      </c>
+      <c r="B678" t="s">
+        <v>245</v>
+      </c>
+      <c r="C678" t="s">
+        <v>243</v>
+      </c>
+      <c r="N678" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="O678" t="s">
+        <v>583</v>
+      </c>
+      <c r="P678" s="39">
+        <v>1675</v>
+      </c>
+      <c r="Q678" s="39">
+        <v>291</v>
+      </c>
+      <c r="R678" s="39">
+        <v>78</v>
+      </c>
+      <c r="S678" s="39">
+        <v>164</v>
+      </c>
+      <c r="T678" s="39">
+        <v>46</v>
+      </c>
+      <c r="U678" s="40" t="s">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="679" ht="14.25" spans="1:21">
+      <c r="A679">
+        <v>622</v>
+      </c>
+      <c r="B679" t="s">
+        <v>245</v>
+      </c>
+      <c r="C679" t="s">
+        <v>243</v>
+      </c>
+      <c r="N679" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="O679" t="s">
+        <v>581</v>
+      </c>
+      <c r="P679" s="39">
+        <v>1387</v>
+      </c>
+      <c r="Q679" s="39">
+        <v>374</v>
+      </c>
+      <c r="R679" s="39">
+        <v>86</v>
+      </c>
+      <c r="S679" s="39">
+        <v>170</v>
+      </c>
+      <c r="T679" s="39">
+        <v>50</v>
+      </c>
+      <c r="U679" s="40" t="s">
+        <v>1610</v>
+      </c>
+    </row>
+    <row r="680" ht="14.25" spans="1:23">
+      <c r="A680">
+        <v>623</v>
+      </c>
+      <c r="B680" t="s">
+        <v>246</v>
+      </c>
+      <c r="C680" t="s">
+        <v>243</v>
+      </c>
+      <c r="D680">
+        <v>12.1</v>
+      </c>
+      <c r="E680">
+        <v>2.5</v>
+      </c>
+      <c r="F680">
+        <v>8.2</v>
+      </c>
+      <c r="G680">
+        <v>1.05</v>
+      </c>
+      <c r="H680">
+        <v>0.43</v>
+      </c>
+      <c r="I680">
+        <v>0</v>
+      </c>
+      <c r="J680">
+        <v>1.88</v>
+      </c>
+      <c r="K680">
+        <v>84</v>
+      </c>
+      <c r="L680" t="s">
+        <v>1611</v>
+      </c>
+      <c r="M680" t="s">
+        <v>1612</v>
+      </c>
+      <c r="N680" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="O680" t="s">
+        <v>593</v>
+      </c>
+      <c r="P680" s="39">
+        <v>510</v>
+      </c>
+      <c r="Q680" s="39">
+        <v>106</v>
+      </c>
+      <c r="R680" s="39">
+        <v>43</v>
+      </c>
+      <c r="S680" s="39">
+        <v>343</v>
+      </c>
+      <c r="T680" s="39">
+        <v>18</v>
+      </c>
+      <c r="U680" s="40" t="s">
+        <v>1613</v>
+      </c>
+      <c r="W680" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="681" ht="14.25" spans="1:21">
+      <c r="A681">
+        <v>624</v>
+      </c>
+      <c r="B681" t="s">
+        <v>246</v>
+      </c>
+      <c r="C681" t="s">
+        <v>243</v>
+      </c>
+      <c r="N681" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="O681" t="s">
+        <v>589</v>
+      </c>
+      <c r="P681" s="39">
+        <v>994</v>
+      </c>
+      <c r="Q681" s="39">
+        <v>209</v>
+      </c>
+      <c r="R681" s="39">
+        <v>102</v>
+      </c>
+      <c r="S681" s="39">
+        <v>492</v>
+      </c>
+      <c r="T681" s="39">
+        <v>23</v>
+      </c>
+      <c r="U681" s="40" t="s">
+        <v>1615</v>
+      </c>
+    </row>
+    <row r="682" ht="14.25" spans="1:21">
+      <c r="A682">
+        <v>625</v>
+      </c>
+      <c r="B682" t="s">
+        <v>246</v>
+      </c>
+      <c r="C682" t="s">
+        <v>243</v>
+      </c>
+      <c r="N682" s="39" t="s">
+        <v>439</v>
+      </c>
+      <c r="O682" t="s">
+        <v>586</v>
+      </c>
+      <c r="P682" s="39">
+        <v>1254</v>
+      </c>
+      <c r="Q682" s="39">
+        <v>331</v>
+      </c>
+      <c r="R682" s="39">
+        <v>100</v>
+      </c>
+      <c r="S682" s="39">
+        <v>639</v>
+      </c>
+      <c r="T682" s="39">
+        <v>32</v>
+      </c>
+      <c r="U682" s="40" t="s">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="683" ht="14.25" spans="1:21">
+      <c r="A683">
+        <v>626</v>
+      </c>
+      <c r="B683" t="s">
+        <v>246</v>
+      </c>
+      <c r="C683" t="s">
+        <v>243</v>
+      </c>
+      <c r="N683" s="39" t="s">
+        <v>426</v>
+      </c>
+      <c r="O683" t="s">
+        <v>583</v>
+      </c>
+      <c r="P683" s="39">
+        <v>1239</v>
+      </c>
+      <c r="Q683" s="39">
+        <v>214</v>
+      </c>
+      <c r="R683" s="39">
+        <v>97</v>
+      </c>
+      <c r="S683" s="39">
+        <v>470</v>
+      </c>
+      <c r="T683" s="39">
+        <v>24</v>
+      </c>
+      <c r="U683" s="40" t="s">
+        <v>1617</v>
+      </c>
+    </row>
+    <row r="684" ht="14.25" spans="1:21">
+      <c r="A684">
+        <v>627</v>
+      </c>
+      <c r="B684" t="s">
+        <v>246</v>
+      </c>
+      <c r="C684" t="s">
+        <v>243</v>
+      </c>
+      <c r="N684" s="39" t="s">
+        <v>426</v>
+      </c>
+      <c r="O684" t="s">
+        <v>581</v>
+      </c>
+      <c r="P684" s="39">
+        <v>1162</v>
+      </c>
+      <c r="Q684" s="39">
+        <v>184</v>
+      </c>
+      <c r="R684" s="39">
+        <v>125</v>
+      </c>
+      <c r="S684" s="39">
+        <v>513</v>
+      </c>
+      <c r="T684" s="39">
+        <v>31</v>
+      </c>
+      <c r="U684" s="40" t="s">
+        <v>1618</v>
+      </c>
+    </row>
+    <row r="685" ht="14.25" spans="1:21">
+      <c r="A685">
+        <v>628</v>
+      </c>
+      <c r="B685" t="s">
+        <v>246</v>
+      </c>
+      <c r="C685" t="s">
+        <v>243</v>
+      </c>
+      <c r="N685" s="39" t="s">
+        <v>426</v>
+      </c>
+      <c r="O685" t="s">
+        <v>579</v>
+      </c>
+      <c r="P685" s="39">
+        <v>1304</v>
+      </c>
+      <c r="Q685" s="39">
+        <v>208</v>
+      </c>
+      <c r="R685" s="39">
+        <v>89</v>
+      </c>
+      <c r="S685" s="39">
+        <v>528</v>
+      </c>
+      <c r="T685" s="39">
+        <v>17</v>
+      </c>
+      <c r="U685" s="40" t="s">
+        <v>1619</v>
+      </c>
+    </row>
+    <row r="686" ht="14.25" spans="1:21">
+      <c r="A686">
+        <v>629</v>
+      </c>
+      <c r="B686" t="s">
+        <v>246</v>
+      </c>
+      <c r="C686" t="s">
+        <v>243</v>
+      </c>
+      <c r="N686" s="39" t="s">
+        <v>426</v>
+      </c>
+      <c r="O686" t="s">
+        <v>577</v>
+      </c>
+      <c r="P686" s="39">
+        <v>1166</v>
+      </c>
+      <c r="Q686" s="39">
+        <v>180</v>
+      </c>
+      <c r="R686" s="39">
+        <v>117</v>
+      </c>
+      <c r="S686" s="39">
+        <v>579</v>
+      </c>
+      <c r="T686" s="39">
+        <v>28</v>
+      </c>
+      <c r="U686" s="40" t="s">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="687" ht="14.25" spans="1:21">
+      <c r="A687">
+        <v>630</v>
+      </c>
+      <c r="B687" t="s">
+        <v>246</v>
+      </c>
+      <c r="C687" t="s">
+        <v>243</v>
+      </c>
+      <c r="N687" s="39" t="s">
+        <v>426</v>
+      </c>
+      <c r="O687" t="s">
+        <v>575</v>
+      </c>
+      <c r="P687" s="39">
+        <v>831</v>
+      </c>
+      <c r="Q687" s="39">
+        <v>159</v>
+      </c>
+      <c r="R687" s="39">
+        <v>106</v>
+      </c>
+      <c r="S687" s="39">
+        <v>321</v>
+      </c>
+      <c r="T687" s="39">
+        <v>37</v>
+      </c>
+      <c r="U687" s="40" t="s">
+        <v>1621</v>
+      </c>
+    </row>
+    <row r="688" ht="14.25" spans="1:21">
+      <c r="A688">
+        <v>631</v>
+      </c>
+      <c r="B688" t="s">
+        <v>246</v>
+      </c>
+      <c r="C688" t="s">
+        <v>243</v>
+      </c>
+      <c r="N688" s="39" t="s">
+        <v>426</v>
+      </c>
+      <c r="O688" t="s">
+        <v>572</v>
+      </c>
+      <c r="P688" s="39">
+        <v>361</v>
+      </c>
+      <c r="Q688" s="39">
+        <v>102</v>
+      </c>
+      <c r="R688" s="39">
+        <v>45</v>
+      </c>
+      <c r="S688" s="39">
+        <v>138</v>
+      </c>
+      <c r="T688" s="39">
+        <v>25</v>
+      </c>
+      <c r="U688" s="40" t="s">
+        <v>1622</v>
+      </c>
+    </row>
+    <row r="689" ht="14.25" spans="1:21">
+      <c r="A689">
+        <v>632</v>
+      </c>
+      <c r="B689" t="s">
+        <v>246</v>
+      </c>
+      <c r="C689" t="s">
+        <v>243</v>
+      </c>
+      <c r="N689" s="39" t="s">
+        <v>426</v>
+      </c>
+      <c r="O689" t="s">
+        <v>570</v>
+      </c>
+      <c r="P689" s="39">
+        <v>228</v>
+      </c>
+      <c r="Q689" s="39">
+        <v>67</v>
+      </c>
+      <c r="R689" s="39">
+        <v>34</v>
+      </c>
+      <c r="S689" s="39">
+        <v>122</v>
+      </c>
+      <c r="T689" s="39">
+        <v>11</v>
+      </c>
+      <c r="U689" s="40" t="s">
+        <v>1623</v>
+      </c>
+    </row>
+    <row r="690" ht="14.25" spans="1:23">
+      <c r="A690">
+        <v>633</v>
+      </c>
+      <c r="B690" t="s">
+        <v>251</v>
+      </c>
+      <c r="C690" t="s">
+        <v>243</v>
+      </c>
+      <c r="D690">
+        <v>24.6</v>
+      </c>
+      <c r="E690">
+        <v>12.5</v>
+      </c>
+      <c r="F690">
+        <v>3.3</v>
+      </c>
+      <c r="G690">
+        <v>0.92</v>
+      </c>
+      <c r="H690">
+        <v>1.65</v>
+      </c>
+      <c r="I690">
+        <v>32</v>
+      </c>
+      <c r="J690">
+        <v>2.13</v>
+      </c>
+      <c r="K690">
+        <v>111</v>
+      </c>
+      <c r="L690" t="s">
+        <v>1624</v>
+      </c>
+      <c r="M690" t="s">
+        <v>1625</v>
+      </c>
+      <c r="N690" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="O690" t="s">
+        <v>593</v>
+      </c>
+      <c r="P690" s="39">
+        <v>1751</v>
+      </c>
+      <c r="Q690" s="39">
+        <v>890</v>
+      </c>
+      <c r="R690" s="39">
+        <v>64</v>
+      </c>
+      <c r="S690" s="39">
+        <v>237</v>
+      </c>
+      <c r="T690" s="39">
+        <v>117</v>
+      </c>
+      <c r="U690" s="40" t="s">
+        <v>1626</v>
+      </c>
+      <c r="W690" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="691" ht="14.25" spans="1:23">
+      <c r="A691">
+        <v>634</v>
+      </c>
+      <c r="B691" t="s">
+        <v>251</v>
+      </c>
+      <c r="C691" t="s">
+        <v>243</v>
+      </c>
+      <c r="N691" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="O691" t="s">
+        <v>589</v>
+      </c>
+      <c r="P691" s="39">
+        <v>1743</v>
+      </c>
+      <c r="Q691" s="39">
+        <v>1012</v>
+      </c>
+      <c r="R691" s="39">
+        <v>64</v>
+      </c>
+      <c r="S691" s="39">
+        <v>199</v>
+      </c>
+      <c r="T691" s="39">
+        <v>115</v>
+      </c>
+      <c r="U691" s="40" t="s">
+        <v>1627</v>
+      </c>
+      <c r="W691" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="692" ht="14.25" spans="1:23">
+      <c r="A692">
+        <v>635</v>
+      </c>
+      <c r="B692" t="s">
+        <v>251</v>
+      </c>
+      <c r="C692" t="s">
+        <v>243</v>
+      </c>
+      <c r="N692" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="O692" t="s">
+        <v>586</v>
+      </c>
+      <c r="P692" s="39">
+        <v>2061</v>
+      </c>
+      <c r="Q692" s="39">
+        <v>1007</v>
+      </c>
+      <c r="R692" s="39">
+        <v>56</v>
+      </c>
+      <c r="S692" s="39">
+        <v>220</v>
+      </c>
+      <c r="T692" s="39">
+        <v>103</v>
+      </c>
+      <c r="U692" s="40" t="s">
+        <v>1629</v>
+      </c>
+      <c r="W692" t="s">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="693" ht="14.25" spans="1:23">
+      <c r="A693">
+        <v>636</v>
+      </c>
+      <c r="B693" t="s">
+        <v>251</v>
+      </c>
+      <c r="C693" t="s">
+        <v>243</v>
+      </c>
+      <c r="N693" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="O693" t="s">
+        <v>583</v>
+      </c>
+      <c r="P693" s="39">
+        <v>1503</v>
+      </c>
+      <c r="Q693" s="39">
+        <v>858</v>
+      </c>
+      <c r="R693" s="39">
+        <v>58</v>
+      </c>
+      <c r="S693" s="39">
+        <v>161</v>
+      </c>
+      <c r="T693" s="39">
+        <v>138</v>
+      </c>
+      <c r="U693" s="40" t="s">
+        <v>1631</v>
+      </c>
+      <c r="W693" t="s">
+        <v>1632</v>
+      </c>
+    </row>
+    <row r="694" spans="1:23">
+      <c r="A694">
+        <v>637</v>
+      </c>
+      <c r="B694" t="s">
+        <v>251</v>
+      </c>
+      <c r="C694" t="s">
+        <v>243</v>
+      </c>
+      <c r="W694" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="695" ht="14.25" spans="1:23">
+      <c r="A695">
+        <v>638</v>
+      </c>
+      <c r="B695" t="s">
+        <v>256</v>
+      </c>
+      <c r="C695" t="s">
+        <v>243</v>
+      </c>
+      <c r="D695">
+        <v>18</v>
+      </c>
+      <c r="E695">
+        <v>2.7</v>
+      </c>
+      <c r="F695">
+        <v>4.3</v>
+      </c>
+      <c r="G695">
+        <v>0.61</v>
+      </c>
+      <c r="H695">
+        <v>0.25</v>
+      </c>
+      <c r="I695">
+        <v>25</v>
+      </c>
+      <c r="J695">
+        <v>1.91</v>
+      </c>
+      <c r="K695">
+        <v>86</v>
+      </c>
+      <c r="L695" t="s">
+        <v>1633</v>
+      </c>
+      <c r="M695" t="s">
+        <v>1634</v>
+      </c>
+      <c r="N695" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="O695" t="s">
+        <v>593</v>
+      </c>
+      <c r="P695" s="39">
+        <v>917</v>
+      </c>
+      <c r="Q695" s="39">
+        <v>140</v>
+      </c>
+      <c r="R695" s="39">
+        <v>31</v>
+      </c>
+      <c r="S695" s="39">
+        <v>220</v>
+      </c>
+      <c r="T695" s="39">
+        <v>12</v>
+      </c>
+      <c r="U695" s="40" t="s">
+        <v>1635</v>
+      </c>
+      <c r="W695" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="696" ht="14.25" spans="1:23">
+      <c r="A696">
+        <v>639</v>
+      </c>
+      <c r="B696" t="s">
+        <v>256</v>
+      </c>
+      <c r="C696" t="s">
+        <v>243</v>
+      </c>
+      <c r="N696" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="O696" t="s">
+        <v>589</v>
+      </c>
+      <c r="P696" s="39">
+        <v>52</v>
+      </c>
+      <c r="Q696" s="39">
+        <v>6</v>
+      </c>
+      <c r="R696" s="39">
+        <v>4</v>
+      </c>
+      <c r="S696" s="39">
+        <v>11</v>
+      </c>
+      <c r="T696" s="39">
+        <v>0</v>
+      </c>
+      <c r="U696" s="40" t="s">
+        <v>1637</v>
+      </c>
+      <c r="W696" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="697" ht="14.25" spans="1:23">
+      <c r="A697">
+        <v>640</v>
+      </c>
+      <c r="B697" t="s">
+        <v>256</v>
+      </c>
+      <c r="C697" t="s">
+        <v>243</v>
+      </c>
+      <c r="N697" s="39" t="s">
+        <v>1382</v>
+      </c>
+      <c r="O697" t="s">
+        <v>586</v>
+      </c>
+      <c r="P697" s="39">
+        <v>157</v>
+      </c>
+      <c r="Q697" s="39">
+        <v>29</v>
+      </c>
+      <c r="R697" s="39">
+        <v>3</v>
+      </c>
+      <c r="S697" s="39">
+        <v>26</v>
+      </c>
+      <c r="T697" s="39">
+        <v>4</v>
+      </c>
+      <c r="U697" s="40" t="s">
+        <v>1639</v>
+      </c>
+      <c r="W697" t="s">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="698" ht="14.25" spans="1:23">
+      <c r="A698">
+        <v>641</v>
+      </c>
+      <c r="B698" t="s">
+        <v>256</v>
+      </c>
+      <c r="C698" t="s">
+        <v>243</v>
+      </c>
+      <c r="N698" s="39" t="s">
+        <v>351</v>
+      </c>
+      <c r="O698" t="s">
+        <v>586</v>
+      </c>
+      <c r="P698" s="39">
+        <v>1154</v>
+      </c>
+      <c r="Q698" s="39">
+        <v>246</v>
+      </c>
+      <c r="R698" s="39">
+        <v>44</v>
+      </c>
+      <c r="S698" s="39">
+        <v>283</v>
+      </c>
+      <c r="T698" s="39">
+        <v>17</v>
+      </c>
+      <c r="U698" s="40" t="s">
+        <v>1641</v>
+      </c>
+      <c r="W698" t="s">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="699" ht="14.25" spans="1:23">
+      <c r="A699">
+        <v>642</v>
+      </c>
+      <c r="B699" t="s">
+        <v>256</v>
+      </c>
+      <c r="C699" t="s">
+        <v>243</v>
+      </c>
+      <c r="N699" s="39" t="s">
+        <v>470</v>
+      </c>
+      <c r="O699" t="s">
+        <v>583</v>
+      </c>
+      <c r="P699" s="39">
+        <v>1080</v>
+      </c>
+      <c r="Q699" s="39">
+        <v>225</v>
+      </c>
+      <c r="R699" s="39">
+        <v>44</v>
+      </c>
+      <c r="S699" s="39">
+        <v>311</v>
+      </c>
+      <c r="T699" s="39">
+        <v>14</v>
+      </c>
+      <c r="U699" s="40" t="s">
+        <v>1643</v>
+      </c>
+      <c r="W699" t="s">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="700" ht="14.25" spans="1:23">
+      <c r="A700">
+        <v>643</v>
+      </c>
+      <c r="B700" t="s">
+        <v>256</v>
+      </c>
+      <c r="C700" t="s">
+        <v>243</v>
+      </c>
+      <c r="N700" s="39" t="s">
+        <v>470</v>
+      </c>
+      <c r="O700" t="s">
+        <v>581</v>
+      </c>
+      <c r="P700" s="39">
+        <v>904</v>
+      </c>
+      <c r="Q700" s="39">
+        <v>161</v>
+      </c>
+      <c r="R700" s="39">
+        <v>36</v>
+      </c>
+      <c r="S700" s="39">
+        <v>251</v>
+      </c>
+      <c r="T700" s="39">
+        <v>16</v>
+      </c>
+      <c r="U700" s="40" t="s">
+        <v>1645</v>
+      </c>
+      <c r="W700" t="s">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="701" ht="14.25" spans="1:23">
+      <c r="A701">
+        <v>644</v>
+      </c>
+      <c r="B701" t="s">
+        <v>256</v>
+      </c>
+      <c r="C701" t="s">
+        <v>243</v>
+      </c>
+      <c r="N701" s="39" t="s">
+        <v>470</v>
+      </c>
+      <c r="O701" t="s">
+        <v>579</v>
+      </c>
+      <c r="P701" s="39">
+        <v>159</v>
+      </c>
+      <c r="Q701" s="39">
+        <v>32</v>
+      </c>
+      <c r="R701" s="39">
+        <v>5</v>
+      </c>
+      <c r="S701" s="39">
+        <v>43</v>
+      </c>
+      <c r="T701" s="39">
+        <v>1</v>
+      </c>
+      <c r="U701" s="40" t="s">
+        <v>1647</v>
+      </c>
+      <c r="W701" t="s">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="702" ht="14.25" spans="1:21">
+      <c r="A702">
+        <v>645</v>
+      </c>
+      <c r="B702" t="s">
+        <v>256</v>
+      </c>
+      <c r="C702" t="s">
+        <v>243</v>
+      </c>
+      <c r="N702" s="39" t="s">
+        <v>470</v>
+      </c>
+      <c r="O702" t="s">
+        <v>575</v>
+      </c>
+      <c r="P702" s="39">
+        <v>852</v>
+      </c>
+      <c r="Q702" s="39">
+        <v>131</v>
+      </c>
+      <c r="R702" s="39">
+        <v>35</v>
+      </c>
+      <c r="S702" s="39">
+        <v>307</v>
+      </c>
+      <c r="T702" s="39">
+        <v>28</v>
+      </c>
+      <c r="U702" s="40" t="s">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="703" ht="14.25" spans="1:21">
+      <c r="A703">
+        <v>646</v>
+      </c>
+      <c r="B703" t="s">
+        <v>256</v>
+      </c>
+      <c r="C703" t="s">
+        <v>243</v>
+      </c>
+      <c r="N703" s="39" t="s">
+        <v>470</v>
+      </c>
+      <c r="O703" t="s">
+        <v>572</v>
+      </c>
+      <c r="P703" s="39">
+        <v>2026</v>
+      </c>
+      <c r="Q703" s="39">
+        <v>330</v>
+      </c>
+      <c r="R703" s="39">
+        <v>85</v>
+      </c>
+      <c r="S703" s="39">
+        <v>623</v>
+      </c>
+      <c r="T703" s="39">
+        <v>51</v>
+      </c>
+      <c r="U703" s="40" t="s">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="704" ht="14.25" spans="1:21">
+      <c r="A704">
+        <v>647</v>
+      </c>
+      <c r="B704" t="s">
+        <v>256</v>
+      </c>
+      <c r="C704" t="s">
+        <v>243</v>
+      </c>
+      <c r="N704" s="39" t="s">
+        <v>470</v>
+      </c>
+      <c r="O704" t="s">
+        <v>570</v>
+      </c>
+      <c r="P704" s="39">
+        <v>1619</v>
+      </c>
+      <c r="Q704" s="39">
+        <v>293</v>
+      </c>
+      <c r="R704" s="39">
+        <v>57</v>
+      </c>
+      <c r="S704" s="39">
+        <v>469</v>
+      </c>
+      <c r="T704" s="39">
+        <v>27</v>
+      </c>
+      <c r="U704" s="40" t="s">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="705" ht="14.25" spans="1:21">
+      <c r="A705">
+        <v>648</v>
+      </c>
+      <c r="B705" t="s">
+        <v>256</v>
+      </c>
+      <c r="C705" t="s">
+        <v>243</v>
+      </c>
+      <c r="N705" s="39" t="s">
+        <v>470</v>
+      </c>
+      <c r="O705" t="s">
+        <v>568</v>
+      </c>
+      <c r="P705" s="39">
+        <v>1361</v>
+      </c>
+      <c r="Q705" s="39">
+        <v>317</v>
+      </c>
+      <c r="R705" s="39">
+        <v>66</v>
+      </c>
+      <c r="S705" s="39">
+        <v>512</v>
+      </c>
+      <c r="T705" s="39">
+        <v>18</v>
+      </c>
+      <c r="U705" s="40" t="s">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="706" ht="14.25" spans="1:21">
+      <c r="A706">
+        <v>649</v>
+      </c>
+      <c r="B706" t="s">
+        <v>248</v>
+      </c>
+      <c r="C706" t="s">
+        <v>243</v>
+      </c>
+      <c r="D706">
+        <v>10.8</v>
+      </c>
+      <c r="E706">
+        <v>6.6</v>
+      </c>
+      <c r="F706">
+        <v>1.2</v>
+      </c>
+      <c r="G706">
+        <v>0.73</v>
+      </c>
+      <c r="H706">
+        <v>0.54</v>
+      </c>
+      <c r="I706">
+        <v>67</v>
+      </c>
+      <c r="J706">
+        <v>2.06</v>
+      </c>
+      <c r="K706">
+        <v>107</v>
+      </c>
+      <c r="L706" t="s">
+        <v>1653</v>
+      </c>
+      <c r="M706" t="s">
+        <v>1654</v>
+      </c>
+      <c r="N706" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="O706" t="s">
+        <v>593</v>
+      </c>
+      <c r="P706" s="39">
+        <v>753</v>
+      </c>
+      <c r="Q706" s="39">
+        <v>458</v>
+      </c>
+      <c r="R706" s="39">
+        <v>53</v>
+      </c>
+      <c r="S706" s="39">
+        <v>84</v>
+      </c>
+      <c r="T706" s="39">
+        <v>39</v>
+      </c>
+      <c r="U706" s="40" t="s">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="707" ht="14.25" spans="1:21">
+      <c r="A707">
+        <v>650</v>
+      </c>
+      <c r="B707" t="s">
+        <v>248</v>
+      </c>
+      <c r="C707" t="s">
+        <v>243</v>
+      </c>
+      <c r="N707" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="O707" t="s">
+        <v>589</v>
+      </c>
+      <c r="P707" s="39">
+        <v>999</v>
+      </c>
+      <c r="Q707" s="39">
+        <v>584</v>
+      </c>
+      <c r="R707" s="39">
+        <v>62</v>
+      </c>
+      <c r="S707" s="39">
+        <v>99</v>
+      </c>
+      <c r="T707" s="39">
+        <v>59</v>
+      </c>
+      <c r="U707" s="40" t="s">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="708" ht="14.25" spans="1:21">
+      <c r="A708">
+        <v>651</v>
+      </c>
+      <c r="B708" t="s">
+        <v>248</v>
+      </c>
+      <c r="C708" t="s">
+        <v>243</v>
+      </c>
+      <c r="N708" s="39" t="s">
+        <v>697</v>
+      </c>
+      <c r="O708" t="s">
+        <v>586</v>
+      </c>
+      <c r="P708" s="39">
+        <v>207</v>
+      </c>
+      <c r="Q708" s="39">
+        <v>103</v>
+      </c>
+      <c r="R708" s="39">
+        <v>14</v>
+      </c>
+      <c r="S708" s="39">
+        <v>13</v>
+      </c>
+      <c r="T708" s="39">
+        <v>15</v>
+      </c>
+      <c r="U708" s="40" t="s">
+        <v>1657</v>
+      </c>
+    </row>
+    <row r="709" ht="14.25" spans="1:21">
+      <c r="A709">
+        <v>652</v>
+      </c>
+      <c r="B709" t="s">
+        <v>248</v>
+      </c>
+      <c r="C709" t="s">
+        <v>243</v>
+      </c>
+      <c r="N709" s="39" t="s">
+        <v>470</v>
+      </c>
+      <c r="O709" t="s">
+        <v>586</v>
+      </c>
+      <c r="P709" s="39">
+        <v>639</v>
+      </c>
+      <c r="Q709" s="39">
+        <v>382</v>
+      </c>
+      <c r="R709" s="39">
+        <v>27</v>
+      </c>
+      <c r="S709" s="39">
+        <v>60</v>
+      </c>
+      <c r="T709" s="39">
+        <v>50</v>
+      </c>
+      <c r="U709" s="40" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="710" ht="14.25" spans="1:21">
+      <c r="A710">
+        <v>653</v>
+      </c>
+      <c r="B710" t="s">
+        <v>248</v>
+      </c>
+      <c r="C710" t="s">
+        <v>243</v>
+      </c>
+      <c r="N710" s="39" t="s">
+        <v>470</v>
+      </c>
+      <c r="O710" t="s">
+        <v>583</v>
+      </c>
+      <c r="P710" s="39">
+        <v>627</v>
+      </c>
+      <c r="Q710" s="39">
+        <v>504</v>
+      </c>
+      <c r="R710" s="39">
+        <v>47</v>
+      </c>
+      <c r="S710" s="39">
+        <v>106</v>
+      </c>
+      <c r="T710" s="39">
+        <v>77</v>
+      </c>
+      <c r="U710" s="40" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="711" ht="14.25" spans="1:21">
+      <c r="A711">
+        <v>654</v>
+      </c>
+      <c r="B711" t="s">
+        <v>248</v>
+      </c>
+      <c r="C711" t="s">
+        <v>243</v>
+      </c>
+      <c r="N711" s="39" t="s">
+        <v>470</v>
+      </c>
+      <c r="O711" t="s">
+        <v>581</v>
+      </c>
+      <c r="P711" s="39">
+        <v>640</v>
+      </c>
+      <c r="Q711" s="39">
+        <v>396</v>
+      </c>
+      <c r="R711" s="39">
+        <v>36</v>
+      </c>
+      <c r="S711" s="39">
+        <v>71</v>
+      </c>
+      <c r="T711" s="39">
+        <v>75</v>
+      </c>
+      <c r="U711" s="40" t="s">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="712" ht="14.25" spans="1:21">
+      <c r="A712">
+        <v>655</v>
+      </c>
+      <c r="B712" t="s">
+        <v>248</v>
+      </c>
+      <c r="C712" t="s">
+        <v>243</v>
+      </c>
+      <c r="N712" s="39" t="s">
+        <v>470</v>
+      </c>
+      <c r="O712" t="s">
+        <v>579</v>
+      </c>
+      <c r="P712" s="39">
+        <v>1069</v>
+      </c>
+      <c r="Q712" s="39">
+        <v>558</v>
+      </c>
+      <c r="R712" s="39">
+        <v>41</v>
+      </c>
+      <c r="S712" s="39">
+        <v>91</v>
+      </c>
+      <c r="T712" s="39">
+        <v>112</v>
+      </c>
+      <c r="U712" s="40" t="s">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="713" ht="14.25" spans="1:21">
+      <c r="A713">
+        <v>656</v>
+      </c>
+      <c r="B713" t="s">
+        <v>248</v>
+      </c>
+      <c r="C713" t="s">
+        <v>243</v>
+      </c>
+      <c r="N713" s="39" t="s">
+        <v>470</v>
+      </c>
+      <c r="O713" t="s">
+        <v>577</v>
+      </c>
+      <c r="P713" s="39">
+        <v>517</v>
+      </c>
+      <c r="Q713" s="39">
+        <v>345</v>
+      </c>
+      <c r="R713" s="39">
+        <v>27</v>
+      </c>
+      <c r="S713" s="39">
+        <v>61</v>
+      </c>
+      <c r="T713" s="39">
+        <v>90</v>
+      </c>
+      <c r="U713" s="40" t="s">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="714" ht="14.25" spans="1:21">
+      <c r="A714">
+        <v>657</v>
+      </c>
+      <c r="B714" t="s">
+        <v>248</v>
+      </c>
+      <c r="C714" t="s">
+        <v>243</v>
+      </c>
+      <c r="N714" s="39" t="s">
+        <v>470</v>
+      </c>
+      <c r="O714" t="s">
+        <v>575</v>
+      </c>
+      <c r="P714" s="39">
+        <v>484</v>
+      </c>
+      <c r="Q714" s="39">
+        <v>332</v>
+      </c>
+      <c r="R714" s="39">
+        <v>27</v>
+      </c>
+      <c r="S714" s="39">
+        <v>47</v>
+      </c>
+      <c r="T714" s="39">
+        <v>81</v>
+      </c>
+      <c r="U714" s="40" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="715" ht="14.25" spans="1:21">
+      <c r="A715">
+        <v>658</v>
+      </c>
+      <c r="B715" t="s">
+        <v>248</v>
+      </c>
+      <c r="C715" t="s">
+        <v>243</v>
+      </c>
+      <c r="N715" s="39" t="s">
+        <v>470</v>
+      </c>
+      <c r="O715" t="s">
+        <v>572</v>
+      </c>
+      <c r="P715" s="39">
+        <v>569</v>
+      </c>
+      <c r="Q715" s="39">
+        <v>458</v>
+      </c>
+      <c r="R715" s="39">
+        <v>39</v>
+      </c>
+      <c r="S715" s="39">
+        <v>58</v>
+      </c>
+      <c r="T715" s="39">
+        <v>106</v>
+      </c>
+      <c r="U715" s="40" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="716" ht="14.25" spans="1:21">
+      <c r="A716">
+        <v>659</v>
+      </c>
+      <c r="B716" t="s">
+        <v>248</v>
+      </c>
+      <c r="C716" t="s">
+        <v>243</v>
+      </c>
+      <c r="N716" s="39" t="s">
+        <v>470</v>
+      </c>
+      <c r="O716" t="s">
+        <v>570</v>
+      </c>
+      <c r="P716" s="39">
+        <v>735</v>
+      </c>
+      <c r="Q716" s="39">
+        <v>611</v>
+      </c>
+      <c r="R716" s="39">
+        <v>50</v>
+      </c>
+      <c r="S716" s="39">
+        <v>70</v>
+      </c>
+      <c r="T716" s="39">
+        <v>104</v>
+      </c>
+      <c r="U716" s="40" t="s">
+        <v>1665</v>
       </c>
     </row>
   </sheetData>
@@ -37563,7 +39402,7 @@
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:A9"/>
+      <selection activeCell="A3" sqref="A3:A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/网站相关/data.xlsx
+++ b/网站相关/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1799">
   <si>
     <t>主键</t>
   </si>
@@ -5065,6 +5065,405 @@
   </si>
   <si>
     <t>7.5篮板0.9助攻0.61抢断1.27盖帽9.0分</t>
+  </si>
+  <si>
+    <t>2006年第1轮第24顺位</t>
+  </si>
+  <si>
+    <t>3年1亿美元，2017年夏天签，2020年夏天到期</t>
+  </si>
+  <si>
+    <t>4.7篮板8.9助攻1.34抢断0.51盖帽14.7分</t>
+  </si>
+  <si>
+    <t>2018年全明星东部替补阵容</t>
+  </si>
+  <si>
+    <t>5.6篮板6.9助攻1.09抢断0.24盖帽16.2分</t>
+  </si>
+  <si>
+    <t>4.8篮板7.0助攻1.47抢断0.32盖帽22.4分</t>
+  </si>
+  <si>
+    <t>2016年全明星东部首发阵容</t>
+  </si>
+  <si>
+    <t>4.7篮板6.4助攻2.05抢断0.44盖帽21.2分</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015-16赛季最佳阵容第三阵容 </t>
+  </si>
+  <si>
+    <t>4.7篮板6.8助攻1.56抢断0.19盖帽17.8分</t>
+  </si>
+  <si>
+    <t>2015年全明星东部首发阵容</t>
+  </si>
+  <si>
+    <t>4.7篮板7.4助攻1.53抢断0.19盖帽17.9分</t>
+  </si>
+  <si>
+    <t>4.7篮板6.4助攻1.38抢断0.35盖帽11.6分</t>
+  </si>
+  <si>
+    <t>4.5篮板6.6助攻1.55抢断0.30盖帽14.3分</t>
+  </si>
+  <si>
+    <t>4.1篮板6.7助攻1.36抢断0.31盖帽13.5分</t>
+  </si>
+  <si>
+    <t>3.6篮板4.5助攻0.88抢断0.13盖帽9.1分</t>
+  </si>
+  <si>
+    <t>2.8篮板3.5助攻0.75抢断0.32盖帽7.6分</t>
+  </si>
+  <si>
+    <t>2.3篮板3.6助攻0.98抢断0.16盖帽7.6分</t>
+  </si>
+  <si>
+    <t>3.0篮板3.6助攻1.12抢断0.26盖帽9.6分</t>
+  </si>
+  <si>
+    <t>3.1篮板3.2助攻1.40抢断0.10盖帽5.6分</t>
+  </si>
+  <si>
+    <t>2008年第1轮第24顺位</t>
+  </si>
+  <si>
+    <t>3年6500万美元，2017年夏天签，2020年夏天到期</t>
+  </si>
+  <si>
+    <t>8.0篮板1.4助攻0.41抢断1.38盖帽14.87分</t>
+  </si>
+  <si>
+    <t>2011-12    盖帽王</t>
+  </si>
+  <si>
+    <t>6.3篮板0.8助攻0.38抢断1.30盖帽12.6分</t>
+  </si>
+  <si>
+    <t>2011-12    最佳防守第一阵容</t>
+  </si>
+  <si>
+    <t>6.8篮板0.7助攻0.30抢断1.43盖帽14.2分</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-14    最佳防守第一阵容 </t>
+  </si>
+  <si>
+    <t>6.8篮板1.1助攻0.61抢断1.62盖帽15.1分</t>
+  </si>
+  <si>
+    <t>2012-13    盖帽王</t>
+  </si>
+  <si>
+    <t>6.8篮板0.8助攻0.49抢断1.90盖帽12.6分</t>
+  </si>
+  <si>
+    <t>2012-13    最佳防守第一阵容</t>
+  </si>
+  <si>
+    <t>7.8篮板0.9助攻0.47抢断2.42盖帽14.3分</t>
+  </si>
+  <si>
+    <t>8.8篮板1.0助攻0.48抢断2.70盖帽15.1分</t>
+  </si>
+  <si>
+    <t>7.7篮板0.5助攻0.35抢断3.02盖帽13.2分</t>
+  </si>
+  <si>
+    <t>7.5篮板0.4助攻0.50抢断3.65盖帽9.1分</t>
+  </si>
+  <si>
+    <t>7.6篮板0.3助攻0.38抢断2.41盖帽9.9分</t>
+  </si>
+  <si>
+    <t>5.4篮板0.1助攻0.34抢断1.33盖帽6.3分</t>
+  </si>
+  <si>
+    <t>2011年第1轮第15顺位</t>
+  </si>
+  <si>
+    <t>5年9434万美元，2015年夏天签，2020年夏天到期，2019-20赛季球员选项</t>
+  </si>
+  <si>
+    <t>7.4篮板3.3助攻1.87抢断0.42盖帽27.0分</t>
+  </si>
+  <si>
+    <t>4.7篮板2.3助攻2.00抢断1盖帽16.2分</t>
+  </si>
+  <si>
+    <t>2013-14赛季FMVP</t>
+  </si>
+  <si>
+    <t>5.8篮板3.5助攻1.80抢断0.74盖帽25.5分</t>
+  </si>
+  <si>
+    <t>6.8篮板2.6助攻1.78抢断0.99盖帽21.2分</t>
+  </si>
+  <si>
+    <t>7.2篮板2.5助攻2.31抢断0.75盖帽16.5分</t>
+  </si>
+  <si>
+    <t>6.2篮板2.0助攻1.73抢断0.76盖帽12.8分</t>
+  </si>
+  <si>
+    <t>2015-16赛季最佳防守球员</t>
+  </si>
+  <si>
+    <t>6.0篮板1.6助攻1.67抢断0.55盖帽11.9分</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2015-16赛季最佳防守阵容第一阵容</t>
+  </si>
+  <si>
+    <t>5.1篮板1.1助攻1.33抢断0.38盖帽7.9分</t>
+  </si>
+  <si>
+    <t>2014-15赛季最佳防守球员</t>
+  </si>
+  <si>
+    <t>2013-14赛季最佳防守阵容第二阵容</t>
+  </si>
+  <si>
+    <t>2011-12赛季最佳新秀阵容第一阵容</t>
+  </si>
+  <si>
+    <t>2016年全明星西部首发阵容</t>
+  </si>
+  <si>
+    <t>2009年第2轮第16顺位</t>
+  </si>
+  <si>
+    <t>4年4000万美元，2015年夏天签，2019年夏天到期，2018-19赛季球员选项</t>
+  </si>
+  <si>
+    <t>4.0篮板1.5助攻0.88抢断0.63盖帽10.0分</t>
+  </si>
+  <si>
+    <t>3.6篮板1.6助攻0.90抢断1.14盖帽8.6分</t>
+  </si>
+  <si>
+    <t>3.3篮板1.8助攻1.03抢断0.84盖帽7.3分</t>
+  </si>
+  <si>
+    <t>3.8篮板1.8助攻1抢断0.81盖帽7.2分</t>
+  </si>
+  <si>
+    <t>4.2篮板2.0助攻1.25抢断1.07盖帽11.7分</t>
+  </si>
+  <si>
+    <t>3.4篮板1.5助攻0.96抢断0.90盖帽9.1分</t>
+  </si>
+  <si>
+    <t>3.0篮板1.8助攻1.15抢断0.68盖帽10.5分</t>
+  </si>
+  <si>
+    <t>3.5篮板1.3助攻0.88抢断0.70盖帽9.1分</t>
+  </si>
+  <si>
+    <t>1.9篮板0.2助攻0.25抢断0.12盖帽5.1分</t>
+  </si>
+  <si>
+    <t>0.8篮板0.2助攻0.30抢断0.15盖帽2.0分</t>
+  </si>
+  <si>
+    <t>帕斯卡尔-西亚卡姆</t>
+  </si>
+  <si>
+    <t>2016年第1轮第27顺位</t>
+  </si>
+  <si>
+    <t>4年610万美元，2016年夏天签，2020年夏天到期，2018-19赛季、2019-20赛季球队选项</t>
+  </si>
+  <si>
+    <t>6.9篮板3.1助攻0.96抢断0.69盖帽16.8分</t>
+  </si>
+  <si>
+    <t>4.5篮板2.0助攻0.77抢断0.52盖帽7.3分</t>
+  </si>
+  <si>
+    <t>3.4篮板0.3助攻0.47抢断0.82盖帽4.2分</t>
+  </si>
+  <si>
+    <t>2014年第1轮第3顺位</t>
+  </si>
+  <si>
+    <t>4年1998万美元，2014年夏天签，2018年夏天到期；2017年10月以5年1.48亿美元提前续约，2018年夏天生效，2023年夏天到期</t>
+  </si>
+  <si>
+    <t>13.7篮板3.4助攻0.67抢断1.89盖帽27.3分</t>
+  </si>
+  <si>
+    <t>2017-18赛季    最佳防守阵容二阵</t>
+  </si>
+  <si>
+    <t>11.0篮板3.2助攻0.63抢断1.76盖帽22.9分</t>
+  </si>
+  <si>
+    <t>2017-18赛季    最佳阵容二阵</t>
+  </si>
+  <si>
+    <t>7.8篮板2.1助攻0.87抢断2.45盖帽20.2分</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-17赛季    最佳新秀第一阵容 </t>
+  </si>
+  <si>
+    <t>2017-18NBA全明星</t>
+  </si>
+  <si>
+    <t>2011年第1轮第30顺位</t>
+  </si>
+  <si>
+    <t>年8774万美元，2015年夏天签，2020年夏天到期，2019-20赛季球员选项</t>
+  </si>
+  <si>
+    <t>5.2篮板4.1助攻1.82抢断0.55盖帽18.8分</t>
+  </si>
+  <si>
+    <t>5.2篮板4.3助攻2.40抢断1盖帽21.3分</t>
+  </si>
+  <si>
+    <t>2017-18赛季NBA最佳防守阵容二阵容</t>
+  </si>
+  <si>
+    <t>5.3篮板4.9助攻1.97抢断0.41盖帽22.2分</t>
+  </si>
+  <si>
+    <t>6.2篮板5.5助攻1.88抢断0.42盖帽23.9分</t>
+  </si>
+  <si>
+    <t>2017年全明星东部首发阵容</t>
+  </si>
+  <si>
+    <t>5.3篮板4.8助攻1.64抢断0.64盖帽20.9分</t>
+  </si>
+  <si>
+    <t>5.8篮板3.3助攻1.75抢断0.55盖帽20.0分</t>
+  </si>
+  <si>
+    <t>4.9篮板2.6助攻1.90抢断0.54盖帽13.1分</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2015-16赛季最佳防守阵容第二阵容</t>
+  </si>
+  <si>
+    <t>4.0篮板1.4助攻0.95抢断0.38盖帽8.6分</t>
+  </si>
+  <si>
+    <t>1.3篮板0.3助攻0.26抢断0.12盖帽2.6分</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2014-15赛季最佳防守阵容第二阵容</t>
+  </si>
+  <si>
+    <t>2014-15赛季最快进步球员</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2013-14赛季最佳防守阵容第二阵容</t>
+  </si>
+  <si>
+    <t>2011年第1轮第19顺位</t>
+  </si>
+  <si>
+    <t>4年6400万美元，2015年夏天签，2019年夏天到期</t>
+  </si>
+  <si>
+    <t>8.0篮板2.8助攻0.50抢断0.55盖帽19.0分</t>
+  </si>
+  <si>
+    <t>7.9篮板2.7助攻0.73抢断0.44盖帽20.9分</t>
+  </si>
+  <si>
+    <t>6.0篮板3.1助攻1.16抢断0.62盖帽19.3分</t>
+  </si>
+  <si>
+    <t>5.1篮板2.0助攻0.71抢断0.31盖帽18.1分</t>
+  </si>
+  <si>
+    <t>5.1篮板1.7助攻0.73抢断0.48盖帽16.1分</t>
+  </si>
+  <si>
+    <t>6.2篮板2.6助攻0.67抢断0.44盖帽16.6分</t>
+  </si>
+  <si>
+    <t>7.0篮板2.0助攻0.96抢断0.57盖帽13.7分</t>
+  </si>
+  <si>
+    <t>6.3篮板1.8助攻1.01抢断0.53盖帽17.1分</t>
+  </si>
+  <si>
+    <t>7.0篮板1.3助攻0.67抢断0.39盖帽14.6分</t>
+  </si>
+  <si>
+    <t>8.5篮板2.1助攻0.89抢断1.37盖帽17.3分</t>
+  </si>
+  <si>
+    <t>2.0篮板0.5助攻0.29抢断0.25盖帽4.9分</t>
+  </si>
+  <si>
+    <t>2.4篮板0.5助攻0.31抢断0.17盖帽5.0分</t>
+  </si>
+  <si>
+    <t>2006年第1轮第11顺位</t>
+  </si>
+  <si>
+    <t>1年1225万美元，2018年夏天签，2019年夏天到期</t>
+  </si>
+  <si>
+    <t>2.4篮板2.7助攻0.40抢断0.23盖帽17.6分</t>
+  </si>
+  <si>
+    <t>2.5篮板3.0助攻0.50抢断0.09盖帽17.1分</t>
+  </si>
+  <si>
+    <t>2.2篮板1.4助攻0.69抢断0.17盖帽15.0分</t>
+  </si>
+  <si>
+    <t>1.9篮板1.4助攻0.56抢断0.07盖帽16.3分</t>
+  </si>
+  <si>
+    <t>2.1篮板1.8助攻0.50抢断0.10盖帽16.4分</t>
+  </si>
+  <si>
+    <t>2.1篮板2.2助攻0.80抢断0.09盖帽15.2分</t>
+  </si>
+  <si>
+    <t>1.9篮板2.7助攻0.32抢断0.14盖帽12.3分</t>
+  </si>
+  <si>
+    <t>2.4篮板4.4助攻0.58抢断0.10盖帽15.1分</t>
+  </si>
+  <si>
+    <t>2.3篮板2.5助攻0.42抢断0.09盖帽11.6分</t>
+  </si>
+  <si>
+    <t>1.9篮板1.7助攻0.49抢断0.05盖帽10.1分</t>
+  </si>
+  <si>
+    <t>1.9篮板1.9助攻0.34抢断0.05盖帽9.6分</t>
+  </si>
+  <si>
+    <t>1.7篮板1.1助攻0.33抢断0.02盖帽6.0分</t>
+  </si>
+  <si>
+    <t>0.7篮板0.5助攻0.12抢断0盖帽4.1分</t>
+  </si>
+  <si>
+    <t>1.2篮板0.9助攻0.29抢断0盖帽6.0分</t>
+  </si>
+  <si>
+    <t>2016年第1轮第1顺位</t>
+  </si>
+  <si>
+    <t>4年2662万美元，2016年夏天签，2020年夏天到期，2018-19赛季、2019-20赛季球队选项</t>
+  </si>
+  <si>
+    <t>9.0篮板7.8助攻1.40抢断0.75盖帽17.1分</t>
+  </si>
+  <si>
+    <t>8.1篮板8.2助攻1.73抢断0.86盖帽15.8分</t>
   </si>
 </sst>
 </file>
@@ -5167,77 +5566,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5258,7 +5589,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5271,8 +5632,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5286,8 +5670,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -5297,6 +5688,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -5323,31 +5722,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5365,25 +5758,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5395,31 +5860,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5431,61 +5884,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5497,13 +5896,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5730,35 +6129,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5774,6 +6155,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5796,23 +6186,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5827,6 +6202,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -5835,10 +6234,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5847,19 +6246,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5868,116 +6267,116 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -6096,6 +6495,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
@@ -9363,7 +9763,7 @@
       <c r="C192" t="s">
         <v>227</v>
       </c>
-      <c r="J192" s="41" t="s">
+      <c r="J192" s="42" t="s">
         <v>233</v>
       </c>
     </row>
@@ -9599,7 +9999,7 @@
       <c r="C208" t="s">
         <v>243</v>
       </c>
-      <c r="J208" s="43" t="s">
+      <c r="J208" s="44" t="s">
         <v>251</v>
       </c>
     </row>
@@ -9717,7 +10117,7 @@
       <c r="E216">
         <v>18</v>
       </c>
-      <c r="F216" s="42">
+      <c r="F216" s="43">
         <v>0.743</v>
       </c>
       <c r="G216" t="s">
@@ -10113,7 +10513,7 @@
       <c r="C243" t="s">
         <v>276</v>
       </c>
-      <c r="J243" s="44" t="s">
+      <c r="J243" s="45" t="s">
         <v>289</v>
       </c>
     </row>
@@ -10195,7 +10595,7 @@
       <c r="C248" t="s">
         <v>299</v>
       </c>
-      <c r="J248" s="41" t="s">
+      <c r="J248" s="42" t="s">
         <v>300</v>
       </c>
     </row>
@@ -10293,7 +10693,7 @@
       <c r="C255" t="s">
         <v>313</v>
       </c>
-      <c r="J255" s="41" t="s">
+      <c r="J255" s="42" t="s">
         <v>314</v>
       </c>
     </row>
@@ -10307,7 +10707,7 @@
       <c r="C256" t="s">
         <v>315</v>
       </c>
-      <c r="J256" s="41" t="s">
+      <c r="J256" s="42" t="s">
         <v>316</v>
       </c>
     </row>
@@ -10667,7 +11067,7 @@
       <c r="C280" t="s">
         <v>336</v>
       </c>
-      <c r="J280" s="41" t="s">
+      <c r="J280" s="42" t="s">
         <v>344</v>
       </c>
     </row>
@@ -10875,7 +11275,7 @@
       <c r="C294" t="s">
         <v>351</v>
       </c>
-      <c r="J294" s="41" t="s">
+      <c r="J294" s="42" t="s">
         <v>359</v>
       </c>
     </row>
@@ -12871,10 +13271,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X716"/>
+  <dimension ref="A1:X812"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A680" workbookViewId="0">
-      <selection activeCell="M708" sqref="M708"/>
+    <sheetView tabSelected="1" topLeftCell="A781" workbookViewId="0">
+      <selection activeCell="A810" sqref="A810:A812"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -37765,28 +38165,28 @@
       <c r="M675" t="s">
         <v>1603</v>
       </c>
-      <c r="N675" s="39" t="s">
+      <c r="N675" s="32" t="s">
         <v>243</v>
       </c>
       <c r="O675" t="s">
         <v>593</v>
       </c>
-      <c r="P675" s="39">
+      <c r="P675" s="32">
         <v>1150</v>
       </c>
-      <c r="Q675" s="39">
+      <c r="Q675" s="32">
         <v>312</v>
       </c>
-      <c r="R675" s="39">
+      <c r="R675" s="32">
         <v>65</v>
       </c>
-      <c r="S675" s="39">
+      <c r="S675" s="32">
         <v>153</v>
       </c>
-      <c r="T675" s="39">
+      <c r="T675" s="32">
         <v>43</v>
       </c>
-      <c r="U675" s="40" t="s">
+      <c r="U675" s="37" t="s">
         <v>1604</v>
       </c>
       <c r="W675" t="s">
@@ -37803,28 +38203,28 @@
       <c r="C676" t="s">
         <v>243</v>
       </c>
-      <c r="N676" s="39" t="s">
+      <c r="N676" s="32" t="s">
         <v>243</v>
       </c>
       <c r="O676" t="s">
         <v>589</v>
       </c>
-      <c r="P676" s="39">
+      <c r="P676" s="32">
         <v>1452</v>
       </c>
-      <c r="Q676" s="39">
+      <c r="Q676" s="32">
         <v>358</v>
       </c>
-      <c r="R676" s="39">
+      <c r="R676" s="32">
         <v>91</v>
       </c>
-      <c r="S676" s="39">
+      <c r="S676" s="32">
         <v>160</v>
       </c>
-      <c r="T676" s="39">
+      <c r="T676" s="32">
         <v>51</v>
       </c>
-      <c r="U676" s="40" t="s">
+      <c r="U676" s="37" t="s">
         <v>1606</v>
       </c>
       <c r="W676" t="s">
@@ -37841,28 +38241,28 @@
       <c r="C677" t="s">
         <v>243</v>
       </c>
-      <c r="N677" s="39" t="s">
+      <c r="N677" s="32" t="s">
         <v>243</v>
       </c>
       <c r="O677" t="s">
         <v>586</v>
       </c>
-      <c r="P677" s="39">
+      <c r="P677" s="32">
         <v>1933</v>
       </c>
-      <c r="Q677" s="39">
+      <c r="Q677" s="32">
         <v>328</v>
       </c>
-      <c r="R677" s="39">
+      <c r="R677" s="32">
         <v>82</v>
       </c>
-      <c r="S677" s="39">
+      <c r="S677" s="32">
         <v>189</v>
       </c>
-      <c r="T677" s="39">
+      <c r="T677" s="32">
         <v>30</v>
       </c>
-      <c r="U677" s="40" t="s">
+      <c r="U677" s="37" t="s">
         <v>1608</v>
       </c>
     </row>
@@ -37876,28 +38276,28 @@
       <c r="C678" t="s">
         <v>243</v>
       </c>
-      <c r="N678" s="39" t="s">
+      <c r="N678" s="32" t="s">
         <v>243</v>
       </c>
       <c r="O678" t="s">
         <v>583</v>
       </c>
-      <c r="P678" s="39">
+      <c r="P678" s="32">
         <v>1675</v>
       </c>
-      <c r="Q678" s="39">
+      <c r="Q678" s="32">
         <v>291</v>
       </c>
-      <c r="R678" s="39">
+      <c r="R678" s="32">
         <v>78</v>
       </c>
-      <c r="S678" s="39">
+      <c r="S678" s="32">
         <v>164</v>
       </c>
-      <c r="T678" s="39">
+      <c r="T678" s="32">
         <v>46</v>
       </c>
-      <c r="U678" s="40" t="s">
+      <c r="U678" s="37" t="s">
         <v>1609</v>
       </c>
     </row>
@@ -37911,28 +38311,28 @@
       <c r="C679" t="s">
         <v>243</v>
       </c>
-      <c r="N679" s="39" t="s">
+      <c r="N679" s="32" t="s">
         <v>243</v>
       </c>
       <c r="O679" t="s">
         <v>581</v>
       </c>
-      <c r="P679" s="39">
+      <c r="P679" s="32">
         <v>1387</v>
       </c>
-      <c r="Q679" s="39">
+      <c r="Q679" s="32">
         <v>374</v>
       </c>
-      <c r="R679" s="39">
+      <c r="R679" s="32">
         <v>86</v>
       </c>
-      <c r="S679" s="39">
+      <c r="S679" s="32">
         <v>170</v>
       </c>
-      <c r="T679" s="39">
+      <c r="T679" s="32">
         <v>50</v>
       </c>
-      <c r="U679" s="40" t="s">
+      <c r="U679" s="37" t="s">
         <v>1610</v>
       </c>
     </row>
@@ -37976,28 +38376,28 @@
       <c r="M680" t="s">
         <v>1612</v>
       </c>
-      <c r="N680" s="39" t="s">
+      <c r="N680" s="32" t="s">
         <v>243</v>
       </c>
       <c r="O680" t="s">
         <v>593</v>
       </c>
-      <c r="P680" s="39">
+      <c r="P680" s="32">
         <v>510</v>
       </c>
-      <c r="Q680" s="39">
+      <c r="Q680" s="32">
         <v>106</v>
       </c>
-      <c r="R680" s="39">
+      <c r="R680" s="32">
         <v>43</v>
       </c>
-      <c r="S680" s="39">
+      <c r="S680" s="32">
         <v>343</v>
       </c>
-      <c r="T680" s="39">
+      <c r="T680" s="32">
         <v>18</v>
       </c>
-      <c r="U680" s="40" t="s">
+      <c r="U680" s="37" t="s">
         <v>1613</v>
       </c>
       <c r="W680" t="s">
@@ -38014,28 +38414,28 @@
       <c r="C681" t="s">
         <v>243</v>
       </c>
-      <c r="N681" s="39" t="s">
+      <c r="N681" s="32" t="s">
         <v>243</v>
       </c>
       <c r="O681" t="s">
         <v>589</v>
       </c>
-      <c r="P681" s="39">
+      <c r="P681" s="32">
         <v>994</v>
       </c>
-      <c r="Q681" s="39">
+      <c r="Q681" s="32">
         <v>209</v>
       </c>
-      <c r="R681" s="39">
+      <c r="R681" s="32">
         <v>102</v>
       </c>
-      <c r="S681" s="39">
+      <c r="S681" s="32">
         <v>492</v>
       </c>
-      <c r="T681" s="39">
+      <c r="T681" s="32">
         <v>23</v>
       </c>
-      <c r="U681" s="40" t="s">
+      <c r="U681" s="37" t="s">
         <v>1615</v>
       </c>
     </row>
@@ -38049,28 +38449,28 @@
       <c r="C682" t="s">
         <v>243</v>
       </c>
-      <c r="N682" s="39" t="s">
+      <c r="N682" s="32" t="s">
         <v>439</v>
       </c>
       <c r="O682" t="s">
         <v>586</v>
       </c>
-      <c r="P682" s="39">
+      <c r="P682" s="32">
         <v>1254</v>
       </c>
-      <c r="Q682" s="39">
+      <c r="Q682" s="32">
         <v>331</v>
       </c>
-      <c r="R682" s="39">
+      <c r="R682" s="32">
         <v>100</v>
       </c>
-      <c r="S682" s="39">
+      <c r="S682" s="32">
         <v>639</v>
       </c>
-      <c r="T682" s="39">
+      <c r="T682" s="32">
         <v>32</v>
       </c>
-      <c r="U682" s="40" t="s">
+      <c r="U682" s="37" t="s">
         <v>1616</v>
       </c>
     </row>
@@ -38084,28 +38484,28 @@
       <c r="C683" t="s">
         <v>243</v>
       </c>
-      <c r="N683" s="39" t="s">
+      <c r="N683" s="32" t="s">
         <v>426</v>
       </c>
       <c r="O683" t="s">
         <v>583</v>
       </c>
-      <c r="P683" s="39">
+      <c r="P683" s="32">
         <v>1239</v>
       </c>
-      <c r="Q683" s="39">
+      <c r="Q683" s="32">
         <v>214</v>
       </c>
-      <c r="R683" s="39">
+      <c r="R683" s="32">
         <v>97</v>
       </c>
-      <c r="S683" s="39">
+      <c r="S683" s="32">
         <v>470</v>
       </c>
-      <c r="T683" s="39">
+      <c r="T683" s="32">
         <v>24</v>
       </c>
-      <c r="U683" s="40" t="s">
+      <c r="U683" s="37" t="s">
         <v>1617</v>
       </c>
     </row>
@@ -38119,28 +38519,28 @@
       <c r="C684" t="s">
         <v>243</v>
       </c>
-      <c r="N684" s="39" t="s">
+      <c r="N684" s="32" t="s">
         <v>426</v>
       </c>
       <c r="O684" t="s">
         <v>581</v>
       </c>
-      <c r="P684" s="39">
+      <c r="P684" s="32">
         <v>1162</v>
       </c>
-      <c r="Q684" s="39">
+      <c r="Q684" s="32">
         <v>184</v>
       </c>
-      <c r="R684" s="39">
+      <c r="R684" s="32">
         <v>125</v>
       </c>
-      <c r="S684" s="39">
+      <c r="S684" s="32">
         <v>513</v>
       </c>
-      <c r="T684" s="39">
+      <c r="T684" s="32">
         <v>31</v>
       </c>
-      <c r="U684" s="40" t="s">
+      <c r="U684" s="37" t="s">
         <v>1618</v>
       </c>
     </row>
@@ -38154,28 +38554,28 @@
       <c r="C685" t="s">
         <v>243</v>
       </c>
-      <c r="N685" s="39" t="s">
+      <c r="N685" s="32" t="s">
         <v>426</v>
       </c>
       <c r="O685" t="s">
         <v>579</v>
       </c>
-      <c r="P685" s="39">
+      <c r="P685" s="32">
         <v>1304</v>
       </c>
-      <c r="Q685" s="39">
+      <c r="Q685" s="32">
         <v>208</v>
       </c>
-      <c r="R685" s="39">
+      <c r="R685" s="32">
         <v>89</v>
       </c>
-      <c r="S685" s="39">
+      <c r="S685" s="32">
         <v>528</v>
       </c>
-      <c r="T685" s="39">
+      <c r="T685" s="32">
         <v>17</v>
       </c>
-      <c r="U685" s="40" t="s">
+      <c r="U685" s="37" t="s">
         <v>1619</v>
       </c>
     </row>
@@ -38189,28 +38589,28 @@
       <c r="C686" t="s">
         <v>243</v>
       </c>
-      <c r="N686" s="39" t="s">
+      <c r="N686" s="32" t="s">
         <v>426</v>
       </c>
       <c r="O686" t="s">
         <v>577</v>
       </c>
-      <c r="P686" s="39">
+      <c r="P686" s="32">
         <v>1166</v>
       </c>
-      <c r="Q686" s="39">
+      <c r="Q686" s="32">
         <v>180</v>
       </c>
-      <c r="R686" s="39">
+      <c r="R686" s="32">
         <v>117</v>
       </c>
-      <c r="S686" s="39">
+      <c r="S686" s="32">
         <v>579</v>
       </c>
-      <c r="T686" s="39">
+      <c r="T686" s="32">
         <v>28</v>
       </c>
-      <c r="U686" s="40" t="s">
+      <c r="U686" s="37" t="s">
         <v>1620</v>
       </c>
     </row>
@@ -38224,28 +38624,28 @@
       <c r="C687" t="s">
         <v>243</v>
       </c>
-      <c r="N687" s="39" t="s">
+      <c r="N687" s="32" t="s">
         <v>426</v>
       </c>
       <c r="O687" t="s">
         <v>575</v>
       </c>
-      <c r="P687" s="39">
+      <c r="P687" s="32">
         <v>831</v>
       </c>
-      <c r="Q687" s="39">
+      <c r="Q687" s="32">
         <v>159</v>
       </c>
-      <c r="R687" s="39">
+      <c r="R687" s="32">
         <v>106</v>
       </c>
-      <c r="S687" s="39">
+      <c r="S687" s="32">
         <v>321</v>
       </c>
-      <c r="T687" s="39">
+      <c r="T687" s="32">
         <v>37</v>
       </c>
-      <c r="U687" s="40" t="s">
+      <c r="U687" s="37" t="s">
         <v>1621</v>
       </c>
     </row>
@@ -38259,28 +38659,28 @@
       <c r="C688" t="s">
         <v>243</v>
       </c>
-      <c r="N688" s="39" t="s">
+      <c r="N688" s="32" t="s">
         <v>426</v>
       </c>
       <c r="O688" t="s">
         <v>572</v>
       </c>
-      <c r="P688" s="39">
+      <c r="P688" s="32">
         <v>361</v>
       </c>
-      <c r="Q688" s="39">
+      <c r="Q688" s="32">
         <v>102</v>
       </c>
-      <c r="R688" s="39">
+      <c r="R688" s="32">
         <v>45</v>
       </c>
-      <c r="S688" s="39">
+      <c r="S688" s="32">
         <v>138</v>
       </c>
-      <c r="T688" s="39">
+      <c r="T688" s="32">
         <v>25</v>
       </c>
-      <c r="U688" s="40" t="s">
+      <c r="U688" s="37" t="s">
         <v>1622</v>
       </c>
     </row>
@@ -38294,28 +38694,28 @@
       <c r="C689" t="s">
         <v>243</v>
       </c>
-      <c r="N689" s="39" t="s">
+      <c r="N689" s="32" t="s">
         <v>426</v>
       </c>
       <c r="O689" t="s">
         <v>570</v>
       </c>
-      <c r="P689" s="39">
+      <c r="P689" s="32">
         <v>228</v>
       </c>
-      <c r="Q689" s="39">
+      <c r="Q689" s="32">
         <v>67</v>
       </c>
-      <c r="R689" s="39">
+      <c r="R689" s="32">
         <v>34</v>
       </c>
-      <c r="S689" s="39">
+      <c r="S689" s="32">
         <v>122</v>
       </c>
-      <c r="T689" s="39">
+      <c r="T689" s="32">
         <v>11</v>
       </c>
-      <c r="U689" s="40" t="s">
+      <c r="U689" s="37" t="s">
         <v>1623</v>
       </c>
     </row>
@@ -38359,28 +38759,28 @@
       <c r="M690" t="s">
         <v>1625</v>
       </c>
-      <c r="N690" s="39" t="s">
+      <c r="N690" s="32" t="s">
         <v>243</v>
       </c>
       <c r="O690" t="s">
         <v>593</v>
       </c>
-      <c r="P690" s="39">
+      <c r="P690" s="32">
         <v>1751</v>
       </c>
-      <c r="Q690" s="39">
+      <c r="Q690" s="32">
         <v>890</v>
       </c>
-      <c r="R690" s="39">
+      <c r="R690" s="32">
         <v>64</v>
       </c>
-      <c r="S690" s="39">
+      <c r="S690" s="32">
         <v>237</v>
       </c>
-      <c r="T690" s="39">
+      <c r="T690" s="32">
         <v>117</v>
       </c>
-      <c r="U690" s="40" t="s">
+      <c r="U690" s="37" t="s">
         <v>1626</v>
       </c>
       <c r="W690" t="s">
@@ -38397,28 +38797,28 @@
       <c r="C691" t="s">
         <v>243</v>
       </c>
-      <c r="N691" s="39" t="s">
+      <c r="N691" s="32" t="s">
         <v>243</v>
       </c>
       <c r="O691" t="s">
         <v>589</v>
       </c>
-      <c r="P691" s="39">
+      <c r="P691" s="32">
         <v>1743</v>
       </c>
-      <c r="Q691" s="39">
+      <c r="Q691" s="32">
         <v>1012</v>
       </c>
-      <c r="R691" s="39">
+      <c r="R691" s="32">
         <v>64</v>
       </c>
-      <c r="S691" s="39">
+      <c r="S691" s="32">
         <v>199</v>
       </c>
-      <c r="T691" s="39">
+      <c r="T691" s="32">
         <v>115</v>
       </c>
-      <c r="U691" s="40" t="s">
+      <c r="U691" s="37" t="s">
         <v>1627</v>
       </c>
       <c r="W691" t="s">
@@ -38435,28 +38835,28 @@
       <c r="C692" t="s">
         <v>243</v>
       </c>
-      <c r="N692" s="39" t="s">
+      <c r="N692" s="32" t="s">
         <v>243</v>
       </c>
       <c r="O692" t="s">
         <v>586</v>
       </c>
-      <c r="P692" s="39">
+      <c r="P692" s="32">
         <v>2061</v>
       </c>
-      <c r="Q692" s="39">
+      <c r="Q692" s="32">
         <v>1007</v>
       </c>
-      <c r="R692" s="39">
+      <c r="R692" s="32">
         <v>56</v>
       </c>
-      <c r="S692" s="39">
+      <c r="S692" s="32">
         <v>220</v>
       </c>
-      <c r="T692" s="39">
+      <c r="T692" s="32">
         <v>103</v>
       </c>
-      <c r="U692" s="40" t="s">
+      <c r="U692" s="37" t="s">
         <v>1629</v>
       </c>
       <c r="W692" t="s">
@@ -38473,28 +38873,28 @@
       <c r="C693" t="s">
         <v>243</v>
       </c>
-      <c r="N693" s="39" t="s">
+      <c r="N693" s="32" t="s">
         <v>243</v>
       </c>
       <c r="O693" t="s">
         <v>583</v>
       </c>
-      <c r="P693" s="39">
+      <c r="P693" s="32">
         <v>1503</v>
       </c>
-      <c r="Q693" s="39">
+      <c r="Q693" s="32">
         <v>858</v>
       </c>
-      <c r="R693" s="39">
+      <c r="R693" s="32">
         <v>58</v>
       </c>
-      <c r="S693" s="39">
+      <c r="S693" s="32">
         <v>161</v>
       </c>
-      <c r="T693" s="39">
+      <c r="T693" s="32">
         <v>138</v>
       </c>
-      <c r="U693" s="40" t="s">
+      <c r="U693" s="37" t="s">
         <v>1631</v>
       </c>
       <c r="W693" t="s">
@@ -38555,28 +38955,28 @@
       <c r="M695" t="s">
         <v>1634</v>
       </c>
-      <c r="N695" s="39" t="s">
+      <c r="N695" s="32" t="s">
         <v>243</v>
       </c>
       <c r="O695" t="s">
         <v>593</v>
       </c>
-      <c r="P695" s="39">
+      <c r="P695" s="32">
         <v>917</v>
       </c>
-      <c r="Q695" s="39">
+      <c r="Q695" s="32">
         <v>140</v>
       </c>
-      <c r="R695" s="39">
+      <c r="R695" s="32">
         <v>31</v>
       </c>
-      <c r="S695" s="39">
+      <c r="S695" s="32">
         <v>220</v>
       </c>
-      <c r="T695" s="39">
+      <c r="T695" s="32">
         <v>12</v>
       </c>
-      <c r="U695" s="40" t="s">
+      <c r="U695" s="37" t="s">
         <v>1635</v>
       </c>
       <c r="W695" t="s">
@@ -38593,28 +38993,28 @@
       <c r="C696" t="s">
         <v>243</v>
       </c>
-      <c r="N696" s="39" t="s">
+      <c r="N696" s="32" t="s">
         <v>243</v>
       </c>
       <c r="O696" t="s">
         <v>589</v>
       </c>
-      <c r="P696" s="39">
+      <c r="P696" s="32">
         <v>52</v>
       </c>
-      <c r="Q696" s="39">
+      <c r="Q696" s="32">
         <v>6</v>
       </c>
-      <c r="R696" s="39">
+      <c r="R696" s="32">
         <v>4</v>
       </c>
-      <c r="S696" s="39">
+      <c r="S696" s="32">
         <v>11</v>
       </c>
-      <c r="T696" s="39">
+      <c r="T696" s="32">
         <v>0</v>
       </c>
-      <c r="U696" s="40" t="s">
+      <c r="U696" s="37" t="s">
         <v>1637</v>
       </c>
       <c r="W696" t="s">
@@ -38631,28 +39031,28 @@
       <c r="C697" t="s">
         <v>243</v>
       </c>
-      <c r="N697" s="39" t="s">
+      <c r="N697" s="32" t="s">
         <v>1382</v>
       </c>
       <c r="O697" t="s">
         <v>586</v>
       </c>
-      <c r="P697" s="39">
+      <c r="P697" s="32">
         <v>157</v>
       </c>
-      <c r="Q697" s="39">
+      <c r="Q697" s="32">
         <v>29</v>
       </c>
-      <c r="R697" s="39">
+      <c r="R697" s="32">
         <v>3</v>
       </c>
-      <c r="S697" s="39">
+      <c r="S697" s="32">
         <v>26</v>
       </c>
-      <c r="T697" s="39">
+      <c r="T697" s="32">
         <v>4</v>
       </c>
-      <c r="U697" s="40" t="s">
+      <c r="U697" s="37" t="s">
         <v>1639</v>
       </c>
       <c r="W697" t="s">
@@ -38669,28 +39069,28 @@
       <c r="C698" t="s">
         <v>243</v>
       </c>
-      <c r="N698" s="39" t="s">
+      <c r="N698" s="32" t="s">
         <v>351</v>
       </c>
       <c r="O698" t="s">
         <v>586</v>
       </c>
-      <c r="P698" s="39">
+      <c r="P698" s="32">
         <v>1154</v>
       </c>
-      <c r="Q698" s="39">
+      <c r="Q698" s="32">
         <v>246</v>
       </c>
-      <c r="R698" s="39">
+      <c r="R698" s="32">
         <v>44</v>
       </c>
-      <c r="S698" s="39">
+      <c r="S698" s="32">
         <v>283</v>
       </c>
-      <c r="T698" s="39">
+      <c r="T698" s="32">
         <v>17</v>
       </c>
-      <c r="U698" s="40" t="s">
+      <c r="U698" s="37" t="s">
         <v>1641</v>
       </c>
       <c r="W698" t="s">
@@ -38707,28 +39107,28 @@
       <c r="C699" t="s">
         <v>243</v>
       </c>
-      <c r="N699" s="39" t="s">
+      <c r="N699" s="32" t="s">
         <v>470</v>
       </c>
       <c r="O699" t="s">
         <v>583</v>
       </c>
-      <c r="P699" s="39">
+      <c r="P699" s="32">
         <v>1080</v>
       </c>
-      <c r="Q699" s="39">
+      <c r="Q699" s="32">
         <v>225</v>
       </c>
-      <c r="R699" s="39">
+      <c r="R699" s="32">
         <v>44</v>
       </c>
-      <c r="S699" s="39">
+      <c r="S699" s="32">
         <v>311</v>
       </c>
-      <c r="T699" s="39">
+      <c r="T699" s="32">
         <v>14</v>
       </c>
-      <c r="U699" s="40" t="s">
+      <c r="U699" s="37" t="s">
         <v>1643</v>
       </c>
       <c r="W699" t="s">
@@ -38745,28 +39145,28 @@
       <c r="C700" t="s">
         <v>243</v>
       </c>
-      <c r="N700" s="39" t="s">
+      <c r="N700" s="32" t="s">
         <v>470</v>
       </c>
       <c r="O700" t="s">
         <v>581</v>
       </c>
-      <c r="P700" s="39">
+      <c r="P700" s="32">
         <v>904</v>
       </c>
-      <c r="Q700" s="39">
+      <c r="Q700" s="32">
         <v>161</v>
       </c>
-      <c r="R700" s="39">
+      <c r="R700" s="32">
         <v>36</v>
       </c>
-      <c r="S700" s="39">
+      <c r="S700" s="32">
         <v>251</v>
       </c>
-      <c r="T700" s="39">
+      <c r="T700" s="32">
         <v>16</v>
       </c>
-      <c r="U700" s="40" t="s">
+      <c r="U700" s="37" t="s">
         <v>1645</v>
       </c>
       <c r="W700" t="s">
@@ -38783,28 +39183,28 @@
       <c r="C701" t="s">
         <v>243</v>
       </c>
-      <c r="N701" s="39" t="s">
+      <c r="N701" s="32" t="s">
         <v>470</v>
       </c>
       <c r="O701" t="s">
         <v>579</v>
       </c>
-      <c r="P701" s="39">
+      <c r="P701" s="32">
         <v>159</v>
       </c>
-      <c r="Q701" s="39">
+      <c r="Q701" s="32">
         <v>32</v>
       </c>
-      <c r="R701" s="39">
+      <c r="R701" s="32">
         <v>5</v>
       </c>
-      <c r="S701" s="39">
+      <c r="S701" s="32">
         <v>43</v>
       </c>
-      <c r="T701" s="39">
+      <c r="T701" s="32">
         <v>1</v>
       </c>
-      <c r="U701" s="40" t="s">
+      <c r="U701" s="37" t="s">
         <v>1647</v>
       </c>
       <c r="W701" t="s">
@@ -38821,28 +39221,28 @@
       <c r="C702" t="s">
         <v>243</v>
       </c>
-      <c r="N702" s="39" t="s">
+      <c r="N702" s="32" t="s">
         <v>470</v>
       </c>
       <c r="O702" t="s">
         <v>575</v>
       </c>
-      <c r="P702" s="39">
+      <c r="P702" s="32">
         <v>852</v>
       </c>
-      <c r="Q702" s="39">
+      <c r="Q702" s="32">
         <v>131</v>
       </c>
-      <c r="R702" s="39">
+      <c r="R702" s="32">
         <v>35</v>
       </c>
-      <c r="S702" s="39">
+      <c r="S702" s="32">
         <v>307</v>
       </c>
-      <c r="T702" s="39">
+      <c r="T702" s="32">
         <v>28</v>
       </c>
-      <c r="U702" s="40" t="s">
+      <c r="U702" s="37" t="s">
         <v>1649</v>
       </c>
     </row>
@@ -38856,28 +39256,28 @@
       <c r="C703" t="s">
         <v>243</v>
       </c>
-      <c r="N703" s="39" t="s">
+      <c r="N703" s="32" t="s">
         <v>470</v>
       </c>
       <c r="O703" t="s">
         <v>572</v>
       </c>
-      <c r="P703" s="39">
+      <c r="P703" s="32">
         <v>2026</v>
       </c>
-      <c r="Q703" s="39">
+      <c r="Q703" s="32">
         <v>330</v>
       </c>
-      <c r="R703" s="39">
+      <c r="R703" s="32">
         <v>85</v>
       </c>
-      <c r="S703" s="39">
+      <c r="S703" s="32">
         <v>623</v>
       </c>
-      <c r="T703" s="39">
+      <c r="T703" s="32">
         <v>51</v>
       </c>
-      <c r="U703" s="40" t="s">
+      <c r="U703" s="37" t="s">
         <v>1650</v>
       </c>
     </row>
@@ -38891,28 +39291,28 @@
       <c r="C704" t="s">
         <v>243</v>
       </c>
-      <c r="N704" s="39" t="s">
+      <c r="N704" s="32" t="s">
         <v>470</v>
       </c>
       <c r="O704" t="s">
         <v>570</v>
       </c>
-      <c r="P704" s="39">
+      <c r="P704" s="32">
         <v>1619</v>
       </c>
-      <c r="Q704" s="39">
+      <c r="Q704" s="32">
         <v>293</v>
       </c>
-      <c r="R704" s="39">
+      <c r="R704" s="32">
         <v>57</v>
       </c>
-      <c r="S704" s="39">
+      <c r="S704" s="32">
         <v>469</v>
       </c>
-      <c r="T704" s="39">
+      <c r="T704" s="32">
         <v>27</v>
       </c>
-      <c r="U704" s="40" t="s">
+      <c r="U704" s="37" t="s">
         <v>1651</v>
       </c>
     </row>
@@ -38926,28 +39326,28 @@
       <c r="C705" t="s">
         <v>243</v>
       </c>
-      <c r="N705" s="39" t="s">
+      <c r="N705" s="32" t="s">
         <v>470</v>
       </c>
       <c r="O705" t="s">
         <v>568</v>
       </c>
-      <c r="P705" s="39">
+      <c r="P705" s="32">
         <v>1361</v>
       </c>
-      <c r="Q705" s="39">
+      <c r="Q705" s="32">
         <v>317</v>
       </c>
-      <c r="R705" s="39">
+      <c r="R705" s="32">
         <v>66</v>
       </c>
-      <c r="S705" s="39">
+      <c r="S705" s="32">
         <v>512</v>
       </c>
-      <c r="T705" s="39">
+      <c r="T705" s="32">
         <v>18</v>
       </c>
-      <c r="U705" s="40" t="s">
+      <c r="U705" s="37" t="s">
         <v>1652</v>
       </c>
     </row>
@@ -38991,28 +39391,28 @@
       <c r="M706" t="s">
         <v>1654</v>
       </c>
-      <c r="N706" s="39" t="s">
+      <c r="N706" s="32" t="s">
         <v>243</v>
       </c>
       <c r="O706" t="s">
         <v>593</v>
       </c>
-      <c r="P706" s="39">
+      <c r="P706" s="32">
         <v>753</v>
       </c>
-      <c r="Q706" s="39">
+      <c r="Q706" s="32">
         <v>458</v>
       </c>
-      <c r="R706" s="39">
+      <c r="R706" s="32">
         <v>53</v>
       </c>
-      <c r="S706" s="39">
+      <c r="S706" s="32">
         <v>84</v>
       </c>
-      <c r="T706" s="39">
+      <c r="T706" s="32">
         <v>39</v>
       </c>
-      <c r="U706" s="40" t="s">
+      <c r="U706" s="37" t="s">
         <v>1655</v>
       </c>
     </row>
@@ -39026,28 +39426,28 @@
       <c r="C707" t="s">
         <v>243</v>
       </c>
-      <c r="N707" s="39" t="s">
+      <c r="N707" s="32" t="s">
         <v>243</v>
       </c>
       <c r="O707" t="s">
         <v>589</v>
       </c>
-      <c r="P707" s="39">
+      <c r="P707" s="32">
         <v>999</v>
       </c>
-      <c r="Q707" s="39">
+      <c r="Q707" s="32">
         <v>584</v>
       </c>
-      <c r="R707" s="39">
+      <c r="R707" s="32">
         <v>62</v>
       </c>
-      <c r="S707" s="39">
+      <c r="S707" s="32">
         <v>99</v>
       </c>
-      <c r="T707" s="39">
+      <c r="T707" s="32">
         <v>59</v>
       </c>
-      <c r="U707" s="40" t="s">
+      <c r="U707" s="37" t="s">
         <v>1656</v>
       </c>
     </row>
@@ -39061,28 +39461,28 @@
       <c r="C708" t="s">
         <v>243</v>
       </c>
-      <c r="N708" s="39" t="s">
+      <c r="N708" s="32" t="s">
         <v>697</v>
       </c>
       <c r="O708" t="s">
         <v>586</v>
       </c>
-      <c r="P708" s="39">
+      <c r="P708" s="32">
         <v>207</v>
       </c>
-      <c r="Q708" s="39">
+      <c r="Q708" s="32">
         <v>103</v>
       </c>
-      <c r="R708" s="39">
+      <c r="R708" s="32">
         <v>14</v>
       </c>
-      <c r="S708" s="39">
+      <c r="S708" s="32">
         <v>13</v>
       </c>
-      <c r="T708" s="39">
+      <c r="T708" s="32">
         <v>15</v>
       </c>
-      <c r="U708" s="40" t="s">
+      <c r="U708" s="37" t="s">
         <v>1657</v>
       </c>
     </row>
@@ -39096,28 +39496,28 @@
       <c r="C709" t="s">
         <v>243</v>
       </c>
-      <c r="N709" s="39" t="s">
+      <c r="N709" s="32" t="s">
         <v>470</v>
       </c>
       <c r="O709" t="s">
         <v>586</v>
       </c>
-      <c r="P709" s="39">
+      <c r="P709" s="32">
         <v>639</v>
       </c>
-      <c r="Q709" s="39">
+      <c r="Q709" s="32">
         <v>382</v>
       </c>
-      <c r="R709" s="39">
+      <c r="R709" s="32">
         <v>27</v>
       </c>
-      <c r="S709" s="39">
+      <c r="S709" s="32">
         <v>60</v>
       </c>
-      <c r="T709" s="39">
+      <c r="T709" s="32">
         <v>50</v>
       </c>
-      <c r="U709" s="40" t="s">
+      <c r="U709" s="37" t="s">
         <v>1658</v>
       </c>
     </row>
@@ -39131,28 +39531,28 @@
       <c r="C710" t="s">
         <v>243</v>
       </c>
-      <c r="N710" s="39" t="s">
+      <c r="N710" s="32" t="s">
         <v>470</v>
       </c>
       <c r="O710" t="s">
         <v>583</v>
       </c>
-      <c r="P710" s="39">
+      <c r="P710" s="32">
         <v>627</v>
       </c>
-      <c r="Q710" s="39">
+      <c r="Q710" s="32">
         <v>504</v>
       </c>
-      <c r="R710" s="39">
+      <c r="R710" s="32">
         <v>47</v>
       </c>
-      <c r="S710" s="39">
+      <c r="S710" s="32">
         <v>106</v>
       </c>
-      <c r="T710" s="39">
+      <c r="T710" s="32">
         <v>77</v>
       </c>
-      <c r="U710" s="40" t="s">
+      <c r="U710" s="37" t="s">
         <v>1659</v>
       </c>
     </row>
@@ -39166,28 +39566,28 @@
       <c r="C711" t="s">
         <v>243</v>
       </c>
-      <c r="N711" s="39" t="s">
+      <c r="N711" s="32" t="s">
         <v>470</v>
       </c>
       <c r="O711" t="s">
         <v>581</v>
       </c>
-      <c r="P711" s="39">
+      <c r="P711" s="32">
         <v>640</v>
       </c>
-      <c r="Q711" s="39">
+      <c r="Q711" s="32">
         <v>396</v>
       </c>
-      <c r="R711" s="39">
+      <c r="R711" s="32">
         <v>36</v>
       </c>
-      <c r="S711" s="39">
+      <c r="S711" s="32">
         <v>71</v>
       </c>
-      <c r="T711" s="39">
+      <c r="T711" s="32">
         <v>75</v>
       </c>
-      <c r="U711" s="40" t="s">
+      <c r="U711" s="37" t="s">
         <v>1660</v>
       </c>
     </row>
@@ -39201,28 +39601,28 @@
       <c r="C712" t="s">
         <v>243</v>
       </c>
-      <c r="N712" s="39" t="s">
+      <c r="N712" s="32" t="s">
         <v>470</v>
       </c>
       <c r="O712" t="s">
         <v>579</v>
       </c>
-      <c r="P712" s="39">
+      <c r="P712" s="32">
         <v>1069</v>
       </c>
-      <c r="Q712" s="39">
+      <c r="Q712" s="32">
         <v>558</v>
       </c>
-      <c r="R712" s="39">
+      <c r="R712" s="32">
         <v>41</v>
       </c>
-      <c r="S712" s="39">
+      <c r="S712" s="32">
         <v>91</v>
       </c>
-      <c r="T712" s="39">
+      <c r="T712" s="32">
         <v>112</v>
       </c>
-      <c r="U712" s="40" t="s">
+      <c r="U712" s="37" t="s">
         <v>1661</v>
       </c>
     </row>
@@ -39236,28 +39636,28 @@
       <c r="C713" t="s">
         <v>243</v>
       </c>
-      <c r="N713" s="39" t="s">
+      <c r="N713" s="32" t="s">
         <v>470</v>
       </c>
       <c r="O713" t="s">
         <v>577</v>
       </c>
-      <c r="P713" s="39">
+      <c r="P713" s="32">
         <v>517</v>
       </c>
-      <c r="Q713" s="39">
+      <c r="Q713" s="32">
         <v>345</v>
       </c>
-      <c r="R713" s="39">
+      <c r="R713" s="32">
         <v>27</v>
       </c>
-      <c r="S713" s="39">
+      <c r="S713" s="32">
         <v>61</v>
       </c>
-      <c r="T713" s="39">
+      <c r="T713" s="32">
         <v>90</v>
       </c>
-      <c r="U713" s="40" t="s">
+      <c r="U713" s="37" t="s">
         <v>1662</v>
       </c>
     </row>
@@ -39271,28 +39671,28 @@
       <c r="C714" t="s">
         <v>243</v>
       </c>
-      <c r="N714" s="39" t="s">
+      <c r="N714" s="32" t="s">
         <v>470</v>
       </c>
       <c r="O714" t="s">
         <v>575</v>
       </c>
-      <c r="P714" s="39">
+      <c r="P714" s="32">
         <v>484</v>
       </c>
-      <c r="Q714" s="39">
+      <c r="Q714" s="32">
         <v>332</v>
       </c>
-      <c r="R714" s="39">
+      <c r="R714" s="32">
         <v>27</v>
       </c>
-      <c r="S714" s="39">
+      <c r="S714" s="32">
         <v>47</v>
       </c>
-      <c r="T714" s="39">
+      <c r="T714" s="32">
         <v>81</v>
       </c>
-      <c r="U714" s="40" t="s">
+      <c r="U714" s="37" t="s">
         <v>1663</v>
       </c>
     </row>
@@ -39306,28 +39706,28 @@
       <c r="C715" t="s">
         <v>243</v>
       </c>
-      <c r="N715" s="39" t="s">
+      <c r="N715" s="32" t="s">
         <v>470</v>
       </c>
       <c r="O715" t="s">
         <v>572</v>
       </c>
-      <c r="P715" s="39">
+      <c r="P715" s="32">
         <v>569</v>
       </c>
-      <c r="Q715" s="39">
+      <c r="Q715" s="32">
         <v>458</v>
       </c>
-      <c r="R715" s="39">
+      <c r="R715" s="32">
         <v>39</v>
       </c>
-      <c r="S715" s="39">
+      <c r="S715" s="32">
         <v>58</v>
       </c>
-      <c r="T715" s="39">
+      <c r="T715" s="32">
         <v>106</v>
       </c>
-      <c r="U715" s="40" t="s">
+      <c r="U715" s="37" t="s">
         <v>1664</v>
       </c>
     </row>
@@ -39341,29 +39741,3575 @@
       <c r="C716" t="s">
         <v>243</v>
       </c>
-      <c r="N716" s="39" t="s">
+      <c r="N716" s="32" t="s">
         <v>470</v>
       </c>
       <c r="O716" t="s">
         <v>570</v>
       </c>
-      <c r="P716" s="39">
+      <c r="P716" s="32">
         <v>735</v>
       </c>
-      <c r="Q716" s="39">
+      <c r="Q716" s="32">
         <v>611</v>
       </c>
-      <c r="R716" s="39">
+      <c r="R716" s="32">
         <v>50</v>
       </c>
-      <c r="S716" s="39">
+      <c r="S716" s="32">
         <v>70</v>
       </c>
-      <c r="T716" s="39">
+      <c r="T716" s="32">
         <v>104</v>
       </c>
-      <c r="U716" s="40" t="s">
+      <c r="U716" s="37" t="s">
         <v>1665</v>
+      </c>
+    </row>
+    <row r="717" ht="14.25" spans="1:23">
+      <c r="A717">
+        <v>660</v>
+      </c>
+      <c r="B717" t="s">
+        <v>277</v>
+      </c>
+      <c r="C717" t="s">
+        <v>276</v>
+      </c>
+      <c r="D717">
+        <v>14.7</v>
+      </c>
+      <c r="E717">
+        <v>4.7</v>
+      </c>
+      <c r="F717">
+        <v>8.9</v>
+      </c>
+      <c r="G717">
+        <v>1.34</v>
+      </c>
+      <c r="H717">
+        <v>0.53</v>
+      </c>
+      <c r="I717">
+        <v>7</v>
+      </c>
+      <c r="J717">
+        <v>1.83</v>
+      </c>
+      <c r="K717">
+        <v>93</v>
+      </c>
+      <c r="L717" t="s">
+        <v>1666</v>
+      </c>
+      <c r="M717" t="s">
+        <v>1667</v>
+      </c>
+      <c r="N717" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="O717" t="s">
+        <v>593</v>
+      </c>
+      <c r="P717">
+        <v>866</v>
+      </c>
+      <c r="Q717">
+        <v>276</v>
+      </c>
+      <c r="R717">
+        <v>79</v>
+      </c>
+      <c r="S717">
+        <v>527</v>
+      </c>
+      <c r="T717">
+        <v>30</v>
+      </c>
+      <c r="U717" s="40" t="s">
+        <v>1668</v>
+      </c>
+      <c r="W717" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="718" ht="14.25" spans="1:23">
+      <c r="A718">
+        <v>661</v>
+      </c>
+      <c r="B718" t="s">
+        <v>277</v>
+      </c>
+      <c r="C718" t="s">
+        <v>276</v>
+      </c>
+      <c r="N718" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="O718" t="s">
+        <v>589</v>
+      </c>
+      <c r="P718">
+        <v>1267</v>
+      </c>
+      <c r="Q718">
+        <v>434</v>
+      </c>
+      <c r="R718">
+        <v>85</v>
+      </c>
+      <c r="S718">
+        <v>537</v>
+      </c>
+      <c r="T718">
+        <v>19</v>
+      </c>
+      <c r="U718" s="40" t="s">
+        <v>1670</v>
+      </c>
+      <c r="W718" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="719" ht="14.25" spans="1:23">
+      <c r="A719">
+        <v>662</v>
+      </c>
+      <c r="B719" t="s">
+        <v>277</v>
+      </c>
+      <c r="C719" t="s">
+        <v>276</v>
+      </c>
+      <c r="N719" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="O719" t="s">
+        <v>586</v>
+      </c>
+      <c r="P719">
+        <v>1344</v>
+      </c>
+      <c r="Q719">
+        <v>286</v>
+      </c>
+      <c r="R719">
+        <v>88</v>
+      </c>
+      <c r="S719">
+        <v>417</v>
+      </c>
+      <c r="T719">
+        <v>19</v>
+      </c>
+      <c r="U719" s="40" t="s">
+        <v>1671</v>
+      </c>
+      <c r="W719" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="720" ht="14.25" spans="1:23">
+      <c r="A720">
+        <v>663</v>
+      </c>
+      <c r="B720" t="s">
+        <v>277</v>
+      </c>
+      <c r="C720" t="s">
+        <v>276</v>
+      </c>
+      <c r="N720" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="O720" t="s">
+        <v>583</v>
+      </c>
+      <c r="P720">
+        <v>1634</v>
+      </c>
+      <c r="Q720">
+        <v>365</v>
+      </c>
+      <c r="R720">
+        <v>158</v>
+      </c>
+      <c r="S720">
+        <v>494</v>
+      </c>
+      <c r="T720">
+        <v>34</v>
+      </c>
+      <c r="U720" s="40" t="s">
+        <v>1673</v>
+      </c>
+      <c r="W720" t="s">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="721" ht="14.25" spans="1:23">
+      <c r="A721">
+        <v>664</v>
+      </c>
+      <c r="B721" t="s">
+        <v>277</v>
+      </c>
+      <c r="C721" t="s">
+        <v>276</v>
+      </c>
+      <c r="N721" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="O721" t="s">
+        <v>581</v>
+      </c>
+      <c r="P721">
+        <v>1244</v>
+      </c>
+      <c r="Q721">
+        <v>328</v>
+      </c>
+      <c r="R721">
+        <v>109</v>
+      </c>
+      <c r="S721">
+        <v>473</v>
+      </c>
+      <c r="T721">
+        <v>13</v>
+      </c>
+      <c r="U721" s="40" t="s">
+        <v>1675</v>
+      </c>
+      <c r="W721" t="s">
+        <v>1676</v>
+      </c>
+    </row>
+    <row r="722" ht="14.25" spans="1:21">
+      <c r="A722">
+        <v>665</v>
+      </c>
+      <c r="B722" t="s">
+        <v>277</v>
+      </c>
+      <c r="C722" t="s">
+        <v>276</v>
+      </c>
+      <c r="N722" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="O722" t="s">
+        <v>579</v>
+      </c>
+      <c r="P722">
+        <v>1417</v>
+      </c>
+      <c r="Q722">
+        <v>369</v>
+      </c>
+      <c r="R722">
+        <v>121</v>
+      </c>
+      <c r="S722">
+        <v>586</v>
+      </c>
+      <c r="T722">
+        <v>15</v>
+      </c>
+      <c r="U722" s="40" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="723" ht="14.25" spans="1:21">
+      <c r="A723">
+        <v>666</v>
+      </c>
+      <c r="B723" t="s">
+        <v>277</v>
+      </c>
+      <c r="C723" t="s">
+        <v>276</v>
+      </c>
+      <c r="N723" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="O723" t="s">
+        <v>577</v>
+      </c>
+      <c r="P723">
+        <v>791</v>
+      </c>
+      <c r="Q723">
+        <v>321</v>
+      </c>
+      <c r="R723">
+        <v>94</v>
+      </c>
+      <c r="S723">
+        <v>435</v>
+      </c>
+      <c r="T723">
+        <v>24</v>
+      </c>
+      <c r="U723" s="40" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="724" ht="14.25" spans="1:21">
+      <c r="A724">
+        <v>667</v>
+      </c>
+      <c r="B724" t="s">
+        <v>277</v>
+      </c>
+      <c r="C724" t="s">
+        <v>276</v>
+      </c>
+      <c r="N724" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="O724" t="s">
+        <v>575</v>
+      </c>
+      <c r="P724">
+        <v>670</v>
+      </c>
+      <c r="Q724">
+        <v>213</v>
+      </c>
+      <c r="R724">
+        <v>73</v>
+      </c>
+      <c r="S724">
+        <v>310</v>
+      </c>
+      <c r="T724">
+        <v>14</v>
+      </c>
+      <c r="U724" s="40" t="s">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="725" ht="14.25" spans="1:21">
+      <c r="A725">
+        <v>668</v>
+      </c>
+      <c r="B725" t="s">
+        <v>277</v>
+      </c>
+      <c r="C725" t="s">
+        <v>276</v>
+      </c>
+      <c r="N725" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="O725" t="s">
+        <v>572</v>
+      </c>
+      <c r="P725">
+        <v>1011</v>
+      </c>
+      <c r="Q725">
+        <v>309</v>
+      </c>
+      <c r="R725">
+        <v>102</v>
+      </c>
+      <c r="S725">
+        <v>500</v>
+      </c>
+      <c r="T725">
+        <v>23</v>
+      </c>
+      <c r="U725" s="40" t="s">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="726" ht="14.25" spans="1:21">
+      <c r="A726">
+        <v>669</v>
+      </c>
+      <c r="B726" t="s">
+        <v>277</v>
+      </c>
+      <c r="C726" t="s">
+        <v>276</v>
+      </c>
+      <c r="N726" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="O726" t="s">
+        <v>570</v>
+      </c>
+      <c r="P726">
+        <v>620</v>
+      </c>
+      <c r="Q726">
+        <v>247</v>
+      </c>
+      <c r="R726">
+        <v>60</v>
+      </c>
+      <c r="S726">
+        <v>305</v>
+      </c>
+      <c r="T726">
+        <v>9</v>
+      </c>
+      <c r="U726" s="40" t="s">
+        <v>1681</v>
+      </c>
+    </row>
+    <row r="727" ht="14.25" spans="1:21">
+      <c r="A727">
+        <v>670</v>
+      </c>
+      <c r="B727" t="s">
+        <v>277</v>
+      </c>
+      <c r="C727" t="s">
+        <v>276</v>
+      </c>
+      <c r="N727" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="O727" t="s">
+        <v>568</v>
+      </c>
+      <c r="P727">
+        <v>214</v>
+      </c>
+      <c r="Q727">
+        <v>78</v>
+      </c>
+      <c r="R727">
+        <v>21</v>
+      </c>
+      <c r="S727">
+        <v>97</v>
+      </c>
+      <c r="T727">
+        <v>9</v>
+      </c>
+      <c r="U727" s="40" t="s">
+        <v>1682</v>
+      </c>
+    </row>
+    <row r="728" ht="14.25" spans="1:21">
+      <c r="A728">
+        <v>671</v>
+      </c>
+      <c r="B728" t="s">
+        <v>277</v>
+      </c>
+      <c r="C728" t="s">
+        <v>276</v>
+      </c>
+      <c r="N728" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="O728" t="s">
+        <v>568</v>
+      </c>
+      <c r="P728">
+        <v>370</v>
+      </c>
+      <c r="Q728">
+        <v>111</v>
+      </c>
+      <c r="R728">
+        <v>48</v>
+      </c>
+      <c r="S728">
+        <v>178</v>
+      </c>
+      <c r="T728">
+        <v>8</v>
+      </c>
+      <c r="U728" s="40" t="s">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="729" ht="14.25" spans="1:21">
+      <c r="A729">
+        <v>672</v>
+      </c>
+      <c r="B729" t="s">
+        <v>277</v>
+      </c>
+      <c r="C729" t="s">
+        <v>276</v>
+      </c>
+      <c r="N729" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="O729" t="s">
+        <v>653</v>
+      </c>
+      <c r="P729">
+        <v>791</v>
+      </c>
+      <c r="Q729">
+        <v>250</v>
+      </c>
+      <c r="R729">
+        <v>92</v>
+      </c>
+      <c r="S729">
+        <v>296</v>
+      </c>
+      <c r="T729">
+        <v>22</v>
+      </c>
+      <c r="U729" s="40" t="s">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="730" ht="14.25" spans="1:21">
+      <c r="A730">
+        <v>673</v>
+      </c>
+      <c r="B730" t="s">
+        <v>277</v>
+      </c>
+      <c r="C730" t="s">
+        <v>276</v>
+      </c>
+      <c r="N730" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="O730" t="s">
+        <v>650</v>
+      </c>
+      <c r="P730">
+        <v>56</v>
+      </c>
+      <c r="Q730">
+        <v>31</v>
+      </c>
+      <c r="R730">
+        <v>14</v>
+      </c>
+      <c r="S730">
+        <v>32</v>
+      </c>
+      <c r="T730">
+        <v>1</v>
+      </c>
+      <c r="U730" s="40" t="s">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="731" ht="14.25" spans="1:23">
+      <c r="A731">
+        <v>674</v>
+      </c>
+      <c r="B731" t="s">
+        <v>279</v>
+      </c>
+      <c r="C731" t="s">
+        <v>276</v>
+      </c>
+      <c r="D731">
+        <v>14.8</v>
+      </c>
+      <c r="E731">
+        <v>8</v>
+      </c>
+      <c r="F731">
+        <v>1.4</v>
+      </c>
+      <c r="G731">
+        <v>0.41</v>
+      </c>
+      <c r="H731">
+        <v>1.37</v>
+      </c>
+      <c r="I731">
+        <v>9</v>
+      </c>
+      <c r="J731">
+        <v>2.08</v>
+      </c>
+      <c r="K731">
+        <v>107</v>
+      </c>
+      <c r="L731" t="s">
+        <v>1686</v>
+      </c>
+      <c r="M731" t="s">
+        <v>1687</v>
+      </c>
+      <c r="N731" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="O731" t="s">
+        <v>593</v>
+      </c>
+      <c r="P731" s="39">
+        <v>1009</v>
+      </c>
+      <c r="Q731" s="39">
+        <v>544</v>
+      </c>
+      <c r="R731" s="39">
+        <v>28</v>
+      </c>
+      <c r="S731" s="39">
+        <v>92</v>
+      </c>
+      <c r="T731" s="39">
+        <v>94</v>
+      </c>
+      <c r="U731" s="40" t="s">
+        <v>1688</v>
+      </c>
+      <c r="W731" t="s">
+        <v>1689</v>
+      </c>
+    </row>
+    <row r="732" ht="14.25" spans="1:23">
+      <c r="A732">
+        <v>675</v>
+      </c>
+      <c r="B732" t="s">
+        <v>279</v>
+      </c>
+      <c r="C732" t="s">
+        <v>276</v>
+      </c>
+      <c r="N732" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="O732" t="s">
+        <v>589</v>
+      </c>
+      <c r="P732" s="39">
+        <v>959</v>
+      </c>
+      <c r="Q732" s="39">
+        <v>478</v>
+      </c>
+      <c r="R732" s="39">
+        <v>29</v>
+      </c>
+      <c r="S732" s="39">
+        <v>62</v>
+      </c>
+      <c r="T732" s="39">
+        <v>99</v>
+      </c>
+      <c r="U732" s="40" t="s">
+        <v>1690</v>
+      </c>
+      <c r="W732" t="s">
+        <v>1691</v>
+      </c>
+    </row>
+    <row r="733" ht="14.25" spans="1:23">
+      <c r="A733">
+        <v>676</v>
+      </c>
+      <c r="B733" t="s">
+        <v>279</v>
+      </c>
+      <c r="C733" t="s">
+        <v>276</v>
+      </c>
+      <c r="N733" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="O733" t="s">
+        <v>586</v>
+      </c>
+      <c r="P733" s="39">
+        <v>327</v>
+      </c>
+      <c r="Q733" s="39">
+        <v>156</v>
+      </c>
+      <c r="R733" s="39">
+        <v>7</v>
+      </c>
+      <c r="S733" s="39">
+        <v>15</v>
+      </c>
+      <c r="T733" s="39">
+        <v>33</v>
+      </c>
+      <c r="U733" s="40" t="s">
+        <v>1692</v>
+      </c>
+      <c r="W733" t="s">
+        <v>1693</v>
+      </c>
+    </row>
+    <row r="734" ht="14.25" spans="1:23">
+      <c r="A734">
+        <v>677</v>
+      </c>
+      <c r="B734" t="s">
+        <v>279</v>
+      </c>
+      <c r="C734" t="s">
+        <v>276</v>
+      </c>
+      <c r="N734" s="39" t="s">
+        <v>379</v>
+      </c>
+      <c r="O734" t="s">
+        <v>586</v>
+      </c>
+      <c r="P734" s="39">
+        <v>846</v>
+      </c>
+      <c r="Q734" s="39">
+        <v>382</v>
+      </c>
+      <c r="R734" s="39">
+        <v>34</v>
+      </c>
+      <c r="S734" s="39">
+        <v>60</v>
+      </c>
+      <c r="T734" s="39">
+        <v>91</v>
+      </c>
+      <c r="U734" s="40" t="s">
+        <v>1694</v>
+      </c>
+      <c r="W734" t="s">
+        <v>1695</v>
+      </c>
+    </row>
+    <row r="735" ht="14.25" spans="1:23">
+      <c r="A735">
+        <v>678</v>
+      </c>
+      <c r="B735" t="s">
+        <v>279</v>
+      </c>
+      <c r="C735" t="s">
+        <v>276</v>
+      </c>
+      <c r="N735" s="39" t="s">
+        <v>697</v>
+      </c>
+      <c r="O735" t="s">
+        <v>583</v>
+      </c>
+      <c r="P735" s="39">
+        <v>983</v>
+      </c>
+      <c r="Q735" s="39">
+        <v>533</v>
+      </c>
+      <c r="R735" s="39">
+        <v>38</v>
+      </c>
+      <c r="S735" s="39">
+        <v>66</v>
+      </c>
+      <c r="T735" s="39">
+        <v>148</v>
+      </c>
+      <c r="U735" s="40" t="s">
+        <v>1696</v>
+      </c>
+      <c r="W735" t="s">
+        <v>1697</v>
+      </c>
+    </row>
+    <row r="736" ht="14.25" spans="1:21">
+      <c r="A736">
+        <v>679</v>
+      </c>
+      <c r="B736" t="s">
+        <v>279</v>
+      </c>
+      <c r="C736" t="s">
+        <v>276</v>
+      </c>
+      <c r="N736" s="39" t="s">
+        <v>697</v>
+      </c>
+      <c r="O736" t="s">
+        <v>581</v>
+      </c>
+      <c r="P736" s="39">
+        <v>917</v>
+      </c>
+      <c r="Q736" s="39">
+        <v>499</v>
+      </c>
+      <c r="R736" s="39">
+        <v>30</v>
+      </c>
+      <c r="S736" s="39">
+        <v>55</v>
+      </c>
+      <c r="T736" s="39">
+        <v>155</v>
+      </c>
+      <c r="U736" s="40" t="s">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="737" ht="14.25" spans="1:21">
+      <c r="A737">
+        <v>680</v>
+      </c>
+      <c r="B737" t="s">
+        <v>279</v>
+      </c>
+      <c r="C737" t="s">
+        <v>276</v>
+      </c>
+      <c r="N737" s="39" t="s">
+        <v>697</v>
+      </c>
+      <c r="O737" t="s">
+        <v>579</v>
+      </c>
+      <c r="P737" s="39">
+        <v>1227</v>
+      </c>
+      <c r="Q737" s="39">
+        <v>709</v>
+      </c>
+      <c r="R737" s="39">
+        <v>39</v>
+      </c>
+      <c r="S737" s="39">
+        <v>85</v>
+      </c>
+      <c r="T737" s="39">
+        <v>219</v>
+      </c>
+      <c r="U737" s="40" t="s">
+        <v>1699</v>
+      </c>
+    </row>
+    <row r="738" ht="14.25" spans="1:21">
+      <c r="A738">
+        <v>681</v>
+      </c>
+      <c r="B738" t="s">
+        <v>279</v>
+      </c>
+      <c r="C738" t="s">
+        <v>276</v>
+      </c>
+      <c r="N738" s="39" t="s">
+        <v>697</v>
+      </c>
+      <c r="O738" t="s">
+        <v>577</v>
+      </c>
+      <c r="P738" s="39">
+        <v>1055</v>
+      </c>
+      <c r="Q738" s="39">
+        <v>617</v>
+      </c>
+      <c r="R738" s="39">
+        <v>28</v>
+      </c>
+      <c r="S738" s="39">
+        <v>43</v>
+      </c>
+      <c r="T738" s="39">
+        <v>242</v>
+      </c>
+      <c r="U738" s="40" t="s">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="739" ht="14.25" spans="1:21">
+      <c r="A739">
+        <v>682</v>
+      </c>
+      <c r="B739" t="s">
+        <v>279</v>
+      </c>
+      <c r="C739" t="s">
+        <v>276</v>
+      </c>
+      <c r="N739" s="39" t="s">
+        <v>697</v>
+      </c>
+      <c r="O739" t="s">
+        <v>575</v>
+      </c>
+      <c r="P739" s="39">
+        <v>603</v>
+      </c>
+      <c r="Q739" s="39">
+        <v>498</v>
+      </c>
+      <c r="R739" s="39">
+        <v>33</v>
+      </c>
+      <c r="S739" s="39">
+        <v>28</v>
+      </c>
+      <c r="T739" s="39">
+        <v>241</v>
+      </c>
+      <c r="U739" s="40" t="s">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="740" ht="14.25" spans="1:21">
+      <c r="A740">
+        <v>683</v>
+      </c>
+      <c r="B740" t="s">
+        <v>279</v>
+      </c>
+      <c r="C740" t="s">
+        <v>276</v>
+      </c>
+      <c r="N740" s="39" t="s">
+        <v>697</v>
+      </c>
+      <c r="O740" t="s">
+        <v>572</v>
+      </c>
+      <c r="P740" s="39">
+        <v>808</v>
+      </c>
+      <c r="Q740" s="39">
+        <v>622</v>
+      </c>
+      <c r="R740" s="39">
+        <v>31</v>
+      </c>
+      <c r="S740" s="39">
+        <v>22</v>
+      </c>
+      <c r="T740" s="39">
+        <v>198</v>
+      </c>
+      <c r="U740" s="40" t="s">
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="741" ht="14.25" spans="1:21">
+      <c r="A741">
+        <v>684</v>
+      </c>
+      <c r="B741" t="s">
+        <v>279</v>
+      </c>
+      <c r="C741" t="s">
+        <v>276</v>
+      </c>
+      <c r="N741" s="39" t="s">
+        <v>697</v>
+      </c>
+      <c r="O741" t="s">
+        <v>570</v>
+      </c>
+      <c r="P741" s="39">
+        <v>461</v>
+      </c>
+      <c r="Q741" s="39">
+        <v>397</v>
+      </c>
+      <c r="R741" s="39">
+        <v>25</v>
+      </c>
+      <c r="S741" s="39">
+        <v>10</v>
+      </c>
+      <c r="T741" s="39">
+        <v>97</v>
+      </c>
+      <c r="U741" s="40" t="s">
+        <v>1703</v>
+      </c>
+    </row>
+    <row r="742" ht="14.25" spans="1:23">
+      <c r="A742">
+        <v>685</v>
+      </c>
+      <c r="B742" t="s">
+        <v>280</v>
+      </c>
+      <c r="C742" t="s">
+        <v>276</v>
+      </c>
+      <c r="D742">
+        <v>27</v>
+      </c>
+      <c r="E742">
+        <v>7.4</v>
+      </c>
+      <c r="F742">
+        <v>3.3</v>
+      </c>
+      <c r="G742">
+        <v>1.87</v>
+      </c>
+      <c r="H742">
+        <v>0.44</v>
+      </c>
+      <c r="I742">
+        <v>2</v>
+      </c>
+      <c r="J742">
+        <v>2.01</v>
+      </c>
+      <c r="K742">
+        <v>104</v>
+      </c>
+      <c r="L742" t="s">
+        <v>1704</v>
+      </c>
+      <c r="M742" t="s">
+        <v>1705</v>
+      </c>
+      <c r="N742" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="O742" t="s">
+        <v>593</v>
+      </c>
+      <c r="P742" s="39">
+        <v>1484</v>
+      </c>
+      <c r="Q742" s="39">
+        <v>407</v>
+      </c>
+      <c r="R742" s="39">
+        <v>103</v>
+      </c>
+      <c r="S742" s="39">
+        <v>182</v>
+      </c>
+      <c r="T742" s="39">
+        <v>23</v>
+      </c>
+      <c r="U742" s="40" t="s">
+        <v>1706</v>
+      </c>
+      <c r="W742" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="743" ht="14.25" spans="1:23">
+      <c r="A743">
+        <v>686</v>
+      </c>
+      <c r="B743" t="s">
+        <v>280</v>
+      </c>
+      <c r="C743" t="s">
+        <v>276</v>
+      </c>
+      <c r="N743" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="O743" t="s">
+        <v>589</v>
+      </c>
+      <c r="P743" s="39">
+        <v>146</v>
+      </c>
+      <c r="Q743" s="39">
+        <v>42</v>
+      </c>
+      <c r="R743" s="39">
+        <v>18</v>
+      </c>
+      <c r="S743" s="39">
+        <v>21</v>
+      </c>
+      <c r="T743" s="39">
+        <v>9</v>
+      </c>
+      <c r="U743" s="40" t="s">
+        <v>1707</v>
+      </c>
+      <c r="W743" t="s">
+        <v>1708</v>
+      </c>
+    </row>
+    <row r="744" ht="14.25" spans="1:23">
+      <c r="A744">
+        <v>687</v>
+      </c>
+      <c r="B744" t="s">
+        <v>280</v>
+      </c>
+      <c r="C744" t="s">
+        <v>276</v>
+      </c>
+      <c r="N744" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="O744" t="s">
+        <v>586</v>
+      </c>
+      <c r="P744" s="39">
+        <v>1888</v>
+      </c>
+      <c r="Q744" s="39">
+        <v>430</v>
+      </c>
+      <c r="R744" s="39">
+        <v>133</v>
+      </c>
+      <c r="S744" s="39">
+        <v>260</v>
+      </c>
+      <c r="T744" s="39">
+        <v>55</v>
+      </c>
+      <c r="U744" s="40" t="s">
+        <v>1709</v>
+      </c>
+      <c r="W744" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="745" ht="14.25" spans="1:23">
+      <c r="A745">
+        <v>688</v>
+      </c>
+      <c r="B745" t="s">
+        <v>280</v>
+      </c>
+      <c r="C745" t="s">
+        <v>276</v>
+      </c>
+      <c r="N745" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="O745" t="s">
+        <v>583</v>
+      </c>
+      <c r="P745" s="39">
+        <v>1523</v>
+      </c>
+      <c r="Q745" s="39">
+        <v>493</v>
+      </c>
+      <c r="R745" s="39">
+        <v>128</v>
+      </c>
+      <c r="S745" s="39">
+        <v>186</v>
+      </c>
+      <c r="T745" s="39">
+        <v>71</v>
+      </c>
+      <c r="U745" s="40" t="s">
+        <v>1710</v>
+      </c>
+      <c r="W745" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="746" ht="14.25" spans="1:23">
+      <c r="A746">
+        <v>689</v>
+      </c>
+      <c r="B746" t="s">
+        <v>280</v>
+      </c>
+      <c r="C746" t="s">
+        <v>276</v>
+      </c>
+      <c r="N746" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="O746" t="s">
+        <v>581</v>
+      </c>
+      <c r="P746" s="39">
+        <v>1057</v>
+      </c>
+      <c r="Q746" s="39">
+        <v>461</v>
+      </c>
+      <c r="R746" s="39">
+        <v>148</v>
+      </c>
+      <c r="S746" s="39">
+        <v>161</v>
+      </c>
+      <c r="T746" s="39">
+        <v>48</v>
+      </c>
+      <c r="U746" s="40" t="s">
+        <v>1711</v>
+      </c>
+      <c r="W746" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="747" ht="14.25" spans="1:23">
+      <c r="A747">
+        <v>690</v>
+      </c>
+      <c r="B747" t="s">
+        <v>280</v>
+      </c>
+      <c r="C747" t="s">
+        <v>276</v>
+      </c>
+      <c r="N747" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="O747" t="s">
+        <v>579</v>
+      </c>
+      <c r="P747" s="39">
+        <v>844</v>
+      </c>
+      <c r="Q747" s="39">
+        <v>412</v>
+      </c>
+      <c r="R747" s="39">
+        <v>114</v>
+      </c>
+      <c r="S747" s="39">
+        <v>133</v>
+      </c>
+      <c r="T747" s="39">
+        <v>50</v>
+      </c>
+      <c r="U747" s="40" t="s">
+        <v>1712</v>
+      </c>
+      <c r="W747" t="s">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="748" ht="14.25" spans="1:23">
+      <c r="A748">
+        <v>691</v>
+      </c>
+      <c r="B748" t="s">
+        <v>280</v>
+      </c>
+      <c r="C748" t="s">
+        <v>276</v>
+      </c>
+      <c r="N748" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="O748" t="s">
+        <v>577</v>
+      </c>
+      <c r="P748" s="39">
+        <v>689</v>
+      </c>
+      <c r="Q748" s="39">
+        <v>346</v>
+      </c>
+      <c r="R748" s="39">
+        <v>97</v>
+      </c>
+      <c r="S748" s="39">
+        <v>93</v>
+      </c>
+      <c r="T748" s="39">
+        <v>32</v>
+      </c>
+      <c r="U748" s="40" t="s">
+        <v>1714</v>
+      </c>
+      <c r="W748" t="s">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="749" ht="14.25" spans="1:23">
+      <c r="A749">
+        <v>692</v>
+      </c>
+      <c r="B749" t="s">
+        <v>280</v>
+      </c>
+      <c r="C749" t="s">
+        <v>276</v>
+      </c>
+      <c r="N749" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="O749" t="s">
+        <v>575</v>
+      </c>
+      <c r="P749" s="39">
+        <v>507</v>
+      </c>
+      <c r="Q749" s="39">
+        <v>327</v>
+      </c>
+      <c r="R749" s="39">
+        <v>85</v>
+      </c>
+      <c r="S749" s="39">
+        <v>70</v>
+      </c>
+      <c r="T749" s="39">
+        <v>24</v>
+      </c>
+      <c r="U749" s="40" t="s">
+        <v>1716</v>
+      </c>
+      <c r="W749" t="s">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="750" spans="1:23">
+      <c r="A750">
+        <v>693</v>
+      </c>
+      <c r="B750" t="s">
+        <v>280</v>
+      </c>
+      <c r="C750" t="s">
+        <v>276</v>
+      </c>
+      <c r="W750" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="751" spans="1:23">
+      <c r="A751">
+        <v>694</v>
+      </c>
+      <c r="B751" t="s">
+        <v>280</v>
+      </c>
+      <c r="C751" t="s">
+        <v>276</v>
+      </c>
+      <c r="W751" t="s">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="752" spans="1:23">
+      <c r="A752">
+        <v>695</v>
+      </c>
+      <c r="B752" t="s">
+        <v>280</v>
+      </c>
+      <c r="C752" t="s">
+        <v>276</v>
+      </c>
+      <c r="W752" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="753" spans="1:23">
+      <c r="A753">
+        <v>696</v>
+      </c>
+      <c r="B753" t="s">
+        <v>280</v>
+      </c>
+      <c r="C753" t="s">
+        <v>276</v>
+      </c>
+      <c r="W753" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="754" spans="1:23">
+      <c r="A754">
+        <v>697</v>
+      </c>
+      <c r="B754" t="s">
+        <v>280</v>
+      </c>
+      <c r="C754" t="s">
+        <v>276</v>
+      </c>
+      <c r="W754" t="s">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="755" spans="1:23">
+      <c r="A755">
+        <v>698</v>
+      </c>
+      <c r="B755" t="s">
+        <v>280</v>
+      </c>
+      <c r="C755" t="s">
+        <v>276</v>
+      </c>
+      <c r="W755" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="756" ht="14.25" spans="1:23">
+      <c r="A756">
+        <v>699</v>
+      </c>
+      <c r="B756" t="s">
+        <v>281</v>
+      </c>
+      <c r="C756" t="s">
+        <v>276</v>
+      </c>
+      <c r="D756">
+        <v>10</v>
+      </c>
+      <c r="E756">
+        <v>4</v>
+      </c>
+      <c r="F756">
+        <v>1.5</v>
+      </c>
+      <c r="G756">
+        <v>0.88</v>
+      </c>
+      <c r="H756">
+        <v>0.63</v>
+      </c>
+      <c r="I756">
+        <v>14</v>
+      </c>
+      <c r="J756">
+        <v>1.98</v>
+      </c>
+      <c r="K756">
+        <v>98</v>
+      </c>
+      <c r="L756" t="s">
+        <v>1721</v>
+      </c>
+      <c r="M756" t="s">
+        <v>1722</v>
+      </c>
+      <c r="N756" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="O756" t="s">
+        <v>593</v>
+      </c>
+      <c r="P756">
+        <v>731</v>
+      </c>
+      <c r="Q756">
+        <v>295</v>
+      </c>
+      <c r="R756">
+        <v>64</v>
+      </c>
+      <c r="S756">
+        <v>112</v>
+      </c>
+      <c r="T756">
+        <v>46</v>
+      </c>
+      <c r="U756" s="40" t="s">
+        <v>1723</v>
+      </c>
+      <c r="W756" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="757" ht="14.25" spans="1:23">
+      <c r="A757">
+        <v>700</v>
+      </c>
+      <c r="B757" t="s">
+        <v>281</v>
+      </c>
+      <c r="C757" t="s">
+        <v>276</v>
+      </c>
+      <c r="N757" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="O757" t="s">
+        <v>589</v>
+      </c>
+      <c r="P757">
+        <v>600</v>
+      </c>
+      <c r="Q757">
+        <v>249</v>
+      </c>
+      <c r="R757">
+        <v>63</v>
+      </c>
+      <c r="S757">
+        <v>110</v>
+      </c>
+      <c r="T757">
+        <v>80</v>
+      </c>
+      <c r="U757" s="40" t="s">
+        <v>1724</v>
+      </c>
+      <c r="W757" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="758" ht="14.25" spans="1:21">
+      <c r="A758">
+        <v>701</v>
+      </c>
+      <c r="B758" t="s">
+        <v>281</v>
+      </c>
+      <c r="C758" t="s">
+        <v>276</v>
+      </c>
+      <c r="N758" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="O758" t="s">
+        <v>586</v>
+      </c>
+      <c r="P758">
+        <v>497</v>
+      </c>
+      <c r="Q758">
+        <v>224</v>
+      </c>
+      <c r="R758">
+        <v>70</v>
+      </c>
+      <c r="S758">
+        <v>124</v>
+      </c>
+      <c r="T758">
+        <v>57</v>
+      </c>
+      <c r="U758" s="40" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="759" ht="14.25" spans="1:21">
+      <c r="A759">
+        <v>702</v>
+      </c>
+      <c r="B759" t="s">
+        <v>281</v>
+      </c>
+      <c r="C759" t="s">
+        <v>276</v>
+      </c>
+      <c r="N759" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="O759" t="s">
+        <v>583</v>
+      </c>
+      <c r="P759">
+        <v>572</v>
+      </c>
+      <c r="Q759">
+        <v>303</v>
+      </c>
+      <c r="R759">
+        <v>79</v>
+      </c>
+      <c r="S759">
+        <v>141</v>
+      </c>
+      <c r="T759">
+        <v>64</v>
+      </c>
+      <c r="U759" s="40" t="s">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="760" ht="14.25" spans="1:21">
+      <c r="A760">
+        <v>703</v>
+      </c>
+      <c r="B760" t="s">
+        <v>281</v>
+      </c>
+      <c r="C760" t="s">
+        <v>276</v>
+      </c>
+      <c r="N760" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="O760" t="s">
+        <v>581</v>
+      </c>
+      <c r="P760">
+        <v>946</v>
+      </c>
+      <c r="Q760">
+        <v>343</v>
+      </c>
+      <c r="R760">
+        <v>101</v>
+      </c>
+      <c r="S760">
+        <v>158</v>
+      </c>
+      <c r="T760">
+        <v>87</v>
+      </c>
+      <c r="U760" s="40" t="s">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="761" ht="14.25" spans="1:21">
+      <c r="A761">
+        <v>704</v>
+      </c>
+      <c r="B761" t="s">
+        <v>281</v>
+      </c>
+      <c r="C761" t="s">
+        <v>276</v>
+      </c>
+      <c r="N761" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="O761" t="s">
+        <v>579</v>
+      </c>
+      <c r="P761">
+        <v>618</v>
+      </c>
+      <c r="Q761">
+        <v>229</v>
+      </c>
+      <c r="R761">
+        <v>65</v>
+      </c>
+      <c r="S761">
+        <v>104</v>
+      </c>
+      <c r="T761">
+        <v>61</v>
+      </c>
+      <c r="U761" s="40" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="762" ht="14.25" spans="1:21">
+      <c r="A762">
+        <v>705</v>
+      </c>
+      <c r="B762" t="s">
+        <v>281</v>
+      </c>
+      <c r="C762" t="s">
+        <v>276</v>
+      </c>
+      <c r="N762" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="O762" t="s">
+        <v>577</v>
+      </c>
+      <c r="P762">
+        <v>838</v>
+      </c>
+      <c r="Q762">
+        <v>244</v>
+      </c>
+      <c r="R762">
+        <v>92</v>
+      </c>
+      <c r="S762">
+        <v>141</v>
+      </c>
+      <c r="T762">
+        <v>54</v>
+      </c>
+      <c r="U762" s="40" t="s">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="763" ht="14.25" spans="1:21">
+      <c r="A763">
+        <v>706</v>
+      </c>
+      <c r="B763" t="s">
+        <v>281</v>
+      </c>
+      <c r="C763" t="s">
+        <v>276</v>
+      </c>
+      <c r="N763" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="O763" t="s">
+        <v>575</v>
+      </c>
+      <c r="P763">
+        <v>603</v>
+      </c>
+      <c r="Q763">
+        <v>228</v>
+      </c>
+      <c r="R763">
+        <v>58</v>
+      </c>
+      <c r="S763">
+        <v>86</v>
+      </c>
+      <c r="T763">
+        <v>46</v>
+      </c>
+      <c r="U763" s="40" t="s">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="764" ht="14.25" spans="1:21">
+      <c r="A764">
+        <v>707</v>
+      </c>
+      <c r="B764" t="s">
+        <v>281</v>
+      </c>
+      <c r="C764" t="s">
+        <v>276</v>
+      </c>
+      <c r="N764" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="O764" t="s">
+        <v>572</v>
+      </c>
+      <c r="P764">
+        <v>41</v>
+      </c>
+      <c r="Q764">
+        <v>15</v>
+      </c>
+      <c r="R764">
+        <v>2</v>
+      </c>
+      <c r="S764">
+        <v>2</v>
+      </c>
+      <c r="T764">
+        <v>1</v>
+      </c>
+      <c r="U764" s="40" t="s">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="765" ht="14.25" spans="1:21">
+      <c r="A765">
+        <v>708</v>
+      </c>
+      <c r="B765" t="s">
+        <v>281</v>
+      </c>
+      <c r="C765" t="s">
+        <v>276</v>
+      </c>
+      <c r="N765" s="39" t="s">
+        <v>1382</v>
+      </c>
+      <c r="O765" t="s">
+        <v>570</v>
+      </c>
+      <c r="P765">
+        <v>40</v>
+      </c>
+      <c r="Q765">
+        <v>17</v>
+      </c>
+      <c r="R765">
+        <v>6</v>
+      </c>
+      <c r="S765">
+        <v>5</v>
+      </c>
+      <c r="T765">
+        <v>3</v>
+      </c>
+      <c r="U765" s="40" t="s">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="766" ht="14.25" spans="1:21">
+      <c r="A766">
+        <v>709</v>
+      </c>
+      <c r="B766" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C766" t="s">
+        <v>276</v>
+      </c>
+      <c r="D766">
+        <v>16.8</v>
+      </c>
+      <c r="E766">
+        <v>6.9</v>
+      </c>
+      <c r="F766">
+        <v>3.1</v>
+      </c>
+      <c r="G766">
+        <v>0.97</v>
+      </c>
+      <c r="H766">
+        <v>0.68</v>
+      </c>
+      <c r="I766">
+        <v>43</v>
+      </c>
+      <c r="J766">
+        <v>2.06</v>
+      </c>
+      <c r="K766">
+        <v>104</v>
+      </c>
+      <c r="L766" t="s">
+        <v>1734</v>
+      </c>
+      <c r="M766" t="s">
+        <v>1735</v>
+      </c>
+      <c r="N766" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="O766" t="s">
+        <v>593</v>
+      </c>
+      <c r="P766" s="39">
+        <v>1242</v>
+      </c>
+      <c r="Q766" s="39">
+        <v>512</v>
+      </c>
+      <c r="R766" s="39">
+        <v>71</v>
+      </c>
+      <c r="S766" s="39">
+        <v>228</v>
+      </c>
+      <c r="T766" s="39">
+        <v>51</v>
+      </c>
+      <c r="U766" s="40" t="s">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="767" ht="14.25" spans="1:21">
+      <c r="A767">
+        <v>710</v>
+      </c>
+      <c r="B767" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C767" t="s">
+        <v>276</v>
+      </c>
+      <c r="N767" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="O767" t="s">
+        <v>589</v>
+      </c>
+      <c r="P767" s="39">
+        <v>589</v>
+      </c>
+      <c r="Q767" s="39">
+        <v>364</v>
+      </c>
+      <c r="R767" s="39">
+        <v>62</v>
+      </c>
+      <c r="S767" s="39">
+        <v>159</v>
+      </c>
+      <c r="T767" s="39">
+        <v>42</v>
+      </c>
+      <c r="U767" s="40" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="768" ht="14.25" spans="1:21">
+      <c r="A768">
+        <v>711</v>
+      </c>
+      <c r="B768" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C768" t="s">
+        <v>276</v>
+      </c>
+      <c r="N768" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="O768" t="s">
+        <v>586</v>
+      </c>
+      <c r="P768" s="39">
+        <v>229</v>
+      </c>
+      <c r="Q768" s="39">
+        <v>185</v>
+      </c>
+      <c r="R768" s="39">
+        <v>26</v>
+      </c>
+      <c r="S768" s="39">
+        <v>17</v>
+      </c>
+      <c r="T768" s="39">
+        <v>45</v>
+      </c>
+      <c r="U768" s="40" t="s">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="769" ht="14.25" spans="1:23">
+      <c r="A769">
+        <v>712</v>
+      </c>
+      <c r="B769" t="s">
+        <v>292</v>
+      </c>
+      <c r="C769" t="s">
+        <v>290</v>
+      </c>
+      <c r="D769">
+        <v>27.3</v>
+      </c>
+      <c r="E769">
+        <v>13.7</v>
+      </c>
+      <c r="F769">
+        <v>3.4</v>
+      </c>
+      <c r="G769">
+        <v>0.67</v>
+      </c>
+      <c r="H769">
+        <v>1.89</v>
+      </c>
+      <c r="I769">
+        <v>21</v>
+      </c>
+      <c r="J769">
+        <v>2.13</v>
+      </c>
+      <c r="K769">
+        <v>113</v>
+      </c>
+      <c r="L769" t="s">
+        <v>1739</v>
+      </c>
+      <c r="M769" t="s">
+        <v>1740</v>
+      </c>
+      <c r="N769" s="39" t="s">
+        <v>290</v>
+      </c>
+      <c r="O769" t="s">
+        <v>593</v>
+      </c>
+      <c r="P769" s="39">
+        <v>1668</v>
+      </c>
+      <c r="Q769" s="39">
+        <v>835</v>
+      </c>
+      <c r="R769" s="39">
+        <v>41</v>
+      </c>
+      <c r="S769" s="39">
+        <v>210</v>
+      </c>
+      <c r="T769" s="39">
+        <v>115</v>
+      </c>
+      <c r="U769" s="40" t="s">
+        <v>1741</v>
+      </c>
+      <c r="W769" t="s">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="770" ht="14.25" spans="1:23">
+      <c r="A770">
+        <v>713</v>
+      </c>
+      <c r="B770" t="s">
+        <v>292</v>
+      </c>
+      <c r="C770" t="s">
+        <v>290</v>
+      </c>
+      <c r="N770" s="39" t="s">
+        <v>290</v>
+      </c>
+      <c r="O770" t="s">
+        <v>589</v>
+      </c>
+      <c r="P770" s="39">
+        <v>1445</v>
+      </c>
+      <c r="Q770" s="39">
+        <v>690</v>
+      </c>
+      <c r="R770" s="39">
+        <v>40</v>
+      </c>
+      <c r="S770" s="39">
+        <v>199</v>
+      </c>
+      <c r="T770" s="39">
+        <v>111</v>
+      </c>
+      <c r="U770" s="40" t="s">
+        <v>1743</v>
+      </c>
+      <c r="W770" t="s">
+        <v>1744</v>
+      </c>
+    </row>
+    <row r="771" ht="14.25" spans="1:23">
+      <c r="A771">
+        <v>714</v>
+      </c>
+      <c r="B771" t="s">
+        <v>292</v>
+      </c>
+      <c r="C771" t="s">
+        <v>290</v>
+      </c>
+      <c r="N771" s="39" t="s">
+        <v>290</v>
+      </c>
+      <c r="O771" t="s">
+        <v>586</v>
+      </c>
+      <c r="P771" s="39">
+        <v>627</v>
+      </c>
+      <c r="Q771" s="39">
+        <v>243</v>
+      </c>
+      <c r="R771" s="39">
+        <v>27</v>
+      </c>
+      <c r="S771" s="39">
+        <v>66</v>
+      </c>
+      <c r="T771" s="39">
+        <v>76</v>
+      </c>
+      <c r="U771" s="40" t="s">
+        <v>1745</v>
+      </c>
+      <c r="W771" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="772" spans="1:23">
+      <c r="A772">
+        <v>715</v>
+      </c>
+      <c r="B772" t="s">
+        <v>292</v>
+      </c>
+      <c r="C772" t="s">
+        <v>290</v>
+      </c>
+      <c r="W772" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="773" spans="1:23">
+      <c r="A773">
+        <v>716</v>
+      </c>
+      <c r="B773" t="s">
+        <v>292</v>
+      </c>
+      <c r="C773" t="s">
+        <v>290</v>
+      </c>
+      <c r="W773" t="s">
+        <v>1747</v>
+      </c>
+    </row>
+    <row r="774" ht="14.25" spans="1:23">
+      <c r="A774">
+        <v>717</v>
+      </c>
+      <c r="B774" t="s">
+        <v>294</v>
+      </c>
+      <c r="C774" t="s">
+        <v>290</v>
+      </c>
+      <c r="D774">
+        <v>18.8</v>
+      </c>
+      <c r="E774">
+        <v>5.2</v>
+      </c>
+      <c r="F774">
+        <v>4.1</v>
+      </c>
+      <c r="G774">
+        <v>1.82</v>
+      </c>
+      <c r="H774">
+        <v>0.55</v>
+      </c>
+      <c r="I774">
+        <v>23</v>
+      </c>
+      <c r="J774">
+        <v>2.01</v>
+      </c>
+      <c r="K774">
+        <v>105</v>
+      </c>
+      <c r="L774" t="s">
+        <v>1748</v>
+      </c>
+      <c r="M774" t="s">
+        <v>1749</v>
+      </c>
+      <c r="N774" s="39" t="s">
+        <v>290</v>
+      </c>
+      <c r="O774" t="s">
+        <v>593</v>
+      </c>
+      <c r="P774" s="39">
+        <v>961</v>
+      </c>
+      <c r="Q774" s="39">
+        <v>263</v>
+      </c>
+      <c r="R774" s="39">
+        <v>93</v>
+      </c>
+      <c r="S774" s="39">
+        <v>209</v>
+      </c>
+      <c r="T774" s="39">
+        <v>28</v>
+      </c>
+      <c r="U774" s="40" t="s">
+        <v>1750</v>
+      </c>
+      <c r="W774" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="775" ht="14.25" spans="1:23">
+      <c r="A775">
+        <v>718</v>
+      </c>
+      <c r="B775" t="s">
+        <v>294</v>
+      </c>
+      <c r="C775" t="s">
+        <v>290</v>
+      </c>
+      <c r="N775" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="O775" t="s">
+        <v>593</v>
+      </c>
+      <c r="P775" s="39">
+        <v>213</v>
+      </c>
+      <c r="Q775" s="39">
+        <v>52</v>
+      </c>
+      <c r="R775" s="39">
+        <v>24</v>
+      </c>
+      <c r="S775" s="39">
+        <v>43</v>
+      </c>
+      <c r="T775" s="39">
+        <v>10</v>
+      </c>
+      <c r="U775" s="40" t="s">
+        <v>1751</v>
+      </c>
+      <c r="W775" t="s">
+        <v>1752</v>
+      </c>
+    </row>
+    <row r="776" ht="14.25" spans="1:23">
+      <c r="A776">
+        <v>719</v>
+      </c>
+      <c r="B776" t="s">
+        <v>294</v>
+      </c>
+      <c r="C776" t="s">
+        <v>290</v>
+      </c>
+      <c r="N776" s="39" t="s">
+        <v>243</v>
+      </c>
+      <c r="O776" t="s">
+        <v>589</v>
+      </c>
+      <c r="P776" s="39">
+        <v>1307</v>
+      </c>
+      <c r="Q776" s="39">
+        <v>314</v>
+      </c>
+      <c r="R776" s="39">
+        <v>116</v>
+      </c>
+      <c r="S776" s="39">
+        <v>288</v>
+      </c>
+      <c r="T776" s="39">
+        <v>24</v>
+      </c>
+      <c r="U776" s="40" t="s">
+        <v>1753</v>
+      </c>
+      <c r="W776" t="s">
+        <v>1628</v>
+      </c>
+    </row>
+    <row r="777" ht="14.25" spans="1:23">
+      <c r="A777">
+        <v>720</v>
+      </c>
+      <c r="B777" t="s">
+        <v>294</v>
+      </c>
+      <c r="C777" t="s">
+        <v>290</v>
+      </c>
+      <c r="N777" s="39" t="s">
+        <v>470</v>
+      </c>
+      <c r="O777" t="s">
+        <v>586</v>
+      </c>
+      <c r="P777" s="39">
+        <v>1816</v>
+      </c>
+      <c r="Q777" s="39">
+        <v>470</v>
+      </c>
+      <c r="R777" s="39">
+        <v>143</v>
+      </c>
+      <c r="S777" s="39">
+        <v>417</v>
+      </c>
+      <c r="T777" s="39">
+        <v>32</v>
+      </c>
+      <c r="U777" s="40" t="s">
+        <v>1754</v>
+      </c>
+      <c r="W777" t="s">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="778" ht="14.25" spans="1:23">
+      <c r="A778">
+        <v>721</v>
+      </c>
+      <c r="B778" t="s">
+        <v>294</v>
+      </c>
+      <c r="C778" t="s">
+        <v>290</v>
+      </c>
+      <c r="N778" s="39" t="s">
+        <v>470</v>
+      </c>
+      <c r="O778" t="s">
+        <v>583</v>
+      </c>
+      <c r="P778" s="39">
+        <v>1399</v>
+      </c>
+      <c r="Q778" s="39">
+        <v>358</v>
+      </c>
+      <c r="R778" s="39">
+        <v>110</v>
+      </c>
+      <c r="S778" s="39">
+        <v>321</v>
+      </c>
+      <c r="T778" s="39">
+        <v>43</v>
+      </c>
+      <c r="U778" s="40" t="s">
+        <v>1756</v>
+      </c>
+      <c r="W778" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="779" ht="14.25" spans="1:23">
+      <c r="A779">
+        <v>722</v>
+      </c>
+      <c r="B779" t="s">
+        <v>294</v>
+      </c>
+      <c r="C779" t="s">
+        <v>290</v>
+      </c>
+      <c r="N779" s="39" t="s">
+        <v>470</v>
+      </c>
+      <c r="O779" t="s">
+        <v>581</v>
+      </c>
+      <c r="P779" s="39">
+        <v>1301</v>
+      </c>
+      <c r="Q779" s="39">
+        <v>379</v>
+      </c>
+      <c r="R779" s="39">
+        <v>114</v>
+      </c>
+      <c r="S779" s="39">
+        <v>212</v>
+      </c>
+      <c r="T779" s="39">
+        <v>36</v>
+      </c>
+      <c r="U779" s="40" t="s">
+        <v>1757</v>
+      </c>
+      <c r="W779" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="780" ht="14.25" spans="1:23">
+      <c r="A780">
+        <v>723</v>
+      </c>
+      <c r="B780" t="s">
+        <v>294</v>
+      </c>
+      <c r="C780" t="s">
+        <v>290</v>
+      </c>
+      <c r="N780" s="39" t="s">
+        <v>470</v>
+      </c>
+      <c r="O780" t="s">
+        <v>579</v>
+      </c>
+      <c r="P780" s="39">
+        <v>878</v>
+      </c>
+      <c r="Q780" s="39">
+        <v>330</v>
+      </c>
+      <c r="R780" s="39">
+        <v>127</v>
+      </c>
+      <c r="S780" s="39">
+        <v>175</v>
+      </c>
+      <c r="T780" s="39">
+        <v>36</v>
+      </c>
+      <c r="U780" s="40" t="s">
+        <v>1758</v>
+      </c>
+      <c r="W780" t="s">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="781" ht="14.25" spans="1:23">
+      <c r="A781">
+        <v>724</v>
+      </c>
+      <c r="B781" t="s">
+        <v>294</v>
+      </c>
+      <c r="C781" t="s">
+        <v>290</v>
+      </c>
+      <c r="N781" s="39" t="s">
+        <v>470</v>
+      </c>
+      <c r="O781" t="s">
+        <v>577</v>
+      </c>
+      <c r="P781" s="39">
+        <v>705</v>
+      </c>
+      <c r="Q781" s="39">
+        <v>328</v>
+      </c>
+      <c r="R781" s="39">
+        <v>78</v>
+      </c>
+      <c r="S781" s="39">
+        <v>115</v>
+      </c>
+      <c r="T781" s="39">
+        <v>31</v>
+      </c>
+      <c r="U781" s="40" t="s">
+        <v>1760</v>
+      </c>
+      <c r="W781" t="s">
+        <v>1614</v>
+      </c>
+    </row>
+    <row r="782" ht="14.25" spans="1:23">
+      <c r="A782">
+        <v>725</v>
+      </c>
+      <c r="B782" t="s">
+        <v>294</v>
+      </c>
+      <c r="C782" t="s">
+        <v>290</v>
+      </c>
+      <c r="N782" s="39" t="s">
+        <v>470</v>
+      </c>
+      <c r="O782" t="s">
+        <v>575</v>
+      </c>
+      <c r="P782" s="39">
+        <v>109</v>
+      </c>
+      <c r="Q782" s="39">
+        <v>56</v>
+      </c>
+      <c r="R782" s="39">
+        <v>11</v>
+      </c>
+      <c r="S782" s="39">
+        <v>14</v>
+      </c>
+      <c r="T782" s="39">
+        <v>5</v>
+      </c>
+      <c r="U782" s="40" t="s">
+        <v>1761</v>
+      </c>
+      <c r="W782" t="s">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="783" spans="1:23">
+      <c r="A783">
+        <v>726</v>
+      </c>
+      <c r="B783" t="s">
+        <v>294</v>
+      </c>
+      <c r="C783" t="s">
+        <v>290</v>
+      </c>
+      <c r="W783" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="784" spans="1:23">
+      <c r="A784">
+        <v>727</v>
+      </c>
+      <c r="B784" t="s">
+        <v>294</v>
+      </c>
+      <c r="C784" t="s">
+        <v>290</v>
+      </c>
+      <c r="W784" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="785" ht="14.25" spans="1:21">
+      <c r="A785">
+        <v>728</v>
+      </c>
+      <c r="B785" t="s">
+        <v>296</v>
+      </c>
+      <c r="C785" t="s">
+        <v>290</v>
+      </c>
+      <c r="D785">
+        <v>19</v>
+      </c>
+      <c r="E785">
+        <v>8</v>
+      </c>
+      <c r="F785">
+        <v>2.8</v>
+      </c>
+      <c r="G785">
+        <v>0.5</v>
+      </c>
+      <c r="H785">
+        <v>0.55</v>
+      </c>
+      <c r="I785">
+        <v>33</v>
+      </c>
+      <c r="J785">
+        <v>2.06</v>
+      </c>
+      <c r="K785">
+        <v>107</v>
+      </c>
+      <c r="L785" t="s">
+        <v>1765</v>
+      </c>
+      <c r="M785" t="s">
+        <v>1766</v>
+      </c>
+      <c r="N785" s="39" t="s">
+        <v>290</v>
+      </c>
+      <c r="O785" t="s">
+        <v>593</v>
+      </c>
+      <c r="P785" s="39">
+        <v>380</v>
+      </c>
+      <c r="Q785" s="39">
+        <v>159</v>
+      </c>
+      <c r="R785" s="39">
+        <v>10</v>
+      </c>
+      <c r="S785" s="39">
+        <v>56</v>
+      </c>
+      <c r="T785" s="39">
+        <v>11</v>
+      </c>
+      <c r="U785" s="40" t="s">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="786" ht="14.25" spans="1:21">
+      <c r="A786">
+        <v>729</v>
+      </c>
+      <c r="B786" t="s">
+        <v>296</v>
+      </c>
+      <c r="C786" t="s">
+        <v>290</v>
+      </c>
+      <c r="N786" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="O786" t="s">
+        <v>593</v>
+      </c>
+      <c r="P786" s="39">
+        <v>1152</v>
+      </c>
+      <c r="Q786" s="39">
+        <v>432</v>
+      </c>
+      <c r="R786" s="39">
+        <v>40</v>
+      </c>
+      <c r="S786" s="39">
+        <v>150</v>
+      </c>
+      <c r="T786" s="39">
+        <v>24</v>
+      </c>
+      <c r="U786" s="40" t="s">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="787" ht="14.25" spans="1:21">
+      <c r="A787">
+        <v>730</v>
+      </c>
+      <c r="B787" t="s">
+        <v>296</v>
+      </c>
+      <c r="C787" t="s">
+        <v>290</v>
+      </c>
+      <c r="N787" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="O787" t="s">
+        <v>589</v>
+      </c>
+      <c r="P787" s="39">
+        <v>618</v>
+      </c>
+      <c r="Q787" s="39">
+        <v>193</v>
+      </c>
+      <c r="R787" s="39">
+        <v>37</v>
+      </c>
+      <c r="S787" s="39">
+        <v>98</v>
+      </c>
+      <c r="T787" s="39">
+        <v>20</v>
+      </c>
+      <c r="U787" s="40" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="788" ht="14.25" spans="1:21">
+      <c r="A788">
+        <v>731</v>
+      </c>
+      <c r="B788" t="s">
+        <v>296</v>
+      </c>
+      <c r="C788" t="s">
+        <v>290</v>
+      </c>
+      <c r="N788" s="39" t="s">
+        <v>454</v>
+      </c>
+      <c r="O788" t="s">
+        <v>589</v>
+      </c>
+      <c r="P788" s="39">
+        <v>868</v>
+      </c>
+      <c r="Q788" s="39">
+        <v>244</v>
+      </c>
+      <c r="R788" s="39">
+        <v>34</v>
+      </c>
+      <c r="S788" s="39">
+        <v>94</v>
+      </c>
+      <c r="T788" s="39">
+        <v>15</v>
+      </c>
+      <c r="U788" s="40" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="789" ht="14.25" spans="1:21">
+      <c r="A789">
+        <v>732</v>
+      </c>
+      <c r="B789" t="s">
+        <v>296</v>
+      </c>
+      <c r="C789" t="s">
+        <v>290</v>
+      </c>
+      <c r="N789" s="39" t="s">
+        <v>454</v>
+      </c>
+      <c r="O789" t="s">
+        <v>586</v>
+      </c>
+      <c r="P789" s="39">
+        <v>1321</v>
+      </c>
+      <c r="Q789" s="39">
+        <v>416</v>
+      </c>
+      <c r="R789" s="39">
+        <v>60</v>
+      </c>
+      <c r="S789" s="39">
+        <v>142</v>
+      </c>
+      <c r="T789" s="39">
+        <v>39</v>
+      </c>
+      <c r="U789" s="40" t="s">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="790" ht="14.25" spans="1:21">
+      <c r="A790">
+        <v>733</v>
+      </c>
+      <c r="B790" t="s">
+        <v>296</v>
+      </c>
+      <c r="C790" t="s">
+        <v>290</v>
+      </c>
+      <c r="N790" s="39" t="s">
+        <v>454</v>
+      </c>
+      <c r="O790" t="s">
+        <v>583</v>
+      </c>
+      <c r="P790" s="39">
+        <v>447</v>
+      </c>
+      <c r="Q790" s="39">
+        <v>168</v>
+      </c>
+      <c r="R790" s="39">
+        <v>18</v>
+      </c>
+      <c r="S790" s="39">
+        <v>70</v>
+      </c>
+      <c r="T790" s="39">
+        <v>12</v>
+      </c>
+      <c r="U790" s="40" t="s">
+        <v>1772</v>
+      </c>
+    </row>
+    <row r="791" ht="14.25" spans="1:21">
+      <c r="A791">
+        <v>734</v>
+      </c>
+      <c r="B791" t="s">
+        <v>296</v>
+      </c>
+      <c r="C791" t="s">
+        <v>290</v>
+      </c>
+      <c r="N791" s="39" t="s">
+        <v>379</v>
+      </c>
+      <c r="O791" t="s">
+        <v>583</v>
+      </c>
+      <c r="P791" s="39">
+        <v>669</v>
+      </c>
+      <c r="Q791" s="39">
+        <v>342</v>
+      </c>
+      <c r="R791" s="39">
+        <v>47</v>
+      </c>
+      <c r="S791" s="39">
+        <v>99</v>
+      </c>
+      <c r="T791" s="39">
+        <v>28</v>
+      </c>
+      <c r="U791" s="40" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="792" ht="14.25" spans="1:21">
+      <c r="A792">
+        <v>735</v>
+      </c>
+      <c r="B792" t="s">
+        <v>296</v>
+      </c>
+      <c r="C792" t="s">
+        <v>290</v>
+      </c>
+      <c r="N792" s="39" t="s">
+        <v>379</v>
+      </c>
+      <c r="O792" t="s">
+        <v>583</v>
+      </c>
+      <c r="P792" s="39">
+        <v>1164</v>
+      </c>
+      <c r="Q792" s="39">
+        <v>430</v>
+      </c>
+      <c r="R792" s="39">
+        <v>69</v>
+      </c>
+      <c r="S792" s="39">
+        <v>124</v>
+      </c>
+      <c r="T792" s="39">
+        <v>36</v>
+      </c>
+      <c r="U792" s="40" t="s">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="793" ht="14.25" spans="1:21">
+      <c r="A793">
+        <v>736</v>
+      </c>
+      <c r="B793" t="s">
+        <v>296</v>
+      </c>
+      <c r="C793" t="s">
+        <v>290</v>
+      </c>
+      <c r="N793" s="39" t="s">
+        <v>379</v>
+      </c>
+      <c r="O793" t="s">
+        <v>581</v>
+      </c>
+      <c r="P793" s="39">
+        <v>893</v>
+      </c>
+      <c r="Q793" s="39">
+        <v>424</v>
+      </c>
+      <c r="R793" s="39">
+        <v>41</v>
+      </c>
+      <c r="S793" s="39">
+        <v>82</v>
+      </c>
+      <c r="T793" s="39">
+        <v>24</v>
+      </c>
+      <c r="U793" s="40" t="s">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="794" ht="14.25" spans="1:21">
+      <c r="A794">
+        <v>737</v>
+      </c>
+      <c r="B794" t="s">
+        <v>296</v>
+      </c>
+      <c r="C794" t="s">
+        <v>290</v>
+      </c>
+      <c r="N794" s="39" t="s">
+        <v>379</v>
+      </c>
+      <c r="O794" t="s">
+        <v>579</v>
+      </c>
+      <c r="P794" s="39">
+        <v>467</v>
+      </c>
+      <c r="Q794" s="39">
+        <v>230</v>
+      </c>
+      <c r="R794" s="39">
+        <v>24</v>
+      </c>
+      <c r="S794" s="39">
+        <v>56</v>
+      </c>
+      <c r="T794" s="39">
+        <v>37</v>
+      </c>
+      <c r="U794" s="40" t="s">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="795" ht="14.25" spans="1:21">
+      <c r="A795">
+        <v>738</v>
+      </c>
+      <c r="B795" t="s">
+        <v>296</v>
+      </c>
+      <c r="C795" t="s">
+        <v>290</v>
+      </c>
+      <c r="N795" s="39" t="s">
+        <v>260</v>
+      </c>
+      <c r="O795" t="s">
+        <v>577</v>
+      </c>
+      <c r="P795" s="39">
+        <v>136</v>
+      </c>
+      <c r="Q795" s="39">
+        <v>57</v>
+      </c>
+      <c r="R795" s="39">
+        <v>8</v>
+      </c>
+      <c r="S795" s="39">
+        <v>13</v>
+      </c>
+      <c r="T795" s="39">
+        <v>7</v>
+      </c>
+      <c r="U795" s="40" t="s">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="796" ht="14.25" spans="1:21">
+      <c r="A796">
+        <v>739</v>
+      </c>
+      <c r="B796" t="s">
+        <v>296</v>
+      </c>
+      <c r="C796" t="s">
+        <v>290</v>
+      </c>
+      <c r="N796" s="39" t="s">
+        <v>260</v>
+      </c>
+      <c r="O796" t="s">
+        <v>575</v>
+      </c>
+      <c r="P796" s="39">
+        <v>208</v>
+      </c>
+      <c r="Q796" s="39">
+        <v>101</v>
+      </c>
+      <c r="R796" s="39">
+        <v>13</v>
+      </c>
+      <c r="S796" s="39">
+        <v>22</v>
+      </c>
+      <c r="T796" s="39">
+        <v>7</v>
+      </c>
+      <c r="U796" s="40" t="s">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="797" ht="14.25" spans="1:21">
+      <c r="A797">
+        <v>740</v>
+      </c>
+      <c r="B797" t="s">
+        <v>298</v>
+      </c>
+      <c r="C797" t="s">
+        <v>290</v>
+      </c>
+      <c r="D797">
+        <v>17.6</v>
+      </c>
+      <c r="E797">
+        <v>2.4</v>
+      </c>
+      <c r="F797">
+        <v>2.7</v>
+      </c>
+      <c r="G797">
+        <v>0.4</v>
+      </c>
+      <c r="H797">
+        <v>0.21</v>
+      </c>
+      <c r="I797">
+        <v>17</v>
+      </c>
+      <c r="J797">
+        <v>1.93</v>
+      </c>
+      <c r="K797">
+        <v>86</v>
+      </c>
+      <c r="L797" t="s">
+        <v>1779</v>
+      </c>
+      <c r="M797" t="s">
+        <v>1780</v>
+      </c>
+      <c r="N797" s="39" t="s">
+        <v>290</v>
+      </c>
+      <c r="O797" t="s">
+        <v>593</v>
+      </c>
+      <c r="P797" s="39">
+        <v>1230</v>
+      </c>
+      <c r="Q797" s="39">
+        <v>167</v>
+      </c>
+      <c r="R797" s="39">
+        <v>28</v>
+      </c>
+      <c r="S797" s="39">
+        <v>191</v>
+      </c>
+      <c r="T797" s="39">
+        <v>16</v>
+      </c>
+      <c r="U797" s="40" t="s">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="798" ht="14.25" spans="1:21">
+      <c r="A798">
+        <v>741</v>
+      </c>
+      <c r="B798" t="s">
+        <v>298</v>
+      </c>
+      <c r="C798" t="s">
+        <v>290</v>
+      </c>
+      <c r="N798" s="39" t="s">
+        <v>290</v>
+      </c>
+      <c r="O798" t="s">
+        <v>589</v>
+      </c>
+      <c r="P798" s="39">
+        <v>1198</v>
+      </c>
+      <c r="Q798" s="39">
+        <v>178</v>
+      </c>
+      <c r="R798" s="39">
+        <v>35</v>
+      </c>
+      <c r="S798" s="39">
+        <v>210</v>
+      </c>
+      <c r="T798" s="39">
+        <v>6</v>
+      </c>
+      <c r="U798" s="40" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+    <row r="799" ht="14.25" spans="1:21">
+      <c r="A799">
+        <v>742</v>
+      </c>
+      <c r="B799" t="s">
+        <v>298</v>
+      </c>
+      <c r="C799" t="s">
+        <v>290</v>
+      </c>
+      <c r="N799" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="O799" t="s">
+        <v>586</v>
+      </c>
+      <c r="P799" s="39">
+        <v>1173</v>
+      </c>
+      <c r="Q799" s="39">
+        <v>171</v>
+      </c>
+      <c r="R799" s="39">
+        <v>54</v>
+      </c>
+      <c r="S799" s="39">
+        <v>110</v>
+      </c>
+      <c r="T799" s="39">
+        <v>13</v>
+      </c>
+      <c r="U799" s="40" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="800" ht="14.25" spans="1:21">
+      <c r="A800">
+        <v>743</v>
+      </c>
+      <c r="B800" t="s">
+        <v>298</v>
+      </c>
+      <c r="C800" t="s">
+        <v>290</v>
+      </c>
+      <c r="N800" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="O800" t="s">
+        <v>583</v>
+      </c>
+      <c r="P800" s="39">
+        <v>1226</v>
+      </c>
+      <c r="Q800" s="39">
+        <v>139</v>
+      </c>
+      <c r="R800" s="39">
+        <v>42</v>
+      </c>
+      <c r="S800" s="39">
+        <v>106</v>
+      </c>
+      <c r="T800" s="39">
+        <v>5</v>
+      </c>
+      <c r="U800" s="40" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="801" ht="14.25" spans="1:21">
+      <c r="A801">
+        <v>744</v>
+      </c>
+      <c r="B801" t="s">
+        <v>298</v>
+      </c>
+      <c r="C801" t="s">
+        <v>290</v>
+      </c>
+      <c r="N801" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="O801" t="s">
+        <v>581</v>
+      </c>
+      <c r="P801" s="39">
+        <v>1277</v>
+      </c>
+      <c r="Q801" s="39">
+        <v>167</v>
+      </c>
+      <c r="R801" s="39">
+        <v>39</v>
+      </c>
+      <c r="S801" s="39">
+        <v>137</v>
+      </c>
+      <c r="T801" s="39">
+        <v>8</v>
+      </c>
+      <c r="U801" s="40" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="802" ht="14.25" spans="1:21">
+      <c r="A802">
+        <v>745</v>
+      </c>
+      <c r="B802" t="s">
+        <v>298</v>
+      </c>
+      <c r="C802" t="s">
+        <v>290</v>
+      </c>
+      <c r="N802" s="39" t="s">
+        <v>121</v>
+      </c>
+      <c r="O802" t="s">
+        <v>579</v>
+      </c>
+      <c r="P802" s="39">
+        <v>532</v>
+      </c>
+      <c r="Q802" s="39">
+        <v>74</v>
+      </c>
+      <c r="R802" s="39">
+        <v>28</v>
+      </c>
+      <c r="S802" s="39">
+        <v>78</v>
+      </c>
+      <c r="T802" s="39">
+        <v>3</v>
+      </c>
+      <c r="U802" s="40" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="803" ht="14.25" spans="1:21">
+      <c r="A803">
+        <v>746</v>
+      </c>
+      <c r="B803" t="s">
+        <v>298</v>
+      </c>
+      <c r="C803" t="s">
+        <v>290</v>
+      </c>
+      <c r="N803" s="39" t="s">
+        <v>260</v>
+      </c>
+      <c r="O803" t="s">
+        <v>577</v>
+      </c>
+      <c r="P803" s="39">
+        <v>344</v>
+      </c>
+      <c r="Q803" s="39">
+        <v>52</v>
+      </c>
+      <c r="R803" s="39">
+        <v>9</v>
+      </c>
+      <c r="S803" s="39">
+        <v>76</v>
+      </c>
+      <c r="T803" s="39">
+        <v>4</v>
+      </c>
+      <c r="U803" s="40" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="804" ht="14.25" spans="1:21">
+      <c r="A804">
+        <v>747</v>
+      </c>
+      <c r="B804" t="s">
+        <v>298</v>
+      </c>
+      <c r="C804" t="s">
+        <v>290</v>
+      </c>
+      <c r="N804" s="39" t="s">
+        <v>379</v>
+      </c>
+      <c r="O804" t="s">
+        <v>577</v>
+      </c>
+      <c r="P804" s="39">
+        <v>756</v>
+      </c>
+      <c r="Q804" s="39">
+        <v>119</v>
+      </c>
+      <c r="R804" s="39">
+        <v>29</v>
+      </c>
+      <c r="S804" s="39">
+        <v>220</v>
+      </c>
+      <c r="T804" s="39">
+        <v>5</v>
+      </c>
+      <c r="U804" s="40" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="805" ht="14.25" spans="1:21">
+      <c r="A805">
+        <v>748</v>
+      </c>
+      <c r="B805" t="s">
+        <v>298</v>
+      </c>
+      <c r="C805" t="s">
+        <v>290</v>
+      </c>
+      <c r="N805" s="39" t="s">
+        <v>379</v>
+      </c>
+      <c r="O805" t="s">
+        <v>575</v>
+      </c>
+      <c r="P805" s="39">
+        <v>751</v>
+      </c>
+      <c r="Q805" s="39">
+        <v>150</v>
+      </c>
+      <c r="R805" s="39">
+        <v>27</v>
+      </c>
+      <c r="S805" s="39">
+        <v>164</v>
+      </c>
+      <c r="T805" s="39">
+        <v>6</v>
+      </c>
+      <c r="U805" s="40" t="s">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="806" ht="14.25" spans="1:21">
+      <c r="A806">
+        <v>749</v>
+      </c>
+      <c r="B806" t="s">
+        <v>298</v>
+      </c>
+      <c r="C806" t="s">
+        <v>290</v>
+      </c>
+      <c r="N806" s="39" t="s">
+        <v>379</v>
+      </c>
+      <c r="O806" t="s">
+        <v>572</v>
+      </c>
+      <c r="P806" s="39">
+        <v>593</v>
+      </c>
+      <c r="Q806" s="39">
+        <v>113</v>
+      </c>
+      <c r="R806" s="39">
+        <v>29</v>
+      </c>
+      <c r="S806" s="39">
+        <v>102</v>
+      </c>
+      <c r="T806" s="39">
+        <v>3</v>
+      </c>
+      <c r="U806" s="40" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="807" ht="14.25" spans="1:21">
+      <c r="A807">
+        <v>750</v>
+      </c>
+      <c r="B807" t="s">
+        <v>298</v>
+      </c>
+      <c r="C807" t="s">
+        <v>290</v>
+      </c>
+      <c r="N807" s="39" t="s">
+        <v>379</v>
+      </c>
+      <c r="O807" t="s">
+        <v>570</v>
+      </c>
+      <c r="P807" s="39">
+        <v>788</v>
+      </c>
+      <c r="Q807" s="39">
+        <v>155</v>
+      </c>
+      <c r="R807" s="39">
+        <v>28</v>
+      </c>
+      <c r="S807" s="39">
+        <v>158</v>
+      </c>
+      <c r="T807" s="39">
+        <v>4</v>
+      </c>
+      <c r="U807" s="40" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="808" ht="14.25" spans="1:21">
+      <c r="A808">
+        <v>751</v>
+      </c>
+      <c r="B808" t="s">
+        <v>298</v>
+      </c>
+      <c r="C808" t="s">
+        <v>290</v>
+      </c>
+      <c r="N808" s="39" t="s">
+        <v>379</v>
+      </c>
+      <c r="O808" t="s">
+        <v>568</v>
+      </c>
+      <c r="P808" s="39">
+        <v>382</v>
+      </c>
+      <c r="Q808" s="39">
+        <v>109</v>
+      </c>
+      <c r="R808" s="39">
+        <v>21</v>
+      </c>
+      <c r="S808" s="39">
+        <v>73</v>
+      </c>
+      <c r="T808" s="39">
+        <v>1</v>
+      </c>
+      <c r="U808" s="40" t="s">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="809" ht="14.25" spans="1:21">
+      <c r="A809">
+        <v>752</v>
+      </c>
+      <c r="B809" t="s">
+        <v>298</v>
+      </c>
+      <c r="C809" t="s">
+        <v>290</v>
+      </c>
+      <c r="N809" s="39" t="s">
+        <v>379</v>
+      </c>
+      <c r="O809" t="s">
+        <v>653</v>
+      </c>
+      <c r="P809" s="39">
+        <v>140</v>
+      </c>
+      <c r="Q809" s="39">
+        <v>23</v>
+      </c>
+      <c r="R809" s="39">
+        <v>4</v>
+      </c>
+      <c r="S809" s="39">
+        <v>16</v>
+      </c>
+      <c r="T809" s="39">
+        <v>0</v>
+      </c>
+      <c r="U809" s="40" t="s">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="810" ht="14.25" spans="1:21">
+      <c r="A810">
+        <v>753</v>
+      </c>
+      <c r="B810" t="s">
+        <v>298</v>
+      </c>
+      <c r="C810" t="s">
+        <v>290</v>
+      </c>
+      <c r="N810" s="39" t="s">
+        <v>379</v>
+      </c>
+      <c r="O810" t="s">
+        <v>650</v>
+      </c>
+      <c r="P810" s="39">
+        <v>252</v>
+      </c>
+      <c r="Q810" s="39">
+        <v>52</v>
+      </c>
+      <c r="R810" s="39">
+        <v>12</v>
+      </c>
+      <c r="S810" s="39">
+        <v>36</v>
+      </c>
+      <c r="T810" s="39">
+        <v>0</v>
+      </c>
+      <c r="U810" s="40" t="s">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="811" ht="14.25" spans="1:21">
+      <c r="A811">
+        <v>754</v>
+      </c>
+      <c r="B811" t="s">
+        <v>302</v>
+      </c>
+      <c r="C811" t="s">
+        <v>290</v>
+      </c>
+      <c r="D811">
+        <v>17.1</v>
+      </c>
+      <c r="E811">
+        <v>9</v>
+      </c>
+      <c r="F811">
+        <v>7.8</v>
+      </c>
+      <c r="G811">
+        <v>1.4</v>
+      </c>
+      <c r="H811">
+        <v>0.75</v>
+      </c>
+      <c r="I811">
+        <v>25</v>
+      </c>
+      <c r="J811">
+        <v>2.08</v>
+      </c>
+      <c r="K811">
+        <v>109</v>
+      </c>
+      <c r="L811" t="s">
+        <v>1795</v>
+      </c>
+      <c r="M811" t="s">
+        <v>1796</v>
+      </c>
+      <c r="N811" s="39" t="s">
+        <v>290</v>
+      </c>
+      <c r="O811" t="s">
+        <v>593</v>
+      </c>
+      <c r="P811" s="39">
+        <v>1233</v>
+      </c>
+      <c r="Q811" s="39">
+        <v>647</v>
+      </c>
+      <c r="R811" s="39">
+        <v>101</v>
+      </c>
+      <c r="S811" s="39">
+        <v>562</v>
+      </c>
+      <c r="T811" s="39">
+        <v>54</v>
+      </c>
+      <c r="U811" s="41" t="s">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="812" ht="14.25" spans="1:21">
+      <c r="A812">
+        <v>755</v>
+      </c>
+      <c r="B812" t="s">
+        <v>302</v>
+      </c>
+      <c r="C812" t="s">
+        <v>290</v>
+      </c>
+      <c r="N812" s="39" t="s">
+        <v>290</v>
+      </c>
+      <c r="O812" t="s">
+        <v>589</v>
+      </c>
+      <c r="P812" s="39">
+        <v>1279</v>
+      </c>
+      <c r="Q812" s="39">
+        <v>659</v>
+      </c>
+      <c r="R812" s="39">
+        <v>140</v>
+      </c>
+      <c r="S812" s="39">
+        <v>661</v>
+      </c>
+      <c r="T812" s="39">
+        <v>70</v>
+      </c>
+      <c r="U812" s="41" t="s">
+        <v>1798</v>
       </c>
     </row>
   </sheetData>
@@ -39402,7 +43348,7 @@
   <dimension ref="A1:A16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A10"/>
+      <selection activeCell="A1" sqref="A1:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
